--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A4C670-18AD-CA4A-99A1-2548A4A80E57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7AC6DE-9E13-F046-B2EA-A18452EC3FE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="2520" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="258">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -533,9 +533,6 @@
     <t>dependo.366-passeriformes</t>
   </si>
   <si>
-    <t>Cricetidae</t>
-  </si>
-  <si>
     <t>dependo.174-Pipistrellus-pipistrellus</t>
   </si>
   <si>
@@ -704,9 +701,6 @@
     <t>dependo.26-strepsirrhini</t>
   </si>
   <si>
-    <t>strepsirrhini</t>
-  </si>
-  <si>
     <t>dependo.48-mus</t>
   </si>
   <si>
@@ -716,9 +710,6 @@
     <t>dependo.180-rhinolophus</t>
   </si>
   <si>
-    <t>phyllostomidae</t>
-  </si>
-  <si>
     <t>LRRK2</t>
   </si>
   <si>
@@ -807,6 +798,15 @@
   </si>
   <si>
     <t>dependo.64-rodents</t>
+  </si>
+  <si>
+    <t>dependo.58-castor</t>
+  </si>
+  <si>
+    <t>Castor</t>
+  </si>
+  <si>
+    <t>Strepsirrhini</t>
   </si>
 </sst>
 </file>
@@ -3296,13 +3296,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DACFF6-840F-D741-97EA-4F87EFFABC86}">
-  <dimension ref="A1:FH82"/>
+  <dimension ref="A1:FH83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G36" sqref="G36:H36"/>
+      <selection pane="bottomRight" activeCell="C49" sqref="A1:AA66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3341,28 +3341,28 @@
         <v>74</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>141</v>
@@ -3424,7 +3424,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C2" s="25">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>158</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G2" s="27">
         <v>1</v>
@@ -3445,7 +3445,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>130</v>
@@ -3505,7 +3505,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3" s="25">
         <v>1</v>
@@ -3517,7 +3517,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G3" s="25">
         <v>23</v>
@@ -3526,7 +3526,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>131</v>
@@ -3585,10 +3585,10 @@
     </row>
     <row r="4" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C4" s="25">
         <v>2</v>
@@ -3600,7 +3600,7 @@
         <v>128</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G4" s="25">
         <v>8</v>
@@ -3609,7 +3609,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>130</v>
@@ -3649,10 +3649,10 @@
         <v>32913662</v>
       </c>
       <c r="W4" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X4" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Y4" s="20" t="s">
         <v>2</v>
@@ -3669,7 +3669,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" s="25">
         <v>3</v>
@@ -3681,7 +3681,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G5" s="25">
         <v>3</v>
@@ -3690,7 +3690,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>130</v>
@@ -3889,7 +3889,7 @@
         <v>112</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="25">
         <v>4</v>
@@ -3901,7 +3901,7 @@
         <v>110</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G6" s="27">
         <v>4</v>
@@ -3910,7 +3910,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>131</v>
@@ -3949,7 +3949,7 @@
         <v>27.9</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W6" s="20" t="s">
         <v>112</v>
@@ -4109,7 +4109,7 @@
         <v>111</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="25">
         <v>5</v>
@@ -4121,7 +4121,7 @@
         <v>110</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G7" s="27">
         <v>4</v>
@@ -4130,7 +4130,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>130</v>
@@ -4169,7 +4169,7 @@
         <v>27.9</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W7" s="20" t="s">
         <v>111</v>
@@ -4329,7 +4329,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="25">
         <v>6</v>
@@ -4341,7 +4341,7 @@
         <v>160</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G8" s="25">
         <v>1</v>
@@ -4350,7 +4350,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>130</v>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="U8" s="7"/>
       <c r="V8" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W8" s="20" t="s">
         <v>9</v>
@@ -4547,7 +4547,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C9" s="25">
         <v>7</v>
@@ -4559,7 +4559,7 @@
         <v>88</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G9" s="25">
         <v>1</v>
@@ -4568,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>130</v>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="U9" s="7"/>
       <c r="V9" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W9" s="20" t="s">
         <v>10</v>
@@ -4765,7 +4765,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" s="25">
         <v>8</v>
@@ -4777,7 +4777,7 @@
         <v>89</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G10" s="25">
         <v>1</v>
@@ -4786,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>130</v>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="U10" s="7"/>
       <c r="V10" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W10" s="20" t="s">
         <v>11</v>
@@ -4980,10 +4980,10 @@
     </row>
     <row r="11" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C11" s="25">
         <v>9</v>
@@ -4995,7 +4995,7 @@
         <v>161</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G11" s="25">
         <v>2</v>
@@ -5004,7 +5004,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>130</v>
@@ -5041,13 +5041,13 @@
       </c>
       <c r="U11" s="7"/>
       <c r="V11" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W11" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X11" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Y11" s="20" t="s">
         <v>2</v>
@@ -5201,7 +5201,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C12" s="25">
         <v>10</v>
@@ -5213,7 +5213,7 @@
         <v>40</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G12" s="27">
         <v>1</v>
@@ -5259,7 +5259,7 @@
       </c>
       <c r="U12" s="7"/>
       <c r="V12" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W12" s="20" t="s">
         <v>39</v>
@@ -5419,7 +5419,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C13" s="25">
         <v>11</v>
@@ -5431,7 +5431,7 @@
         <v>123</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G13" s="27">
         <v>3</v>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W13" s="20" t="s">
         <v>12</v>
@@ -5637,7 +5637,7 @@
         <v>65</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C14" s="25">
         <v>12</v>
@@ -5649,7 +5649,7 @@
         <v>86</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G14" s="25">
         <v>1</v>
@@ -5658,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>130</v>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="U14" s="7"/>
       <c r="V14" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W14" s="20" t="s">
         <v>65</v>
@@ -5855,7 +5855,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C15" s="25">
         <v>13</v>
@@ -5867,7 +5867,7 @@
         <v>87</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G15" s="27">
         <v>3</v>
@@ -5876,7 +5876,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>130</v>
@@ -5915,7 +5915,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W15" s="20" t="s">
         <v>8</v>
@@ -6075,7 +6075,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C16" s="25">
         <v>14</v>
@@ -6087,7 +6087,7 @@
         <v>87</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G16" s="27">
         <v>5</v>
@@ -6096,7 +6096,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J16" s="13" t="s">
         <v>130</v>
@@ -6135,7 +6135,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="V16" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W16" s="20" t="s">
         <v>27</v>
@@ -6295,7 +6295,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C17" s="25">
         <v>15</v>
@@ -6307,7 +6307,7 @@
         <v>106</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G17" s="27">
         <v>1</v>
@@ -6316,7 +6316,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>130</v>
@@ -6355,7 +6355,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="V17" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W17" s="20" t="s">
         <v>80</v>
@@ -6515,7 +6515,7 @@
         <v>75</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C18" s="25">
         <v>16</v>
@@ -6527,7 +6527,7 @@
         <v>90</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G18" s="27">
         <v>5</v>
@@ -6536,7 +6536,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>131</v>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="U18" s="8"/>
       <c r="V18" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W18" s="20" t="s">
         <v>75</v>
@@ -6733,7 +6733,7 @@
         <v>127</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C19" s="25">
         <v>20</v>
@@ -6745,7 +6745,7 @@
         <v>82</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G19" s="27">
         <v>13</v>
@@ -6754,7 +6754,7 @@
         <v>13</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>132</v>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="U19" s="8"/>
       <c r="V19" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W19" s="20" t="s">
         <v>127</v>
@@ -6951,7 +6951,7 @@
         <v>81</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C20" s="25">
         <v>22</v>
@@ -6963,7 +6963,7 @@
         <v>82</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G20" s="27">
         <v>73</v>
@@ -6972,7 +6972,7 @@
         <v>76</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>132</v>
@@ -7011,7 +7011,7 @@
         <v>62</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W20" s="20" t="s">
         <v>81</v>
@@ -7168,10 +7168,10 @@
     </row>
     <row r="21" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C21" s="25">
         <v>23</v>
@@ -7183,7 +7183,7 @@
         <v>91</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G21" s="27">
         <v>5</v>
@@ -7192,7 +7192,7 @@
         <v>5</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>131</v>
@@ -7234,10 +7234,10 @@
         <v>26037535</v>
       </c>
       <c r="W21" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X21" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y21" s="20" t="s">
         <v>2</v>
@@ -7388,10 +7388,10 @@
     </row>
     <row r="22" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="25">
         <v>26</v>
@@ -7400,10 +7400,10 @@
         <v>162</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G22" s="27">
         <v>7</v>
@@ -7412,7 +7412,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>131</v>
@@ -7454,10 +7454,10 @@
         <v>15085543</v>
       </c>
       <c r="W22" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X22" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Y22" s="20" t="s">
         <v>2</v>
@@ -7611,7 +7611,7 @@
         <v>64</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C23" s="25">
         <v>27</v>
@@ -7623,7 +7623,7 @@
         <v>92</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G23" s="27">
         <v>3</v>
@@ -7632,7 +7632,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>130</v>
@@ -7669,7 +7669,7 @@
       </c>
       <c r="U23" s="8"/>
       <c r="V23" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W23" s="20" t="s">
         <v>64</v>
@@ -7829,7 +7829,7 @@
         <v>78</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C24" s="25">
         <v>28</v>
@@ -7841,7 +7841,7 @@
         <v>93</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G24" s="27">
         <v>1</v>
@@ -7850,7 +7850,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>131</v>
@@ -7877,17 +7877,17 @@
         <v>118</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="T24" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U24" s="8"/>
       <c r="V24" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W24" s="20" t="s">
         <v>78</v>
@@ -8044,10 +8044,10 @@
     </row>
     <row r="25" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C25" s="25">
         <v>36</v>
@@ -8059,7 +8059,7 @@
         <v>122</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G25" s="27">
         <v>1</v>
@@ -8095,23 +8095,23 @@
         <v>118</v>
       </c>
       <c r="R25" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="S25" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="S25" s="10" t="s">
-        <v>180</v>
       </c>
       <c r="T25" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U25" s="8"/>
       <c r="V25" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W25" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X25" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Y25" s="20" t="s">
         <v>2</v>
@@ -8262,10 +8262,10 @@
     </row>
     <row r="26" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C26" s="25">
         <v>37</v>
@@ -8277,7 +8277,7 @@
         <v>156</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G26" s="25">
         <v>1</v>
@@ -8286,7 +8286,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>130</v>
@@ -8313,23 +8313,23 @@
         <v>118</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="T26" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U26" s="8"/>
       <c r="V26" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W26" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="X26" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Y26" s="20" t="s">
         <v>2</v>
@@ -8483,7 +8483,7 @@
         <v>121</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C27" s="25">
         <v>40</v>
@@ -8492,10 +8492,10 @@
         <v>21</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>227</v>
+        <v>120</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G27" s="27">
         <v>1</v>
@@ -8504,7 +8504,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>131</v>
@@ -8531,10 +8531,10 @@
         <v>118</v>
       </c>
       <c r="R27" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="T27" s="8" t="s">
         <v>43</v>
@@ -8543,7 +8543,7 @@
         <v>43</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W27" s="20" t="s">
         <v>121</v>
@@ -8703,7 +8703,7 @@
         <v>125</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C28" s="25">
         <v>42</v>
@@ -8715,7 +8715,7 @@
         <v>96</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G28" s="25">
         <v>1</v>
@@ -8724,7 +8724,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>130</v>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="U28" s="7"/>
       <c r="V28" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W28" s="20" t="s">
         <v>125</v>
@@ -8921,7 +8921,7 @@
         <v>124</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C29" s="25">
         <v>43</v>
@@ -8933,7 +8933,7 @@
         <v>126</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G29" s="25">
         <v>5</v>
@@ -8942,7 +8942,7 @@
         <v>5</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J29" s="13" t="s">
         <v>130</v>
@@ -8979,7 +8979,7 @@
       </c>
       <c r="U29" s="8"/>
       <c r="V29" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W29" s="20" t="s">
         <v>124</v>
@@ -9151,7 +9151,7 @@
         <v>104</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G30" s="27">
         <v>2</v>
@@ -9199,7 +9199,7 @@
         <v>34</v>
       </c>
       <c r="V30" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W30" s="20" t="s">
         <v>25</v>
@@ -9356,7 +9356,7 @@
     </row>
     <row r="31" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>84</v>
@@ -9371,7 +9371,7 @@
         <v>104</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G31" s="27">
         <v>2</v>
@@ -9417,13 +9417,13 @@
       </c>
       <c r="U31" s="8"/>
       <c r="V31" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W31" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="X31" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y31" s="20" t="s">
         <v>2</v>
@@ -9574,10 +9574,10 @@
     </row>
     <row r="32" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C32" s="25">
         <v>46</v>
@@ -9589,7 +9589,7 @@
         <v>17</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G32" s="25">
         <v>1</v>
@@ -9598,7 +9598,7 @@
         <v>2</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>130</v>
@@ -9635,13 +9635,13 @@
       </c>
       <c r="U32" s="8"/>
       <c r="V32" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W32" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X32" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y32" s="20" t="s">
         <v>2</v>
@@ -9792,10 +9792,10 @@
     </row>
     <row r="33" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C33" s="25">
         <v>47</v>
@@ -9804,10 +9804,10 @@
         <v>15</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G33" s="27">
         <v>1</v>
@@ -9843,10 +9843,10 @@
         <v>118</v>
       </c>
       <c r="R33" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="S33" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="T33" s="8" t="s">
         <v>43</v>
@@ -9855,13 +9855,13 @@
         <v>43</v>
       </c>
       <c r="V33" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W33" s="20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="X33" s="20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Y33" s="20" t="s">
         <v>2</v>
@@ -10012,10 +10012,10 @@
     </row>
     <row r="34" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C34" s="25">
         <v>48</v>
@@ -10027,7 +10027,7 @@
         <v>105</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>118</v>
@@ -10073,13 +10073,13 @@
       </c>
       <c r="U34" s="8"/>
       <c r="V34" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W34" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="X34" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Y34" s="20" t="s">
         <v>2</v>
@@ -10230,10 +10230,10 @@
     </row>
     <row r="35" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C35" s="25">
         <v>49</v>
@@ -10242,7 +10242,7 @@
         <v>15</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F35" s="22" t="s">
         <v>118</v>
@@ -10291,13 +10291,13 @@
       </c>
       <c r="U35" s="8"/>
       <c r="V35" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W35" s="20" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="X35" s="20" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Y35" s="20" t="s">
         <v>2</v>
@@ -10448,10 +10448,10 @@
     </row>
     <row r="36" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C36" s="25">
         <v>64</v>
@@ -10509,13 +10509,13 @@
       </c>
       <c r="U36" s="8"/>
       <c r="V36" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W36" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="X36" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Y36" s="20" t="s">
         <v>2</v>
@@ -10669,7 +10669,7 @@
         <v>129</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C37" s="25">
         <v>51</v>
@@ -10678,10 +10678,10 @@
         <v>21</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G37" s="25">
         <v>4</v>
@@ -10717,17 +10717,17 @@
         <v>118</v>
       </c>
       <c r="R37" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="S37" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="S37" s="10" t="s">
-        <v>186</v>
       </c>
       <c r="T37" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U37" s="8"/>
       <c r="V37" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W37" s="20" t="s">
         <v>129</v>
@@ -10884,10 +10884,10 @@
     </row>
     <row r="38" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C38" s="25">
         <v>53</v>
@@ -10899,7 +10899,7 @@
         <v>163</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G38" s="27">
         <v>1</v>
@@ -10945,13 +10945,13 @@
       </c>
       <c r="U38" s="8"/>
       <c r="V38" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W38" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X38" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y38" s="20" t="s">
         <v>2</v>
@@ -11102,10 +11102,10 @@
     </row>
     <row r="39" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C39" s="25">
         <v>54</v>
@@ -11117,7 +11117,7 @@
         <v>157</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G39" s="27">
         <v>3</v>
@@ -11163,13 +11163,13 @@
       </c>
       <c r="U39" s="8"/>
       <c r="V39" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W39" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X39" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Y39" s="20" t="s">
         <v>2</v>
@@ -11320,10 +11320,10 @@
     </row>
     <row r="40" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C40" s="25">
         <v>55</v>
@@ -11335,10 +11335,14 @@
         <v>17</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
+        <v>192</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>118</v>
+      </c>
       <c r="I40" s="31" t="s">
         <v>84</v>
       </c>
@@ -11377,13 +11381,13 @@
       </c>
       <c r="U40" s="8"/>
       <c r="V40" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W40" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="X40" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Y40" s="20" t="s">
         <v>2</v>
@@ -11534,10 +11538,10 @@
     </row>
     <row r="41" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C41" s="25">
         <v>56</v>
@@ -11549,7 +11553,7 @@
         <v>107</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G41" s="27">
         <v>3</v>
@@ -11558,7 +11562,7 @@
         <v>3</v>
       </c>
       <c r="I41" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J41" s="13" t="s">
         <v>130</v>
@@ -11594,13 +11598,13 @@
         <v>43</v>
       </c>
       <c r="V41" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W41" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X41" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Y41" s="20" t="s">
         <v>2</v>
@@ -11751,24 +11755,32 @@
     </row>
     <row r="42" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="B42" s="25"/>
+        <v>255</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>191</v>
+      </c>
       <c r="C42" s="25">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="F42" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
+      <c r="G42" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I42" s="31" t="s">
+        <v>84</v>
+      </c>
       <c r="J42" s="4" t="s">
         <v>43</v>
       </c>
@@ -11793,23 +11805,24 @@
       <c r="Q42" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R42" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="S42" s="10" t="s">
-        <v>242</v>
+      <c r="R42" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S42" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T42" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="U42" s="8"/>
       <c r="V42" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W42" s="20" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="X42" s="20" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="Y42" s="20" t="s">
         <v>2</v>
@@ -11960,26 +11973,32 @@
     </row>
     <row r="43" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C43" s="25">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>166</v>
+        <v>83</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="F43" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
+      <c r="G43" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>84</v>
+      </c>
       <c r="J43" s="4" t="s">
         <v>43</v>
       </c>
@@ -11998,32 +12017,29 @@
       <c r="O43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P43" s="3" t="s">
+      <c r="P43" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="Q43" s="10" t="s">
-        <v>117</v>
+      <c r="Q43" s="33" t="s">
+        <v>118</v>
       </c>
       <c r="R43" s="10" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="S43" s="10" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="T43" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U43" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="V43" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W43" s="20" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="X43" s="20" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Y43" s="20" t="s">
         <v>2</v>
@@ -12174,28 +12190,30 @@
     </row>
     <row r="44" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="B44" s="25"/>
+        <v>223</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>191</v>
+      </c>
       <c r="C44" s="25">
-        <v>69</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>15</v>
+        <v>63</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G44" s="25">
-        <v>1</v>
-      </c>
-      <c r="H44" s="25">
-        <v>1</v>
-      </c>
-      <c r="I44" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I44" s="31" t="s">
         <v>84</v>
       </c>
       <c r="J44" s="4" t="s">
@@ -12210,23 +12228,23 @@
       <c r="M44" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N44" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O44" s="14" t="s">
-        <v>22</v>
+      <c r="N44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q44" s="33" t="s">
-        <v>118</v>
+      <c r="Q44" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="R44" s="10" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="S44" s="10" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="T44" s="8" t="s">
         <v>43</v>
@@ -12235,13 +12253,13 @@
         <v>43</v>
       </c>
       <c r="V44" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W44" s="20" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="X44" s="20" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="Y44" s="20" t="s">
         <v>2</v>
@@ -12392,49 +12410,47 @@
     </row>
     <row r="45" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>192</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="B45" s="25"/>
       <c r="C45" s="25">
-        <v>86</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>21</v>
+        <v>69</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>15</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>120</v>
+        <v>241</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G45" s="25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H45" s="25">
-        <v>5</v>
-      </c>
-      <c r="I45" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>85</v>
+        <v>1</v>
+      </c>
+      <c r="I45" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N45" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O45" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>84</v>
@@ -12443,10 +12459,10 @@
         <v>118</v>
       </c>
       <c r="R45" s="10" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="S45" s="10" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="T45" s="8" t="s">
         <v>43</v>
@@ -12455,13 +12471,13 @@
         <v>43</v>
       </c>
       <c r="V45" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W45" s="20" t="s">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="X45" s="20" t="s">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="Y45" s="20" t="s">
         <v>2</v>
@@ -12612,59 +12628,61 @@
     </row>
     <row r="46" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C46" s="25">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G46" s="27">
-        <v>1</v>
-      </c>
-      <c r="H46" s="27">
-        <v>1</v>
-      </c>
-      <c r="I46" s="27"/>
-      <c r="J46" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O46" s="4" t="s">
-        <v>43</v>
+        <v>120</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G46" s="25">
+        <v>5</v>
+      </c>
+      <c r="H46" s="25">
+        <v>5</v>
+      </c>
+      <c r="I46" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q46" s="34" t="s">
-        <v>192</v>
+      <c r="Q46" s="33" t="s">
+        <v>118</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="T46" s="8" t="s">
         <v>43</v>
@@ -12673,13 +12691,13 @@
         <v>43</v>
       </c>
       <c r="V46" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W46" s="20" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="X46" s="20" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="Y46" s="20" t="s">
         <v>2</v>
@@ -12830,73 +12848,74 @@
     </row>
     <row r="47" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B47" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47" s="25">
+        <v>92</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F47" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="C47" s="25">
-        <v>160</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="G47" s="25">
+      <c r="G47" s="27">
         <v>1</v>
       </c>
-      <c r="H47" s="25">
+      <c r="H47" s="27">
         <v>1</v>
       </c>
-      <c r="I47" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="J47" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>42</v>
+      <c r="I47" s="27"/>
+      <c r="J47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q47" s="10" t="s">
-        <v>192</v>
+      <c r="Q47" s="34" t="s">
+        <v>191</v>
       </c>
       <c r="R47" s="10" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="S47" s="10" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="T47" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="U47" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="V47" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W47" s="20" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="X47" s="20" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="Y47" s="20" t="s">
         <v>2</v>
@@ -13047,76 +13066,73 @@
     </row>
     <row r="48" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C48" s="25">
-        <v>174</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G48" s="27">
+        <v>160</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G48" s="25">
         <v>1</v>
       </c>
-      <c r="H48" s="27">
+      <c r="H48" s="25">
         <v>1</v>
       </c>
       <c r="I48" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O48" s="4" t="s">
-        <v>43</v>
+        <v>191</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q48" s="33" t="s">
-        <v>118</v>
+      <c r="Q48" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="R48" s="10" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="S48" s="10" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="T48" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U48" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="V48" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="W48" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="W48" s="20" t="s">
-        <v>167</v>
-      </c>
       <c r="X48" s="20" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="Y48" s="20" t="s">
         <v>2</v>
@@ -13267,30 +13283,32 @@
     </row>
     <row r="49" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
-        <v>226</v>
+        <v>166</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C49" s="25">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D49" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G49" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" s="27">
-        <v>2</v>
-      </c>
-      <c r="I49" s="27"/>
+        <v>1</v>
+      </c>
+      <c r="I49" s="27" t="s">
+        <v>191</v>
+      </c>
       <c r="J49" s="4" t="s">
         <v>43</v>
       </c>
@@ -13316,10 +13334,10 @@
         <v>118</v>
       </c>
       <c r="R49" s="10" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="S49" s="10" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="T49" s="8" t="s">
         <v>43</v>
@@ -13328,13 +13346,13 @@
         <v>43</v>
       </c>
       <c r="V49" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W49" s="20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="X49" s="20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Y49" s="20" t="s">
         <v>2</v>
@@ -13485,49 +13503,47 @@
     </row>
     <row r="50" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C50" s="25">
-        <v>187</v>
-      </c>
-      <c r="D50" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="G50" s="25">
-        <v>1</v>
-      </c>
-      <c r="H50" s="25">
-        <v>1</v>
-      </c>
-      <c r="I50" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="J50" s="13" t="s">
-        <v>130</v>
+      <c r="E50" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G50" s="27">
+        <v>2</v>
+      </c>
+      <c r="H50" s="27">
+        <v>2</v>
+      </c>
+      <c r="I50" s="27"/>
+      <c r="J50" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L50" s="13" t="s">
-        <v>130</v>
+      <c r="L50" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N50" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O50" s="14" t="s">
-        <v>22</v>
+      <c r="N50" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P50" s="3" t="s">
         <v>84</v>
@@ -13536,10 +13552,10 @@
         <v>118</v>
       </c>
       <c r="R50" s="10" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="S50" s="10" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="T50" s="8" t="s">
         <v>43</v>
@@ -13548,13 +13564,13 @@
         <v>43</v>
       </c>
       <c r="V50" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W50" s="20" t="s">
-        <v>256</v>
+        <v>168</v>
       </c>
       <c r="X50" s="20" t="s">
-        <v>256</v>
+        <v>168</v>
       </c>
       <c r="Y50" s="20" t="s">
         <v>2</v>
@@ -13705,22 +13721,22 @@
     </row>
     <row r="51" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B51" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" s="25">
+        <v>187</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="F51" s="20" t="s">
         <v>192</v>
-      </c>
-      <c r="C51" s="25">
-        <v>190</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>193</v>
       </c>
       <c r="G51" s="25">
         <v>1</v>
@@ -13728,24 +13744,26 @@
       <c r="H51" s="25">
         <v>1</v>
       </c>
-      <c r="I51" s="25"/>
-      <c r="J51" s="4" t="s">
-        <v>43</v>
+      <c r="I51" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L51" s="4" t="s">
-        <v>43</v>
+      <c r="L51" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N51" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O51" s="4" t="s">
-        <v>43</v>
+      <c r="N51" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O51" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="P51" s="3" t="s">
         <v>84</v>
@@ -13754,23 +13772,25 @@
         <v>118</v>
       </c>
       <c r="R51" s="10" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="S51" s="10" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="T51" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U51" s="7"/>
+      <c r="U51" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="V51" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W51" s="20" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="X51" s="20" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="Y51" s="20" t="s">
         <v>2</v>
@@ -13919,15 +13939,15 @@
       <c r="FG51" s="24"/>
       <c r="FH51" s="24"/>
     </row>
-    <row r="52" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C52" s="25">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>14</v>
@@ -13936,10 +13956,14 @@
         <v>40</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
+        <v>192</v>
+      </c>
+      <c r="G52" s="25">
+        <v>1</v>
+      </c>
+      <c r="H52" s="25">
+        <v>1</v>
+      </c>
       <c r="I52" s="25"/>
       <c r="J52" s="4" t="s">
         <v>43</v>
@@ -13966,23 +13990,23 @@
         <v>118</v>
       </c>
       <c r="R52" s="10" t="s">
-        <v>72</v>
+        <v>245</v>
       </c>
       <c r="S52" s="10" t="s">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="T52" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U52" s="7"/>
       <c r="V52" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W52" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="X52" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y52" s="20" t="s">
         <v>2</v>
@@ -14133,13 +14157,13 @@
     </row>
     <row r="53" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C53" s="25">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D53" s="25" t="s">
         <v>14</v>
@@ -14148,10 +14172,14 @@
         <v>40</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
+        <v>192</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>118</v>
+      </c>
       <c r="I53" s="25"/>
       <c r="J53" s="4" t="s">
         <v>43</v>
@@ -14178,23 +14206,23 @@
         <v>118</v>
       </c>
       <c r="R53" s="10" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="S53" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T53" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U53" s="5"/>
+      <c r="U53" s="7"/>
       <c r="V53" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W53" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="X53" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Y53" s="20" t="s">
         <v>2</v>
@@ -14343,51 +14371,49 @@
       <c r="FG53" s="24"/>
       <c r="FH53" s="24"/>
     </row>
-    <row r="54" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="C54" s="25">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G54" s="29">
-        <v>1</v>
-      </c>
-      <c r="H54" s="29">
-        <v>1</v>
-      </c>
-      <c r="I54" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N54" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O54" s="14" t="s">
-        <v>22</v>
+        <v>192</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I54" s="25"/>
+      <c r="J54" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>84</v>
@@ -14395,24 +14421,24 @@
       <c r="Q54" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R54" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S54" s="11" t="s">
-        <v>43</v>
+      <c r="R54" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S54" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="T54" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U54" s="7"/>
+      <c r="U54" s="5"/>
       <c r="V54" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W54" s="20" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="X54" s="20" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="Y54" s="20" t="s">
         <v>2</v>
@@ -14561,15 +14587,15 @@
       <c r="FG54" s="24"/>
       <c r="FH54" s="24"/>
     </row>
-    <row r="55" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B55" s="25" t="s">
         <v>84</v>
       </c>
       <c r="C55" s="25">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D55" s="25" t="s">
         <v>15</v>
@@ -14578,7 +14604,7 @@
         <v>94</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G55" s="29">
         <v>1</v>
@@ -14589,17 +14615,17 @@
       <c r="I55" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="J55" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>133</v>
+      <c r="J55" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="N55" s="14" t="s">
         <v>22</v>
@@ -14622,14 +14648,15 @@
       <c r="T55" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="U55" s="7"/>
       <c r="V55" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W55" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="X55" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Y55" s="20" t="s">
         <v>2</v>
@@ -14780,13 +14807,13 @@
     </row>
     <row r="56" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B56" s="25" t="s">
         <v>84</v>
       </c>
       <c r="C56" s="25">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D56" s="25" t="s">
         <v>15</v>
@@ -14795,7 +14822,7 @@
         <v>94</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G56" s="29">
         <v>1</v>
@@ -14806,17 +14833,17 @@
       <c r="I56" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>85</v>
+      <c r="J56" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="N56" s="14" t="s">
         <v>22</v>
@@ -14830,24 +14857,23 @@
       <c r="Q56" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R56" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="S56" s="10" t="s">
-        <v>54</v>
+      <c r="R56" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S56" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T56" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U56" s="7"/>
       <c r="V56" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W56" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="X56" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Y56" s="20" t="s">
         <v>2</v>
@@ -14996,45 +15022,45 @@
       <c r="FG56" s="24"/>
       <c r="FH56" s="24"/>
     </row>
-    <row r="57" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="C57" s="25">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="23" t="s">
-        <v>147</v>
+      <c r="E57" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G57" s="27">
+        <v>192</v>
+      </c>
+      <c r="G57" s="29">
         <v>1</v>
       </c>
-      <c r="H57" s="27">
+      <c r="H57" s="29">
         <v>1</v>
       </c>
       <c r="I57" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="J57" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>43</v>
+      <c r="J57" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="N57" s="14" t="s">
         <v>22</v>
@@ -15048,26 +15074,24 @@
       <c r="Q57" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R57" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S57" s="11" t="s">
-        <v>43</v>
+      <c r="R57" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="S57" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="T57" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U57" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="U57" s="7"/>
       <c r="V57" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W57" s="20" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="X57" s="20" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="Y57" s="20" t="s">
         <v>2</v>
@@ -15218,22 +15242,22 @@
     </row>
     <row r="58" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C58" s="25">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D58" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>194</v>
+        <v>147</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="G58" s="27">
         <v>1</v>
@@ -15241,7 +15265,9 @@
       <c r="H58" s="27">
         <v>1</v>
       </c>
-      <c r="I58" s="27"/>
+      <c r="I58" s="29" t="s">
+        <v>84</v>
+      </c>
       <c r="J58" s="4" t="s">
         <v>43</v>
       </c>
@@ -15254,11 +15280,11 @@
       <c r="M58" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N58" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O58" s="4" t="s">
-        <v>43</v>
+      <c r="N58" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O58" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>84</v>
@@ -15266,11 +15292,11 @@
       <c r="Q58" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R58" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="S58" s="10" t="s">
-        <v>182</v>
+      <c r="R58" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S58" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T58" s="8" t="s">
         <v>43</v>
@@ -15279,13 +15305,13 @@
         <v>43</v>
       </c>
       <c r="V58" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W58" s="20" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="X58" s="20" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="Y58" s="20" t="s">
         <v>2</v>
@@ -15436,30 +15462,30 @@
     </row>
     <row r="59" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="C59" s="25">
-        <v>221</v>
-      </c>
-      <c r="D59" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="D59" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F59" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="G59" s="31">
+      <c r="G59" s="27">
         <v>1</v>
       </c>
-      <c r="H59" s="31">
+      <c r="H59" s="27">
         <v>1</v>
       </c>
-      <c r="I59" s="31"/>
+      <c r="I59" s="27"/>
       <c r="J59" s="4" t="s">
         <v>43</v>
       </c>
@@ -15467,16 +15493,16 @@
         <v>43</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M59" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="N59" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O59" s="14" t="s">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>84</v>
@@ -15485,10 +15511,10 @@
         <v>118</v>
       </c>
       <c r="R59" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="S59" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="T59" s="8" t="s">
         <v>43</v>
@@ -15497,13 +15523,13 @@
         <v>43</v>
       </c>
       <c r="V59" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W59" s="20" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="X59" s="20" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="Y59" s="20" t="s">
         <v>2</v>
@@ -15654,32 +15680,30 @@
     </row>
     <row r="60" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B60" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="25">
+        <v>221</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F60" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="C60" s="25">
-        <v>365</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F60" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G60" s="25">
-        <v>7</v>
-      </c>
-      <c r="H60" s="25">
-        <v>7</v>
-      </c>
-      <c r="I60" s="25" t="s">
-        <v>192</v>
-      </c>
+      <c r="G60" s="31">
+        <v>1</v>
+      </c>
+      <c r="H60" s="31">
+        <v>1</v>
+      </c>
+      <c r="I60" s="31"/>
       <c r="J60" s="4" t="s">
         <v>43</v>
       </c>
@@ -15687,10 +15711,10 @@
         <v>43</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M60" s="4" t="s">
-        <v>43</v>
+        <v>132</v>
+      </c>
+      <c r="M60" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="N60" s="14" t="s">
         <v>22</v>
@@ -15705,10 +15729,10 @@
         <v>118</v>
       </c>
       <c r="R60" s="10" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="S60" s="10" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="T60" s="8" t="s">
         <v>43</v>
@@ -15717,13 +15741,13 @@
         <v>43</v>
       </c>
       <c r="V60" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W60" s="20" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="X60" s="20" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="Y60" s="20" t="s">
         <v>2</v>
@@ -15874,13 +15898,13 @@
     </row>
     <row r="61" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C61" s="25">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D61" s="25" t="s">
         <v>14</v>
@@ -15889,16 +15913,16 @@
         <v>95</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G61" s="25">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H61" s="25">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I61" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>43</v>
@@ -15925,10 +15949,10 @@
         <v>118</v>
       </c>
       <c r="R61" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S61" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T61" s="8" t="s">
         <v>43</v>
@@ -15937,13 +15961,13 @@
         <v>43</v>
       </c>
       <c r="V61" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W61" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X61" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y61" s="20" t="s">
         <v>2</v>
@@ -16094,33 +16118,37 @@
     </row>
     <row r="62" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="B62" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C62" s="25">
+        <v>366</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F62" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="C62" s="25">
-        <v>370</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="F62" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="J62" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K62" s="21" t="s">
-        <v>139</v>
+      <c r="G62" s="25">
+        <v>20</v>
+      </c>
+      <c r="H62" s="25">
+        <v>20</v>
+      </c>
+      <c r="I62" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>43</v>
@@ -16140,24 +16168,26 @@
       <c r="Q62" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R62" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S62" s="11" t="s">
-        <v>43</v>
+      <c r="R62" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="S62" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="T62" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U62" s="7"/>
+      <c r="U62" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="V62" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W62" s="20" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="X62" s="20" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="Y62" s="20" t="s">
         <v>2</v>
@@ -16308,43 +16338,39 @@
     </row>
     <row r="63" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="B63" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="25">
+        <v>370</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F63" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="C63" s="25">
-        <v>500</v>
-      </c>
-      <c r="D63" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E63" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="F63" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G63" s="27">
-        <v>1</v>
-      </c>
-      <c r="H63" s="27">
-        <v>1</v>
-      </c>
-      <c r="I63" s="27" t="s">
-        <v>192</v>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K63" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="L63" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="M63" s="13" t="s">
-        <v>136</v>
+        <v>130</v>
+      </c>
+      <c r="K63" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="N63" s="14" t="s">
         <v>22</v>
@@ -16367,23 +16393,21 @@
       <c r="T63" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U63" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="U63" s="7"/>
       <c r="V63" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W63" s="20" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="X63" s="20" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="Y63" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z63" s="20" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="AA63" s="20" t="s">
         <v>3</v>
@@ -16528,10 +16552,10 @@
     </row>
     <row r="64" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C64" s="25">
         <v>500</v>
@@ -16543,7 +16567,7 @@
         <v>136</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G64" s="27">
         <v>1</v>
@@ -16552,7 +16576,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J64" s="13" t="s">
         <v>138</v>
@@ -16591,19 +16615,19 @@
         <v>43</v>
       </c>
       <c r="V64" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W64" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X64" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y64" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z64" s="20" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="AA64" s="20" t="s">
         <v>3</v>
@@ -16748,10 +16772,10 @@
     </row>
     <row r="65" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C65" s="25">
         <v>500</v>
@@ -16763,7 +16787,7 @@
         <v>136</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G65" s="27">
         <v>1</v>
@@ -16772,7 +16796,7 @@
         <v>1</v>
       </c>
       <c r="I65" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J65" s="13" t="s">
         <v>138</v>
@@ -16811,13 +16835,13 @@
         <v>43</v>
       </c>
       <c r="V65" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W65" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="X65" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="Y65" s="20" t="s">
         <v>2</v>
@@ -16967,6 +16991,87 @@
       <c r="FH65" s="24"/>
     </row>
     <row r="66" spans="1:164" x14ac:dyDescent="0.2">
+      <c r="A66" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" s="25">
+        <v>500</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G66" s="27">
+        <v>1</v>
+      </c>
+      <c r="H66" s="27">
+        <v>1</v>
+      </c>
+      <c r="I66" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J66" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K66" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L66" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M66" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="N66" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O66" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q66" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="R66" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S66" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T66" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U66" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V66" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="W66" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="X66" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y66" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z66" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA66" s="20" t="s">
+        <v>3</v>
+      </c>
       <c r="AB66" s="24"/>
       <c r="AC66" s="24"/>
       <c r="AD66" s="24"/>
@@ -19329,9 +19434,148 @@
       <c r="FG82" s="24"/>
       <c r="FH82" s="24"/>
     </row>
+    <row r="83" spans="28:164" x14ac:dyDescent="0.2">
+      <c r="AB83" s="24"/>
+      <c r="AC83" s="24"/>
+      <c r="AD83" s="24"/>
+      <c r="AE83" s="24"/>
+      <c r="AF83" s="24"/>
+      <c r="AG83" s="24"/>
+      <c r="AH83" s="24"/>
+      <c r="AI83" s="24"/>
+      <c r="AJ83" s="24"/>
+      <c r="AK83" s="24"/>
+      <c r="AL83" s="24"/>
+      <c r="AM83" s="24"/>
+      <c r="AN83" s="24"/>
+      <c r="AO83" s="24"/>
+      <c r="AP83" s="24"/>
+      <c r="AQ83" s="24"/>
+      <c r="AR83" s="24"/>
+      <c r="AS83" s="24"/>
+      <c r="AT83" s="24"/>
+      <c r="AU83" s="24"/>
+      <c r="AV83" s="24"/>
+      <c r="AW83" s="24"/>
+      <c r="AX83" s="24"/>
+      <c r="AY83" s="24"/>
+      <c r="AZ83" s="24"/>
+      <c r="BA83" s="24"/>
+      <c r="BB83" s="24"/>
+      <c r="BC83" s="24"/>
+      <c r="BD83" s="24"/>
+      <c r="BE83" s="24"/>
+      <c r="BF83" s="24"/>
+      <c r="BG83" s="24"/>
+      <c r="BH83" s="24"/>
+      <c r="BI83" s="24"/>
+      <c r="BJ83" s="24"/>
+      <c r="BK83" s="24"/>
+      <c r="BL83" s="24"/>
+      <c r="BM83" s="24"/>
+      <c r="BN83" s="24"/>
+      <c r="BO83" s="24"/>
+      <c r="BP83" s="24"/>
+      <c r="BQ83" s="24"/>
+      <c r="BR83" s="24"/>
+      <c r="BS83" s="24"/>
+      <c r="BT83" s="24"/>
+      <c r="BU83" s="24"/>
+      <c r="BV83" s="24"/>
+      <c r="BW83" s="24"/>
+      <c r="BX83" s="24"/>
+      <c r="BY83" s="24"/>
+      <c r="BZ83" s="24"/>
+      <c r="CA83" s="24"/>
+      <c r="CB83" s="24"/>
+      <c r="CC83" s="24"/>
+      <c r="CD83" s="24"/>
+      <c r="CE83" s="24"/>
+      <c r="CF83" s="24"/>
+      <c r="CG83" s="24"/>
+      <c r="CH83" s="24"/>
+      <c r="CI83" s="24"/>
+      <c r="CJ83" s="24"/>
+      <c r="CK83" s="24"/>
+      <c r="CL83" s="24"/>
+      <c r="CM83" s="24"/>
+      <c r="CN83" s="24"/>
+      <c r="CO83" s="24"/>
+      <c r="CP83" s="24"/>
+      <c r="CQ83" s="24"/>
+      <c r="CR83" s="24"/>
+      <c r="CS83" s="24"/>
+      <c r="CT83" s="24"/>
+      <c r="CU83" s="24"/>
+      <c r="CV83" s="24"/>
+      <c r="CW83" s="24"/>
+      <c r="CX83" s="24"/>
+      <c r="CY83" s="24"/>
+      <c r="CZ83" s="24"/>
+      <c r="DA83" s="24"/>
+      <c r="DB83" s="24"/>
+      <c r="DC83" s="24"/>
+      <c r="DD83" s="24"/>
+      <c r="DE83" s="24"/>
+      <c r="DF83" s="24"/>
+      <c r="DG83" s="24"/>
+      <c r="DH83" s="24"/>
+      <c r="DI83" s="24"/>
+      <c r="DJ83" s="24"/>
+      <c r="DK83" s="24"/>
+      <c r="DL83" s="24"/>
+      <c r="DM83" s="24"/>
+      <c r="DN83" s="24"/>
+      <c r="DO83" s="24"/>
+      <c r="DP83" s="24"/>
+      <c r="DQ83" s="24"/>
+      <c r="DR83" s="24"/>
+      <c r="DS83" s="24"/>
+      <c r="DT83" s="24"/>
+      <c r="DU83" s="24"/>
+      <c r="DV83" s="24"/>
+      <c r="DW83" s="24"/>
+      <c r="DX83" s="24"/>
+      <c r="DY83" s="24"/>
+      <c r="DZ83" s="24"/>
+      <c r="EA83" s="24"/>
+      <c r="EB83" s="24"/>
+      <c r="EC83" s="24"/>
+      <c r="ED83" s="24"/>
+      <c r="EE83" s="24"/>
+      <c r="EF83" s="24"/>
+      <c r="EG83" s="24"/>
+      <c r="EH83" s="24"/>
+      <c r="EI83" s="24"/>
+      <c r="EJ83" s="24"/>
+      <c r="EK83" s="24"/>
+      <c r="EL83" s="24"/>
+      <c r="EM83" s="24"/>
+      <c r="EN83" s="24"/>
+      <c r="EO83" s="24"/>
+      <c r="EP83" s="24"/>
+      <c r="EQ83" s="24"/>
+      <c r="ER83" s="24"/>
+      <c r="ES83" s="24"/>
+      <c r="ET83" s="24"/>
+      <c r="EU83" s="24"/>
+      <c r="EV83" s="24"/>
+      <c r="EW83" s="24"/>
+      <c r="EX83" s="24"/>
+      <c r="EY83" s="24"/>
+      <c r="EZ83" s="24"/>
+      <c r="FA83" s="24"/>
+      <c r="FB83" s="24"/>
+      <c r="FC83" s="24"/>
+      <c r="FD83" s="24"/>
+      <c r="FE83" s="24"/>
+      <c r="FF83" s="24"/>
+      <c r="FG83" s="24"/>
+      <c r="FH83" s="24"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA65">
-    <sortCondition ref="C2:C65"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA66">
+    <sortCondition ref="C2:C66"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7AC6DE-9E13-F046-B2EA-A18452EC3FE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750B57B2-D178-8047-8DFB-2DE53FC3C0A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="2520" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="268">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -807,6 +807,36 @@
   </si>
   <si>
     <t>Strepsirrhini</t>
+  </si>
+  <si>
+    <t>dependo.372-opisthocomus</t>
+  </si>
+  <si>
+    <t>Opisthocomus</t>
+  </si>
+  <si>
+    <t>CEP85L</t>
+  </si>
+  <si>
+    <t>SLC35F1</t>
+  </si>
+  <si>
+    <t>Pdzrn4</t>
+  </si>
+  <si>
+    <t>dependo.50-muridae</t>
+  </si>
+  <si>
+    <t>dependo.60-Muscardinus-avellanarius</t>
+  </si>
+  <si>
+    <t>Muscardinus</t>
+  </si>
+  <si>
+    <t>dependo.62-Muscardinus-avellanarius</t>
+  </si>
+  <si>
+    <t>dependo.61-Muscardinus-avellanarius</t>
   </si>
 </sst>
 </file>
@@ -3296,13 +3326,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DACFF6-840F-D741-97EA-4F87EFFABC86}">
-  <dimension ref="A1:FH83"/>
+  <dimension ref="A1:FH84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C49" sqref="A1:AA66"/>
+      <selection pane="bottomRight" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10448,19 +10478,19 @@
     </row>
     <row r="36" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C36" s="25">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="F36" s="22" t="s">
         <v>118</v>
@@ -10492,17 +10522,17 @@
       <c r="O36" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="P36" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q36" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R36" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S36" s="11" t="s">
-        <v>43</v>
+      <c r="R36" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="S36" s="10" t="s">
+        <v>262</v>
       </c>
       <c r="T36" s="8" t="s">
         <v>43</v>
@@ -10512,10 +10542,10 @@
         <v>216</v>
       </c>
       <c r="W36" s="20" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="X36" s="20" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="Y36" s="20" t="s">
         <v>2</v>
@@ -10666,28 +10696,28 @@
     </row>
     <row r="37" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>129</v>
+        <v>254</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C37" s="25">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>167</v>
+        <v>17</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G37" s="25">
-        <v>4</v>
-      </c>
-      <c r="H37" s="25">
-        <v>4</v>
+        <v>118</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>118</v>
       </c>
       <c r="I37" s="29" t="s">
         <v>84</v>
@@ -10704,23 +10734,23 @@
       <c r="M37" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N37" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O37" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P37" s="15" t="s">
+      <c r="N37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P37" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q37" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R37" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="S37" s="10" t="s">
-        <v>185</v>
+      <c r="R37" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S37" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T37" s="8" t="s">
         <v>43</v>
@@ -10730,10 +10760,10 @@
         <v>216</v>
       </c>
       <c r="W37" s="20" t="s">
-        <v>129</v>
+        <v>254</v>
       </c>
       <c r="X37" s="20" t="s">
-        <v>129</v>
+        <v>254</v>
       </c>
       <c r="Y37" s="20" t="s">
         <v>2</v>
@@ -10884,43 +10914,43 @@
     </row>
     <row r="38" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C38" s="25">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>163</v>
+        <v>21</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>167</v>
       </c>
       <c r="F38" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G38" s="27">
-        <v>1</v>
-      </c>
-      <c r="H38" s="27">
-        <v>1</v>
-      </c>
-      <c r="I38" s="31" t="s">
+      <c r="G38" s="25">
+        <v>4</v>
+      </c>
+      <c r="H38" s="25">
+        <v>4</v>
+      </c>
+      <c r="I38" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="J38" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K38" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="L38" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="M38" s="16" t="s">
-        <v>108</v>
+      <c r="J38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="N38" s="14" t="s">
         <v>22</v>
@@ -10934,11 +10964,11 @@
       <c r="Q38" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R38" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S38" s="11" t="s">
-        <v>43</v>
+      <c r="R38" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="S38" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="T38" s="8" t="s">
         <v>43</v>
@@ -10948,10 +10978,10 @@
         <v>216</v>
       </c>
       <c r="W38" s="20" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="X38" s="20" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="Y38" s="20" t="s">
         <v>2</v>
@@ -11102,28 +11132,28 @@
     </row>
     <row r="39" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B39" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C39" s="25">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="F39" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" s="22" t="s">
         <v>192</v>
       </c>
       <c r="G39" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H39" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39" s="31" t="s">
         <v>84</v>
@@ -11132,19 +11162,19 @@
         <v>130</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L39" s="13" t="s">
         <v>130</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>43</v>
+        <v>108</v>
+      </c>
+      <c r="N39" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O39" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="P39" s="15" t="s">
         <v>84</v>
@@ -11152,11 +11182,11 @@
       <c r="Q39" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R39" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="S39" s="10" t="s">
-        <v>41</v>
+      <c r="R39" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S39" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T39" s="8" t="s">
         <v>43</v>
@@ -11166,10 +11196,10 @@
         <v>216</v>
       </c>
       <c r="W39" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X39" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y39" s="20" t="s">
         <v>2</v>
@@ -11320,61 +11350,61 @@
     </row>
     <row r="40" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B40" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C40" s="25">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="G40" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>118</v>
+      <c r="G40" s="27">
+        <v>3</v>
+      </c>
+      <c r="H40" s="27">
+        <v>3</v>
       </c>
       <c r="I40" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="J40" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N40" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O40" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P40" s="9" t="s">
+      <c r="J40" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="L40" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M40" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P40" s="15" t="s">
         <v>84</v>
       </c>
       <c r="Q40" s="33" t="s">
         <v>118</v>
       </c>
       <c r="R40" s="10" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="T40" s="8" t="s">
         <v>43</v>
@@ -11384,10 +11414,10 @@
         <v>216</v>
       </c>
       <c r="W40" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X40" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Y40" s="20" t="s">
         <v>2</v>
@@ -11538,43 +11568,43 @@
     </row>
     <row r="41" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B41" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C41" s="25">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="F41" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G41" s="27">
-        <v>3</v>
-      </c>
-      <c r="H41" s="27">
-        <v>3</v>
-      </c>
-      <c r="I41" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="J41" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K41" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="L41" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="M41" s="16" t="s">
-        <v>108</v>
+      <c r="G41" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="N41" s="14" t="s">
         <v>22</v>
@@ -11582,29 +11612,30 @@
       <c r="O41" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P41" s="15" t="s">
+      <c r="P41" s="9" t="s">
         <v>84</v>
       </c>
       <c r="Q41" s="33" t="s">
         <v>118</v>
       </c>
       <c r="R41" s="10" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="S41" s="10" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="T41" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="U41" s="8"/>
       <c r="V41" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W41" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="X41" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Y41" s="20" t="s">
         <v>2</v>
@@ -11755,49 +11786,49 @@
     </row>
     <row r="42" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="B42" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C42" s="25">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>256</v>
+        <v>107</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="G42" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="H42" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="I42" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>43</v>
+        <v>192</v>
+      </c>
+      <c r="G42" s="27">
+        <v>3</v>
+      </c>
+      <c r="H42" s="27">
+        <v>3</v>
+      </c>
+      <c r="I42" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M42" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="N42" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O42" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="P42" s="15" t="s">
         <v>84</v>
@@ -11805,24 +11836,23 @@
       <c r="Q42" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R42" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S42" s="11" t="s">
-        <v>43</v>
+      <c r="R42" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="S42" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="T42" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U42" s="8"/>
       <c r="V42" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W42" s="20" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="X42" s="20" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="Y42" s="20" t="s">
         <v>2</v>
@@ -11973,19 +12003,19 @@
     </row>
     <row r="43" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="B43" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C43" s="25">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="F43" s="22" t="s">
         <v>118</v>
@@ -12023,23 +12053,24 @@
       <c r="Q43" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R43" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="S43" s="10" t="s">
-        <v>239</v>
+      <c r="R43" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S43" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T43" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="U43" s="8"/>
       <c r="V43" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W43" s="20" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="X43" s="20" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="Y43" s="20" t="s">
         <v>2</v>
@@ -12190,19 +12221,19 @@
     </row>
     <row r="44" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B44" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C44" s="25">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>17</v>
+        <v>83</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="F44" s="22" t="s">
         <v>118</v>
@@ -12234,32 +12265,29 @@
       <c r="O44" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="P44" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="Q44" s="10" t="s">
-        <v>117</v>
+      <c r="Q44" s="33" t="s">
+        <v>118</v>
       </c>
       <c r="R44" s="10" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="S44" s="10" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="T44" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U44" s="8" t="s">
         <v>43</v>
       </c>
       <c r="V44" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W44" s="20" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="X44" s="20" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Y44" s="20" t="s">
         <v>2</v>
@@ -12410,28 +12438,30 @@
     </row>
     <row r="45" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="B45" s="25"/>
+        <v>223</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>191</v>
+      </c>
       <c r="C45" s="25">
-        <v>69</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>15</v>
+        <v>63</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G45" s="25">
-        <v>1</v>
-      </c>
-      <c r="H45" s="25">
-        <v>1</v>
-      </c>
-      <c r="I45" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I45" s="31" t="s">
         <v>84</v>
       </c>
       <c r="J45" s="4" t="s">
@@ -12446,23 +12476,23 @@
       <c r="M45" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N45" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O45" s="14" t="s">
-        <v>22</v>
+      <c r="N45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q45" s="33" t="s">
-        <v>118</v>
+      <c r="Q45" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="R45" s="10" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="S45" s="10" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="T45" s="8" t="s">
         <v>43</v>
@@ -12474,10 +12504,10 @@
         <v>216</v>
       </c>
       <c r="W45" s="20" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="X45" s="20" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="Y45" s="20" t="s">
         <v>2</v>
@@ -12628,49 +12658,47 @@
     </row>
     <row r="46" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>191</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="B46" s="25"/>
       <c r="C46" s="25">
-        <v>86</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>21</v>
+        <v>69</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>15</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>120</v>
+        <v>241</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>172</v>
       </c>
       <c r="G46" s="25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H46" s="25">
-        <v>5</v>
-      </c>
-      <c r="I46" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>85</v>
+        <v>1</v>
+      </c>
+      <c r="I46" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N46" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O46" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>84</v>
@@ -12679,10 +12707,10 @@
         <v>118</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="T46" s="8" t="s">
         <v>43</v>
@@ -12694,10 +12722,10 @@
         <v>216</v>
       </c>
       <c r="W46" s="20" t="s">
-        <v>175</v>
+        <v>240</v>
       </c>
       <c r="X46" s="20" t="s">
-        <v>175</v>
+        <v>240</v>
       </c>
       <c r="Y46" s="20" t="s">
         <v>2</v>
@@ -12848,59 +12876,61 @@
     </row>
     <row r="47" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="B47" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C47" s="25">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G47" s="27">
-        <v>1</v>
-      </c>
-      <c r="H47" s="27">
-        <v>1</v>
-      </c>
-      <c r="I47" s="27"/>
-      <c r="J47" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N47" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O47" s="4" t="s">
-        <v>43</v>
+        <v>120</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" s="25">
+        <v>5</v>
+      </c>
+      <c r="H47" s="25">
+        <v>5</v>
+      </c>
+      <c r="I47" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q47" s="34" t="s">
-        <v>191</v>
+      <c r="Q47" s="33" t="s">
+        <v>118</v>
       </c>
       <c r="R47" s="10" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="S47" s="10" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="T47" s="8" t="s">
         <v>43</v>
@@ -12912,10 +12942,10 @@
         <v>216</v>
       </c>
       <c r="W47" s="20" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="X47" s="20" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="Y47" s="20" t="s">
         <v>2</v>
@@ -13066,73 +13096,74 @@
     </row>
     <row r="48" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B48" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C48" s="25">
-        <v>160</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>40</v>
+        <v>92</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>159</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="G48" s="25">
+        <v>192</v>
+      </c>
+      <c r="G48" s="27">
         <v>1</v>
       </c>
-      <c r="H48" s="25">
+      <c r="H48" s="27">
         <v>1</v>
       </c>
-      <c r="I48" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="J48" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>42</v>
+      <c r="I48" s="27"/>
+      <c r="J48" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q48" s="10" t="s">
+      <c r="Q48" s="34" t="s">
         <v>191</v>
       </c>
       <c r="R48" s="10" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="S48" s="10" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="T48" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U48" s="8" t="s">
         <v>43</v>
       </c>
       <c r="V48" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W48" s="20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="X48" s="20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Y48" s="20" t="s">
         <v>2</v>
@@ -13283,76 +13314,73 @@
     </row>
     <row r="49" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="B49" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C49" s="25">
-        <v>174</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="F49" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="G49" s="27">
+      <c r="G49" s="25">
         <v>1</v>
       </c>
-      <c r="H49" s="27">
+      <c r="H49" s="25">
         <v>1</v>
       </c>
       <c r="I49" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="J49" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N49" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O49" s="4" t="s">
-        <v>43</v>
+      <c r="J49" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q49" s="33" t="s">
-        <v>118</v>
+      <c r="Q49" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="R49" s="10" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="S49" s="10" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="T49" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U49" s="8" t="s">
         <v>43</v>
       </c>
       <c r="V49" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W49" s="20" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="X49" s="20" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="Y49" s="20" t="s">
         <v>2</v>
@@ -13503,30 +13531,32 @@
     </row>
     <row r="50" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="B50" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C50" s="25">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D50" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>172</v>
       </c>
       <c r="G50" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" s="27">
-        <v>2</v>
-      </c>
-      <c r="I50" s="27"/>
+        <v>1</v>
+      </c>
+      <c r="I50" s="27" t="s">
+        <v>191</v>
+      </c>
       <c r="J50" s="4" t="s">
         <v>43</v>
       </c>
@@ -13552,10 +13582,10 @@
         <v>118</v>
       </c>
       <c r="R50" s="10" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="S50" s="10" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="T50" s="8" t="s">
         <v>43</v>
@@ -13567,10 +13597,10 @@
         <v>216</v>
       </c>
       <c r="W50" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="X50" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Y50" s="20" t="s">
         <v>2</v>
@@ -13721,49 +13751,49 @@
     </row>
     <row r="51" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="B51" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C51" s="25">
-        <v>187</v>
-      </c>
-      <c r="D51" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D51" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="G51" s="25">
-        <v>1</v>
-      </c>
-      <c r="H51" s="25">
-        <v>1</v>
-      </c>
-      <c r="I51" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="J51" s="13" t="s">
-        <v>130</v>
+      <c r="E51" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G51" s="27">
+        <v>2</v>
+      </c>
+      <c r="H51" s="27">
+        <v>2</v>
+      </c>
+      <c r="I51" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L51" s="13" t="s">
-        <v>130</v>
+      <c r="L51" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N51" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O51" s="14" t="s">
-        <v>22</v>
+      <c r="N51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P51" s="3" t="s">
         <v>84</v>
@@ -13772,10 +13802,10 @@
         <v>118</v>
       </c>
       <c r="R51" s="10" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="S51" s="10" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="T51" s="8" t="s">
         <v>43</v>
@@ -13787,10 +13817,10 @@
         <v>216</v>
       </c>
       <c r="W51" s="20" t="s">
-        <v>253</v>
+        <v>168</v>
       </c>
       <c r="X51" s="20" t="s">
-        <v>253</v>
+        <v>168</v>
       </c>
       <c r="Y51" s="20" t="s">
         <v>2</v>
@@ -13941,21 +13971,21 @@
     </row>
     <row r="52" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B52" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C52" s="25">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="F52" s="20" t="s">
         <v>192</v>
       </c>
       <c r="G52" s="25">
@@ -13964,24 +13994,26 @@
       <c r="H52" s="25">
         <v>1</v>
       </c>
-      <c r="I52" s="25"/>
-      <c r="J52" s="4" t="s">
-        <v>43</v>
+      <c r="I52" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L52" s="4" t="s">
-        <v>43</v>
+      <c r="L52" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N52" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O52" s="4" t="s">
-        <v>43</v>
+      <c r="N52" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O52" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>84</v>
@@ -13990,23 +14022,25 @@
         <v>118</v>
       </c>
       <c r="R52" s="10" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="S52" s="10" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="T52" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U52" s="7"/>
+      <c r="U52" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="V52" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W52" s="20" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="X52" s="20" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="Y52" s="20" t="s">
         <v>2</v>
@@ -14155,15 +14189,15 @@
       <c r="FG52" s="24"/>
       <c r="FH52" s="24"/>
     </row>
-    <row r="53" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="B53" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C53" s="25">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D53" s="25" t="s">
         <v>14</v>
@@ -14174,11 +14208,11 @@
       <c r="F53" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G53" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="H53" s="25" t="s">
-        <v>118</v>
+      <c r="G53" s="25">
+        <v>1</v>
+      </c>
+      <c r="H53" s="25">
+        <v>1</v>
       </c>
       <c r="I53" s="25"/>
       <c r="J53" s="4" t="s">
@@ -14206,10 +14240,10 @@
         <v>118</v>
       </c>
       <c r="R53" s="10" t="s">
-        <v>72</v>
+        <v>245</v>
       </c>
       <c r="S53" s="10" t="s">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="T53" s="8" t="s">
         <v>43</v>
@@ -14373,13 +14407,13 @@
     </row>
     <row r="54" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B54" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C54" s="25">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D54" s="25" t="s">
         <v>14</v>
@@ -14422,23 +14456,23 @@
         <v>118</v>
       </c>
       <c r="R54" s="10" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="S54" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T54" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U54" s="5"/>
+      <c r="U54" s="7"/>
       <c r="V54" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W54" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="X54" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y54" s="20" t="s">
         <v>2</v>
@@ -14587,51 +14621,49 @@
       <c r="FG54" s="24"/>
       <c r="FH54" s="24"/>
     </row>
-    <row r="55" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="C55" s="25">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="F55" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G55" s="29">
-        <v>1</v>
-      </c>
-      <c r="H55" s="29">
-        <v>1</v>
-      </c>
-      <c r="I55" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N55" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O55" s="14" t="s">
-        <v>22</v>
+      <c r="G55" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H55" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I55" s="25"/>
+      <c r="J55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P55" s="3" t="s">
         <v>84</v>
@@ -14639,24 +14671,24 @@
       <c r="Q55" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R55" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S55" s="11" t="s">
-        <v>43</v>
+      <c r="R55" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S55" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="T55" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U55" s="7"/>
+      <c r="U55" s="5"/>
       <c r="V55" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W55" s="20" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="X55" s="20" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="Y55" s="20" t="s">
         <v>2</v>
@@ -14805,15 +14837,15 @@
       <c r="FG55" s="24"/>
       <c r="FH55" s="24"/>
     </row>
-    <row r="56" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B56" s="25" t="s">
         <v>84</v>
       </c>
       <c r="C56" s="25">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D56" s="25" t="s">
         <v>15</v>
@@ -14833,17 +14865,17 @@
       <c r="I56" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="J56" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>133</v>
+      <c r="J56" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="N56" s="14" t="s">
         <v>22</v>
@@ -14866,14 +14898,15 @@
       <c r="T56" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="U56" s="7"/>
       <c r="V56" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W56" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X56" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y56" s="20" t="s">
         <v>2</v>
@@ -15024,13 +15057,13 @@
     </row>
     <row r="57" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B57" s="25" t="s">
         <v>84</v>
       </c>
       <c r="C57" s="25">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>15</v>
@@ -15050,17 +15083,17 @@
       <c r="I57" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>85</v>
+      <c r="J57" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="N57" s="14" t="s">
         <v>22</v>
@@ -15074,24 +15107,23 @@
       <c r="Q57" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R57" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="S57" s="10" t="s">
-        <v>54</v>
+      <c r="R57" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S57" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T57" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U57" s="7"/>
       <c r="V57" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W57" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X57" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y57" s="20" t="s">
         <v>2</v>
@@ -15240,45 +15272,45 @@
       <c r="FG57" s="24"/>
       <c r="FH57" s="24"/>
     </row>
-    <row r="58" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="C58" s="25">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D58" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="23" t="s">
-        <v>147</v>
+      <c r="E58" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="F58" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G58" s="27">
+      <c r="G58" s="29">
         <v>1</v>
       </c>
-      <c r="H58" s="27">
+      <c r="H58" s="29">
         <v>1</v>
       </c>
       <c r="I58" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="J58" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>43</v>
+      <c r="J58" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="N58" s="14" t="s">
         <v>22</v>
@@ -15292,26 +15324,24 @@
       <c r="Q58" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R58" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S58" s="11" t="s">
-        <v>43</v>
+      <c r="R58" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="S58" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="T58" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U58" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="U58" s="7"/>
       <c r="V58" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W58" s="20" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="X58" s="20" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="Y58" s="20" t="s">
         <v>2</v>
@@ -15462,22 +15492,22 @@
     </row>
     <row r="59" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B59" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C59" s="25">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D59" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>193</v>
+        <v>147</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="G59" s="27">
         <v>1</v>
@@ -15485,7 +15515,9 @@
       <c r="H59" s="27">
         <v>1</v>
       </c>
-      <c r="I59" s="27"/>
+      <c r="I59" s="29" t="s">
+        <v>84</v>
+      </c>
       <c r="J59" s="4" t="s">
         <v>43</v>
       </c>
@@ -15498,11 +15530,11 @@
       <c r="M59" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N59" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O59" s="4" t="s">
-        <v>43</v>
+      <c r="N59" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O59" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>84</v>
@@ -15510,11 +15542,11 @@
       <c r="Q59" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R59" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="S59" s="10" t="s">
-        <v>181</v>
+      <c r="R59" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S59" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T59" s="8" t="s">
         <v>43</v>
@@ -15526,10 +15558,10 @@
         <v>216</v>
       </c>
       <c r="W59" s="20" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="X59" s="20" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="Y59" s="20" t="s">
         <v>2</v>
@@ -15680,30 +15712,32 @@
     </row>
     <row r="60" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="C60" s="25">
-        <v>221</v>
-      </c>
-      <c r="D60" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="D60" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F60" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G60" s="31">
+        <v>146</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G60" s="27">
         <v>1</v>
       </c>
-      <c r="H60" s="31">
+      <c r="H60" s="27">
         <v>1</v>
       </c>
-      <c r="I60" s="31"/>
+      <c r="I60" s="25" t="s">
+        <v>191</v>
+      </c>
       <c r="J60" s="4" t="s">
         <v>43</v>
       </c>
@@ -15711,16 +15745,16 @@
         <v>43</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M60" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="N60" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O60" s="14" t="s">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>84</v>
@@ -15729,10 +15763,10 @@
         <v>118</v>
       </c>
       <c r="R60" s="10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="S60" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="T60" s="8" t="s">
         <v>43</v>
@@ -15744,10 +15778,10 @@
         <v>216</v>
       </c>
       <c r="W60" s="20" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="X60" s="20" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="Y60" s="20" t="s">
         <v>2</v>
@@ -15898,28 +15932,28 @@
     </row>
     <row r="61" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="C61" s="25">
-        <v>365</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>95</v>
+        <v>221</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>153</v>
       </c>
       <c r="F61" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G61" s="25">
-        <v>7</v>
-      </c>
-      <c r="H61" s="25">
-        <v>7</v>
+      <c r="G61" s="27">
+        <v>1</v>
+      </c>
+      <c r="H61" s="27">
+        <v>1</v>
       </c>
       <c r="I61" s="25" t="s">
         <v>191</v>
@@ -15931,10 +15965,10 @@
         <v>43</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>43</v>
+        <v>132</v>
+      </c>
+      <c r="M61" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="N61" s="14" t="s">
         <v>22</v>
@@ -15949,10 +15983,10 @@
         <v>118</v>
       </c>
       <c r="R61" s="10" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="S61" s="10" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="T61" s="8" t="s">
         <v>43</v>
@@ -15964,10 +15998,10 @@
         <v>216</v>
       </c>
       <c r="W61" s="20" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="X61" s="20" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="Y61" s="20" t="s">
         <v>2</v>
@@ -16118,13 +16152,13 @@
     </row>
     <row r="62" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B62" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C62" s="25">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>14</v>
@@ -16136,10 +16170,10 @@
         <v>192</v>
       </c>
       <c r="G62" s="25">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H62" s="25">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I62" s="25" t="s">
         <v>191</v>
@@ -16169,10 +16203,10 @@
         <v>118</v>
       </c>
       <c r="R62" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S62" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T62" s="8" t="s">
         <v>43</v>
@@ -16184,10 +16218,10 @@
         <v>216</v>
       </c>
       <c r="W62" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X62" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y62" s="20" t="s">
         <v>2</v>
@@ -16338,33 +16372,37 @@
     </row>
     <row r="63" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="B63" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C63" s="25">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="23" t="s">
-        <v>145</v>
+        <v>14</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="F63" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="J63" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K63" s="21" t="s">
-        <v>139</v>
+      <c r="G63" s="25">
+        <v>20</v>
+      </c>
+      <c r="H63" s="25">
+        <v>20</v>
+      </c>
+      <c r="I63" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>43</v>
@@ -16384,24 +16422,26 @@
       <c r="Q63" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R63" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S63" s="11" t="s">
-        <v>43</v>
+      <c r="R63" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="S63" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="T63" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U63" s="7"/>
+      <c r="U63" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="V63" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W63" s="20" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="X63" s="20" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="Y63" s="20" t="s">
         <v>2</v>
@@ -16552,19 +16592,19 @@
     </row>
     <row r="64" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="B64" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C64" s="25">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F64" s="22" t="s">
         <v>192</v>
@@ -16575,20 +16615,20 @@
       <c r="H64" s="27">
         <v>1</v>
       </c>
-      <c r="I64" s="27" t="s">
+      <c r="I64" s="25" t="s">
         <v>191</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K64" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="L64" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="M64" s="13" t="s">
-        <v>136</v>
+        <v>130</v>
+      </c>
+      <c r="K64" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="N64" s="14" t="s">
         <v>22</v>
@@ -16611,23 +16651,21 @@
       <c r="T64" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U64" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="U64" s="7"/>
       <c r="V64" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W64" s="20" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="X64" s="20" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="Y64" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z64" s="20" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="AA64" s="20" t="s">
         <v>3</v>
@@ -16772,49 +16810,49 @@
     </row>
     <row r="65" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="B65" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C65" s="25">
-        <v>500</v>
+        <v>372</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>136</v>
+        <v>259</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G65" s="27">
-        <v>1</v>
-      </c>
-      <c r="H65" s="27">
-        <v>1</v>
-      </c>
-      <c r="I65" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="J65" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K65" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="L65" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="M65" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="N65" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O65" s="14" t="s">
-        <v>22</v>
+        <v>118</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H65" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I65" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P65" s="3" t="s">
         <v>84</v>
@@ -16822,26 +16860,24 @@
       <c r="Q65" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R65" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S65" s="11" t="s">
-        <v>43</v>
+      <c r="R65" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="S65" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="T65" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U65" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="U65" s="7"/>
       <c r="V65" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W65" s="20" t="s">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="X65" s="20" t="s">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="Y65" s="20" t="s">
         <v>2</v>
@@ -16852,147 +16888,10 @@
       <c r="AA65" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AB65" s="24"/>
-      <c r="AC65" s="24"/>
-      <c r="AD65" s="24"/>
-      <c r="AE65" s="24"/>
-      <c r="AF65" s="24"/>
-      <c r="AG65" s="24"/>
-      <c r="AH65" s="24"/>
-      <c r="AI65" s="24"/>
-      <c r="AJ65" s="24"/>
-      <c r="AK65" s="24"/>
-      <c r="AL65" s="24"/>
-      <c r="AM65" s="24"/>
-      <c r="AN65" s="24"/>
-      <c r="AO65" s="24"/>
-      <c r="AP65" s="24"/>
-      <c r="AQ65" s="24"/>
-      <c r="AR65" s="24"/>
-      <c r="AS65" s="24"/>
-      <c r="AT65" s="24"/>
-      <c r="AU65" s="24"/>
-      <c r="AV65" s="24"/>
-      <c r="AW65" s="24"/>
-      <c r="AX65" s="24"/>
-      <c r="AY65" s="24"/>
-      <c r="AZ65" s="24"/>
-      <c r="BA65" s="24"/>
-      <c r="BB65" s="24"/>
-      <c r="BC65" s="24"/>
-      <c r="BD65" s="24"/>
-      <c r="BE65" s="24"/>
-      <c r="BF65" s="24"/>
-      <c r="BG65" s="24"/>
-      <c r="BH65" s="24"/>
-      <c r="BI65" s="24"/>
-      <c r="BJ65" s="24"/>
-      <c r="BK65" s="24"/>
-      <c r="BL65" s="24"/>
-      <c r="BM65" s="24"/>
-      <c r="BN65" s="24"/>
-      <c r="BO65" s="24"/>
-      <c r="BP65" s="24"/>
-      <c r="BQ65" s="24"/>
-      <c r="BR65" s="24"/>
-      <c r="BS65" s="24"/>
-      <c r="BT65" s="24"/>
-      <c r="BU65" s="24"/>
-      <c r="BV65" s="24"/>
-      <c r="BW65" s="24"/>
-      <c r="BX65" s="24"/>
-      <c r="BY65" s="24"/>
-      <c r="BZ65" s="24"/>
-      <c r="CA65" s="24"/>
-      <c r="CB65" s="24"/>
-      <c r="CC65" s="24"/>
-      <c r="CD65" s="24"/>
-      <c r="CE65" s="24"/>
-      <c r="CF65" s="24"/>
-      <c r="CG65" s="24"/>
-      <c r="CH65" s="24"/>
-      <c r="CI65" s="24"/>
-      <c r="CJ65" s="24"/>
-      <c r="CK65" s="24"/>
-      <c r="CL65" s="24"/>
-      <c r="CM65" s="24"/>
-      <c r="CN65" s="24"/>
-      <c r="CO65" s="24"/>
-      <c r="CP65" s="24"/>
-      <c r="CQ65" s="24"/>
-      <c r="CR65" s="24"/>
-      <c r="CS65" s="24"/>
-      <c r="CT65" s="24"/>
-      <c r="CU65" s="24"/>
-      <c r="CV65" s="24"/>
-      <c r="CW65" s="24"/>
-      <c r="CX65" s="24"/>
-      <c r="CY65" s="24"/>
-      <c r="CZ65" s="24"/>
-      <c r="DA65" s="24"/>
-      <c r="DB65" s="24"/>
-      <c r="DC65" s="24"/>
-      <c r="DD65" s="24"/>
-      <c r="DE65" s="24"/>
-      <c r="DF65" s="24"/>
-      <c r="DG65" s="24"/>
-      <c r="DH65" s="24"/>
-      <c r="DI65" s="24"/>
-      <c r="DJ65" s="24"/>
-      <c r="DK65" s="24"/>
-      <c r="DL65" s="24"/>
-      <c r="DM65" s="24"/>
-      <c r="DN65" s="24"/>
-      <c r="DO65" s="24"/>
-      <c r="DP65" s="24"/>
-      <c r="DQ65" s="24"/>
-      <c r="DR65" s="24"/>
-      <c r="DS65" s="24"/>
-      <c r="DT65" s="24"/>
-      <c r="DU65" s="24"/>
-      <c r="DV65" s="24"/>
-      <c r="DW65" s="24"/>
-      <c r="DX65" s="24"/>
-      <c r="DY65" s="24"/>
-      <c r="DZ65" s="24"/>
-      <c r="EA65" s="24"/>
-      <c r="EB65" s="24"/>
-      <c r="EC65" s="24"/>
-      <c r="ED65" s="24"/>
-      <c r="EE65" s="24"/>
-      <c r="EF65" s="24"/>
-      <c r="EG65" s="24"/>
-      <c r="EH65" s="24"/>
-      <c r="EI65" s="24"/>
-      <c r="EJ65" s="24"/>
-      <c r="EK65" s="24"/>
-      <c r="EL65" s="24"/>
-      <c r="EM65" s="24"/>
-      <c r="EN65" s="24"/>
-      <c r="EO65" s="24"/>
-      <c r="EP65" s="24"/>
-      <c r="EQ65" s="24"/>
-      <c r="ER65" s="24"/>
-      <c r="ES65" s="24"/>
-      <c r="ET65" s="24"/>
-      <c r="EU65" s="24"/>
-      <c r="EV65" s="24"/>
-      <c r="EW65" s="24"/>
-      <c r="EX65" s="24"/>
-      <c r="EY65" s="24"/>
-      <c r="EZ65" s="24"/>
-      <c r="FA65" s="24"/>
-      <c r="FB65" s="24"/>
-      <c r="FC65" s="24"/>
-      <c r="FD65" s="24"/>
-      <c r="FE65" s="24"/>
-      <c r="FF65" s="24"/>
-      <c r="FG65" s="24"/>
-      <c r="FH65" s="24"/>
     </row>
     <row r="66" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B66" s="25" t="s">
         <v>191</v>
@@ -17058,16 +16957,16 @@
         <v>216</v>
       </c>
       <c r="W66" s="20" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="X66" s="20" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="Y66" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z66" s="20" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="AA66" s="20" t="s">
         <v>3</v>
@@ -17211,6 +17110,87 @@
       <c r="FH66" s="24"/>
     </row>
     <row r="67" spans="1:164" x14ac:dyDescent="0.2">
+      <c r="A67" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C67" s="25">
+        <v>500</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G67" s="27">
+        <v>1</v>
+      </c>
+      <c r="H67" s="27">
+        <v>1</v>
+      </c>
+      <c r="I67" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J67" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M67" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="N67" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O67" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P67" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q67" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="R67" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S67" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T67" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U67" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V67" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="W67" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="X67" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y67" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z67" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA67" s="20" t="s">
+        <v>3</v>
+      </c>
       <c r="AB67" s="24"/>
       <c r="AC67" s="24"/>
       <c r="AD67" s="24"/>
@@ -17350,6 +17330,87 @@
       <c r="FH67" s="24"/>
     </row>
     <row r="68" spans="1:164" x14ac:dyDescent="0.2">
+      <c r="A68" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C68" s="25">
+        <v>500</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G68" s="27">
+        <v>1</v>
+      </c>
+      <c r="H68" s="27">
+        <v>1</v>
+      </c>
+      <c r="I68" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K68" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L68" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M68" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="N68" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O68" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q68" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="R68" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S68" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T68" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U68" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V68" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="W68" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="X68" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y68" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z68" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA68" s="20" t="s">
+        <v>3</v>
+      </c>
       <c r="AB68" s="24"/>
       <c r="AC68" s="24"/>
       <c r="AD68" s="24"/>
@@ -17489,421 +17550,253 @@
       <c r="FH68" s="24"/>
     </row>
     <row r="69" spans="1:164" x14ac:dyDescent="0.2">
-      <c r="AB69" s="24"/>
-      <c r="AC69" s="24"/>
-      <c r="AD69" s="24"/>
-      <c r="AE69" s="24"/>
-      <c r="AF69" s="24"/>
-      <c r="AG69" s="24"/>
-      <c r="AH69" s="24"/>
-      <c r="AI69" s="24"/>
-      <c r="AJ69" s="24"/>
-      <c r="AK69" s="24"/>
-      <c r="AL69" s="24"/>
-      <c r="AM69" s="24"/>
-      <c r="AN69" s="24"/>
-      <c r="AO69" s="24"/>
-      <c r="AP69" s="24"/>
-      <c r="AQ69" s="24"/>
-      <c r="AR69" s="24"/>
-      <c r="AS69" s="24"/>
-      <c r="AT69" s="24"/>
-      <c r="AU69" s="24"/>
-      <c r="AV69" s="24"/>
-      <c r="AW69" s="24"/>
-      <c r="AX69" s="24"/>
-      <c r="AY69" s="24"/>
-      <c r="AZ69" s="24"/>
-      <c r="BA69" s="24"/>
-      <c r="BB69" s="24"/>
-      <c r="BC69" s="24"/>
-      <c r="BD69" s="24"/>
-      <c r="BE69" s="24"/>
-      <c r="BF69" s="24"/>
-      <c r="BG69" s="24"/>
-      <c r="BH69" s="24"/>
-      <c r="BI69" s="24"/>
-      <c r="BJ69" s="24"/>
-      <c r="BK69" s="24"/>
-      <c r="BL69" s="24"/>
-      <c r="BM69" s="24"/>
-      <c r="BN69" s="24"/>
-      <c r="BO69" s="24"/>
-      <c r="BP69" s="24"/>
-      <c r="BQ69" s="24"/>
-      <c r="BR69" s="24"/>
-      <c r="BS69" s="24"/>
-      <c r="BT69" s="24"/>
-      <c r="BU69" s="24"/>
-      <c r="BV69" s="24"/>
-      <c r="BW69" s="24"/>
-      <c r="BX69" s="24"/>
-      <c r="BY69" s="24"/>
-      <c r="BZ69" s="24"/>
-      <c r="CA69" s="24"/>
-      <c r="CB69" s="24"/>
-      <c r="CC69" s="24"/>
-      <c r="CD69" s="24"/>
-      <c r="CE69" s="24"/>
-      <c r="CF69" s="24"/>
-      <c r="CG69" s="24"/>
-      <c r="CH69" s="24"/>
-      <c r="CI69" s="24"/>
-      <c r="CJ69" s="24"/>
-      <c r="CK69" s="24"/>
-      <c r="CL69" s="24"/>
-      <c r="CM69" s="24"/>
-      <c r="CN69" s="24"/>
-      <c r="CO69" s="24"/>
-      <c r="CP69" s="24"/>
-      <c r="CQ69" s="24"/>
-      <c r="CR69" s="24"/>
-      <c r="CS69" s="24"/>
-      <c r="CT69" s="24"/>
-      <c r="CU69" s="24"/>
-      <c r="CV69" s="24"/>
-      <c r="CW69" s="24"/>
-      <c r="CX69" s="24"/>
-      <c r="CY69" s="24"/>
-      <c r="CZ69" s="24"/>
-      <c r="DA69" s="24"/>
-      <c r="DB69" s="24"/>
-      <c r="DC69" s="24"/>
-      <c r="DD69" s="24"/>
-      <c r="DE69" s="24"/>
-      <c r="DF69" s="24"/>
-      <c r="DG69" s="24"/>
-      <c r="DH69" s="24"/>
-      <c r="DI69" s="24"/>
-      <c r="DJ69" s="24"/>
-      <c r="DK69" s="24"/>
-      <c r="DL69" s="24"/>
-      <c r="DM69" s="24"/>
-      <c r="DN69" s="24"/>
-      <c r="DO69" s="24"/>
-      <c r="DP69" s="24"/>
-      <c r="DQ69" s="24"/>
-      <c r="DR69" s="24"/>
-      <c r="DS69" s="24"/>
-      <c r="DT69" s="24"/>
-      <c r="DU69" s="24"/>
-      <c r="DV69" s="24"/>
-      <c r="DW69" s="24"/>
-      <c r="DX69" s="24"/>
-      <c r="DY69" s="24"/>
-      <c r="DZ69" s="24"/>
-      <c r="EA69" s="24"/>
-      <c r="EB69" s="24"/>
-      <c r="EC69" s="24"/>
-      <c r="ED69" s="24"/>
-      <c r="EE69" s="24"/>
-      <c r="EF69" s="24"/>
-      <c r="EG69" s="24"/>
-      <c r="EH69" s="24"/>
-      <c r="EI69" s="24"/>
-      <c r="EJ69" s="24"/>
-      <c r="EK69" s="24"/>
-      <c r="EL69" s="24"/>
-      <c r="EM69" s="24"/>
-      <c r="EN69" s="24"/>
-      <c r="EO69" s="24"/>
-      <c r="EP69" s="24"/>
-      <c r="EQ69" s="24"/>
-      <c r="ER69" s="24"/>
-      <c r="ES69" s="24"/>
-      <c r="ET69" s="24"/>
-      <c r="EU69" s="24"/>
-      <c r="EV69" s="24"/>
-      <c r="EW69" s="24"/>
-      <c r="EX69" s="24"/>
-      <c r="EY69" s="24"/>
-      <c r="EZ69" s="24"/>
-      <c r="FA69" s="24"/>
-      <c r="FB69" s="24"/>
-      <c r="FC69" s="24"/>
-      <c r="FD69" s="24"/>
-      <c r="FE69" s="24"/>
-      <c r="FF69" s="24"/>
-      <c r="FG69" s="24"/>
-      <c r="FH69" s="24"/>
+      <c r="A69" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C69" s="25">
+        <v>60</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G69" s="29">
+        <v>1</v>
+      </c>
+      <c r="H69" s="29">
+        <v>1</v>
+      </c>
+      <c r="I69" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q69" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="R69" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S69" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T69" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U69" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V69" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="W69" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="X69" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y69" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z69" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA69" s="20" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="70" spans="1:164" x14ac:dyDescent="0.2">
-      <c r="AB70" s="24"/>
-      <c r="AC70" s="24"/>
-      <c r="AD70" s="24"/>
-      <c r="AE70" s="24"/>
-      <c r="AF70" s="24"/>
-      <c r="AG70" s="24"/>
-      <c r="AH70" s="24"/>
-      <c r="AI70" s="24"/>
-      <c r="AJ70" s="24"/>
-      <c r="AK70" s="24"/>
-      <c r="AL70" s="24"/>
-      <c r="AM70" s="24"/>
-      <c r="AN70" s="24"/>
-      <c r="AO70" s="24"/>
-      <c r="AP70" s="24"/>
-      <c r="AQ70" s="24"/>
-      <c r="AR70" s="24"/>
-      <c r="AS70" s="24"/>
-      <c r="AT70" s="24"/>
-      <c r="AU70" s="24"/>
-      <c r="AV70" s="24"/>
-      <c r="AW70" s="24"/>
-      <c r="AX70" s="24"/>
-      <c r="AY70" s="24"/>
-      <c r="AZ70" s="24"/>
-      <c r="BA70" s="24"/>
-      <c r="BB70" s="24"/>
-      <c r="BC70" s="24"/>
-      <c r="BD70" s="24"/>
-      <c r="BE70" s="24"/>
-      <c r="BF70" s="24"/>
-      <c r="BG70" s="24"/>
-      <c r="BH70" s="24"/>
-      <c r="BI70" s="24"/>
-      <c r="BJ70" s="24"/>
-      <c r="BK70" s="24"/>
-      <c r="BL70" s="24"/>
-      <c r="BM70" s="24"/>
-      <c r="BN70" s="24"/>
-      <c r="BO70" s="24"/>
-      <c r="BP70" s="24"/>
-      <c r="BQ70" s="24"/>
-      <c r="BR70" s="24"/>
-      <c r="BS70" s="24"/>
-      <c r="BT70" s="24"/>
-      <c r="BU70" s="24"/>
-      <c r="BV70" s="24"/>
-      <c r="BW70" s="24"/>
-      <c r="BX70" s="24"/>
-      <c r="BY70" s="24"/>
-      <c r="BZ70" s="24"/>
-      <c r="CA70" s="24"/>
-      <c r="CB70" s="24"/>
-      <c r="CC70" s="24"/>
-      <c r="CD70" s="24"/>
-      <c r="CE70" s="24"/>
-      <c r="CF70" s="24"/>
-      <c r="CG70" s="24"/>
-      <c r="CH70" s="24"/>
-      <c r="CI70" s="24"/>
-      <c r="CJ70" s="24"/>
-      <c r="CK70" s="24"/>
-      <c r="CL70" s="24"/>
-      <c r="CM70" s="24"/>
-      <c r="CN70" s="24"/>
-      <c r="CO70" s="24"/>
-      <c r="CP70" s="24"/>
-      <c r="CQ70" s="24"/>
-      <c r="CR70" s="24"/>
-      <c r="CS70" s="24"/>
-      <c r="CT70" s="24"/>
-      <c r="CU70" s="24"/>
-      <c r="CV70" s="24"/>
-      <c r="CW70" s="24"/>
-      <c r="CX70" s="24"/>
-      <c r="CY70" s="24"/>
-      <c r="CZ70" s="24"/>
-      <c r="DA70" s="24"/>
-      <c r="DB70" s="24"/>
-      <c r="DC70" s="24"/>
-      <c r="DD70" s="24"/>
-      <c r="DE70" s="24"/>
-      <c r="DF70" s="24"/>
-      <c r="DG70" s="24"/>
-      <c r="DH70" s="24"/>
-      <c r="DI70" s="24"/>
-      <c r="DJ70" s="24"/>
-      <c r="DK70" s="24"/>
-      <c r="DL70" s="24"/>
-      <c r="DM70" s="24"/>
-      <c r="DN70" s="24"/>
-      <c r="DO70" s="24"/>
-      <c r="DP70" s="24"/>
-      <c r="DQ70" s="24"/>
-      <c r="DR70" s="24"/>
-      <c r="DS70" s="24"/>
-      <c r="DT70" s="24"/>
-      <c r="DU70" s="24"/>
-      <c r="DV70" s="24"/>
-      <c r="DW70" s="24"/>
-      <c r="DX70" s="24"/>
-      <c r="DY70" s="24"/>
-      <c r="DZ70" s="24"/>
-      <c r="EA70" s="24"/>
-      <c r="EB70" s="24"/>
-      <c r="EC70" s="24"/>
-      <c r="ED70" s="24"/>
-      <c r="EE70" s="24"/>
-      <c r="EF70" s="24"/>
-      <c r="EG70" s="24"/>
-      <c r="EH70" s="24"/>
-      <c r="EI70" s="24"/>
-      <c r="EJ70" s="24"/>
-      <c r="EK70" s="24"/>
-      <c r="EL70" s="24"/>
-      <c r="EM70" s="24"/>
-      <c r="EN70" s="24"/>
-      <c r="EO70" s="24"/>
-      <c r="EP70" s="24"/>
-      <c r="EQ70" s="24"/>
-      <c r="ER70" s="24"/>
-      <c r="ES70" s="24"/>
-      <c r="ET70" s="24"/>
-      <c r="EU70" s="24"/>
-      <c r="EV70" s="24"/>
-      <c r="EW70" s="24"/>
-      <c r="EX70" s="24"/>
-      <c r="EY70" s="24"/>
-      <c r="EZ70" s="24"/>
-      <c r="FA70" s="24"/>
-      <c r="FB70" s="24"/>
-      <c r="FC70" s="24"/>
-      <c r="FD70" s="24"/>
-      <c r="FE70" s="24"/>
-      <c r="FF70" s="24"/>
-      <c r="FG70" s="24"/>
-      <c r="FH70" s="24"/>
+      <c r="A70" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C70" s="25">
+        <v>61</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G70" s="29">
+        <v>1</v>
+      </c>
+      <c r="H70" s="29">
+        <v>1</v>
+      </c>
+      <c r="I70" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P70" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q70" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="R70" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S70" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T70" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U70" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V70" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="W70" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="X70" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y70" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z70" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA70" s="20" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="71" spans="1:164" x14ac:dyDescent="0.2">
-      <c r="AB71" s="24"/>
-      <c r="AC71" s="24"/>
-      <c r="AD71" s="24"/>
-      <c r="AE71" s="24"/>
-      <c r="AF71" s="24"/>
-      <c r="AG71" s="24"/>
-      <c r="AH71" s="24"/>
-      <c r="AI71" s="24"/>
-      <c r="AJ71" s="24"/>
-      <c r="AK71" s="24"/>
-      <c r="AL71" s="24"/>
-      <c r="AM71" s="24"/>
-      <c r="AN71" s="24"/>
-      <c r="AO71" s="24"/>
-      <c r="AP71" s="24"/>
-      <c r="AQ71" s="24"/>
-      <c r="AR71" s="24"/>
-      <c r="AS71" s="24"/>
-      <c r="AT71" s="24"/>
-      <c r="AU71" s="24"/>
-      <c r="AV71" s="24"/>
-      <c r="AW71" s="24"/>
-      <c r="AX71" s="24"/>
-      <c r="AY71" s="24"/>
-      <c r="AZ71" s="24"/>
-      <c r="BA71" s="24"/>
-      <c r="BB71" s="24"/>
-      <c r="BC71" s="24"/>
-      <c r="BD71" s="24"/>
-      <c r="BE71" s="24"/>
-      <c r="BF71" s="24"/>
-      <c r="BG71" s="24"/>
-      <c r="BH71" s="24"/>
-      <c r="BI71" s="24"/>
-      <c r="BJ71" s="24"/>
-      <c r="BK71" s="24"/>
-      <c r="BL71" s="24"/>
-      <c r="BM71" s="24"/>
-      <c r="BN71" s="24"/>
-      <c r="BO71" s="24"/>
-      <c r="BP71" s="24"/>
-      <c r="BQ71" s="24"/>
-      <c r="BR71" s="24"/>
-      <c r="BS71" s="24"/>
-      <c r="BT71" s="24"/>
-      <c r="BU71" s="24"/>
-      <c r="BV71" s="24"/>
-      <c r="BW71" s="24"/>
-      <c r="BX71" s="24"/>
-      <c r="BY71" s="24"/>
-      <c r="BZ71" s="24"/>
-      <c r="CA71" s="24"/>
-      <c r="CB71" s="24"/>
-      <c r="CC71" s="24"/>
-      <c r="CD71" s="24"/>
-      <c r="CE71" s="24"/>
-      <c r="CF71" s="24"/>
-      <c r="CG71" s="24"/>
-      <c r="CH71" s="24"/>
-      <c r="CI71" s="24"/>
-      <c r="CJ71" s="24"/>
-      <c r="CK71" s="24"/>
-      <c r="CL71" s="24"/>
-      <c r="CM71" s="24"/>
-      <c r="CN71" s="24"/>
-      <c r="CO71" s="24"/>
-      <c r="CP71" s="24"/>
-      <c r="CQ71" s="24"/>
-      <c r="CR71" s="24"/>
-      <c r="CS71" s="24"/>
-      <c r="CT71" s="24"/>
-      <c r="CU71" s="24"/>
-      <c r="CV71" s="24"/>
-      <c r="CW71" s="24"/>
-      <c r="CX71" s="24"/>
-      <c r="CY71" s="24"/>
-      <c r="CZ71" s="24"/>
-      <c r="DA71" s="24"/>
-      <c r="DB71" s="24"/>
-      <c r="DC71" s="24"/>
-      <c r="DD71" s="24"/>
-      <c r="DE71" s="24"/>
-      <c r="DF71" s="24"/>
-      <c r="DG71" s="24"/>
-      <c r="DH71" s="24"/>
-      <c r="DI71" s="24"/>
-      <c r="DJ71" s="24"/>
-      <c r="DK71" s="24"/>
-      <c r="DL71" s="24"/>
-      <c r="DM71" s="24"/>
-      <c r="DN71" s="24"/>
-      <c r="DO71" s="24"/>
-      <c r="DP71" s="24"/>
-      <c r="DQ71" s="24"/>
-      <c r="DR71" s="24"/>
-      <c r="DS71" s="24"/>
-      <c r="DT71" s="24"/>
-      <c r="DU71" s="24"/>
-      <c r="DV71" s="24"/>
-      <c r="DW71" s="24"/>
-      <c r="DX71" s="24"/>
-      <c r="DY71" s="24"/>
-      <c r="DZ71" s="24"/>
-      <c r="EA71" s="24"/>
-      <c r="EB71" s="24"/>
-      <c r="EC71" s="24"/>
-      <c r="ED71" s="24"/>
-      <c r="EE71" s="24"/>
-      <c r="EF71" s="24"/>
-      <c r="EG71" s="24"/>
-      <c r="EH71" s="24"/>
-      <c r="EI71" s="24"/>
-      <c r="EJ71" s="24"/>
-      <c r="EK71" s="24"/>
-      <c r="EL71" s="24"/>
-      <c r="EM71" s="24"/>
-      <c r="EN71" s="24"/>
-      <c r="EO71" s="24"/>
-      <c r="EP71" s="24"/>
-      <c r="EQ71" s="24"/>
-      <c r="ER71" s="24"/>
-      <c r="ES71" s="24"/>
-      <c r="ET71" s="24"/>
-      <c r="EU71" s="24"/>
-      <c r="EV71" s="24"/>
-      <c r="EW71" s="24"/>
-      <c r="EX71" s="24"/>
-      <c r="EY71" s="24"/>
-      <c r="EZ71" s="24"/>
-      <c r="FA71" s="24"/>
-      <c r="FB71" s="24"/>
-      <c r="FC71" s="24"/>
-      <c r="FD71" s="24"/>
-      <c r="FE71" s="24"/>
-      <c r="FF71" s="24"/>
-      <c r="FG71" s="24"/>
-      <c r="FH71" s="24"/>
+      <c r="A71" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C71" s="25">
+        <v>62</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G71" s="29">
+        <v>1</v>
+      </c>
+      <c r="H71" s="29">
+        <v>1</v>
+      </c>
+      <c r="I71" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P71" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q71" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="R71" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S71" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T71" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U71" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V71" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="W71" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="X71" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y71" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z71" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA71" s="20" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="72" spans="1:164" x14ac:dyDescent="0.2">
       <c r="AB72" s="24"/>
@@ -19573,9 +19466,148 @@
       <c r="FG83" s="24"/>
       <c r="FH83" s="24"/>
     </row>
+    <row r="84" spans="28:164" x14ac:dyDescent="0.2">
+      <c r="AB84" s="24"/>
+      <c r="AC84" s="24"/>
+      <c r="AD84" s="24"/>
+      <c r="AE84" s="24"/>
+      <c r="AF84" s="24"/>
+      <c r="AG84" s="24"/>
+      <c r="AH84" s="24"/>
+      <c r="AI84" s="24"/>
+      <c r="AJ84" s="24"/>
+      <c r="AK84" s="24"/>
+      <c r="AL84" s="24"/>
+      <c r="AM84" s="24"/>
+      <c r="AN84" s="24"/>
+      <c r="AO84" s="24"/>
+      <c r="AP84" s="24"/>
+      <c r="AQ84" s="24"/>
+      <c r="AR84" s="24"/>
+      <c r="AS84" s="24"/>
+      <c r="AT84" s="24"/>
+      <c r="AU84" s="24"/>
+      <c r="AV84" s="24"/>
+      <c r="AW84" s="24"/>
+      <c r="AX84" s="24"/>
+      <c r="AY84" s="24"/>
+      <c r="AZ84" s="24"/>
+      <c r="BA84" s="24"/>
+      <c r="BB84" s="24"/>
+      <c r="BC84" s="24"/>
+      <c r="BD84" s="24"/>
+      <c r="BE84" s="24"/>
+      <c r="BF84" s="24"/>
+      <c r="BG84" s="24"/>
+      <c r="BH84" s="24"/>
+      <c r="BI84" s="24"/>
+      <c r="BJ84" s="24"/>
+      <c r="BK84" s="24"/>
+      <c r="BL84" s="24"/>
+      <c r="BM84" s="24"/>
+      <c r="BN84" s="24"/>
+      <c r="BO84" s="24"/>
+      <c r="BP84" s="24"/>
+      <c r="BQ84" s="24"/>
+      <c r="BR84" s="24"/>
+      <c r="BS84" s="24"/>
+      <c r="BT84" s="24"/>
+      <c r="BU84" s="24"/>
+      <c r="BV84" s="24"/>
+      <c r="BW84" s="24"/>
+      <c r="BX84" s="24"/>
+      <c r="BY84" s="24"/>
+      <c r="BZ84" s="24"/>
+      <c r="CA84" s="24"/>
+      <c r="CB84" s="24"/>
+      <c r="CC84" s="24"/>
+      <c r="CD84" s="24"/>
+      <c r="CE84" s="24"/>
+      <c r="CF84" s="24"/>
+      <c r="CG84" s="24"/>
+      <c r="CH84" s="24"/>
+      <c r="CI84" s="24"/>
+      <c r="CJ84" s="24"/>
+      <c r="CK84" s="24"/>
+      <c r="CL84" s="24"/>
+      <c r="CM84" s="24"/>
+      <c r="CN84" s="24"/>
+      <c r="CO84" s="24"/>
+      <c r="CP84" s="24"/>
+      <c r="CQ84" s="24"/>
+      <c r="CR84" s="24"/>
+      <c r="CS84" s="24"/>
+      <c r="CT84" s="24"/>
+      <c r="CU84" s="24"/>
+      <c r="CV84" s="24"/>
+      <c r="CW84" s="24"/>
+      <c r="CX84" s="24"/>
+      <c r="CY84" s="24"/>
+      <c r="CZ84" s="24"/>
+      <c r="DA84" s="24"/>
+      <c r="DB84" s="24"/>
+      <c r="DC84" s="24"/>
+      <c r="DD84" s="24"/>
+      <c r="DE84" s="24"/>
+      <c r="DF84" s="24"/>
+      <c r="DG84" s="24"/>
+      <c r="DH84" s="24"/>
+      <c r="DI84" s="24"/>
+      <c r="DJ84" s="24"/>
+      <c r="DK84" s="24"/>
+      <c r="DL84" s="24"/>
+      <c r="DM84" s="24"/>
+      <c r="DN84" s="24"/>
+      <c r="DO84" s="24"/>
+      <c r="DP84" s="24"/>
+      <c r="DQ84" s="24"/>
+      <c r="DR84" s="24"/>
+      <c r="DS84" s="24"/>
+      <c r="DT84" s="24"/>
+      <c r="DU84" s="24"/>
+      <c r="DV84" s="24"/>
+      <c r="DW84" s="24"/>
+      <c r="DX84" s="24"/>
+      <c r="DY84" s="24"/>
+      <c r="DZ84" s="24"/>
+      <c r="EA84" s="24"/>
+      <c r="EB84" s="24"/>
+      <c r="EC84" s="24"/>
+      <c r="ED84" s="24"/>
+      <c r="EE84" s="24"/>
+      <c r="EF84" s="24"/>
+      <c r="EG84" s="24"/>
+      <c r="EH84" s="24"/>
+      <c r="EI84" s="24"/>
+      <c r="EJ84" s="24"/>
+      <c r="EK84" s="24"/>
+      <c r="EL84" s="24"/>
+      <c r="EM84" s="24"/>
+      <c r="EN84" s="24"/>
+      <c r="EO84" s="24"/>
+      <c r="EP84" s="24"/>
+      <c r="EQ84" s="24"/>
+      <c r="ER84" s="24"/>
+      <c r="ES84" s="24"/>
+      <c r="ET84" s="24"/>
+      <c r="EU84" s="24"/>
+      <c r="EV84" s="24"/>
+      <c r="EW84" s="24"/>
+      <c r="EX84" s="24"/>
+      <c r="EY84" s="24"/>
+      <c r="EZ84" s="24"/>
+      <c r="FA84" s="24"/>
+      <c r="FB84" s="24"/>
+      <c r="FC84" s="24"/>
+      <c r="FD84" s="24"/>
+      <c r="FE84" s="24"/>
+      <c r="FF84" s="24"/>
+      <c r="FG84" s="24"/>
+      <c r="FH84" s="24"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA66">
-    <sortCondition ref="C2:C66"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA68">
+    <sortCondition ref="C2:C68"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750B57B2-D178-8047-8DFB-2DE53FC3C0A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4916DCD0-3828-A14A-AD2F-C325349E2953}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="2520" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="274">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -755,9 +755,6 @@
     <t>MYH9</t>
   </si>
   <si>
-    <t>dependo.69-Megaderma</t>
-  </si>
-  <si>
     <t>Megaderma lytra</t>
   </si>
   <si>
@@ -837,6 +834,27 @@
   </si>
   <si>
     <t>dependo.61-Muscardinus-avellanarius</t>
+  </si>
+  <si>
+    <t>dependo.60-muscardinus</t>
+  </si>
+  <si>
+    <t>dependo.61-muscardinus</t>
+  </si>
+  <si>
+    <t>dependo.62-muscardinus</t>
+  </si>
+  <si>
+    <t>dependo.87-Megaderma</t>
+  </si>
+  <si>
+    <t>dependo.75-Apodemus_sylvaticus</t>
+  </si>
+  <si>
+    <t>Apodemus_sylvaticus</t>
+  </si>
+  <si>
+    <t>dependo.76-Muridae</t>
   </si>
 </sst>
 </file>
@@ -3326,13 +3344,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DACFF6-840F-D741-97EA-4F87EFFABC86}">
-  <dimension ref="A1:FH84"/>
+  <dimension ref="A1:FH86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G75" sqref="G75"/>
+      <selection pane="bottomRight" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7430,7 +7448,7 @@
         <v>162</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>193</v>
@@ -9822,7 +9840,7 @@
     </row>
     <row r="33" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>191</v>
@@ -9834,7 +9852,7 @@
         <v>15</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F33" s="22" t="s">
         <v>192</v>
@@ -9873,10 +9891,10 @@
         <v>118</v>
       </c>
       <c r="R33" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="S33" s="10" t="s">
         <v>249</v>
-      </c>
-      <c r="S33" s="10" t="s">
-        <v>250</v>
       </c>
       <c r="T33" s="8" t="s">
         <v>43</v>
@@ -9888,10 +9906,10 @@
         <v>216</v>
       </c>
       <c r="W33" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X33" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Y33" s="20" t="s">
         <v>2</v>
@@ -10260,7 +10278,7 @@
     </row>
     <row r="35" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B35" s="25" t="s">
         <v>191</v>
@@ -10272,7 +10290,7 @@
         <v>15</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F35" s="22" t="s">
         <v>118</v>
@@ -10324,10 +10342,10 @@
         <v>216</v>
       </c>
       <c r="W35" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X35" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y35" s="20" t="s">
         <v>2</v>
@@ -10478,7 +10496,7 @@
     </row>
     <row r="36" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>191</v>
@@ -10529,10 +10547,10 @@
         <v>118</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="T36" s="8" t="s">
         <v>43</v>
@@ -10542,10 +10560,10 @@
         <v>216</v>
       </c>
       <c r="W36" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X36" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Y36" s="20" t="s">
         <v>2</v>
@@ -10696,28 +10714,28 @@
     </row>
     <row r="37" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>254</v>
+        <v>129</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C37" s="25">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>118</v>
+        <v>192</v>
+      </c>
+      <c r="G37" s="25">
+        <v>4</v>
+      </c>
+      <c r="H37" s="25">
+        <v>4</v>
       </c>
       <c r="I37" s="29" t="s">
         <v>84</v>
@@ -10734,23 +10752,23 @@
       <c r="M37" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N37" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P37" s="3" t="s">
+      <c r="N37" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O37" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P37" s="15" t="s">
         <v>84</v>
       </c>
       <c r="Q37" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R37" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S37" s="11" t="s">
-        <v>43</v>
+      <c r="R37" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="S37" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="T37" s="8" t="s">
         <v>43</v>
@@ -10760,10 +10778,10 @@
         <v>216</v>
       </c>
       <c r="W37" s="20" t="s">
-        <v>254</v>
+        <v>129</v>
       </c>
       <c r="X37" s="20" t="s">
-        <v>254</v>
+        <v>129</v>
       </c>
       <c r="Y37" s="20" t="s">
         <v>2</v>
@@ -10914,43 +10932,43 @@
     </row>
     <row r="38" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C38" s="25">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>167</v>
+        <v>15</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="F38" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G38" s="25">
-        <v>4</v>
-      </c>
-      <c r="H38" s="25">
-        <v>4</v>
-      </c>
-      <c r="I38" s="29" t="s">
+      <c r="G38" s="27">
+        <v>1</v>
+      </c>
+      <c r="H38" s="27">
+        <v>1</v>
+      </c>
+      <c r="I38" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="J38" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>43</v>
+      <c r="J38" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M38" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="N38" s="14" t="s">
         <v>22</v>
@@ -10964,11 +10982,11 @@
       <c r="Q38" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R38" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="S38" s="10" t="s">
-        <v>185</v>
+      <c r="R38" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S38" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T38" s="8" t="s">
         <v>43</v>
@@ -10978,10 +10996,10 @@
         <v>216</v>
       </c>
       <c r="W38" s="20" t="s">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="X38" s="20" t="s">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="Y38" s="20" t="s">
         <v>2</v>
@@ -11132,28 +11150,28 @@
     </row>
     <row r="39" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B39" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C39" s="25">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F39" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" s="23" t="s">
         <v>192</v>
       </c>
       <c r="G39" s="27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39" s="27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39" s="31" t="s">
         <v>84</v>
@@ -11162,19 +11180,19 @@
         <v>130</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="L39" s="13" t="s">
         <v>130</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="N39" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O39" s="14" t="s">
-        <v>22</v>
+        <v>113</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P39" s="15" t="s">
         <v>84</v>
@@ -11182,11 +11200,11 @@
       <c r="Q39" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R39" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S39" s="11" t="s">
-        <v>43</v>
+      <c r="R39" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S39" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="T39" s="8" t="s">
         <v>43</v>
@@ -11196,10 +11214,10 @@
         <v>216</v>
       </c>
       <c r="W39" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X39" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y39" s="20" t="s">
         <v>2</v>
@@ -11350,61 +11368,61 @@
     </row>
     <row r="40" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B40" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C40" s="25">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="F40" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G40" s="27">
-        <v>3</v>
-      </c>
-      <c r="H40" s="27">
-        <v>3</v>
+      <c r="G40" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>118</v>
       </c>
       <c r="I40" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="J40" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K40" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="M40" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P40" s="15" t="s">
+      <c r="J40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O40" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P40" s="9" t="s">
         <v>84</v>
       </c>
       <c r="Q40" s="33" t="s">
         <v>118</v>
       </c>
       <c r="R40" s="10" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="T40" s="8" t="s">
         <v>43</v>
@@ -11414,10 +11432,10 @@
         <v>216</v>
       </c>
       <c r="W40" s="20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="X40" s="20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y40" s="20" t="s">
         <v>2</v>
@@ -11568,43 +11586,43 @@
     </row>
     <row r="41" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B41" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C41" s="25">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="F41" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G41" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="H41" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="I41" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>43</v>
+      <c r="G41" s="27">
+        <v>3</v>
+      </c>
+      <c r="H41" s="27">
+        <v>3</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="L41" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M41" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="N41" s="14" t="s">
         <v>22</v>
@@ -11612,30 +11630,29 @@
       <c r="O41" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P41" s="9" t="s">
+      <c r="P41" s="15" t="s">
         <v>84</v>
       </c>
       <c r="Q41" s="33" t="s">
         <v>118</v>
       </c>
       <c r="R41" s="10" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="S41" s="10" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="T41" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U41" s="8"/>
       <c r="V41" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W41" s="20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="X41" s="20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Y41" s="20" t="s">
         <v>2</v>
@@ -11786,49 +11803,49 @@
     </row>
     <row r="42" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="B42" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C42" s="25">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>107</v>
+        <v>255</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G42" s="27">
-        <v>3</v>
-      </c>
-      <c r="H42" s="27">
-        <v>3</v>
-      </c>
-      <c r="I42" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K42" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="L42" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="M42" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="N42" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O42" s="14" t="s">
-        <v>22</v>
+        <v>118</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I42" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P42" s="15" t="s">
         <v>84</v>
@@ -11836,23 +11853,24 @@
       <c r="Q42" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R42" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="S42" s="10" t="s">
-        <v>60</v>
+      <c r="R42" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S42" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T42" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="U42" s="8"/>
       <c r="V42" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W42" s="20" t="s">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="X42" s="20" t="s">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="Y42" s="20" t="s">
         <v>2</v>
@@ -12003,19 +12021,19 @@
     </row>
     <row r="43" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="B43" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C43" s="25">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="F43" s="22" t="s">
         <v>118</v>
@@ -12053,24 +12071,23 @@
       <c r="Q43" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R43" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S43" s="11" t="s">
-        <v>43</v>
+      <c r="R43" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="S43" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="T43" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U43" s="8"/>
       <c r="V43" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W43" s="20" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="X43" s="20" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="Y43" s="20" t="s">
         <v>2</v>
@@ -12221,30 +12238,30 @@
     </row>
     <row r="44" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="B44" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C44" s="25">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="G44" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="H44" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="I44" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G44" s="29">
+        <v>1</v>
+      </c>
+      <c r="H44" s="29">
+        <v>1</v>
+      </c>
+      <c r="I44" s="29" t="s">
         <v>84</v>
       </c>
       <c r="J44" s="4" t="s">
@@ -12265,29 +12282,32 @@
       <c r="O44" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P44" s="15" t="s">
+      <c r="P44" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q44" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R44" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="S44" s="10" t="s">
-        <v>239</v>
+      <c r="R44" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S44" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T44" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U44" s="8" t="s">
         <v>43</v>
       </c>
       <c r="V44" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W44" s="20" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="X44" s="20" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="Y44" s="20" t="s">
         <v>2</v>
@@ -12438,61 +12458,61 @@
     </row>
     <row r="45" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="B45" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C45" s="25">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G45" s="29">
+        <v>1</v>
+      </c>
+      <c r="H45" s="29">
+        <v>1</v>
+      </c>
+      <c r="I45" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q45" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="G45" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="I45" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q45" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="R45" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="S45" s="10" t="s">
-        <v>196</v>
+      <c r="R45" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S45" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T45" s="8" t="s">
         <v>43</v>
@@ -12504,10 +12524,10 @@
         <v>216</v>
       </c>
       <c r="W45" s="20" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="X45" s="20" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="Y45" s="20" t="s">
         <v>2</v>
@@ -12658,25 +12678,27 @@
     </row>
     <row r="46" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="B46" s="25"/>
+        <v>269</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>191</v>
+      </c>
       <c r="C46" s="25">
-        <v>69</v>
-      </c>
-      <c r="D46" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="G46" s="25">
+      <c r="G46" s="29">
         <v>1</v>
       </c>
-      <c r="H46" s="25">
+      <c r="H46" s="29">
         <v>1</v>
       </c>
       <c r="I46" s="29" t="s">
@@ -12694,23 +12716,23 @@
       <c r="M46" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N46" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O46" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P46" s="3" t="s">
+      <c r="N46" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P46" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q46" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R46" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="S46" s="10" t="s">
-        <v>243</v>
+      <c r="R46" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S46" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T46" s="8" t="s">
         <v>43</v>
@@ -12722,10 +12744,10 @@
         <v>216</v>
       </c>
       <c r="W46" s="20" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="X46" s="20" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="Y46" s="20" t="s">
         <v>2</v>
@@ -12876,61 +12898,61 @@
     </row>
     <row r="47" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B47" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C47" s="25">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G47" s="25">
-        <v>5</v>
-      </c>
-      <c r="H47" s="25">
-        <v>5</v>
-      </c>
-      <c r="I47" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>85</v>
+        <v>17</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I47" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q47" s="33" t="s">
-        <v>118</v>
+      <c r="Q47" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="R47" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="S47" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="T47" s="8" t="s">
         <v>43</v>
@@ -12942,10 +12964,10 @@
         <v>216</v>
       </c>
       <c r="W47" s="20" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="X47" s="20" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="Y47" s="20" t="s">
         <v>2</v>
@@ -13096,30 +13118,32 @@
     </row>
     <row r="48" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="B48" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C48" s="25">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>159</v>
+        <v>14</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G48" s="27">
-        <v>1</v>
-      </c>
-      <c r="H48" s="27">
-        <v>1</v>
-      </c>
-      <c r="I48" s="27"/>
+        <v>118</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I48" s="29" t="s">
+        <v>84</v>
+      </c>
       <c r="J48" s="4" t="s">
         <v>43</v>
       </c>
@@ -13141,29 +13165,27 @@
       <c r="P48" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q48" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="R48" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="S48" s="10" t="s">
-        <v>231</v>
+      <c r="Q48" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="R48" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S48" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T48" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U48" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="U48" s="8"/>
       <c r="V48" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W48" s="20" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="X48" s="20" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="Y48" s="20" t="s">
         <v>2</v>
@@ -13314,73 +13336,74 @@
     </row>
     <row r="49" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="B49" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C49" s="25">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="G49" s="25">
-        <v>1</v>
-      </c>
-      <c r="H49" s="25">
-        <v>1</v>
-      </c>
-      <c r="I49" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="J49" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>42</v>
+        <v>118</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I49" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q49" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="R49" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="S49" s="10" t="s">
-        <v>194</v>
+      <c r="Q49" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="R49" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S49" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T49" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="U49" s="8"/>
       <c r="V49" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W49" s="20" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="X49" s="20" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="Y49" s="20" t="s">
         <v>2</v>
@@ -13531,31 +13554,31 @@
     </row>
     <row r="50" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>166</v>
+        <v>273</v>
       </c>
       <c r="B50" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C50" s="25">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G50" s="27">
-        <v>1</v>
-      </c>
-      <c r="H50" s="27">
-        <v>1</v>
-      </c>
-      <c r="I50" s="27" t="s">
-        <v>191</v>
+        <v>21</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I50" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>43</v>
@@ -13575,32 +13598,30 @@
       <c r="O50" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P50" s="3" t="s">
+      <c r="P50" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q50" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R50" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="S50" s="10" t="s">
-        <v>177</v>
+      <c r="R50" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S50" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T50" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U50" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="U50" s="8"/>
       <c r="V50" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W50" s="20" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="X50" s="20" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="Y50" s="20" t="s">
         <v>2</v>
@@ -13751,31 +13772,31 @@
     </row>
     <row r="51" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="B51" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C51" s="25">
-        <v>180</v>
-      </c>
-      <c r="D51" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>169</v>
+        <v>240</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="G51" s="27">
-        <v>2</v>
-      </c>
-      <c r="H51" s="27">
-        <v>2</v>
-      </c>
-      <c r="I51" s="27" t="s">
-        <v>191</v>
+      <c r="G51" s="25">
+        <v>1</v>
+      </c>
+      <c r="H51" s="25">
+        <v>1</v>
+      </c>
+      <c r="I51" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>43</v>
@@ -13789,11 +13810,11 @@
       <c r="M51" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N51" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O51" s="4" t="s">
-        <v>43</v>
+      <c r="N51" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O51" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="P51" s="3" t="s">
         <v>84</v>
@@ -13802,10 +13823,10 @@
         <v>118</v>
       </c>
       <c r="R51" s="10" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="S51" s="10" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="T51" s="8" t="s">
         <v>43</v>
@@ -13817,10 +13838,10 @@
         <v>216</v>
       </c>
       <c r="W51" s="20" t="s">
-        <v>168</v>
+        <v>270</v>
       </c>
       <c r="X51" s="20" t="s">
-        <v>168</v>
+        <v>270</v>
       </c>
       <c r="Y51" s="20" t="s">
         <v>2</v>
@@ -13971,49 +13992,49 @@
     </row>
     <row r="52" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="B52" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C52" s="25">
-        <v>187</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>192</v>
+        <v>86</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>172</v>
       </c>
       <c r="G52" s="25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H52" s="25">
-        <v>1</v>
-      </c>
-      <c r="I52" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="J52" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L52" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="M52" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N52" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O52" s="14" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="I52" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>84</v>
@@ -14022,10 +14043,10 @@
         <v>118</v>
       </c>
       <c r="R52" s="10" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="S52" s="10" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="T52" s="8" t="s">
         <v>43</v>
@@ -14037,10 +14058,10 @@
         <v>216</v>
       </c>
       <c r="W52" s="20" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="X52" s="20" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="Y52" s="20" t="s">
         <v>2</v>
@@ -14191,30 +14212,30 @@
     </row>
     <row r="53" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="B53" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C53" s="25">
-        <v>190</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>40</v>
+        <v>92</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>159</v>
       </c>
       <c r="F53" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G53" s="25">
+      <c r="G53" s="27">
         <v>1</v>
       </c>
-      <c r="H53" s="25">
+      <c r="H53" s="27">
         <v>1</v>
       </c>
-      <c r="I53" s="25"/>
+      <c r="I53" s="27"/>
       <c r="J53" s="4" t="s">
         <v>43</v>
       </c>
@@ -14236,27 +14257,29 @@
       <c r="P53" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q53" s="33" t="s">
-        <v>118</v>
+      <c r="Q53" s="34" t="s">
+        <v>191</v>
       </c>
       <c r="R53" s="10" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="S53" s="10" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="T53" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U53" s="7"/>
+      <c r="U53" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="V53" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W53" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="X53" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y53" s="20" t="s">
         <v>2</v>
@@ -14405,15 +14428,15 @@
       <c r="FG53" s="24"/>
       <c r="FH53" s="24"/>
     </row>
-    <row r="54" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B54" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C54" s="25">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="D54" s="25" t="s">
         <v>14</v>
@@ -14422,57 +14445,58 @@
         <v>40</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G54" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="I54" s="25"/>
-      <c r="J54" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N54" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O54" s="4" t="s">
-        <v>43</v>
+        <v>172</v>
+      </c>
+      <c r="G54" s="25">
+        <v>1</v>
+      </c>
+      <c r="H54" s="25">
+        <v>1</v>
+      </c>
+      <c r="I54" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q54" s="33" t="s">
-        <v>118</v>
+      <c r="Q54" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="R54" s="10" t="s">
-        <v>72</v>
+        <v>194</v>
       </c>
       <c r="S54" s="10" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="T54" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U54" s="7"/>
       <c r="V54" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W54" s="20" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="X54" s="20" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Y54" s="20" t="s">
         <v>2</v>
@@ -14621,32 +14645,34 @@
       <c r="FG54" s="24"/>
       <c r="FH54" s="24"/>
     </row>
-    <row r="55" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="B55" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C55" s="25">
-        <v>192</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F55" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G55" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="H55" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="I55" s="25"/>
+        <v>174</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G55" s="27">
+        <v>1</v>
+      </c>
+      <c r="H55" s="27">
+        <v>1</v>
+      </c>
+      <c r="I55" s="27" t="s">
+        <v>191</v>
+      </c>
       <c r="J55" s="4" t="s">
         <v>43</v>
       </c>
@@ -14672,23 +14698,25 @@
         <v>118</v>
       </c>
       <c r="R55" s="10" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="S55" s="10" t="s">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="T55" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U55" s="5"/>
+      <c r="U55" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="V55" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W55" s="20" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="X55" s="20" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="Y55" s="20" t="s">
         <v>2</v>
@@ -14837,51 +14865,51 @@
       <c r="FG55" s="24"/>
       <c r="FH55" s="24"/>
     </row>
-    <row r="56" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="C56" s="25">
-        <v>197</v>
-      </c>
-      <c r="D56" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D56" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F56" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G56" s="29">
-        <v>1</v>
-      </c>
-      <c r="H56" s="29">
-        <v>1</v>
-      </c>
-      <c r="I56" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N56" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O56" s="14" t="s">
-        <v>22</v>
+      <c r="E56" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G56" s="27">
+        <v>2</v>
+      </c>
+      <c r="H56" s="27">
+        <v>2</v>
+      </c>
+      <c r="I56" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P56" s="3" t="s">
         <v>84</v>
@@ -14889,24 +14917,26 @@
       <c r="Q56" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R56" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S56" s="11" t="s">
-        <v>43</v>
+      <c r="R56" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="S56" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="T56" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U56" s="7"/>
+      <c r="U56" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="V56" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W56" s="20" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="X56" s="20" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="Y56" s="20" t="s">
         <v>2</v>
@@ -15055,45 +15085,45 @@
       <c r="FG56" s="24"/>
       <c r="FH56" s="24"/>
     </row>
-    <row r="57" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="C57" s="25">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F57" s="22" t="s">
+      <c r="E57" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="F57" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="G57" s="29">
+      <c r="G57" s="25">
         <v>1</v>
       </c>
-      <c r="H57" s="29">
+      <c r="H57" s="25">
         <v>1</v>
       </c>
       <c r="I57" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>133</v>
+      <c r="J57" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L57" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="N57" s="14" t="s">
         <v>22</v>
@@ -15107,23 +15137,26 @@
       <c r="Q57" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R57" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S57" s="11" t="s">
-        <v>43</v>
+      <c r="R57" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="S57" s="10" t="s">
+        <v>235</v>
       </c>
       <c r="T57" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U57" s="8" t="s">
         <v>43</v>
       </c>
       <c r="V57" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W57" s="20" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="X57" s="20" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="Y57" s="20" t="s">
         <v>2</v>
@@ -15272,51 +15305,49 @@
       <c r="FG57" s="24"/>
       <c r="FH57" s="24"/>
     </row>
-    <row r="58" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="C58" s="25">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="F58" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G58" s="29">
+      <c r="G58" s="25">
         <v>1</v>
       </c>
-      <c r="H58" s="29">
+      <c r="H58" s="25">
         <v>1</v>
       </c>
-      <c r="I58" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N58" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O58" s="14" t="s">
-        <v>22</v>
+      <c r="I58" s="25"/>
+      <c r="J58" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>84</v>
@@ -15325,10 +15356,10 @@
         <v>118</v>
       </c>
       <c r="R58" s="10" t="s">
-        <v>53</v>
+        <v>244</v>
       </c>
       <c r="S58" s="10" t="s">
-        <v>54</v>
+        <v>245</v>
       </c>
       <c r="T58" s="8" t="s">
         <v>43</v>
@@ -15338,10 +15369,10 @@
         <v>216</v>
       </c>
       <c r="W58" s="20" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="X58" s="20" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="Y58" s="20" t="s">
         <v>2</v>
@@ -15490,34 +15521,32 @@
       <c r="FG58" s="24"/>
       <c r="FH58" s="24"/>
     </row>
-    <row r="59" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B59" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C59" s="25">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>147</v>
+        <v>14</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="F59" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G59" s="27">
-        <v>1</v>
-      </c>
-      <c r="H59" s="27">
-        <v>1</v>
-      </c>
-      <c r="I59" s="29" t="s">
-        <v>84</v>
-      </c>
+      <c r="G59" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H59" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I59" s="25"/>
       <c r="J59" s="4" t="s">
         <v>43</v>
       </c>
@@ -15530,11 +15559,11 @@
       <c r="M59" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N59" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O59" s="14" t="s">
-        <v>22</v>
+      <c r="N59" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>84</v>
@@ -15542,26 +15571,24 @@
       <c r="Q59" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R59" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S59" s="11" t="s">
-        <v>43</v>
+      <c r="R59" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="S59" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="T59" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U59" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="U59" s="7"/>
       <c r="V59" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W59" s="20" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="X59" s="20" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Y59" s="20" t="s">
         <v>2</v>
@@ -15710,34 +15737,32 @@
       <c r="FG59" s="24"/>
       <c r="FH59" s="24"/>
     </row>
-    <row r="60" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="B60" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C60" s="25">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G60" s="27">
-        <v>1</v>
-      </c>
-      <c r="H60" s="27">
-        <v>1</v>
-      </c>
-      <c r="I60" s="25" t="s">
-        <v>191</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I60" s="25"/>
       <c r="J60" s="4" t="s">
         <v>43</v>
       </c>
@@ -15763,25 +15788,22 @@
         <v>118</v>
       </c>
       <c r="R60" s="10" t="s">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="S60" s="10" t="s">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="T60" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U60" s="8" t="s">
         <v>43</v>
       </c>
       <c r="V60" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W60" s="20" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="X60" s="20" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="Y60" s="20" t="s">
         <v>2</v>
@@ -15932,43 +15954,43 @@
     </row>
     <row r="61" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="B61" s="25" t="s">
         <v>84</v>
       </c>
       <c r="C61" s="25">
-        <v>221</v>
-      </c>
-      <c r="D61" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D61" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="23" t="s">
-        <v>153</v>
+      <c r="E61" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="F61" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G61" s="27">
+      <c r="G61" s="29">
         <v>1</v>
       </c>
-      <c r="H61" s="27">
+      <c r="H61" s="29">
         <v>1</v>
       </c>
-      <c r="I61" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M61" s="19" t="s">
-        <v>133</v>
+      <c r="I61" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="N61" s="14" t="s">
         <v>22</v>
@@ -15982,26 +16004,24 @@
       <c r="Q61" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R61" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="S61" s="10" t="s">
-        <v>183</v>
+      <c r="R61" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S61" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T61" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U61" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="U61" s="7"/>
       <c r="V61" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W61" s="20" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="X61" s="20" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="Y61" s="20" t="s">
         <v>2</v>
@@ -16152,43 +16172,43 @@
     </row>
     <row r="62" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="C62" s="25">
-        <v>365</v>
+        <v>198</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F62" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G62" s="25">
-        <v>7</v>
-      </c>
-      <c r="H62" s="25">
-        <v>7</v>
-      </c>
-      <c r="I62" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M62" s="4" t="s">
-        <v>43</v>
+      <c r="G62" s="29">
+        <v>1</v>
+      </c>
+      <c r="H62" s="29">
+        <v>1</v>
+      </c>
+      <c r="I62" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="N62" s="14" t="s">
         <v>22</v>
@@ -16202,26 +16222,23 @@
       <c r="Q62" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R62" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="S62" s="10" t="s">
-        <v>148</v>
+      <c r="R62" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S62" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T62" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U62" s="8" t="s">
         <v>43</v>
       </c>
       <c r="V62" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W62" s="20" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="X62" s="20" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="Y62" s="20" t="s">
         <v>2</v>
@@ -16372,43 +16389,43 @@
     </row>
     <row r="63" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="C63" s="25">
-        <v>366</v>
+        <v>199</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F63" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G63" s="25">
-        <v>20</v>
-      </c>
-      <c r="H63" s="25">
-        <v>20</v>
-      </c>
-      <c r="I63" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M63" s="4" t="s">
-        <v>43</v>
+      <c r="G63" s="29">
+        <v>1</v>
+      </c>
+      <c r="H63" s="29">
+        <v>1</v>
+      </c>
+      <c r="I63" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="N63" s="14" t="s">
         <v>22</v>
@@ -16423,25 +16440,23 @@
         <v>118</v>
       </c>
       <c r="R63" s="10" t="s">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="S63" s="10" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="T63" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U63" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="U63" s="7"/>
       <c r="V63" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W63" s="20" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="X63" s="20" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="Y63" s="20" t="s">
         <v>2</v>
@@ -16592,19 +16607,19 @@
     </row>
     <row r="64" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B64" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C64" s="25">
-        <v>370</v>
+        <v>202</v>
       </c>
       <c r="D64" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F64" s="22" t="s">
         <v>192</v>
@@ -16615,14 +16630,14 @@
       <c r="H64" s="27">
         <v>1</v>
       </c>
-      <c r="I64" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="J64" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K64" s="21" t="s">
-        <v>139</v>
+      <c r="I64" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="L64" s="4" t="s">
         <v>43</v>
@@ -16651,15 +16666,17 @@
       <c r="T64" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U64" s="7"/>
+      <c r="U64" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="V64" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W64" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="X64" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y64" s="20" t="s">
         <v>2</v>
@@ -16810,31 +16827,31 @@
     </row>
     <row r="65" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="B65" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C65" s="25">
-        <v>372</v>
+        <v>211</v>
       </c>
       <c r="D65" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="F65" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="G65" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="H65" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="I65" s="31" t="s">
-        <v>84</v>
+        <v>146</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G65" s="27">
+        <v>1</v>
+      </c>
+      <c r="H65" s="27">
+        <v>1</v>
+      </c>
+      <c r="I65" s="25" t="s">
+        <v>191</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>43</v>
@@ -16861,23 +16878,25 @@
         <v>118</v>
       </c>
       <c r="R65" s="10" t="s">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="S65" s="10" t="s">
-        <v>261</v>
+        <v>181</v>
       </c>
       <c r="T65" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U65" s="7"/>
+      <c r="U65" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="V65" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W65" s="20" t="s">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="X65" s="20" t="s">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="Y65" s="20" t="s">
         <v>2</v>
@@ -16888,22 +16907,159 @@
       <c r="AA65" s="20" t="s">
         <v>3</v>
       </c>
+      <c r="AB65" s="24"/>
+      <c r="AC65" s="24"/>
+      <c r="AD65" s="24"/>
+      <c r="AE65" s="24"/>
+      <c r="AF65" s="24"/>
+      <c r="AG65" s="24"/>
+      <c r="AH65" s="24"/>
+      <c r="AI65" s="24"/>
+      <c r="AJ65" s="24"/>
+      <c r="AK65" s="24"/>
+      <c r="AL65" s="24"/>
+      <c r="AM65" s="24"/>
+      <c r="AN65" s="24"/>
+      <c r="AO65" s="24"/>
+      <c r="AP65" s="24"/>
+      <c r="AQ65" s="24"/>
+      <c r="AR65" s="24"/>
+      <c r="AS65" s="24"/>
+      <c r="AT65" s="24"/>
+      <c r="AU65" s="24"/>
+      <c r="AV65" s="24"/>
+      <c r="AW65" s="24"/>
+      <c r="AX65" s="24"/>
+      <c r="AY65" s="24"/>
+      <c r="AZ65" s="24"/>
+      <c r="BA65" s="24"/>
+      <c r="BB65" s="24"/>
+      <c r="BC65" s="24"/>
+      <c r="BD65" s="24"/>
+      <c r="BE65" s="24"/>
+      <c r="BF65" s="24"/>
+      <c r="BG65" s="24"/>
+      <c r="BH65" s="24"/>
+      <c r="BI65" s="24"/>
+      <c r="BJ65" s="24"/>
+      <c r="BK65" s="24"/>
+      <c r="BL65" s="24"/>
+      <c r="BM65" s="24"/>
+      <c r="BN65" s="24"/>
+      <c r="BO65" s="24"/>
+      <c r="BP65" s="24"/>
+      <c r="BQ65" s="24"/>
+      <c r="BR65" s="24"/>
+      <c r="BS65" s="24"/>
+      <c r="BT65" s="24"/>
+      <c r="BU65" s="24"/>
+      <c r="BV65" s="24"/>
+      <c r="BW65" s="24"/>
+      <c r="BX65" s="24"/>
+      <c r="BY65" s="24"/>
+      <c r="BZ65" s="24"/>
+      <c r="CA65" s="24"/>
+      <c r="CB65" s="24"/>
+      <c r="CC65" s="24"/>
+      <c r="CD65" s="24"/>
+      <c r="CE65" s="24"/>
+      <c r="CF65" s="24"/>
+      <c r="CG65" s="24"/>
+      <c r="CH65" s="24"/>
+      <c r="CI65" s="24"/>
+      <c r="CJ65" s="24"/>
+      <c r="CK65" s="24"/>
+      <c r="CL65" s="24"/>
+      <c r="CM65" s="24"/>
+      <c r="CN65" s="24"/>
+      <c r="CO65" s="24"/>
+      <c r="CP65" s="24"/>
+      <c r="CQ65" s="24"/>
+      <c r="CR65" s="24"/>
+      <c r="CS65" s="24"/>
+      <c r="CT65" s="24"/>
+      <c r="CU65" s="24"/>
+      <c r="CV65" s="24"/>
+      <c r="CW65" s="24"/>
+      <c r="CX65" s="24"/>
+      <c r="CY65" s="24"/>
+      <c r="CZ65" s="24"/>
+      <c r="DA65" s="24"/>
+      <c r="DB65" s="24"/>
+      <c r="DC65" s="24"/>
+      <c r="DD65" s="24"/>
+      <c r="DE65" s="24"/>
+      <c r="DF65" s="24"/>
+      <c r="DG65" s="24"/>
+      <c r="DH65" s="24"/>
+      <c r="DI65" s="24"/>
+      <c r="DJ65" s="24"/>
+      <c r="DK65" s="24"/>
+      <c r="DL65" s="24"/>
+      <c r="DM65" s="24"/>
+      <c r="DN65" s="24"/>
+      <c r="DO65" s="24"/>
+      <c r="DP65" s="24"/>
+      <c r="DQ65" s="24"/>
+      <c r="DR65" s="24"/>
+      <c r="DS65" s="24"/>
+      <c r="DT65" s="24"/>
+      <c r="DU65" s="24"/>
+      <c r="DV65" s="24"/>
+      <c r="DW65" s="24"/>
+      <c r="DX65" s="24"/>
+      <c r="DY65" s="24"/>
+      <c r="DZ65" s="24"/>
+      <c r="EA65" s="24"/>
+      <c r="EB65" s="24"/>
+      <c r="EC65" s="24"/>
+      <c r="ED65" s="24"/>
+      <c r="EE65" s="24"/>
+      <c r="EF65" s="24"/>
+      <c r="EG65" s="24"/>
+      <c r="EH65" s="24"/>
+      <c r="EI65" s="24"/>
+      <c r="EJ65" s="24"/>
+      <c r="EK65" s="24"/>
+      <c r="EL65" s="24"/>
+      <c r="EM65" s="24"/>
+      <c r="EN65" s="24"/>
+      <c r="EO65" s="24"/>
+      <c r="EP65" s="24"/>
+      <c r="EQ65" s="24"/>
+      <c r="ER65" s="24"/>
+      <c r="ES65" s="24"/>
+      <c r="ET65" s="24"/>
+      <c r="EU65" s="24"/>
+      <c r="EV65" s="24"/>
+      <c r="EW65" s="24"/>
+      <c r="EX65" s="24"/>
+      <c r="EY65" s="24"/>
+      <c r="EZ65" s="24"/>
+      <c r="FA65" s="24"/>
+      <c r="FB65" s="24"/>
+      <c r="FC65" s="24"/>
+      <c r="FD65" s="24"/>
+      <c r="FE65" s="24"/>
+      <c r="FF65" s="24"/>
+      <c r="FG65" s="24"/>
+      <c r="FH65" s="24"/>
     </row>
     <row r="66" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="C66" s="25">
-        <v>500</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>20</v>
+        <v>221</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>15</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="F66" s="22" t="s">
         <v>192</v>
@@ -16914,20 +17070,20 @@
       <c r="H66" s="27">
         <v>1</v>
       </c>
-      <c r="I66" s="27" t="s">
+      <c r="I66" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="J66" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K66" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="L66" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="M66" s="13" t="s">
-        <v>136</v>
+      <c r="J66" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M66" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="N66" s="14" t="s">
         <v>22</v>
@@ -16941,11 +17097,11 @@
       <c r="Q66" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R66" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S66" s="11" t="s">
-        <v>43</v>
+      <c r="R66" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="S66" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="T66" s="8" t="s">
         <v>43</v>
@@ -16957,16 +17113,16 @@
         <v>216</v>
       </c>
       <c r="W66" s="20" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="X66" s="20" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="Y66" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z66" s="20" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="AA66" s="20" t="s">
         <v>3</v>
@@ -17111,43 +17267,43 @@
     </row>
     <row r="67" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="B67" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C67" s="25">
-        <v>500</v>
+        <v>365</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>136</v>
+        <v>14</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="F67" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G67" s="27">
-        <v>1</v>
-      </c>
-      <c r="H67" s="27">
-        <v>1</v>
-      </c>
-      <c r="I67" s="27" t="s">
+      <c r="G67" s="25">
+        <v>7</v>
+      </c>
+      <c r="H67" s="25">
+        <v>7</v>
+      </c>
+      <c r="I67" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="J67" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K67" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="L67" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="M67" s="13" t="s">
-        <v>136</v>
+      <c r="J67" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="N67" s="14" t="s">
         <v>22</v>
@@ -17161,11 +17317,11 @@
       <c r="Q67" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R67" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S67" s="11" t="s">
-        <v>43</v>
+      <c r="R67" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="S67" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="T67" s="8" t="s">
         <v>43</v>
@@ -17177,10 +17333,10 @@
         <v>216</v>
       </c>
       <c r="W67" s="20" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="X67" s="20" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="Y67" s="20" t="s">
         <v>2</v>
@@ -17191,183 +17347,46 @@
       <c r="AA67" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AB67" s="24"/>
-      <c r="AC67" s="24"/>
-      <c r="AD67" s="24"/>
-      <c r="AE67" s="24"/>
-      <c r="AF67" s="24"/>
-      <c r="AG67" s="24"/>
-      <c r="AH67" s="24"/>
-      <c r="AI67" s="24"/>
-      <c r="AJ67" s="24"/>
-      <c r="AK67" s="24"/>
-      <c r="AL67" s="24"/>
-      <c r="AM67" s="24"/>
-      <c r="AN67" s="24"/>
-      <c r="AO67" s="24"/>
-      <c r="AP67" s="24"/>
-      <c r="AQ67" s="24"/>
-      <c r="AR67" s="24"/>
-      <c r="AS67" s="24"/>
-      <c r="AT67" s="24"/>
-      <c r="AU67" s="24"/>
-      <c r="AV67" s="24"/>
-      <c r="AW67" s="24"/>
-      <c r="AX67" s="24"/>
-      <c r="AY67" s="24"/>
-      <c r="AZ67" s="24"/>
-      <c r="BA67" s="24"/>
-      <c r="BB67" s="24"/>
-      <c r="BC67" s="24"/>
-      <c r="BD67" s="24"/>
-      <c r="BE67" s="24"/>
-      <c r="BF67" s="24"/>
-      <c r="BG67" s="24"/>
-      <c r="BH67" s="24"/>
-      <c r="BI67" s="24"/>
-      <c r="BJ67" s="24"/>
-      <c r="BK67" s="24"/>
-      <c r="BL67" s="24"/>
-      <c r="BM67" s="24"/>
-      <c r="BN67" s="24"/>
-      <c r="BO67" s="24"/>
-      <c r="BP67" s="24"/>
-      <c r="BQ67" s="24"/>
-      <c r="BR67" s="24"/>
-      <c r="BS67" s="24"/>
-      <c r="BT67" s="24"/>
-      <c r="BU67" s="24"/>
-      <c r="BV67" s="24"/>
-      <c r="BW67" s="24"/>
-      <c r="BX67" s="24"/>
-      <c r="BY67" s="24"/>
-      <c r="BZ67" s="24"/>
-      <c r="CA67" s="24"/>
-      <c r="CB67" s="24"/>
-      <c r="CC67" s="24"/>
-      <c r="CD67" s="24"/>
-      <c r="CE67" s="24"/>
-      <c r="CF67" s="24"/>
-      <c r="CG67" s="24"/>
-      <c r="CH67" s="24"/>
-      <c r="CI67" s="24"/>
-      <c r="CJ67" s="24"/>
-      <c r="CK67" s="24"/>
-      <c r="CL67" s="24"/>
-      <c r="CM67" s="24"/>
-      <c r="CN67" s="24"/>
-      <c r="CO67" s="24"/>
-      <c r="CP67" s="24"/>
-      <c r="CQ67" s="24"/>
-      <c r="CR67" s="24"/>
-      <c r="CS67" s="24"/>
-      <c r="CT67" s="24"/>
-      <c r="CU67" s="24"/>
-      <c r="CV67" s="24"/>
-      <c r="CW67" s="24"/>
-      <c r="CX67" s="24"/>
-      <c r="CY67" s="24"/>
-      <c r="CZ67" s="24"/>
-      <c r="DA67" s="24"/>
-      <c r="DB67" s="24"/>
-      <c r="DC67" s="24"/>
-      <c r="DD67" s="24"/>
-      <c r="DE67" s="24"/>
-      <c r="DF67" s="24"/>
-      <c r="DG67" s="24"/>
-      <c r="DH67" s="24"/>
-      <c r="DI67" s="24"/>
-      <c r="DJ67" s="24"/>
-      <c r="DK67" s="24"/>
-      <c r="DL67" s="24"/>
-      <c r="DM67" s="24"/>
-      <c r="DN67" s="24"/>
-      <c r="DO67" s="24"/>
-      <c r="DP67" s="24"/>
-      <c r="DQ67" s="24"/>
-      <c r="DR67" s="24"/>
-      <c r="DS67" s="24"/>
-      <c r="DT67" s="24"/>
-      <c r="DU67" s="24"/>
-      <c r="DV67" s="24"/>
-      <c r="DW67" s="24"/>
-      <c r="DX67" s="24"/>
-      <c r="DY67" s="24"/>
-      <c r="DZ67" s="24"/>
-      <c r="EA67" s="24"/>
-      <c r="EB67" s="24"/>
-      <c r="EC67" s="24"/>
-      <c r="ED67" s="24"/>
-      <c r="EE67" s="24"/>
-      <c r="EF67" s="24"/>
-      <c r="EG67" s="24"/>
-      <c r="EH67" s="24"/>
-      <c r="EI67" s="24"/>
-      <c r="EJ67" s="24"/>
-      <c r="EK67" s="24"/>
-      <c r="EL67" s="24"/>
-      <c r="EM67" s="24"/>
-      <c r="EN67" s="24"/>
-      <c r="EO67" s="24"/>
-      <c r="EP67" s="24"/>
-      <c r="EQ67" s="24"/>
-      <c r="ER67" s="24"/>
-      <c r="ES67" s="24"/>
-      <c r="ET67" s="24"/>
-      <c r="EU67" s="24"/>
-      <c r="EV67" s="24"/>
-      <c r="EW67" s="24"/>
-      <c r="EX67" s="24"/>
-      <c r="EY67" s="24"/>
-      <c r="EZ67" s="24"/>
-      <c r="FA67" s="24"/>
-      <c r="FB67" s="24"/>
-      <c r="FC67" s="24"/>
-      <c r="FD67" s="24"/>
-      <c r="FE67" s="24"/>
-      <c r="FF67" s="24"/>
-      <c r="FG67" s="24"/>
-      <c r="FH67" s="24"/>
     </row>
     <row r="68" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B68" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C68" s="25">
-        <v>500</v>
+        <v>366</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E68" s="23" t="s">
-        <v>136</v>
+        <v>14</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="F68" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G68" s="27">
-        <v>1</v>
-      </c>
-      <c r="H68" s="27">
-        <v>1</v>
-      </c>
-      <c r="I68" s="27" t="s">
+      <c r="G68" s="25">
+        <v>20</v>
+      </c>
+      <c r="H68" s="25">
+        <v>20</v>
+      </c>
+      <c r="I68" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="J68" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K68" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="L68" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="M68" s="13" t="s">
-        <v>136</v>
+      <c r="J68" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="N68" s="14" t="s">
         <v>22</v>
@@ -17381,11 +17400,11 @@
       <c r="Q68" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R68" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S68" s="11" t="s">
-        <v>43</v>
+      <c r="R68" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="S68" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="T68" s="8" t="s">
         <v>43</v>
@@ -17397,10 +17416,10 @@
         <v>216</v>
       </c>
       <c r="W68" s="20" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="X68" s="20" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="Y68" s="20" t="s">
         <v>2</v>
@@ -17551,37 +17570,37 @@
     </row>
     <row r="69" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="B69" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C69" s="25">
-        <v>60</v>
-      </c>
-      <c r="D69" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="D69" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="F69" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G69" s="29">
+        <v>145</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G69" s="27">
         <v>1</v>
       </c>
-      <c r="H69" s="29">
+      <c r="H69" s="27">
         <v>1</v>
       </c>
-      <c r="I69" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>43</v>
+      <c r="I69" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J69" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K69" s="21" t="s">
+        <v>139</v>
       </c>
       <c r="L69" s="4" t="s">
         <v>43</v>
@@ -17589,13 +17608,13 @@
       <c r="M69" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N69" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O69" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P69" s="4" t="s">
+      <c r="N69" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O69" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P69" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q69" s="33" t="s">
@@ -17610,17 +17629,15 @@
       <c r="T69" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U69" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="U69" s="7"/>
       <c r="V69" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W69" s="20" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="X69" s="20" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="Y69" s="20" t="s">
         <v>2</v>
@@ -17631,33 +17648,170 @@
       <c r="AA69" s="20" t="s">
         <v>3</v>
       </c>
+      <c r="AB69" s="24"/>
+      <c r="AC69" s="24"/>
+      <c r="AD69" s="24"/>
+      <c r="AE69" s="24"/>
+      <c r="AF69" s="24"/>
+      <c r="AG69" s="24"/>
+      <c r="AH69" s="24"/>
+      <c r="AI69" s="24"/>
+      <c r="AJ69" s="24"/>
+      <c r="AK69" s="24"/>
+      <c r="AL69" s="24"/>
+      <c r="AM69" s="24"/>
+      <c r="AN69" s="24"/>
+      <c r="AO69" s="24"/>
+      <c r="AP69" s="24"/>
+      <c r="AQ69" s="24"/>
+      <c r="AR69" s="24"/>
+      <c r="AS69" s="24"/>
+      <c r="AT69" s="24"/>
+      <c r="AU69" s="24"/>
+      <c r="AV69" s="24"/>
+      <c r="AW69" s="24"/>
+      <c r="AX69" s="24"/>
+      <c r="AY69" s="24"/>
+      <c r="AZ69" s="24"/>
+      <c r="BA69" s="24"/>
+      <c r="BB69" s="24"/>
+      <c r="BC69" s="24"/>
+      <c r="BD69" s="24"/>
+      <c r="BE69" s="24"/>
+      <c r="BF69" s="24"/>
+      <c r="BG69" s="24"/>
+      <c r="BH69" s="24"/>
+      <c r="BI69" s="24"/>
+      <c r="BJ69" s="24"/>
+      <c r="BK69" s="24"/>
+      <c r="BL69" s="24"/>
+      <c r="BM69" s="24"/>
+      <c r="BN69" s="24"/>
+      <c r="BO69" s="24"/>
+      <c r="BP69" s="24"/>
+      <c r="BQ69" s="24"/>
+      <c r="BR69" s="24"/>
+      <c r="BS69" s="24"/>
+      <c r="BT69" s="24"/>
+      <c r="BU69" s="24"/>
+      <c r="BV69" s="24"/>
+      <c r="BW69" s="24"/>
+      <c r="BX69" s="24"/>
+      <c r="BY69" s="24"/>
+      <c r="BZ69" s="24"/>
+      <c r="CA69" s="24"/>
+      <c r="CB69" s="24"/>
+      <c r="CC69" s="24"/>
+      <c r="CD69" s="24"/>
+      <c r="CE69" s="24"/>
+      <c r="CF69" s="24"/>
+      <c r="CG69" s="24"/>
+      <c r="CH69" s="24"/>
+      <c r="CI69" s="24"/>
+      <c r="CJ69" s="24"/>
+      <c r="CK69" s="24"/>
+      <c r="CL69" s="24"/>
+      <c r="CM69" s="24"/>
+      <c r="CN69" s="24"/>
+      <c r="CO69" s="24"/>
+      <c r="CP69" s="24"/>
+      <c r="CQ69" s="24"/>
+      <c r="CR69" s="24"/>
+      <c r="CS69" s="24"/>
+      <c r="CT69" s="24"/>
+      <c r="CU69" s="24"/>
+      <c r="CV69" s="24"/>
+      <c r="CW69" s="24"/>
+      <c r="CX69" s="24"/>
+      <c r="CY69" s="24"/>
+      <c r="CZ69" s="24"/>
+      <c r="DA69" s="24"/>
+      <c r="DB69" s="24"/>
+      <c r="DC69" s="24"/>
+      <c r="DD69" s="24"/>
+      <c r="DE69" s="24"/>
+      <c r="DF69" s="24"/>
+      <c r="DG69" s="24"/>
+      <c r="DH69" s="24"/>
+      <c r="DI69" s="24"/>
+      <c r="DJ69" s="24"/>
+      <c r="DK69" s="24"/>
+      <c r="DL69" s="24"/>
+      <c r="DM69" s="24"/>
+      <c r="DN69" s="24"/>
+      <c r="DO69" s="24"/>
+      <c r="DP69" s="24"/>
+      <c r="DQ69" s="24"/>
+      <c r="DR69" s="24"/>
+      <c r="DS69" s="24"/>
+      <c r="DT69" s="24"/>
+      <c r="DU69" s="24"/>
+      <c r="DV69" s="24"/>
+      <c r="DW69" s="24"/>
+      <c r="DX69" s="24"/>
+      <c r="DY69" s="24"/>
+      <c r="DZ69" s="24"/>
+      <c r="EA69" s="24"/>
+      <c r="EB69" s="24"/>
+      <c r="EC69" s="24"/>
+      <c r="ED69" s="24"/>
+      <c r="EE69" s="24"/>
+      <c r="EF69" s="24"/>
+      <c r="EG69" s="24"/>
+      <c r="EH69" s="24"/>
+      <c r="EI69" s="24"/>
+      <c r="EJ69" s="24"/>
+      <c r="EK69" s="24"/>
+      <c r="EL69" s="24"/>
+      <c r="EM69" s="24"/>
+      <c r="EN69" s="24"/>
+      <c r="EO69" s="24"/>
+      <c r="EP69" s="24"/>
+      <c r="EQ69" s="24"/>
+      <c r="ER69" s="24"/>
+      <c r="ES69" s="24"/>
+      <c r="ET69" s="24"/>
+      <c r="EU69" s="24"/>
+      <c r="EV69" s="24"/>
+      <c r="EW69" s="24"/>
+      <c r="EX69" s="24"/>
+      <c r="EY69" s="24"/>
+      <c r="EZ69" s="24"/>
+      <c r="FA69" s="24"/>
+      <c r="FB69" s="24"/>
+      <c r="FC69" s="24"/>
+      <c r="FD69" s="24"/>
+      <c r="FE69" s="24"/>
+      <c r="FF69" s="24"/>
+      <c r="FG69" s="24"/>
+      <c r="FH69" s="24"/>
     </row>
     <row r="70" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B70" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C70" s="25">
-        <v>61</v>
-      </c>
-      <c r="D70" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="D70" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="F70" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G70" s="29">
-        <v>1</v>
-      </c>
-      <c r="H70" s="29">
-        <v>1</v>
-      </c>
-      <c r="I70" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="F70" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G70" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H70" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I70" s="31" t="s">
         <v>84</v>
       </c>
       <c r="J70" s="4" t="s">
@@ -17678,32 +17832,30 @@
       <c r="O70" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P70" s="4" t="s">
+      <c r="P70" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q70" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R70" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S70" s="11" t="s">
-        <v>43</v>
+      <c r="R70" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="S70" s="10" t="s">
+        <v>260</v>
       </c>
       <c r="T70" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U70" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="U70" s="7"/>
       <c r="V70" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W70" s="20" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="X70" s="20" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="Y70" s="20" t="s">
         <v>2</v>
@@ -17714,54 +17866,191 @@
       <c r="AA70" s="20" t="s">
         <v>3</v>
       </c>
+      <c r="AB70" s="24"/>
+      <c r="AC70" s="24"/>
+      <c r="AD70" s="24"/>
+      <c r="AE70" s="24"/>
+      <c r="AF70" s="24"/>
+      <c r="AG70" s="24"/>
+      <c r="AH70" s="24"/>
+      <c r="AI70" s="24"/>
+      <c r="AJ70" s="24"/>
+      <c r="AK70" s="24"/>
+      <c r="AL70" s="24"/>
+      <c r="AM70" s="24"/>
+      <c r="AN70" s="24"/>
+      <c r="AO70" s="24"/>
+      <c r="AP70" s="24"/>
+      <c r="AQ70" s="24"/>
+      <c r="AR70" s="24"/>
+      <c r="AS70" s="24"/>
+      <c r="AT70" s="24"/>
+      <c r="AU70" s="24"/>
+      <c r="AV70" s="24"/>
+      <c r="AW70" s="24"/>
+      <c r="AX70" s="24"/>
+      <c r="AY70" s="24"/>
+      <c r="AZ70" s="24"/>
+      <c r="BA70" s="24"/>
+      <c r="BB70" s="24"/>
+      <c r="BC70" s="24"/>
+      <c r="BD70" s="24"/>
+      <c r="BE70" s="24"/>
+      <c r="BF70" s="24"/>
+      <c r="BG70" s="24"/>
+      <c r="BH70" s="24"/>
+      <c r="BI70" s="24"/>
+      <c r="BJ70" s="24"/>
+      <c r="BK70" s="24"/>
+      <c r="BL70" s="24"/>
+      <c r="BM70" s="24"/>
+      <c r="BN70" s="24"/>
+      <c r="BO70" s="24"/>
+      <c r="BP70" s="24"/>
+      <c r="BQ70" s="24"/>
+      <c r="BR70" s="24"/>
+      <c r="BS70" s="24"/>
+      <c r="BT70" s="24"/>
+      <c r="BU70" s="24"/>
+      <c r="BV70" s="24"/>
+      <c r="BW70" s="24"/>
+      <c r="BX70" s="24"/>
+      <c r="BY70" s="24"/>
+      <c r="BZ70" s="24"/>
+      <c r="CA70" s="24"/>
+      <c r="CB70" s="24"/>
+      <c r="CC70" s="24"/>
+      <c r="CD70" s="24"/>
+      <c r="CE70" s="24"/>
+      <c r="CF70" s="24"/>
+      <c r="CG70" s="24"/>
+      <c r="CH70" s="24"/>
+      <c r="CI70" s="24"/>
+      <c r="CJ70" s="24"/>
+      <c r="CK70" s="24"/>
+      <c r="CL70" s="24"/>
+      <c r="CM70" s="24"/>
+      <c r="CN70" s="24"/>
+      <c r="CO70" s="24"/>
+      <c r="CP70" s="24"/>
+      <c r="CQ70" s="24"/>
+      <c r="CR70" s="24"/>
+      <c r="CS70" s="24"/>
+      <c r="CT70" s="24"/>
+      <c r="CU70" s="24"/>
+      <c r="CV70" s="24"/>
+      <c r="CW70" s="24"/>
+      <c r="CX70" s="24"/>
+      <c r="CY70" s="24"/>
+      <c r="CZ70" s="24"/>
+      <c r="DA70" s="24"/>
+      <c r="DB70" s="24"/>
+      <c r="DC70" s="24"/>
+      <c r="DD70" s="24"/>
+      <c r="DE70" s="24"/>
+      <c r="DF70" s="24"/>
+      <c r="DG70" s="24"/>
+      <c r="DH70" s="24"/>
+      <c r="DI70" s="24"/>
+      <c r="DJ70" s="24"/>
+      <c r="DK70" s="24"/>
+      <c r="DL70" s="24"/>
+      <c r="DM70" s="24"/>
+      <c r="DN70" s="24"/>
+      <c r="DO70" s="24"/>
+      <c r="DP70" s="24"/>
+      <c r="DQ70" s="24"/>
+      <c r="DR70" s="24"/>
+      <c r="DS70" s="24"/>
+      <c r="DT70" s="24"/>
+      <c r="DU70" s="24"/>
+      <c r="DV70" s="24"/>
+      <c r="DW70" s="24"/>
+      <c r="DX70" s="24"/>
+      <c r="DY70" s="24"/>
+      <c r="DZ70" s="24"/>
+      <c r="EA70" s="24"/>
+      <c r="EB70" s="24"/>
+      <c r="EC70" s="24"/>
+      <c r="ED70" s="24"/>
+      <c r="EE70" s="24"/>
+      <c r="EF70" s="24"/>
+      <c r="EG70" s="24"/>
+      <c r="EH70" s="24"/>
+      <c r="EI70" s="24"/>
+      <c r="EJ70" s="24"/>
+      <c r="EK70" s="24"/>
+      <c r="EL70" s="24"/>
+      <c r="EM70" s="24"/>
+      <c r="EN70" s="24"/>
+      <c r="EO70" s="24"/>
+      <c r="EP70" s="24"/>
+      <c r="EQ70" s="24"/>
+      <c r="ER70" s="24"/>
+      <c r="ES70" s="24"/>
+      <c r="ET70" s="24"/>
+      <c r="EU70" s="24"/>
+      <c r="EV70" s="24"/>
+      <c r="EW70" s="24"/>
+      <c r="EX70" s="24"/>
+      <c r="EY70" s="24"/>
+      <c r="EZ70" s="24"/>
+      <c r="FA70" s="24"/>
+      <c r="FB70" s="24"/>
+      <c r="FC70" s="24"/>
+      <c r="FD70" s="24"/>
+      <c r="FE70" s="24"/>
+      <c r="FF70" s="24"/>
+      <c r="FG70" s="24"/>
+      <c r="FH70" s="24"/>
     </row>
     <row r="71" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
-        <v>266</v>
+        <v>134</v>
       </c>
       <c r="B71" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C71" s="25">
-        <v>62</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>15</v>
+        <v>500</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="F71" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G71" s="29">
+        <v>136</v>
+      </c>
+      <c r="F71" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G71" s="27">
         <v>1</v>
       </c>
-      <c r="H71" s="29">
+      <c r="H71" s="27">
         <v>1</v>
       </c>
-      <c r="I71" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L71" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M71" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N71" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O71" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P71" s="4" t="s">
+      <c r="I71" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J71" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K71" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L71" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M71" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="N71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P71" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q71" s="33" t="s">
@@ -17783,298 +18072,186 @@
         <v>216</v>
       </c>
       <c r="W71" s="20" t="s">
-        <v>266</v>
+        <v>134</v>
       </c>
       <c r="X71" s="20" t="s">
-        <v>266</v>
+        <v>134</v>
       </c>
       <c r="Y71" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z71" s="20" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="AA71" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:164" x14ac:dyDescent="0.2">
-      <c r="AB72" s="24"/>
-      <c r="AC72" s="24"/>
-      <c r="AD72" s="24"/>
-      <c r="AE72" s="24"/>
-      <c r="AF72" s="24"/>
-      <c r="AG72" s="24"/>
-      <c r="AH72" s="24"/>
-      <c r="AI72" s="24"/>
-      <c r="AJ72" s="24"/>
-      <c r="AK72" s="24"/>
-      <c r="AL72" s="24"/>
-      <c r="AM72" s="24"/>
-      <c r="AN72" s="24"/>
-      <c r="AO72" s="24"/>
-      <c r="AP72" s="24"/>
-      <c r="AQ72" s="24"/>
-      <c r="AR72" s="24"/>
-      <c r="AS72" s="24"/>
-      <c r="AT72" s="24"/>
-      <c r="AU72" s="24"/>
-      <c r="AV72" s="24"/>
-      <c r="AW72" s="24"/>
-      <c r="AX72" s="24"/>
-      <c r="AY72" s="24"/>
-      <c r="AZ72" s="24"/>
-      <c r="BA72" s="24"/>
-      <c r="BB72" s="24"/>
-      <c r="BC72" s="24"/>
-      <c r="BD72" s="24"/>
-      <c r="BE72" s="24"/>
-      <c r="BF72" s="24"/>
-      <c r="BG72" s="24"/>
-      <c r="BH72" s="24"/>
-      <c r="BI72" s="24"/>
-      <c r="BJ72" s="24"/>
-      <c r="BK72" s="24"/>
-      <c r="BL72" s="24"/>
-      <c r="BM72" s="24"/>
-      <c r="BN72" s="24"/>
-      <c r="BO72" s="24"/>
-      <c r="BP72" s="24"/>
-      <c r="BQ72" s="24"/>
-      <c r="BR72" s="24"/>
-      <c r="BS72" s="24"/>
-      <c r="BT72" s="24"/>
-      <c r="BU72" s="24"/>
-      <c r="BV72" s="24"/>
-      <c r="BW72" s="24"/>
-      <c r="BX72" s="24"/>
-      <c r="BY72" s="24"/>
-      <c r="BZ72" s="24"/>
-      <c r="CA72" s="24"/>
-      <c r="CB72" s="24"/>
-      <c r="CC72" s="24"/>
-      <c r="CD72" s="24"/>
-      <c r="CE72" s="24"/>
-      <c r="CF72" s="24"/>
-      <c r="CG72" s="24"/>
-      <c r="CH72" s="24"/>
-      <c r="CI72" s="24"/>
-      <c r="CJ72" s="24"/>
-      <c r="CK72" s="24"/>
-      <c r="CL72" s="24"/>
-      <c r="CM72" s="24"/>
-      <c r="CN72" s="24"/>
-      <c r="CO72" s="24"/>
-      <c r="CP72" s="24"/>
-      <c r="CQ72" s="24"/>
-      <c r="CR72" s="24"/>
-      <c r="CS72" s="24"/>
-      <c r="CT72" s="24"/>
-      <c r="CU72" s="24"/>
-      <c r="CV72" s="24"/>
-      <c r="CW72" s="24"/>
-      <c r="CX72" s="24"/>
-      <c r="CY72" s="24"/>
-      <c r="CZ72" s="24"/>
-      <c r="DA72" s="24"/>
-      <c r="DB72" s="24"/>
-      <c r="DC72" s="24"/>
-      <c r="DD72" s="24"/>
-      <c r="DE72" s="24"/>
-      <c r="DF72" s="24"/>
-      <c r="DG72" s="24"/>
-      <c r="DH72" s="24"/>
-      <c r="DI72" s="24"/>
-      <c r="DJ72" s="24"/>
-      <c r="DK72" s="24"/>
-      <c r="DL72" s="24"/>
-      <c r="DM72" s="24"/>
-      <c r="DN72" s="24"/>
-      <c r="DO72" s="24"/>
-      <c r="DP72" s="24"/>
-      <c r="DQ72" s="24"/>
-      <c r="DR72" s="24"/>
-      <c r="DS72" s="24"/>
-      <c r="DT72" s="24"/>
-      <c r="DU72" s="24"/>
-      <c r="DV72" s="24"/>
-      <c r="DW72" s="24"/>
-      <c r="DX72" s="24"/>
-      <c r="DY72" s="24"/>
-      <c r="DZ72" s="24"/>
-      <c r="EA72" s="24"/>
-      <c r="EB72" s="24"/>
-      <c r="EC72" s="24"/>
-      <c r="ED72" s="24"/>
-      <c r="EE72" s="24"/>
-      <c r="EF72" s="24"/>
-      <c r="EG72" s="24"/>
-      <c r="EH72" s="24"/>
-      <c r="EI72" s="24"/>
-      <c r="EJ72" s="24"/>
-      <c r="EK72" s="24"/>
-      <c r="EL72" s="24"/>
-      <c r="EM72" s="24"/>
-      <c r="EN72" s="24"/>
-      <c r="EO72" s="24"/>
-      <c r="EP72" s="24"/>
-      <c r="EQ72" s="24"/>
-      <c r="ER72" s="24"/>
-      <c r="ES72" s="24"/>
-      <c r="ET72" s="24"/>
-      <c r="EU72" s="24"/>
-      <c r="EV72" s="24"/>
-      <c r="EW72" s="24"/>
-      <c r="EX72" s="24"/>
-      <c r="EY72" s="24"/>
-      <c r="EZ72" s="24"/>
-      <c r="FA72" s="24"/>
-      <c r="FB72" s="24"/>
-      <c r="FC72" s="24"/>
-      <c r="FD72" s="24"/>
-      <c r="FE72" s="24"/>
-      <c r="FF72" s="24"/>
-      <c r="FG72" s="24"/>
-      <c r="FH72" s="24"/>
+      <c r="A72" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C72" s="25">
+        <v>500</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G72" s="27">
+        <v>1</v>
+      </c>
+      <c r="H72" s="27">
+        <v>1</v>
+      </c>
+      <c r="I72" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L72" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M72" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="N72" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O72" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q72" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="R72" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S72" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T72" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U72" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V72" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="W72" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="X72" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y72" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z72" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA72" s="20" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="73" spans="1:164" x14ac:dyDescent="0.2">
-      <c r="AB73" s="24"/>
-      <c r="AC73" s="24"/>
-      <c r="AD73" s="24"/>
-      <c r="AE73" s="24"/>
-      <c r="AF73" s="24"/>
-      <c r="AG73" s="24"/>
-      <c r="AH73" s="24"/>
-      <c r="AI73" s="24"/>
-      <c r="AJ73" s="24"/>
-      <c r="AK73" s="24"/>
-      <c r="AL73" s="24"/>
-      <c r="AM73" s="24"/>
-      <c r="AN73" s="24"/>
-      <c r="AO73" s="24"/>
-      <c r="AP73" s="24"/>
-      <c r="AQ73" s="24"/>
-      <c r="AR73" s="24"/>
-      <c r="AS73" s="24"/>
-      <c r="AT73" s="24"/>
-      <c r="AU73" s="24"/>
-      <c r="AV73" s="24"/>
-      <c r="AW73" s="24"/>
-      <c r="AX73" s="24"/>
-      <c r="AY73" s="24"/>
-      <c r="AZ73" s="24"/>
-      <c r="BA73" s="24"/>
-      <c r="BB73" s="24"/>
-      <c r="BC73" s="24"/>
-      <c r="BD73" s="24"/>
-      <c r="BE73" s="24"/>
-      <c r="BF73" s="24"/>
-      <c r="BG73" s="24"/>
-      <c r="BH73" s="24"/>
-      <c r="BI73" s="24"/>
-      <c r="BJ73" s="24"/>
-      <c r="BK73" s="24"/>
-      <c r="BL73" s="24"/>
-      <c r="BM73" s="24"/>
-      <c r="BN73" s="24"/>
-      <c r="BO73" s="24"/>
-      <c r="BP73" s="24"/>
-      <c r="BQ73" s="24"/>
-      <c r="BR73" s="24"/>
-      <c r="BS73" s="24"/>
-      <c r="BT73" s="24"/>
-      <c r="BU73" s="24"/>
-      <c r="BV73" s="24"/>
-      <c r="BW73" s="24"/>
-      <c r="BX73" s="24"/>
-      <c r="BY73" s="24"/>
-      <c r="BZ73" s="24"/>
-      <c r="CA73" s="24"/>
-      <c r="CB73" s="24"/>
-      <c r="CC73" s="24"/>
-      <c r="CD73" s="24"/>
-      <c r="CE73" s="24"/>
-      <c r="CF73" s="24"/>
-      <c r="CG73" s="24"/>
-      <c r="CH73" s="24"/>
-      <c r="CI73" s="24"/>
-      <c r="CJ73" s="24"/>
-      <c r="CK73" s="24"/>
-      <c r="CL73" s="24"/>
-      <c r="CM73" s="24"/>
-      <c r="CN73" s="24"/>
-      <c r="CO73" s="24"/>
-      <c r="CP73" s="24"/>
-      <c r="CQ73" s="24"/>
-      <c r="CR73" s="24"/>
-      <c r="CS73" s="24"/>
-      <c r="CT73" s="24"/>
-      <c r="CU73" s="24"/>
-      <c r="CV73" s="24"/>
-      <c r="CW73" s="24"/>
-      <c r="CX73" s="24"/>
-      <c r="CY73" s="24"/>
-      <c r="CZ73" s="24"/>
-      <c r="DA73" s="24"/>
-      <c r="DB73" s="24"/>
-      <c r="DC73" s="24"/>
-      <c r="DD73" s="24"/>
-      <c r="DE73" s="24"/>
-      <c r="DF73" s="24"/>
-      <c r="DG73" s="24"/>
-      <c r="DH73" s="24"/>
-      <c r="DI73" s="24"/>
-      <c r="DJ73" s="24"/>
-      <c r="DK73" s="24"/>
-      <c r="DL73" s="24"/>
-      <c r="DM73" s="24"/>
-      <c r="DN73" s="24"/>
-      <c r="DO73" s="24"/>
-      <c r="DP73" s="24"/>
-      <c r="DQ73" s="24"/>
-      <c r="DR73" s="24"/>
-      <c r="DS73" s="24"/>
-      <c r="DT73" s="24"/>
-      <c r="DU73" s="24"/>
-      <c r="DV73" s="24"/>
-      <c r="DW73" s="24"/>
-      <c r="DX73" s="24"/>
-      <c r="DY73" s="24"/>
-      <c r="DZ73" s="24"/>
-      <c r="EA73" s="24"/>
-      <c r="EB73" s="24"/>
-      <c r="EC73" s="24"/>
-      <c r="ED73" s="24"/>
-      <c r="EE73" s="24"/>
-      <c r="EF73" s="24"/>
-      <c r="EG73" s="24"/>
-      <c r="EH73" s="24"/>
-      <c r="EI73" s="24"/>
-      <c r="EJ73" s="24"/>
-      <c r="EK73" s="24"/>
-      <c r="EL73" s="24"/>
-      <c r="EM73" s="24"/>
-      <c r="EN73" s="24"/>
-      <c r="EO73" s="24"/>
-      <c r="EP73" s="24"/>
-      <c r="EQ73" s="24"/>
-      <c r="ER73" s="24"/>
-      <c r="ES73" s="24"/>
-      <c r="ET73" s="24"/>
-      <c r="EU73" s="24"/>
-      <c r="EV73" s="24"/>
-      <c r="EW73" s="24"/>
-      <c r="EX73" s="24"/>
-      <c r="EY73" s="24"/>
-      <c r="EZ73" s="24"/>
-      <c r="FA73" s="24"/>
-      <c r="FB73" s="24"/>
-      <c r="FC73" s="24"/>
-      <c r="FD73" s="24"/>
-      <c r="FE73" s="24"/>
-      <c r="FF73" s="24"/>
-      <c r="FG73" s="24"/>
-      <c r="FH73" s="24"/>
+      <c r="A73" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C73" s="25">
+        <v>500</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G73" s="27">
+        <v>1</v>
+      </c>
+      <c r="H73" s="27">
+        <v>1</v>
+      </c>
+      <c r="I73" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J73" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K73" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L73" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M73" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="N73" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O73" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q73" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="R73" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S73" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T73" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U73" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V73" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="W73" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="X73" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y73" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z73" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA73" s="20" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="74" spans="1:164" x14ac:dyDescent="0.2">
       <c r="AB74" s="24"/>
@@ -19605,9 +19782,287 @@
       <c r="FG84" s="24"/>
       <c r="FH84" s="24"/>
     </row>
+    <row r="85" spans="28:164" x14ac:dyDescent="0.2">
+      <c r="AB85" s="24"/>
+      <c r="AC85" s="24"/>
+      <c r="AD85" s="24"/>
+      <c r="AE85" s="24"/>
+      <c r="AF85" s="24"/>
+      <c r="AG85" s="24"/>
+      <c r="AH85" s="24"/>
+      <c r="AI85" s="24"/>
+      <c r="AJ85" s="24"/>
+      <c r="AK85" s="24"/>
+      <c r="AL85" s="24"/>
+      <c r="AM85" s="24"/>
+      <c r="AN85" s="24"/>
+      <c r="AO85" s="24"/>
+      <c r="AP85" s="24"/>
+      <c r="AQ85" s="24"/>
+      <c r="AR85" s="24"/>
+      <c r="AS85" s="24"/>
+      <c r="AT85" s="24"/>
+      <c r="AU85" s="24"/>
+      <c r="AV85" s="24"/>
+      <c r="AW85" s="24"/>
+      <c r="AX85" s="24"/>
+      <c r="AY85" s="24"/>
+      <c r="AZ85" s="24"/>
+      <c r="BA85" s="24"/>
+      <c r="BB85" s="24"/>
+      <c r="BC85" s="24"/>
+      <c r="BD85" s="24"/>
+      <c r="BE85" s="24"/>
+      <c r="BF85" s="24"/>
+      <c r="BG85" s="24"/>
+      <c r="BH85" s="24"/>
+      <c r="BI85" s="24"/>
+      <c r="BJ85" s="24"/>
+      <c r="BK85" s="24"/>
+      <c r="BL85" s="24"/>
+      <c r="BM85" s="24"/>
+      <c r="BN85" s="24"/>
+      <c r="BO85" s="24"/>
+      <c r="BP85" s="24"/>
+      <c r="BQ85" s="24"/>
+      <c r="BR85" s="24"/>
+      <c r="BS85" s="24"/>
+      <c r="BT85" s="24"/>
+      <c r="BU85" s="24"/>
+      <c r="BV85" s="24"/>
+      <c r="BW85" s="24"/>
+      <c r="BX85" s="24"/>
+      <c r="BY85" s="24"/>
+      <c r="BZ85" s="24"/>
+      <c r="CA85" s="24"/>
+      <c r="CB85" s="24"/>
+      <c r="CC85" s="24"/>
+      <c r="CD85" s="24"/>
+      <c r="CE85" s="24"/>
+      <c r="CF85" s="24"/>
+      <c r="CG85" s="24"/>
+      <c r="CH85" s="24"/>
+      <c r="CI85" s="24"/>
+      <c r="CJ85" s="24"/>
+      <c r="CK85" s="24"/>
+      <c r="CL85" s="24"/>
+      <c r="CM85" s="24"/>
+      <c r="CN85" s="24"/>
+      <c r="CO85" s="24"/>
+      <c r="CP85" s="24"/>
+      <c r="CQ85" s="24"/>
+      <c r="CR85" s="24"/>
+      <c r="CS85" s="24"/>
+      <c r="CT85" s="24"/>
+      <c r="CU85" s="24"/>
+      <c r="CV85" s="24"/>
+      <c r="CW85" s="24"/>
+      <c r="CX85" s="24"/>
+      <c r="CY85" s="24"/>
+      <c r="CZ85" s="24"/>
+      <c r="DA85" s="24"/>
+      <c r="DB85" s="24"/>
+      <c r="DC85" s="24"/>
+      <c r="DD85" s="24"/>
+      <c r="DE85" s="24"/>
+      <c r="DF85" s="24"/>
+      <c r="DG85" s="24"/>
+      <c r="DH85" s="24"/>
+      <c r="DI85" s="24"/>
+      <c r="DJ85" s="24"/>
+      <c r="DK85" s="24"/>
+      <c r="DL85" s="24"/>
+      <c r="DM85" s="24"/>
+      <c r="DN85" s="24"/>
+      <c r="DO85" s="24"/>
+      <c r="DP85" s="24"/>
+      <c r="DQ85" s="24"/>
+      <c r="DR85" s="24"/>
+      <c r="DS85" s="24"/>
+      <c r="DT85" s="24"/>
+      <c r="DU85" s="24"/>
+      <c r="DV85" s="24"/>
+      <c r="DW85" s="24"/>
+      <c r="DX85" s="24"/>
+      <c r="DY85" s="24"/>
+      <c r="DZ85" s="24"/>
+      <c r="EA85" s="24"/>
+      <c r="EB85" s="24"/>
+      <c r="EC85" s="24"/>
+      <c r="ED85" s="24"/>
+      <c r="EE85" s="24"/>
+      <c r="EF85" s="24"/>
+      <c r="EG85" s="24"/>
+      <c r="EH85" s="24"/>
+      <c r="EI85" s="24"/>
+      <c r="EJ85" s="24"/>
+      <c r="EK85" s="24"/>
+      <c r="EL85" s="24"/>
+      <c r="EM85" s="24"/>
+      <c r="EN85" s="24"/>
+      <c r="EO85" s="24"/>
+      <c r="EP85" s="24"/>
+      <c r="EQ85" s="24"/>
+      <c r="ER85" s="24"/>
+      <c r="ES85" s="24"/>
+      <c r="ET85" s="24"/>
+      <c r="EU85" s="24"/>
+      <c r="EV85" s="24"/>
+      <c r="EW85" s="24"/>
+      <c r="EX85" s="24"/>
+      <c r="EY85" s="24"/>
+      <c r="EZ85" s="24"/>
+      <c r="FA85" s="24"/>
+      <c r="FB85" s="24"/>
+      <c r="FC85" s="24"/>
+      <c r="FD85" s="24"/>
+      <c r="FE85" s="24"/>
+      <c r="FF85" s="24"/>
+      <c r="FG85" s="24"/>
+      <c r="FH85" s="24"/>
+    </row>
+    <row r="86" spans="28:164" x14ac:dyDescent="0.2">
+      <c r="AB86" s="24"/>
+      <c r="AC86" s="24"/>
+      <c r="AD86" s="24"/>
+      <c r="AE86" s="24"/>
+      <c r="AF86" s="24"/>
+      <c r="AG86" s="24"/>
+      <c r="AH86" s="24"/>
+      <c r="AI86" s="24"/>
+      <c r="AJ86" s="24"/>
+      <c r="AK86" s="24"/>
+      <c r="AL86" s="24"/>
+      <c r="AM86" s="24"/>
+      <c r="AN86" s="24"/>
+      <c r="AO86" s="24"/>
+      <c r="AP86" s="24"/>
+      <c r="AQ86" s="24"/>
+      <c r="AR86" s="24"/>
+      <c r="AS86" s="24"/>
+      <c r="AT86" s="24"/>
+      <c r="AU86" s="24"/>
+      <c r="AV86" s="24"/>
+      <c r="AW86" s="24"/>
+      <c r="AX86" s="24"/>
+      <c r="AY86" s="24"/>
+      <c r="AZ86" s="24"/>
+      <c r="BA86" s="24"/>
+      <c r="BB86" s="24"/>
+      <c r="BC86" s="24"/>
+      <c r="BD86" s="24"/>
+      <c r="BE86" s="24"/>
+      <c r="BF86" s="24"/>
+      <c r="BG86" s="24"/>
+      <c r="BH86" s="24"/>
+      <c r="BI86" s="24"/>
+      <c r="BJ86" s="24"/>
+      <c r="BK86" s="24"/>
+      <c r="BL86" s="24"/>
+      <c r="BM86" s="24"/>
+      <c r="BN86" s="24"/>
+      <c r="BO86" s="24"/>
+      <c r="BP86" s="24"/>
+      <c r="BQ86" s="24"/>
+      <c r="BR86" s="24"/>
+      <c r="BS86" s="24"/>
+      <c r="BT86" s="24"/>
+      <c r="BU86" s="24"/>
+      <c r="BV86" s="24"/>
+      <c r="BW86" s="24"/>
+      <c r="BX86" s="24"/>
+      <c r="BY86" s="24"/>
+      <c r="BZ86" s="24"/>
+      <c r="CA86" s="24"/>
+      <c r="CB86" s="24"/>
+      <c r="CC86" s="24"/>
+      <c r="CD86" s="24"/>
+      <c r="CE86" s="24"/>
+      <c r="CF86" s="24"/>
+      <c r="CG86" s="24"/>
+      <c r="CH86" s="24"/>
+      <c r="CI86" s="24"/>
+      <c r="CJ86" s="24"/>
+      <c r="CK86" s="24"/>
+      <c r="CL86" s="24"/>
+      <c r="CM86" s="24"/>
+      <c r="CN86" s="24"/>
+      <c r="CO86" s="24"/>
+      <c r="CP86" s="24"/>
+      <c r="CQ86" s="24"/>
+      <c r="CR86" s="24"/>
+      <c r="CS86" s="24"/>
+      <c r="CT86" s="24"/>
+      <c r="CU86" s="24"/>
+      <c r="CV86" s="24"/>
+      <c r="CW86" s="24"/>
+      <c r="CX86" s="24"/>
+      <c r="CY86" s="24"/>
+      <c r="CZ86" s="24"/>
+      <c r="DA86" s="24"/>
+      <c r="DB86" s="24"/>
+      <c r="DC86" s="24"/>
+      <c r="DD86" s="24"/>
+      <c r="DE86" s="24"/>
+      <c r="DF86" s="24"/>
+      <c r="DG86" s="24"/>
+      <c r="DH86" s="24"/>
+      <c r="DI86" s="24"/>
+      <c r="DJ86" s="24"/>
+      <c r="DK86" s="24"/>
+      <c r="DL86" s="24"/>
+      <c r="DM86" s="24"/>
+      <c r="DN86" s="24"/>
+      <c r="DO86" s="24"/>
+      <c r="DP86" s="24"/>
+      <c r="DQ86" s="24"/>
+      <c r="DR86" s="24"/>
+      <c r="DS86" s="24"/>
+      <c r="DT86" s="24"/>
+      <c r="DU86" s="24"/>
+      <c r="DV86" s="24"/>
+      <c r="DW86" s="24"/>
+      <c r="DX86" s="24"/>
+      <c r="DY86" s="24"/>
+      <c r="DZ86" s="24"/>
+      <c r="EA86" s="24"/>
+      <c r="EB86" s="24"/>
+      <c r="EC86" s="24"/>
+      <c r="ED86" s="24"/>
+      <c r="EE86" s="24"/>
+      <c r="EF86" s="24"/>
+      <c r="EG86" s="24"/>
+      <c r="EH86" s="24"/>
+      <c r="EI86" s="24"/>
+      <c r="EJ86" s="24"/>
+      <c r="EK86" s="24"/>
+      <c r="EL86" s="24"/>
+      <c r="EM86" s="24"/>
+      <c r="EN86" s="24"/>
+      <c r="EO86" s="24"/>
+      <c r="EP86" s="24"/>
+      <c r="EQ86" s="24"/>
+      <c r="ER86" s="24"/>
+      <c r="ES86" s="24"/>
+      <c r="ET86" s="24"/>
+      <c r="EU86" s="24"/>
+      <c r="EV86" s="24"/>
+      <c r="EW86" s="24"/>
+      <c r="EX86" s="24"/>
+      <c r="EY86" s="24"/>
+      <c r="EZ86" s="24"/>
+      <c r="FA86" s="24"/>
+      <c r="FB86" s="24"/>
+      <c r="FC86" s="24"/>
+      <c r="FD86" s="24"/>
+      <c r="FE86" s="24"/>
+      <c r="FF86" s="24"/>
+      <c r="FG86" s="24"/>
+      <c r="FH86" s="24"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA68">
-    <sortCondition ref="C2:C68"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA73">
+    <sortCondition ref="C2:C73"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4916DCD0-3828-A14A-AD2F-C325349E2953}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35945CC7-96F7-B04C-99B7-73D39A435A29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="2520" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="275">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -848,13 +848,16 @@
     <t>dependo.87-Megaderma</t>
   </si>
   <si>
-    <t>dependo.75-Apodemus_sylvaticus</t>
-  </si>
-  <si>
     <t>Apodemus_sylvaticus</t>
   </si>
   <si>
-    <t>dependo.76-Muridae</t>
+    <t>dependo.75-apodemus</t>
+  </si>
+  <si>
+    <t>dependo.76-muridae</t>
+  </si>
+  <si>
+    <t>dependo.87-megaderma</t>
   </si>
 </sst>
 </file>
@@ -3347,10 +3350,10 @@
   <dimension ref="A1:FH86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D53" sqref="D53"/>
+      <selection pane="bottomRight" activeCell="X41" sqref="A1:AA73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13336,19 +13339,19 @@
     </row>
     <row r="49" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B49" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C49" s="25">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D49" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F49" s="22" t="s">
         <v>118</v>
@@ -13400,10 +13403,10 @@
         <v>216</v>
       </c>
       <c r="W49" s="20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="X49" s="20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Y49" s="20" t="s">
         <v>2</v>
@@ -13772,7 +13775,7 @@
     </row>
     <row r="51" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B51" s="25" t="s">
         <v>191</v>

--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35945CC7-96F7-B04C-99B7-73D39A435A29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D408629-BD27-4441-926B-9217AF18E231}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="2520" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="277">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -858,6 +858,12 @@
   </si>
   <si>
     <t>dependo.87-megaderma</t>
+  </si>
+  <si>
+    <t>ADAMTS2</t>
+  </si>
+  <si>
+    <t>dependo.88-Megaderma</t>
   </si>
 </sst>
 </file>
@@ -3347,13 +3353,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DACFF6-840F-D741-97EA-4F87EFFABC86}">
-  <dimension ref="A1:FH86"/>
+  <dimension ref="A1:FH87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X41" sqref="A1:AA73"/>
+      <selection pane="bottomRight" activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13789,8 +13795,8 @@
       <c r="E51" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="F51" s="23" t="s">
-        <v>172</v>
+      <c r="F51" s="22" t="s">
+        <v>118</v>
       </c>
       <c r="G51" s="25">
         <v>1</v>
@@ -13813,11 +13819,11 @@
       <c r="M51" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N51" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O51" s="14" t="s">
-        <v>22</v>
+      <c r="N51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P51" s="3" t="s">
         <v>84</v>
@@ -13995,61 +14001,57 @@
     </row>
     <row r="52" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="B52" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C52" s="25">
-        <v>86</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>21</v>
+        <v>88</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>15</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>172</v>
+        <v>240</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>118</v>
       </c>
       <c r="G52" s="25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H52" s="25">
-        <v>5</v>
-      </c>
-      <c r="I52" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="P52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I52" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="Q52" s="33" t="s">
-        <v>118</v>
-      </c>
+      <c r="J52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="33"/>
       <c r="R52" s="10" t="s">
-        <v>197</v>
+        <v>275</v>
       </c>
       <c r="S52" s="10" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="T52" s="8" t="s">
         <v>43</v>
@@ -14061,10 +14063,10 @@
         <v>216</v>
       </c>
       <c r="W52" s="20" t="s">
-        <v>175</v>
+        <v>276</v>
       </c>
       <c r="X52" s="20" t="s">
-        <v>175</v>
+        <v>276</v>
       </c>
       <c r="Y52" s="20" t="s">
         <v>2</v>
@@ -14215,59 +14217,61 @@
     </row>
     <row r="53" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="B53" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C53" s="25">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="F53" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G53" s="27">
-        <v>1</v>
-      </c>
-      <c r="H53" s="27">
-        <v>1</v>
-      </c>
-      <c r="I53" s="27"/>
-      <c r="J53" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O53" s="4" t="s">
-        <v>43</v>
+        <v>120</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G53" s="25">
+        <v>5</v>
+      </c>
+      <c r="H53" s="25">
+        <v>5</v>
+      </c>
+      <c r="I53" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="P53" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q53" s="34" t="s">
-        <v>191</v>
+      <c r="Q53" s="33" t="s">
+        <v>118</v>
       </c>
       <c r="R53" s="10" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="S53" s="10" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="T53" s="8" t="s">
         <v>43</v>
@@ -14279,10 +14283,10 @@
         <v>216</v>
       </c>
       <c r="W53" s="20" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="X53" s="20" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="Y53" s="20" t="s">
         <v>2</v>
@@ -14433,73 +14437,74 @@
     </row>
     <row r="54" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B54" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C54" s="25">
-        <v>160</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>40</v>
+        <v>92</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>159</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="G54" s="25">
+        <v>192</v>
+      </c>
+      <c r="G54" s="27">
         <v>1</v>
       </c>
-      <c r="H54" s="25">
+      <c r="H54" s="27">
         <v>1</v>
       </c>
-      <c r="I54" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="J54" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>42</v>
+      <c r="I54" s="27"/>
+      <c r="J54" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q54" s="10" t="s">
+      <c r="Q54" s="34" t="s">
         <v>191</v>
       </c>
       <c r="R54" s="10" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="S54" s="10" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="T54" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U54" s="8" t="s">
         <v>43</v>
       </c>
       <c r="V54" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W54" s="20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="X54" s="20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Y54" s="20" t="s">
         <v>2</v>
@@ -14650,76 +14655,73 @@
     </row>
     <row r="55" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="B55" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C55" s="25">
-        <v>174</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="F55" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="G55" s="27">
+      <c r="G55" s="25">
         <v>1</v>
       </c>
-      <c r="H55" s="27">
+      <c r="H55" s="25">
         <v>1</v>
       </c>
       <c r="I55" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="J55" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M55" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N55" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O55" s="4" t="s">
-        <v>43</v>
+      <c r="J55" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="P55" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q55" s="33" t="s">
-        <v>118</v>
+      <c r="Q55" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="R55" s="10" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="S55" s="10" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="T55" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U55" s="8" t="s">
         <v>43</v>
       </c>
       <c r="V55" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W55" s="20" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="X55" s="20" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="Y55" s="20" t="s">
         <v>2</v>
@@ -14868,30 +14870,30 @@
       <c r="FG55" s="24"/>
       <c r="FH55" s="24"/>
     </row>
-    <row r="56" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="B56" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C56" s="25">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D56" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>172</v>
       </c>
       <c r="G56" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" s="27" t="s">
         <v>191</v>
@@ -14921,10 +14923,10 @@
         <v>118</v>
       </c>
       <c r="R56" s="10" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="S56" s="10" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="T56" s="8" t="s">
         <v>43</v>
@@ -14936,10 +14938,10 @@
         <v>216</v>
       </c>
       <c r="W56" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="X56" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Y56" s="20" t="s">
         <v>2</v>
@@ -15090,49 +15092,49 @@
     </row>
     <row r="57" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="B57" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C57" s="25">
-        <v>187</v>
-      </c>
-      <c r="D57" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="F57" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="G57" s="25">
-        <v>1</v>
-      </c>
-      <c r="H57" s="25">
-        <v>1</v>
-      </c>
-      <c r="I57" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>130</v>
+      <c r="E57" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G57" s="27">
+        <v>2</v>
+      </c>
+      <c r="H57" s="27">
+        <v>2</v>
+      </c>
+      <c r="I57" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L57" s="13" t="s">
-        <v>130</v>
+      <c r="L57" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N57" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O57" s="14" t="s">
-        <v>22</v>
+      <c r="N57" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>84</v>
@@ -15141,10 +15143,10 @@
         <v>118</v>
       </c>
       <c r="R57" s="10" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="S57" s="10" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="T57" s="8" t="s">
         <v>43</v>
@@ -15156,10 +15158,10 @@
         <v>216</v>
       </c>
       <c r="W57" s="20" t="s">
-        <v>252</v>
+        <v>168</v>
       </c>
       <c r="X57" s="20" t="s">
-        <v>252</v>
+        <v>168</v>
       </c>
       <c r="Y57" s="20" t="s">
         <v>2</v>
@@ -15308,23 +15310,23 @@
       <c r="FG57" s="24"/>
       <c r="FH57" s="24"/>
     </row>
-    <row r="58" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B58" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C58" s="25">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F58" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="F58" s="20" t="s">
         <v>192</v>
       </c>
       <c r="G58" s="25">
@@ -15333,24 +15335,26 @@
       <c r="H58" s="25">
         <v>1</v>
       </c>
-      <c r="I58" s="25"/>
-      <c r="J58" s="4" t="s">
-        <v>43</v>
+      <c r="I58" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L58" s="4" t="s">
-        <v>43</v>
+      <c r="L58" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N58" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O58" s="4" t="s">
-        <v>43</v>
+      <c r="N58" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O58" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>84</v>
@@ -15359,23 +15363,25 @@
         <v>118</v>
       </c>
       <c r="R58" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="S58" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="T58" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U58" s="7"/>
+      <c r="U58" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="V58" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W58" s="20" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="X58" s="20" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="Y58" s="20" t="s">
         <v>2</v>
@@ -15524,15 +15530,15 @@
       <c r="FG58" s="24"/>
       <c r="FH58" s="24"/>
     </row>
-    <row r="59" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="B59" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C59" s="25">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D59" s="25" t="s">
         <v>14</v>
@@ -15543,11 +15549,11 @@
       <c r="F59" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G59" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="H59" s="25" t="s">
-        <v>118</v>
+      <c r="G59" s="25">
+        <v>1</v>
+      </c>
+      <c r="H59" s="25">
+        <v>1</v>
       </c>
       <c r="I59" s="25"/>
       <c r="J59" s="4" t="s">
@@ -15575,10 +15581,10 @@
         <v>118</v>
       </c>
       <c r="R59" s="10" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="S59" s="10" t="s">
-        <v>73</v>
+        <v>245</v>
       </c>
       <c r="T59" s="8" t="s">
         <v>43</v>
@@ -15742,13 +15748,13 @@
     </row>
     <row r="60" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B60" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C60" s="25">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D60" s="25" t="s">
         <v>14</v>
@@ -15791,22 +15797,23 @@
         <v>118</v>
       </c>
       <c r="R60" s="10" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="S60" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T60" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="U60" s="7"/>
       <c r="V60" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W60" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="X60" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y60" s="20" t="s">
         <v>2</v>
@@ -15955,51 +15962,49 @@
       <c r="FG60" s="24"/>
       <c r="FH60" s="24"/>
     </row>
-    <row r="61" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="C61" s="25">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="F61" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G61" s="29">
-        <v>1</v>
-      </c>
-      <c r="H61" s="29">
-        <v>1</v>
-      </c>
-      <c r="I61" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N61" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O61" s="14" t="s">
-        <v>22</v>
+      <c r="G61" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H61" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I61" s="25"/>
+      <c r="J61" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P61" s="3" t="s">
         <v>84</v>
@@ -16007,24 +16012,23 @@
       <c r="Q61" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R61" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S61" s="11" t="s">
-        <v>43</v>
+      <c r="R61" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S61" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="T61" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U61" s="7"/>
       <c r="V61" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W61" s="20" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="X61" s="20" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="Y61" s="20" t="s">
         <v>2</v>
@@ -16175,13 +16179,13 @@
     </row>
     <row r="62" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B62" s="25" t="s">
         <v>84</v>
       </c>
       <c r="C62" s="25">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>15</v>
@@ -16201,17 +16205,17 @@
       <c r="I62" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>133</v>
+      <c r="J62" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="N62" s="14" t="s">
         <v>22</v>
@@ -16234,14 +16238,15 @@
       <c r="T62" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="U62" s="7"/>
       <c r="V62" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W62" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X62" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y62" s="20" t="s">
         <v>2</v>
@@ -16392,13 +16397,13 @@
     </row>
     <row r="63" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B63" s="25" t="s">
         <v>84</v>
       </c>
       <c r="C63" s="25">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D63" s="25" t="s">
         <v>15</v>
@@ -16418,17 +16423,17 @@
       <c r="I63" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>85</v>
+      <c r="J63" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="N63" s="14" t="s">
         <v>22</v>
@@ -16442,24 +16447,23 @@
       <c r="Q63" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R63" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="S63" s="10" t="s">
-        <v>54</v>
+      <c r="R63" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S63" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T63" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U63" s="7"/>
       <c r="V63" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W63" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X63" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y63" s="20" t="s">
         <v>2</v>
@@ -16610,43 +16614,43 @@
     </row>
     <row r="64" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="C64" s="25">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D64" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E64" s="23" t="s">
-        <v>147</v>
+      <c r="E64" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="F64" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G64" s="27">
+      <c r="G64" s="29">
         <v>1</v>
       </c>
-      <c r="H64" s="27">
+      <c r="H64" s="29">
         <v>1</v>
       </c>
       <c r="I64" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="J64" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M64" s="4" t="s">
-        <v>43</v>
+      <c r="J64" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="N64" s="14" t="s">
         <v>22</v>
@@ -16660,26 +16664,24 @@
       <c r="Q64" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R64" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S64" s="11" t="s">
-        <v>43</v>
+      <c r="R64" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="S64" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="T64" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U64" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="U64" s="7"/>
       <c r="V64" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W64" s="20" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="X64" s="20" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="Y64" s="20" t="s">
         <v>2</v>
@@ -16830,22 +16832,22 @@
     </row>
     <row r="65" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B65" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C65" s="25">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D65" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>193</v>
+        <v>147</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="G65" s="27">
         <v>1</v>
@@ -16853,8 +16855,8 @@
       <c r="H65" s="27">
         <v>1</v>
       </c>
-      <c r="I65" s="25" t="s">
-        <v>191</v>
+      <c r="I65" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>43</v>
@@ -16868,11 +16870,11 @@
       <c r="M65" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N65" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O65" s="4" t="s">
-        <v>43</v>
+      <c r="N65" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O65" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="P65" s="3" t="s">
         <v>84</v>
@@ -16880,11 +16882,11 @@
       <c r="Q65" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R65" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="S65" s="10" t="s">
-        <v>181</v>
+      <c r="R65" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S65" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T65" s="8" t="s">
         <v>43</v>
@@ -16896,10 +16898,10 @@
         <v>216</v>
       </c>
       <c r="W65" s="20" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="X65" s="20" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="Y65" s="20" t="s">
         <v>2</v>
@@ -17050,22 +17052,22 @@
     </row>
     <row r="66" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="C66" s="25">
-        <v>221</v>
-      </c>
-      <c r="D66" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="D66" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F66" s="22" t="s">
-        <v>192</v>
+        <v>146</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="G66" s="27">
         <v>1</v>
@@ -17083,16 +17085,16 @@
         <v>43</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M66" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="N66" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O66" s="14" t="s">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>84</v>
@@ -17101,10 +17103,10 @@
         <v>118</v>
       </c>
       <c r="R66" s="10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="S66" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="T66" s="8" t="s">
         <v>43</v>
@@ -17116,10 +17118,10 @@
         <v>216</v>
       </c>
       <c r="W66" s="20" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="X66" s="20" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="Y66" s="20" t="s">
         <v>2</v>
@@ -17270,28 +17272,28 @@
     </row>
     <row r="67" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="C67" s="25">
-        <v>365</v>
-      </c>
-      <c r="D67" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>95</v>
+        <v>221</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>153</v>
       </c>
       <c r="F67" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G67" s="25">
-        <v>7</v>
-      </c>
-      <c r="H67" s="25">
-        <v>7</v>
+      <c r="G67" s="27">
+        <v>1</v>
+      </c>
+      <c r="H67" s="27">
+        <v>1</v>
       </c>
       <c r="I67" s="25" t="s">
         <v>191</v>
@@ -17303,10 +17305,10 @@
         <v>43</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M67" s="4" t="s">
-        <v>43</v>
+        <v>132</v>
+      </c>
+      <c r="M67" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="N67" s="14" t="s">
         <v>22</v>
@@ -17321,10 +17323,10 @@
         <v>118</v>
       </c>
       <c r="R67" s="10" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="S67" s="10" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="T67" s="8" t="s">
         <v>43</v>
@@ -17336,10 +17338,10 @@
         <v>216</v>
       </c>
       <c r="W67" s="20" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="X67" s="20" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="Y67" s="20" t="s">
         <v>2</v>
@@ -17350,16 +17352,153 @@
       <c r="AA67" s="20" t="s">
         <v>3</v>
       </c>
+      <c r="AB67" s="24"/>
+      <c r="AC67" s="24"/>
+      <c r="AD67" s="24"/>
+      <c r="AE67" s="24"/>
+      <c r="AF67" s="24"/>
+      <c r="AG67" s="24"/>
+      <c r="AH67" s="24"/>
+      <c r="AI67" s="24"/>
+      <c r="AJ67" s="24"/>
+      <c r="AK67" s="24"/>
+      <c r="AL67" s="24"/>
+      <c r="AM67" s="24"/>
+      <c r="AN67" s="24"/>
+      <c r="AO67" s="24"/>
+      <c r="AP67" s="24"/>
+      <c r="AQ67" s="24"/>
+      <c r="AR67" s="24"/>
+      <c r="AS67" s="24"/>
+      <c r="AT67" s="24"/>
+      <c r="AU67" s="24"/>
+      <c r="AV67" s="24"/>
+      <c r="AW67" s="24"/>
+      <c r="AX67" s="24"/>
+      <c r="AY67" s="24"/>
+      <c r="AZ67" s="24"/>
+      <c r="BA67" s="24"/>
+      <c r="BB67" s="24"/>
+      <c r="BC67" s="24"/>
+      <c r="BD67" s="24"/>
+      <c r="BE67" s="24"/>
+      <c r="BF67" s="24"/>
+      <c r="BG67" s="24"/>
+      <c r="BH67" s="24"/>
+      <c r="BI67" s="24"/>
+      <c r="BJ67" s="24"/>
+      <c r="BK67" s="24"/>
+      <c r="BL67" s="24"/>
+      <c r="BM67" s="24"/>
+      <c r="BN67" s="24"/>
+      <c r="BO67" s="24"/>
+      <c r="BP67" s="24"/>
+      <c r="BQ67" s="24"/>
+      <c r="BR67" s="24"/>
+      <c r="BS67" s="24"/>
+      <c r="BT67" s="24"/>
+      <c r="BU67" s="24"/>
+      <c r="BV67" s="24"/>
+      <c r="BW67" s="24"/>
+      <c r="BX67" s="24"/>
+      <c r="BY67" s="24"/>
+      <c r="BZ67" s="24"/>
+      <c r="CA67" s="24"/>
+      <c r="CB67" s="24"/>
+      <c r="CC67" s="24"/>
+      <c r="CD67" s="24"/>
+      <c r="CE67" s="24"/>
+      <c r="CF67" s="24"/>
+      <c r="CG67" s="24"/>
+      <c r="CH67" s="24"/>
+      <c r="CI67" s="24"/>
+      <c r="CJ67" s="24"/>
+      <c r="CK67" s="24"/>
+      <c r="CL67" s="24"/>
+      <c r="CM67" s="24"/>
+      <c r="CN67" s="24"/>
+      <c r="CO67" s="24"/>
+      <c r="CP67" s="24"/>
+      <c r="CQ67" s="24"/>
+      <c r="CR67" s="24"/>
+      <c r="CS67" s="24"/>
+      <c r="CT67" s="24"/>
+      <c r="CU67" s="24"/>
+      <c r="CV67" s="24"/>
+      <c r="CW67" s="24"/>
+      <c r="CX67" s="24"/>
+      <c r="CY67" s="24"/>
+      <c r="CZ67" s="24"/>
+      <c r="DA67" s="24"/>
+      <c r="DB67" s="24"/>
+      <c r="DC67" s="24"/>
+      <c r="DD67" s="24"/>
+      <c r="DE67" s="24"/>
+      <c r="DF67" s="24"/>
+      <c r="DG67" s="24"/>
+      <c r="DH67" s="24"/>
+      <c r="DI67" s="24"/>
+      <c r="DJ67" s="24"/>
+      <c r="DK67" s="24"/>
+      <c r="DL67" s="24"/>
+      <c r="DM67" s="24"/>
+      <c r="DN67" s="24"/>
+      <c r="DO67" s="24"/>
+      <c r="DP67" s="24"/>
+      <c r="DQ67" s="24"/>
+      <c r="DR67" s="24"/>
+      <c r="DS67" s="24"/>
+      <c r="DT67" s="24"/>
+      <c r="DU67" s="24"/>
+      <c r="DV67" s="24"/>
+      <c r="DW67" s="24"/>
+      <c r="DX67" s="24"/>
+      <c r="DY67" s="24"/>
+      <c r="DZ67" s="24"/>
+      <c r="EA67" s="24"/>
+      <c r="EB67" s="24"/>
+      <c r="EC67" s="24"/>
+      <c r="ED67" s="24"/>
+      <c r="EE67" s="24"/>
+      <c r="EF67" s="24"/>
+      <c r="EG67" s="24"/>
+      <c r="EH67" s="24"/>
+      <c r="EI67" s="24"/>
+      <c r="EJ67" s="24"/>
+      <c r="EK67" s="24"/>
+      <c r="EL67" s="24"/>
+      <c r="EM67" s="24"/>
+      <c r="EN67" s="24"/>
+      <c r="EO67" s="24"/>
+      <c r="EP67" s="24"/>
+      <c r="EQ67" s="24"/>
+      <c r="ER67" s="24"/>
+      <c r="ES67" s="24"/>
+      <c r="ET67" s="24"/>
+      <c r="EU67" s="24"/>
+      <c r="EV67" s="24"/>
+      <c r="EW67" s="24"/>
+      <c r="EX67" s="24"/>
+      <c r="EY67" s="24"/>
+      <c r="EZ67" s="24"/>
+      <c r="FA67" s="24"/>
+      <c r="FB67" s="24"/>
+      <c r="FC67" s="24"/>
+      <c r="FD67" s="24"/>
+      <c r="FE67" s="24"/>
+      <c r="FF67" s="24"/>
+      <c r="FG67" s="24"/>
+      <c r="FH67" s="24"/>
     </row>
     <row r="68" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B68" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C68" s="25">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D68" s="25" t="s">
         <v>14</v>
@@ -17371,10 +17510,10 @@
         <v>192</v>
       </c>
       <c r="G68" s="25">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H68" s="25">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I68" s="25" t="s">
         <v>191</v>
@@ -17404,10 +17543,10 @@
         <v>118</v>
       </c>
       <c r="R68" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S68" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T68" s="8" t="s">
         <v>43</v>
@@ -17419,10 +17558,10 @@
         <v>216</v>
       </c>
       <c r="W68" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X68" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y68" s="20" t="s">
         <v>2</v>
@@ -17433,177 +17572,40 @@
       <c r="AA68" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AB68" s="24"/>
-      <c r="AC68" s="24"/>
-      <c r="AD68" s="24"/>
-      <c r="AE68" s="24"/>
-      <c r="AF68" s="24"/>
-      <c r="AG68" s="24"/>
-      <c r="AH68" s="24"/>
-      <c r="AI68" s="24"/>
-      <c r="AJ68" s="24"/>
-      <c r="AK68" s="24"/>
-      <c r="AL68" s="24"/>
-      <c r="AM68" s="24"/>
-      <c r="AN68" s="24"/>
-      <c r="AO68" s="24"/>
-      <c r="AP68" s="24"/>
-      <c r="AQ68" s="24"/>
-      <c r="AR68" s="24"/>
-      <c r="AS68" s="24"/>
-      <c r="AT68" s="24"/>
-      <c r="AU68" s="24"/>
-      <c r="AV68" s="24"/>
-      <c r="AW68" s="24"/>
-      <c r="AX68" s="24"/>
-      <c r="AY68" s="24"/>
-      <c r="AZ68" s="24"/>
-      <c r="BA68" s="24"/>
-      <c r="BB68" s="24"/>
-      <c r="BC68" s="24"/>
-      <c r="BD68" s="24"/>
-      <c r="BE68" s="24"/>
-      <c r="BF68" s="24"/>
-      <c r="BG68" s="24"/>
-      <c r="BH68" s="24"/>
-      <c r="BI68" s="24"/>
-      <c r="BJ68" s="24"/>
-      <c r="BK68" s="24"/>
-      <c r="BL68" s="24"/>
-      <c r="BM68" s="24"/>
-      <c r="BN68" s="24"/>
-      <c r="BO68" s="24"/>
-      <c r="BP68" s="24"/>
-      <c r="BQ68" s="24"/>
-      <c r="BR68" s="24"/>
-      <c r="BS68" s="24"/>
-      <c r="BT68" s="24"/>
-      <c r="BU68" s="24"/>
-      <c r="BV68" s="24"/>
-      <c r="BW68" s="24"/>
-      <c r="BX68" s="24"/>
-      <c r="BY68" s="24"/>
-      <c r="BZ68" s="24"/>
-      <c r="CA68" s="24"/>
-      <c r="CB68" s="24"/>
-      <c r="CC68" s="24"/>
-      <c r="CD68" s="24"/>
-      <c r="CE68" s="24"/>
-      <c r="CF68" s="24"/>
-      <c r="CG68" s="24"/>
-      <c r="CH68" s="24"/>
-      <c r="CI68" s="24"/>
-      <c r="CJ68" s="24"/>
-      <c r="CK68" s="24"/>
-      <c r="CL68" s="24"/>
-      <c r="CM68" s="24"/>
-      <c r="CN68" s="24"/>
-      <c r="CO68" s="24"/>
-      <c r="CP68" s="24"/>
-      <c r="CQ68" s="24"/>
-      <c r="CR68" s="24"/>
-      <c r="CS68" s="24"/>
-      <c r="CT68" s="24"/>
-      <c r="CU68" s="24"/>
-      <c r="CV68" s="24"/>
-      <c r="CW68" s="24"/>
-      <c r="CX68" s="24"/>
-      <c r="CY68" s="24"/>
-      <c r="CZ68" s="24"/>
-      <c r="DA68" s="24"/>
-      <c r="DB68" s="24"/>
-      <c r="DC68" s="24"/>
-      <c r="DD68" s="24"/>
-      <c r="DE68" s="24"/>
-      <c r="DF68" s="24"/>
-      <c r="DG68" s="24"/>
-      <c r="DH68" s="24"/>
-      <c r="DI68" s="24"/>
-      <c r="DJ68" s="24"/>
-      <c r="DK68" s="24"/>
-      <c r="DL68" s="24"/>
-      <c r="DM68" s="24"/>
-      <c r="DN68" s="24"/>
-      <c r="DO68" s="24"/>
-      <c r="DP68" s="24"/>
-      <c r="DQ68" s="24"/>
-      <c r="DR68" s="24"/>
-      <c r="DS68" s="24"/>
-      <c r="DT68" s="24"/>
-      <c r="DU68" s="24"/>
-      <c r="DV68" s="24"/>
-      <c r="DW68" s="24"/>
-      <c r="DX68" s="24"/>
-      <c r="DY68" s="24"/>
-      <c r="DZ68" s="24"/>
-      <c r="EA68" s="24"/>
-      <c r="EB68" s="24"/>
-      <c r="EC68" s="24"/>
-      <c r="ED68" s="24"/>
-      <c r="EE68" s="24"/>
-      <c r="EF68" s="24"/>
-      <c r="EG68" s="24"/>
-      <c r="EH68" s="24"/>
-      <c r="EI68" s="24"/>
-      <c r="EJ68" s="24"/>
-      <c r="EK68" s="24"/>
-      <c r="EL68" s="24"/>
-      <c r="EM68" s="24"/>
-      <c r="EN68" s="24"/>
-      <c r="EO68" s="24"/>
-      <c r="EP68" s="24"/>
-      <c r="EQ68" s="24"/>
-      <c r="ER68" s="24"/>
-      <c r="ES68" s="24"/>
-      <c r="ET68" s="24"/>
-      <c r="EU68" s="24"/>
-      <c r="EV68" s="24"/>
-      <c r="EW68" s="24"/>
-      <c r="EX68" s="24"/>
-      <c r="EY68" s="24"/>
-      <c r="EZ68" s="24"/>
-      <c r="FA68" s="24"/>
-      <c r="FB68" s="24"/>
-      <c r="FC68" s="24"/>
-      <c r="FD68" s="24"/>
-      <c r="FE68" s="24"/>
-      <c r="FF68" s="24"/>
-      <c r="FG68" s="24"/>
-      <c r="FH68" s="24"/>
     </row>
     <row r="69" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="B69" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C69" s="25">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" s="23" t="s">
-        <v>145</v>
+        <v>14</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="F69" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G69" s="27">
-        <v>1</v>
-      </c>
-      <c r="H69" s="27">
-        <v>1</v>
+      <c r="G69" s="25">
+        <v>20</v>
+      </c>
+      <c r="H69" s="25">
+        <v>20</v>
       </c>
       <c r="I69" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="J69" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K69" s="21" t="s">
-        <v>139</v>
+      <c r="J69" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="L69" s="4" t="s">
         <v>43</v>
@@ -17623,24 +17625,26 @@
       <c r="Q69" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R69" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S69" s="11" t="s">
-        <v>43</v>
+      <c r="R69" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="S69" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="T69" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U69" s="7"/>
+      <c r="U69" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="V69" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W69" s="20" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="X69" s="20" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="Y69" s="20" t="s">
         <v>2</v>
@@ -17791,37 +17795,37 @@
     </row>
     <row r="70" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="B70" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C70" s="25">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D70" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="G70" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="H70" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="I70" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>43</v>
+        <v>192</v>
+      </c>
+      <c r="G70" s="27">
+        <v>1</v>
+      </c>
+      <c r="H70" s="27">
+        <v>1</v>
+      </c>
+      <c r="I70" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J70" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K70" s="21" t="s">
+        <v>139</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>43</v>
@@ -17829,11 +17833,11 @@
       <c r="M70" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N70" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O70" s="4" t="s">
-        <v>43</v>
+      <c r="N70" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O70" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="P70" s="3" t="s">
         <v>84</v>
@@ -17841,11 +17845,11 @@
       <c r="Q70" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R70" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="S70" s="10" t="s">
-        <v>260</v>
+      <c r="R70" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S70" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T70" s="8" t="s">
         <v>43</v>
@@ -17855,10 +17859,10 @@
         <v>216</v>
       </c>
       <c r="W70" s="20" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="X70" s="20" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="Y70" s="20" t="s">
         <v>2</v>
@@ -18009,49 +18013,49 @@
     </row>
     <row r="71" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
-        <v>134</v>
+        <v>257</v>
       </c>
       <c r="B71" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C71" s="25">
-        <v>500</v>
+        <v>372</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>136</v>
+        <v>258</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G71" s="27">
-        <v>1</v>
-      </c>
-      <c r="H71" s="27">
-        <v>1</v>
-      </c>
-      <c r="I71" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="J71" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K71" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="L71" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="M71" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="N71" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O71" s="14" t="s">
-        <v>22</v>
+        <v>118</v>
+      </c>
+      <c r="G71" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H71" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I71" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P71" s="3" t="s">
         <v>84</v>
@@ -18059,40 +18063,175 @@
       <c r="Q71" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R71" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S71" s="11" t="s">
-        <v>43</v>
+      <c r="R71" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="S71" s="10" t="s">
+        <v>260</v>
       </c>
       <c r="T71" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U71" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="U71" s="7"/>
       <c r="V71" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W71" s="20" t="s">
-        <v>134</v>
+        <v>257</v>
       </c>
       <c r="X71" s="20" t="s">
-        <v>134</v>
+        <v>257</v>
       </c>
       <c r="Y71" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z71" s="20" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="AA71" s="20" t="s">
         <v>3</v>
       </c>
+      <c r="AB71" s="24"/>
+      <c r="AC71" s="24"/>
+      <c r="AD71" s="24"/>
+      <c r="AE71" s="24"/>
+      <c r="AF71" s="24"/>
+      <c r="AG71" s="24"/>
+      <c r="AH71" s="24"/>
+      <c r="AI71" s="24"/>
+      <c r="AJ71" s="24"/>
+      <c r="AK71" s="24"/>
+      <c r="AL71" s="24"/>
+      <c r="AM71" s="24"/>
+      <c r="AN71" s="24"/>
+      <c r="AO71" s="24"/>
+      <c r="AP71" s="24"/>
+      <c r="AQ71" s="24"/>
+      <c r="AR71" s="24"/>
+      <c r="AS71" s="24"/>
+      <c r="AT71" s="24"/>
+      <c r="AU71" s="24"/>
+      <c r="AV71" s="24"/>
+      <c r="AW71" s="24"/>
+      <c r="AX71" s="24"/>
+      <c r="AY71" s="24"/>
+      <c r="AZ71" s="24"/>
+      <c r="BA71" s="24"/>
+      <c r="BB71" s="24"/>
+      <c r="BC71" s="24"/>
+      <c r="BD71" s="24"/>
+      <c r="BE71" s="24"/>
+      <c r="BF71" s="24"/>
+      <c r="BG71" s="24"/>
+      <c r="BH71" s="24"/>
+      <c r="BI71" s="24"/>
+      <c r="BJ71" s="24"/>
+      <c r="BK71" s="24"/>
+      <c r="BL71" s="24"/>
+      <c r="BM71" s="24"/>
+      <c r="BN71" s="24"/>
+      <c r="BO71" s="24"/>
+      <c r="BP71" s="24"/>
+      <c r="BQ71" s="24"/>
+      <c r="BR71" s="24"/>
+      <c r="BS71" s="24"/>
+      <c r="BT71" s="24"/>
+      <c r="BU71" s="24"/>
+      <c r="BV71" s="24"/>
+      <c r="BW71" s="24"/>
+      <c r="BX71" s="24"/>
+      <c r="BY71" s="24"/>
+      <c r="BZ71" s="24"/>
+      <c r="CA71" s="24"/>
+      <c r="CB71" s="24"/>
+      <c r="CC71" s="24"/>
+      <c r="CD71" s="24"/>
+      <c r="CE71" s="24"/>
+      <c r="CF71" s="24"/>
+      <c r="CG71" s="24"/>
+      <c r="CH71" s="24"/>
+      <c r="CI71" s="24"/>
+      <c r="CJ71" s="24"/>
+      <c r="CK71" s="24"/>
+      <c r="CL71" s="24"/>
+      <c r="CM71" s="24"/>
+      <c r="CN71" s="24"/>
+      <c r="CO71" s="24"/>
+      <c r="CP71" s="24"/>
+      <c r="CQ71" s="24"/>
+      <c r="CR71" s="24"/>
+      <c r="CS71" s="24"/>
+      <c r="CT71" s="24"/>
+      <c r="CU71" s="24"/>
+      <c r="CV71" s="24"/>
+      <c r="CW71" s="24"/>
+      <c r="CX71" s="24"/>
+      <c r="CY71" s="24"/>
+      <c r="CZ71" s="24"/>
+      <c r="DA71" s="24"/>
+      <c r="DB71" s="24"/>
+      <c r="DC71" s="24"/>
+      <c r="DD71" s="24"/>
+      <c r="DE71" s="24"/>
+      <c r="DF71" s="24"/>
+      <c r="DG71" s="24"/>
+      <c r="DH71" s="24"/>
+      <c r="DI71" s="24"/>
+      <c r="DJ71" s="24"/>
+      <c r="DK71" s="24"/>
+      <c r="DL71" s="24"/>
+      <c r="DM71" s="24"/>
+      <c r="DN71" s="24"/>
+      <c r="DO71" s="24"/>
+      <c r="DP71" s="24"/>
+      <c r="DQ71" s="24"/>
+      <c r="DR71" s="24"/>
+      <c r="DS71" s="24"/>
+      <c r="DT71" s="24"/>
+      <c r="DU71" s="24"/>
+      <c r="DV71" s="24"/>
+      <c r="DW71" s="24"/>
+      <c r="DX71" s="24"/>
+      <c r="DY71" s="24"/>
+      <c r="DZ71" s="24"/>
+      <c r="EA71" s="24"/>
+      <c r="EB71" s="24"/>
+      <c r="EC71" s="24"/>
+      <c r="ED71" s="24"/>
+      <c r="EE71" s="24"/>
+      <c r="EF71" s="24"/>
+      <c r="EG71" s="24"/>
+      <c r="EH71" s="24"/>
+      <c r="EI71" s="24"/>
+      <c r="EJ71" s="24"/>
+      <c r="EK71" s="24"/>
+      <c r="EL71" s="24"/>
+      <c r="EM71" s="24"/>
+      <c r="EN71" s="24"/>
+      <c r="EO71" s="24"/>
+      <c r="EP71" s="24"/>
+      <c r="EQ71" s="24"/>
+      <c r="ER71" s="24"/>
+      <c r="ES71" s="24"/>
+      <c r="ET71" s="24"/>
+      <c r="EU71" s="24"/>
+      <c r="EV71" s="24"/>
+      <c r="EW71" s="24"/>
+      <c r="EX71" s="24"/>
+      <c r="EY71" s="24"/>
+      <c r="EZ71" s="24"/>
+      <c r="FA71" s="24"/>
+      <c r="FB71" s="24"/>
+      <c r="FC71" s="24"/>
+      <c r="FD71" s="24"/>
+      <c r="FE71" s="24"/>
+      <c r="FF71" s="24"/>
+      <c r="FG71" s="24"/>
+      <c r="FH71" s="24"/>
     </row>
     <row r="72" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B72" s="25" t="s">
         <v>191</v>
@@ -18158,16 +18297,16 @@
         <v>216</v>
       </c>
       <c r="W72" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X72" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y72" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z72" s="20" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="AA72" s="20" t="s">
         <v>3</v>
@@ -18175,7 +18314,7 @@
     </row>
     <row r="73" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B73" s="25" t="s">
         <v>191</v>
@@ -18241,10 +18380,10 @@
         <v>216</v>
       </c>
       <c r="W73" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="X73" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="Y73" s="20" t="s">
         <v>2</v>
@@ -18257,143 +18396,87 @@
       </c>
     </row>
     <row r="74" spans="1:164" x14ac:dyDescent="0.2">
-      <c r="AB74" s="24"/>
-      <c r="AC74" s="24"/>
-      <c r="AD74" s="24"/>
-      <c r="AE74" s="24"/>
-      <c r="AF74" s="24"/>
-      <c r="AG74" s="24"/>
-      <c r="AH74" s="24"/>
-      <c r="AI74" s="24"/>
-      <c r="AJ74" s="24"/>
-      <c r="AK74" s="24"/>
-      <c r="AL74" s="24"/>
-      <c r="AM74" s="24"/>
-      <c r="AN74" s="24"/>
-      <c r="AO74" s="24"/>
-      <c r="AP74" s="24"/>
-      <c r="AQ74" s="24"/>
-      <c r="AR74" s="24"/>
-      <c r="AS74" s="24"/>
-      <c r="AT74" s="24"/>
-      <c r="AU74" s="24"/>
-      <c r="AV74" s="24"/>
-      <c r="AW74" s="24"/>
-      <c r="AX74" s="24"/>
-      <c r="AY74" s="24"/>
-      <c r="AZ74" s="24"/>
-      <c r="BA74" s="24"/>
-      <c r="BB74" s="24"/>
-      <c r="BC74" s="24"/>
-      <c r="BD74" s="24"/>
-      <c r="BE74" s="24"/>
-      <c r="BF74" s="24"/>
-      <c r="BG74" s="24"/>
-      <c r="BH74" s="24"/>
-      <c r="BI74" s="24"/>
-      <c r="BJ74" s="24"/>
-      <c r="BK74" s="24"/>
-      <c r="BL74" s="24"/>
-      <c r="BM74" s="24"/>
-      <c r="BN74" s="24"/>
-      <c r="BO74" s="24"/>
-      <c r="BP74" s="24"/>
-      <c r="BQ74" s="24"/>
-      <c r="BR74" s="24"/>
-      <c r="BS74" s="24"/>
-      <c r="BT74" s="24"/>
-      <c r="BU74" s="24"/>
-      <c r="BV74" s="24"/>
-      <c r="BW74" s="24"/>
-      <c r="BX74" s="24"/>
-      <c r="BY74" s="24"/>
-      <c r="BZ74" s="24"/>
-      <c r="CA74" s="24"/>
-      <c r="CB74" s="24"/>
-      <c r="CC74" s="24"/>
-      <c r="CD74" s="24"/>
-      <c r="CE74" s="24"/>
-      <c r="CF74" s="24"/>
-      <c r="CG74" s="24"/>
-      <c r="CH74" s="24"/>
-      <c r="CI74" s="24"/>
-      <c r="CJ74" s="24"/>
-      <c r="CK74" s="24"/>
-      <c r="CL74" s="24"/>
-      <c r="CM74" s="24"/>
-      <c r="CN74" s="24"/>
-      <c r="CO74" s="24"/>
-      <c r="CP74" s="24"/>
-      <c r="CQ74" s="24"/>
-      <c r="CR74" s="24"/>
-      <c r="CS74" s="24"/>
-      <c r="CT74" s="24"/>
-      <c r="CU74" s="24"/>
-      <c r="CV74" s="24"/>
-      <c r="CW74" s="24"/>
-      <c r="CX74" s="24"/>
-      <c r="CY74" s="24"/>
-      <c r="CZ74" s="24"/>
-      <c r="DA74" s="24"/>
-      <c r="DB74" s="24"/>
-      <c r="DC74" s="24"/>
-      <c r="DD74" s="24"/>
-      <c r="DE74" s="24"/>
-      <c r="DF74" s="24"/>
-      <c r="DG74" s="24"/>
-      <c r="DH74" s="24"/>
-      <c r="DI74" s="24"/>
-      <c r="DJ74" s="24"/>
-      <c r="DK74" s="24"/>
-      <c r="DL74" s="24"/>
-      <c r="DM74" s="24"/>
-      <c r="DN74" s="24"/>
-      <c r="DO74" s="24"/>
-      <c r="DP74" s="24"/>
-      <c r="DQ74" s="24"/>
-      <c r="DR74" s="24"/>
-      <c r="DS74" s="24"/>
-      <c r="DT74" s="24"/>
-      <c r="DU74" s="24"/>
-      <c r="DV74" s="24"/>
-      <c r="DW74" s="24"/>
-      <c r="DX74" s="24"/>
-      <c r="DY74" s="24"/>
-      <c r="DZ74" s="24"/>
-      <c r="EA74" s="24"/>
-      <c r="EB74" s="24"/>
-      <c r="EC74" s="24"/>
-      <c r="ED74" s="24"/>
-      <c r="EE74" s="24"/>
-      <c r="EF74" s="24"/>
-      <c r="EG74" s="24"/>
-      <c r="EH74" s="24"/>
-      <c r="EI74" s="24"/>
-      <c r="EJ74" s="24"/>
-      <c r="EK74" s="24"/>
-      <c r="EL74" s="24"/>
-      <c r="EM74" s="24"/>
-      <c r="EN74" s="24"/>
-      <c r="EO74" s="24"/>
-      <c r="EP74" s="24"/>
-      <c r="EQ74" s="24"/>
-      <c r="ER74" s="24"/>
-      <c r="ES74" s="24"/>
-      <c r="ET74" s="24"/>
-      <c r="EU74" s="24"/>
-      <c r="EV74" s="24"/>
-      <c r="EW74" s="24"/>
-      <c r="EX74" s="24"/>
-      <c r="EY74" s="24"/>
-      <c r="EZ74" s="24"/>
-      <c r="FA74" s="24"/>
-      <c r="FB74" s="24"/>
-      <c r="FC74" s="24"/>
-      <c r="FD74" s="24"/>
-      <c r="FE74" s="24"/>
-      <c r="FF74" s="24"/>
-      <c r="FG74" s="24"/>
-      <c r="FH74" s="24"/>
+      <c r="A74" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C74" s="25">
+        <v>500</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G74" s="27">
+        <v>1</v>
+      </c>
+      <c r="H74" s="27">
+        <v>1</v>
+      </c>
+      <c r="I74" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J74" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K74" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L74" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M74" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="N74" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O74" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q74" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="R74" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S74" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T74" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U74" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V74" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="W74" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="X74" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y74" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z74" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA74" s="20" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="75" spans="1:164" x14ac:dyDescent="0.2">
       <c r="AB75" s="24"/>
@@ -20063,9 +20146,148 @@
       <c r="FG86" s="24"/>
       <c r="FH86" s="24"/>
     </row>
+    <row r="87" spans="28:164" x14ac:dyDescent="0.2">
+      <c r="AB87" s="24"/>
+      <c r="AC87" s="24"/>
+      <c r="AD87" s="24"/>
+      <c r="AE87" s="24"/>
+      <c r="AF87" s="24"/>
+      <c r="AG87" s="24"/>
+      <c r="AH87" s="24"/>
+      <c r="AI87" s="24"/>
+      <c r="AJ87" s="24"/>
+      <c r="AK87" s="24"/>
+      <c r="AL87" s="24"/>
+      <c r="AM87" s="24"/>
+      <c r="AN87" s="24"/>
+      <c r="AO87" s="24"/>
+      <c r="AP87" s="24"/>
+      <c r="AQ87" s="24"/>
+      <c r="AR87" s="24"/>
+      <c r="AS87" s="24"/>
+      <c r="AT87" s="24"/>
+      <c r="AU87" s="24"/>
+      <c r="AV87" s="24"/>
+      <c r="AW87" s="24"/>
+      <c r="AX87" s="24"/>
+      <c r="AY87" s="24"/>
+      <c r="AZ87" s="24"/>
+      <c r="BA87" s="24"/>
+      <c r="BB87" s="24"/>
+      <c r="BC87" s="24"/>
+      <c r="BD87" s="24"/>
+      <c r="BE87" s="24"/>
+      <c r="BF87" s="24"/>
+      <c r="BG87" s="24"/>
+      <c r="BH87" s="24"/>
+      <c r="BI87" s="24"/>
+      <c r="BJ87" s="24"/>
+      <c r="BK87" s="24"/>
+      <c r="BL87" s="24"/>
+      <c r="BM87" s="24"/>
+      <c r="BN87" s="24"/>
+      <c r="BO87" s="24"/>
+      <c r="BP87" s="24"/>
+      <c r="BQ87" s="24"/>
+      <c r="BR87" s="24"/>
+      <c r="BS87" s="24"/>
+      <c r="BT87" s="24"/>
+      <c r="BU87" s="24"/>
+      <c r="BV87" s="24"/>
+      <c r="BW87" s="24"/>
+      <c r="BX87" s="24"/>
+      <c r="BY87" s="24"/>
+      <c r="BZ87" s="24"/>
+      <c r="CA87" s="24"/>
+      <c r="CB87" s="24"/>
+      <c r="CC87" s="24"/>
+      <c r="CD87" s="24"/>
+      <c r="CE87" s="24"/>
+      <c r="CF87" s="24"/>
+      <c r="CG87" s="24"/>
+      <c r="CH87" s="24"/>
+      <c r="CI87" s="24"/>
+      <c r="CJ87" s="24"/>
+      <c r="CK87" s="24"/>
+      <c r="CL87" s="24"/>
+      <c r="CM87" s="24"/>
+      <c r="CN87" s="24"/>
+      <c r="CO87" s="24"/>
+      <c r="CP87" s="24"/>
+      <c r="CQ87" s="24"/>
+      <c r="CR87" s="24"/>
+      <c r="CS87" s="24"/>
+      <c r="CT87" s="24"/>
+      <c r="CU87" s="24"/>
+      <c r="CV87" s="24"/>
+      <c r="CW87" s="24"/>
+      <c r="CX87" s="24"/>
+      <c r="CY87" s="24"/>
+      <c r="CZ87" s="24"/>
+      <c r="DA87" s="24"/>
+      <c r="DB87" s="24"/>
+      <c r="DC87" s="24"/>
+      <c r="DD87" s="24"/>
+      <c r="DE87" s="24"/>
+      <c r="DF87" s="24"/>
+      <c r="DG87" s="24"/>
+      <c r="DH87" s="24"/>
+      <c r="DI87" s="24"/>
+      <c r="DJ87" s="24"/>
+      <c r="DK87" s="24"/>
+      <c r="DL87" s="24"/>
+      <c r="DM87" s="24"/>
+      <c r="DN87" s="24"/>
+      <c r="DO87" s="24"/>
+      <c r="DP87" s="24"/>
+      <c r="DQ87" s="24"/>
+      <c r="DR87" s="24"/>
+      <c r="DS87" s="24"/>
+      <c r="DT87" s="24"/>
+      <c r="DU87" s="24"/>
+      <c r="DV87" s="24"/>
+      <c r="DW87" s="24"/>
+      <c r="DX87" s="24"/>
+      <c r="DY87" s="24"/>
+      <c r="DZ87" s="24"/>
+      <c r="EA87" s="24"/>
+      <c r="EB87" s="24"/>
+      <c r="EC87" s="24"/>
+      <c r="ED87" s="24"/>
+      <c r="EE87" s="24"/>
+      <c r="EF87" s="24"/>
+      <c r="EG87" s="24"/>
+      <c r="EH87" s="24"/>
+      <c r="EI87" s="24"/>
+      <c r="EJ87" s="24"/>
+      <c r="EK87" s="24"/>
+      <c r="EL87" s="24"/>
+      <c r="EM87" s="24"/>
+      <c r="EN87" s="24"/>
+      <c r="EO87" s="24"/>
+      <c r="EP87" s="24"/>
+      <c r="EQ87" s="24"/>
+      <c r="ER87" s="24"/>
+      <c r="ES87" s="24"/>
+      <c r="ET87" s="24"/>
+      <c r="EU87" s="24"/>
+      <c r="EV87" s="24"/>
+      <c r="EW87" s="24"/>
+      <c r="EX87" s="24"/>
+      <c r="EY87" s="24"/>
+      <c r="EZ87" s="24"/>
+      <c r="FA87" s="24"/>
+      <c r="FB87" s="24"/>
+      <c r="FC87" s="24"/>
+      <c r="FD87" s="24"/>
+      <c r="FE87" s="24"/>
+      <c r="FF87" s="24"/>
+      <c r="FG87" s="24"/>
+      <c r="FH87" s="24"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA73">
-    <sortCondition ref="C2:C73"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA74">
+    <sortCondition ref="C2:C74"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D408629-BD27-4441-926B-9217AF18E231}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D136241D-7E98-0143-AF4D-9269C74CC9D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="2520" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="280">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -864,6 +864,15 @@
   </si>
   <si>
     <t>dependo.88-Megaderma</t>
+  </si>
+  <si>
+    <t>dependo.100-cuniculus</t>
+  </si>
+  <si>
+    <t>Cuniculus paca</t>
+  </si>
+  <si>
+    <t>dependo.88-megaderma</t>
   </si>
 </sst>
 </file>
@@ -3353,13 +3362,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DACFF6-840F-D741-97EA-4F87EFFABC86}">
-  <dimension ref="A1:FH87"/>
+  <dimension ref="A1:FH88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L51" sqref="L51"/>
+      <selection pane="bottomRight" activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14001,7 +14010,7 @@
     </row>
     <row r="52" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B52" s="25" t="s">
         <v>191</v>
@@ -14655,73 +14664,74 @@
     </row>
     <row r="55" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="B55" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C55" s="25">
-        <v>160</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>40</v>
+        <v>100</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>278</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="G55" s="25">
-        <v>1</v>
-      </c>
-      <c r="H55" s="25">
-        <v>1</v>
-      </c>
-      <c r="I55" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="J55" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N55" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="O55" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H55" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I55" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="Q55" s="10" t="s">
-        <v>191</v>
+      <c r="J55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q55" s="33" t="s">
+        <v>118</v>
       </c>
       <c r="R55" s="10" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="S55" s="10" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="T55" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="U55" s="8"/>
       <c r="V55" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W55" s="20" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="X55" s="20" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="Y55" s="20" t="s">
         <v>2</v>
@@ -14872,76 +14882,73 @@
     </row>
     <row r="56" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="B56" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C56" s="25">
-        <v>174</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="F56" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="G56" s="27">
+      <c r="G56" s="25">
         <v>1</v>
       </c>
-      <c r="H56" s="27">
+      <c r="H56" s="25">
         <v>1</v>
       </c>
       <c r="I56" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="J56" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M56" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N56" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O56" s="4" t="s">
-        <v>43</v>
+      <c r="J56" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="P56" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q56" s="33" t="s">
-        <v>118</v>
+      <c r="Q56" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="R56" s="10" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="S56" s="10" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="T56" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U56" s="8" t="s">
         <v>43</v>
       </c>
       <c r="V56" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W56" s="20" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="X56" s="20" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="Y56" s="20" t="s">
         <v>2</v>
@@ -15090,30 +15097,30 @@
       <c r="FG56" s="24"/>
       <c r="FH56" s="24"/>
     </row>
-    <row r="57" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="B57" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C57" s="25">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D57" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>172</v>
       </c>
       <c r="G57" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" s="27" t="s">
         <v>191</v>
@@ -15143,10 +15150,10 @@
         <v>118</v>
       </c>
       <c r="R57" s="10" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="S57" s="10" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="T57" s="8" t="s">
         <v>43</v>
@@ -15158,10 +15165,10 @@
         <v>216</v>
       </c>
       <c r="W57" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="X57" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Y57" s="20" t="s">
         <v>2</v>
@@ -15312,49 +15319,49 @@
     </row>
     <row r="58" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="B58" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C58" s="25">
-        <v>187</v>
-      </c>
-      <c r="D58" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="F58" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="G58" s="25">
-        <v>1</v>
-      </c>
-      <c r="H58" s="25">
-        <v>1</v>
-      </c>
-      <c r="I58" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="J58" s="13" t="s">
-        <v>130</v>
+      <c r="E58" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G58" s="27">
+        <v>2</v>
+      </c>
+      <c r="H58" s="27">
+        <v>2</v>
+      </c>
+      <c r="I58" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L58" s="13" t="s">
-        <v>130</v>
+      <c r="L58" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N58" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O58" s="14" t="s">
-        <v>22</v>
+      <c r="N58" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>84</v>
@@ -15363,10 +15370,10 @@
         <v>118</v>
       </c>
       <c r="R58" s="10" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="S58" s="10" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="T58" s="8" t="s">
         <v>43</v>
@@ -15378,10 +15385,10 @@
         <v>216</v>
       </c>
       <c r="W58" s="20" t="s">
-        <v>252</v>
+        <v>168</v>
       </c>
       <c r="X58" s="20" t="s">
-        <v>252</v>
+        <v>168</v>
       </c>
       <c r="Y58" s="20" t="s">
         <v>2</v>
@@ -15530,23 +15537,23 @@
       <c r="FG58" s="24"/>
       <c r="FH58" s="24"/>
     </row>
-    <row r="59" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B59" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C59" s="25">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F59" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="F59" s="20" t="s">
         <v>192</v>
       </c>
       <c r="G59" s="25">
@@ -15555,24 +15562,26 @@
       <c r="H59" s="25">
         <v>1</v>
       </c>
-      <c r="I59" s="25"/>
-      <c r="J59" s="4" t="s">
-        <v>43</v>
+      <c r="I59" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L59" s="4" t="s">
-        <v>43</v>
+      <c r="L59" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N59" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O59" s="4" t="s">
-        <v>43</v>
+      <c r="N59" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O59" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>84</v>
@@ -15581,23 +15590,25 @@
         <v>118</v>
       </c>
       <c r="R59" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="S59" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="T59" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U59" s="7"/>
+      <c r="U59" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="V59" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W59" s="20" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="X59" s="20" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="Y59" s="20" t="s">
         <v>2</v>
@@ -15746,15 +15757,15 @@
       <c r="FG59" s="24"/>
       <c r="FH59" s="24"/>
     </row>
-    <row r="60" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="B60" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C60" s="25">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D60" s="25" t="s">
         <v>14</v>
@@ -15765,11 +15776,11 @@
       <c r="F60" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G60" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="H60" s="25" t="s">
-        <v>118</v>
+      <c r="G60" s="25">
+        <v>1</v>
+      </c>
+      <c r="H60" s="25">
+        <v>1</v>
       </c>
       <c r="I60" s="25"/>
       <c r="J60" s="4" t="s">
@@ -15797,10 +15808,10 @@
         <v>118</v>
       </c>
       <c r="R60" s="10" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="S60" s="10" t="s">
-        <v>73</v>
+        <v>245</v>
       </c>
       <c r="T60" s="8" t="s">
         <v>43</v>
@@ -15964,13 +15975,13 @@
     </row>
     <row r="61" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B61" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C61" s="25">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D61" s="25" t="s">
         <v>14</v>
@@ -16013,22 +16024,23 @@
         <v>118</v>
       </c>
       <c r="R61" s="10" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="S61" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T61" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="U61" s="7"/>
       <c r="V61" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W61" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="X61" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y61" s="20" t="s">
         <v>2</v>
@@ -16177,51 +16189,49 @@
       <c r="FG61" s="24"/>
       <c r="FH61" s="24"/>
     </row>
-    <row r="62" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="C62" s="25">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="F62" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G62" s="29">
-        <v>1</v>
-      </c>
-      <c r="H62" s="29">
-        <v>1</v>
-      </c>
-      <c r="I62" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N62" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O62" s="14" t="s">
-        <v>22</v>
+      <c r="G62" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I62" s="25"/>
+      <c r="J62" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>84</v>
@@ -16229,24 +16239,23 @@
       <c r="Q62" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R62" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S62" s="11" t="s">
-        <v>43</v>
+      <c r="R62" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S62" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="T62" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U62" s="7"/>
       <c r="V62" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W62" s="20" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="X62" s="20" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="Y62" s="20" t="s">
         <v>2</v>
@@ -16397,13 +16406,13 @@
     </row>
     <row r="63" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B63" s="25" t="s">
         <v>84</v>
       </c>
       <c r="C63" s="25">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D63" s="25" t="s">
         <v>15</v>
@@ -16423,17 +16432,17 @@
       <c r="I63" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="J63" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>133</v>
+      <c r="J63" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="N63" s="14" t="s">
         <v>22</v>
@@ -16456,14 +16465,15 @@
       <c r="T63" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="U63" s="7"/>
       <c r="V63" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W63" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X63" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y63" s="20" t="s">
         <v>2</v>
@@ -16614,13 +16624,13 @@
     </row>
     <row r="64" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B64" s="25" t="s">
         <v>84</v>
       </c>
       <c r="C64" s="25">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D64" s="25" t="s">
         <v>15</v>
@@ -16640,17 +16650,17 @@
       <c r="I64" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>85</v>
+      <c r="J64" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="N64" s="14" t="s">
         <v>22</v>
@@ -16664,24 +16674,23 @@
       <c r="Q64" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R64" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="S64" s="10" t="s">
-        <v>54</v>
+      <c r="R64" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S64" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T64" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U64" s="7"/>
       <c r="V64" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W64" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X64" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y64" s="20" t="s">
         <v>2</v>
@@ -16832,43 +16841,43 @@
     </row>
     <row r="65" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="C65" s="25">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D65" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="23" t="s">
-        <v>147</v>
+      <c r="E65" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="F65" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G65" s="27">
+      <c r="G65" s="29">
         <v>1</v>
       </c>
-      <c r="H65" s="27">
+      <c r="H65" s="29">
         <v>1</v>
       </c>
       <c r="I65" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="J65" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>43</v>
+      <c r="J65" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="N65" s="14" t="s">
         <v>22</v>
@@ -16882,26 +16891,24 @@
       <c r="Q65" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R65" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S65" s="11" t="s">
-        <v>43</v>
+      <c r="R65" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="S65" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="T65" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U65" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="U65" s="7"/>
       <c r="V65" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W65" s="20" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="X65" s="20" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="Y65" s="20" t="s">
         <v>2</v>
@@ -17052,22 +17059,22 @@
     </row>
     <row r="66" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B66" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C66" s="25">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D66" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>193</v>
+        <v>147</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="G66" s="27">
         <v>1</v>
@@ -17075,8 +17082,8 @@
       <c r="H66" s="27">
         <v>1</v>
       </c>
-      <c r="I66" s="25" t="s">
-        <v>191</v>
+      <c r="I66" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>43</v>
@@ -17090,11 +17097,11 @@
       <c r="M66" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N66" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O66" s="4" t="s">
-        <v>43</v>
+      <c r="N66" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O66" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>84</v>
@@ -17102,11 +17109,11 @@
       <c r="Q66" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R66" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="S66" s="10" t="s">
-        <v>181</v>
+      <c r="R66" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S66" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T66" s="8" t="s">
         <v>43</v>
@@ -17118,10 +17125,10 @@
         <v>216</v>
       </c>
       <c r="W66" s="20" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="X66" s="20" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="Y66" s="20" t="s">
         <v>2</v>
@@ -17272,22 +17279,22 @@
     </row>
     <row r="67" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="C67" s="25">
-        <v>221</v>
-      </c>
-      <c r="D67" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="D67" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F67" s="22" t="s">
-        <v>192</v>
+        <v>146</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="G67" s="27">
         <v>1</v>
@@ -17305,16 +17312,16 @@
         <v>43</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M67" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="N67" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O67" s="14" t="s">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P67" s="3" t="s">
         <v>84</v>
@@ -17323,10 +17330,10 @@
         <v>118</v>
       </c>
       <c r="R67" s="10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="S67" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="T67" s="8" t="s">
         <v>43</v>
@@ -17338,10 +17345,10 @@
         <v>216</v>
       </c>
       <c r="W67" s="20" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="X67" s="20" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="Y67" s="20" t="s">
         <v>2</v>
@@ -17492,28 +17499,28 @@
     </row>
     <row r="68" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="C68" s="25">
-        <v>365</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>95</v>
+        <v>221</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>153</v>
       </c>
       <c r="F68" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G68" s="25">
-        <v>7</v>
-      </c>
-      <c r="H68" s="25">
-        <v>7</v>
+      <c r="G68" s="27">
+        <v>1</v>
+      </c>
+      <c r="H68" s="27">
+        <v>1</v>
       </c>
       <c r="I68" s="25" t="s">
         <v>191</v>
@@ -17525,10 +17532,10 @@
         <v>43</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M68" s="4" t="s">
-        <v>43</v>
+        <v>132</v>
+      </c>
+      <c r="M68" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="N68" s="14" t="s">
         <v>22</v>
@@ -17543,10 +17550,10 @@
         <v>118</v>
       </c>
       <c r="R68" s="10" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="S68" s="10" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="T68" s="8" t="s">
         <v>43</v>
@@ -17558,10 +17565,10 @@
         <v>216</v>
       </c>
       <c r="W68" s="20" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="X68" s="20" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="Y68" s="20" t="s">
         <v>2</v>
@@ -17572,16 +17579,153 @@
       <c r="AA68" s="20" t="s">
         <v>3</v>
       </c>
+      <c r="AB68" s="24"/>
+      <c r="AC68" s="24"/>
+      <c r="AD68" s="24"/>
+      <c r="AE68" s="24"/>
+      <c r="AF68" s="24"/>
+      <c r="AG68" s="24"/>
+      <c r="AH68" s="24"/>
+      <c r="AI68" s="24"/>
+      <c r="AJ68" s="24"/>
+      <c r="AK68" s="24"/>
+      <c r="AL68" s="24"/>
+      <c r="AM68" s="24"/>
+      <c r="AN68" s="24"/>
+      <c r="AO68" s="24"/>
+      <c r="AP68" s="24"/>
+      <c r="AQ68" s="24"/>
+      <c r="AR68" s="24"/>
+      <c r="AS68" s="24"/>
+      <c r="AT68" s="24"/>
+      <c r="AU68" s="24"/>
+      <c r="AV68" s="24"/>
+      <c r="AW68" s="24"/>
+      <c r="AX68" s="24"/>
+      <c r="AY68" s="24"/>
+      <c r="AZ68" s="24"/>
+      <c r="BA68" s="24"/>
+      <c r="BB68" s="24"/>
+      <c r="BC68" s="24"/>
+      <c r="BD68" s="24"/>
+      <c r="BE68" s="24"/>
+      <c r="BF68" s="24"/>
+      <c r="BG68" s="24"/>
+      <c r="BH68" s="24"/>
+      <c r="BI68" s="24"/>
+      <c r="BJ68" s="24"/>
+      <c r="BK68" s="24"/>
+      <c r="BL68" s="24"/>
+      <c r="BM68" s="24"/>
+      <c r="BN68" s="24"/>
+      <c r="BO68" s="24"/>
+      <c r="BP68" s="24"/>
+      <c r="BQ68" s="24"/>
+      <c r="BR68" s="24"/>
+      <c r="BS68" s="24"/>
+      <c r="BT68" s="24"/>
+      <c r="BU68" s="24"/>
+      <c r="BV68" s="24"/>
+      <c r="BW68" s="24"/>
+      <c r="BX68" s="24"/>
+      <c r="BY68" s="24"/>
+      <c r="BZ68" s="24"/>
+      <c r="CA68" s="24"/>
+      <c r="CB68" s="24"/>
+      <c r="CC68" s="24"/>
+      <c r="CD68" s="24"/>
+      <c r="CE68" s="24"/>
+      <c r="CF68" s="24"/>
+      <c r="CG68" s="24"/>
+      <c r="CH68" s="24"/>
+      <c r="CI68" s="24"/>
+      <c r="CJ68" s="24"/>
+      <c r="CK68" s="24"/>
+      <c r="CL68" s="24"/>
+      <c r="CM68" s="24"/>
+      <c r="CN68" s="24"/>
+      <c r="CO68" s="24"/>
+      <c r="CP68" s="24"/>
+      <c r="CQ68" s="24"/>
+      <c r="CR68" s="24"/>
+      <c r="CS68" s="24"/>
+      <c r="CT68" s="24"/>
+      <c r="CU68" s="24"/>
+      <c r="CV68" s="24"/>
+      <c r="CW68" s="24"/>
+      <c r="CX68" s="24"/>
+      <c r="CY68" s="24"/>
+      <c r="CZ68" s="24"/>
+      <c r="DA68" s="24"/>
+      <c r="DB68" s="24"/>
+      <c r="DC68" s="24"/>
+      <c r="DD68" s="24"/>
+      <c r="DE68" s="24"/>
+      <c r="DF68" s="24"/>
+      <c r="DG68" s="24"/>
+      <c r="DH68" s="24"/>
+      <c r="DI68" s="24"/>
+      <c r="DJ68" s="24"/>
+      <c r="DK68" s="24"/>
+      <c r="DL68" s="24"/>
+      <c r="DM68" s="24"/>
+      <c r="DN68" s="24"/>
+      <c r="DO68" s="24"/>
+      <c r="DP68" s="24"/>
+      <c r="DQ68" s="24"/>
+      <c r="DR68" s="24"/>
+      <c r="DS68" s="24"/>
+      <c r="DT68" s="24"/>
+      <c r="DU68" s="24"/>
+      <c r="DV68" s="24"/>
+      <c r="DW68" s="24"/>
+      <c r="DX68" s="24"/>
+      <c r="DY68" s="24"/>
+      <c r="DZ68" s="24"/>
+      <c r="EA68" s="24"/>
+      <c r="EB68" s="24"/>
+      <c r="EC68" s="24"/>
+      <c r="ED68" s="24"/>
+      <c r="EE68" s="24"/>
+      <c r="EF68" s="24"/>
+      <c r="EG68" s="24"/>
+      <c r="EH68" s="24"/>
+      <c r="EI68" s="24"/>
+      <c r="EJ68" s="24"/>
+      <c r="EK68" s="24"/>
+      <c r="EL68" s="24"/>
+      <c r="EM68" s="24"/>
+      <c r="EN68" s="24"/>
+      <c r="EO68" s="24"/>
+      <c r="EP68" s="24"/>
+      <c r="EQ68" s="24"/>
+      <c r="ER68" s="24"/>
+      <c r="ES68" s="24"/>
+      <c r="ET68" s="24"/>
+      <c r="EU68" s="24"/>
+      <c r="EV68" s="24"/>
+      <c r="EW68" s="24"/>
+      <c r="EX68" s="24"/>
+      <c r="EY68" s="24"/>
+      <c r="EZ68" s="24"/>
+      <c r="FA68" s="24"/>
+      <c r="FB68" s="24"/>
+      <c r="FC68" s="24"/>
+      <c r="FD68" s="24"/>
+      <c r="FE68" s="24"/>
+      <c r="FF68" s="24"/>
+      <c r="FG68" s="24"/>
+      <c r="FH68" s="24"/>
     </row>
     <row r="69" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B69" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C69" s="25">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D69" s="25" t="s">
         <v>14</v>
@@ -17593,10 +17737,10 @@
         <v>192</v>
       </c>
       <c r="G69" s="25">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H69" s="25">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I69" s="25" t="s">
         <v>191</v>
@@ -17626,10 +17770,10 @@
         <v>118</v>
       </c>
       <c r="R69" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S69" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T69" s="8" t="s">
         <v>43</v>
@@ -17641,10 +17785,10 @@
         <v>216</v>
       </c>
       <c r="W69" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X69" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y69" s="20" t="s">
         <v>2</v>
@@ -17655,177 +17799,40 @@
       <c r="AA69" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AB69" s="24"/>
-      <c r="AC69" s="24"/>
-      <c r="AD69" s="24"/>
-      <c r="AE69" s="24"/>
-      <c r="AF69" s="24"/>
-      <c r="AG69" s="24"/>
-      <c r="AH69" s="24"/>
-      <c r="AI69" s="24"/>
-      <c r="AJ69" s="24"/>
-      <c r="AK69" s="24"/>
-      <c r="AL69" s="24"/>
-      <c r="AM69" s="24"/>
-      <c r="AN69" s="24"/>
-      <c r="AO69" s="24"/>
-      <c r="AP69" s="24"/>
-      <c r="AQ69" s="24"/>
-      <c r="AR69" s="24"/>
-      <c r="AS69" s="24"/>
-      <c r="AT69" s="24"/>
-      <c r="AU69" s="24"/>
-      <c r="AV69" s="24"/>
-      <c r="AW69" s="24"/>
-      <c r="AX69" s="24"/>
-      <c r="AY69" s="24"/>
-      <c r="AZ69" s="24"/>
-      <c r="BA69" s="24"/>
-      <c r="BB69" s="24"/>
-      <c r="BC69" s="24"/>
-      <c r="BD69" s="24"/>
-      <c r="BE69" s="24"/>
-      <c r="BF69" s="24"/>
-      <c r="BG69" s="24"/>
-      <c r="BH69" s="24"/>
-      <c r="BI69" s="24"/>
-      <c r="BJ69" s="24"/>
-      <c r="BK69" s="24"/>
-      <c r="BL69" s="24"/>
-      <c r="BM69" s="24"/>
-      <c r="BN69" s="24"/>
-      <c r="BO69" s="24"/>
-      <c r="BP69" s="24"/>
-      <c r="BQ69" s="24"/>
-      <c r="BR69" s="24"/>
-      <c r="BS69" s="24"/>
-      <c r="BT69" s="24"/>
-      <c r="BU69" s="24"/>
-      <c r="BV69" s="24"/>
-      <c r="BW69" s="24"/>
-      <c r="BX69" s="24"/>
-      <c r="BY69" s="24"/>
-      <c r="BZ69" s="24"/>
-      <c r="CA69" s="24"/>
-      <c r="CB69" s="24"/>
-      <c r="CC69" s="24"/>
-      <c r="CD69" s="24"/>
-      <c r="CE69" s="24"/>
-      <c r="CF69" s="24"/>
-      <c r="CG69" s="24"/>
-      <c r="CH69" s="24"/>
-      <c r="CI69" s="24"/>
-      <c r="CJ69" s="24"/>
-      <c r="CK69" s="24"/>
-      <c r="CL69" s="24"/>
-      <c r="CM69" s="24"/>
-      <c r="CN69" s="24"/>
-      <c r="CO69" s="24"/>
-      <c r="CP69" s="24"/>
-      <c r="CQ69" s="24"/>
-      <c r="CR69" s="24"/>
-      <c r="CS69" s="24"/>
-      <c r="CT69" s="24"/>
-      <c r="CU69" s="24"/>
-      <c r="CV69" s="24"/>
-      <c r="CW69" s="24"/>
-      <c r="CX69" s="24"/>
-      <c r="CY69" s="24"/>
-      <c r="CZ69" s="24"/>
-      <c r="DA69" s="24"/>
-      <c r="DB69" s="24"/>
-      <c r="DC69" s="24"/>
-      <c r="DD69" s="24"/>
-      <c r="DE69" s="24"/>
-      <c r="DF69" s="24"/>
-      <c r="DG69" s="24"/>
-      <c r="DH69" s="24"/>
-      <c r="DI69" s="24"/>
-      <c r="DJ69" s="24"/>
-      <c r="DK69" s="24"/>
-      <c r="DL69" s="24"/>
-      <c r="DM69" s="24"/>
-      <c r="DN69" s="24"/>
-      <c r="DO69" s="24"/>
-      <c r="DP69" s="24"/>
-      <c r="DQ69" s="24"/>
-      <c r="DR69" s="24"/>
-      <c r="DS69" s="24"/>
-      <c r="DT69" s="24"/>
-      <c r="DU69" s="24"/>
-      <c r="DV69" s="24"/>
-      <c r="DW69" s="24"/>
-      <c r="DX69" s="24"/>
-      <c r="DY69" s="24"/>
-      <c r="DZ69" s="24"/>
-      <c r="EA69" s="24"/>
-      <c r="EB69" s="24"/>
-      <c r="EC69" s="24"/>
-      <c r="ED69" s="24"/>
-      <c r="EE69" s="24"/>
-      <c r="EF69" s="24"/>
-      <c r="EG69" s="24"/>
-      <c r="EH69" s="24"/>
-      <c r="EI69" s="24"/>
-      <c r="EJ69" s="24"/>
-      <c r="EK69" s="24"/>
-      <c r="EL69" s="24"/>
-      <c r="EM69" s="24"/>
-      <c r="EN69" s="24"/>
-      <c r="EO69" s="24"/>
-      <c r="EP69" s="24"/>
-      <c r="EQ69" s="24"/>
-      <c r="ER69" s="24"/>
-      <c r="ES69" s="24"/>
-      <c r="ET69" s="24"/>
-      <c r="EU69" s="24"/>
-      <c r="EV69" s="24"/>
-      <c r="EW69" s="24"/>
-      <c r="EX69" s="24"/>
-      <c r="EY69" s="24"/>
-      <c r="EZ69" s="24"/>
-      <c r="FA69" s="24"/>
-      <c r="FB69" s="24"/>
-      <c r="FC69" s="24"/>
-      <c r="FD69" s="24"/>
-      <c r="FE69" s="24"/>
-      <c r="FF69" s="24"/>
-      <c r="FG69" s="24"/>
-      <c r="FH69" s="24"/>
     </row>
     <row r="70" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="B70" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C70" s="25">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="23" t="s">
-        <v>145</v>
+        <v>14</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="F70" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G70" s="27">
-        <v>1</v>
-      </c>
-      <c r="H70" s="27">
-        <v>1</v>
+      <c r="G70" s="25">
+        <v>20</v>
+      </c>
+      <c r="H70" s="25">
+        <v>20</v>
       </c>
       <c r="I70" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="J70" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K70" s="21" t="s">
-        <v>139</v>
+      <c r="J70" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>43</v>
@@ -17845,24 +17852,26 @@
       <c r="Q70" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R70" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S70" s="11" t="s">
-        <v>43</v>
+      <c r="R70" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="S70" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="T70" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U70" s="7"/>
+      <c r="U70" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="V70" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W70" s="20" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="X70" s="20" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="Y70" s="20" t="s">
         <v>2</v>
@@ -18013,37 +18022,37 @@
     </row>
     <row r="71" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="B71" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C71" s="25">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="G71" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="H71" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="I71" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>43</v>
+        <v>192</v>
+      </c>
+      <c r="G71" s="27">
+        <v>1</v>
+      </c>
+      <c r="H71" s="27">
+        <v>1</v>
+      </c>
+      <c r="I71" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J71" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K71" s="21" t="s">
+        <v>139</v>
       </c>
       <c r="L71" s="4" t="s">
         <v>43</v>
@@ -18051,11 +18060,11 @@
       <c r="M71" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N71" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O71" s="4" t="s">
-        <v>43</v>
+      <c r="N71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O71" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="P71" s="3" t="s">
         <v>84</v>
@@ -18063,11 +18072,11 @@
       <c r="Q71" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R71" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="S71" s="10" t="s">
-        <v>260</v>
+      <c r="R71" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S71" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T71" s="8" t="s">
         <v>43</v>
@@ -18077,10 +18086,10 @@
         <v>216</v>
       </c>
       <c r="W71" s="20" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="X71" s="20" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="Y71" s="20" t="s">
         <v>2</v>
@@ -18231,49 +18240,49 @@
     </row>
     <row r="72" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
-        <v>134</v>
+        <v>257</v>
       </c>
       <c r="B72" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C72" s="25">
-        <v>500</v>
+        <v>372</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>136</v>
+        <v>258</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G72" s="27">
-        <v>1</v>
-      </c>
-      <c r="H72" s="27">
-        <v>1</v>
-      </c>
-      <c r="I72" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="J72" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K72" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="L72" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="M72" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="N72" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O72" s="14" t="s">
-        <v>22</v>
+        <v>118</v>
+      </c>
+      <c r="G72" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I72" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O72" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>84</v>
@@ -18281,40 +18290,175 @@
       <c r="Q72" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R72" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S72" s="11" t="s">
-        <v>43</v>
+      <c r="R72" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="S72" s="10" t="s">
+        <v>260</v>
       </c>
       <c r="T72" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U72" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="U72" s="7"/>
       <c r="V72" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W72" s="20" t="s">
-        <v>134</v>
+        <v>257</v>
       </c>
       <c r="X72" s="20" t="s">
-        <v>134</v>
+        <v>257</v>
       </c>
       <c r="Y72" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z72" s="20" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="AA72" s="20" t="s">
         <v>3</v>
       </c>
+      <c r="AB72" s="24"/>
+      <c r="AC72" s="24"/>
+      <c r="AD72" s="24"/>
+      <c r="AE72" s="24"/>
+      <c r="AF72" s="24"/>
+      <c r="AG72" s="24"/>
+      <c r="AH72" s="24"/>
+      <c r="AI72" s="24"/>
+      <c r="AJ72" s="24"/>
+      <c r="AK72" s="24"/>
+      <c r="AL72" s="24"/>
+      <c r="AM72" s="24"/>
+      <c r="AN72" s="24"/>
+      <c r="AO72" s="24"/>
+      <c r="AP72" s="24"/>
+      <c r="AQ72" s="24"/>
+      <c r="AR72" s="24"/>
+      <c r="AS72" s="24"/>
+      <c r="AT72" s="24"/>
+      <c r="AU72" s="24"/>
+      <c r="AV72" s="24"/>
+      <c r="AW72" s="24"/>
+      <c r="AX72" s="24"/>
+      <c r="AY72" s="24"/>
+      <c r="AZ72" s="24"/>
+      <c r="BA72" s="24"/>
+      <c r="BB72" s="24"/>
+      <c r="BC72" s="24"/>
+      <c r="BD72" s="24"/>
+      <c r="BE72" s="24"/>
+      <c r="BF72" s="24"/>
+      <c r="BG72" s="24"/>
+      <c r="BH72" s="24"/>
+      <c r="BI72" s="24"/>
+      <c r="BJ72" s="24"/>
+      <c r="BK72" s="24"/>
+      <c r="BL72" s="24"/>
+      <c r="BM72" s="24"/>
+      <c r="BN72" s="24"/>
+      <c r="BO72" s="24"/>
+      <c r="BP72" s="24"/>
+      <c r="BQ72" s="24"/>
+      <c r="BR72" s="24"/>
+      <c r="BS72" s="24"/>
+      <c r="BT72" s="24"/>
+      <c r="BU72" s="24"/>
+      <c r="BV72" s="24"/>
+      <c r="BW72" s="24"/>
+      <c r="BX72" s="24"/>
+      <c r="BY72" s="24"/>
+      <c r="BZ72" s="24"/>
+      <c r="CA72" s="24"/>
+      <c r="CB72" s="24"/>
+      <c r="CC72" s="24"/>
+      <c r="CD72" s="24"/>
+      <c r="CE72" s="24"/>
+      <c r="CF72" s="24"/>
+      <c r="CG72" s="24"/>
+      <c r="CH72" s="24"/>
+      <c r="CI72" s="24"/>
+      <c r="CJ72" s="24"/>
+      <c r="CK72" s="24"/>
+      <c r="CL72" s="24"/>
+      <c r="CM72" s="24"/>
+      <c r="CN72" s="24"/>
+      <c r="CO72" s="24"/>
+      <c r="CP72" s="24"/>
+      <c r="CQ72" s="24"/>
+      <c r="CR72" s="24"/>
+      <c r="CS72" s="24"/>
+      <c r="CT72" s="24"/>
+      <c r="CU72" s="24"/>
+      <c r="CV72" s="24"/>
+      <c r="CW72" s="24"/>
+      <c r="CX72" s="24"/>
+      <c r="CY72" s="24"/>
+      <c r="CZ72" s="24"/>
+      <c r="DA72" s="24"/>
+      <c r="DB72" s="24"/>
+      <c r="DC72" s="24"/>
+      <c r="DD72" s="24"/>
+      <c r="DE72" s="24"/>
+      <c r="DF72" s="24"/>
+      <c r="DG72" s="24"/>
+      <c r="DH72" s="24"/>
+      <c r="DI72" s="24"/>
+      <c r="DJ72" s="24"/>
+      <c r="DK72" s="24"/>
+      <c r="DL72" s="24"/>
+      <c r="DM72" s="24"/>
+      <c r="DN72" s="24"/>
+      <c r="DO72" s="24"/>
+      <c r="DP72" s="24"/>
+      <c r="DQ72" s="24"/>
+      <c r="DR72" s="24"/>
+      <c r="DS72" s="24"/>
+      <c r="DT72" s="24"/>
+      <c r="DU72" s="24"/>
+      <c r="DV72" s="24"/>
+      <c r="DW72" s="24"/>
+      <c r="DX72" s="24"/>
+      <c r="DY72" s="24"/>
+      <c r="DZ72" s="24"/>
+      <c r="EA72" s="24"/>
+      <c r="EB72" s="24"/>
+      <c r="EC72" s="24"/>
+      <c r="ED72" s="24"/>
+      <c r="EE72" s="24"/>
+      <c r="EF72" s="24"/>
+      <c r="EG72" s="24"/>
+      <c r="EH72" s="24"/>
+      <c r="EI72" s="24"/>
+      <c r="EJ72" s="24"/>
+      <c r="EK72" s="24"/>
+      <c r="EL72" s="24"/>
+      <c r="EM72" s="24"/>
+      <c r="EN72" s="24"/>
+      <c r="EO72" s="24"/>
+      <c r="EP72" s="24"/>
+      <c r="EQ72" s="24"/>
+      <c r="ER72" s="24"/>
+      <c r="ES72" s="24"/>
+      <c r="ET72" s="24"/>
+      <c r="EU72" s="24"/>
+      <c r="EV72" s="24"/>
+      <c r="EW72" s="24"/>
+      <c r="EX72" s="24"/>
+      <c r="EY72" s="24"/>
+      <c r="EZ72" s="24"/>
+      <c r="FA72" s="24"/>
+      <c r="FB72" s="24"/>
+      <c r="FC72" s="24"/>
+      <c r="FD72" s="24"/>
+      <c r="FE72" s="24"/>
+      <c r="FF72" s="24"/>
+      <c r="FG72" s="24"/>
+      <c r="FH72" s="24"/>
     </row>
     <row r="73" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B73" s="25" t="s">
         <v>191</v>
@@ -18380,16 +18524,16 @@
         <v>216</v>
       </c>
       <c r="W73" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X73" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y73" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z73" s="20" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="AA73" s="20" t="s">
         <v>3</v>
@@ -18397,7 +18541,7 @@
     </row>
     <row r="74" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B74" s="25" t="s">
         <v>191</v>
@@ -18463,10 +18607,10 @@
         <v>216</v>
       </c>
       <c r="W74" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="X74" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="Y74" s="20" t="s">
         <v>2</v>
@@ -18479,143 +18623,87 @@
       </c>
     </row>
     <row r="75" spans="1:164" x14ac:dyDescent="0.2">
-      <c r="AB75" s="24"/>
-      <c r="AC75" s="24"/>
-      <c r="AD75" s="24"/>
-      <c r="AE75" s="24"/>
-      <c r="AF75" s="24"/>
-      <c r="AG75" s="24"/>
-      <c r="AH75" s="24"/>
-      <c r="AI75" s="24"/>
-      <c r="AJ75" s="24"/>
-      <c r="AK75" s="24"/>
-      <c r="AL75" s="24"/>
-      <c r="AM75" s="24"/>
-      <c r="AN75" s="24"/>
-      <c r="AO75" s="24"/>
-      <c r="AP75" s="24"/>
-      <c r="AQ75" s="24"/>
-      <c r="AR75" s="24"/>
-      <c r="AS75" s="24"/>
-      <c r="AT75" s="24"/>
-      <c r="AU75" s="24"/>
-      <c r="AV75" s="24"/>
-      <c r="AW75" s="24"/>
-      <c r="AX75" s="24"/>
-      <c r="AY75" s="24"/>
-      <c r="AZ75" s="24"/>
-      <c r="BA75" s="24"/>
-      <c r="BB75" s="24"/>
-      <c r="BC75" s="24"/>
-      <c r="BD75" s="24"/>
-      <c r="BE75" s="24"/>
-      <c r="BF75" s="24"/>
-      <c r="BG75" s="24"/>
-      <c r="BH75" s="24"/>
-      <c r="BI75" s="24"/>
-      <c r="BJ75" s="24"/>
-      <c r="BK75" s="24"/>
-      <c r="BL75" s="24"/>
-      <c r="BM75" s="24"/>
-      <c r="BN75" s="24"/>
-      <c r="BO75" s="24"/>
-      <c r="BP75" s="24"/>
-      <c r="BQ75" s="24"/>
-      <c r="BR75" s="24"/>
-      <c r="BS75" s="24"/>
-      <c r="BT75" s="24"/>
-      <c r="BU75" s="24"/>
-      <c r="BV75" s="24"/>
-      <c r="BW75" s="24"/>
-      <c r="BX75" s="24"/>
-      <c r="BY75" s="24"/>
-      <c r="BZ75" s="24"/>
-      <c r="CA75" s="24"/>
-      <c r="CB75" s="24"/>
-      <c r="CC75" s="24"/>
-      <c r="CD75" s="24"/>
-      <c r="CE75" s="24"/>
-      <c r="CF75" s="24"/>
-      <c r="CG75" s="24"/>
-      <c r="CH75" s="24"/>
-      <c r="CI75" s="24"/>
-      <c r="CJ75" s="24"/>
-      <c r="CK75" s="24"/>
-      <c r="CL75" s="24"/>
-      <c r="CM75" s="24"/>
-      <c r="CN75" s="24"/>
-      <c r="CO75" s="24"/>
-      <c r="CP75" s="24"/>
-      <c r="CQ75" s="24"/>
-      <c r="CR75" s="24"/>
-      <c r="CS75" s="24"/>
-      <c r="CT75" s="24"/>
-      <c r="CU75" s="24"/>
-      <c r="CV75" s="24"/>
-      <c r="CW75" s="24"/>
-      <c r="CX75" s="24"/>
-      <c r="CY75" s="24"/>
-      <c r="CZ75" s="24"/>
-      <c r="DA75" s="24"/>
-      <c r="DB75" s="24"/>
-      <c r="DC75" s="24"/>
-      <c r="DD75" s="24"/>
-      <c r="DE75" s="24"/>
-      <c r="DF75" s="24"/>
-      <c r="DG75" s="24"/>
-      <c r="DH75" s="24"/>
-      <c r="DI75" s="24"/>
-      <c r="DJ75" s="24"/>
-      <c r="DK75" s="24"/>
-      <c r="DL75" s="24"/>
-      <c r="DM75" s="24"/>
-      <c r="DN75" s="24"/>
-      <c r="DO75" s="24"/>
-      <c r="DP75" s="24"/>
-      <c r="DQ75" s="24"/>
-      <c r="DR75" s="24"/>
-      <c r="DS75" s="24"/>
-      <c r="DT75" s="24"/>
-      <c r="DU75" s="24"/>
-      <c r="DV75" s="24"/>
-      <c r="DW75" s="24"/>
-      <c r="DX75" s="24"/>
-      <c r="DY75" s="24"/>
-      <c r="DZ75" s="24"/>
-      <c r="EA75" s="24"/>
-      <c r="EB75" s="24"/>
-      <c r="EC75" s="24"/>
-      <c r="ED75" s="24"/>
-      <c r="EE75" s="24"/>
-      <c r="EF75" s="24"/>
-      <c r="EG75" s="24"/>
-      <c r="EH75" s="24"/>
-      <c r="EI75" s="24"/>
-      <c r="EJ75" s="24"/>
-      <c r="EK75" s="24"/>
-      <c r="EL75" s="24"/>
-      <c r="EM75" s="24"/>
-      <c r="EN75" s="24"/>
-      <c r="EO75" s="24"/>
-      <c r="EP75" s="24"/>
-      <c r="EQ75" s="24"/>
-      <c r="ER75" s="24"/>
-      <c r="ES75" s="24"/>
-      <c r="ET75" s="24"/>
-      <c r="EU75" s="24"/>
-      <c r="EV75" s="24"/>
-      <c r="EW75" s="24"/>
-      <c r="EX75" s="24"/>
-      <c r="EY75" s="24"/>
-      <c r="EZ75" s="24"/>
-      <c r="FA75" s="24"/>
-      <c r="FB75" s="24"/>
-      <c r="FC75" s="24"/>
-      <c r="FD75" s="24"/>
-      <c r="FE75" s="24"/>
-      <c r="FF75" s="24"/>
-      <c r="FG75" s="24"/>
-      <c r="FH75" s="24"/>
+      <c r="A75" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C75" s="25">
+        <v>500</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G75" s="27">
+        <v>1</v>
+      </c>
+      <c r="H75" s="27">
+        <v>1</v>
+      </c>
+      <c r="I75" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J75" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K75" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L75" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M75" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="N75" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O75" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q75" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="R75" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S75" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T75" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U75" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V75" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="W75" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="X75" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y75" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z75" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA75" s="20" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="76" spans="1:164" x14ac:dyDescent="0.2">
       <c r="AB76" s="24"/>
@@ -20285,9 +20373,148 @@
       <c r="FG87" s="24"/>
       <c r="FH87" s="24"/>
     </row>
+    <row r="88" spans="28:164" x14ac:dyDescent="0.2">
+      <c r="AB88" s="24"/>
+      <c r="AC88" s="24"/>
+      <c r="AD88" s="24"/>
+      <c r="AE88" s="24"/>
+      <c r="AF88" s="24"/>
+      <c r="AG88" s="24"/>
+      <c r="AH88" s="24"/>
+      <c r="AI88" s="24"/>
+      <c r="AJ88" s="24"/>
+      <c r="AK88" s="24"/>
+      <c r="AL88" s="24"/>
+      <c r="AM88" s="24"/>
+      <c r="AN88" s="24"/>
+      <c r="AO88" s="24"/>
+      <c r="AP88" s="24"/>
+      <c r="AQ88" s="24"/>
+      <c r="AR88" s="24"/>
+      <c r="AS88" s="24"/>
+      <c r="AT88" s="24"/>
+      <c r="AU88" s="24"/>
+      <c r="AV88" s="24"/>
+      <c r="AW88" s="24"/>
+      <c r="AX88" s="24"/>
+      <c r="AY88" s="24"/>
+      <c r="AZ88" s="24"/>
+      <c r="BA88" s="24"/>
+      <c r="BB88" s="24"/>
+      <c r="BC88" s="24"/>
+      <c r="BD88" s="24"/>
+      <c r="BE88" s="24"/>
+      <c r="BF88" s="24"/>
+      <c r="BG88" s="24"/>
+      <c r="BH88" s="24"/>
+      <c r="BI88" s="24"/>
+      <c r="BJ88" s="24"/>
+      <c r="BK88" s="24"/>
+      <c r="BL88" s="24"/>
+      <c r="BM88" s="24"/>
+      <c r="BN88" s="24"/>
+      <c r="BO88" s="24"/>
+      <c r="BP88" s="24"/>
+      <c r="BQ88" s="24"/>
+      <c r="BR88" s="24"/>
+      <c r="BS88" s="24"/>
+      <c r="BT88" s="24"/>
+      <c r="BU88" s="24"/>
+      <c r="BV88" s="24"/>
+      <c r="BW88" s="24"/>
+      <c r="BX88" s="24"/>
+      <c r="BY88" s="24"/>
+      <c r="BZ88" s="24"/>
+      <c r="CA88" s="24"/>
+      <c r="CB88" s="24"/>
+      <c r="CC88" s="24"/>
+      <c r="CD88" s="24"/>
+      <c r="CE88" s="24"/>
+      <c r="CF88" s="24"/>
+      <c r="CG88" s="24"/>
+      <c r="CH88" s="24"/>
+      <c r="CI88" s="24"/>
+      <c r="CJ88" s="24"/>
+      <c r="CK88" s="24"/>
+      <c r="CL88" s="24"/>
+      <c r="CM88" s="24"/>
+      <c r="CN88" s="24"/>
+      <c r="CO88" s="24"/>
+      <c r="CP88" s="24"/>
+      <c r="CQ88" s="24"/>
+      <c r="CR88" s="24"/>
+      <c r="CS88" s="24"/>
+      <c r="CT88" s="24"/>
+      <c r="CU88" s="24"/>
+      <c r="CV88" s="24"/>
+      <c r="CW88" s="24"/>
+      <c r="CX88" s="24"/>
+      <c r="CY88" s="24"/>
+      <c r="CZ88" s="24"/>
+      <c r="DA88" s="24"/>
+      <c r="DB88" s="24"/>
+      <c r="DC88" s="24"/>
+      <c r="DD88" s="24"/>
+      <c r="DE88" s="24"/>
+      <c r="DF88" s="24"/>
+      <c r="DG88" s="24"/>
+      <c r="DH88" s="24"/>
+      <c r="DI88" s="24"/>
+      <c r="DJ88" s="24"/>
+      <c r="DK88" s="24"/>
+      <c r="DL88" s="24"/>
+      <c r="DM88" s="24"/>
+      <c r="DN88" s="24"/>
+      <c r="DO88" s="24"/>
+      <c r="DP88" s="24"/>
+      <c r="DQ88" s="24"/>
+      <c r="DR88" s="24"/>
+      <c r="DS88" s="24"/>
+      <c r="DT88" s="24"/>
+      <c r="DU88" s="24"/>
+      <c r="DV88" s="24"/>
+      <c r="DW88" s="24"/>
+      <c r="DX88" s="24"/>
+      <c r="DY88" s="24"/>
+      <c r="DZ88" s="24"/>
+      <c r="EA88" s="24"/>
+      <c r="EB88" s="24"/>
+      <c r="EC88" s="24"/>
+      <c r="ED88" s="24"/>
+      <c r="EE88" s="24"/>
+      <c r="EF88" s="24"/>
+      <c r="EG88" s="24"/>
+      <c r="EH88" s="24"/>
+      <c r="EI88" s="24"/>
+      <c r="EJ88" s="24"/>
+      <c r="EK88" s="24"/>
+      <c r="EL88" s="24"/>
+      <c r="EM88" s="24"/>
+      <c r="EN88" s="24"/>
+      <c r="EO88" s="24"/>
+      <c r="EP88" s="24"/>
+      <c r="EQ88" s="24"/>
+      <c r="ER88" s="24"/>
+      <c r="ES88" s="24"/>
+      <c r="ET88" s="24"/>
+      <c r="EU88" s="24"/>
+      <c r="EV88" s="24"/>
+      <c r="EW88" s="24"/>
+      <c r="EX88" s="24"/>
+      <c r="EY88" s="24"/>
+      <c r="EZ88" s="24"/>
+      <c r="FA88" s="24"/>
+      <c r="FB88" s="24"/>
+      <c r="FC88" s="24"/>
+      <c r="FD88" s="24"/>
+      <c r="FE88" s="24"/>
+      <c r="FF88" s="24"/>
+      <c r="FG88" s="24"/>
+      <c r="FH88" s="24"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA74">
-    <sortCondition ref="C2:C74"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA75">
+    <sortCondition ref="C2:C75"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D136241D-7E98-0143-AF4D-9269C74CC9D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA725302-B9A3-EE4E-A5A1-B84660E3F858}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6880" yWindow="2520" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11040" yWindow="1100" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="288">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -873,6 +873,30 @@
   </si>
   <si>
     <t>dependo.88-megaderma</t>
+  </si>
+  <si>
+    <t>dependo.162-macropus</t>
+  </si>
+  <si>
+    <t>dependo.163-macropus</t>
+  </si>
+  <si>
+    <t>dependo.164-macropus</t>
+  </si>
+  <si>
+    <t>dependo.175-procavia</t>
+  </si>
+  <si>
+    <t>dependo.176-heterohyrax</t>
+  </si>
+  <si>
+    <t>procavia</t>
+  </si>
+  <si>
+    <t>heterohyrax</t>
+  </si>
+  <si>
+    <t>dependo.202-thamnophis</t>
   </si>
 </sst>
 </file>
@@ -3362,13 +3386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DACFF6-840F-D741-97EA-4F87EFFABC86}">
-  <dimension ref="A1:FH88"/>
+  <dimension ref="A1:FH94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O50" sqref="O50"/>
+      <selection pane="bottomRight" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3537,11 +3561,11 @@
       <c r="Q2" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>67</v>
+      <c r="R2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T2" s="8" t="s">
         <v>43</v>
@@ -15099,19 +15123,19 @@
     </row>
     <row r="57" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
-        <v>166</v>
+        <v>280</v>
       </c>
       <c r="B57" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C57" s="25">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D57" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="23" t="s">
-        <v>155</v>
+      <c r="E57" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>172</v>
@@ -15125,50 +15149,48 @@
       <c r="I57" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="J57" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N57" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O57" s="4" t="s">
-        <v>43</v>
+      <c r="J57" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q57" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="R57" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="S57" s="10" t="s">
-        <v>177</v>
+      <c r="Q57" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="R57" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S57" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T57" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U57" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="V57" s="8" t="s">
-        <v>216</v>
+      <c r="U57" s="8"/>
+      <c r="V57" s="25">
+        <v>27377618</v>
       </c>
       <c r="W57" s="20" t="s">
-        <v>166</v>
+        <v>280</v>
       </c>
       <c r="X57" s="20" t="s">
-        <v>166</v>
+        <v>280</v>
       </c>
       <c r="Y57" s="20" t="s">
         <v>2</v>
@@ -15317,78 +15339,76 @@
       <c r="FG57" s="24"/>
       <c r="FH57" s="24"/>
     </row>
-    <row r="58" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
-        <v>224</v>
+        <v>281</v>
       </c>
       <c r="B58" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C58" s="25">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D58" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="23" t="s">
-        <v>169</v>
+      <c r="E58" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>172</v>
       </c>
       <c r="G58" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="J58" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N58" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O58" s="4" t="s">
-        <v>43</v>
+      <c r="J58" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q58" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="R58" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="S58" s="10" t="s">
-        <v>187</v>
+      <c r="Q58" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="R58" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S58" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T58" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U58" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="V58" s="8" t="s">
-        <v>216</v>
+      <c r="U58" s="8"/>
+      <c r="V58" s="25">
+        <v>27377618</v>
       </c>
       <c r="W58" s="20" t="s">
-        <v>168</v>
+        <v>281</v>
       </c>
       <c r="X58" s="20" t="s">
-        <v>168</v>
+        <v>281</v>
       </c>
       <c r="Y58" s="20" t="s">
         <v>2</v>
@@ -15537,78 +15557,76 @@
       <c r="FG58" s="24"/>
       <c r="FH58" s="24"/>
     </row>
-    <row r="59" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="B59" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C59" s="25">
-        <v>187</v>
-      </c>
-      <c r="D59" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="F59" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="G59" s="25">
+      <c r="E59" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G59" s="27">
         <v>1</v>
       </c>
-      <c r="H59" s="25">
+      <c r="H59" s="27">
         <v>1</v>
       </c>
-      <c r="I59" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="J59" s="13" t="s">
+      <c r="I59" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J59" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="K59" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L59" s="13" t="s">
+      <c r="K59" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L59" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="M59" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N59" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O59" s="14" t="s">
-        <v>22</v>
+      <c r="M59" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q59" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="R59" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="S59" s="10" t="s">
-        <v>235</v>
+      <c r="Q59" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="R59" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S59" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T59" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U59" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="V59" s="8" t="s">
-        <v>216</v>
+      <c r="U59" s="8"/>
+      <c r="V59" s="25">
+        <v>27377618</v>
       </c>
       <c r="W59" s="20" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="X59" s="20" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="Y59" s="20" t="s">
         <v>2</v>
@@ -15759,30 +15777,32 @@
     </row>
     <row r="60" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="B60" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C60" s="25">
-        <v>190</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F60" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G60" s="25">
+        <v>174</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G60" s="27">
         <v>1</v>
       </c>
-      <c r="H60" s="25">
+      <c r="H60" s="27">
         <v>1</v>
       </c>
-      <c r="I60" s="25"/>
+      <c r="I60" s="27" t="s">
+        <v>191</v>
+      </c>
       <c r="J60" s="4" t="s">
         <v>43</v>
       </c>
@@ -15808,23 +15828,25 @@
         <v>118</v>
       </c>
       <c r="R60" s="10" t="s">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c r="S60" s="10" t="s">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="T60" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U60" s="7"/>
+      <c r="U60" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="V60" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W60" s="20" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="X60" s="20" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="Y60" s="20" t="s">
         <v>2</v>
@@ -15973,24 +15995,24 @@
       <c r="FG60" s="24"/>
       <c r="FH60" s="24"/>
     </row>
-    <row r="61" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
-        <v>214</v>
+        <v>283</v>
       </c>
       <c r="B61" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C61" s="25">
-        <v>191</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>40</v>
+        <v>175</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>285</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="G61" s="25" t="s">
         <v>118</v>
@@ -15998,7 +16020,9 @@
       <c r="H61" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="I61" s="25"/>
+      <c r="I61" s="29" t="s">
+        <v>84</v>
+      </c>
       <c r="J61" s="4" t="s">
         <v>43</v>
       </c>
@@ -16017,30 +16041,30 @@
       <c r="O61" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P61" s="3" t="s">
+      <c r="P61" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q61" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R61" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="S61" s="10" t="s">
-        <v>73</v>
+      <c r="R61" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S61" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T61" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U61" s="7"/>
+      <c r="U61" s="8"/>
       <c r="V61" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W61" s="20" t="s">
-        <v>214</v>
+        <v>283</v>
       </c>
       <c r="X61" s="20" t="s">
-        <v>214</v>
+        <v>283</v>
       </c>
       <c r="Y61" s="20" t="s">
         <v>2</v>
@@ -16189,24 +16213,24 @@
       <c r="FG61" s="24"/>
       <c r="FH61" s="24"/>
     </row>
-    <row r="62" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="B62" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C62" s="25">
-        <v>192</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>40</v>
+        <v>176</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>286</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="G62" s="25" t="s">
         <v>118</v>
@@ -16214,7 +16238,9 @@
       <c r="H62" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="I62" s="25"/>
+      <c r="I62" s="29" t="s">
+        <v>84</v>
+      </c>
       <c r="J62" s="4" t="s">
         <v>43</v>
       </c>
@@ -16233,29 +16259,30 @@
       <c r="O62" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P62" s="3" t="s">
+      <c r="P62" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q62" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R62" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="S62" s="10" t="s">
-        <v>71</v>
+      <c r="R62" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S62" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T62" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="U62" s="8"/>
       <c r="V62" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W62" s="20" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="X62" s="20" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="Y62" s="20" t="s">
         <v>2</v>
@@ -16404,51 +16431,51 @@
       <c r="FG62" s="24"/>
       <c r="FH62" s="24"/>
     </row>
-    <row r="63" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="C63" s="25">
-        <v>197</v>
-      </c>
-      <c r="D63" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F63" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G63" s="29">
-        <v>1</v>
-      </c>
-      <c r="H63" s="29">
-        <v>1</v>
-      </c>
-      <c r="I63" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N63" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O63" s="14" t="s">
-        <v>22</v>
+      <c r="E63" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G63" s="27">
+        <v>2</v>
+      </c>
+      <c r="H63" s="27">
+        <v>2</v>
+      </c>
+      <c r="I63" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>84</v>
@@ -16456,24 +16483,26 @@
       <c r="Q63" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R63" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S63" s="11" t="s">
-        <v>43</v>
+      <c r="R63" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="S63" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="T63" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U63" s="7"/>
+      <c r="U63" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="V63" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W63" s="20" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="X63" s="20" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="Y63" s="20" t="s">
         <v>2</v>
@@ -16622,45 +16651,45 @@
       <c r="FG63" s="24"/>
       <c r="FH63" s="24"/>
     </row>
-    <row r="64" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="C64" s="25">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D64" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E64" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F64" s="22" t="s">
+      <c r="E64" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="F64" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="G64" s="29">
+      <c r="G64" s="25">
         <v>1</v>
       </c>
-      <c r="H64" s="29">
+      <c r="H64" s="25">
         <v>1</v>
       </c>
       <c r="I64" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="J64" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M64" s="3" t="s">
-        <v>133</v>
+      <c r="J64" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L64" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="N64" s="14" t="s">
         <v>22</v>
@@ -16674,23 +16703,26 @@
       <c r="Q64" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R64" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S64" s="11" t="s">
-        <v>43</v>
+      <c r="R64" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="S64" s="10" t="s">
+        <v>235</v>
       </c>
       <c r="T64" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U64" s="8" t="s">
         <v>43</v>
       </c>
       <c r="V64" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W64" s="20" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="X64" s="20" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="Y64" s="20" t="s">
         <v>2</v>
@@ -16841,49 +16873,47 @@
     </row>
     <row r="65" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="C65" s="25">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="F65" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G65" s="29">
+      <c r="G65" s="25">
         <v>1</v>
       </c>
-      <c r="H65" s="29">
+      <c r="H65" s="25">
         <v>1</v>
       </c>
-      <c r="I65" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N65" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O65" s="14" t="s">
-        <v>22</v>
+      <c r="I65" s="25"/>
+      <c r="J65" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P65" s="3" t="s">
         <v>84</v>
@@ -16892,10 +16922,10 @@
         <v>118</v>
       </c>
       <c r="R65" s="10" t="s">
-        <v>53</v>
+        <v>244</v>
       </c>
       <c r="S65" s="10" t="s">
-        <v>54</v>
+        <v>245</v>
       </c>
       <c r="T65" s="8" t="s">
         <v>43</v>
@@ -16905,10 +16935,10 @@
         <v>216</v>
       </c>
       <c r="W65" s="20" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="X65" s="20" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="Y65" s="20" t="s">
         <v>2</v>
@@ -17057,34 +17087,32 @@
       <c r="FG65" s="24"/>
       <c r="FH65" s="24"/>
     </row>
-    <row r="66" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B66" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C66" s="25">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="23" t="s">
-        <v>147</v>
+        <v>14</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="F66" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G66" s="27">
-        <v>1</v>
-      </c>
-      <c r="H66" s="27">
-        <v>1</v>
-      </c>
-      <c r="I66" s="29" t="s">
-        <v>84</v>
-      </c>
+      <c r="G66" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I66" s="25"/>
       <c r="J66" s="4" t="s">
         <v>43</v>
       </c>
@@ -17097,11 +17125,11 @@
       <c r="M66" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N66" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O66" s="14" t="s">
-        <v>22</v>
+      <c r="N66" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>84</v>
@@ -17109,26 +17137,24 @@
       <c r="Q66" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R66" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S66" s="11" t="s">
-        <v>43</v>
+      <c r="R66" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="S66" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="T66" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U66" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="U66" s="7"/>
       <c r="V66" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W66" s="20" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="X66" s="20" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Y66" s="20" t="s">
         <v>2</v>
@@ -17277,34 +17303,32 @@
       <c r="FG66" s="24"/>
       <c r="FH66" s="24"/>
     </row>
-    <row r="67" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="B67" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C67" s="25">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G67" s="27">
-        <v>1</v>
-      </c>
-      <c r="H67" s="27">
-        <v>1</v>
-      </c>
-      <c r="I67" s="25" t="s">
-        <v>191</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G67" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H67" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I67" s="25"/>
       <c r="J67" s="4" t="s">
         <v>43</v>
       </c>
@@ -17330,25 +17354,22 @@
         <v>118</v>
       </c>
       <c r="R67" s="10" t="s">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="S67" s="10" t="s">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="T67" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U67" s="8" t="s">
         <v>43</v>
       </c>
       <c r="V67" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W67" s="20" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="X67" s="20" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="Y67" s="20" t="s">
         <v>2</v>
@@ -17499,43 +17520,43 @@
     </row>
     <row r="68" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="B68" s="25" t="s">
         <v>84</v>
       </c>
       <c r="C68" s="25">
-        <v>221</v>
-      </c>
-      <c r="D68" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D68" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="23" t="s">
-        <v>153</v>
+      <c r="E68" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="F68" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G68" s="27">
+      <c r="G68" s="29">
         <v>1</v>
       </c>
-      <c r="H68" s="27">
+      <c r="H68" s="29">
         <v>1</v>
       </c>
-      <c r="I68" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M68" s="19" t="s">
-        <v>133</v>
+      <c r="I68" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="N68" s="14" t="s">
         <v>22</v>
@@ -17549,26 +17570,24 @@
       <c r="Q68" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R68" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="S68" s="10" t="s">
-        <v>183</v>
+      <c r="R68" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S68" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T68" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U68" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="U68" s="7"/>
       <c r="V68" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W68" s="20" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="X68" s="20" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="Y68" s="20" t="s">
         <v>2</v>
@@ -17719,43 +17738,43 @@
     </row>
     <row r="69" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="C69" s="25">
-        <v>365</v>
+        <v>198</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F69" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G69" s="25">
-        <v>7</v>
-      </c>
-      <c r="H69" s="25">
-        <v>7</v>
-      </c>
-      <c r="I69" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L69" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M69" s="4" t="s">
-        <v>43</v>
+      <c r="G69" s="29">
+        <v>1</v>
+      </c>
+      <c r="H69" s="29">
+        <v>1</v>
+      </c>
+      <c r="I69" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="N69" s="14" t="s">
         <v>22</v>
@@ -17769,26 +17788,23 @@
       <c r="Q69" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R69" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="S69" s="10" t="s">
-        <v>148</v>
+      <c r="R69" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S69" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T69" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U69" s="8" t="s">
         <v>43</v>
       </c>
       <c r="V69" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W69" s="20" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="X69" s="20" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="Y69" s="20" t="s">
         <v>2</v>
@@ -17799,46 +17815,183 @@
       <c r="AA69" s="20" t="s">
         <v>3</v>
       </c>
+      <c r="AB69" s="24"/>
+      <c r="AC69" s="24"/>
+      <c r="AD69" s="24"/>
+      <c r="AE69" s="24"/>
+      <c r="AF69" s="24"/>
+      <c r="AG69" s="24"/>
+      <c r="AH69" s="24"/>
+      <c r="AI69" s="24"/>
+      <c r="AJ69" s="24"/>
+      <c r="AK69" s="24"/>
+      <c r="AL69" s="24"/>
+      <c r="AM69" s="24"/>
+      <c r="AN69" s="24"/>
+      <c r="AO69" s="24"/>
+      <c r="AP69" s="24"/>
+      <c r="AQ69" s="24"/>
+      <c r="AR69" s="24"/>
+      <c r="AS69" s="24"/>
+      <c r="AT69" s="24"/>
+      <c r="AU69" s="24"/>
+      <c r="AV69" s="24"/>
+      <c r="AW69" s="24"/>
+      <c r="AX69" s="24"/>
+      <c r="AY69" s="24"/>
+      <c r="AZ69" s="24"/>
+      <c r="BA69" s="24"/>
+      <c r="BB69" s="24"/>
+      <c r="BC69" s="24"/>
+      <c r="BD69" s="24"/>
+      <c r="BE69" s="24"/>
+      <c r="BF69" s="24"/>
+      <c r="BG69" s="24"/>
+      <c r="BH69" s="24"/>
+      <c r="BI69" s="24"/>
+      <c r="BJ69" s="24"/>
+      <c r="BK69" s="24"/>
+      <c r="BL69" s="24"/>
+      <c r="BM69" s="24"/>
+      <c r="BN69" s="24"/>
+      <c r="BO69" s="24"/>
+      <c r="BP69" s="24"/>
+      <c r="BQ69" s="24"/>
+      <c r="BR69" s="24"/>
+      <c r="BS69" s="24"/>
+      <c r="BT69" s="24"/>
+      <c r="BU69" s="24"/>
+      <c r="BV69" s="24"/>
+      <c r="BW69" s="24"/>
+      <c r="BX69" s="24"/>
+      <c r="BY69" s="24"/>
+      <c r="BZ69" s="24"/>
+      <c r="CA69" s="24"/>
+      <c r="CB69" s="24"/>
+      <c r="CC69" s="24"/>
+      <c r="CD69" s="24"/>
+      <c r="CE69" s="24"/>
+      <c r="CF69" s="24"/>
+      <c r="CG69" s="24"/>
+      <c r="CH69" s="24"/>
+      <c r="CI69" s="24"/>
+      <c r="CJ69" s="24"/>
+      <c r="CK69" s="24"/>
+      <c r="CL69" s="24"/>
+      <c r="CM69" s="24"/>
+      <c r="CN69" s="24"/>
+      <c r="CO69" s="24"/>
+      <c r="CP69" s="24"/>
+      <c r="CQ69" s="24"/>
+      <c r="CR69" s="24"/>
+      <c r="CS69" s="24"/>
+      <c r="CT69" s="24"/>
+      <c r="CU69" s="24"/>
+      <c r="CV69" s="24"/>
+      <c r="CW69" s="24"/>
+      <c r="CX69" s="24"/>
+      <c r="CY69" s="24"/>
+      <c r="CZ69" s="24"/>
+      <c r="DA69" s="24"/>
+      <c r="DB69" s="24"/>
+      <c r="DC69" s="24"/>
+      <c r="DD69" s="24"/>
+      <c r="DE69" s="24"/>
+      <c r="DF69" s="24"/>
+      <c r="DG69" s="24"/>
+      <c r="DH69" s="24"/>
+      <c r="DI69" s="24"/>
+      <c r="DJ69" s="24"/>
+      <c r="DK69" s="24"/>
+      <c r="DL69" s="24"/>
+      <c r="DM69" s="24"/>
+      <c r="DN69" s="24"/>
+      <c r="DO69" s="24"/>
+      <c r="DP69" s="24"/>
+      <c r="DQ69" s="24"/>
+      <c r="DR69" s="24"/>
+      <c r="DS69" s="24"/>
+      <c r="DT69" s="24"/>
+      <c r="DU69" s="24"/>
+      <c r="DV69" s="24"/>
+      <c r="DW69" s="24"/>
+      <c r="DX69" s="24"/>
+      <c r="DY69" s="24"/>
+      <c r="DZ69" s="24"/>
+      <c r="EA69" s="24"/>
+      <c r="EB69" s="24"/>
+      <c r="EC69" s="24"/>
+      <c r="ED69" s="24"/>
+      <c r="EE69" s="24"/>
+      <c r="EF69" s="24"/>
+      <c r="EG69" s="24"/>
+      <c r="EH69" s="24"/>
+      <c r="EI69" s="24"/>
+      <c r="EJ69" s="24"/>
+      <c r="EK69" s="24"/>
+      <c r="EL69" s="24"/>
+      <c r="EM69" s="24"/>
+      <c r="EN69" s="24"/>
+      <c r="EO69" s="24"/>
+      <c r="EP69" s="24"/>
+      <c r="EQ69" s="24"/>
+      <c r="ER69" s="24"/>
+      <c r="ES69" s="24"/>
+      <c r="ET69" s="24"/>
+      <c r="EU69" s="24"/>
+      <c r="EV69" s="24"/>
+      <c r="EW69" s="24"/>
+      <c r="EX69" s="24"/>
+      <c r="EY69" s="24"/>
+      <c r="EZ69" s="24"/>
+      <c r="FA69" s="24"/>
+      <c r="FB69" s="24"/>
+      <c r="FC69" s="24"/>
+      <c r="FD69" s="24"/>
+      <c r="FE69" s="24"/>
+      <c r="FF69" s="24"/>
+      <c r="FG69" s="24"/>
+      <c r="FH69" s="24"/>
     </row>
     <row r="70" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="C70" s="25">
-        <v>366</v>
+        <v>199</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F70" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G70" s="25">
-        <v>20</v>
-      </c>
-      <c r="H70" s="25">
-        <v>20</v>
-      </c>
-      <c r="I70" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L70" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M70" s="4" t="s">
-        <v>43</v>
+      <c r="G70" s="29">
+        <v>1</v>
+      </c>
+      <c r="H70" s="29">
+        <v>1</v>
+      </c>
+      <c r="I70" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="N70" s="14" t="s">
         <v>22</v>
@@ -17853,25 +18006,23 @@
         <v>118</v>
       </c>
       <c r="R70" s="10" t="s">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="S70" s="10" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="T70" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U70" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="U70" s="7"/>
       <c r="V70" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W70" s="20" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="X70" s="20" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="Y70" s="20" t="s">
         <v>2</v>
@@ -18022,19 +18173,19 @@
     </row>
     <row r="71" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B71" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C71" s="25">
-        <v>370</v>
+        <v>203</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F71" s="22" t="s">
         <v>192</v>
@@ -18045,14 +18196,14 @@
       <c r="H71" s="27">
         <v>1</v>
       </c>
-      <c r="I71" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="J71" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K71" s="21" t="s">
-        <v>139</v>
+      <c r="I71" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="L71" s="4" t="s">
         <v>43</v>
@@ -18081,15 +18232,17 @@
       <c r="T71" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U71" s="7"/>
+      <c r="U71" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="V71" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W71" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="X71" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y71" s="20" t="s">
         <v>2</v>
@@ -18240,31 +18393,31 @@
     </row>
     <row r="72" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
-        <v>257</v>
+        <v>182</v>
       </c>
       <c r="B72" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C72" s="25">
-        <v>372</v>
+        <v>201</v>
       </c>
       <c r="D72" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="F72" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="G72" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="H72" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="I72" s="31" t="s">
-        <v>84</v>
+        <v>146</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G72" s="27">
+        <v>1</v>
+      </c>
+      <c r="H72" s="27">
+        <v>1</v>
+      </c>
+      <c r="I72" s="25" t="s">
+        <v>191</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>43</v>
@@ -18291,23 +18444,25 @@
         <v>118</v>
       </c>
       <c r="R72" s="10" t="s">
-        <v>259</v>
+        <v>180</v>
       </c>
       <c r="S72" s="10" t="s">
-        <v>260</v>
+        <v>181</v>
       </c>
       <c r="T72" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U72" s="7"/>
+      <c r="U72" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="V72" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W72" s="20" t="s">
-        <v>257</v>
+        <v>182</v>
       </c>
       <c r="X72" s="20" t="s">
-        <v>257</v>
+        <v>182</v>
       </c>
       <c r="Y72" s="20" t="s">
         <v>2</v>
@@ -18458,22 +18613,22 @@
     </row>
     <row r="73" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
-        <v>134</v>
+        <v>287</v>
       </c>
       <c r="B73" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C73" s="25">
-        <v>500</v>
+        <v>202</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="F73" s="22" t="s">
-        <v>192</v>
+        <v>146</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="G73" s="27">
         <v>1</v>
@@ -18481,26 +18636,26 @@
       <c r="H73" s="27">
         <v>1</v>
       </c>
-      <c r="I73" s="27" t="s">
+      <c r="I73" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="J73" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K73" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="L73" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="M73" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="N73" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O73" s="14" t="s">
-        <v>22</v>
+      <c r="J73" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P73" s="3" t="s">
         <v>84</v>
@@ -18508,11 +18663,11 @@
       <c r="Q73" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R73" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S73" s="11" t="s">
-        <v>43</v>
+      <c r="R73" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="S73" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="T73" s="8" t="s">
         <v>43</v>
@@ -18524,36 +18679,173 @@
         <v>216</v>
       </c>
       <c r="W73" s="20" t="s">
-        <v>134</v>
+        <v>287</v>
       </c>
       <c r="X73" s="20" t="s">
-        <v>134</v>
+        <v>287</v>
       </c>
       <c r="Y73" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z73" s="20" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="AA73" s="20" t="s">
         <v>3</v>
       </c>
+      <c r="AB73" s="24"/>
+      <c r="AC73" s="24"/>
+      <c r="AD73" s="24"/>
+      <c r="AE73" s="24"/>
+      <c r="AF73" s="24"/>
+      <c r="AG73" s="24"/>
+      <c r="AH73" s="24"/>
+      <c r="AI73" s="24"/>
+      <c r="AJ73" s="24"/>
+      <c r="AK73" s="24"/>
+      <c r="AL73" s="24"/>
+      <c r="AM73" s="24"/>
+      <c r="AN73" s="24"/>
+      <c r="AO73" s="24"/>
+      <c r="AP73" s="24"/>
+      <c r="AQ73" s="24"/>
+      <c r="AR73" s="24"/>
+      <c r="AS73" s="24"/>
+      <c r="AT73" s="24"/>
+      <c r="AU73" s="24"/>
+      <c r="AV73" s="24"/>
+      <c r="AW73" s="24"/>
+      <c r="AX73" s="24"/>
+      <c r="AY73" s="24"/>
+      <c r="AZ73" s="24"/>
+      <c r="BA73" s="24"/>
+      <c r="BB73" s="24"/>
+      <c r="BC73" s="24"/>
+      <c r="BD73" s="24"/>
+      <c r="BE73" s="24"/>
+      <c r="BF73" s="24"/>
+      <c r="BG73" s="24"/>
+      <c r="BH73" s="24"/>
+      <c r="BI73" s="24"/>
+      <c r="BJ73" s="24"/>
+      <c r="BK73" s="24"/>
+      <c r="BL73" s="24"/>
+      <c r="BM73" s="24"/>
+      <c r="BN73" s="24"/>
+      <c r="BO73" s="24"/>
+      <c r="BP73" s="24"/>
+      <c r="BQ73" s="24"/>
+      <c r="BR73" s="24"/>
+      <c r="BS73" s="24"/>
+      <c r="BT73" s="24"/>
+      <c r="BU73" s="24"/>
+      <c r="BV73" s="24"/>
+      <c r="BW73" s="24"/>
+      <c r="BX73" s="24"/>
+      <c r="BY73" s="24"/>
+      <c r="BZ73" s="24"/>
+      <c r="CA73" s="24"/>
+      <c r="CB73" s="24"/>
+      <c r="CC73" s="24"/>
+      <c r="CD73" s="24"/>
+      <c r="CE73" s="24"/>
+      <c r="CF73" s="24"/>
+      <c r="CG73" s="24"/>
+      <c r="CH73" s="24"/>
+      <c r="CI73" s="24"/>
+      <c r="CJ73" s="24"/>
+      <c r="CK73" s="24"/>
+      <c r="CL73" s="24"/>
+      <c r="CM73" s="24"/>
+      <c r="CN73" s="24"/>
+      <c r="CO73" s="24"/>
+      <c r="CP73" s="24"/>
+      <c r="CQ73" s="24"/>
+      <c r="CR73" s="24"/>
+      <c r="CS73" s="24"/>
+      <c r="CT73" s="24"/>
+      <c r="CU73" s="24"/>
+      <c r="CV73" s="24"/>
+      <c r="CW73" s="24"/>
+      <c r="CX73" s="24"/>
+      <c r="CY73" s="24"/>
+      <c r="CZ73" s="24"/>
+      <c r="DA73" s="24"/>
+      <c r="DB73" s="24"/>
+      <c r="DC73" s="24"/>
+      <c r="DD73" s="24"/>
+      <c r="DE73" s="24"/>
+      <c r="DF73" s="24"/>
+      <c r="DG73" s="24"/>
+      <c r="DH73" s="24"/>
+      <c r="DI73" s="24"/>
+      <c r="DJ73" s="24"/>
+      <c r="DK73" s="24"/>
+      <c r="DL73" s="24"/>
+      <c r="DM73" s="24"/>
+      <c r="DN73" s="24"/>
+      <c r="DO73" s="24"/>
+      <c r="DP73" s="24"/>
+      <c r="DQ73" s="24"/>
+      <c r="DR73" s="24"/>
+      <c r="DS73" s="24"/>
+      <c r="DT73" s="24"/>
+      <c r="DU73" s="24"/>
+      <c r="DV73" s="24"/>
+      <c r="DW73" s="24"/>
+      <c r="DX73" s="24"/>
+      <c r="DY73" s="24"/>
+      <c r="DZ73" s="24"/>
+      <c r="EA73" s="24"/>
+      <c r="EB73" s="24"/>
+      <c r="EC73" s="24"/>
+      <c r="ED73" s="24"/>
+      <c r="EE73" s="24"/>
+      <c r="EF73" s="24"/>
+      <c r="EG73" s="24"/>
+      <c r="EH73" s="24"/>
+      <c r="EI73" s="24"/>
+      <c r="EJ73" s="24"/>
+      <c r="EK73" s="24"/>
+      <c r="EL73" s="24"/>
+      <c r="EM73" s="24"/>
+      <c r="EN73" s="24"/>
+      <c r="EO73" s="24"/>
+      <c r="EP73" s="24"/>
+      <c r="EQ73" s="24"/>
+      <c r="ER73" s="24"/>
+      <c r="ES73" s="24"/>
+      <c r="ET73" s="24"/>
+      <c r="EU73" s="24"/>
+      <c r="EV73" s="24"/>
+      <c r="EW73" s="24"/>
+      <c r="EX73" s="24"/>
+      <c r="EY73" s="24"/>
+      <c r="EZ73" s="24"/>
+      <c r="FA73" s="24"/>
+      <c r="FB73" s="24"/>
+      <c r="FC73" s="24"/>
+      <c r="FD73" s="24"/>
+      <c r="FE73" s="24"/>
+      <c r="FF73" s="24"/>
+      <c r="FG73" s="24"/>
+      <c r="FH73" s="24"/>
     </row>
     <row r="74" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="C74" s="25">
-        <v>500</v>
-      </c>
-      <c r="D74" s="25" t="s">
-        <v>20</v>
+        <v>221</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>15</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="F74" s="22" t="s">
         <v>192</v>
@@ -18564,20 +18856,20 @@
       <c r="H74" s="27">
         <v>1</v>
       </c>
-      <c r="I74" s="27" t="s">
+      <c r="I74" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="J74" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K74" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="L74" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="M74" s="13" t="s">
-        <v>136</v>
+      <c r="J74" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M74" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="N74" s="14" t="s">
         <v>22</v>
@@ -18591,11 +18883,11 @@
       <c r="Q74" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R74" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S74" s="11" t="s">
-        <v>43</v>
+      <c r="R74" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="S74" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="T74" s="8" t="s">
         <v>43</v>
@@ -18607,10 +18899,10 @@
         <v>216</v>
       </c>
       <c r="W74" s="20" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="X74" s="20" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="Y74" s="20" t="s">
         <v>2</v>
@@ -18621,46 +18913,183 @@
       <c r="AA74" s="20" t="s">
         <v>3</v>
       </c>
+      <c r="AB74" s="24"/>
+      <c r="AC74" s="24"/>
+      <c r="AD74" s="24"/>
+      <c r="AE74" s="24"/>
+      <c r="AF74" s="24"/>
+      <c r="AG74" s="24"/>
+      <c r="AH74" s="24"/>
+      <c r="AI74" s="24"/>
+      <c r="AJ74" s="24"/>
+      <c r="AK74" s="24"/>
+      <c r="AL74" s="24"/>
+      <c r="AM74" s="24"/>
+      <c r="AN74" s="24"/>
+      <c r="AO74" s="24"/>
+      <c r="AP74" s="24"/>
+      <c r="AQ74" s="24"/>
+      <c r="AR74" s="24"/>
+      <c r="AS74" s="24"/>
+      <c r="AT74" s="24"/>
+      <c r="AU74" s="24"/>
+      <c r="AV74" s="24"/>
+      <c r="AW74" s="24"/>
+      <c r="AX74" s="24"/>
+      <c r="AY74" s="24"/>
+      <c r="AZ74" s="24"/>
+      <c r="BA74" s="24"/>
+      <c r="BB74" s="24"/>
+      <c r="BC74" s="24"/>
+      <c r="BD74" s="24"/>
+      <c r="BE74" s="24"/>
+      <c r="BF74" s="24"/>
+      <c r="BG74" s="24"/>
+      <c r="BH74" s="24"/>
+      <c r="BI74" s="24"/>
+      <c r="BJ74" s="24"/>
+      <c r="BK74" s="24"/>
+      <c r="BL74" s="24"/>
+      <c r="BM74" s="24"/>
+      <c r="BN74" s="24"/>
+      <c r="BO74" s="24"/>
+      <c r="BP74" s="24"/>
+      <c r="BQ74" s="24"/>
+      <c r="BR74" s="24"/>
+      <c r="BS74" s="24"/>
+      <c r="BT74" s="24"/>
+      <c r="BU74" s="24"/>
+      <c r="BV74" s="24"/>
+      <c r="BW74" s="24"/>
+      <c r="BX74" s="24"/>
+      <c r="BY74" s="24"/>
+      <c r="BZ74" s="24"/>
+      <c r="CA74" s="24"/>
+      <c r="CB74" s="24"/>
+      <c r="CC74" s="24"/>
+      <c r="CD74" s="24"/>
+      <c r="CE74" s="24"/>
+      <c r="CF74" s="24"/>
+      <c r="CG74" s="24"/>
+      <c r="CH74" s="24"/>
+      <c r="CI74" s="24"/>
+      <c r="CJ74" s="24"/>
+      <c r="CK74" s="24"/>
+      <c r="CL74" s="24"/>
+      <c r="CM74" s="24"/>
+      <c r="CN74" s="24"/>
+      <c r="CO74" s="24"/>
+      <c r="CP74" s="24"/>
+      <c r="CQ74" s="24"/>
+      <c r="CR74" s="24"/>
+      <c r="CS74" s="24"/>
+      <c r="CT74" s="24"/>
+      <c r="CU74" s="24"/>
+      <c r="CV74" s="24"/>
+      <c r="CW74" s="24"/>
+      <c r="CX74" s="24"/>
+      <c r="CY74" s="24"/>
+      <c r="CZ74" s="24"/>
+      <c r="DA74" s="24"/>
+      <c r="DB74" s="24"/>
+      <c r="DC74" s="24"/>
+      <c r="DD74" s="24"/>
+      <c r="DE74" s="24"/>
+      <c r="DF74" s="24"/>
+      <c r="DG74" s="24"/>
+      <c r="DH74" s="24"/>
+      <c r="DI74" s="24"/>
+      <c r="DJ74" s="24"/>
+      <c r="DK74" s="24"/>
+      <c r="DL74" s="24"/>
+      <c r="DM74" s="24"/>
+      <c r="DN74" s="24"/>
+      <c r="DO74" s="24"/>
+      <c r="DP74" s="24"/>
+      <c r="DQ74" s="24"/>
+      <c r="DR74" s="24"/>
+      <c r="DS74" s="24"/>
+      <c r="DT74" s="24"/>
+      <c r="DU74" s="24"/>
+      <c r="DV74" s="24"/>
+      <c r="DW74" s="24"/>
+      <c r="DX74" s="24"/>
+      <c r="DY74" s="24"/>
+      <c r="DZ74" s="24"/>
+      <c r="EA74" s="24"/>
+      <c r="EB74" s="24"/>
+      <c r="EC74" s="24"/>
+      <c r="ED74" s="24"/>
+      <c r="EE74" s="24"/>
+      <c r="EF74" s="24"/>
+      <c r="EG74" s="24"/>
+      <c r="EH74" s="24"/>
+      <c r="EI74" s="24"/>
+      <c r="EJ74" s="24"/>
+      <c r="EK74" s="24"/>
+      <c r="EL74" s="24"/>
+      <c r="EM74" s="24"/>
+      <c r="EN74" s="24"/>
+      <c r="EO74" s="24"/>
+      <c r="EP74" s="24"/>
+      <c r="EQ74" s="24"/>
+      <c r="ER74" s="24"/>
+      <c r="ES74" s="24"/>
+      <c r="ET74" s="24"/>
+      <c r="EU74" s="24"/>
+      <c r="EV74" s="24"/>
+      <c r="EW74" s="24"/>
+      <c r="EX74" s="24"/>
+      <c r="EY74" s="24"/>
+      <c r="EZ74" s="24"/>
+      <c r="FA74" s="24"/>
+      <c r="FB74" s="24"/>
+      <c r="FC74" s="24"/>
+      <c r="FD74" s="24"/>
+      <c r="FE74" s="24"/>
+      <c r="FF74" s="24"/>
+      <c r="FG74" s="24"/>
+      <c r="FH74" s="24"/>
     </row>
     <row r="75" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="B75" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C75" s="25">
-        <v>500</v>
+        <v>365</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E75" s="23" t="s">
-        <v>136</v>
+        <v>14</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="F75" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G75" s="27">
-        <v>1</v>
-      </c>
-      <c r="H75" s="27">
-        <v>1</v>
-      </c>
-      <c r="I75" s="27" t="s">
+      <c r="G75" s="25">
+        <v>7</v>
+      </c>
+      <c r="H75" s="25">
+        <v>7</v>
+      </c>
+      <c r="I75" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="J75" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K75" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="L75" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="M75" s="13" t="s">
-        <v>136</v>
+      <c r="J75" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="N75" s="14" t="s">
         <v>22</v>
@@ -18674,11 +19103,11 @@
       <c r="Q75" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R75" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S75" s="11" t="s">
-        <v>43</v>
+      <c r="R75" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="S75" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="T75" s="8" t="s">
         <v>43</v>
@@ -18690,10 +19119,10 @@
         <v>216</v>
       </c>
       <c r="W75" s="20" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="X75" s="20" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="Y75" s="20" t="s">
         <v>2</v>
@@ -18706,6 +19135,87 @@
       </c>
     </row>
     <row r="76" spans="1:164" x14ac:dyDescent="0.2">
+      <c r="A76" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C76" s="25">
+        <v>366</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F76" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G76" s="25">
+        <v>20</v>
+      </c>
+      <c r="H76" s="25">
+        <v>20</v>
+      </c>
+      <c r="I76" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N76" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O76" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q76" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="R76" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="S76" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="T76" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U76" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V76" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="W76" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="X76" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y76" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z76" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA76" s="20" t="s">
+        <v>3</v>
+      </c>
       <c r="AB76" s="24"/>
       <c r="AC76" s="24"/>
       <c r="AD76" s="24"/>
@@ -18845,6 +19355,85 @@
       <c r="FH76" s="24"/>
     </row>
     <row r="77" spans="1:164" x14ac:dyDescent="0.2">
+      <c r="A77" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C77" s="25">
+        <v>370</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G77" s="27">
+        <v>1</v>
+      </c>
+      <c r="H77" s="27">
+        <v>1</v>
+      </c>
+      <c r="I77" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J77" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K77" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N77" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O77" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q77" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="R77" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S77" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T77" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U77" s="7"/>
+      <c r="V77" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="W77" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="X77" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y77" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z77" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA77" s="20" t="s">
+        <v>3</v>
+      </c>
       <c r="AB77" s="24"/>
       <c r="AC77" s="24"/>
       <c r="AD77" s="24"/>
@@ -18984,6 +19573,85 @@
       <c r="FH77" s="24"/>
     </row>
     <row r="78" spans="1:164" x14ac:dyDescent="0.2">
+      <c r="A78" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C78" s="25">
+        <v>372</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="F78" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G78" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H78" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I78" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O78" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q78" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="R78" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="S78" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="T78" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U78" s="7"/>
+      <c r="V78" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="W78" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="X78" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y78" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z78" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA78" s="20" t="s">
+        <v>3</v>
+      </c>
       <c r="AB78" s="24"/>
       <c r="AC78" s="24"/>
       <c r="AD78" s="24"/>
@@ -19123,423 +19791,255 @@
       <c r="FH78" s="24"/>
     </row>
     <row r="79" spans="1:164" x14ac:dyDescent="0.2">
-      <c r="AB79" s="24"/>
-      <c r="AC79" s="24"/>
-      <c r="AD79" s="24"/>
-      <c r="AE79" s="24"/>
-      <c r="AF79" s="24"/>
-      <c r="AG79" s="24"/>
-      <c r="AH79" s="24"/>
-      <c r="AI79" s="24"/>
-      <c r="AJ79" s="24"/>
-      <c r="AK79" s="24"/>
-      <c r="AL79" s="24"/>
-      <c r="AM79" s="24"/>
-      <c r="AN79" s="24"/>
-      <c r="AO79" s="24"/>
-      <c r="AP79" s="24"/>
-      <c r="AQ79" s="24"/>
-      <c r="AR79" s="24"/>
-      <c r="AS79" s="24"/>
-      <c r="AT79" s="24"/>
-      <c r="AU79" s="24"/>
-      <c r="AV79" s="24"/>
-      <c r="AW79" s="24"/>
-      <c r="AX79" s="24"/>
-      <c r="AY79" s="24"/>
-      <c r="AZ79" s="24"/>
-      <c r="BA79" s="24"/>
-      <c r="BB79" s="24"/>
-      <c r="BC79" s="24"/>
-      <c r="BD79" s="24"/>
-      <c r="BE79" s="24"/>
-      <c r="BF79" s="24"/>
-      <c r="BG79" s="24"/>
-      <c r="BH79" s="24"/>
-      <c r="BI79" s="24"/>
-      <c r="BJ79" s="24"/>
-      <c r="BK79" s="24"/>
-      <c r="BL79" s="24"/>
-      <c r="BM79" s="24"/>
-      <c r="BN79" s="24"/>
-      <c r="BO79" s="24"/>
-      <c r="BP79" s="24"/>
-      <c r="BQ79" s="24"/>
-      <c r="BR79" s="24"/>
-      <c r="BS79" s="24"/>
-      <c r="BT79" s="24"/>
-      <c r="BU79" s="24"/>
-      <c r="BV79" s="24"/>
-      <c r="BW79" s="24"/>
-      <c r="BX79" s="24"/>
-      <c r="BY79" s="24"/>
-      <c r="BZ79" s="24"/>
-      <c r="CA79" s="24"/>
-      <c r="CB79" s="24"/>
-      <c r="CC79" s="24"/>
-      <c r="CD79" s="24"/>
-      <c r="CE79" s="24"/>
-      <c r="CF79" s="24"/>
-      <c r="CG79" s="24"/>
-      <c r="CH79" s="24"/>
-      <c r="CI79" s="24"/>
-      <c r="CJ79" s="24"/>
-      <c r="CK79" s="24"/>
-      <c r="CL79" s="24"/>
-      <c r="CM79" s="24"/>
-      <c r="CN79" s="24"/>
-      <c r="CO79" s="24"/>
-      <c r="CP79" s="24"/>
-      <c r="CQ79" s="24"/>
-      <c r="CR79" s="24"/>
-      <c r="CS79" s="24"/>
-      <c r="CT79" s="24"/>
-      <c r="CU79" s="24"/>
-      <c r="CV79" s="24"/>
-      <c r="CW79" s="24"/>
-      <c r="CX79" s="24"/>
-      <c r="CY79" s="24"/>
-      <c r="CZ79" s="24"/>
-      <c r="DA79" s="24"/>
-      <c r="DB79" s="24"/>
-      <c r="DC79" s="24"/>
-      <c r="DD79" s="24"/>
-      <c r="DE79" s="24"/>
-      <c r="DF79" s="24"/>
-      <c r="DG79" s="24"/>
-      <c r="DH79" s="24"/>
-      <c r="DI79" s="24"/>
-      <c r="DJ79" s="24"/>
-      <c r="DK79" s="24"/>
-      <c r="DL79" s="24"/>
-      <c r="DM79" s="24"/>
-      <c r="DN79" s="24"/>
-      <c r="DO79" s="24"/>
-      <c r="DP79" s="24"/>
-      <c r="DQ79" s="24"/>
-      <c r="DR79" s="24"/>
-      <c r="DS79" s="24"/>
-      <c r="DT79" s="24"/>
-      <c r="DU79" s="24"/>
-      <c r="DV79" s="24"/>
-      <c r="DW79" s="24"/>
-      <c r="DX79" s="24"/>
-      <c r="DY79" s="24"/>
-      <c r="DZ79" s="24"/>
-      <c r="EA79" s="24"/>
-      <c r="EB79" s="24"/>
-      <c r="EC79" s="24"/>
-      <c r="ED79" s="24"/>
-      <c r="EE79" s="24"/>
-      <c r="EF79" s="24"/>
-      <c r="EG79" s="24"/>
-      <c r="EH79" s="24"/>
-      <c r="EI79" s="24"/>
-      <c r="EJ79" s="24"/>
-      <c r="EK79" s="24"/>
-      <c r="EL79" s="24"/>
-      <c r="EM79" s="24"/>
-      <c r="EN79" s="24"/>
-      <c r="EO79" s="24"/>
-      <c r="EP79" s="24"/>
-      <c r="EQ79" s="24"/>
-      <c r="ER79" s="24"/>
-      <c r="ES79" s="24"/>
-      <c r="ET79" s="24"/>
-      <c r="EU79" s="24"/>
-      <c r="EV79" s="24"/>
-      <c r="EW79" s="24"/>
-      <c r="EX79" s="24"/>
-      <c r="EY79" s="24"/>
-      <c r="EZ79" s="24"/>
-      <c r="FA79" s="24"/>
-      <c r="FB79" s="24"/>
-      <c r="FC79" s="24"/>
-      <c r="FD79" s="24"/>
-      <c r="FE79" s="24"/>
-      <c r="FF79" s="24"/>
-      <c r="FG79" s="24"/>
-      <c r="FH79" s="24"/>
+      <c r="A79" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C79" s="25">
+        <v>500</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F79" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G79" s="27">
+        <v>1</v>
+      </c>
+      <c r="H79" s="27">
+        <v>1</v>
+      </c>
+      <c r="I79" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J79" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K79" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L79" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M79" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="N79" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O79" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q79" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="R79" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S79" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T79" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U79" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V79" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="W79" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="X79" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y79" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z79" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA79" s="20" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="80" spans="1:164" x14ac:dyDescent="0.2">
-      <c r="AB80" s="24"/>
-      <c r="AC80" s="24"/>
-      <c r="AD80" s="24"/>
-      <c r="AE80" s="24"/>
-      <c r="AF80" s="24"/>
-      <c r="AG80" s="24"/>
-      <c r="AH80" s="24"/>
-      <c r="AI80" s="24"/>
-      <c r="AJ80" s="24"/>
-      <c r="AK80" s="24"/>
-      <c r="AL80" s="24"/>
-      <c r="AM80" s="24"/>
-      <c r="AN80" s="24"/>
-      <c r="AO80" s="24"/>
-      <c r="AP80" s="24"/>
-      <c r="AQ80" s="24"/>
-      <c r="AR80" s="24"/>
-      <c r="AS80" s="24"/>
-      <c r="AT80" s="24"/>
-      <c r="AU80" s="24"/>
-      <c r="AV80" s="24"/>
-      <c r="AW80" s="24"/>
-      <c r="AX80" s="24"/>
-      <c r="AY80" s="24"/>
-      <c r="AZ80" s="24"/>
-      <c r="BA80" s="24"/>
-      <c r="BB80" s="24"/>
-      <c r="BC80" s="24"/>
-      <c r="BD80" s="24"/>
-      <c r="BE80" s="24"/>
-      <c r="BF80" s="24"/>
-      <c r="BG80" s="24"/>
-      <c r="BH80" s="24"/>
-      <c r="BI80" s="24"/>
-      <c r="BJ80" s="24"/>
-      <c r="BK80" s="24"/>
-      <c r="BL80" s="24"/>
-      <c r="BM80" s="24"/>
-      <c r="BN80" s="24"/>
-      <c r="BO80" s="24"/>
-      <c r="BP80" s="24"/>
-      <c r="BQ80" s="24"/>
-      <c r="BR80" s="24"/>
-      <c r="BS80" s="24"/>
-      <c r="BT80" s="24"/>
-      <c r="BU80" s="24"/>
-      <c r="BV80" s="24"/>
-      <c r="BW80" s="24"/>
-      <c r="BX80" s="24"/>
-      <c r="BY80" s="24"/>
-      <c r="BZ80" s="24"/>
-      <c r="CA80" s="24"/>
-      <c r="CB80" s="24"/>
-      <c r="CC80" s="24"/>
-      <c r="CD80" s="24"/>
-      <c r="CE80" s="24"/>
-      <c r="CF80" s="24"/>
-      <c r="CG80" s="24"/>
-      <c r="CH80" s="24"/>
-      <c r="CI80" s="24"/>
-      <c r="CJ80" s="24"/>
-      <c r="CK80" s="24"/>
-      <c r="CL80" s="24"/>
-      <c r="CM80" s="24"/>
-      <c r="CN80" s="24"/>
-      <c r="CO80" s="24"/>
-      <c r="CP80" s="24"/>
-      <c r="CQ80" s="24"/>
-      <c r="CR80" s="24"/>
-      <c r="CS80" s="24"/>
-      <c r="CT80" s="24"/>
-      <c r="CU80" s="24"/>
-      <c r="CV80" s="24"/>
-      <c r="CW80" s="24"/>
-      <c r="CX80" s="24"/>
-      <c r="CY80" s="24"/>
-      <c r="CZ80" s="24"/>
-      <c r="DA80" s="24"/>
-      <c r="DB80" s="24"/>
-      <c r="DC80" s="24"/>
-      <c r="DD80" s="24"/>
-      <c r="DE80" s="24"/>
-      <c r="DF80" s="24"/>
-      <c r="DG80" s="24"/>
-      <c r="DH80" s="24"/>
-      <c r="DI80" s="24"/>
-      <c r="DJ80" s="24"/>
-      <c r="DK80" s="24"/>
-      <c r="DL80" s="24"/>
-      <c r="DM80" s="24"/>
-      <c r="DN80" s="24"/>
-      <c r="DO80" s="24"/>
-      <c r="DP80" s="24"/>
-      <c r="DQ80" s="24"/>
-      <c r="DR80" s="24"/>
-      <c r="DS80" s="24"/>
-      <c r="DT80" s="24"/>
-      <c r="DU80" s="24"/>
-      <c r="DV80" s="24"/>
-      <c r="DW80" s="24"/>
-      <c r="DX80" s="24"/>
-      <c r="DY80" s="24"/>
-      <c r="DZ80" s="24"/>
-      <c r="EA80" s="24"/>
-      <c r="EB80" s="24"/>
-      <c r="EC80" s="24"/>
-      <c r="ED80" s="24"/>
-      <c r="EE80" s="24"/>
-      <c r="EF80" s="24"/>
-      <c r="EG80" s="24"/>
-      <c r="EH80" s="24"/>
-      <c r="EI80" s="24"/>
-      <c r="EJ80" s="24"/>
-      <c r="EK80" s="24"/>
-      <c r="EL80" s="24"/>
-      <c r="EM80" s="24"/>
-      <c r="EN80" s="24"/>
-      <c r="EO80" s="24"/>
-      <c r="EP80" s="24"/>
-      <c r="EQ80" s="24"/>
-      <c r="ER80" s="24"/>
-      <c r="ES80" s="24"/>
-      <c r="ET80" s="24"/>
-      <c r="EU80" s="24"/>
-      <c r="EV80" s="24"/>
-      <c r="EW80" s="24"/>
-      <c r="EX80" s="24"/>
-      <c r="EY80" s="24"/>
-      <c r="EZ80" s="24"/>
-      <c r="FA80" s="24"/>
-      <c r="FB80" s="24"/>
-      <c r="FC80" s="24"/>
-      <c r="FD80" s="24"/>
-      <c r="FE80" s="24"/>
-      <c r="FF80" s="24"/>
-      <c r="FG80" s="24"/>
-      <c r="FH80" s="24"/>
+      <c r="A80" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" s="25">
+        <v>500</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G80" s="27">
+        <v>1</v>
+      </c>
+      <c r="H80" s="27">
+        <v>1</v>
+      </c>
+      <c r="I80" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J80" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K80" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L80" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M80" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="N80" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O80" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q80" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="R80" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S80" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T80" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U80" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V80" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="W80" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="X80" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y80" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z80" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA80" s="20" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="81" spans="28:164" x14ac:dyDescent="0.2">
-      <c r="AB81" s="24"/>
-      <c r="AC81" s="24"/>
-      <c r="AD81" s="24"/>
-      <c r="AE81" s="24"/>
-      <c r="AF81" s="24"/>
-      <c r="AG81" s="24"/>
-      <c r="AH81" s="24"/>
-      <c r="AI81" s="24"/>
-      <c r="AJ81" s="24"/>
-      <c r="AK81" s="24"/>
-      <c r="AL81" s="24"/>
-      <c r="AM81" s="24"/>
-      <c r="AN81" s="24"/>
-      <c r="AO81" s="24"/>
-      <c r="AP81" s="24"/>
-      <c r="AQ81" s="24"/>
-      <c r="AR81" s="24"/>
-      <c r="AS81" s="24"/>
-      <c r="AT81" s="24"/>
-      <c r="AU81" s="24"/>
-      <c r="AV81" s="24"/>
-      <c r="AW81" s="24"/>
-      <c r="AX81" s="24"/>
-      <c r="AY81" s="24"/>
-      <c r="AZ81" s="24"/>
-      <c r="BA81" s="24"/>
-      <c r="BB81" s="24"/>
-      <c r="BC81" s="24"/>
-      <c r="BD81" s="24"/>
-      <c r="BE81" s="24"/>
-      <c r="BF81" s="24"/>
-      <c r="BG81" s="24"/>
-      <c r="BH81" s="24"/>
-      <c r="BI81" s="24"/>
-      <c r="BJ81" s="24"/>
-      <c r="BK81" s="24"/>
-      <c r="BL81" s="24"/>
-      <c r="BM81" s="24"/>
-      <c r="BN81" s="24"/>
-      <c r="BO81" s="24"/>
-      <c r="BP81" s="24"/>
-      <c r="BQ81" s="24"/>
-      <c r="BR81" s="24"/>
-      <c r="BS81" s="24"/>
-      <c r="BT81" s="24"/>
-      <c r="BU81" s="24"/>
-      <c r="BV81" s="24"/>
-      <c r="BW81" s="24"/>
-      <c r="BX81" s="24"/>
-      <c r="BY81" s="24"/>
-      <c r="BZ81" s="24"/>
-      <c r="CA81" s="24"/>
-      <c r="CB81" s="24"/>
-      <c r="CC81" s="24"/>
-      <c r="CD81" s="24"/>
-      <c r="CE81" s="24"/>
-      <c r="CF81" s="24"/>
-      <c r="CG81" s="24"/>
-      <c r="CH81" s="24"/>
-      <c r="CI81" s="24"/>
-      <c r="CJ81" s="24"/>
-      <c r="CK81" s="24"/>
-      <c r="CL81" s="24"/>
-      <c r="CM81" s="24"/>
-      <c r="CN81" s="24"/>
-      <c r="CO81" s="24"/>
-      <c r="CP81" s="24"/>
-      <c r="CQ81" s="24"/>
-      <c r="CR81" s="24"/>
-      <c r="CS81" s="24"/>
-      <c r="CT81" s="24"/>
-      <c r="CU81" s="24"/>
-      <c r="CV81" s="24"/>
-      <c r="CW81" s="24"/>
-      <c r="CX81" s="24"/>
-      <c r="CY81" s="24"/>
-      <c r="CZ81" s="24"/>
-      <c r="DA81" s="24"/>
-      <c r="DB81" s="24"/>
-      <c r="DC81" s="24"/>
-      <c r="DD81" s="24"/>
-      <c r="DE81" s="24"/>
-      <c r="DF81" s="24"/>
-      <c r="DG81" s="24"/>
-      <c r="DH81" s="24"/>
-      <c r="DI81" s="24"/>
-      <c r="DJ81" s="24"/>
-      <c r="DK81" s="24"/>
-      <c r="DL81" s="24"/>
-      <c r="DM81" s="24"/>
-      <c r="DN81" s="24"/>
-      <c r="DO81" s="24"/>
-      <c r="DP81" s="24"/>
-      <c r="DQ81" s="24"/>
-      <c r="DR81" s="24"/>
-      <c r="DS81" s="24"/>
-      <c r="DT81" s="24"/>
-      <c r="DU81" s="24"/>
-      <c r="DV81" s="24"/>
-      <c r="DW81" s="24"/>
-      <c r="DX81" s="24"/>
-      <c r="DY81" s="24"/>
-      <c r="DZ81" s="24"/>
-      <c r="EA81" s="24"/>
-      <c r="EB81" s="24"/>
-      <c r="EC81" s="24"/>
-      <c r="ED81" s="24"/>
-      <c r="EE81" s="24"/>
-      <c r="EF81" s="24"/>
-      <c r="EG81" s="24"/>
-      <c r="EH81" s="24"/>
-      <c r="EI81" s="24"/>
-      <c r="EJ81" s="24"/>
-      <c r="EK81" s="24"/>
-      <c r="EL81" s="24"/>
-      <c r="EM81" s="24"/>
-      <c r="EN81" s="24"/>
-      <c r="EO81" s="24"/>
-      <c r="EP81" s="24"/>
-      <c r="EQ81" s="24"/>
-      <c r="ER81" s="24"/>
-      <c r="ES81" s="24"/>
-      <c r="ET81" s="24"/>
-      <c r="EU81" s="24"/>
-      <c r="EV81" s="24"/>
-      <c r="EW81" s="24"/>
-      <c r="EX81" s="24"/>
-      <c r="EY81" s="24"/>
-      <c r="EZ81" s="24"/>
-      <c r="FA81" s="24"/>
-      <c r="FB81" s="24"/>
-      <c r="FC81" s="24"/>
-      <c r="FD81" s="24"/>
-      <c r="FE81" s="24"/>
-      <c r="FF81" s="24"/>
-      <c r="FG81" s="24"/>
-      <c r="FH81" s="24"/>
+    <row r="81" spans="1:164" x14ac:dyDescent="0.2">
+      <c r="A81" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C81" s="25">
+        <v>500</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F81" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G81" s="27">
+        <v>1</v>
+      </c>
+      <c r="H81" s="27">
+        <v>1</v>
+      </c>
+      <c r="I81" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J81" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K81" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L81" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M81" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="N81" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O81" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q81" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="R81" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S81" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T81" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U81" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V81" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="W81" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="X81" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y81" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z81" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA81" s="20" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="82" spans="28:164" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:164" x14ac:dyDescent="0.2">
       <c r="AB82" s="24"/>
       <c r="AC82" s="24"/>
       <c r="AD82" s="24"/>
@@ -19678,7 +20178,7 @@
       <c r="FG82" s="24"/>
       <c r="FH82" s="24"/>
     </row>
-    <row r="83" spans="28:164" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:164" x14ac:dyDescent="0.2">
       <c r="AB83" s="24"/>
       <c r="AC83" s="24"/>
       <c r="AD83" s="24"/>
@@ -19817,7 +20317,7 @@
       <c r="FG83" s="24"/>
       <c r="FH83" s="24"/>
     </row>
-    <row r="84" spans="28:164" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:164" x14ac:dyDescent="0.2">
       <c r="AB84" s="24"/>
       <c r="AC84" s="24"/>
       <c r="AD84" s="24"/>
@@ -19956,7 +20456,7 @@
       <c r="FG84" s="24"/>
       <c r="FH84" s="24"/>
     </row>
-    <row r="85" spans="28:164" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:164" x14ac:dyDescent="0.2">
       <c r="AB85" s="24"/>
       <c r="AC85" s="24"/>
       <c r="AD85" s="24"/>
@@ -20095,7 +20595,7 @@
       <c r="FG85" s="24"/>
       <c r="FH85" s="24"/>
     </row>
-    <row r="86" spans="28:164" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:164" x14ac:dyDescent="0.2">
       <c r="AB86" s="24"/>
       <c r="AC86" s="24"/>
       <c r="AD86" s="24"/>
@@ -20234,7 +20734,7 @@
       <c r="FG86" s="24"/>
       <c r="FH86" s="24"/>
     </row>
-    <row r="87" spans="28:164" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:164" x14ac:dyDescent="0.2">
       <c r="AB87" s="24"/>
       <c r="AC87" s="24"/>
       <c r="AD87" s="24"/>
@@ -20373,7 +20873,7 @@
       <c r="FG87" s="24"/>
       <c r="FH87" s="24"/>
     </row>
-    <row r="88" spans="28:164" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:164" x14ac:dyDescent="0.2">
       <c r="AB88" s="24"/>
       <c r="AC88" s="24"/>
       <c r="AD88" s="24"/>
@@ -20512,9 +21012,843 @@
       <c r="FG88" s="24"/>
       <c r="FH88" s="24"/>
     </row>
+    <row r="89" spans="1:164" x14ac:dyDescent="0.2">
+      <c r="AB89" s="24"/>
+      <c r="AC89" s="24"/>
+      <c r="AD89" s="24"/>
+      <c r="AE89" s="24"/>
+      <c r="AF89" s="24"/>
+      <c r="AG89" s="24"/>
+      <c r="AH89" s="24"/>
+      <c r="AI89" s="24"/>
+      <c r="AJ89" s="24"/>
+      <c r="AK89" s="24"/>
+      <c r="AL89" s="24"/>
+      <c r="AM89" s="24"/>
+      <c r="AN89" s="24"/>
+      <c r="AO89" s="24"/>
+      <c r="AP89" s="24"/>
+      <c r="AQ89" s="24"/>
+      <c r="AR89" s="24"/>
+      <c r="AS89" s="24"/>
+      <c r="AT89" s="24"/>
+      <c r="AU89" s="24"/>
+      <c r="AV89" s="24"/>
+      <c r="AW89" s="24"/>
+      <c r="AX89" s="24"/>
+      <c r="AY89" s="24"/>
+      <c r="AZ89" s="24"/>
+      <c r="BA89" s="24"/>
+      <c r="BB89" s="24"/>
+      <c r="BC89" s="24"/>
+      <c r="BD89" s="24"/>
+      <c r="BE89" s="24"/>
+      <c r="BF89" s="24"/>
+      <c r="BG89" s="24"/>
+      <c r="BH89" s="24"/>
+      <c r="BI89" s="24"/>
+      <c r="BJ89" s="24"/>
+      <c r="BK89" s="24"/>
+      <c r="BL89" s="24"/>
+      <c r="BM89" s="24"/>
+      <c r="BN89" s="24"/>
+      <c r="BO89" s="24"/>
+      <c r="BP89" s="24"/>
+      <c r="BQ89" s="24"/>
+      <c r="BR89" s="24"/>
+      <c r="BS89" s="24"/>
+      <c r="BT89" s="24"/>
+      <c r="BU89" s="24"/>
+      <c r="BV89" s="24"/>
+      <c r="BW89" s="24"/>
+      <c r="BX89" s="24"/>
+      <c r="BY89" s="24"/>
+      <c r="BZ89" s="24"/>
+      <c r="CA89" s="24"/>
+      <c r="CB89" s="24"/>
+      <c r="CC89" s="24"/>
+      <c r="CD89" s="24"/>
+      <c r="CE89" s="24"/>
+      <c r="CF89" s="24"/>
+      <c r="CG89" s="24"/>
+      <c r="CH89" s="24"/>
+      <c r="CI89" s="24"/>
+      <c r="CJ89" s="24"/>
+      <c r="CK89" s="24"/>
+      <c r="CL89" s="24"/>
+      <c r="CM89" s="24"/>
+      <c r="CN89" s="24"/>
+      <c r="CO89" s="24"/>
+      <c r="CP89" s="24"/>
+      <c r="CQ89" s="24"/>
+      <c r="CR89" s="24"/>
+      <c r="CS89" s="24"/>
+      <c r="CT89" s="24"/>
+      <c r="CU89" s="24"/>
+      <c r="CV89" s="24"/>
+      <c r="CW89" s="24"/>
+      <c r="CX89" s="24"/>
+      <c r="CY89" s="24"/>
+      <c r="CZ89" s="24"/>
+      <c r="DA89" s="24"/>
+      <c r="DB89" s="24"/>
+      <c r="DC89" s="24"/>
+      <c r="DD89" s="24"/>
+      <c r="DE89" s="24"/>
+      <c r="DF89" s="24"/>
+      <c r="DG89" s="24"/>
+      <c r="DH89" s="24"/>
+      <c r="DI89" s="24"/>
+      <c r="DJ89" s="24"/>
+      <c r="DK89" s="24"/>
+      <c r="DL89" s="24"/>
+      <c r="DM89" s="24"/>
+      <c r="DN89" s="24"/>
+      <c r="DO89" s="24"/>
+      <c r="DP89" s="24"/>
+      <c r="DQ89" s="24"/>
+      <c r="DR89" s="24"/>
+      <c r="DS89" s="24"/>
+      <c r="DT89" s="24"/>
+      <c r="DU89" s="24"/>
+      <c r="DV89" s="24"/>
+      <c r="DW89" s="24"/>
+      <c r="DX89" s="24"/>
+      <c r="DY89" s="24"/>
+      <c r="DZ89" s="24"/>
+      <c r="EA89" s="24"/>
+      <c r="EB89" s="24"/>
+      <c r="EC89" s="24"/>
+      <c r="ED89" s="24"/>
+      <c r="EE89" s="24"/>
+      <c r="EF89" s="24"/>
+      <c r="EG89" s="24"/>
+      <c r="EH89" s="24"/>
+      <c r="EI89" s="24"/>
+      <c r="EJ89" s="24"/>
+      <c r="EK89" s="24"/>
+      <c r="EL89" s="24"/>
+      <c r="EM89" s="24"/>
+      <c r="EN89" s="24"/>
+      <c r="EO89" s="24"/>
+      <c r="EP89" s="24"/>
+      <c r="EQ89" s="24"/>
+      <c r="ER89" s="24"/>
+      <c r="ES89" s="24"/>
+      <c r="ET89" s="24"/>
+      <c r="EU89" s="24"/>
+      <c r="EV89" s="24"/>
+      <c r="EW89" s="24"/>
+      <c r="EX89" s="24"/>
+      <c r="EY89" s="24"/>
+      <c r="EZ89" s="24"/>
+      <c r="FA89" s="24"/>
+      <c r="FB89" s="24"/>
+      <c r="FC89" s="24"/>
+      <c r="FD89" s="24"/>
+      <c r="FE89" s="24"/>
+      <c r="FF89" s="24"/>
+      <c r="FG89" s="24"/>
+      <c r="FH89" s="24"/>
+    </row>
+    <row r="90" spans="1:164" x14ac:dyDescent="0.2">
+      <c r="AB90" s="24"/>
+      <c r="AC90" s="24"/>
+      <c r="AD90" s="24"/>
+      <c r="AE90" s="24"/>
+      <c r="AF90" s="24"/>
+      <c r="AG90" s="24"/>
+      <c r="AH90" s="24"/>
+      <c r="AI90" s="24"/>
+      <c r="AJ90" s="24"/>
+      <c r="AK90" s="24"/>
+      <c r="AL90" s="24"/>
+      <c r="AM90" s="24"/>
+      <c r="AN90" s="24"/>
+      <c r="AO90" s="24"/>
+      <c r="AP90" s="24"/>
+      <c r="AQ90" s="24"/>
+      <c r="AR90" s="24"/>
+      <c r="AS90" s="24"/>
+      <c r="AT90" s="24"/>
+      <c r="AU90" s="24"/>
+      <c r="AV90" s="24"/>
+      <c r="AW90" s="24"/>
+      <c r="AX90" s="24"/>
+      <c r="AY90" s="24"/>
+      <c r="AZ90" s="24"/>
+      <c r="BA90" s="24"/>
+      <c r="BB90" s="24"/>
+      <c r="BC90" s="24"/>
+      <c r="BD90" s="24"/>
+      <c r="BE90" s="24"/>
+      <c r="BF90" s="24"/>
+      <c r="BG90" s="24"/>
+      <c r="BH90" s="24"/>
+      <c r="BI90" s="24"/>
+      <c r="BJ90" s="24"/>
+      <c r="BK90" s="24"/>
+      <c r="BL90" s="24"/>
+      <c r="BM90" s="24"/>
+      <c r="BN90" s="24"/>
+      <c r="BO90" s="24"/>
+      <c r="BP90" s="24"/>
+      <c r="BQ90" s="24"/>
+      <c r="BR90" s="24"/>
+      <c r="BS90" s="24"/>
+      <c r="BT90" s="24"/>
+      <c r="BU90" s="24"/>
+      <c r="BV90" s="24"/>
+      <c r="BW90" s="24"/>
+      <c r="BX90" s="24"/>
+      <c r="BY90" s="24"/>
+      <c r="BZ90" s="24"/>
+      <c r="CA90" s="24"/>
+      <c r="CB90" s="24"/>
+      <c r="CC90" s="24"/>
+      <c r="CD90" s="24"/>
+      <c r="CE90" s="24"/>
+      <c r="CF90" s="24"/>
+      <c r="CG90" s="24"/>
+      <c r="CH90" s="24"/>
+      <c r="CI90" s="24"/>
+      <c r="CJ90" s="24"/>
+      <c r="CK90" s="24"/>
+      <c r="CL90" s="24"/>
+      <c r="CM90" s="24"/>
+      <c r="CN90" s="24"/>
+      <c r="CO90" s="24"/>
+      <c r="CP90" s="24"/>
+      <c r="CQ90" s="24"/>
+      <c r="CR90" s="24"/>
+      <c r="CS90" s="24"/>
+      <c r="CT90" s="24"/>
+      <c r="CU90" s="24"/>
+      <c r="CV90" s="24"/>
+      <c r="CW90" s="24"/>
+      <c r="CX90" s="24"/>
+      <c r="CY90" s="24"/>
+      <c r="CZ90" s="24"/>
+      <c r="DA90" s="24"/>
+      <c r="DB90" s="24"/>
+      <c r="DC90" s="24"/>
+      <c r="DD90" s="24"/>
+      <c r="DE90" s="24"/>
+      <c r="DF90" s="24"/>
+      <c r="DG90" s="24"/>
+      <c r="DH90" s="24"/>
+      <c r="DI90" s="24"/>
+      <c r="DJ90" s="24"/>
+      <c r="DK90" s="24"/>
+      <c r="DL90" s="24"/>
+      <c r="DM90" s="24"/>
+      <c r="DN90" s="24"/>
+      <c r="DO90" s="24"/>
+      <c r="DP90" s="24"/>
+      <c r="DQ90" s="24"/>
+      <c r="DR90" s="24"/>
+      <c r="DS90" s="24"/>
+      <c r="DT90" s="24"/>
+      <c r="DU90" s="24"/>
+      <c r="DV90" s="24"/>
+      <c r="DW90" s="24"/>
+      <c r="DX90" s="24"/>
+      <c r="DY90" s="24"/>
+      <c r="DZ90" s="24"/>
+      <c r="EA90" s="24"/>
+      <c r="EB90" s="24"/>
+      <c r="EC90" s="24"/>
+      <c r="ED90" s="24"/>
+      <c r="EE90" s="24"/>
+      <c r="EF90" s="24"/>
+      <c r="EG90" s="24"/>
+      <c r="EH90" s="24"/>
+      <c r="EI90" s="24"/>
+      <c r="EJ90" s="24"/>
+      <c r="EK90" s="24"/>
+      <c r="EL90" s="24"/>
+      <c r="EM90" s="24"/>
+      <c r="EN90" s="24"/>
+      <c r="EO90" s="24"/>
+      <c r="EP90" s="24"/>
+      <c r="EQ90" s="24"/>
+      <c r="ER90" s="24"/>
+      <c r="ES90" s="24"/>
+      <c r="ET90" s="24"/>
+      <c r="EU90" s="24"/>
+      <c r="EV90" s="24"/>
+      <c r="EW90" s="24"/>
+      <c r="EX90" s="24"/>
+      <c r="EY90" s="24"/>
+      <c r="EZ90" s="24"/>
+      <c r="FA90" s="24"/>
+      <c r="FB90" s="24"/>
+      <c r="FC90" s="24"/>
+      <c r="FD90" s="24"/>
+      <c r="FE90" s="24"/>
+      <c r="FF90" s="24"/>
+      <c r="FG90" s="24"/>
+      <c r="FH90" s="24"/>
+    </row>
+    <row r="91" spans="1:164" x14ac:dyDescent="0.2">
+      <c r="AB91" s="24"/>
+      <c r="AC91" s="24"/>
+      <c r="AD91" s="24"/>
+      <c r="AE91" s="24"/>
+      <c r="AF91" s="24"/>
+      <c r="AG91" s="24"/>
+      <c r="AH91" s="24"/>
+      <c r="AI91" s="24"/>
+      <c r="AJ91" s="24"/>
+      <c r="AK91" s="24"/>
+      <c r="AL91" s="24"/>
+      <c r="AM91" s="24"/>
+      <c r="AN91" s="24"/>
+      <c r="AO91" s="24"/>
+      <c r="AP91" s="24"/>
+      <c r="AQ91" s="24"/>
+      <c r="AR91" s="24"/>
+      <c r="AS91" s="24"/>
+      <c r="AT91" s="24"/>
+      <c r="AU91" s="24"/>
+      <c r="AV91" s="24"/>
+      <c r="AW91" s="24"/>
+      <c r="AX91" s="24"/>
+      <c r="AY91" s="24"/>
+      <c r="AZ91" s="24"/>
+      <c r="BA91" s="24"/>
+      <c r="BB91" s="24"/>
+      <c r="BC91" s="24"/>
+      <c r="BD91" s="24"/>
+      <c r="BE91" s="24"/>
+      <c r="BF91" s="24"/>
+      <c r="BG91" s="24"/>
+      <c r="BH91" s="24"/>
+      <c r="BI91" s="24"/>
+      <c r="BJ91" s="24"/>
+      <c r="BK91" s="24"/>
+      <c r="BL91" s="24"/>
+      <c r="BM91" s="24"/>
+      <c r="BN91" s="24"/>
+      <c r="BO91" s="24"/>
+      <c r="BP91" s="24"/>
+      <c r="BQ91" s="24"/>
+      <c r="BR91" s="24"/>
+      <c r="BS91" s="24"/>
+      <c r="BT91" s="24"/>
+      <c r="BU91" s="24"/>
+      <c r="BV91" s="24"/>
+      <c r="BW91" s="24"/>
+      <c r="BX91" s="24"/>
+      <c r="BY91" s="24"/>
+      <c r="BZ91" s="24"/>
+      <c r="CA91" s="24"/>
+      <c r="CB91" s="24"/>
+      <c r="CC91" s="24"/>
+      <c r="CD91" s="24"/>
+      <c r="CE91" s="24"/>
+      <c r="CF91" s="24"/>
+      <c r="CG91" s="24"/>
+      <c r="CH91" s="24"/>
+      <c r="CI91" s="24"/>
+      <c r="CJ91" s="24"/>
+      <c r="CK91" s="24"/>
+      <c r="CL91" s="24"/>
+      <c r="CM91" s="24"/>
+      <c r="CN91" s="24"/>
+      <c r="CO91" s="24"/>
+      <c r="CP91" s="24"/>
+      <c r="CQ91" s="24"/>
+      <c r="CR91" s="24"/>
+      <c r="CS91" s="24"/>
+      <c r="CT91" s="24"/>
+      <c r="CU91" s="24"/>
+      <c r="CV91" s="24"/>
+      <c r="CW91" s="24"/>
+      <c r="CX91" s="24"/>
+      <c r="CY91" s="24"/>
+      <c r="CZ91" s="24"/>
+      <c r="DA91" s="24"/>
+      <c r="DB91" s="24"/>
+      <c r="DC91" s="24"/>
+      <c r="DD91" s="24"/>
+      <c r="DE91" s="24"/>
+      <c r="DF91" s="24"/>
+      <c r="DG91" s="24"/>
+      <c r="DH91" s="24"/>
+      <c r="DI91" s="24"/>
+      <c r="DJ91" s="24"/>
+      <c r="DK91" s="24"/>
+      <c r="DL91" s="24"/>
+      <c r="DM91" s="24"/>
+      <c r="DN91" s="24"/>
+      <c r="DO91" s="24"/>
+      <c r="DP91" s="24"/>
+      <c r="DQ91" s="24"/>
+      <c r="DR91" s="24"/>
+      <c r="DS91" s="24"/>
+      <c r="DT91" s="24"/>
+      <c r="DU91" s="24"/>
+      <c r="DV91" s="24"/>
+      <c r="DW91" s="24"/>
+      <c r="DX91" s="24"/>
+      <c r="DY91" s="24"/>
+      <c r="DZ91" s="24"/>
+      <c r="EA91" s="24"/>
+      <c r="EB91" s="24"/>
+      <c r="EC91" s="24"/>
+      <c r="ED91" s="24"/>
+      <c r="EE91" s="24"/>
+      <c r="EF91" s="24"/>
+      <c r="EG91" s="24"/>
+      <c r="EH91" s="24"/>
+      <c r="EI91" s="24"/>
+      <c r="EJ91" s="24"/>
+      <c r="EK91" s="24"/>
+      <c r="EL91" s="24"/>
+      <c r="EM91" s="24"/>
+      <c r="EN91" s="24"/>
+      <c r="EO91" s="24"/>
+      <c r="EP91" s="24"/>
+      <c r="EQ91" s="24"/>
+      <c r="ER91" s="24"/>
+      <c r="ES91" s="24"/>
+      <c r="ET91" s="24"/>
+      <c r="EU91" s="24"/>
+      <c r="EV91" s="24"/>
+      <c r="EW91" s="24"/>
+      <c r="EX91" s="24"/>
+      <c r="EY91" s="24"/>
+      <c r="EZ91" s="24"/>
+      <c r="FA91" s="24"/>
+      <c r="FB91" s="24"/>
+      <c r="FC91" s="24"/>
+      <c r="FD91" s="24"/>
+      <c r="FE91" s="24"/>
+      <c r="FF91" s="24"/>
+      <c r="FG91" s="24"/>
+      <c r="FH91" s="24"/>
+    </row>
+    <row r="92" spans="1:164" x14ac:dyDescent="0.2">
+      <c r="AB92" s="24"/>
+      <c r="AC92" s="24"/>
+      <c r="AD92" s="24"/>
+      <c r="AE92" s="24"/>
+      <c r="AF92" s="24"/>
+      <c r="AG92" s="24"/>
+      <c r="AH92" s="24"/>
+      <c r="AI92" s="24"/>
+      <c r="AJ92" s="24"/>
+      <c r="AK92" s="24"/>
+      <c r="AL92" s="24"/>
+      <c r="AM92" s="24"/>
+      <c r="AN92" s="24"/>
+      <c r="AO92" s="24"/>
+      <c r="AP92" s="24"/>
+      <c r="AQ92" s="24"/>
+      <c r="AR92" s="24"/>
+      <c r="AS92" s="24"/>
+      <c r="AT92" s="24"/>
+      <c r="AU92" s="24"/>
+      <c r="AV92" s="24"/>
+      <c r="AW92" s="24"/>
+      <c r="AX92" s="24"/>
+      <c r="AY92" s="24"/>
+      <c r="AZ92" s="24"/>
+      <c r="BA92" s="24"/>
+      <c r="BB92" s="24"/>
+      <c r="BC92" s="24"/>
+      <c r="BD92" s="24"/>
+      <c r="BE92" s="24"/>
+      <c r="BF92" s="24"/>
+      <c r="BG92" s="24"/>
+      <c r="BH92" s="24"/>
+      <c r="BI92" s="24"/>
+      <c r="BJ92" s="24"/>
+      <c r="BK92" s="24"/>
+      <c r="BL92" s="24"/>
+      <c r="BM92" s="24"/>
+      <c r="BN92" s="24"/>
+      <c r="BO92" s="24"/>
+      <c r="BP92" s="24"/>
+      <c r="BQ92" s="24"/>
+      <c r="BR92" s="24"/>
+      <c r="BS92" s="24"/>
+      <c r="BT92" s="24"/>
+      <c r="BU92" s="24"/>
+      <c r="BV92" s="24"/>
+      <c r="BW92" s="24"/>
+      <c r="BX92" s="24"/>
+      <c r="BY92" s="24"/>
+      <c r="BZ92" s="24"/>
+      <c r="CA92" s="24"/>
+      <c r="CB92" s="24"/>
+      <c r="CC92" s="24"/>
+      <c r="CD92" s="24"/>
+      <c r="CE92" s="24"/>
+      <c r="CF92" s="24"/>
+      <c r="CG92" s="24"/>
+      <c r="CH92" s="24"/>
+      <c r="CI92" s="24"/>
+      <c r="CJ92" s="24"/>
+      <c r="CK92" s="24"/>
+      <c r="CL92" s="24"/>
+      <c r="CM92" s="24"/>
+      <c r="CN92" s="24"/>
+      <c r="CO92" s="24"/>
+      <c r="CP92" s="24"/>
+      <c r="CQ92" s="24"/>
+      <c r="CR92" s="24"/>
+      <c r="CS92" s="24"/>
+      <c r="CT92" s="24"/>
+      <c r="CU92" s="24"/>
+      <c r="CV92" s="24"/>
+      <c r="CW92" s="24"/>
+      <c r="CX92" s="24"/>
+      <c r="CY92" s="24"/>
+      <c r="CZ92" s="24"/>
+      <c r="DA92" s="24"/>
+      <c r="DB92" s="24"/>
+      <c r="DC92" s="24"/>
+      <c r="DD92" s="24"/>
+      <c r="DE92" s="24"/>
+      <c r="DF92" s="24"/>
+      <c r="DG92" s="24"/>
+      <c r="DH92" s="24"/>
+      <c r="DI92" s="24"/>
+      <c r="DJ92" s="24"/>
+      <c r="DK92" s="24"/>
+      <c r="DL92" s="24"/>
+      <c r="DM92" s="24"/>
+      <c r="DN92" s="24"/>
+      <c r="DO92" s="24"/>
+      <c r="DP92" s="24"/>
+      <c r="DQ92" s="24"/>
+      <c r="DR92" s="24"/>
+      <c r="DS92" s="24"/>
+      <c r="DT92" s="24"/>
+      <c r="DU92" s="24"/>
+      <c r="DV92" s="24"/>
+      <c r="DW92" s="24"/>
+      <c r="DX92" s="24"/>
+      <c r="DY92" s="24"/>
+      <c r="DZ92" s="24"/>
+      <c r="EA92" s="24"/>
+      <c r="EB92" s="24"/>
+      <c r="EC92" s="24"/>
+      <c r="ED92" s="24"/>
+      <c r="EE92" s="24"/>
+      <c r="EF92" s="24"/>
+      <c r="EG92" s="24"/>
+      <c r="EH92" s="24"/>
+      <c r="EI92" s="24"/>
+      <c r="EJ92" s="24"/>
+      <c r="EK92" s="24"/>
+      <c r="EL92" s="24"/>
+      <c r="EM92" s="24"/>
+      <c r="EN92" s="24"/>
+      <c r="EO92" s="24"/>
+      <c r="EP92" s="24"/>
+      <c r="EQ92" s="24"/>
+      <c r="ER92" s="24"/>
+      <c r="ES92" s="24"/>
+      <c r="ET92" s="24"/>
+      <c r="EU92" s="24"/>
+      <c r="EV92" s="24"/>
+      <c r="EW92" s="24"/>
+      <c r="EX92" s="24"/>
+      <c r="EY92" s="24"/>
+      <c r="EZ92" s="24"/>
+      <c r="FA92" s="24"/>
+      <c r="FB92" s="24"/>
+      <c r="FC92" s="24"/>
+      <c r="FD92" s="24"/>
+      <c r="FE92" s="24"/>
+      <c r="FF92" s="24"/>
+      <c r="FG92" s="24"/>
+      <c r="FH92" s="24"/>
+    </row>
+    <row r="93" spans="1:164" x14ac:dyDescent="0.2">
+      <c r="AB93" s="24"/>
+      <c r="AC93" s="24"/>
+      <c r="AD93" s="24"/>
+      <c r="AE93" s="24"/>
+      <c r="AF93" s="24"/>
+      <c r="AG93" s="24"/>
+      <c r="AH93" s="24"/>
+      <c r="AI93" s="24"/>
+      <c r="AJ93" s="24"/>
+      <c r="AK93" s="24"/>
+      <c r="AL93" s="24"/>
+      <c r="AM93" s="24"/>
+      <c r="AN93" s="24"/>
+      <c r="AO93" s="24"/>
+      <c r="AP93" s="24"/>
+      <c r="AQ93" s="24"/>
+      <c r="AR93" s="24"/>
+      <c r="AS93" s="24"/>
+      <c r="AT93" s="24"/>
+      <c r="AU93" s="24"/>
+      <c r="AV93" s="24"/>
+      <c r="AW93" s="24"/>
+      <c r="AX93" s="24"/>
+      <c r="AY93" s="24"/>
+      <c r="AZ93" s="24"/>
+      <c r="BA93" s="24"/>
+      <c r="BB93" s="24"/>
+      <c r="BC93" s="24"/>
+      <c r="BD93" s="24"/>
+      <c r="BE93" s="24"/>
+      <c r="BF93" s="24"/>
+      <c r="BG93" s="24"/>
+      <c r="BH93" s="24"/>
+      <c r="BI93" s="24"/>
+      <c r="BJ93" s="24"/>
+      <c r="BK93" s="24"/>
+      <c r="BL93" s="24"/>
+      <c r="BM93" s="24"/>
+      <c r="BN93" s="24"/>
+      <c r="BO93" s="24"/>
+      <c r="BP93" s="24"/>
+      <c r="BQ93" s="24"/>
+      <c r="BR93" s="24"/>
+      <c r="BS93" s="24"/>
+      <c r="BT93" s="24"/>
+      <c r="BU93" s="24"/>
+      <c r="BV93" s="24"/>
+      <c r="BW93" s="24"/>
+      <c r="BX93" s="24"/>
+      <c r="BY93" s="24"/>
+      <c r="BZ93" s="24"/>
+      <c r="CA93" s="24"/>
+      <c r="CB93" s="24"/>
+      <c r="CC93" s="24"/>
+      <c r="CD93" s="24"/>
+      <c r="CE93" s="24"/>
+      <c r="CF93" s="24"/>
+      <c r="CG93" s="24"/>
+      <c r="CH93" s="24"/>
+      <c r="CI93" s="24"/>
+      <c r="CJ93" s="24"/>
+      <c r="CK93" s="24"/>
+      <c r="CL93" s="24"/>
+      <c r="CM93" s="24"/>
+      <c r="CN93" s="24"/>
+      <c r="CO93" s="24"/>
+      <c r="CP93" s="24"/>
+      <c r="CQ93" s="24"/>
+      <c r="CR93" s="24"/>
+      <c r="CS93" s="24"/>
+      <c r="CT93" s="24"/>
+      <c r="CU93" s="24"/>
+      <c r="CV93" s="24"/>
+      <c r="CW93" s="24"/>
+      <c r="CX93" s="24"/>
+      <c r="CY93" s="24"/>
+      <c r="CZ93" s="24"/>
+      <c r="DA93" s="24"/>
+      <c r="DB93" s="24"/>
+      <c r="DC93" s="24"/>
+      <c r="DD93" s="24"/>
+      <c r="DE93" s="24"/>
+      <c r="DF93" s="24"/>
+      <c r="DG93" s="24"/>
+      <c r="DH93" s="24"/>
+      <c r="DI93" s="24"/>
+      <c r="DJ93" s="24"/>
+      <c r="DK93" s="24"/>
+      <c r="DL93" s="24"/>
+      <c r="DM93" s="24"/>
+      <c r="DN93" s="24"/>
+      <c r="DO93" s="24"/>
+      <c r="DP93" s="24"/>
+      <c r="DQ93" s="24"/>
+      <c r="DR93" s="24"/>
+      <c r="DS93" s="24"/>
+      <c r="DT93" s="24"/>
+      <c r="DU93" s="24"/>
+      <c r="DV93" s="24"/>
+      <c r="DW93" s="24"/>
+      <c r="DX93" s="24"/>
+      <c r="DY93" s="24"/>
+      <c r="DZ93" s="24"/>
+      <c r="EA93" s="24"/>
+      <c r="EB93" s="24"/>
+      <c r="EC93" s="24"/>
+      <c r="ED93" s="24"/>
+      <c r="EE93" s="24"/>
+      <c r="EF93" s="24"/>
+      <c r="EG93" s="24"/>
+      <c r="EH93" s="24"/>
+      <c r="EI93" s="24"/>
+      <c r="EJ93" s="24"/>
+      <c r="EK93" s="24"/>
+      <c r="EL93" s="24"/>
+      <c r="EM93" s="24"/>
+      <c r="EN93" s="24"/>
+      <c r="EO93" s="24"/>
+      <c r="EP93" s="24"/>
+      <c r="EQ93" s="24"/>
+      <c r="ER93" s="24"/>
+      <c r="ES93" s="24"/>
+      <c r="ET93" s="24"/>
+      <c r="EU93" s="24"/>
+      <c r="EV93" s="24"/>
+      <c r="EW93" s="24"/>
+      <c r="EX93" s="24"/>
+      <c r="EY93" s="24"/>
+      <c r="EZ93" s="24"/>
+      <c r="FA93" s="24"/>
+      <c r="FB93" s="24"/>
+      <c r="FC93" s="24"/>
+      <c r="FD93" s="24"/>
+      <c r="FE93" s="24"/>
+      <c r="FF93" s="24"/>
+      <c r="FG93" s="24"/>
+      <c r="FH93" s="24"/>
+    </row>
+    <row r="94" spans="1:164" x14ac:dyDescent="0.2">
+      <c r="AB94" s="24"/>
+      <c r="AC94" s="24"/>
+      <c r="AD94" s="24"/>
+      <c r="AE94" s="24"/>
+      <c r="AF94" s="24"/>
+      <c r="AG94" s="24"/>
+      <c r="AH94" s="24"/>
+      <c r="AI94" s="24"/>
+      <c r="AJ94" s="24"/>
+      <c r="AK94" s="24"/>
+      <c r="AL94" s="24"/>
+      <c r="AM94" s="24"/>
+      <c r="AN94" s="24"/>
+      <c r="AO94" s="24"/>
+      <c r="AP94" s="24"/>
+      <c r="AQ94" s="24"/>
+      <c r="AR94" s="24"/>
+      <c r="AS94" s="24"/>
+      <c r="AT94" s="24"/>
+      <c r="AU94" s="24"/>
+      <c r="AV94" s="24"/>
+      <c r="AW94" s="24"/>
+      <c r="AX94" s="24"/>
+      <c r="AY94" s="24"/>
+      <c r="AZ94" s="24"/>
+      <c r="BA94" s="24"/>
+      <c r="BB94" s="24"/>
+      <c r="BC94" s="24"/>
+      <c r="BD94" s="24"/>
+      <c r="BE94" s="24"/>
+      <c r="BF94" s="24"/>
+      <c r="BG94" s="24"/>
+      <c r="BH94" s="24"/>
+      <c r="BI94" s="24"/>
+      <c r="BJ94" s="24"/>
+      <c r="BK94" s="24"/>
+      <c r="BL94" s="24"/>
+      <c r="BM94" s="24"/>
+      <c r="BN94" s="24"/>
+      <c r="BO94" s="24"/>
+      <c r="BP94" s="24"/>
+      <c r="BQ94" s="24"/>
+      <c r="BR94" s="24"/>
+      <c r="BS94" s="24"/>
+      <c r="BT94" s="24"/>
+      <c r="BU94" s="24"/>
+      <c r="BV94" s="24"/>
+      <c r="BW94" s="24"/>
+      <c r="BX94" s="24"/>
+      <c r="BY94" s="24"/>
+      <c r="BZ94" s="24"/>
+      <c r="CA94" s="24"/>
+      <c r="CB94" s="24"/>
+      <c r="CC94" s="24"/>
+      <c r="CD94" s="24"/>
+      <c r="CE94" s="24"/>
+      <c r="CF94" s="24"/>
+      <c r="CG94" s="24"/>
+      <c r="CH94" s="24"/>
+      <c r="CI94" s="24"/>
+      <c r="CJ94" s="24"/>
+      <c r="CK94" s="24"/>
+      <c r="CL94" s="24"/>
+      <c r="CM94" s="24"/>
+      <c r="CN94" s="24"/>
+      <c r="CO94" s="24"/>
+      <c r="CP94" s="24"/>
+      <c r="CQ94" s="24"/>
+      <c r="CR94" s="24"/>
+      <c r="CS94" s="24"/>
+      <c r="CT94" s="24"/>
+      <c r="CU94" s="24"/>
+      <c r="CV94" s="24"/>
+      <c r="CW94" s="24"/>
+      <c r="CX94" s="24"/>
+      <c r="CY94" s="24"/>
+      <c r="CZ94" s="24"/>
+      <c r="DA94" s="24"/>
+      <c r="DB94" s="24"/>
+      <c r="DC94" s="24"/>
+      <c r="DD94" s="24"/>
+      <c r="DE94" s="24"/>
+      <c r="DF94" s="24"/>
+      <c r="DG94" s="24"/>
+      <c r="DH94" s="24"/>
+      <c r="DI94" s="24"/>
+      <c r="DJ94" s="24"/>
+      <c r="DK94" s="24"/>
+      <c r="DL94" s="24"/>
+      <c r="DM94" s="24"/>
+      <c r="DN94" s="24"/>
+      <c r="DO94" s="24"/>
+      <c r="DP94" s="24"/>
+      <c r="DQ94" s="24"/>
+      <c r="DR94" s="24"/>
+      <c r="DS94" s="24"/>
+      <c r="DT94" s="24"/>
+      <c r="DU94" s="24"/>
+      <c r="DV94" s="24"/>
+      <c r="DW94" s="24"/>
+      <c r="DX94" s="24"/>
+      <c r="DY94" s="24"/>
+      <c r="DZ94" s="24"/>
+      <c r="EA94" s="24"/>
+      <c r="EB94" s="24"/>
+      <c r="EC94" s="24"/>
+      <c r="ED94" s="24"/>
+      <c r="EE94" s="24"/>
+      <c r="EF94" s="24"/>
+      <c r="EG94" s="24"/>
+      <c r="EH94" s="24"/>
+      <c r="EI94" s="24"/>
+      <c r="EJ94" s="24"/>
+      <c r="EK94" s="24"/>
+      <c r="EL94" s="24"/>
+      <c r="EM94" s="24"/>
+      <c r="EN94" s="24"/>
+      <c r="EO94" s="24"/>
+      <c r="EP94" s="24"/>
+      <c r="EQ94" s="24"/>
+      <c r="ER94" s="24"/>
+      <c r="ES94" s="24"/>
+      <c r="ET94" s="24"/>
+      <c r="EU94" s="24"/>
+      <c r="EV94" s="24"/>
+      <c r="EW94" s="24"/>
+      <c r="EX94" s="24"/>
+      <c r="EY94" s="24"/>
+      <c r="EZ94" s="24"/>
+      <c r="FA94" s="24"/>
+      <c r="FB94" s="24"/>
+      <c r="FC94" s="24"/>
+      <c r="FD94" s="24"/>
+      <c r="FE94" s="24"/>
+      <c r="FF94" s="24"/>
+      <c r="FG94" s="24"/>
+      <c r="FH94" s="24"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA75">
-    <sortCondition ref="C2:C75"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA81">
+    <sortCondition ref="C2:C81"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA725302-B9A3-EE4E-A5A1-B84660E3F858}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F85F54A-44D4-2347-86CC-FB421A1A4428}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11040" yWindow="1100" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="295">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -897,6 +897,27 @@
   </si>
   <si>
     <t>dependo.202-thamnophis</t>
+  </si>
+  <si>
+    <t>dependo.367-otididae</t>
+  </si>
+  <si>
+    <t>Otididae</t>
+  </si>
+  <si>
+    <t>dependo.368-otididae</t>
+  </si>
+  <si>
+    <t>dependo.371-egretta</t>
+  </si>
+  <si>
+    <t>Egretta</t>
+  </si>
+  <si>
+    <t>dependo.369-guarouba</t>
+  </si>
+  <si>
+    <t>Guarouba</t>
   </si>
 </sst>
 </file>
@@ -3386,13 +3407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DACFF6-840F-D741-97EA-4F87EFFABC86}">
-  <dimension ref="A1:FH94"/>
+  <dimension ref="A1:FH98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A84" sqref="A84"/>
+      <selection pane="bottomRight" activeCell="L70" sqref="C70:L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16651,7 +16672,7 @@
       <c r="FG63" s="24"/>
       <c r="FH63" s="24"/>
     </row>
-    <row r="64" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:164" s="26" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
         <v>252</v>
       </c>
@@ -16871,7 +16892,7 @@
       <c r="FG64" s="24"/>
       <c r="FH64" s="24"/>
     </row>
-    <row r="65" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:164" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
         <v>243</v>
       </c>
@@ -16896,7 +16917,9 @@
       <c r="H65" s="25">
         <v>1</v>
       </c>
-      <c r="I65" s="25"/>
+      <c r="I65" s="29" t="s">
+        <v>84</v>
+      </c>
       <c r="J65" s="4" t="s">
         <v>43</v>
       </c>
@@ -17087,7 +17110,7 @@
       <c r="FG65" s="24"/>
       <c r="FH65" s="24"/>
     </row>
-    <row r="66" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:164" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
         <v>214</v>
       </c>
@@ -17112,7 +17135,9 @@
       <c r="H66" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="I66" s="25"/>
+      <c r="I66" s="29" t="s">
+        <v>84</v>
+      </c>
       <c r="J66" s="4" t="s">
         <v>43</v>
       </c>
@@ -17328,7 +17353,9 @@
       <c r="H67" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="I67" s="25"/>
+      <c r="I67" s="29" t="s">
+        <v>84</v>
+      </c>
       <c r="J67" s="4" t="s">
         <v>43</v>
       </c>
@@ -19356,37 +19383,35 @@
     </row>
     <row r="77" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
-        <v>219</v>
+        <v>288</v>
       </c>
       <c r="B77" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C77" s="25">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77" s="23" t="s">
-        <v>145</v>
+        <v>21</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>289</v>
       </c>
       <c r="F77" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G77" s="27">
-        <v>1</v>
-      </c>
-      <c r="H77" s="27">
-        <v>1</v>
-      </c>
-      <c r="I77" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="J77" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K77" s="21" t="s">
-        <v>139</v>
+      <c r="G77" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H77" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I77" s="25"/>
+      <c r="J77" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="L77" s="4" t="s">
         <v>43</v>
@@ -19394,11 +19419,11 @@
       <c r="M77" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N77" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O77" s="14" t="s">
-        <v>22</v>
+      <c r="N77" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P77" s="3" t="s">
         <v>84</v>
@@ -19420,10 +19445,10 @@
         <v>216</v>
       </c>
       <c r="W77" s="20" t="s">
-        <v>219</v>
+        <v>288</v>
       </c>
       <c r="X77" s="20" t="s">
-        <v>219</v>
+        <v>288</v>
       </c>
       <c r="Y77" s="20" t="s">
         <v>2</v>
@@ -19574,19 +19599,19 @@
     </row>
     <row r="78" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="B78" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C78" s="25">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78" s="23" t="s">
-        <v>258</v>
+        <v>21</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>289</v>
       </c>
       <c r="F78" s="22" t="s">
         <v>118</v>
@@ -19597,9 +19622,7 @@
       <c r="H78" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="I78" s="31" t="s">
-        <v>84</v>
-      </c>
+      <c r="I78" s="25"/>
       <c r="J78" s="4" t="s">
         <v>43</v>
       </c>
@@ -19624,11 +19647,11 @@
       <c r="Q78" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R78" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="S78" s="10" t="s">
-        <v>260</v>
+      <c r="R78" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S78" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T78" s="8" t="s">
         <v>43</v>
@@ -19638,10 +19661,10 @@
         <v>216</v>
       </c>
       <c r="W78" s="20" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="X78" s="20" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="Y78" s="20" t="s">
         <v>2</v>
@@ -19792,49 +19815,47 @@
     </row>
     <row r="79" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
-        <v>134</v>
+        <v>293</v>
       </c>
       <c r="B79" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C79" s="25">
-        <v>500</v>
+        <v>369</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E79" s="23" t="s">
-        <v>136</v>
+        <v>15</v>
+      </c>
+      <c r="E79" s="22" t="s">
+        <v>294</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G79" s="27">
-        <v>1</v>
-      </c>
-      <c r="H79" s="27">
-        <v>1</v>
-      </c>
-      <c r="I79" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="J79" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K79" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="L79" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="M79" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="N79" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O79" s="14" t="s">
-        <v>22</v>
+        <v>118</v>
+      </c>
+      <c r="G79" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H79" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I79" s="25"/>
+      <c r="J79" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O79" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P79" s="3" t="s">
         <v>84</v>
@@ -19851,43 +19872,178 @@
       <c r="T79" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U79" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="U79" s="7"/>
       <c r="V79" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W79" s="20" t="s">
-        <v>134</v>
+        <v>293</v>
       </c>
       <c r="X79" s="20" t="s">
-        <v>134</v>
+        <v>293</v>
       </c>
       <c r="Y79" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z79" s="20" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="AA79" s="20" t="s">
         <v>3</v>
       </c>
+      <c r="AB79" s="24"/>
+      <c r="AC79" s="24"/>
+      <c r="AD79" s="24"/>
+      <c r="AE79" s="24"/>
+      <c r="AF79" s="24"/>
+      <c r="AG79" s="24"/>
+      <c r="AH79" s="24"/>
+      <c r="AI79" s="24"/>
+      <c r="AJ79" s="24"/>
+      <c r="AK79" s="24"/>
+      <c r="AL79" s="24"/>
+      <c r="AM79" s="24"/>
+      <c r="AN79" s="24"/>
+      <c r="AO79" s="24"/>
+      <c r="AP79" s="24"/>
+      <c r="AQ79" s="24"/>
+      <c r="AR79" s="24"/>
+      <c r="AS79" s="24"/>
+      <c r="AT79" s="24"/>
+      <c r="AU79" s="24"/>
+      <c r="AV79" s="24"/>
+      <c r="AW79" s="24"/>
+      <c r="AX79" s="24"/>
+      <c r="AY79" s="24"/>
+      <c r="AZ79" s="24"/>
+      <c r="BA79" s="24"/>
+      <c r="BB79" s="24"/>
+      <c r="BC79" s="24"/>
+      <c r="BD79" s="24"/>
+      <c r="BE79" s="24"/>
+      <c r="BF79" s="24"/>
+      <c r="BG79" s="24"/>
+      <c r="BH79" s="24"/>
+      <c r="BI79" s="24"/>
+      <c r="BJ79" s="24"/>
+      <c r="BK79" s="24"/>
+      <c r="BL79" s="24"/>
+      <c r="BM79" s="24"/>
+      <c r="BN79" s="24"/>
+      <c r="BO79" s="24"/>
+      <c r="BP79" s="24"/>
+      <c r="BQ79" s="24"/>
+      <c r="BR79" s="24"/>
+      <c r="BS79" s="24"/>
+      <c r="BT79" s="24"/>
+      <c r="BU79" s="24"/>
+      <c r="BV79" s="24"/>
+      <c r="BW79" s="24"/>
+      <c r="BX79" s="24"/>
+      <c r="BY79" s="24"/>
+      <c r="BZ79" s="24"/>
+      <c r="CA79" s="24"/>
+      <c r="CB79" s="24"/>
+      <c r="CC79" s="24"/>
+      <c r="CD79" s="24"/>
+      <c r="CE79" s="24"/>
+      <c r="CF79" s="24"/>
+      <c r="CG79" s="24"/>
+      <c r="CH79" s="24"/>
+      <c r="CI79" s="24"/>
+      <c r="CJ79" s="24"/>
+      <c r="CK79" s="24"/>
+      <c r="CL79" s="24"/>
+      <c r="CM79" s="24"/>
+      <c r="CN79" s="24"/>
+      <c r="CO79" s="24"/>
+      <c r="CP79" s="24"/>
+      <c r="CQ79" s="24"/>
+      <c r="CR79" s="24"/>
+      <c r="CS79" s="24"/>
+      <c r="CT79" s="24"/>
+      <c r="CU79" s="24"/>
+      <c r="CV79" s="24"/>
+      <c r="CW79" s="24"/>
+      <c r="CX79" s="24"/>
+      <c r="CY79" s="24"/>
+      <c r="CZ79" s="24"/>
+      <c r="DA79" s="24"/>
+      <c r="DB79" s="24"/>
+      <c r="DC79" s="24"/>
+      <c r="DD79" s="24"/>
+      <c r="DE79" s="24"/>
+      <c r="DF79" s="24"/>
+      <c r="DG79" s="24"/>
+      <c r="DH79" s="24"/>
+      <c r="DI79" s="24"/>
+      <c r="DJ79" s="24"/>
+      <c r="DK79" s="24"/>
+      <c r="DL79" s="24"/>
+      <c r="DM79" s="24"/>
+      <c r="DN79" s="24"/>
+      <c r="DO79" s="24"/>
+      <c r="DP79" s="24"/>
+      <c r="DQ79" s="24"/>
+      <c r="DR79" s="24"/>
+      <c r="DS79" s="24"/>
+      <c r="DT79" s="24"/>
+      <c r="DU79" s="24"/>
+      <c r="DV79" s="24"/>
+      <c r="DW79" s="24"/>
+      <c r="DX79" s="24"/>
+      <c r="DY79" s="24"/>
+      <c r="DZ79" s="24"/>
+      <c r="EA79" s="24"/>
+      <c r="EB79" s="24"/>
+      <c r="EC79" s="24"/>
+      <c r="ED79" s="24"/>
+      <c r="EE79" s="24"/>
+      <c r="EF79" s="24"/>
+      <c r="EG79" s="24"/>
+      <c r="EH79" s="24"/>
+      <c r="EI79" s="24"/>
+      <c r="EJ79" s="24"/>
+      <c r="EK79" s="24"/>
+      <c r="EL79" s="24"/>
+      <c r="EM79" s="24"/>
+      <c r="EN79" s="24"/>
+      <c r="EO79" s="24"/>
+      <c r="EP79" s="24"/>
+      <c r="EQ79" s="24"/>
+      <c r="ER79" s="24"/>
+      <c r="ES79" s="24"/>
+      <c r="ET79" s="24"/>
+      <c r="EU79" s="24"/>
+      <c r="EV79" s="24"/>
+      <c r="EW79" s="24"/>
+      <c r="EX79" s="24"/>
+      <c r="EY79" s="24"/>
+      <c r="EZ79" s="24"/>
+      <c r="FA79" s="24"/>
+      <c r="FB79" s="24"/>
+      <c r="FC79" s="24"/>
+      <c r="FD79" s="24"/>
+      <c r="FE79" s="24"/>
+      <c r="FF79" s="24"/>
+      <c r="FG79" s="24"/>
+      <c r="FH79" s="24"/>
     </row>
     <row r="80" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="B80" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C80" s="25">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F80" s="22" t="s">
         <v>192</v>
@@ -19898,20 +20054,20 @@
       <c r="H80" s="27">
         <v>1</v>
       </c>
-      <c r="I80" s="27" t="s">
+      <c r="I80" s="25" t="s">
         <v>191</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K80" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="L80" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="M80" s="13" t="s">
-        <v>136</v>
+        <v>130</v>
+      </c>
+      <c r="K80" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="N80" s="14" t="s">
         <v>22</v>
@@ -19934,17 +20090,15 @@
       <c r="T80" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U80" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="U80" s="7"/>
       <c r="V80" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W80" s="20" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="X80" s="20" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="Y80" s="20" t="s">
         <v>2</v>
@@ -19955,52 +20109,187 @@
       <c r="AA80" s="20" t="s">
         <v>3</v>
       </c>
+      <c r="AB80" s="24"/>
+      <c r="AC80" s="24"/>
+      <c r="AD80" s="24"/>
+      <c r="AE80" s="24"/>
+      <c r="AF80" s="24"/>
+      <c r="AG80" s="24"/>
+      <c r="AH80" s="24"/>
+      <c r="AI80" s="24"/>
+      <c r="AJ80" s="24"/>
+      <c r="AK80" s="24"/>
+      <c r="AL80" s="24"/>
+      <c r="AM80" s="24"/>
+      <c r="AN80" s="24"/>
+      <c r="AO80" s="24"/>
+      <c r="AP80" s="24"/>
+      <c r="AQ80" s="24"/>
+      <c r="AR80" s="24"/>
+      <c r="AS80" s="24"/>
+      <c r="AT80" s="24"/>
+      <c r="AU80" s="24"/>
+      <c r="AV80" s="24"/>
+      <c r="AW80" s="24"/>
+      <c r="AX80" s="24"/>
+      <c r="AY80" s="24"/>
+      <c r="AZ80" s="24"/>
+      <c r="BA80" s="24"/>
+      <c r="BB80" s="24"/>
+      <c r="BC80" s="24"/>
+      <c r="BD80" s="24"/>
+      <c r="BE80" s="24"/>
+      <c r="BF80" s="24"/>
+      <c r="BG80" s="24"/>
+      <c r="BH80" s="24"/>
+      <c r="BI80" s="24"/>
+      <c r="BJ80" s="24"/>
+      <c r="BK80" s="24"/>
+      <c r="BL80" s="24"/>
+      <c r="BM80" s="24"/>
+      <c r="BN80" s="24"/>
+      <c r="BO80" s="24"/>
+      <c r="BP80" s="24"/>
+      <c r="BQ80" s="24"/>
+      <c r="BR80" s="24"/>
+      <c r="BS80" s="24"/>
+      <c r="BT80" s="24"/>
+      <c r="BU80" s="24"/>
+      <c r="BV80" s="24"/>
+      <c r="BW80" s="24"/>
+      <c r="BX80" s="24"/>
+      <c r="BY80" s="24"/>
+      <c r="BZ80" s="24"/>
+      <c r="CA80" s="24"/>
+      <c r="CB80" s="24"/>
+      <c r="CC80" s="24"/>
+      <c r="CD80" s="24"/>
+      <c r="CE80" s="24"/>
+      <c r="CF80" s="24"/>
+      <c r="CG80" s="24"/>
+      <c r="CH80" s="24"/>
+      <c r="CI80" s="24"/>
+      <c r="CJ80" s="24"/>
+      <c r="CK80" s="24"/>
+      <c r="CL80" s="24"/>
+      <c r="CM80" s="24"/>
+      <c r="CN80" s="24"/>
+      <c r="CO80" s="24"/>
+      <c r="CP80" s="24"/>
+      <c r="CQ80" s="24"/>
+      <c r="CR80" s="24"/>
+      <c r="CS80" s="24"/>
+      <c r="CT80" s="24"/>
+      <c r="CU80" s="24"/>
+      <c r="CV80" s="24"/>
+      <c r="CW80" s="24"/>
+      <c r="CX80" s="24"/>
+      <c r="CY80" s="24"/>
+      <c r="CZ80" s="24"/>
+      <c r="DA80" s="24"/>
+      <c r="DB80" s="24"/>
+      <c r="DC80" s="24"/>
+      <c r="DD80" s="24"/>
+      <c r="DE80" s="24"/>
+      <c r="DF80" s="24"/>
+      <c r="DG80" s="24"/>
+      <c r="DH80" s="24"/>
+      <c r="DI80" s="24"/>
+      <c r="DJ80" s="24"/>
+      <c r="DK80" s="24"/>
+      <c r="DL80" s="24"/>
+      <c r="DM80" s="24"/>
+      <c r="DN80" s="24"/>
+      <c r="DO80" s="24"/>
+      <c r="DP80" s="24"/>
+      <c r="DQ80" s="24"/>
+      <c r="DR80" s="24"/>
+      <c r="DS80" s="24"/>
+      <c r="DT80" s="24"/>
+      <c r="DU80" s="24"/>
+      <c r="DV80" s="24"/>
+      <c r="DW80" s="24"/>
+      <c r="DX80" s="24"/>
+      <c r="DY80" s="24"/>
+      <c r="DZ80" s="24"/>
+      <c r="EA80" s="24"/>
+      <c r="EB80" s="24"/>
+      <c r="EC80" s="24"/>
+      <c r="ED80" s="24"/>
+      <c r="EE80" s="24"/>
+      <c r="EF80" s="24"/>
+      <c r="EG80" s="24"/>
+      <c r="EH80" s="24"/>
+      <c r="EI80" s="24"/>
+      <c r="EJ80" s="24"/>
+      <c r="EK80" s="24"/>
+      <c r="EL80" s="24"/>
+      <c r="EM80" s="24"/>
+      <c r="EN80" s="24"/>
+      <c r="EO80" s="24"/>
+      <c r="EP80" s="24"/>
+      <c r="EQ80" s="24"/>
+      <c r="ER80" s="24"/>
+      <c r="ES80" s="24"/>
+      <c r="ET80" s="24"/>
+      <c r="EU80" s="24"/>
+      <c r="EV80" s="24"/>
+      <c r="EW80" s="24"/>
+      <c r="EX80" s="24"/>
+      <c r="EY80" s="24"/>
+      <c r="EZ80" s="24"/>
+      <c r="FA80" s="24"/>
+      <c r="FB80" s="24"/>
+      <c r="FC80" s="24"/>
+      <c r="FD80" s="24"/>
+      <c r="FE80" s="24"/>
+      <c r="FF80" s="24"/>
+      <c r="FG80" s="24"/>
+      <c r="FH80" s="24"/>
     </row>
     <row r="81" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
-        <v>143</v>
+        <v>291</v>
       </c>
       <c r="B81" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C81" s="25">
-        <v>500</v>
+        <v>371</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>136</v>
+        <v>292</v>
       </c>
       <c r="F81" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G81" s="27">
-        <v>1</v>
-      </c>
-      <c r="H81" s="27">
-        <v>1</v>
-      </c>
-      <c r="I81" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="J81" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K81" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="L81" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="M81" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="N81" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O81" s="14" t="s">
-        <v>22</v>
+      <c r="G81" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H81" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I81" s="25"/>
+      <c r="J81" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M81" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O81" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>84</v>
@@ -20017,17 +20306,15 @@
       <c r="T81" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U81" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="U81" s="7"/>
       <c r="V81" s="8" t="s">
         <v>216</v>
       </c>
       <c r="W81" s="20" t="s">
-        <v>143</v>
+        <v>288</v>
       </c>
       <c r="X81" s="20" t="s">
-        <v>143</v>
+        <v>288</v>
       </c>
       <c r="Y81" s="20" t="s">
         <v>2</v>
@@ -20038,8 +20325,224 @@
       <c r="AA81" s="20" t="s">
         <v>3</v>
       </c>
+      <c r="AB81" s="24"/>
+      <c r="AC81" s="24"/>
+      <c r="AD81" s="24"/>
+      <c r="AE81" s="24"/>
+      <c r="AF81" s="24"/>
+      <c r="AG81" s="24"/>
+      <c r="AH81" s="24"/>
+      <c r="AI81" s="24"/>
+      <c r="AJ81" s="24"/>
+      <c r="AK81" s="24"/>
+      <c r="AL81" s="24"/>
+      <c r="AM81" s="24"/>
+      <c r="AN81" s="24"/>
+      <c r="AO81" s="24"/>
+      <c r="AP81" s="24"/>
+      <c r="AQ81" s="24"/>
+      <c r="AR81" s="24"/>
+      <c r="AS81" s="24"/>
+      <c r="AT81" s="24"/>
+      <c r="AU81" s="24"/>
+      <c r="AV81" s="24"/>
+      <c r="AW81" s="24"/>
+      <c r="AX81" s="24"/>
+      <c r="AY81" s="24"/>
+      <c r="AZ81" s="24"/>
+      <c r="BA81" s="24"/>
+      <c r="BB81" s="24"/>
+      <c r="BC81" s="24"/>
+      <c r="BD81" s="24"/>
+      <c r="BE81" s="24"/>
+      <c r="BF81" s="24"/>
+      <c r="BG81" s="24"/>
+      <c r="BH81" s="24"/>
+      <c r="BI81" s="24"/>
+      <c r="BJ81" s="24"/>
+      <c r="BK81" s="24"/>
+      <c r="BL81" s="24"/>
+      <c r="BM81" s="24"/>
+      <c r="BN81" s="24"/>
+      <c r="BO81" s="24"/>
+      <c r="BP81" s="24"/>
+      <c r="BQ81" s="24"/>
+      <c r="BR81" s="24"/>
+      <c r="BS81" s="24"/>
+      <c r="BT81" s="24"/>
+      <c r="BU81" s="24"/>
+      <c r="BV81" s="24"/>
+      <c r="BW81" s="24"/>
+      <c r="BX81" s="24"/>
+      <c r="BY81" s="24"/>
+      <c r="BZ81" s="24"/>
+      <c r="CA81" s="24"/>
+      <c r="CB81" s="24"/>
+      <c r="CC81" s="24"/>
+      <c r="CD81" s="24"/>
+      <c r="CE81" s="24"/>
+      <c r="CF81" s="24"/>
+      <c r="CG81" s="24"/>
+      <c r="CH81" s="24"/>
+      <c r="CI81" s="24"/>
+      <c r="CJ81" s="24"/>
+      <c r="CK81" s="24"/>
+      <c r="CL81" s="24"/>
+      <c r="CM81" s="24"/>
+      <c r="CN81" s="24"/>
+      <c r="CO81" s="24"/>
+      <c r="CP81" s="24"/>
+      <c r="CQ81" s="24"/>
+      <c r="CR81" s="24"/>
+      <c r="CS81" s="24"/>
+      <c r="CT81" s="24"/>
+      <c r="CU81" s="24"/>
+      <c r="CV81" s="24"/>
+      <c r="CW81" s="24"/>
+      <c r="CX81" s="24"/>
+      <c r="CY81" s="24"/>
+      <c r="CZ81" s="24"/>
+      <c r="DA81" s="24"/>
+      <c r="DB81" s="24"/>
+      <c r="DC81" s="24"/>
+      <c r="DD81" s="24"/>
+      <c r="DE81" s="24"/>
+      <c r="DF81" s="24"/>
+      <c r="DG81" s="24"/>
+      <c r="DH81" s="24"/>
+      <c r="DI81" s="24"/>
+      <c r="DJ81" s="24"/>
+      <c r="DK81" s="24"/>
+      <c r="DL81" s="24"/>
+      <c r="DM81" s="24"/>
+      <c r="DN81" s="24"/>
+      <c r="DO81" s="24"/>
+      <c r="DP81" s="24"/>
+      <c r="DQ81" s="24"/>
+      <c r="DR81" s="24"/>
+      <c r="DS81" s="24"/>
+      <c r="DT81" s="24"/>
+      <c r="DU81" s="24"/>
+      <c r="DV81" s="24"/>
+      <c r="DW81" s="24"/>
+      <c r="DX81" s="24"/>
+      <c r="DY81" s="24"/>
+      <c r="DZ81" s="24"/>
+      <c r="EA81" s="24"/>
+      <c r="EB81" s="24"/>
+      <c r="EC81" s="24"/>
+      <c r="ED81" s="24"/>
+      <c r="EE81" s="24"/>
+      <c r="EF81" s="24"/>
+      <c r="EG81" s="24"/>
+      <c r="EH81" s="24"/>
+      <c r="EI81" s="24"/>
+      <c r="EJ81" s="24"/>
+      <c r="EK81" s="24"/>
+      <c r="EL81" s="24"/>
+      <c r="EM81" s="24"/>
+      <c r="EN81" s="24"/>
+      <c r="EO81" s="24"/>
+      <c r="EP81" s="24"/>
+      <c r="EQ81" s="24"/>
+      <c r="ER81" s="24"/>
+      <c r="ES81" s="24"/>
+      <c r="ET81" s="24"/>
+      <c r="EU81" s="24"/>
+      <c r="EV81" s="24"/>
+      <c r="EW81" s="24"/>
+      <c r="EX81" s="24"/>
+      <c r="EY81" s="24"/>
+      <c r="EZ81" s="24"/>
+      <c r="FA81" s="24"/>
+      <c r="FB81" s="24"/>
+      <c r="FC81" s="24"/>
+      <c r="FD81" s="24"/>
+      <c r="FE81" s="24"/>
+      <c r="FF81" s="24"/>
+      <c r="FG81" s="24"/>
+      <c r="FH81" s="24"/>
     </row>
     <row r="82" spans="1:164" x14ac:dyDescent="0.2">
+      <c r="A82" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C82" s="25">
+        <v>372</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="F82" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G82" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H82" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I82" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O82" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q82" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="R82" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="S82" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="T82" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U82" s="7"/>
+      <c r="V82" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="W82" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="X82" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y82" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z82" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA82" s="20" t="s">
+        <v>3</v>
+      </c>
       <c r="AB82" s="24"/>
       <c r="AC82" s="24"/>
       <c r="AD82" s="24"/>
@@ -20179,421 +20682,253 @@
       <c r="FH82" s="24"/>
     </row>
     <row r="83" spans="1:164" x14ac:dyDescent="0.2">
-      <c r="AB83" s="24"/>
-      <c r="AC83" s="24"/>
-      <c r="AD83" s="24"/>
-      <c r="AE83" s="24"/>
-      <c r="AF83" s="24"/>
-      <c r="AG83" s="24"/>
-      <c r="AH83" s="24"/>
-      <c r="AI83" s="24"/>
-      <c r="AJ83" s="24"/>
-      <c r="AK83" s="24"/>
-      <c r="AL83" s="24"/>
-      <c r="AM83" s="24"/>
-      <c r="AN83" s="24"/>
-      <c r="AO83" s="24"/>
-      <c r="AP83" s="24"/>
-      <c r="AQ83" s="24"/>
-      <c r="AR83" s="24"/>
-      <c r="AS83" s="24"/>
-      <c r="AT83" s="24"/>
-      <c r="AU83" s="24"/>
-      <c r="AV83" s="24"/>
-      <c r="AW83" s="24"/>
-      <c r="AX83" s="24"/>
-      <c r="AY83" s="24"/>
-      <c r="AZ83" s="24"/>
-      <c r="BA83" s="24"/>
-      <c r="BB83" s="24"/>
-      <c r="BC83" s="24"/>
-      <c r="BD83" s="24"/>
-      <c r="BE83" s="24"/>
-      <c r="BF83" s="24"/>
-      <c r="BG83" s="24"/>
-      <c r="BH83" s="24"/>
-      <c r="BI83" s="24"/>
-      <c r="BJ83" s="24"/>
-      <c r="BK83" s="24"/>
-      <c r="BL83" s="24"/>
-      <c r="BM83" s="24"/>
-      <c r="BN83" s="24"/>
-      <c r="BO83" s="24"/>
-      <c r="BP83" s="24"/>
-      <c r="BQ83" s="24"/>
-      <c r="BR83" s="24"/>
-      <c r="BS83" s="24"/>
-      <c r="BT83" s="24"/>
-      <c r="BU83" s="24"/>
-      <c r="BV83" s="24"/>
-      <c r="BW83" s="24"/>
-      <c r="BX83" s="24"/>
-      <c r="BY83" s="24"/>
-      <c r="BZ83" s="24"/>
-      <c r="CA83" s="24"/>
-      <c r="CB83" s="24"/>
-      <c r="CC83" s="24"/>
-      <c r="CD83" s="24"/>
-      <c r="CE83" s="24"/>
-      <c r="CF83" s="24"/>
-      <c r="CG83" s="24"/>
-      <c r="CH83" s="24"/>
-      <c r="CI83" s="24"/>
-      <c r="CJ83" s="24"/>
-      <c r="CK83" s="24"/>
-      <c r="CL83" s="24"/>
-      <c r="CM83" s="24"/>
-      <c r="CN83" s="24"/>
-      <c r="CO83" s="24"/>
-      <c r="CP83" s="24"/>
-      <c r="CQ83" s="24"/>
-      <c r="CR83" s="24"/>
-      <c r="CS83" s="24"/>
-      <c r="CT83" s="24"/>
-      <c r="CU83" s="24"/>
-      <c r="CV83" s="24"/>
-      <c r="CW83" s="24"/>
-      <c r="CX83" s="24"/>
-      <c r="CY83" s="24"/>
-      <c r="CZ83" s="24"/>
-      <c r="DA83" s="24"/>
-      <c r="DB83" s="24"/>
-      <c r="DC83" s="24"/>
-      <c r="DD83" s="24"/>
-      <c r="DE83" s="24"/>
-      <c r="DF83" s="24"/>
-      <c r="DG83" s="24"/>
-      <c r="DH83" s="24"/>
-      <c r="DI83" s="24"/>
-      <c r="DJ83" s="24"/>
-      <c r="DK83" s="24"/>
-      <c r="DL83" s="24"/>
-      <c r="DM83" s="24"/>
-      <c r="DN83" s="24"/>
-      <c r="DO83" s="24"/>
-      <c r="DP83" s="24"/>
-      <c r="DQ83" s="24"/>
-      <c r="DR83" s="24"/>
-      <c r="DS83" s="24"/>
-      <c r="DT83" s="24"/>
-      <c r="DU83" s="24"/>
-      <c r="DV83" s="24"/>
-      <c r="DW83" s="24"/>
-      <c r="DX83" s="24"/>
-      <c r="DY83" s="24"/>
-      <c r="DZ83" s="24"/>
-      <c r="EA83" s="24"/>
-      <c r="EB83" s="24"/>
-      <c r="EC83" s="24"/>
-      <c r="ED83" s="24"/>
-      <c r="EE83" s="24"/>
-      <c r="EF83" s="24"/>
-      <c r="EG83" s="24"/>
-      <c r="EH83" s="24"/>
-      <c r="EI83" s="24"/>
-      <c r="EJ83" s="24"/>
-      <c r="EK83" s="24"/>
-      <c r="EL83" s="24"/>
-      <c r="EM83" s="24"/>
-      <c r="EN83" s="24"/>
-      <c r="EO83" s="24"/>
-      <c r="EP83" s="24"/>
-      <c r="EQ83" s="24"/>
-      <c r="ER83" s="24"/>
-      <c r="ES83" s="24"/>
-      <c r="ET83" s="24"/>
-      <c r="EU83" s="24"/>
-      <c r="EV83" s="24"/>
-      <c r="EW83" s="24"/>
-      <c r="EX83" s="24"/>
-      <c r="EY83" s="24"/>
-      <c r="EZ83" s="24"/>
-      <c r="FA83" s="24"/>
-      <c r="FB83" s="24"/>
-      <c r="FC83" s="24"/>
-      <c r="FD83" s="24"/>
-      <c r="FE83" s="24"/>
-      <c r="FF83" s="24"/>
-      <c r="FG83" s="24"/>
-      <c r="FH83" s="24"/>
+      <c r="A83" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C83" s="25">
+        <v>500</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F83" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G83" s="27">
+        <v>1</v>
+      </c>
+      <c r="H83" s="27">
+        <v>1</v>
+      </c>
+      <c r="I83" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J83" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K83" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L83" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M83" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="N83" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O83" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q83" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="R83" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S83" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T83" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U83" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V83" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="W83" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="X83" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y83" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z83" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA83" s="20" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="84" spans="1:164" x14ac:dyDescent="0.2">
-      <c r="AB84" s="24"/>
-      <c r="AC84" s="24"/>
-      <c r="AD84" s="24"/>
-      <c r="AE84" s="24"/>
-      <c r="AF84" s="24"/>
-      <c r="AG84" s="24"/>
-      <c r="AH84" s="24"/>
-      <c r="AI84" s="24"/>
-      <c r="AJ84" s="24"/>
-      <c r="AK84" s="24"/>
-      <c r="AL84" s="24"/>
-      <c r="AM84" s="24"/>
-      <c r="AN84" s="24"/>
-      <c r="AO84" s="24"/>
-      <c r="AP84" s="24"/>
-      <c r="AQ84" s="24"/>
-      <c r="AR84" s="24"/>
-      <c r="AS84" s="24"/>
-      <c r="AT84" s="24"/>
-      <c r="AU84" s="24"/>
-      <c r="AV84" s="24"/>
-      <c r="AW84" s="24"/>
-      <c r="AX84" s="24"/>
-      <c r="AY84" s="24"/>
-      <c r="AZ84" s="24"/>
-      <c r="BA84" s="24"/>
-      <c r="BB84" s="24"/>
-      <c r="BC84" s="24"/>
-      <c r="BD84" s="24"/>
-      <c r="BE84" s="24"/>
-      <c r="BF84" s="24"/>
-      <c r="BG84" s="24"/>
-      <c r="BH84" s="24"/>
-      <c r="BI84" s="24"/>
-      <c r="BJ84" s="24"/>
-      <c r="BK84" s="24"/>
-      <c r="BL84" s="24"/>
-      <c r="BM84" s="24"/>
-      <c r="BN84" s="24"/>
-      <c r="BO84" s="24"/>
-      <c r="BP84" s="24"/>
-      <c r="BQ84" s="24"/>
-      <c r="BR84" s="24"/>
-      <c r="BS84" s="24"/>
-      <c r="BT84" s="24"/>
-      <c r="BU84" s="24"/>
-      <c r="BV84" s="24"/>
-      <c r="BW84" s="24"/>
-      <c r="BX84" s="24"/>
-      <c r="BY84" s="24"/>
-      <c r="BZ84" s="24"/>
-      <c r="CA84" s="24"/>
-      <c r="CB84" s="24"/>
-      <c r="CC84" s="24"/>
-      <c r="CD84" s="24"/>
-      <c r="CE84" s="24"/>
-      <c r="CF84" s="24"/>
-      <c r="CG84" s="24"/>
-      <c r="CH84" s="24"/>
-      <c r="CI84" s="24"/>
-      <c r="CJ84" s="24"/>
-      <c r="CK84" s="24"/>
-      <c r="CL84" s="24"/>
-      <c r="CM84" s="24"/>
-      <c r="CN84" s="24"/>
-      <c r="CO84" s="24"/>
-      <c r="CP84" s="24"/>
-      <c r="CQ84" s="24"/>
-      <c r="CR84" s="24"/>
-      <c r="CS84" s="24"/>
-      <c r="CT84" s="24"/>
-      <c r="CU84" s="24"/>
-      <c r="CV84" s="24"/>
-      <c r="CW84" s="24"/>
-      <c r="CX84" s="24"/>
-      <c r="CY84" s="24"/>
-      <c r="CZ84" s="24"/>
-      <c r="DA84" s="24"/>
-      <c r="DB84" s="24"/>
-      <c r="DC84" s="24"/>
-      <c r="DD84" s="24"/>
-      <c r="DE84" s="24"/>
-      <c r="DF84" s="24"/>
-      <c r="DG84" s="24"/>
-      <c r="DH84" s="24"/>
-      <c r="DI84" s="24"/>
-      <c r="DJ84" s="24"/>
-      <c r="DK84" s="24"/>
-      <c r="DL84" s="24"/>
-      <c r="DM84" s="24"/>
-      <c r="DN84" s="24"/>
-      <c r="DO84" s="24"/>
-      <c r="DP84" s="24"/>
-      <c r="DQ84" s="24"/>
-      <c r="DR84" s="24"/>
-      <c r="DS84" s="24"/>
-      <c r="DT84" s="24"/>
-      <c r="DU84" s="24"/>
-      <c r="DV84" s="24"/>
-      <c r="DW84" s="24"/>
-      <c r="DX84" s="24"/>
-      <c r="DY84" s="24"/>
-      <c r="DZ84" s="24"/>
-      <c r="EA84" s="24"/>
-      <c r="EB84" s="24"/>
-      <c r="EC84" s="24"/>
-      <c r="ED84" s="24"/>
-      <c r="EE84" s="24"/>
-      <c r="EF84" s="24"/>
-      <c r="EG84" s="24"/>
-      <c r="EH84" s="24"/>
-      <c r="EI84" s="24"/>
-      <c r="EJ84" s="24"/>
-      <c r="EK84" s="24"/>
-      <c r="EL84" s="24"/>
-      <c r="EM84" s="24"/>
-      <c r="EN84" s="24"/>
-      <c r="EO84" s="24"/>
-      <c r="EP84" s="24"/>
-      <c r="EQ84" s="24"/>
-      <c r="ER84" s="24"/>
-      <c r="ES84" s="24"/>
-      <c r="ET84" s="24"/>
-      <c r="EU84" s="24"/>
-      <c r="EV84" s="24"/>
-      <c r="EW84" s="24"/>
-      <c r="EX84" s="24"/>
-      <c r="EY84" s="24"/>
-      <c r="EZ84" s="24"/>
-      <c r="FA84" s="24"/>
-      <c r="FB84" s="24"/>
-      <c r="FC84" s="24"/>
-      <c r="FD84" s="24"/>
-      <c r="FE84" s="24"/>
-      <c r="FF84" s="24"/>
-      <c r="FG84" s="24"/>
-      <c r="FH84" s="24"/>
+      <c r="A84" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C84" s="25">
+        <v>500</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F84" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G84" s="27">
+        <v>1</v>
+      </c>
+      <c r="H84" s="27">
+        <v>1</v>
+      </c>
+      <c r="I84" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J84" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K84" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L84" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M84" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="N84" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O84" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q84" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="R84" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S84" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T84" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U84" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V84" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="W84" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="X84" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y84" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z84" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA84" s="20" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="85" spans="1:164" x14ac:dyDescent="0.2">
-      <c r="AB85" s="24"/>
-      <c r="AC85" s="24"/>
-      <c r="AD85" s="24"/>
-      <c r="AE85" s="24"/>
-      <c r="AF85" s="24"/>
-      <c r="AG85" s="24"/>
-      <c r="AH85" s="24"/>
-      <c r="AI85" s="24"/>
-      <c r="AJ85" s="24"/>
-      <c r="AK85" s="24"/>
-      <c r="AL85" s="24"/>
-      <c r="AM85" s="24"/>
-      <c r="AN85" s="24"/>
-      <c r="AO85" s="24"/>
-      <c r="AP85" s="24"/>
-      <c r="AQ85" s="24"/>
-      <c r="AR85" s="24"/>
-      <c r="AS85" s="24"/>
-      <c r="AT85" s="24"/>
-      <c r="AU85" s="24"/>
-      <c r="AV85" s="24"/>
-      <c r="AW85" s="24"/>
-      <c r="AX85" s="24"/>
-      <c r="AY85" s="24"/>
-      <c r="AZ85" s="24"/>
-      <c r="BA85" s="24"/>
-      <c r="BB85" s="24"/>
-      <c r="BC85" s="24"/>
-      <c r="BD85" s="24"/>
-      <c r="BE85" s="24"/>
-      <c r="BF85" s="24"/>
-      <c r="BG85" s="24"/>
-      <c r="BH85" s="24"/>
-      <c r="BI85" s="24"/>
-      <c r="BJ85" s="24"/>
-      <c r="BK85" s="24"/>
-      <c r="BL85" s="24"/>
-      <c r="BM85" s="24"/>
-      <c r="BN85" s="24"/>
-      <c r="BO85" s="24"/>
-      <c r="BP85" s="24"/>
-      <c r="BQ85" s="24"/>
-      <c r="BR85" s="24"/>
-      <c r="BS85" s="24"/>
-      <c r="BT85" s="24"/>
-      <c r="BU85" s="24"/>
-      <c r="BV85" s="24"/>
-      <c r="BW85" s="24"/>
-      <c r="BX85" s="24"/>
-      <c r="BY85" s="24"/>
-      <c r="BZ85" s="24"/>
-      <c r="CA85" s="24"/>
-      <c r="CB85" s="24"/>
-      <c r="CC85" s="24"/>
-      <c r="CD85" s="24"/>
-      <c r="CE85" s="24"/>
-      <c r="CF85" s="24"/>
-      <c r="CG85" s="24"/>
-      <c r="CH85" s="24"/>
-      <c r="CI85" s="24"/>
-      <c r="CJ85" s="24"/>
-      <c r="CK85" s="24"/>
-      <c r="CL85" s="24"/>
-      <c r="CM85" s="24"/>
-      <c r="CN85" s="24"/>
-      <c r="CO85" s="24"/>
-      <c r="CP85" s="24"/>
-      <c r="CQ85" s="24"/>
-      <c r="CR85" s="24"/>
-      <c r="CS85" s="24"/>
-      <c r="CT85" s="24"/>
-      <c r="CU85" s="24"/>
-      <c r="CV85" s="24"/>
-      <c r="CW85" s="24"/>
-      <c r="CX85" s="24"/>
-      <c r="CY85" s="24"/>
-      <c r="CZ85" s="24"/>
-      <c r="DA85" s="24"/>
-      <c r="DB85" s="24"/>
-      <c r="DC85" s="24"/>
-      <c r="DD85" s="24"/>
-      <c r="DE85" s="24"/>
-      <c r="DF85" s="24"/>
-      <c r="DG85" s="24"/>
-      <c r="DH85" s="24"/>
-      <c r="DI85" s="24"/>
-      <c r="DJ85" s="24"/>
-      <c r="DK85" s="24"/>
-      <c r="DL85" s="24"/>
-      <c r="DM85" s="24"/>
-      <c r="DN85" s="24"/>
-      <c r="DO85" s="24"/>
-      <c r="DP85" s="24"/>
-      <c r="DQ85" s="24"/>
-      <c r="DR85" s="24"/>
-      <c r="DS85" s="24"/>
-      <c r="DT85" s="24"/>
-      <c r="DU85" s="24"/>
-      <c r="DV85" s="24"/>
-      <c r="DW85" s="24"/>
-      <c r="DX85" s="24"/>
-      <c r="DY85" s="24"/>
-      <c r="DZ85" s="24"/>
-      <c r="EA85" s="24"/>
-      <c r="EB85" s="24"/>
-      <c r="EC85" s="24"/>
-      <c r="ED85" s="24"/>
-      <c r="EE85" s="24"/>
-      <c r="EF85" s="24"/>
-      <c r="EG85" s="24"/>
-      <c r="EH85" s="24"/>
-      <c r="EI85" s="24"/>
-      <c r="EJ85" s="24"/>
-      <c r="EK85" s="24"/>
-      <c r="EL85" s="24"/>
-      <c r="EM85" s="24"/>
-      <c r="EN85" s="24"/>
-      <c r="EO85" s="24"/>
-      <c r="EP85" s="24"/>
-      <c r="EQ85" s="24"/>
-      <c r="ER85" s="24"/>
-      <c r="ES85" s="24"/>
-      <c r="ET85" s="24"/>
-      <c r="EU85" s="24"/>
-      <c r="EV85" s="24"/>
-      <c r="EW85" s="24"/>
-      <c r="EX85" s="24"/>
-      <c r="EY85" s="24"/>
-      <c r="EZ85" s="24"/>
-      <c r="FA85" s="24"/>
-      <c r="FB85" s="24"/>
-      <c r="FC85" s="24"/>
-      <c r="FD85" s="24"/>
-      <c r="FE85" s="24"/>
-      <c r="FF85" s="24"/>
-      <c r="FG85" s="24"/>
-      <c r="FH85" s="24"/>
+      <c r="A85" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C85" s="25">
+        <v>500</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F85" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G85" s="27">
+        <v>1</v>
+      </c>
+      <c r="H85" s="27">
+        <v>1</v>
+      </c>
+      <c r="I85" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J85" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K85" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L85" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M85" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="N85" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O85" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q85" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="R85" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S85" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T85" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U85" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V85" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="W85" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="X85" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y85" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z85" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA85" s="20" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="86" spans="1:164" x14ac:dyDescent="0.2">
       <c r="AB86" s="24"/>
@@ -21846,9 +22181,565 @@
       <c r="FG94" s="24"/>
       <c r="FH94" s="24"/>
     </row>
+    <row r="95" spans="1:164" x14ac:dyDescent="0.2">
+      <c r="AB95" s="24"/>
+      <c r="AC95" s="24"/>
+      <c r="AD95" s="24"/>
+      <c r="AE95" s="24"/>
+      <c r="AF95" s="24"/>
+      <c r="AG95" s="24"/>
+      <c r="AH95" s="24"/>
+      <c r="AI95" s="24"/>
+      <c r="AJ95" s="24"/>
+      <c r="AK95" s="24"/>
+      <c r="AL95" s="24"/>
+      <c r="AM95" s="24"/>
+      <c r="AN95" s="24"/>
+      <c r="AO95" s="24"/>
+      <c r="AP95" s="24"/>
+      <c r="AQ95" s="24"/>
+      <c r="AR95" s="24"/>
+      <c r="AS95" s="24"/>
+      <c r="AT95" s="24"/>
+      <c r="AU95" s="24"/>
+      <c r="AV95" s="24"/>
+      <c r="AW95" s="24"/>
+      <c r="AX95" s="24"/>
+      <c r="AY95" s="24"/>
+      <c r="AZ95" s="24"/>
+      <c r="BA95" s="24"/>
+      <c r="BB95" s="24"/>
+      <c r="BC95" s="24"/>
+      <c r="BD95" s="24"/>
+      <c r="BE95" s="24"/>
+      <c r="BF95" s="24"/>
+      <c r="BG95" s="24"/>
+      <c r="BH95" s="24"/>
+      <c r="BI95" s="24"/>
+      <c r="BJ95" s="24"/>
+      <c r="BK95" s="24"/>
+      <c r="BL95" s="24"/>
+      <c r="BM95" s="24"/>
+      <c r="BN95" s="24"/>
+      <c r="BO95" s="24"/>
+      <c r="BP95" s="24"/>
+      <c r="BQ95" s="24"/>
+      <c r="BR95" s="24"/>
+      <c r="BS95" s="24"/>
+      <c r="BT95" s="24"/>
+      <c r="BU95" s="24"/>
+      <c r="BV95" s="24"/>
+      <c r="BW95" s="24"/>
+      <c r="BX95" s="24"/>
+      <c r="BY95" s="24"/>
+      <c r="BZ95" s="24"/>
+      <c r="CA95" s="24"/>
+      <c r="CB95" s="24"/>
+      <c r="CC95" s="24"/>
+      <c r="CD95" s="24"/>
+      <c r="CE95" s="24"/>
+      <c r="CF95" s="24"/>
+      <c r="CG95" s="24"/>
+      <c r="CH95" s="24"/>
+      <c r="CI95" s="24"/>
+      <c r="CJ95" s="24"/>
+      <c r="CK95" s="24"/>
+      <c r="CL95" s="24"/>
+      <c r="CM95" s="24"/>
+      <c r="CN95" s="24"/>
+      <c r="CO95" s="24"/>
+      <c r="CP95" s="24"/>
+      <c r="CQ95" s="24"/>
+      <c r="CR95" s="24"/>
+      <c r="CS95" s="24"/>
+      <c r="CT95" s="24"/>
+      <c r="CU95" s="24"/>
+      <c r="CV95" s="24"/>
+      <c r="CW95" s="24"/>
+      <c r="CX95" s="24"/>
+      <c r="CY95" s="24"/>
+      <c r="CZ95" s="24"/>
+      <c r="DA95" s="24"/>
+      <c r="DB95" s="24"/>
+      <c r="DC95" s="24"/>
+      <c r="DD95" s="24"/>
+      <c r="DE95" s="24"/>
+      <c r="DF95" s="24"/>
+      <c r="DG95" s="24"/>
+      <c r="DH95" s="24"/>
+      <c r="DI95" s="24"/>
+      <c r="DJ95" s="24"/>
+      <c r="DK95" s="24"/>
+      <c r="DL95" s="24"/>
+      <c r="DM95" s="24"/>
+      <c r="DN95" s="24"/>
+      <c r="DO95" s="24"/>
+      <c r="DP95" s="24"/>
+      <c r="DQ95" s="24"/>
+      <c r="DR95" s="24"/>
+      <c r="DS95" s="24"/>
+      <c r="DT95" s="24"/>
+      <c r="DU95" s="24"/>
+      <c r="DV95" s="24"/>
+      <c r="DW95" s="24"/>
+      <c r="DX95" s="24"/>
+      <c r="DY95" s="24"/>
+      <c r="DZ95" s="24"/>
+      <c r="EA95" s="24"/>
+      <c r="EB95" s="24"/>
+      <c r="EC95" s="24"/>
+      <c r="ED95" s="24"/>
+      <c r="EE95" s="24"/>
+      <c r="EF95" s="24"/>
+      <c r="EG95" s="24"/>
+      <c r="EH95" s="24"/>
+      <c r="EI95" s="24"/>
+      <c r="EJ95" s="24"/>
+      <c r="EK95" s="24"/>
+      <c r="EL95" s="24"/>
+      <c r="EM95" s="24"/>
+      <c r="EN95" s="24"/>
+      <c r="EO95" s="24"/>
+      <c r="EP95" s="24"/>
+      <c r="EQ95" s="24"/>
+      <c r="ER95" s="24"/>
+      <c r="ES95" s="24"/>
+      <c r="ET95" s="24"/>
+      <c r="EU95" s="24"/>
+      <c r="EV95" s="24"/>
+      <c r="EW95" s="24"/>
+      <c r="EX95" s="24"/>
+      <c r="EY95" s="24"/>
+      <c r="EZ95" s="24"/>
+      <c r="FA95" s="24"/>
+      <c r="FB95" s="24"/>
+      <c r="FC95" s="24"/>
+      <c r="FD95" s="24"/>
+      <c r="FE95" s="24"/>
+      <c r="FF95" s="24"/>
+      <c r="FG95" s="24"/>
+      <c r="FH95" s="24"/>
+    </row>
+    <row r="96" spans="1:164" x14ac:dyDescent="0.2">
+      <c r="AB96" s="24"/>
+      <c r="AC96" s="24"/>
+      <c r="AD96" s="24"/>
+      <c r="AE96" s="24"/>
+      <c r="AF96" s="24"/>
+      <c r="AG96" s="24"/>
+      <c r="AH96" s="24"/>
+      <c r="AI96" s="24"/>
+      <c r="AJ96" s="24"/>
+      <c r="AK96" s="24"/>
+      <c r="AL96" s="24"/>
+      <c r="AM96" s="24"/>
+      <c r="AN96" s="24"/>
+      <c r="AO96" s="24"/>
+      <c r="AP96" s="24"/>
+      <c r="AQ96" s="24"/>
+      <c r="AR96" s="24"/>
+      <c r="AS96" s="24"/>
+      <c r="AT96" s="24"/>
+      <c r="AU96" s="24"/>
+      <c r="AV96" s="24"/>
+      <c r="AW96" s="24"/>
+      <c r="AX96" s="24"/>
+      <c r="AY96" s="24"/>
+      <c r="AZ96" s="24"/>
+      <c r="BA96" s="24"/>
+      <c r="BB96" s="24"/>
+      <c r="BC96" s="24"/>
+      <c r="BD96" s="24"/>
+      <c r="BE96" s="24"/>
+      <c r="BF96" s="24"/>
+      <c r="BG96" s="24"/>
+      <c r="BH96" s="24"/>
+      <c r="BI96" s="24"/>
+      <c r="BJ96" s="24"/>
+      <c r="BK96" s="24"/>
+      <c r="BL96" s="24"/>
+      <c r="BM96" s="24"/>
+      <c r="BN96" s="24"/>
+      <c r="BO96" s="24"/>
+      <c r="BP96" s="24"/>
+      <c r="BQ96" s="24"/>
+      <c r="BR96" s="24"/>
+      <c r="BS96" s="24"/>
+      <c r="BT96" s="24"/>
+      <c r="BU96" s="24"/>
+      <c r="BV96" s="24"/>
+      <c r="BW96" s="24"/>
+      <c r="BX96" s="24"/>
+      <c r="BY96" s="24"/>
+      <c r="BZ96" s="24"/>
+      <c r="CA96" s="24"/>
+      <c r="CB96" s="24"/>
+      <c r="CC96" s="24"/>
+      <c r="CD96" s="24"/>
+      <c r="CE96" s="24"/>
+      <c r="CF96" s="24"/>
+      <c r="CG96" s="24"/>
+      <c r="CH96" s="24"/>
+      <c r="CI96" s="24"/>
+      <c r="CJ96" s="24"/>
+      <c r="CK96" s="24"/>
+      <c r="CL96" s="24"/>
+      <c r="CM96" s="24"/>
+      <c r="CN96" s="24"/>
+      <c r="CO96" s="24"/>
+      <c r="CP96" s="24"/>
+      <c r="CQ96" s="24"/>
+      <c r="CR96" s="24"/>
+      <c r="CS96" s="24"/>
+      <c r="CT96" s="24"/>
+      <c r="CU96" s="24"/>
+      <c r="CV96" s="24"/>
+      <c r="CW96" s="24"/>
+      <c r="CX96" s="24"/>
+      <c r="CY96" s="24"/>
+      <c r="CZ96" s="24"/>
+      <c r="DA96" s="24"/>
+      <c r="DB96" s="24"/>
+      <c r="DC96" s="24"/>
+      <c r="DD96" s="24"/>
+      <c r="DE96" s="24"/>
+      <c r="DF96" s="24"/>
+      <c r="DG96" s="24"/>
+      <c r="DH96" s="24"/>
+      <c r="DI96" s="24"/>
+      <c r="DJ96" s="24"/>
+      <c r="DK96" s="24"/>
+      <c r="DL96" s="24"/>
+      <c r="DM96" s="24"/>
+      <c r="DN96" s="24"/>
+      <c r="DO96" s="24"/>
+      <c r="DP96" s="24"/>
+      <c r="DQ96" s="24"/>
+      <c r="DR96" s="24"/>
+      <c r="DS96" s="24"/>
+      <c r="DT96" s="24"/>
+      <c r="DU96" s="24"/>
+      <c r="DV96" s="24"/>
+      <c r="DW96" s="24"/>
+      <c r="DX96" s="24"/>
+      <c r="DY96" s="24"/>
+      <c r="DZ96" s="24"/>
+      <c r="EA96" s="24"/>
+      <c r="EB96" s="24"/>
+      <c r="EC96" s="24"/>
+      <c r="ED96" s="24"/>
+      <c r="EE96" s="24"/>
+      <c r="EF96" s="24"/>
+      <c r="EG96" s="24"/>
+      <c r="EH96" s="24"/>
+      <c r="EI96" s="24"/>
+      <c r="EJ96" s="24"/>
+      <c r="EK96" s="24"/>
+      <c r="EL96" s="24"/>
+      <c r="EM96" s="24"/>
+      <c r="EN96" s="24"/>
+      <c r="EO96" s="24"/>
+      <c r="EP96" s="24"/>
+      <c r="EQ96" s="24"/>
+      <c r="ER96" s="24"/>
+      <c r="ES96" s="24"/>
+      <c r="ET96" s="24"/>
+      <c r="EU96" s="24"/>
+      <c r="EV96" s="24"/>
+      <c r="EW96" s="24"/>
+      <c r="EX96" s="24"/>
+      <c r="EY96" s="24"/>
+      <c r="EZ96" s="24"/>
+      <c r="FA96" s="24"/>
+      <c r="FB96" s="24"/>
+      <c r="FC96" s="24"/>
+      <c r="FD96" s="24"/>
+      <c r="FE96" s="24"/>
+      <c r="FF96" s="24"/>
+      <c r="FG96" s="24"/>
+      <c r="FH96" s="24"/>
+    </row>
+    <row r="97" spans="28:164" x14ac:dyDescent="0.2">
+      <c r="AB97" s="24"/>
+      <c r="AC97" s="24"/>
+      <c r="AD97" s="24"/>
+      <c r="AE97" s="24"/>
+      <c r="AF97" s="24"/>
+      <c r="AG97" s="24"/>
+      <c r="AH97" s="24"/>
+      <c r="AI97" s="24"/>
+      <c r="AJ97" s="24"/>
+      <c r="AK97" s="24"/>
+      <c r="AL97" s="24"/>
+      <c r="AM97" s="24"/>
+      <c r="AN97" s="24"/>
+      <c r="AO97" s="24"/>
+      <c r="AP97" s="24"/>
+      <c r="AQ97" s="24"/>
+      <c r="AR97" s="24"/>
+      <c r="AS97" s="24"/>
+      <c r="AT97" s="24"/>
+      <c r="AU97" s="24"/>
+      <c r="AV97" s="24"/>
+      <c r="AW97" s="24"/>
+      <c r="AX97" s="24"/>
+      <c r="AY97" s="24"/>
+      <c r="AZ97" s="24"/>
+      <c r="BA97" s="24"/>
+      <c r="BB97" s="24"/>
+      <c r="BC97" s="24"/>
+      <c r="BD97" s="24"/>
+      <c r="BE97" s="24"/>
+      <c r="BF97" s="24"/>
+      <c r="BG97" s="24"/>
+      <c r="BH97" s="24"/>
+      <c r="BI97" s="24"/>
+      <c r="BJ97" s="24"/>
+      <c r="BK97" s="24"/>
+      <c r="BL97" s="24"/>
+      <c r="BM97" s="24"/>
+      <c r="BN97" s="24"/>
+      <c r="BO97" s="24"/>
+      <c r="BP97" s="24"/>
+      <c r="BQ97" s="24"/>
+      <c r="BR97" s="24"/>
+      <c r="BS97" s="24"/>
+      <c r="BT97" s="24"/>
+      <c r="BU97" s="24"/>
+      <c r="BV97" s="24"/>
+      <c r="BW97" s="24"/>
+      <c r="BX97" s="24"/>
+      <c r="BY97" s="24"/>
+      <c r="BZ97" s="24"/>
+      <c r="CA97" s="24"/>
+      <c r="CB97" s="24"/>
+      <c r="CC97" s="24"/>
+      <c r="CD97" s="24"/>
+      <c r="CE97" s="24"/>
+      <c r="CF97" s="24"/>
+      <c r="CG97" s="24"/>
+      <c r="CH97" s="24"/>
+      <c r="CI97" s="24"/>
+      <c r="CJ97" s="24"/>
+      <c r="CK97" s="24"/>
+      <c r="CL97" s="24"/>
+      <c r="CM97" s="24"/>
+      <c r="CN97" s="24"/>
+      <c r="CO97" s="24"/>
+      <c r="CP97" s="24"/>
+      <c r="CQ97" s="24"/>
+      <c r="CR97" s="24"/>
+      <c r="CS97" s="24"/>
+      <c r="CT97" s="24"/>
+      <c r="CU97" s="24"/>
+      <c r="CV97" s="24"/>
+      <c r="CW97" s="24"/>
+      <c r="CX97" s="24"/>
+      <c r="CY97" s="24"/>
+      <c r="CZ97" s="24"/>
+      <c r="DA97" s="24"/>
+      <c r="DB97" s="24"/>
+      <c r="DC97" s="24"/>
+      <c r="DD97" s="24"/>
+      <c r="DE97" s="24"/>
+      <c r="DF97" s="24"/>
+      <c r="DG97" s="24"/>
+      <c r="DH97" s="24"/>
+      <c r="DI97" s="24"/>
+      <c r="DJ97" s="24"/>
+      <c r="DK97" s="24"/>
+      <c r="DL97" s="24"/>
+      <c r="DM97" s="24"/>
+      <c r="DN97" s="24"/>
+      <c r="DO97" s="24"/>
+      <c r="DP97" s="24"/>
+      <c r="DQ97" s="24"/>
+      <c r="DR97" s="24"/>
+      <c r="DS97" s="24"/>
+      <c r="DT97" s="24"/>
+      <c r="DU97" s="24"/>
+      <c r="DV97" s="24"/>
+      <c r="DW97" s="24"/>
+      <c r="DX97" s="24"/>
+      <c r="DY97" s="24"/>
+      <c r="DZ97" s="24"/>
+      <c r="EA97" s="24"/>
+      <c r="EB97" s="24"/>
+      <c r="EC97" s="24"/>
+      <c r="ED97" s="24"/>
+      <c r="EE97" s="24"/>
+      <c r="EF97" s="24"/>
+      <c r="EG97" s="24"/>
+      <c r="EH97" s="24"/>
+      <c r="EI97" s="24"/>
+      <c r="EJ97" s="24"/>
+      <c r="EK97" s="24"/>
+      <c r="EL97" s="24"/>
+      <c r="EM97" s="24"/>
+      <c r="EN97" s="24"/>
+      <c r="EO97" s="24"/>
+      <c r="EP97" s="24"/>
+      <c r="EQ97" s="24"/>
+      <c r="ER97" s="24"/>
+      <c r="ES97" s="24"/>
+      <c r="ET97" s="24"/>
+      <c r="EU97" s="24"/>
+      <c r="EV97" s="24"/>
+      <c r="EW97" s="24"/>
+      <c r="EX97" s="24"/>
+      <c r="EY97" s="24"/>
+      <c r="EZ97" s="24"/>
+      <c r="FA97" s="24"/>
+      <c r="FB97" s="24"/>
+      <c r="FC97" s="24"/>
+      <c r="FD97" s="24"/>
+      <c r="FE97" s="24"/>
+      <c r="FF97" s="24"/>
+      <c r="FG97" s="24"/>
+      <c r="FH97" s="24"/>
+    </row>
+    <row r="98" spans="28:164" x14ac:dyDescent="0.2">
+      <c r="AB98" s="24"/>
+      <c r="AC98" s="24"/>
+      <c r="AD98" s="24"/>
+      <c r="AE98" s="24"/>
+      <c r="AF98" s="24"/>
+      <c r="AG98" s="24"/>
+      <c r="AH98" s="24"/>
+      <c r="AI98" s="24"/>
+      <c r="AJ98" s="24"/>
+      <c r="AK98" s="24"/>
+      <c r="AL98" s="24"/>
+      <c r="AM98" s="24"/>
+      <c r="AN98" s="24"/>
+      <c r="AO98" s="24"/>
+      <c r="AP98" s="24"/>
+      <c r="AQ98" s="24"/>
+      <c r="AR98" s="24"/>
+      <c r="AS98" s="24"/>
+      <c r="AT98" s="24"/>
+      <c r="AU98" s="24"/>
+      <c r="AV98" s="24"/>
+      <c r="AW98" s="24"/>
+      <c r="AX98" s="24"/>
+      <c r="AY98" s="24"/>
+      <c r="AZ98" s="24"/>
+      <c r="BA98" s="24"/>
+      <c r="BB98" s="24"/>
+      <c r="BC98" s="24"/>
+      <c r="BD98" s="24"/>
+      <c r="BE98" s="24"/>
+      <c r="BF98" s="24"/>
+      <c r="BG98" s="24"/>
+      <c r="BH98" s="24"/>
+      <c r="BI98" s="24"/>
+      <c r="BJ98" s="24"/>
+      <c r="BK98" s="24"/>
+      <c r="BL98" s="24"/>
+      <c r="BM98" s="24"/>
+      <c r="BN98" s="24"/>
+      <c r="BO98" s="24"/>
+      <c r="BP98" s="24"/>
+      <c r="BQ98" s="24"/>
+      <c r="BR98" s="24"/>
+      <c r="BS98" s="24"/>
+      <c r="BT98" s="24"/>
+      <c r="BU98" s="24"/>
+      <c r="BV98" s="24"/>
+      <c r="BW98" s="24"/>
+      <c r="BX98" s="24"/>
+      <c r="BY98" s="24"/>
+      <c r="BZ98" s="24"/>
+      <c r="CA98" s="24"/>
+      <c r="CB98" s="24"/>
+      <c r="CC98" s="24"/>
+      <c r="CD98" s="24"/>
+      <c r="CE98" s="24"/>
+      <c r="CF98" s="24"/>
+      <c r="CG98" s="24"/>
+      <c r="CH98" s="24"/>
+      <c r="CI98" s="24"/>
+      <c r="CJ98" s="24"/>
+      <c r="CK98" s="24"/>
+      <c r="CL98" s="24"/>
+      <c r="CM98" s="24"/>
+      <c r="CN98" s="24"/>
+      <c r="CO98" s="24"/>
+      <c r="CP98" s="24"/>
+      <c r="CQ98" s="24"/>
+      <c r="CR98" s="24"/>
+      <c r="CS98" s="24"/>
+      <c r="CT98" s="24"/>
+      <c r="CU98" s="24"/>
+      <c r="CV98" s="24"/>
+      <c r="CW98" s="24"/>
+      <c r="CX98" s="24"/>
+      <c r="CY98" s="24"/>
+      <c r="CZ98" s="24"/>
+      <c r="DA98" s="24"/>
+      <c r="DB98" s="24"/>
+      <c r="DC98" s="24"/>
+      <c r="DD98" s="24"/>
+      <c r="DE98" s="24"/>
+      <c r="DF98" s="24"/>
+      <c r="DG98" s="24"/>
+      <c r="DH98" s="24"/>
+      <c r="DI98" s="24"/>
+      <c r="DJ98" s="24"/>
+      <c r="DK98" s="24"/>
+      <c r="DL98" s="24"/>
+      <c r="DM98" s="24"/>
+      <c r="DN98" s="24"/>
+      <c r="DO98" s="24"/>
+      <c r="DP98" s="24"/>
+      <c r="DQ98" s="24"/>
+      <c r="DR98" s="24"/>
+      <c r="DS98" s="24"/>
+      <c r="DT98" s="24"/>
+      <c r="DU98" s="24"/>
+      <c r="DV98" s="24"/>
+      <c r="DW98" s="24"/>
+      <c r="DX98" s="24"/>
+      <c r="DY98" s="24"/>
+      <c r="DZ98" s="24"/>
+      <c r="EA98" s="24"/>
+      <c r="EB98" s="24"/>
+      <c r="EC98" s="24"/>
+      <c r="ED98" s="24"/>
+      <c r="EE98" s="24"/>
+      <c r="EF98" s="24"/>
+      <c r="EG98" s="24"/>
+      <c r="EH98" s="24"/>
+      <c r="EI98" s="24"/>
+      <c r="EJ98" s="24"/>
+      <c r="EK98" s="24"/>
+      <c r="EL98" s="24"/>
+      <c r="EM98" s="24"/>
+      <c r="EN98" s="24"/>
+      <c r="EO98" s="24"/>
+      <c r="EP98" s="24"/>
+      <c r="EQ98" s="24"/>
+      <c r="ER98" s="24"/>
+      <c r="ES98" s="24"/>
+      <c r="ET98" s="24"/>
+      <c r="EU98" s="24"/>
+      <c r="EV98" s="24"/>
+      <c r="EW98" s="24"/>
+      <c r="EX98" s="24"/>
+      <c r="EY98" s="24"/>
+      <c r="EZ98" s="24"/>
+      <c r="FA98" s="24"/>
+      <c r="FB98" s="24"/>
+      <c r="FC98" s="24"/>
+      <c r="FD98" s="24"/>
+      <c r="FE98" s="24"/>
+      <c r="FF98" s="24"/>
+      <c r="FG98" s="24"/>
+      <c r="FH98" s="24"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA81">
-    <sortCondition ref="C2:C81"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA85">
+    <sortCondition ref="C2:C85"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F85F54A-44D4-2347-86CC-FB421A1A4428}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFD20D7-783D-094C-98A2-764620FE995C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11040" yWindow="1100" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="294">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -359,9 +359,6 @@
     <t>Cavidae</t>
   </si>
   <si>
-    <t>Gliridae</t>
-  </si>
-  <si>
     <t>superorder</t>
   </si>
   <si>
@@ -650,9 +647,6 @@
     <t>dependo.46-gliridae</t>
   </si>
   <si>
-    <t>dependo.36-pteronotus</t>
-  </si>
-  <si>
     <t>dependo.45-bathyergidae</t>
   </si>
   <si>
@@ -918,6 +912,9 @@
   </si>
   <si>
     <t>Guarouba</t>
+  </si>
+  <si>
+    <t>dependo.36-phyllostomidae</t>
   </si>
 </sst>
 </file>
@@ -3410,10 +3407,10 @@
   <dimension ref="A1:FH98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L70" sqref="C70:L70"/>
+      <selection pane="bottomRight" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3452,34 +3449,34 @@
         <v>74</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>97</v>
@@ -3494,10 +3491,10 @@
         <v>100</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>28</v>
@@ -3524,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>1</v>
@@ -3535,7 +3532,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" s="25">
         <v>0</v>
@@ -3544,10 +3541,10 @@
         <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G2" s="27">
         <v>1</v>
@@ -3556,22 +3553,22 @@
         <v>1</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>42</v>
@@ -3580,7 +3577,7 @@
         <v>84</v>
       </c>
       <c r="Q2" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R2" s="11" t="s">
         <v>43</v>
@@ -3605,7 +3602,7 @@
         <v>2</v>
       </c>
       <c r="Z2" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA2" s="20" t="s">
         <v>3</v>
@@ -3616,7 +3613,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" s="25">
         <v>1</v>
@@ -3628,7 +3625,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G3" s="25">
         <v>23</v>
@@ -3637,22 +3634,22 @@
         <v>24</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>85</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>85</v>
@@ -3661,7 +3658,7 @@
         <v>84</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>49</v>
@@ -3688,7 +3685,7 @@
         <v>2</v>
       </c>
       <c r="Z3" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA3" s="20" t="s">
         <v>3</v>
@@ -3696,10 +3693,10 @@
     </row>
     <row r="4" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" s="25">
         <v>2</v>
@@ -3708,10 +3705,10 @@
         <v>83</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G4" s="25">
         <v>8</v>
@@ -3720,31 +3717,31 @@
         <v>8</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R4" s="10" t="s">
         <v>68</v>
@@ -3760,16 +3757,16 @@
         <v>32913662</v>
       </c>
       <c r="W4" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X4" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y4" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z4" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA4" s="20" t="s">
         <v>3</v>
@@ -3780,7 +3777,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="25">
         <v>3</v>
@@ -3792,7 +3789,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G5" s="25">
         <v>3</v>
@@ -3801,31 +3798,31 @@
         <v>3</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R5" s="10" t="s">
         <v>57</v>
@@ -3852,7 +3849,7 @@
         <v>2</v>
       </c>
       <c r="Z5" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA5" s="20" t="s">
         <v>3</v>
@@ -3997,10 +3994,10 @@
     </row>
     <row r="6" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="25">
         <v>4</v>
@@ -4009,10 +4006,10 @@
         <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G6" s="27">
         <v>4</v>
@@ -4021,22 +4018,22 @@
         <v>4</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>85</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>85</v>
@@ -4045,7 +4042,7 @@
         <v>84</v>
       </c>
       <c r="Q6" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R6" s="10" t="s">
         <v>30</v>
@@ -4060,19 +4057,19 @@
         <v>27.9</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W6" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X6" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y6" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z6" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA6" s="20" t="s">
         <v>3</v>
@@ -4217,10 +4214,10 @@
     </row>
     <row r="7" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="25">
         <v>5</v>
@@ -4229,10 +4226,10 @@
         <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G7" s="27">
         <v>4</v>
@@ -4241,13 +4238,13 @@
         <v>4</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L7" s="14" t="s">
         <v>22</v>
@@ -4256,16 +4253,16 @@
         <v>22</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R7" s="10" t="s">
         <v>66</v>
@@ -4280,19 +4277,19 @@
         <v>27.9</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W7" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X7" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y7" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z7" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA7" s="20" t="s">
         <v>3</v>
@@ -4440,7 +4437,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" s="25">
         <v>6</v>
@@ -4449,10 +4446,10 @@
         <v>15</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G8" s="25">
         <v>1</v>
@@ -4461,19 +4458,19 @@
         <v>1</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>22</v>
@@ -4482,10 +4479,10 @@
         <v>22</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R8" s="10" t="s">
         <v>69</v>
@@ -4498,7 +4495,7 @@
       </c>
       <c r="U8" s="7"/>
       <c r="V8" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W8" s="20" t="s">
         <v>9</v>
@@ -4510,7 +4507,7 @@
         <v>2</v>
       </c>
       <c r="Z8" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA8" s="20" t="s">
         <v>3</v>
@@ -4658,7 +4655,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="25">
         <v>7</v>
@@ -4670,7 +4667,7 @@
         <v>88</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G9" s="25">
         <v>1</v>
@@ -4679,19 +4676,19 @@
         <v>1</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>22</v>
@@ -4703,7 +4700,7 @@
         <v>84</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R9" s="10" t="s">
         <v>67</v>
@@ -4716,7 +4713,7 @@
       </c>
       <c r="U9" s="7"/>
       <c r="V9" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W9" s="20" t="s">
         <v>10</v>
@@ -4728,7 +4725,7 @@
         <v>2</v>
       </c>
       <c r="Z9" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA9" s="20" t="s">
         <v>3</v>
@@ -4876,7 +4873,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C10" s="25">
         <v>8</v>
@@ -4888,7 +4885,7 @@
         <v>89</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G10" s="25">
         <v>1</v>
@@ -4897,13 +4894,13 @@
         <v>1</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>22</v>
@@ -4912,16 +4909,16 @@
         <v>22</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q10" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>46</v>
@@ -4934,7 +4931,7 @@
       </c>
       <c r="U10" s="7"/>
       <c r="V10" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W10" s="20" t="s">
         <v>11</v>
@@ -4946,7 +4943,7 @@
         <v>2</v>
       </c>
       <c r="Z10" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA10" s="20" t="s">
         <v>3</v>
@@ -5091,10 +5088,10 @@
     </row>
     <row r="11" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" s="25">
         <v>9</v>
@@ -5103,10 +5100,10 @@
         <v>83</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G11" s="25">
         <v>2</v>
@@ -5115,19 +5112,19 @@
         <v>2</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N11" s="14" t="s">
         <v>22</v>
@@ -5139,7 +5136,7 @@
         <v>84</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R11" s="18" t="s">
         <v>43</v>
@@ -5152,19 +5149,19 @@
       </c>
       <c r="U11" s="7"/>
       <c r="V11" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="W11" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="W11" s="20" t="s">
-        <v>218</v>
-      </c>
       <c r="X11" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Y11" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z11" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA11" s="20" t="s">
         <v>3</v>
@@ -5312,7 +5309,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C12" s="25">
         <v>10</v>
@@ -5324,7 +5321,7 @@
         <v>40</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G12" s="27">
         <v>1</v>
@@ -5336,16 +5333,16 @@
         <v>84</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="L12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="N12" s="14" t="s">
         <v>22</v>
@@ -5357,7 +5354,7 @@
         <v>84</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R12" s="10" t="s">
         <v>52</v>
@@ -5370,7 +5367,7 @@
       </c>
       <c r="U12" s="7"/>
       <c r="V12" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W12" s="20" t="s">
         <v>39</v>
@@ -5382,7 +5379,7 @@
         <v>2</v>
       </c>
       <c r="Z12" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA12" s="20" t="s">
         <v>3</v>
@@ -5530,7 +5527,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C13" s="25">
         <v>11</v>
@@ -5539,10 +5536,10 @@
         <v>20</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G13" s="27">
         <v>3</v>
@@ -5554,16 +5551,16 @@
         <v>84</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>22</v>
@@ -5575,7 +5572,7 @@
         <v>84</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R13" s="18" t="s">
         <v>43</v>
@@ -5588,7 +5585,7 @@
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W13" s="20" t="s">
         <v>12</v>
@@ -5600,7 +5597,7 @@
         <v>2</v>
       </c>
       <c r="Z13" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA13" s="20" t="s">
         <v>3</v>
@@ -5748,7 +5745,7 @@
         <v>65</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C14" s="25">
         <v>12</v>
@@ -5760,7 +5757,7 @@
         <v>86</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G14" s="25">
         <v>1</v>
@@ -5769,31 +5766,31 @@
         <v>1</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R14" s="18" t="s">
         <v>43</v>
@@ -5806,7 +5803,7 @@
       </c>
       <c r="U14" s="7"/>
       <c r="V14" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W14" s="20" t="s">
         <v>65</v>
@@ -5818,7 +5815,7 @@
         <v>2</v>
       </c>
       <c r="Z14" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA14" s="20" t="s">
         <v>3</v>
@@ -5966,7 +5963,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C15" s="25">
         <v>13</v>
@@ -5978,7 +5975,7 @@
         <v>87</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G15" s="27">
         <v>3</v>
@@ -5987,31 +5984,31 @@
         <v>3</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q15" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R15" s="10" t="s">
         <v>34</v>
@@ -6026,7 +6023,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W15" s="20" t="s">
         <v>8</v>
@@ -6038,7 +6035,7 @@
         <v>2</v>
       </c>
       <c r="Z15" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA15" s="20" t="s">
         <v>3</v>
@@ -6186,7 +6183,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C16" s="25">
         <v>14</v>
@@ -6198,7 +6195,7 @@
         <v>87</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G16" s="27">
         <v>5</v>
@@ -6207,19 +6204,19 @@
         <v>5</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N16" s="14" t="s">
         <v>22</v>
@@ -6231,7 +6228,7 @@
         <v>84</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R16" s="10" t="s">
         <v>36</v>
@@ -6246,7 +6243,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="V16" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W16" s="20" t="s">
         <v>27</v>
@@ -6258,7 +6255,7 @@
         <v>2</v>
       </c>
       <c r="Z16" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA16" s="20" t="s">
         <v>3</v>
@@ -6406,7 +6403,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C17" s="25">
         <v>15</v>
@@ -6418,7 +6415,7 @@
         <v>106</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G17" s="27">
         <v>1</v>
@@ -6427,19 +6424,19 @@
         <v>1</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N17" s="14" t="s">
         <v>22</v>
@@ -6451,7 +6448,7 @@
         <v>84</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R17" s="10" t="s">
         <v>38</v>
@@ -6466,7 +6463,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="V17" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W17" s="20" t="s">
         <v>80</v>
@@ -6478,7 +6475,7 @@
         <v>2</v>
       </c>
       <c r="Z17" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA17" s="20" t="s">
         <v>3</v>
@@ -6626,7 +6623,7 @@
         <v>75</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" s="25">
         <v>16</v>
@@ -6638,7 +6635,7 @@
         <v>90</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G18" s="27">
         <v>5</v>
@@ -6647,10 +6644,10 @@
         <v>5</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>85</v>
@@ -6662,7 +6659,7 @@
         <v>22</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>85</v>
@@ -6671,7 +6668,7 @@
         <v>84</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R18" s="10" t="s">
         <v>76</v>
@@ -6684,7 +6681,7 @@
       </c>
       <c r="U18" s="8"/>
       <c r="V18" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W18" s="20" t="s">
         <v>75</v>
@@ -6696,7 +6693,7 @@
         <v>2</v>
       </c>
       <c r="Z18" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA18" s="20" t="s">
         <v>3</v>
@@ -6841,22 +6838,22 @@
     </row>
     <row r="19" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C19" s="25">
         <v>20</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>82</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G19" s="27">
         <v>13</v>
@@ -6865,19 +6862,19 @@
         <v>13</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="L19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="N19" s="14" t="s">
         <v>22</v>
@@ -6889,7 +6886,7 @@
         <v>84</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R19" s="10" t="s">
         <v>55</v>
@@ -6902,19 +6899,19 @@
       </c>
       <c r="U19" s="8"/>
       <c r="V19" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W19" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X19" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y19" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z19" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA19" s="20" t="s">
         <v>3</v>
@@ -7062,19 +7059,19 @@
         <v>81</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="25">
         <v>22</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>82</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G20" s="27">
         <v>73</v>
@@ -7083,19 +7080,19 @@
         <v>76</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="L20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="N20" s="14" t="s">
         <v>22</v>
@@ -7107,7 +7104,7 @@
         <v>84</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R20" s="10" t="s">
         <v>44</v>
@@ -7122,7 +7119,7 @@
         <v>62</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W20" s="20" t="s">
         <v>81</v>
@@ -7134,7 +7131,7 @@
         <v>2</v>
       </c>
       <c r="Z20" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA20" s="20" t="s">
         <v>3</v>
@@ -7279,10 +7276,10 @@
     </row>
     <row r="21" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C21" s="25">
         <v>23</v>
@@ -7294,7 +7291,7 @@
         <v>91</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G21" s="27">
         <v>5</v>
@@ -7303,10 +7300,10 @@
         <v>5</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>85</v>
@@ -7318,7 +7315,7 @@
         <v>22</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>85</v>
@@ -7327,7 +7324,7 @@
         <v>84</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R21" s="10" t="s">
         <v>50</v>
@@ -7345,16 +7342,16 @@
         <v>26037535</v>
       </c>
       <c r="W21" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="X21" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Y21" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z21" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA21" s="20" t="s">
         <v>3</v>
@@ -7499,22 +7496,22 @@
     </row>
     <row r="22" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C22" s="25">
         <v>26</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G22" s="27">
         <v>7</v>
@@ -7523,10 +7520,10 @@
         <v>11</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>85</v>
@@ -7538,7 +7535,7 @@
         <v>22</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>85</v>
@@ -7547,7 +7544,7 @@
         <v>84</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R22" s="10" t="s">
         <v>62</v>
@@ -7565,16 +7562,16 @@
         <v>15085543</v>
       </c>
       <c r="W22" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="X22" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Y22" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z22" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA22" s="20" t="s">
         <v>3</v>
@@ -7722,7 +7719,7 @@
         <v>64</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C23" s="25">
         <v>27</v>
@@ -7734,7 +7731,7 @@
         <v>92</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G23" s="27">
         <v>3</v>
@@ -7743,19 +7740,19 @@
         <v>3</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>22</v>
@@ -7767,7 +7764,7 @@
         <v>84</v>
       </c>
       <c r="Q23" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R23" s="18" t="s">
         <v>43</v>
@@ -7780,7 +7777,7 @@
       </c>
       <c r="U23" s="8"/>
       <c r="V23" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W23" s="20" t="s">
         <v>64</v>
@@ -7792,7 +7789,7 @@
         <v>2</v>
       </c>
       <c r="Z23" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA23" s="20" t="s">
         <v>3</v>
@@ -7940,7 +7937,7 @@
         <v>78</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C24" s="25">
         <v>28</v>
@@ -7952,7 +7949,7 @@
         <v>93</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G24" s="27">
         <v>1</v>
@@ -7961,22 +7958,22 @@
         <v>2</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>85</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>85</v>
@@ -7985,20 +7982,20 @@
         <v>84</v>
       </c>
       <c r="Q24" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="T24" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U24" s="8"/>
       <c r="V24" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W24" s="20" t="s">
         <v>78</v>
@@ -8010,7 +8007,7 @@
         <v>2</v>
       </c>
       <c r="Z24" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA24" s="20" t="s">
         <v>3</v>
@@ -8155,10 +8152,10 @@
     </row>
     <row r="25" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>205</v>
+        <v>293</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C25" s="25">
         <v>36</v>
@@ -8167,10 +8164,10 @@
         <v>20</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G25" s="27">
         <v>1</v>
@@ -8182,53 +8179,53 @@
         <v>84</v>
       </c>
       <c r="J25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="L25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="M25" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="N25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="O25" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R25" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="S25" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="S25" s="10" t="s">
-        <v>179</v>
       </c>
       <c r="T25" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U25" s="8"/>
       <c r="V25" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W25" s="20" t="s">
-        <v>205</v>
+        <v>293</v>
       </c>
       <c r="X25" s="20" t="s">
-        <v>205</v>
+        <v>293</v>
       </c>
       <c r="Y25" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z25" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA25" s="20" t="s">
         <v>3</v>
@@ -8373,10 +8370,10 @@
     </row>
     <row r="26" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C26" s="25">
         <v>37</v>
@@ -8385,10 +8382,10 @@
         <v>20</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G26" s="25">
         <v>1</v>
@@ -8397,56 +8394,56 @@
         <v>1</v>
       </c>
       <c r="I26" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q26" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="T26" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U26" s="8"/>
       <c r="V26" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W26" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X26" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Y26" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z26" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA26" s="20" t="s">
         <v>3</v>
@@ -8591,10 +8588,10 @@
     </row>
     <row r="27" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C27" s="25">
         <v>40</v>
@@ -8603,10 +8600,10 @@
         <v>21</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G27" s="27">
         <v>1</v>
@@ -8615,22 +8612,22 @@
         <v>2</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>85</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>85</v>
@@ -8639,13 +8636,13 @@
         <v>84</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R27" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="T27" s="8" t="s">
         <v>43</v>
@@ -8654,19 +8651,19 @@
         <v>43</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W27" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X27" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y27" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z27" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA27" s="20" t="s">
         <v>3</v>
@@ -8811,10 +8808,10 @@
     </row>
     <row r="28" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C28" s="25">
         <v>42</v>
@@ -8826,7 +8823,7 @@
         <v>96</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G28" s="25">
         <v>1</v>
@@ -8835,19 +8832,19 @@
         <v>1</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K28" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L28" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N28" s="14" t="s">
         <v>22</v>
@@ -8856,10 +8853,10 @@
         <v>22</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q28" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R28" s="18" t="s">
         <v>43</v>
@@ -8872,19 +8869,19 @@
       </c>
       <c r="U28" s="7"/>
       <c r="V28" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W28" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X28" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y28" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z28" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA28" s="20" t="s">
         <v>3</v>
@@ -9029,10 +9026,10 @@
     </row>
     <row r="29" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C29" s="25">
         <v>43</v>
@@ -9041,10 +9038,10 @@
         <v>20</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G29" s="25">
         <v>5</v>
@@ -9053,19 +9050,19 @@
         <v>5</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N29" s="14" t="s">
         <v>22</v>
@@ -9074,10 +9071,10 @@
         <v>22</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R29" s="18" t="s">
         <v>43</v>
@@ -9090,19 +9087,19 @@
       </c>
       <c r="U29" s="8"/>
       <c r="V29" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W29" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X29" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y29" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z29" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA29" s="20" t="s">
         <v>3</v>
@@ -9262,7 +9259,7 @@
         <v>104</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G30" s="27">
         <v>2</v>
@@ -9274,13 +9271,13 @@
         <v>84</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>43</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>43</v>
@@ -9295,7 +9292,7 @@
         <v>84</v>
       </c>
       <c r="Q30" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R30" s="10" t="s">
         <v>79</v>
@@ -9310,7 +9307,7 @@
         <v>34</v>
       </c>
       <c r="V30" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W30" s="20" t="s">
         <v>25</v>
@@ -9322,7 +9319,7 @@
         <v>2</v>
       </c>
       <c r="Z30" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA30" s="20" t="s">
         <v>3</v>
@@ -9467,7 +9464,7 @@
     </row>
     <row r="31" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>84</v>
@@ -9482,7 +9479,7 @@
         <v>104</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G31" s="27">
         <v>2</v>
@@ -9494,16 +9491,16 @@
         <v>84</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M31" s="16" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N31" s="14" t="s">
         <v>22</v>
@@ -9515,7 +9512,7 @@
         <v>84</v>
       </c>
       <c r="Q31" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R31" s="10" t="s">
         <v>103</v>
@@ -9528,19 +9525,19 @@
       </c>
       <c r="U31" s="8"/>
       <c r="V31" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W31" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="X31" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y31" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z31" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA31" s="20" t="s">
         <v>3</v>
@@ -9685,10 +9682,10 @@
     </row>
     <row r="32" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C32" s="25">
         <v>46</v>
@@ -9700,7 +9697,7 @@
         <v>17</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G32" s="25">
         <v>1</v>
@@ -9709,31 +9706,31 @@
         <v>2</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q32" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R32" s="10" t="s">
         <v>67</v>
@@ -9746,19 +9743,19 @@
       </c>
       <c r="U32" s="8"/>
       <c r="V32" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W32" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="X32" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Y32" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z32" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA32" s="20" t="s">
         <v>3</v>
@@ -9903,10 +9900,10 @@
     </row>
     <row r="33" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C33" s="25">
         <v>47</v>
@@ -9915,10 +9912,10 @@
         <v>15</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G33" s="27">
         <v>1</v>
@@ -9951,13 +9948,13 @@
         <v>84</v>
       </c>
       <c r="Q33" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R33" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="S33" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="T33" s="8" t="s">
         <v>43</v>
@@ -9966,19 +9963,19 @@
         <v>43</v>
       </c>
       <c r="V33" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W33" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="X33" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Y33" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z33" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA33" s="20" t="s">
         <v>3</v>
@@ -10123,10 +10120,10 @@
     </row>
     <row r="34" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C34" s="25">
         <v>48</v>
@@ -10138,28 +10135,28 @@
         <v>105</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I34" s="29" t="s">
         <v>84</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K34" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M34" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>43</v>
@@ -10171,7 +10168,7 @@
         <v>84</v>
       </c>
       <c r="Q34" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R34" s="10" t="s">
         <v>67</v>
@@ -10184,19 +10181,19 @@
       </c>
       <c r="U34" s="8"/>
       <c r="V34" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W34" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="X34" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y34" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z34" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA34" s="20" t="s">
         <v>3</v>
@@ -10341,10 +10338,10 @@
     </row>
     <row r="35" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C35" s="25">
         <v>49</v>
@@ -10353,10 +10350,10 @@
         <v>15</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G35" s="25">
         <v>1</v>
@@ -10389,7 +10386,7 @@
         <v>84</v>
       </c>
       <c r="Q35" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R35" s="11" t="s">
         <v>43</v>
@@ -10402,19 +10399,19 @@
       </c>
       <c r="U35" s="8"/>
       <c r="V35" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W35" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="X35" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Y35" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z35" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA35" s="20" t="s">
         <v>3</v>
@@ -10559,10 +10556,10 @@
     </row>
     <row r="36" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C36" s="25">
         <v>50</v>
@@ -10571,16 +10568,16 @@
         <v>21</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I36" s="29" t="s">
         <v>84</v>
@@ -10607,32 +10604,32 @@
         <v>84</v>
       </c>
       <c r="Q36" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="T36" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U36" s="8"/>
       <c r="V36" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W36" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="X36" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Y36" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z36" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA36" s="20" t="s">
         <v>3</v>
@@ -10777,10 +10774,10 @@
     </row>
     <row r="37" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C37" s="25">
         <v>51</v>
@@ -10789,10 +10786,10 @@
         <v>21</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G37" s="25">
         <v>4</v>
@@ -10825,32 +10822,32 @@
         <v>84</v>
       </c>
       <c r="Q37" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R37" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="S37" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="S37" s="10" t="s">
-        <v>185</v>
       </c>
       <c r="T37" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U37" s="8"/>
       <c r="V37" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W37" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X37" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y37" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z37" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA37" s="20" t="s">
         <v>3</v>
@@ -10995,10 +10992,10 @@
     </row>
     <row r="38" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C38" s="25">
         <v>53</v>
@@ -11007,10 +11004,10 @@
         <v>15</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G38" s="27">
         <v>1</v>
@@ -11022,16 +11019,16 @@
         <v>84</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L38" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M38" s="16" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N38" s="14" t="s">
         <v>22</v>
@@ -11043,7 +11040,7 @@
         <v>84</v>
       </c>
       <c r="Q38" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R38" s="11" t="s">
         <v>43</v>
@@ -11056,19 +11053,19 @@
       </c>
       <c r="U38" s="8"/>
       <c r="V38" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W38" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="X38" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Y38" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z38" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA38" s="20" t="s">
         <v>3</v>
@@ -11213,10 +11210,10 @@
     </row>
     <row r="39" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C39" s="25">
         <v>54</v>
@@ -11225,10 +11222,10 @@
         <v>20</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G39" s="27">
         <v>3</v>
@@ -11240,16 +11237,16 @@
         <v>84</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N39" s="4" t="s">
         <v>43</v>
@@ -11261,7 +11258,7 @@
         <v>84</v>
       </c>
       <c r="Q39" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R39" s="10" t="s">
         <v>48</v>
@@ -11274,19 +11271,19 @@
       </c>
       <c r="U39" s="8"/>
       <c r="V39" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W39" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X39" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Y39" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z39" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA39" s="20" t="s">
         <v>3</v>
@@ -11431,10 +11428,10 @@
     </row>
     <row r="40" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C40" s="25">
         <v>55</v>
@@ -11446,13 +11443,13 @@
         <v>17</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I40" s="31" t="s">
         <v>84</v>
@@ -11479,7 +11476,7 @@
         <v>84</v>
       </c>
       <c r="Q40" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R40" s="10" t="s">
         <v>101</v>
@@ -11492,19 +11489,19 @@
       </c>
       <c r="U40" s="8"/>
       <c r="V40" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W40" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="X40" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y40" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z40" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA40" s="20" t="s">
         <v>3</v>
@@ -11649,10 +11646,10 @@
     </row>
     <row r="41" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C41" s="25">
         <v>56</v>
@@ -11664,7 +11661,7 @@
         <v>107</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G41" s="27">
         <v>3</v>
@@ -11673,19 +11670,19 @@
         <v>3</v>
       </c>
       <c r="I41" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M41" s="16" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N41" s="14" t="s">
         <v>22</v>
@@ -11697,7 +11694,7 @@
         <v>84</v>
       </c>
       <c r="Q41" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R41" s="10" t="s">
         <v>59</v>
@@ -11709,19 +11706,19 @@
         <v>43</v>
       </c>
       <c r="V41" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W41" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="X41" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Y41" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z41" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA41" s="20" t="s">
         <v>3</v>
@@ -11866,10 +11863,10 @@
     </row>
     <row r="42" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C42" s="25">
         <v>58</v>
@@ -11878,16 +11875,16 @@
         <v>15</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I42" s="31" t="s">
         <v>84</v>
@@ -11914,7 +11911,7 @@
         <v>84</v>
       </c>
       <c r="Q42" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R42" s="11" t="s">
         <v>43</v>
@@ -11927,19 +11924,19 @@
       </c>
       <c r="U42" s="8"/>
       <c r="V42" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W42" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="X42" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Y42" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z42" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA42" s="20" t="s">
         <v>3</v>
@@ -12084,10 +12081,10 @@
     </row>
     <row r="43" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C43" s="25">
         <v>59</v>
@@ -12096,16 +12093,16 @@
         <v>83</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I43" s="31" t="s">
         <v>84</v>
@@ -12132,31 +12129,31 @@
         <v>84</v>
       </c>
       <c r="Q43" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R43" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="S43" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="T43" s="8" t="s">
         <v>43</v>
       </c>
       <c r="V43" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W43" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="X43" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Y43" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z43" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA43" s="20" t="s">
         <v>3</v>
@@ -12301,10 +12298,10 @@
     </row>
     <row r="44" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C44" s="25">
         <v>60</v>
@@ -12313,10 +12310,10 @@
         <v>15</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G44" s="29">
         <v>1</v>
@@ -12349,7 +12346,7 @@
         <v>84</v>
       </c>
       <c r="Q44" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R44" s="11" t="s">
         <v>43</v>
@@ -12364,19 +12361,19 @@
         <v>43</v>
       </c>
       <c r="V44" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W44" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="X44" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Y44" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z44" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA44" s="20" t="s">
         <v>3</v>
@@ -12521,10 +12518,10 @@
     </row>
     <row r="45" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C45" s="25">
         <v>61</v>
@@ -12533,10 +12530,10 @@
         <v>15</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G45" s="29">
         <v>1</v>
@@ -12569,7 +12566,7 @@
         <v>84</v>
       </c>
       <c r="Q45" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R45" s="11" t="s">
         <v>43</v>
@@ -12584,19 +12581,19 @@
         <v>43</v>
       </c>
       <c r="V45" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W45" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="X45" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Y45" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z45" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA45" s="20" t="s">
         <v>3</v>
@@ -12741,10 +12738,10 @@
     </row>
     <row r="46" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C46" s="25">
         <v>62</v>
@@ -12753,10 +12750,10 @@
         <v>15</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G46" s="29">
         <v>1</v>
@@ -12789,7 +12786,7 @@
         <v>84</v>
       </c>
       <c r="Q46" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R46" s="11" t="s">
         <v>43</v>
@@ -12804,19 +12801,19 @@
         <v>43</v>
       </c>
       <c r="V46" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W46" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="X46" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Y46" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z46" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA46" s="20" t="s">
         <v>3</v>
@@ -12961,10 +12958,10 @@
     </row>
     <row r="47" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C47" s="25">
         <v>63</v>
@@ -12976,13 +12973,13 @@
         <v>17</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I47" s="31" t="s">
         <v>84</v>
@@ -13009,14 +13006,14 @@
         <v>84</v>
       </c>
       <c r="Q47" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R47" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="S47" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="S47" s="10" t="s">
-        <v>196</v>
-      </c>
       <c r="T47" s="8" t="s">
         <v>43</v>
       </c>
@@ -13024,19 +13021,19 @@
         <v>43</v>
       </c>
       <c r="V47" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W47" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="X47" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Y47" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z47" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA47" s="20" t="s">
         <v>3</v>
@@ -13181,10 +13178,10 @@
     </row>
     <row r="48" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C48" s="25">
         <v>64</v>
@@ -13196,13 +13193,13 @@
         <v>17</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I48" s="29" t="s">
         <v>84</v>
@@ -13229,7 +13226,7 @@
         <v>84</v>
       </c>
       <c r="Q48" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R48" s="11" t="s">
         <v>43</v>
@@ -13242,19 +13239,19 @@
       </c>
       <c r="U48" s="8"/>
       <c r="V48" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W48" s="20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="X48" s="20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Y48" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z48" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA48" s="20" t="s">
         <v>3</v>
@@ -13399,10 +13396,10 @@
     </row>
     <row r="49" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C49" s="25">
         <v>75</v>
@@ -13411,16 +13408,16 @@
         <v>15</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I49" s="29" t="s">
         <v>84</v>
@@ -13447,7 +13444,7 @@
         <v>84</v>
       </c>
       <c r="Q49" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R49" s="11" t="s">
         <v>43</v>
@@ -13460,19 +13457,19 @@
       </c>
       <c r="U49" s="8"/>
       <c r="V49" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W49" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="X49" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Y49" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z49" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA49" s="20" t="s">
         <v>3</v>
@@ -13617,10 +13614,10 @@
     </row>
     <row r="50" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C50" s="25">
         <v>76</v>
@@ -13629,16 +13626,16 @@
         <v>21</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I50" s="29" t="s">
         <v>84</v>
@@ -13665,7 +13662,7 @@
         <v>84</v>
       </c>
       <c r="Q50" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R50" s="11" t="s">
         <v>43</v>
@@ -13678,19 +13675,19 @@
       </c>
       <c r="U50" s="8"/>
       <c r="V50" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W50" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="X50" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Y50" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z50" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA50" s="20" t="s">
         <v>3</v>
@@ -13835,61 +13832,61 @@
     </row>
     <row r="51" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C51" s="25">
-        <v>87</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>15</v>
+        <v>86</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>171</v>
       </c>
       <c r="G51" s="25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H51" s="25">
-        <v>1</v>
-      </c>
-      <c r="I51" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M51" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N51" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O51" s="4" t="s">
-        <v>43</v>
+        <v>5</v>
+      </c>
+      <c r="I51" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="P51" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q51" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R51" s="10" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="S51" s="10" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="T51" s="8" t="s">
         <v>43</v>
@@ -13898,19 +13895,19 @@
         <v>43</v>
       </c>
       <c r="V51" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W51" s="20" t="s">
-        <v>270</v>
+        <v>174</v>
       </c>
       <c r="X51" s="20" t="s">
-        <v>270</v>
+        <v>174</v>
       </c>
       <c r="Y51" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z51" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA51" s="20" t="s">
         <v>3</v>
@@ -14055,22 +14052,22 @@
     </row>
     <row r="52" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C52" s="25">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G52" s="25">
         <v>1</v>
@@ -14099,13 +14096,17 @@
       <c r="O52" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="33"/>
+      <c r="P52" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q52" s="33" t="s">
+        <v>117</v>
+      </c>
       <c r="R52" s="10" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="S52" s="10" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="T52" s="8" t="s">
         <v>43</v>
@@ -14114,19 +14115,19 @@
         <v>43</v>
       </c>
       <c r="V52" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W52" s="20" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="X52" s="20" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="Y52" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z52" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA52" s="20" t="s">
         <v>3</v>
@@ -14271,61 +14272,57 @@
     </row>
     <row r="53" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C53" s="25">
-        <v>86</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>21</v>
+        <v>88</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>15</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>172</v>
+        <v>238</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>117</v>
       </c>
       <c r="G53" s="25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H53" s="25">
-        <v>5</v>
-      </c>
-      <c r="I53" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="O53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="P53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I53" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="Q53" s="33" t="s">
-        <v>118</v>
-      </c>
+      <c r="J53" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="33"/>
       <c r="R53" s="10" t="s">
-        <v>197</v>
+        <v>273</v>
       </c>
       <c r="S53" s="10" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="T53" s="8" t="s">
         <v>43</v>
@@ -14334,19 +14331,19 @@
         <v>43</v>
       </c>
       <c r="V53" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W53" s="20" t="s">
-        <v>175</v>
+        <v>274</v>
       </c>
       <c r="X53" s="20" t="s">
-        <v>175</v>
+        <v>274</v>
       </c>
       <c r="Y53" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z53" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA53" s="20" t="s">
         <v>3</v>
@@ -14491,10 +14488,10 @@
     </row>
     <row r="54" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C54" s="25">
         <v>92</v>
@@ -14503,10 +14500,10 @@
         <v>15</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G54" s="27">
         <v>1</v>
@@ -14514,7 +14511,9 @@
       <c r="H54" s="27">
         <v>1</v>
       </c>
-      <c r="I54" s="27"/>
+      <c r="I54" s="29" t="s">
+        <v>84</v>
+      </c>
       <c r="J54" s="4" t="s">
         <v>43</v>
       </c>
@@ -14537,13 +14536,13 @@
         <v>84</v>
       </c>
       <c r="Q54" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R54" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="S54" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="T54" s="8" t="s">
         <v>43</v>
@@ -14552,19 +14551,19 @@
         <v>43</v>
       </c>
       <c r="V54" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W54" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="X54" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Y54" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z54" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA54" s="20" t="s">
         <v>3</v>
@@ -14709,10 +14708,10 @@
     </row>
     <row r="55" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C55" s="25">
         <v>100</v>
@@ -14721,16 +14720,16 @@
         <v>15</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I55" s="29" t="s">
         <v>84</v>
@@ -14757,32 +14756,32 @@
         <v>84</v>
       </c>
       <c r="Q55" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R55" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="S55" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="T55" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U55" s="8"/>
       <c r="V55" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W55" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="X55" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Y55" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z55" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA55" s="20" t="s">
         <v>3</v>
@@ -14927,10 +14926,10 @@
     </row>
     <row r="56" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C56" s="25">
         <v>160</v>
@@ -14942,7 +14941,7 @@
         <v>40</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G56" s="25">
         <v>1</v>
@@ -14951,22 +14950,22 @@
         <v>1</v>
       </c>
       <c r="I56" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>42</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>42</v>
@@ -14975,31 +14974,31 @@
         <v>84</v>
       </c>
       <c r="Q56" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R56" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S56" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T56" s="8" t="s">
         <v>43</v>
       </c>
       <c r="V56" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W56" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="X56" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Y56" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z56" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA56" s="20" t="s">
         <v>3</v>
@@ -15144,10 +15143,10 @@
     </row>
     <row r="57" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C57" s="25">
         <v>162</v>
@@ -15156,10 +15155,10 @@
         <v>15</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G57" s="27">
         <v>1</v>
@@ -15168,22 +15167,22 @@
         <v>1</v>
       </c>
       <c r="I57" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>42</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>42</v>
@@ -15192,7 +15191,7 @@
         <v>84</v>
       </c>
       <c r="Q57" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R57" s="11" t="s">
         <v>43</v>
@@ -15208,16 +15207,16 @@
         <v>27377618</v>
       </c>
       <c r="W57" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="X57" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Y57" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z57" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA57" s="20" t="s">
         <v>3</v>
@@ -15362,10 +15361,10 @@
     </row>
     <row r="58" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C58" s="25">
         <v>163</v>
@@ -15374,10 +15373,10 @@
         <v>15</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G58" s="27">
         <v>1</v>
@@ -15386,22 +15385,22 @@
         <v>1</v>
       </c>
       <c r="I58" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>42</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>42</v>
@@ -15410,7 +15409,7 @@
         <v>84</v>
       </c>
       <c r="Q58" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R58" s="11" t="s">
         <v>43</v>
@@ -15426,16 +15425,16 @@
         <v>27377618</v>
       </c>
       <c r="W58" s="20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="X58" s="20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Y58" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z58" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA58" s="20" t="s">
         <v>3</v>
@@ -15580,10 +15579,10 @@
     </row>
     <row r="59" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C59" s="25">
         <v>164</v>
@@ -15592,10 +15591,10 @@
         <v>15</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G59" s="27">
         <v>1</v>
@@ -15604,22 +15603,22 @@
         <v>1</v>
       </c>
       <c r="I59" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>42</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>42</v>
@@ -15628,7 +15627,7 @@
         <v>84</v>
       </c>
       <c r="Q59" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R59" s="11" t="s">
         <v>43</v>
@@ -15644,16 +15643,16 @@
         <v>27377618</v>
       </c>
       <c r="W59" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="X59" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Y59" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z59" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA59" s="20" t="s">
         <v>3</v>
@@ -15798,10 +15797,10 @@
     </row>
     <row r="60" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C60" s="25">
         <v>174</v>
@@ -15810,10 +15809,10 @@
         <v>15</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G60" s="27">
         <v>1</v>
@@ -15822,7 +15821,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>43</v>
@@ -15846,14 +15845,14 @@
         <v>84</v>
       </c>
       <c r="Q60" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R60" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="S60" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="S60" s="10" t="s">
-        <v>177</v>
-      </c>
       <c r="T60" s="8" t="s">
         <v>43</v>
       </c>
@@ -15861,19 +15860,19 @@
         <v>43</v>
       </c>
       <c r="V60" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W60" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X60" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y60" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z60" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA60" s="20" t="s">
         <v>3</v>
@@ -16018,10 +16017,10 @@
     </row>
     <row r="61" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C61" s="25">
         <v>175</v>
@@ -16030,16 +16029,16 @@
         <v>15</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I61" s="29" t="s">
         <v>84</v>
@@ -16066,7 +16065,7 @@
         <v>84</v>
       </c>
       <c r="Q61" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R61" s="11" t="s">
         <v>43</v>
@@ -16079,19 +16078,19 @@
       </c>
       <c r="U61" s="8"/>
       <c r="V61" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W61" s="20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="X61" s="20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Y61" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z61" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA61" s="20" t="s">
         <v>3</v>
@@ -16236,10 +16235,10 @@
     </row>
     <row r="62" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C62" s="25">
         <v>176</v>
@@ -16248,16 +16247,16 @@
         <v>15</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I62" s="29" t="s">
         <v>84</v>
@@ -16284,7 +16283,7 @@
         <v>84</v>
       </c>
       <c r="Q62" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R62" s="11" t="s">
         <v>43</v>
@@ -16297,19 +16296,19 @@
       </c>
       <c r="U62" s="8"/>
       <c r="V62" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W62" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="X62" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Y62" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z62" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA62" s="20" t="s">
         <v>3</v>
@@ -16454,10 +16453,10 @@
     </row>
     <row r="63" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C63" s="25">
         <v>180</v>
@@ -16466,10 +16465,10 @@
         <v>15</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G63" s="27">
         <v>2</v>
@@ -16478,7 +16477,7 @@
         <v>2</v>
       </c>
       <c r="I63" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>43</v>
@@ -16502,14 +16501,14 @@
         <v>84</v>
       </c>
       <c r="Q63" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R63" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="S63" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="S63" s="10" t="s">
-        <v>187</v>
-      </c>
       <c r="T63" s="8" t="s">
         <v>43</v>
       </c>
@@ -16517,19 +16516,19 @@
         <v>43</v>
       </c>
       <c r="V63" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W63" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X63" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Y63" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z63" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA63" s="20" t="s">
         <v>3</v>
@@ -16674,10 +16673,10 @@
     </row>
     <row r="64" spans="1:164" s="26" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C64" s="25">
         <v>187</v>
@@ -16686,10 +16685,10 @@
         <v>15</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G64" s="25">
         <v>1</v>
@@ -16701,13 +16700,13 @@
         <v>84</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>43</v>
       </c>
       <c r="L64" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>43</v>
@@ -16722,13 +16721,13 @@
         <v>84</v>
       </c>
       <c r="Q64" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R64" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="S64" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="T64" s="8" t="s">
         <v>43</v>
@@ -16737,19 +16736,19 @@
         <v>43</v>
       </c>
       <c r="V64" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W64" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="X64" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Y64" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z64" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA64" s="20" t="s">
         <v>3</v>
@@ -16894,10 +16893,10 @@
     </row>
     <row r="65" spans="1:164" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C65" s="25">
         <v>190</v>
@@ -16909,7 +16908,7 @@
         <v>40</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G65" s="25">
         <v>1</v>
@@ -16942,32 +16941,32 @@
         <v>84</v>
       </c>
       <c r="Q65" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R65" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="S65" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="T65" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U65" s="7"/>
       <c r="V65" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W65" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="X65" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Y65" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z65" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA65" s="20" t="s">
         <v>3</v>
@@ -17112,10 +17111,10 @@
     </row>
     <row r="66" spans="1:164" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C66" s="25">
         <v>191</v>
@@ -17127,13 +17126,13 @@
         <v>40</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I66" s="29" t="s">
         <v>84</v>
@@ -17160,7 +17159,7 @@
         <v>84</v>
       </c>
       <c r="Q66" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R66" s="10" t="s">
         <v>72</v>
@@ -17173,19 +17172,19 @@
       </c>
       <c r="U66" s="7"/>
       <c r="V66" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W66" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="X66" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Y66" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z66" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA66" s="20" t="s">
         <v>3</v>
@@ -17330,10 +17329,10 @@
     </row>
     <row r="67" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C67" s="25">
         <v>192</v>
@@ -17345,13 +17344,13 @@
         <v>40</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I67" s="29" t="s">
         <v>84</v>
@@ -17378,7 +17377,7 @@
         <v>84</v>
       </c>
       <c r="Q67" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R67" s="10" t="s">
         <v>61</v>
@@ -17390,19 +17389,19 @@
         <v>43</v>
       </c>
       <c r="V67" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W67" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="X67" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Y67" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z67" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA67" s="20" t="s">
         <v>3</v>
@@ -17547,7 +17546,7 @@
     </row>
     <row r="68" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B68" s="25" t="s">
         <v>84</v>
@@ -17562,7 +17561,7 @@
         <v>94</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G68" s="29">
         <v>1</v>
@@ -17574,13 +17573,13 @@
         <v>84</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>85</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>85</v>
@@ -17595,7 +17594,7 @@
         <v>84</v>
       </c>
       <c r="Q68" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R68" s="11" t="s">
         <v>43</v>
@@ -17608,19 +17607,19 @@
       </c>
       <c r="U68" s="7"/>
       <c r="V68" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W68" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X68" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y68" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z68" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA68" s="20" t="s">
         <v>3</v>
@@ -17765,7 +17764,7 @@
     </row>
     <row r="69" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B69" s="25" t="s">
         <v>84</v>
@@ -17780,7 +17779,7 @@
         <v>94</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G69" s="29">
         <v>1</v>
@@ -17792,16 +17791,16 @@
         <v>84</v>
       </c>
       <c r="J69" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K69" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="K69" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="L69" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M69" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="M69" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="N69" s="14" t="s">
         <v>22</v>
@@ -17813,7 +17812,7 @@
         <v>84</v>
       </c>
       <c r="Q69" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R69" s="11" t="s">
         <v>43</v>
@@ -17825,19 +17824,19 @@
         <v>43</v>
       </c>
       <c r="V69" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W69" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X69" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y69" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z69" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA69" s="20" t="s">
         <v>3</v>
@@ -17982,7 +17981,7 @@
     </row>
     <row r="70" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B70" s="25" t="s">
         <v>84</v>
@@ -17997,7 +17996,7 @@
         <v>94</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G70" s="29">
         <v>1</v>
@@ -18009,13 +18008,13 @@
         <v>84</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>85</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>85</v>
@@ -18030,7 +18029,7 @@
         <v>84</v>
       </c>
       <c r="Q70" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R70" s="10" t="s">
         <v>53</v>
@@ -18043,19 +18042,19 @@
       </c>
       <c r="U70" s="7"/>
       <c r="V70" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W70" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X70" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y70" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z70" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA70" s="20" t="s">
         <v>3</v>
@@ -18200,21 +18199,21 @@
     </row>
     <row r="71" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C71" s="25">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="F71" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>192</v>
       </c>
       <c r="G71" s="27">
@@ -18223,8 +18222,8 @@
       <c r="H71" s="27">
         <v>1</v>
       </c>
-      <c r="I71" s="29" t="s">
-        <v>84</v>
+      <c r="I71" s="25" t="s">
+        <v>190</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>43</v>
@@ -18238,23 +18237,23 @@
       <c r="M71" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N71" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O71" s="14" t="s">
-        <v>22</v>
+      <c r="N71" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P71" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q71" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="R71" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S71" s="11" t="s">
-        <v>43</v>
+        <v>117</v>
+      </c>
+      <c r="R71" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="S71" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="T71" s="8" t="s">
         <v>43</v>
@@ -18263,19 +18262,19 @@
         <v>43</v>
       </c>
       <c r="V71" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W71" s="20" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="X71" s="20" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="Y71" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z71" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA71" s="20" t="s">
         <v>3</v>
@@ -18420,22 +18419,22 @@
     </row>
     <row r="72" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
-        <v>182</v>
+        <v>285</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C72" s="25">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D72" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G72" s="27">
         <v>1</v>
@@ -18444,7 +18443,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>43</v>
@@ -18468,14 +18467,14 @@
         <v>84</v>
       </c>
       <c r="Q72" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R72" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="S72" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="S72" s="10" t="s">
-        <v>181</v>
-      </c>
       <c r="T72" s="8" t="s">
         <v>43</v>
       </c>
@@ -18483,19 +18482,19 @@
         <v>43</v>
       </c>
       <c r="V72" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W72" s="20" t="s">
-        <v>182</v>
+        <v>285</v>
       </c>
       <c r="X72" s="20" t="s">
-        <v>182</v>
+        <v>285</v>
       </c>
       <c r="Y72" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z72" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA72" s="20" t="s">
         <v>3</v>
@@ -18640,13 +18639,13 @@
     </row>
     <row r="73" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C73" s="25">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D73" s="25" t="s">
         <v>15</v>
@@ -18654,8 +18653,8 @@
       <c r="E73" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>193</v>
+      <c r="F73" s="22" t="s">
+        <v>191</v>
       </c>
       <c r="G73" s="27">
         <v>1</v>
@@ -18663,8 +18662,8 @@
       <c r="H73" s="27">
         <v>1</v>
       </c>
-      <c r="I73" s="25" t="s">
-        <v>191</v>
+      <c r="I73" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>43</v>
@@ -18678,23 +18677,23 @@
       <c r="M73" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N73" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O73" s="4" t="s">
-        <v>43</v>
+      <c r="N73" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O73" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="P73" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q73" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="R73" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="S73" s="10" t="s">
-        <v>181</v>
+        <v>117</v>
+      </c>
+      <c r="R73" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S73" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T73" s="8" t="s">
         <v>43</v>
@@ -18703,19 +18702,19 @@
         <v>43</v>
       </c>
       <c r="V73" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W73" s="20" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="X73" s="20" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="Y73" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z73" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA73" s="20" t="s">
         <v>3</v>
@@ -18860,7 +18859,7 @@
     </row>
     <row r="74" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B74" s="25" t="s">
         <v>84</v>
@@ -18872,10 +18871,10 @@
         <v>15</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G74" s="27">
         <v>1</v>
@@ -18884,7 +18883,7 @@
         <v>1</v>
       </c>
       <c r="I74" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>43</v>
@@ -18893,10 +18892,10 @@
         <v>43</v>
       </c>
       <c r="L74" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M74" s="19" t="s">
         <v>132</v>
-      </c>
-      <c r="M74" s="19" t="s">
-        <v>133</v>
       </c>
       <c r="N74" s="14" t="s">
         <v>22</v>
@@ -18908,13 +18907,13 @@
         <v>84</v>
       </c>
       <c r="Q74" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R74" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S74" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T74" s="8" t="s">
         <v>43</v>
@@ -18923,19 +18922,19 @@
         <v>43</v>
       </c>
       <c r="V74" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W74" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X74" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Y74" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z74" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA74" s="20" t="s">
         <v>3</v>
@@ -19080,10 +19079,10 @@
     </row>
     <row r="75" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C75" s="25">
         <v>365</v>
@@ -19095,7 +19094,7 @@
         <v>95</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G75" s="25">
         <v>7</v>
@@ -19104,7 +19103,7 @@
         <v>7</v>
       </c>
       <c r="I75" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>43</v>
@@ -19128,13 +19127,13 @@
         <v>84</v>
       </c>
       <c r="Q75" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R75" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S75" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T75" s="8" t="s">
         <v>43</v>
@@ -19143,19 +19142,19 @@
         <v>43</v>
       </c>
       <c r="V75" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W75" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X75" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y75" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z75" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA75" s="20" t="s">
         <v>3</v>
@@ -19163,10 +19162,10 @@
     </row>
     <row r="76" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C76" s="25">
         <v>366</v>
@@ -19178,7 +19177,7 @@
         <v>95</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G76" s="25">
         <v>20</v>
@@ -19187,7 +19186,7 @@
         <v>20</v>
       </c>
       <c r="I76" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>43</v>
@@ -19211,13 +19210,13 @@
         <v>84</v>
       </c>
       <c r="Q76" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R76" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S76" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T76" s="8" t="s">
         <v>43</v>
@@ -19226,19 +19225,19 @@
         <v>43</v>
       </c>
       <c r="V76" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W76" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X76" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y76" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z76" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA76" s="20" t="s">
         <v>3</v>
@@ -19383,10 +19382,10 @@
     </row>
     <row r="77" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C77" s="25">
         <v>367</v>
@@ -19395,16 +19394,16 @@
         <v>21</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G77" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H77" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I77" s="25"/>
       <c r="J77" s="4" t="s">
@@ -19429,7 +19428,7 @@
         <v>84</v>
       </c>
       <c r="Q77" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R77" s="11" t="s">
         <v>43</v>
@@ -19442,19 +19441,19 @@
       </c>
       <c r="U77" s="7"/>
       <c r="V77" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W77" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="X77" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Y77" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z77" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA77" s="20" t="s">
         <v>3</v>
@@ -19599,10 +19598,10 @@
     </row>
     <row r="78" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C78" s="25">
         <v>368</v>
@@ -19611,16 +19610,16 @@
         <v>21</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F78" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G78" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H78" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I78" s="25"/>
       <c r="J78" s="4" t="s">
@@ -19645,7 +19644,7 @@
         <v>84</v>
       </c>
       <c r="Q78" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R78" s="11" t="s">
         <v>43</v>
@@ -19658,19 +19657,19 @@
       </c>
       <c r="U78" s="7"/>
       <c r="V78" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W78" s="20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="X78" s="20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Y78" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z78" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA78" s="20" t="s">
         <v>3</v>
@@ -19815,10 +19814,10 @@
     </row>
     <row r="79" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C79" s="25">
         <v>369</v>
@@ -19827,16 +19826,16 @@
         <v>15</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G79" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I79" s="25"/>
       <c r="J79" s="4" t="s">
@@ -19861,7 +19860,7 @@
         <v>84</v>
       </c>
       <c r="Q79" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R79" s="11" t="s">
         <v>43</v>
@@ -19874,19 +19873,19 @@
       </c>
       <c r="U79" s="7"/>
       <c r="V79" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W79" s="20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="X79" s="20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Y79" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z79" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA79" s="20" t="s">
         <v>3</v>
@@ -20031,10 +20030,10 @@
     </row>
     <row r="80" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C80" s="25">
         <v>370</v>
@@ -20043,10 +20042,10 @@
         <v>15</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G80" s="27">
         <v>1</v>
@@ -20055,13 +20054,13 @@
         <v>1</v>
       </c>
       <c r="I80" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K80" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L80" s="4" t="s">
         <v>43</v>
@@ -20079,7 +20078,7 @@
         <v>84</v>
       </c>
       <c r="Q80" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R80" s="11" t="s">
         <v>43</v>
@@ -20092,19 +20091,19 @@
       </c>
       <c r="U80" s="7"/>
       <c r="V80" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W80" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="X80" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Y80" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z80" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA80" s="20" t="s">
         <v>3</v>
@@ -20249,10 +20248,10 @@
     </row>
     <row r="81" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C81" s="25">
         <v>371</v>
@@ -20261,16 +20260,16 @@
         <v>15</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G81" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H81" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I81" s="25"/>
       <c r="J81" s="4" t="s">
@@ -20295,7 +20294,7 @@
         <v>84</v>
       </c>
       <c r="Q81" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R81" s="11" t="s">
         <v>43</v>
@@ -20308,19 +20307,19 @@
       </c>
       <c r="U81" s="7"/>
       <c r="V81" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W81" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="X81" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Y81" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z81" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA81" s="20" t="s">
         <v>3</v>
@@ -20465,10 +20464,10 @@
     </row>
     <row r="82" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C82" s="25">
         <v>372</v>
@@ -20477,16 +20476,16 @@
         <v>15</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G82" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H82" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I82" s="31" t="s">
         <v>84</v>
@@ -20513,32 +20512,32 @@
         <v>84</v>
       </c>
       <c r="Q82" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R82" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="S82" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="T82" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U82" s="7"/>
       <c r="V82" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W82" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="X82" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Y82" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z82" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA82" s="20" t="s">
         <v>3</v>
@@ -20683,10 +20682,10 @@
     </row>
     <row r="83" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C83" s="25">
         <v>500</v>
@@ -20695,10 +20694,10 @@
         <v>20</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G83" s="27">
         <v>1</v>
@@ -20707,19 +20706,19 @@
         <v>1</v>
       </c>
       <c r="I83" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K83" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L83" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M83" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N83" s="14" t="s">
         <v>22</v>
@@ -20731,7 +20730,7 @@
         <v>84</v>
       </c>
       <c r="Q83" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R83" s="11" t="s">
         <v>43</v>
@@ -20746,19 +20745,19 @@
         <v>43</v>
       </c>
       <c r="V83" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W83" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X83" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y83" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z83" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA83" s="20" t="s">
         <v>3</v>
@@ -20766,10 +20765,10 @@
     </row>
     <row r="84" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C84" s="25">
         <v>500</v>
@@ -20778,10 +20777,10 @@
         <v>20</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G84" s="27">
         <v>1</v>
@@ -20790,19 +20789,19 @@
         <v>1</v>
       </c>
       <c r="I84" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K84" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L84" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M84" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N84" s="14" t="s">
         <v>22</v>
@@ -20814,7 +20813,7 @@
         <v>84</v>
       </c>
       <c r="Q84" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R84" s="11" t="s">
         <v>43</v>
@@ -20829,19 +20828,19 @@
         <v>43</v>
       </c>
       <c r="V84" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W84" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X84" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y84" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z84" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA84" s="20" t="s">
         <v>3</v>
@@ -20849,10 +20848,10 @@
     </row>
     <row r="85" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C85" s="25">
         <v>500</v>
@@ -20861,10 +20860,10 @@
         <v>20</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F85" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G85" s="27">
         <v>1</v>
@@ -20873,19 +20872,19 @@
         <v>1</v>
       </c>
       <c r="I85" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J85" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K85" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L85" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M85" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N85" s="14" t="s">
         <v>22</v>
@@ -20897,7 +20896,7 @@
         <v>84</v>
       </c>
       <c r="Q85" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R85" s="11" t="s">
         <v>43</v>
@@ -20912,19 +20911,19 @@
         <v>43</v>
       </c>
       <c r="V85" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W85" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X85" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Y85" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z85" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA85" s="20" t="s">
         <v>3</v>

--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFD20D7-783D-094C-98A2-764620FE995C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697F1B98-457E-7540-9F28-4F96733C9501}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11040" yWindow="1100" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3404,13 +3405,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DACFF6-840F-D741-97EA-4F87EFFABC86}">
-  <dimension ref="A1:FH98"/>
+  <dimension ref="A1:FH97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F65" sqref="F65"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10992,28 +10993,28 @@
     </row>
     <row r="38" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C38" s="25">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F38" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="F38" s="23" t="s">
         <v>191</v>
       </c>
       <c r="G38" s="27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38" s="27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38" s="31" t="s">
         <v>84</v>
@@ -11030,11 +11031,11 @@
       <c r="M38" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="N38" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O38" s="14" t="s">
-        <v>22</v>
+      <c r="N38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P38" s="15" t="s">
         <v>84</v>
@@ -11042,11 +11043,11 @@
       <c r="Q38" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="R38" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S38" s="11" t="s">
-        <v>43</v>
+      <c r="R38" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S38" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="T38" s="8" t="s">
         <v>43</v>
@@ -11056,10 +11057,10 @@
         <v>214</v>
       </c>
       <c r="W38" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="X38" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y38" s="20" t="s">
         <v>2</v>
@@ -11210,61 +11211,61 @@
     </row>
     <row r="39" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B39" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C39" s="25">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="F39" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="G39" s="27">
-        <v>3</v>
-      </c>
-      <c r="H39" s="27">
-        <v>3</v>
+      <c r="G39" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>117</v>
       </c>
       <c r="I39" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="J39" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="K39" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L39" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="M39" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P39" s="15" t="s">
+      <c r="J39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N39" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O39" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P39" s="9" t="s">
         <v>84</v>
       </c>
       <c r="Q39" s="33" t="s">
         <v>117</v>
       </c>
       <c r="R39" s="10" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="S39" s="10" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="T39" s="8" t="s">
         <v>43</v>
@@ -11274,10 +11275,10 @@
         <v>214</v>
       </c>
       <c r="W39" s="20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X39" s="20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y39" s="20" t="s">
         <v>2</v>
@@ -11428,43 +11429,43 @@
     </row>
     <row r="40" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B40" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C40" s="25">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="F40" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="G40" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I40" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>43</v>
+      <c r="G40" s="27">
+        <v>3</v>
+      </c>
+      <c r="H40" s="27">
+        <v>3</v>
+      </c>
+      <c r="I40" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L40" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M40" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="N40" s="14" t="s">
         <v>22</v>
@@ -11472,30 +11473,29 @@
       <c r="O40" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P40" s="9" t="s">
+      <c r="P40" s="15" t="s">
         <v>84</v>
       </c>
       <c r="Q40" s="33" t="s">
         <v>117</v>
       </c>
       <c r="R40" s="10" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="T40" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U40" s="8"/>
       <c r="V40" s="8" t="s">
         <v>214</v>
       </c>
       <c r="W40" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X40" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y40" s="20" t="s">
         <v>2</v>
@@ -11646,49 +11646,49 @@
     </row>
     <row r="41" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="B41" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C41" s="25">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>107</v>
+        <v>253</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="G41" s="27">
-        <v>3</v>
-      </c>
-      <c r="H41" s="27">
-        <v>3</v>
-      </c>
-      <c r="I41" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="J41" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="K41" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L41" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="M41" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="N41" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O41" s="14" t="s">
-        <v>22</v>
+        <v>117</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I41" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P41" s="15" t="s">
         <v>84</v>
@@ -11696,23 +11696,24 @@
       <c r="Q41" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="R41" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="S41" s="10" t="s">
-        <v>60</v>
+      <c r="R41" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S41" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T41" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="U41" s="8"/>
       <c r="V41" s="8" t="s">
         <v>214</v>
       </c>
       <c r="W41" s="20" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="X41" s="20" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="Y41" s="20" t="s">
         <v>2</v>
@@ -11863,19 +11864,19 @@
     </row>
     <row r="42" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="B42" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C42" s="25">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="F42" s="22" t="s">
         <v>117</v>
@@ -11913,24 +11914,23 @@
       <c r="Q42" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="R42" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S42" s="11" t="s">
-        <v>43</v>
+      <c r="R42" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="S42" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="T42" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U42" s="8"/>
       <c r="V42" s="8" t="s">
         <v>214</v>
       </c>
       <c r="W42" s="20" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="X42" s="20" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="Y42" s="20" t="s">
         <v>2</v>
@@ -12081,30 +12081,30 @@
     </row>
     <row r="43" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="B43" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C43" s="25">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G43" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H43" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I43" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43" s="29">
+        <v>1</v>
+      </c>
+      <c r="H43" s="29">
+        <v>1</v>
+      </c>
+      <c r="I43" s="29" t="s">
         <v>84</v>
       </c>
       <c r="J43" s="4" t="s">
@@ -12125,29 +12125,32 @@
       <c r="O43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P43" s="15" t="s">
+      <c r="P43" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q43" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="R43" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="S43" s="10" t="s">
-        <v>237</v>
+      <c r="R43" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S43" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T43" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U43" s="8" t="s">
         <v>43</v>
       </c>
       <c r="V43" s="8" t="s">
         <v>214</v>
       </c>
       <c r="W43" s="20" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="X43" s="20" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="Y43" s="20" t="s">
         <v>2</v>
@@ -12298,13 +12301,13 @@
     </row>
     <row r="44" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B44" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C44" s="25">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D44" s="27" t="s">
         <v>15</v>
@@ -12364,10 +12367,10 @@
         <v>214</v>
       </c>
       <c r="W44" s="20" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="X44" s="20" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Y44" s="20" t="s">
         <v>2</v>
@@ -12518,13 +12521,13 @@
     </row>
     <row r="45" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B45" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C45" s="25">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D45" s="27" t="s">
         <v>15</v>
@@ -12584,10 +12587,10 @@
         <v>214</v>
       </c>
       <c r="W45" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X45" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Y45" s="20" t="s">
         <v>2</v>
@@ -12738,30 +12741,30 @@
     </row>
     <row r="46" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="B46" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C46" s="25">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="G46" s="29">
-        <v>1</v>
-      </c>
-      <c r="H46" s="29">
-        <v>1</v>
-      </c>
-      <c r="I46" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I46" s="31" t="s">
         <v>84</v>
       </c>
       <c r="J46" s="4" t="s">
@@ -12782,17 +12785,17 @@
       <c r="O46" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P46" s="4" t="s">
+      <c r="P46" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q46" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="R46" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S46" s="11" t="s">
-        <v>43</v>
+      <c r="Q46" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="R46" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="S46" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="T46" s="8" t="s">
         <v>43</v>
@@ -12804,10 +12807,10 @@
         <v>214</v>
       </c>
       <c r="W46" s="20" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="X46" s="20" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="Y46" s="20" t="s">
         <v>2</v>
@@ -12958,18 +12961,18 @@
     </row>
     <row r="47" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="B47" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C47" s="25">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D47" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E47" s="22" t="s">
         <v>17</v>
       </c>
       <c r="F47" s="22" t="s">
@@ -12981,7 +12984,7 @@
       <c r="H47" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="I47" s="31" t="s">
+      <c r="I47" s="29" t="s">
         <v>84</v>
       </c>
       <c r="J47" s="4" t="s">
@@ -13005,29 +13008,27 @@
       <c r="P47" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q47" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="R47" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="S47" s="10" t="s">
-        <v>195</v>
+      <c r="Q47" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="R47" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S47" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T47" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U47" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="U47" s="8"/>
       <c r="V47" s="8" t="s">
         <v>214</v>
       </c>
       <c r="W47" s="20" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="X47" s="20" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="Y47" s="20" t="s">
         <v>2</v>
@@ -13178,19 +13179,19 @@
     </row>
     <row r="48" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="B48" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C48" s="25">
-        <v>64</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>14</v>
+        <v>75</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>15</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>17</v>
+        <v>269</v>
       </c>
       <c r="F48" s="22" t="s">
         <v>117</v>
@@ -13242,10 +13243,10 @@
         <v>214</v>
       </c>
       <c r="W48" s="20" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="X48" s="20" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="Y48" s="20" t="s">
         <v>2</v>
@@ -13396,19 +13397,19 @@
     </row>
     <row r="49" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B49" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C49" s="25">
-        <v>75</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>15</v>
+        <v>76</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>269</v>
+        <v>166</v>
       </c>
       <c r="F49" s="22" t="s">
         <v>117</v>
@@ -13440,7 +13441,7 @@
       <c r="O49" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="P49" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q49" s="33" t="s">
@@ -13460,10 +13461,10 @@
         <v>214</v>
       </c>
       <c r="W49" s="20" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="X49" s="20" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Y49" s="20" t="s">
         <v>2</v>
@@ -13614,74 +13615,76 @@
     </row>
     <row r="50" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="B50" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C50" s="25">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D50" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H50" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I50" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N50" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O50" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P50" s="4" t="s">
+      <c r="E50" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G50" s="25">
+        <v>5</v>
+      </c>
+      <c r="H50" s="25">
+        <v>5</v>
+      </c>
+      <c r="I50" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P50" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q50" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="R50" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S50" s="11" t="s">
-        <v>43</v>
+      <c r="R50" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="S50" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="T50" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U50" s="8"/>
+      <c r="U50" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="V50" s="8" t="s">
         <v>214</v>
       </c>
       <c r="W50" s="20" t="s">
-        <v>260</v>
+        <v>174</v>
       </c>
       <c r="X50" s="20" t="s">
-        <v>260</v>
+        <v>174</v>
       </c>
       <c r="Y50" s="20" t="s">
         <v>2</v>
@@ -13832,49 +13835,49 @@
     </row>
     <row r="51" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="B51" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C51" s="25">
-        <v>86</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>21</v>
+        <v>87</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>15</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>171</v>
+        <v>238</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>117</v>
       </c>
       <c r="G51" s="25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H51" s="25">
-        <v>5</v>
-      </c>
-      <c r="I51" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="N51" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="O51" s="3" t="s">
-        <v>85</v>
+        <v>1</v>
+      </c>
+      <c r="I51" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P51" s="3" t="s">
         <v>84</v>
@@ -13883,10 +13886,10 @@
         <v>117</v>
       </c>
       <c r="R51" s="10" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="S51" s="10" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="T51" s="8" t="s">
         <v>43</v>
@@ -13898,10 +13901,10 @@
         <v>214</v>
       </c>
       <c r="W51" s="20" t="s">
-        <v>174</v>
+        <v>268</v>
       </c>
       <c r="X51" s="20" t="s">
-        <v>174</v>
+        <v>268</v>
       </c>
       <c r="Y51" s="20" t="s">
         <v>2</v>
@@ -14052,13 +14055,13 @@
     </row>
     <row r="52" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B52" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C52" s="25">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>15</v>
@@ -14096,17 +14099,13 @@
       <c r="O52" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q52" s="33" t="s">
-        <v>117</v>
-      </c>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="33"/>
       <c r="R52" s="10" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="S52" s="10" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="T52" s="8" t="s">
         <v>43</v>
@@ -14118,10 +14117,10 @@
         <v>214</v>
       </c>
       <c r="W52" s="20" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="X52" s="20" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Y52" s="20" t="s">
         <v>2</v>
@@ -14272,27 +14271,27 @@
     </row>
     <row r="53" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
-        <v>277</v>
+        <v>211</v>
       </c>
       <c r="B53" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C53" s="25">
-        <v>88</v>
-      </c>
-      <c r="D53" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>238</v>
+        <v>158</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G53" s="25">
+        <v>191</v>
+      </c>
+      <c r="G53" s="27">
         <v>1</v>
       </c>
-      <c r="H53" s="25">
+      <c r="H53" s="27">
         <v>1</v>
       </c>
       <c r="I53" s="29" t="s">
@@ -14316,13 +14315,17 @@
       <c r="O53" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="33"/>
+      <c r="P53" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q53" s="34" t="s">
+        <v>190</v>
+      </c>
       <c r="R53" s="10" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="S53" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="T53" s="8" t="s">
         <v>43</v>
@@ -14334,10 +14337,10 @@
         <v>214</v>
       </c>
       <c r="W53" s="20" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="X53" s="20" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="Y53" s="20" t="s">
         <v>2</v>
@@ -14488,28 +14491,28 @@
     </row>
     <row r="54" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
-        <v>211</v>
+        <v>275</v>
       </c>
       <c r="B54" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C54" s="25">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D54" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>158</v>
+        <v>276</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="G54" s="27">
-        <v>1</v>
-      </c>
-      <c r="H54" s="27">
-        <v>1</v>
+        <v>117</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>117</v>
       </c>
       <c r="I54" s="29" t="s">
         <v>84</v>
@@ -14532,32 +14535,30 @@
       <c r="O54" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P54" s="3" t="s">
+      <c r="P54" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q54" s="34" t="s">
-        <v>190</v>
+      <c r="Q54" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="R54" s="10" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="S54" s="10" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="T54" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U54" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="U54" s="8"/>
       <c r="V54" s="8" t="s">
         <v>214</v>
       </c>
       <c r="W54" s="20" t="s">
-        <v>211</v>
+        <v>275</v>
       </c>
       <c r="X54" s="20" t="s">
-        <v>211</v>
+        <v>275</v>
       </c>
       <c r="Y54" s="20" t="s">
         <v>2</v>
@@ -14708,74 +14709,73 @@
     </row>
     <row r="55" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="B55" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C55" s="25">
-        <v>100</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>276</v>
+        <v>160</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G55" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H55" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I55" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="G55" s="25">
+        <v>1</v>
+      </c>
+      <c r="H55" s="25">
+        <v>1</v>
+      </c>
+      <c r="I55" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P55" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J55" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M55" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N55" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O55" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P55" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q55" s="33" t="s">
-        <v>117</v>
+      <c r="Q55" s="10" t="s">
+        <v>190</v>
       </c>
       <c r="R55" s="10" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="S55" s="10" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="T55" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U55" s="8"/>
       <c r="V55" s="8" t="s">
         <v>214</v>
       </c>
       <c r="W55" s="20" t="s">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="X55" s="20" t="s">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="Y55" s="20" t="s">
         <v>2</v>
@@ -14926,33 +14926,33 @@
     </row>
     <row r="56" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="B56" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C56" s="25">
-        <v>160</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F56" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F56" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="G56" s="25">
+      <c r="G56" s="27">
         <v>1</v>
       </c>
-      <c r="H56" s="25">
+      <c r="H56" s="27">
         <v>1</v>
       </c>
       <c r="I56" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="J56" s="13" t="s">
+      <c r="J56" s="3" t="s">
         <v>129</v>
       </c>
       <c r="K56" s="3" t="s">
@@ -14973,26 +14973,27 @@
       <c r="P56" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q56" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="R56" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="S56" s="10" t="s">
-        <v>193</v>
+      <c r="Q56" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="R56" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S56" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T56" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="V56" s="8" t="s">
-        <v>214</v>
+      <c r="U56" s="8"/>
+      <c r="V56" s="25">
+        <v>27377618</v>
       </c>
       <c r="W56" s="20" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="X56" s="20" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="Y56" s="20" t="s">
         <v>2</v>
@@ -15143,13 +15144,13 @@
     </row>
     <row r="57" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B57" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C57" s="25">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D57" s="27" t="s">
         <v>15</v>
@@ -15207,10 +15208,10 @@
         <v>27377618</v>
       </c>
       <c r="W57" s="20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="X57" s="20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y57" s="20" t="s">
         <v>2</v>
@@ -15361,13 +15362,13 @@
     </row>
     <row r="58" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B58" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C58" s="25">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D58" s="27" t="s">
         <v>15</v>
@@ -15425,10 +15426,10 @@
         <v>27377618</v>
       </c>
       <c r="W58" s="20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="X58" s="20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Y58" s="20" t="s">
         <v>2</v>
@@ -15579,19 +15580,19 @@
     </row>
     <row r="59" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
-        <v>280</v>
+        <v>165</v>
       </c>
       <c r="B59" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C59" s="25">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D59" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>157</v>
+      <c r="E59" s="23" t="s">
+        <v>154</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>171</v>
@@ -15605,48 +15606,50 @@
       <c r="I59" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>42</v>
+      <c r="J59" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q59" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="R59" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S59" s="11" t="s">
-        <v>43</v>
+      <c r="Q59" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="R59" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="S59" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="T59" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U59" s="8"/>
-      <c r="V59" s="25">
-        <v>27377618</v>
+      <c r="U59" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V59" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="W59" s="20" t="s">
-        <v>280</v>
+        <v>165</v>
       </c>
       <c r="X59" s="20" t="s">
-        <v>280</v>
+        <v>165</v>
       </c>
       <c r="Y59" s="20" t="s">
         <v>2</v>
@@ -15797,31 +15800,31 @@
     </row>
     <row r="60" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
-        <v>165</v>
+        <v>281</v>
       </c>
       <c r="B60" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C60" s="25">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F60" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="G60" s="27">
-        <v>1</v>
-      </c>
-      <c r="H60" s="27">
-        <v>1</v>
-      </c>
-      <c r="I60" s="27" t="s">
-        <v>190</v>
+        <v>283</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I60" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>43</v>
@@ -15841,32 +15844,30 @@
       <c r="O60" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P60" s="3" t="s">
+      <c r="P60" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q60" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="R60" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="S60" s="10" t="s">
-        <v>176</v>
+      <c r="R60" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S60" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T60" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U60" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="U60" s="8"/>
       <c r="V60" s="8" t="s">
         <v>214</v>
       </c>
       <c r="W60" s="20" t="s">
-        <v>165</v>
+        <v>281</v>
       </c>
       <c r="X60" s="20" t="s">
-        <v>165</v>
+        <v>281</v>
       </c>
       <c r="Y60" s="20" t="s">
         <v>2</v>
@@ -16017,19 +16018,19 @@
     </row>
     <row r="61" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B61" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C61" s="25">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F61" s="22" t="s">
         <v>117</v>
@@ -16081,10 +16082,10 @@
         <v>214</v>
       </c>
       <c r="W61" s="20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="X61" s="20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y61" s="20" t="s">
         <v>2</v>
@@ -16233,33 +16234,33 @@
       <c r="FG61" s="24"/>
       <c r="FH61" s="24"/>
     </row>
-    <row r="62" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
-        <v>282</v>
+        <v>222</v>
       </c>
       <c r="B62" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C62" s="25">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D62" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="F62" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G62" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H62" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I62" s="29" t="s">
-        <v>84</v>
+        <v>168</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G62" s="27">
+        <v>2</v>
+      </c>
+      <c r="H62" s="27">
+        <v>2</v>
+      </c>
+      <c r="I62" s="27" t="s">
+        <v>190</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>43</v>
@@ -16279,30 +16280,32 @@
       <c r="O62" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P62" s="4" t="s">
+      <c r="P62" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q62" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="R62" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S62" s="11" t="s">
-        <v>43</v>
+      <c r="R62" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="S62" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="T62" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U62" s="8"/>
+      <c r="U62" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="V62" s="8" t="s">
         <v>214</v>
       </c>
       <c r="W62" s="20" t="s">
-        <v>282</v>
+        <v>167</v>
       </c>
       <c r="X62" s="20" t="s">
-        <v>282</v>
+        <v>167</v>
       </c>
       <c r="Y62" s="20" t="s">
         <v>2</v>
@@ -16451,51 +16454,51 @@
       <c r="FG62" s="24"/>
       <c r="FH62" s="24"/>
     </row>
-    <row r="63" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:164" s="26" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="B63" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C63" s="25">
-        <v>180</v>
-      </c>
-      <c r="D63" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="F63" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="G63" s="27">
-        <v>2</v>
-      </c>
-      <c r="H63" s="27">
-        <v>2</v>
-      </c>
-      <c r="I63" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>43</v>
+      <c r="E63" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G63" s="25">
+        <v>1</v>
+      </c>
+      <c r="H63" s="25">
+        <v>1</v>
+      </c>
+      <c r="I63" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="K63" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L63" s="4" t="s">
-        <v>43</v>
+      <c r="L63" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N63" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O63" s="4" t="s">
-        <v>43</v>
+      <c r="N63" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O63" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>84</v>
@@ -16504,10 +16507,10 @@
         <v>117</v>
       </c>
       <c r="R63" s="10" t="s">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="S63" s="10" t="s">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="T63" s="8" t="s">
         <v>43</v>
@@ -16519,10 +16522,10 @@
         <v>214</v>
       </c>
       <c r="W63" s="20" t="s">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="X63" s="20" t="s">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="Y63" s="20" t="s">
         <v>2</v>
@@ -16671,23 +16674,23 @@
       <c r="FG63" s="24"/>
       <c r="FH63" s="24"/>
     </row>
-    <row r="64" spans="1:164" s="26" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:164" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B64" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C64" s="25">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="F64" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" s="22" t="s">
         <v>191</v>
       </c>
       <c r="G64" s="25">
@@ -16699,23 +16702,23 @@
       <c r="I64" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="J64" s="13" t="s">
-        <v>129</v>
+      <c r="J64" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L64" s="13" t="s">
-        <v>129</v>
+      <c r="L64" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N64" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O64" s="14" t="s">
-        <v>22</v>
+      <c r="N64" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O64" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P64" s="3" t="s">
         <v>84</v>
@@ -16724,25 +16727,23 @@
         <v>117</v>
       </c>
       <c r="R64" s="10" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="S64" s="10" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="T64" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U64" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="U64" s="7"/>
       <c r="V64" s="8" t="s">
         <v>214</v>
       </c>
       <c r="W64" s="20" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="X64" s="20" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="Y64" s="20" t="s">
         <v>2</v>
@@ -16891,15 +16892,15 @@
       <c r="FG64" s="24"/>
       <c r="FH64" s="24"/>
     </row>
-    <row r="65" spans="1:164" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:164" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="B65" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C65" s="25">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="25" t="s">
         <v>14</v>
@@ -16910,11 +16911,11 @@
       <c r="F65" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="G65" s="25">
-        <v>1</v>
-      </c>
-      <c r="H65" s="25">
-        <v>1</v>
+      <c r="G65" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="H65" s="25" t="s">
+        <v>117</v>
       </c>
       <c r="I65" s="29" t="s">
         <v>84</v>
@@ -16944,10 +16945,10 @@
         <v>117</v>
       </c>
       <c r="R65" s="10" t="s">
-        <v>242</v>
+        <v>72</v>
       </c>
       <c r="S65" s="10" t="s">
-        <v>243</v>
+        <v>73</v>
       </c>
       <c r="T65" s="8" t="s">
         <v>43</v>
@@ -17109,15 +17110,15 @@
       <c r="FG65" s="24"/>
       <c r="FH65" s="24"/>
     </row>
-    <row r="66" spans="1:164" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B66" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C66" s="25">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="25" t="s">
         <v>14</v>
@@ -17162,23 +17163,22 @@
         <v>117</v>
       </c>
       <c r="R66" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="S66" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T66" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U66" s="7"/>
       <c r="V66" s="8" t="s">
         <v>214</v>
       </c>
       <c r="W66" s="20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X66" s="20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y66" s="20" t="s">
         <v>2</v>
@@ -17327,51 +17327,51 @@
       <c r="FG66" s="24"/>
       <c r="FH66" s="24"/>
     </row>
-    <row r="67" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>190</v>
+        <v>84</v>
       </c>
       <c r="C67" s="25">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F67" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="G67" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H67" s="25" t="s">
-        <v>117</v>
+      <c r="G67" s="29">
+        <v>1</v>
+      </c>
+      <c r="H67" s="29">
+        <v>1</v>
       </c>
       <c r="I67" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="J67" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M67" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N67" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O67" s="4" t="s">
-        <v>43</v>
+      <c r="J67" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N67" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O67" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="P67" s="3" t="s">
         <v>84</v>
@@ -17379,23 +17379,24 @@
       <c r="Q67" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="R67" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="S67" s="10" t="s">
-        <v>71</v>
+      <c r="R67" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S67" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T67" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="U67" s="7"/>
       <c r="V67" s="8" t="s">
         <v>214</v>
       </c>
       <c r="W67" s="20" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="X67" s="20" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="Y67" s="20" t="s">
         <v>2</v>
@@ -17546,13 +17547,13 @@
     </row>
     <row r="68" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B68" s="25" t="s">
         <v>84</v>
       </c>
       <c r="C68" s="25">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="25" t="s">
         <v>15</v>
@@ -17572,17 +17573,17 @@
       <c r="I68" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>85</v>
+      <c r="J68" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="N68" s="14" t="s">
         <v>22</v>
@@ -17605,15 +17606,14 @@
       <c r="T68" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U68" s="7"/>
       <c r="V68" s="8" t="s">
         <v>214</v>
       </c>
       <c r="W68" s="20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="X68" s="20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y68" s="20" t="s">
         <v>2</v>
@@ -17764,13 +17764,13 @@
     </row>
     <row r="69" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B69" s="25" t="s">
         <v>84</v>
       </c>
       <c r="C69" s="25">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="25" t="s">
         <v>15</v>
@@ -17790,17 +17790,17 @@
       <c r="I69" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="J69" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M69" s="3" t="s">
-        <v>132</v>
+      <c r="J69" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="N69" s="14" t="s">
         <v>22</v>
@@ -17814,23 +17814,24 @@
       <c r="Q69" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="R69" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S69" s="11" t="s">
-        <v>43</v>
+      <c r="R69" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="S69" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="T69" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="U69" s="7"/>
       <c r="V69" s="8" t="s">
         <v>214</v>
       </c>
       <c r="W69" s="20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="X69" s="20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y69" s="20" t="s">
         <v>2</v>
@@ -17981,49 +17982,49 @@
     </row>
     <row r="70" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>84</v>
+        <v>190</v>
       </c>
       <c r="C70" s="25">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D70" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E70" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F70" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="G70" s="29">
+      <c r="E70" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G70" s="27">
         <v>1</v>
       </c>
-      <c r="H70" s="29">
+      <c r="H70" s="27">
         <v>1</v>
       </c>
-      <c r="I70" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N70" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O70" s="14" t="s">
-        <v>22</v>
+      <c r="I70" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P70" s="3" t="s">
         <v>84</v>
@@ -18032,23 +18033,25 @@
         <v>117</v>
       </c>
       <c r="R70" s="10" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="S70" s="10" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="T70" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U70" s="7"/>
+      <c r="U70" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="V70" s="8" t="s">
         <v>214</v>
       </c>
       <c r="W70" s="20" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="X70" s="20" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="Y70" s="20" t="s">
         <v>2</v>
@@ -18199,13 +18202,13 @@
     </row>
     <row r="71" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
-        <v>181</v>
+        <v>285</v>
       </c>
       <c r="B71" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C71" s="25">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>15</v>
@@ -18265,10 +18268,10 @@
         <v>214</v>
       </c>
       <c r="W71" s="20" t="s">
-        <v>181</v>
+        <v>285</v>
       </c>
       <c r="X71" s="20" t="s">
-        <v>181</v>
+        <v>285</v>
       </c>
       <c r="Y71" s="20" t="s">
         <v>2</v>
@@ -18419,22 +18422,22 @@
     </row>
     <row r="72" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
-        <v>285</v>
+        <v>218</v>
       </c>
       <c r="B72" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C72" s="25">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D72" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>192</v>
+        <v>146</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>191</v>
       </c>
       <c r="G72" s="27">
         <v>1</v>
@@ -18442,8 +18445,8 @@
       <c r="H72" s="27">
         <v>1</v>
       </c>
-      <c r="I72" s="25" t="s">
-        <v>190</v>
+      <c r="I72" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>43</v>
@@ -18457,11 +18460,11 @@
       <c r="M72" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N72" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O72" s="4" t="s">
-        <v>43</v>
+      <c r="N72" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O72" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>84</v>
@@ -18469,11 +18472,11 @@
       <c r="Q72" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="R72" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="S72" s="10" t="s">
-        <v>180</v>
+      <c r="R72" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S72" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T72" s="8" t="s">
         <v>43</v>
@@ -18485,10 +18488,10 @@
         <v>214</v>
       </c>
       <c r="W72" s="20" t="s">
-        <v>285</v>
+        <v>218</v>
       </c>
       <c r="X72" s="20" t="s">
-        <v>285</v>
+        <v>218</v>
       </c>
       <c r="Y72" s="20" t="s">
         <v>2</v>
@@ -18639,19 +18642,19 @@
     </row>
     <row r="73" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>190</v>
+        <v>84</v>
       </c>
       <c r="C73" s="25">
-        <v>203</v>
-      </c>
-      <c r="D73" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="D73" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F73" s="22" t="s">
         <v>191</v>
@@ -18662,8 +18665,8 @@
       <c r="H73" s="27">
         <v>1</v>
       </c>
-      <c r="I73" s="29" t="s">
-        <v>84</v>
+      <c r="I73" s="25" t="s">
+        <v>190</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>43</v>
@@ -18672,10 +18675,10 @@
         <v>43</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M73" s="4" t="s">
-        <v>43</v>
+        <v>131</v>
+      </c>
+      <c r="M73" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="N73" s="14" t="s">
         <v>22</v>
@@ -18689,11 +18692,11 @@
       <c r="Q73" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="R73" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S73" s="11" t="s">
-        <v>43</v>
+      <c r="R73" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="S73" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="T73" s="8" t="s">
         <v>43</v>
@@ -18705,10 +18708,10 @@
         <v>214</v>
       </c>
       <c r="W73" s="20" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="X73" s="20" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="Y73" s="20" t="s">
         <v>2</v>
@@ -18859,28 +18862,28 @@
     </row>
     <row r="74" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>84</v>
+        <v>190</v>
       </c>
       <c r="C74" s="25">
-        <v>221</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" s="23" t="s">
-        <v>152</v>
+        <v>365</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="F74" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="G74" s="27">
-        <v>1</v>
-      </c>
-      <c r="H74" s="27">
-        <v>1</v>
+      <c r="G74" s="25">
+        <v>7</v>
+      </c>
+      <c r="H74" s="25">
+        <v>7</v>
       </c>
       <c r="I74" s="25" t="s">
         <v>190</v>
@@ -18892,10 +18895,10 @@
         <v>43</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M74" s="19" t="s">
-        <v>132</v>
+        <v>43</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="N74" s="14" t="s">
         <v>22</v>
@@ -18910,10 +18913,10 @@
         <v>117</v>
       </c>
       <c r="R74" s="10" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="S74" s="10" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="T74" s="8" t="s">
         <v>43</v>
@@ -18925,10 +18928,10 @@
         <v>214</v>
       </c>
       <c r="W74" s="20" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="X74" s="20" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="Y74" s="20" t="s">
         <v>2</v>
@@ -18939,153 +18942,16 @@
       <c r="AA74" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AB74" s="24"/>
-      <c r="AC74" s="24"/>
-      <c r="AD74" s="24"/>
-      <c r="AE74" s="24"/>
-      <c r="AF74" s="24"/>
-      <c r="AG74" s="24"/>
-      <c r="AH74" s="24"/>
-      <c r="AI74" s="24"/>
-      <c r="AJ74" s="24"/>
-      <c r="AK74" s="24"/>
-      <c r="AL74" s="24"/>
-      <c r="AM74" s="24"/>
-      <c r="AN74" s="24"/>
-      <c r="AO74" s="24"/>
-      <c r="AP74" s="24"/>
-      <c r="AQ74" s="24"/>
-      <c r="AR74" s="24"/>
-      <c r="AS74" s="24"/>
-      <c r="AT74" s="24"/>
-      <c r="AU74" s="24"/>
-      <c r="AV74" s="24"/>
-      <c r="AW74" s="24"/>
-      <c r="AX74" s="24"/>
-      <c r="AY74" s="24"/>
-      <c r="AZ74" s="24"/>
-      <c r="BA74" s="24"/>
-      <c r="BB74" s="24"/>
-      <c r="BC74" s="24"/>
-      <c r="BD74" s="24"/>
-      <c r="BE74" s="24"/>
-      <c r="BF74" s="24"/>
-      <c r="BG74" s="24"/>
-      <c r="BH74" s="24"/>
-      <c r="BI74" s="24"/>
-      <c r="BJ74" s="24"/>
-      <c r="BK74" s="24"/>
-      <c r="BL74" s="24"/>
-      <c r="BM74" s="24"/>
-      <c r="BN74" s="24"/>
-      <c r="BO74" s="24"/>
-      <c r="BP74" s="24"/>
-      <c r="BQ74" s="24"/>
-      <c r="BR74" s="24"/>
-      <c r="BS74" s="24"/>
-      <c r="BT74" s="24"/>
-      <c r="BU74" s="24"/>
-      <c r="BV74" s="24"/>
-      <c r="BW74" s="24"/>
-      <c r="BX74" s="24"/>
-      <c r="BY74" s="24"/>
-      <c r="BZ74" s="24"/>
-      <c r="CA74" s="24"/>
-      <c r="CB74" s="24"/>
-      <c r="CC74" s="24"/>
-      <c r="CD74" s="24"/>
-      <c r="CE74" s="24"/>
-      <c r="CF74" s="24"/>
-      <c r="CG74" s="24"/>
-      <c r="CH74" s="24"/>
-      <c r="CI74" s="24"/>
-      <c r="CJ74" s="24"/>
-      <c r="CK74" s="24"/>
-      <c r="CL74" s="24"/>
-      <c r="CM74" s="24"/>
-      <c r="CN74" s="24"/>
-      <c r="CO74" s="24"/>
-      <c r="CP74" s="24"/>
-      <c r="CQ74" s="24"/>
-      <c r="CR74" s="24"/>
-      <c r="CS74" s="24"/>
-      <c r="CT74" s="24"/>
-      <c r="CU74" s="24"/>
-      <c r="CV74" s="24"/>
-      <c r="CW74" s="24"/>
-      <c r="CX74" s="24"/>
-      <c r="CY74" s="24"/>
-      <c r="CZ74" s="24"/>
-      <c r="DA74" s="24"/>
-      <c r="DB74" s="24"/>
-      <c r="DC74" s="24"/>
-      <c r="DD74" s="24"/>
-      <c r="DE74" s="24"/>
-      <c r="DF74" s="24"/>
-      <c r="DG74" s="24"/>
-      <c r="DH74" s="24"/>
-      <c r="DI74" s="24"/>
-      <c r="DJ74" s="24"/>
-      <c r="DK74" s="24"/>
-      <c r="DL74" s="24"/>
-      <c r="DM74" s="24"/>
-      <c r="DN74" s="24"/>
-      <c r="DO74" s="24"/>
-      <c r="DP74" s="24"/>
-      <c r="DQ74" s="24"/>
-      <c r="DR74" s="24"/>
-      <c r="DS74" s="24"/>
-      <c r="DT74" s="24"/>
-      <c r="DU74" s="24"/>
-      <c r="DV74" s="24"/>
-      <c r="DW74" s="24"/>
-      <c r="DX74" s="24"/>
-      <c r="DY74" s="24"/>
-      <c r="DZ74" s="24"/>
-      <c r="EA74" s="24"/>
-      <c r="EB74" s="24"/>
-      <c r="EC74" s="24"/>
-      <c r="ED74" s="24"/>
-      <c r="EE74" s="24"/>
-      <c r="EF74" s="24"/>
-      <c r="EG74" s="24"/>
-      <c r="EH74" s="24"/>
-      <c r="EI74" s="24"/>
-      <c r="EJ74" s="24"/>
-      <c r="EK74" s="24"/>
-      <c r="EL74" s="24"/>
-      <c r="EM74" s="24"/>
-      <c r="EN74" s="24"/>
-      <c r="EO74" s="24"/>
-      <c r="EP74" s="24"/>
-      <c r="EQ74" s="24"/>
-      <c r="ER74" s="24"/>
-      <c r="ES74" s="24"/>
-      <c r="ET74" s="24"/>
-      <c r="EU74" s="24"/>
-      <c r="EV74" s="24"/>
-      <c r="EW74" s="24"/>
-      <c r="EX74" s="24"/>
-      <c r="EY74" s="24"/>
-      <c r="EZ74" s="24"/>
-      <c r="FA74" s="24"/>
-      <c r="FB74" s="24"/>
-      <c r="FC74" s="24"/>
-      <c r="FD74" s="24"/>
-      <c r="FE74" s="24"/>
-      <c r="FF74" s="24"/>
-      <c r="FG74" s="24"/>
-      <c r="FH74" s="24"/>
     </row>
     <row r="75" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B75" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C75" s="25">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D75" s="25" t="s">
         <v>14</v>
@@ -19097,10 +18963,10 @@
         <v>191</v>
       </c>
       <c r="G75" s="25">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H75" s="25">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I75" s="25" t="s">
         <v>190</v>
@@ -19130,10 +18996,10 @@
         <v>117</v>
       </c>
       <c r="R75" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="S75" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="T75" s="8" t="s">
         <v>43</v>
@@ -19145,10 +19011,10 @@
         <v>214</v>
       </c>
       <c r="W75" s="20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X75" s="20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y75" s="20" t="s">
         <v>2</v>
@@ -19159,35 +19025,170 @@
       <c r="AA75" s="20" t="s">
         <v>3</v>
       </c>
+      <c r="AB75" s="24"/>
+      <c r="AC75" s="24"/>
+      <c r="AD75" s="24"/>
+      <c r="AE75" s="24"/>
+      <c r="AF75" s="24"/>
+      <c r="AG75" s="24"/>
+      <c r="AH75" s="24"/>
+      <c r="AI75" s="24"/>
+      <c r="AJ75" s="24"/>
+      <c r="AK75" s="24"/>
+      <c r="AL75" s="24"/>
+      <c r="AM75" s="24"/>
+      <c r="AN75" s="24"/>
+      <c r="AO75" s="24"/>
+      <c r="AP75" s="24"/>
+      <c r="AQ75" s="24"/>
+      <c r="AR75" s="24"/>
+      <c r="AS75" s="24"/>
+      <c r="AT75" s="24"/>
+      <c r="AU75" s="24"/>
+      <c r="AV75" s="24"/>
+      <c r="AW75" s="24"/>
+      <c r="AX75" s="24"/>
+      <c r="AY75" s="24"/>
+      <c r="AZ75" s="24"/>
+      <c r="BA75" s="24"/>
+      <c r="BB75" s="24"/>
+      <c r="BC75" s="24"/>
+      <c r="BD75" s="24"/>
+      <c r="BE75" s="24"/>
+      <c r="BF75" s="24"/>
+      <c r="BG75" s="24"/>
+      <c r="BH75" s="24"/>
+      <c r="BI75" s="24"/>
+      <c r="BJ75" s="24"/>
+      <c r="BK75" s="24"/>
+      <c r="BL75" s="24"/>
+      <c r="BM75" s="24"/>
+      <c r="BN75" s="24"/>
+      <c r="BO75" s="24"/>
+      <c r="BP75" s="24"/>
+      <c r="BQ75" s="24"/>
+      <c r="BR75" s="24"/>
+      <c r="BS75" s="24"/>
+      <c r="BT75" s="24"/>
+      <c r="BU75" s="24"/>
+      <c r="BV75" s="24"/>
+      <c r="BW75" s="24"/>
+      <c r="BX75" s="24"/>
+      <c r="BY75" s="24"/>
+      <c r="BZ75" s="24"/>
+      <c r="CA75" s="24"/>
+      <c r="CB75" s="24"/>
+      <c r="CC75" s="24"/>
+      <c r="CD75" s="24"/>
+      <c r="CE75" s="24"/>
+      <c r="CF75" s="24"/>
+      <c r="CG75" s="24"/>
+      <c r="CH75" s="24"/>
+      <c r="CI75" s="24"/>
+      <c r="CJ75" s="24"/>
+      <c r="CK75" s="24"/>
+      <c r="CL75" s="24"/>
+      <c r="CM75" s="24"/>
+      <c r="CN75" s="24"/>
+      <c r="CO75" s="24"/>
+      <c r="CP75" s="24"/>
+      <c r="CQ75" s="24"/>
+      <c r="CR75" s="24"/>
+      <c r="CS75" s="24"/>
+      <c r="CT75" s="24"/>
+      <c r="CU75" s="24"/>
+      <c r="CV75" s="24"/>
+      <c r="CW75" s="24"/>
+      <c r="CX75" s="24"/>
+      <c r="CY75" s="24"/>
+      <c r="CZ75" s="24"/>
+      <c r="DA75" s="24"/>
+      <c r="DB75" s="24"/>
+      <c r="DC75" s="24"/>
+      <c r="DD75" s="24"/>
+      <c r="DE75" s="24"/>
+      <c r="DF75" s="24"/>
+      <c r="DG75" s="24"/>
+      <c r="DH75" s="24"/>
+      <c r="DI75" s="24"/>
+      <c r="DJ75" s="24"/>
+      <c r="DK75" s="24"/>
+      <c r="DL75" s="24"/>
+      <c r="DM75" s="24"/>
+      <c r="DN75" s="24"/>
+      <c r="DO75" s="24"/>
+      <c r="DP75" s="24"/>
+      <c r="DQ75" s="24"/>
+      <c r="DR75" s="24"/>
+      <c r="DS75" s="24"/>
+      <c r="DT75" s="24"/>
+      <c r="DU75" s="24"/>
+      <c r="DV75" s="24"/>
+      <c r="DW75" s="24"/>
+      <c r="DX75" s="24"/>
+      <c r="DY75" s="24"/>
+      <c r="DZ75" s="24"/>
+      <c r="EA75" s="24"/>
+      <c r="EB75" s="24"/>
+      <c r="EC75" s="24"/>
+      <c r="ED75" s="24"/>
+      <c r="EE75" s="24"/>
+      <c r="EF75" s="24"/>
+      <c r="EG75" s="24"/>
+      <c r="EH75" s="24"/>
+      <c r="EI75" s="24"/>
+      <c r="EJ75" s="24"/>
+      <c r="EK75" s="24"/>
+      <c r="EL75" s="24"/>
+      <c r="EM75" s="24"/>
+      <c r="EN75" s="24"/>
+      <c r="EO75" s="24"/>
+      <c r="EP75" s="24"/>
+      <c r="EQ75" s="24"/>
+      <c r="ER75" s="24"/>
+      <c r="ES75" s="24"/>
+      <c r="ET75" s="24"/>
+      <c r="EU75" s="24"/>
+      <c r="EV75" s="24"/>
+      <c r="EW75" s="24"/>
+      <c r="EX75" s="24"/>
+      <c r="EY75" s="24"/>
+      <c r="EZ75" s="24"/>
+      <c r="FA75" s="24"/>
+      <c r="FB75" s="24"/>
+      <c r="FC75" s="24"/>
+      <c r="FD75" s="24"/>
+      <c r="FE75" s="24"/>
+      <c r="FF75" s="24"/>
+      <c r="FG75" s="24"/>
+      <c r="FH75" s="24"/>
     </row>
     <row r="76" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
-        <v>164</v>
+        <v>286</v>
       </c>
       <c r="B76" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C76" s="25">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>95</v>
+        <v>287</v>
       </c>
       <c r="F76" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="G76" s="25">
-        <v>20</v>
-      </c>
-      <c r="H76" s="25">
-        <v>20</v>
-      </c>
-      <c r="I76" s="25" t="s">
-        <v>190</v>
-      </c>
+      <c r="G76" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="H76" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I76" s="25"/>
       <c r="J76" s="4" t="s">
         <v>43</v>
       </c>
@@ -19200,11 +19201,11 @@
       <c r="M76" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N76" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O76" s="14" t="s">
-        <v>22</v>
+      <c r="N76" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O76" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>84</v>
@@ -19212,26 +19213,24 @@
       <c r="Q76" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="R76" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="S76" s="10" t="s">
-        <v>149</v>
+      <c r="R76" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S76" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T76" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U76" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="U76" s="7"/>
       <c r="V76" s="8" t="s">
         <v>214</v>
       </c>
       <c r="W76" s="20" t="s">
-        <v>164</v>
+        <v>286</v>
       </c>
       <c r="X76" s="20" t="s">
-        <v>164</v>
+        <v>286</v>
       </c>
       <c r="Y76" s="20" t="s">
         <v>2</v>
@@ -19382,13 +19381,13 @@
     </row>
     <row r="77" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B77" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C77" s="25">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D77" s="25" t="s">
         <v>21</v>
@@ -19397,7 +19396,7 @@
         <v>287</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="G77" s="25" t="s">
         <v>117</v>
@@ -19444,10 +19443,10 @@
         <v>214</v>
       </c>
       <c r="W77" s="20" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="X77" s="20" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Y77" s="20" t="s">
         <v>2</v>
@@ -19598,19 +19597,19 @@
     </row>
     <row r="78" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B78" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C78" s="25">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F78" s="22" t="s">
         <v>117</v>
@@ -19660,10 +19659,10 @@
         <v>214</v>
       </c>
       <c r="W78" s="20" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="X78" s="20" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Y78" s="20" t="s">
         <v>2</v>
@@ -19814,35 +19813,37 @@
     </row>
     <row r="79" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="B79" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C79" s="25">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D79" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E79" s="22" t="s">
-        <v>292</v>
+      <c r="E79" s="23" t="s">
+        <v>144</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G79" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H79" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I79" s="25"/>
-      <c r="J79" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>43</v>
+        <v>191</v>
+      </c>
+      <c r="G79" s="27">
+        <v>1</v>
+      </c>
+      <c r="H79" s="27">
+        <v>1</v>
+      </c>
+      <c r="I79" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J79" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K79" s="21" t="s">
+        <v>138</v>
       </c>
       <c r="L79" s="4" t="s">
         <v>43</v>
@@ -19850,11 +19851,11 @@
       <c r="M79" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N79" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O79" s="4" t="s">
-        <v>43</v>
+      <c r="N79" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O79" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="P79" s="3" t="s">
         <v>84</v>
@@ -19876,10 +19877,10 @@
         <v>214</v>
       </c>
       <c r="W79" s="20" t="s">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="X79" s="20" t="s">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="Y79" s="20" t="s">
         <v>2</v>
@@ -20030,37 +20031,35 @@
     </row>
     <row r="80" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="B80" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C80" s="25">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D80" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>144</v>
+        <v>290</v>
       </c>
       <c r="F80" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="G80" s="27">
-        <v>1</v>
-      </c>
-      <c r="H80" s="27">
-        <v>1</v>
-      </c>
-      <c r="I80" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="J80" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="K80" s="21" t="s">
-        <v>138</v>
+      <c r="G80" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="H80" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I80" s="25"/>
+      <c r="J80" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="L80" s="4" t="s">
         <v>43</v>
@@ -20068,11 +20067,11 @@
       <c r="M80" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N80" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O80" s="14" t="s">
-        <v>22</v>
+      <c r="N80" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O80" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P80" s="3" t="s">
         <v>84</v>
@@ -20094,10 +20093,10 @@
         <v>214</v>
       </c>
       <c r="W80" s="20" t="s">
-        <v>217</v>
+        <v>286</v>
       </c>
       <c r="X80" s="20" t="s">
-        <v>217</v>
+        <v>286</v>
       </c>
       <c r="Y80" s="20" t="s">
         <v>2</v>
@@ -20248,22 +20247,22 @@
     </row>
     <row r="81" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="B81" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C81" s="25">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D81" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="G81" s="25" t="s">
         <v>117</v>
@@ -20271,7 +20270,9 @@
       <c r="H81" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="I81" s="25"/>
+      <c r="I81" s="31" t="s">
+        <v>84</v>
+      </c>
       <c r="J81" s="4" t="s">
         <v>43</v>
       </c>
@@ -20296,11 +20297,11 @@
       <c r="Q81" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="R81" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S81" s="11" t="s">
-        <v>43</v>
+      <c r="R81" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="S81" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="T81" s="8" t="s">
         <v>43</v>
@@ -20310,10 +20311,10 @@
         <v>214</v>
       </c>
       <c r="W81" s="20" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="X81" s="20" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="Y81" s="20" t="s">
         <v>2</v>
@@ -20464,49 +20465,49 @@
     </row>
     <row r="82" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
-        <v>255</v>
+        <v>133</v>
       </c>
       <c r="B82" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C82" s="25">
-        <v>372</v>
+        <v>500</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>256</v>
+        <v>135</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G82" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H82" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I82" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L82" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M82" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N82" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O82" s="4" t="s">
-        <v>43</v>
+        <v>191</v>
+      </c>
+      <c r="G82" s="27">
+        <v>1</v>
+      </c>
+      <c r="H82" s="27">
+        <v>1</v>
+      </c>
+      <c r="I82" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="J82" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K82" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L82" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M82" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="N82" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O82" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="P82" s="3" t="s">
         <v>84</v>
@@ -20514,175 +20515,40 @@
       <c r="Q82" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="R82" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="S82" s="10" t="s">
-        <v>258</v>
+      <c r="R82" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S82" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T82" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U82" s="7"/>
+      <c r="U82" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="V82" s="8" t="s">
         <v>214</v>
       </c>
       <c r="W82" s="20" t="s">
-        <v>255</v>
+        <v>133</v>
       </c>
       <c r="X82" s="20" t="s">
-        <v>255</v>
+        <v>133</v>
       </c>
       <c r="Y82" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z82" s="20" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="AA82" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AB82" s="24"/>
-      <c r="AC82" s="24"/>
-      <c r="AD82" s="24"/>
-      <c r="AE82" s="24"/>
-      <c r="AF82" s="24"/>
-      <c r="AG82" s="24"/>
-      <c r="AH82" s="24"/>
-      <c r="AI82" s="24"/>
-      <c r="AJ82" s="24"/>
-      <c r="AK82" s="24"/>
-      <c r="AL82" s="24"/>
-      <c r="AM82" s="24"/>
-      <c r="AN82" s="24"/>
-      <c r="AO82" s="24"/>
-      <c r="AP82" s="24"/>
-      <c r="AQ82" s="24"/>
-      <c r="AR82" s="24"/>
-      <c r="AS82" s="24"/>
-      <c r="AT82" s="24"/>
-      <c r="AU82" s="24"/>
-      <c r="AV82" s="24"/>
-      <c r="AW82" s="24"/>
-      <c r="AX82" s="24"/>
-      <c r="AY82" s="24"/>
-      <c r="AZ82" s="24"/>
-      <c r="BA82" s="24"/>
-      <c r="BB82" s="24"/>
-      <c r="BC82" s="24"/>
-      <c r="BD82" s="24"/>
-      <c r="BE82" s="24"/>
-      <c r="BF82" s="24"/>
-      <c r="BG82" s="24"/>
-      <c r="BH82" s="24"/>
-      <c r="BI82" s="24"/>
-      <c r="BJ82" s="24"/>
-      <c r="BK82" s="24"/>
-      <c r="BL82" s="24"/>
-      <c r="BM82" s="24"/>
-      <c r="BN82" s="24"/>
-      <c r="BO82" s="24"/>
-      <c r="BP82" s="24"/>
-      <c r="BQ82" s="24"/>
-      <c r="BR82" s="24"/>
-      <c r="BS82" s="24"/>
-      <c r="BT82" s="24"/>
-      <c r="BU82" s="24"/>
-      <c r="BV82" s="24"/>
-      <c r="BW82" s="24"/>
-      <c r="BX82" s="24"/>
-      <c r="BY82" s="24"/>
-      <c r="BZ82" s="24"/>
-      <c r="CA82" s="24"/>
-      <c r="CB82" s="24"/>
-      <c r="CC82" s="24"/>
-      <c r="CD82" s="24"/>
-      <c r="CE82" s="24"/>
-      <c r="CF82" s="24"/>
-      <c r="CG82" s="24"/>
-      <c r="CH82" s="24"/>
-      <c r="CI82" s="24"/>
-      <c r="CJ82" s="24"/>
-      <c r="CK82" s="24"/>
-      <c r="CL82" s="24"/>
-      <c r="CM82" s="24"/>
-      <c r="CN82" s="24"/>
-      <c r="CO82" s="24"/>
-      <c r="CP82" s="24"/>
-      <c r="CQ82" s="24"/>
-      <c r="CR82" s="24"/>
-      <c r="CS82" s="24"/>
-      <c r="CT82" s="24"/>
-      <c r="CU82" s="24"/>
-      <c r="CV82" s="24"/>
-      <c r="CW82" s="24"/>
-      <c r="CX82" s="24"/>
-      <c r="CY82" s="24"/>
-      <c r="CZ82" s="24"/>
-      <c r="DA82" s="24"/>
-      <c r="DB82" s="24"/>
-      <c r="DC82" s="24"/>
-      <c r="DD82" s="24"/>
-      <c r="DE82" s="24"/>
-      <c r="DF82" s="24"/>
-      <c r="DG82" s="24"/>
-      <c r="DH82" s="24"/>
-      <c r="DI82" s="24"/>
-      <c r="DJ82" s="24"/>
-      <c r="DK82" s="24"/>
-      <c r="DL82" s="24"/>
-      <c r="DM82" s="24"/>
-      <c r="DN82" s="24"/>
-      <c r="DO82" s="24"/>
-      <c r="DP82" s="24"/>
-      <c r="DQ82" s="24"/>
-      <c r="DR82" s="24"/>
-      <c r="DS82" s="24"/>
-      <c r="DT82" s="24"/>
-      <c r="DU82" s="24"/>
-      <c r="DV82" s="24"/>
-      <c r="DW82" s="24"/>
-      <c r="DX82" s="24"/>
-      <c r="DY82" s="24"/>
-      <c r="DZ82" s="24"/>
-      <c r="EA82" s="24"/>
-      <c r="EB82" s="24"/>
-      <c r="EC82" s="24"/>
-      <c r="ED82" s="24"/>
-      <c r="EE82" s="24"/>
-      <c r="EF82" s="24"/>
-      <c r="EG82" s="24"/>
-      <c r="EH82" s="24"/>
-      <c r="EI82" s="24"/>
-      <c r="EJ82" s="24"/>
-      <c r="EK82" s="24"/>
-      <c r="EL82" s="24"/>
-      <c r="EM82" s="24"/>
-      <c r="EN82" s="24"/>
-      <c r="EO82" s="24"/>
-      <c r="EP82" s="24"/>
-      <c r="EQ82" s="24"/>
-      <c r="ER82" s="24"/>
-      <c r="ES82" s="24"/>
-      <c r="ET82" s="24"/>
-      <c r="EU82" s="24"/>
-      <c r="EV82" s="24"/>
-      <c r="EW82" s="24"/>
-      <c r="EX82" s="24"/>
-      <c r="EY82" s="24"/>
-      <c r="EZ82" s="24"/>
-      <c r="FA82" s="24"/>
-      <c r="FB82" s="24"/>
-      <c r="FC82" s="24"/>
-      <c r="FD82" s="24"/>
-      <c r="FE82" s="24"/>
-      <c r="FF82" s="24"/>
-      <c r="FG82" s="24"/>
-      <c r="FH82" s="24"/>
     </row>
     <row r="83" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B83" s="25" t="s">
         <v>190</v>
@@ -20748,16 +20614,16 @@
         <v>214</v>
       </c>
       <c r="W83" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="X83" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y83" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z83" s="20" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="AA83" s="20" t="s">
         <v>3</v>
@@ -20765,7 +20631,7 @@
     </row>
     <row r="84" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B84" s="25" t="s">
         <v>190</v>
@@ -20831,10 +20697,10 @@
         <v>214</v>
       </c>
       <c r="W84" s="20" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="X84" s="20" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="Y84" s="20" t="s">
         <v>2</v>
@@ -20847,87 +20713,143 @@
       </c>
     </row>
     <row r="85" spans="1:164" x14ac:dyDescent="0.2">
-      <c r="A85" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="B85" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="C85" s="25">
-        <v>500</v>
-      </c>
-      <c r="D85" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E85" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="F85" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="G85" s="27">
-        <v>1</v>
-      </c>
-      <c r="H85" s="27">
-        <v>1</v>
-      </c>
-      <c r="I85" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="J85" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="K85" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="L85" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="M85" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="N85" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O85" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P85" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q85" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="R85" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S85" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="T85" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U85" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="V85" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="W85" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="X85" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y85" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z85" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA85" s="20" t="s">
-        <v>3</v>
-      </c>
+      <c r="AB85" s="24"/>
+      <c r="AC85" s="24"/>
+      <c r="AD85" s="24"/>
+      <c r="AE85" s="24"/>
+      <c r="AF85" s="24"/>
+      <c r="AG85" s="24"/>
+      <c r="AH85" s="24"/>
+      <c r="AI85" s="24"/>
+      <c r="AJ85" s="24"/>
+      <c r="AK85" s="24"/>
+      <c r="AL85" s="24"/>
+      <c r="AM85" s="24"/>
+      <c r="AN85" s="24"/>
+      <c r="AO85" s="24"/>
+      <c r="AP85" s="24"/>
+      <c r="AQ85" s="24"/>
+      <c r="AR85" s="24"/>
+      <c r="AS85" s="24"/>
+      <c r="AT85" s="24"/>
+      <c r="AU85" s="24"/>
+      <c r="AV85" s="24"/>
+      <c r="AW85" s="24"/>
+      <c r="AX85" s="24"/>
+      <c r="AY85" s="24"/>
+      <c r="AZ85" s="24"/>
+      <c r="BA85" s="24"/>
+      <c r="BB85" s="24"/>
+      <c r="BC85" s="24"/>
+      <c r="BD85" s="24"/>
+      <c r="BE85" s="24"/>
+      <c r="BF85" s="24"/>
+      <c r="BG85" s="24"/>
+      <c r="BH85" s="24"/>
+      <c r="BI85" s="24"/>
+      <c r="BJ85" s="24"/>
+      <c r="BK85" s="24"/>
+      <c r="BL85" s="24"/>
+      <c r="BM85" s="24"/>
+      <c r="BN85" s="24"/>
+      <c r="BO85" s="24"/>
+      <c r="BP85" s="24"/>
+      <c r="BQ85" s="24"/>
+      <c r="BR85" s="24"/>
+      <c r="BS85" s="24"/>
+      <c r="BT85" s="24"/>
+      <c r="BU85" s="24"/>
+      <c r="BV85" s="24"/>
+      <c r="BW85" s="24"/>
+      <c r="BX85" s="24"/>
+      <c r="BY85" s="24"/>
+      <c r="BZ85" s="24"/>
+      <c r="CA85" s="24"/>
+      <c r="CB85" s="24"/>
+      <c r="CC85" s="24"/>
+      <c r="CD85" s="24"/>
+      <c r="CE85" s="24"/>
+      <c r="CF85" s="24"/>
+      <c r="CG85" s="24"/>
+      <c r="CH85" s="24"/>
+      <c r="CI85" s="24"/>
+      <c r="CJ85" s="24"/>
+      <c r="CK85" s="24"/>
+      <c r="CL85" s="24"/>
+      <c r="CM85" s="24"/>
+      <c r="CN85" s="24"/>
+      <c r="CO85" s="24"/>
+      <c r="CP85" s="24"/>
+      <c r="CQ85" s="24"/>
+      <c r="CR85" s="24"/>
+      <c r="CS85" s="24"/>
+      <c r="CT85" s="24"/>
+      <c r="CU85" s="24"/>
+      <c r="CV85" s="24"/>
+      <c r="CW85" s="24"/>
+      <c r="CX85" s="24"/>
+      <c r="CY85" s="24"/>
+      <c r="CZ85" s="24"/>
+      <c r="DA85" s="24"/>
+      <c r="DB85" s="24"/>
+      <c r="DC85" s="24"/>
+      <c r="DD85" s="24"/>
+      <c r="DE85" s="24"/>
+      <c r="DF85" s="24"/>
+      <c r="DG85" s="24"/>
+      <c r="DH85" s="24"/>
+      <c r="DI85" s="24"/>
+      <c r="DJ85" s="24"/>
+      <c r="DK85" s="24"/>
+      <c r="DL85" s="24"/>
+      <c r="DM85" s="24"/>
+      <c r="DN85" s="24"/>
+      <c r="DO85" s="24"/>
+      <c r="DP85" s="24"/>
+      <c r="DQ85" s="24"/>
+      <c r="DR85" s="24"/>
+      <c r="DS85" s="24"/>
+      <c r="DT85" s="24"/>
+      <c r="DU85" s="24"/>
+      <c r="DV85" s="24"/>
+      <c r="DW85" s="24"/>
+      <c r="DX85" s="24"/>
+      <c r="DY85" s="24"/>
+      <c r="DZ85" s="24"/>
+      <c r="EA85" s="24"/>
+      <c r="EB85" s="24"/>
+      <c r="EC85" s="24"/>
+      <c r="ED85" s="24"/>
+      <c r="EE85" s="24"/>
+      <c r="EF85" s="24"/>
+      <c r="EG85" s="24"/>
+      <c r="EH85" s="24"/>
+      <c r="EI85" s="24"/>
+      <c r="EJ85" s="24"/>
+      <c r="EK85" s="24"/>
+      <c r="EL85" s="24"/>
+      <c r="EM85" s="24"/>
+      <c r="EN85" s="24"/>
+      <c r="EO85" s="24"/>
+      <c r="EP85" s="24"/>
+      <c r="EQ85" s="24"/>
+      <c r="ER85" s="24"/>
+      <c r="ES85" s="24"/>
+      <c r="ET85" s="24"/>
+      <c r="EU85" s="24"/>
+      <c r="EV85" s="24"/>
+      <c r="EW85" s="24"/>
+      <c r="EX85" s="24"/>
+      <c r="EY85" s="24"/>
+      <c r="EZ85" s="24"/>
+      <c r="FA85" s="24"/>
+      <c r="FB85" s="24"/>
+      <c r="FC85" s="24"/>
+      <c r="FD85" s="24"/>
+      <c r="FE85" s="24"/>
+      <c r="FF85" s="24"/>
+      <c r="FG85" s="24"/>
+      <c r="FH85" s="24"/>
     </row>
     <row r="86" spans="1:164" x14ac:dyDescent="0.2">
       <c r="AB86" s="24"/>
@@ -22597,150 +22519,244 @@
       <c r="FG97" s="24"/>
       <c r="FH97" s="24"/>
     </row>
-    <row r="98" spans="28:164" x14ac:dyDescent="0.2">
-      <c r="AB98" s="24"/>
-      <c r="AC98" s="24"/>
-      <c r="AD98" s="24"/>
-      <c r="AE98" s="24"/>
-      <c r="AF98" s="24"/>
-      <c r="AG98" s="24"/>
-      <c r="AH98" s="24"/>
-      <c r="AI98" s="24"/>
-      <c r="AJ98" s="24"/>
-      <c r="AK98" s="24"/>
-      <c r="AL98" s="24"/>
-      <c r="AM98" s="24"/>
-      <c r="AN98" s="24"/>
-      <c r="AO98" s="24"/>
-      <c r="AP98" s="24"/>
-      <c r="AQ98" s="24"/>
-      <c r="AR98" s="24"/>
-      <c r="AS98" s="24"/>
-      <c r="AT98" s="24"/>
-      <c r="AU98" s="24"/>
-      <c r="AV98" s="24"/>
-      <c r="AW98" s="24"/>
-      <c r="AX98" s="24"/>
-      <c r="AY98" s="24"/>
-      <c r="AZ98" s="24"/>
-      <c r="BA98" s="24"/>
-      <c r="BB98" s="24"/>
-      <c r="BC98" s="24"/>
-      <c r="BD98" s="24"/>
-      <c r="BE98" s="24"/>
-      <c r="BF98" s="24"/>
-      <c r="BG98" s="24"/>
-      <c r="BH98" s="24"/>
-      <c r="BI98" s="24"/>
-      <c r="BJ98" s="24"/>
-      <c r="BK98" s="24"/>
-      <c r="BL98" s="24"/>
-      <c r="BM98" s="24"/>
-      <c r="BN98" s="24"/>
-      <c r="BO98" s="24"/>
-      <c r="BP98" s="24"/>
-      <c r="BQ98" s="24"/>
-      <c r="BR98" s="24"/>
-      <c r="BS98" s="24"/>
-      <c r="BT98" s="24"/>
-      <c r="BU98" s="24"/>
-      <c r="BV98" s="24"/>
-      <c r="BW98" s="24"/>
-      <c r="BX98" s="24"/>
-      <c r="BY98" s="24"/>
-      <c r="BZ98" s="24"/>
-      <c r="CA98" s="24"/>
-      <c r="CB98" s="24"/>
-      <c r="CC98" s="24"/>
-      <c r="CD98" s="24"/>
-      <c r="CE98" s="24"/>
-      <c r="CF98" s="24"/>
-      <c r="CG98" s="24"/>
-      <c r="CH98" s="24"/>
-      <c r="CI98" s="24"/>
-      <c r="CJ98" s="24"/>
-      <c r="CK98" s="24"/>
-      <c r="CL98" s="24"/>
-      <c r="CM98" s="24"/>
-      <c r="CN98" s="24"/>
-      <c r="CO98" s="24"/>
-      <c r="CP98" s="24"/>
-      <c r="CQ98" s="24"/>
-      <c r="CR98" s="24"/>
-      <c r="CS98" s="24"/>
-      <c r="CT98" s="24"/>
-      <c r="CU98" s="24"/>
-      <c r="CV98" s="24"/>
-      <c r="CW98" s="24"/>
-      <c r="CX98" s="24"/>
-      <c r="CY98" s="24"/>
-      <c r="CZ98" s="24"/>
-      <c r="DA98" s="24"/>
-      <c r="DB98" s="24"/>
-      <c r="DC98" s="24"/>
-      <c r="DD98" s="24"/>
-      <c r="DE98" s="24"/>
-      <c r="DF98" s="24"/>
-      <c r="DG98" s="24"/>
-      <c r="DH98" s="24"/>
-      <c r="DI98" s="24"/>
-      <c r="DJ98" s="24"/>
-      <c r="DK98" s="24"/>
-      <c r="DL98" s="24"/>
-      <c r="DM98" s="24"/>
-      <c r="DN98" s="24"/>
-      <c r="DO98" s="24"/>
-      <c r="DP98" s="24"/>
-      <c r="DQ98" s="24"/>
-      <c r="DR98" s="24"/>
-      <c r="DS98" s="24"/>
-      <c r="DT98" s="24"/>
-      <c r="DU98" s="24"/>
-      <c r="DV98" s="24"/>
-      <c r="DW98" s="24"/>
-      <c r="DX98" s="24"/>
-      <c r="DY98" s="24"/>
-      <c r="DZ98" s="24"/>
-      <c r="EA98" s="24"/>
-      <c r="EB98" s="24"/>
-      <c r="EC98" s="24"/>
-      <c r="ED98" s="24"/>
-      <c r="EE98" s="24"/>
-      <c r="EF98" s="24"/>
-      <c r="EG98" s="24"/>
-      <c r="EH98" s="24"/>
-      <c r="EI98" s="24"/>
-      <c r="EJ98" s="24"/>
-      <c r="EK98" s="24"/>
-      <c r="EL98" s="24"/>
-      <c r="EM98" s="24"/>
-      <c r="EN98" s="24"/>
-      <c r="EO98" s="24"/>
-      <c r="EP98" s="24"/>
-      <c r="EQ98" s="24"/>
-      <c r="ER98" s="24"/>
-      <c r="ES98" s="24"/>
-      <c r="ET98" s="24"/>
-      <c r="EU98" s="24"/>
-      <c r="EV98" s="24"/>
-      <c r="EW98" s="24"/>
-      <c r="EX98" s="24"/>
-      <c r="EY98" s="24"/>
-      <c r="EZ98" s="24"/>
-      <c r="FA98" s="24"/>
-      <c r="FB98" s="24"/>
-      <c r="FC98" s="24"/>
-      <c r="FD98" s="24"/>
-      <c r="FE98" s="24"/>
-      <c r="FF98" s="24"/>
-      <c r="FG98" s="24"/>
-      <c r="FH98" s="24"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA85">
-    <sortCondition ref="C2:C85"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA84">
+    <sortCondition ref="C2:C84"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A39EF96-8023-CD49-A815-3E709DD289AA}">
+  <dimension ref="A1:FH1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:164" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="25">
+        <v>53</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="27">
+        <v>1</v>
+      </c>
+      <c r="H1" s="27">
+        <v>1</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="24"/>
+      <c r="AY1" s="24"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="24"/>
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="24"/>
+      <c r="BF1" s="24"/>
+      <c r="BG1" s="24"/>
+      <c r="BH1" s="24"/>
+      <c r="BI1" s="24"/>
+      <c r="BJ1" s="24"/>
+      <c r="BK1" s="24"/>
+      <c r="BL1" s="24"/>
+      <c r="BM1" s="24"/>
+      <c r="BN1" s="24"/>
+      <c r="BO1" s="24"/>
+      <c r="BP1" s="24"/>
+      <c r="BQ1" s="24"/>
+      <c r="BR1" s="24"/>
+      <c r="BS1" s="24"/>
+      <c r="BT1" s="24"/>
+      <c r="BU1" s="24"/>
+      <c r="BV1" s="24"/>
+      <c r="BW1" s="24"/>
+      <c r="BX1" s="24"/>
+      <c r="BY1" s="24"/>
+      <c r="BZ1" s="24"/>
+      <c r="CA1" s="24"/>
+      <c r="CB1" s="24"/>
+      <c r="CC1" s="24"/>
+      <c r="CD1" s="24"/>
+      <c r="CE1" s="24"/>
+      <c r="CF1" s="24"/>
+      <c r="CG1" s="24"/>
+      <c r="CH1" s="24"/>
+      <c r="CI1" s="24"/>
+      <c r="CJ1" s="24"/>
+      <c r="CK1" s="24"/>
+      <c r="CL1" s="24"/>
+      <c r="CM1" s="24"/>
+      <c r="CN1" s="24"/>
+      <c r="CO1" s="24"/>
+      <c r="CP1" s="24"/>
+      <c r="CQ1" s="24"/>
+      <c r="CR1" s="24"/>
+      <c r="CS1" s="24"/>
+      <c r="CT1" s="24"/>
+      <c r="CU1" s="24"/>
+      <c r="CV1" s="24"/>
+      <c r="CW1" s="24"/>
+      <c r="CX1" s="24"/>
+      <c r="CY1" s="24"/>
+      <c r="CZ1" s="24"/>
+      <c r="DA1" s="24"/>
+      <c r="DB1" s="24"/>
+      <c r="DC1" s="24"/>
+      <c r="DD1" s="24"/>
+      <c r="DE1" s="24"/>
+      <c r="DF1" s="24"/>
+      <c r="DG1" s="24"/>
+      <c r="DH1" s="24"/>
+      <c r="DI1" s="24"/>
+      <c r="DJ1" s="24"/>
+      <c r="DK1" s="24"/>
+      <c r="DL1" s="24"/>
+      <c r="DM1" s="24"/>
+      <c r="DN1" s="24"/>
+      <c r="DO1" s="24"/>
+      <c r="DP1" s="24"/>
+      <c r="DQ1" s="24"/>
+      <c r="DR1" s="24"/>
+      <c r="DS1" s="24"/>
+      <c r="DT1" s="24"/>
+      <c r="DU1" s="24"/>
+      <c r="DV1" s="24"/>
+      <c r="DW1" s="24"/>
+      <c r="DX1" s="24"/>
+      <c r="DY1" s="24"/>
+      <c r="DZ1" s="24"/>
+      <c r="EA1" s="24"/>
+      <c r="EB1" s="24"/>
+      <c r="EC1" s="24"/>
+      <c r="ED1" s="24"/>
+      <c r="EE1" s="24"/>
+      <c r="EF1" s="24"/>
+      <c r="EG1" s="24"/>
+      <c r="EH1" s="24"/>
+      <c r="EI1" s="24"/>
+      <c r="EJ1" s="24"/>
+      <c r="EK1" s="24"/>
+      <c r="EL1" s="24"/>
+      <c r="EM1" s="24"/>
+      <c r="EN1" s="24"/>
+      <c r="EO1" s="24"/>
+      <c r="EP1" s="24"/>
+      <c r="EQ1" s="24"/>
+      <c r="ER1" s="24"/>
+      <c r="ES1" s="24"/>
+      <c r="ET1" s="24"/>
+      <c r="EU1" s="24"/>
+      <c r="EV1" s="24"/>
+      <c r="EW1" s="24"/>
+      <c r="EX1" s="24"/>
+      <c r="EY1" s="24"/>
+      <c r="EZ1" s="24"/>
+      <c r="FA1" s="24"/>
+      <c r="FB1" s="24"/>
+      <c r="FC1" s="24"/>
+      <c r="FD1" s="24"/>
+      <c r="FE1" s="24"/>
+      <c r="FF1" s="24"/>
+      <c r="FG1" s="24"/>
+      <c r="FH1" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697F1B98-457E-7540-9F28-4F96733C9501}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEDC208-F965-464A-85A1-39BE37CA9B7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11040" yWindow="1100" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3411,7 +3411,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomRight" activeCell="P81" sqref="P81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEDC208-F965-464A-85A1-39BE37CA9B7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E7D1EB-9441-F242-8C30-7EE137F22435}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11040" yWindow="1100" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="293">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -445,9 +445,6 @@
   </si>
   <si>
     <t>source_name</t>
-  </si>
-  <si>
-    <t>Herpesvirus</t>
   </si>
   <si>
     <t>Dependo_B</t>
@@ -3408,10 +3405,10 @@
   <dimension ref="A1:FH97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P81" sqref="P81"/>
+      <selection pane="bottomRight" activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3450,34 +3447,34 @@
         <v>74</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>97</v>
@@ -3533,7 +3530,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C2" s="25">
         <v>0</v>
@@ -3542,10 +3539,10 @@
         <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G2" s="27">
         <v>1</v>
@@ -3554,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>129</v>
@@ -3603,7 +3600,7 @@
         <v>2</v>
       </c>
       <c r="Z2" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA2" s="20" t="s">
         <v>3</v>
@@ -3614,7 +3611,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C3" s="25">
         <v>1</v>
@@ -3626,7 +3623,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G3" s="25">
         <v>23</v>
@@ -3635,7 +3632,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>130</v>
@@ -3686,7 +3683,7 @@
         <v>2</v>
       </c>
       <c r="Z3" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA3" s="20" t="s">
         <v>3</v>
@@ -3694,10 +3691,10 @@
     </row>
     <row r="4" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" s="25">
         <v>2</v>
@@ -3709,7 +3706,7 @@
         <v>127</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G4" s="25">
         <v>8</v>
@@ -3718,7 +3715,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>129</v>
@@ -3736,7 +3733,7 @@
         <v>129</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>84</v>
@@ -3758,16 +3755,16 @@
         <v>32913662</v>
       </c>
       <c r="W4" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X4" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y4" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z4" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA4" s="20" t="s">
         <v>3</v>
@@ -3778,7 +3775,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" s="25">
         <v>3</v>
@@ -3790,7 +3787,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G5" s="25">
         <v>3</v>
@@ -3799,7 +3796,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>129</v>
@@ -3817,7 +3814,7 @@
         <v>129</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>84</v>
@@ -3850,7 +3847,7 @@
         <v>2</v>
       </c>
       <c r="Z5" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA5" s="20" t="s">
         <v>3</v>
@@ -3998,7 +3995,7 @@
         <v>111</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="25">
         <v>4</v>
@@ -4010,7 +4007,7 @@
         <v>109</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G6" s="27">
         <v>4</v>
@@ -4019,7 +4016,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>130</v>
@@ -4058,7 +4055,7 @@
         <v>27.9</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W6" s="20" t="s">
         <v>111</v>
@@ -4070,7 +4067,7 @@
         <v>2</v>
       </c>
       <c r="Z6" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA6" s="20" t="s">
         <v>3</v>
@@ -4218,7 +4215,7 @@
         <v>110</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" s="25">
         <v>5</v>
@@ -4230,7 +4227,7 @@
         <v>109</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G7" s="27">
         <v>4</v>
@@ -4239,13 +4236,13 @@
         <v>4</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>129</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L7" s="14" t="s">
         <v>22</v>
@@ -4257,7 +4254,7 @@
         <v>129</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>84</v>
@@ -4278,7 +4275,7 @@
         <v>27.9</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W7" s="20" t="s">
         <v>110</v>
@@ -4290,7 +4287,7 @@
         <v>2</v>
       </c>
       <c r="Z7" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA7" s="20" t="s">
         <v>3</v>
@@ -4438,7 +4435,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8" s="25">
         <v>6</v>
@@ -4447,10 +4444,10 @@
         <v>15</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G8" s="25">
         <v>1</v>
@@ -4459,19 +4456,19 @@
         <v>1</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>129</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>129</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>22</v>
@@ -4496,7 +4493,7 @@
       </c>
       <c r="U8" s="7"/>
       <c r="V8" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W8" s="20" t="s">
         <v>9</v>
@@ -4508,7 +4505,7 @@
         <v>2</v>
       </c>
       <c r="Z8" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA8" s="20" t="s">
         <v>3</v>
@@ -4656,7 +4653,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C9" s="25">
         <v>7</v>
@@ -4668,7 +4665,7 @@
         <v>88</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G9" s="25">
         <v>1</v>
@@ -4677,19 +4674,19 @@
         <v>1</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>129</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>129</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>22</v>
@@ -4714,7 +4711,7 @@
       </c>
       <c r="U9" s="7"/>
       <c r="V9" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W9" s="20" t="s">
         <v>10</v>
@@ -4726,7 +4723,7 @@
         <v>2</v>
       </c>
       <c r="Z9" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA9" s="20" t="s">
         <v>3</v>
@@ -4874,7 +4871,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C10" s="25">
         <v>8</v>
@@ -4886,7 +4883,7 @@
         <v>89</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G10" s="25">
         <v>1</v>
@@ -4895,13 +4892,13 @@
         <v>1</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>129</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>22</v>
@@ -4913,7 +4910,7 @@
         <v>129</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>84</v>
@@ -4932,7 +4929,7 @@
       </c>
       <c r="U10" s="7"/>
       <c r="V10" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W10" s="20" t="s">
         <v>11</v>
@@ -4944,7 +4941,7 @@
         <v>2</v>
       </c>
       <c r="Z10" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA10" s="20" t="s">
         <v>3</v>
@@ -5089,10 +5086,10 @@
     </row>
     <row r="11" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C11" s="25">
         <v>9</v>
@@ -5101,10 +5098,10 @@
         <v>83</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G11" s="25">
         <v>2</v>
@@ -5113,19 +5110,19 @@
         <v>2</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>129</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>129</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N11" s="14" t="s">
         <v>22</v>
@@ -5150,19 +5147,19 @@
       </c>
       <c r="U11" s="7"/>
       <c r="V11" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W11" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X11" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y11" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z11" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA11" s="20" t="s">
         <v>3</v>
@@ -5310,7 +5307,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C12" s="25">
         <v>10</v>
@@ -5322,7 +5319,7 @@
         <v>40</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G12" s="27">
         <v>1</v>
@@ -5368,7 +5365,7 @@
       </c>
       <c r="U12" s="7"/>
       <c r="V12" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W12" s="20" t="s">
         <v>39</v>
@@ -5380,7 +5377,7 @@
         <v>2</v>
       </c>
       <c r="Z12" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA12" s="20" t="s">
         <v>3</v>
@@ -5528,7 +5525,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C13" s="25">
         <v>11</v>
@@ -5540,7 +5537,7 @@
         <v>122</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G13" s="27">
         <v>3</v>
@@ -5555,13 +5552,13 @@
         <v>129</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>129</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>22</v>
@@ -5586,7 +5583,7 @@
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W13" s="20" t="s">
         <v>12</v>
@@ -5598,7 +5595,7 @@
         <v>2</v>
       </c>
       <c r="Z13" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA13" s="20" t="s">
         <v>3</v>
@@ -5746,7 +5743,7 @@
         <v>65</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C14" s="25">
         <v>12</v>
@@ -5758,7 +5755,7 @@
         <v>86</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G14" s="25">
         <v>1</v>
@@ -5767,7 +5764,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>129</v>
@@ -5785,7 +5782,7 @@
         <v>129</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>84</v>
@@ -5804,7 +5801,7 @@
       </c>
       <c r="U14" s="7"/>
       <c r="V14" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W14" s="20" t="s">
         <v>65</v>
@@ -5816,7 +5813,7 @@
         <v>2</v>
       </c>
       <c r="Z14" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA14" s="20" t="s">
         <v>3</v>
@@ -5964,7 +5961,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C15" s="25">
         <v>13</v>
@@ -5976,7 +5973,7 @@
         <v>87</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G15" s="27">
         <v>3</v>
@@ -5985,25 +5982,25 @@
         <v>3</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>129</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L15" s="13" t="s">
         <v>129</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N15" s="13" t="s">
         <v>129</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P15" s="17" t="s">
         <v>114</v>
@@ -6024,7 +6021,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W15" s="20" t="s">
         <v>8</v>
@@ -6036,7 +6033,7 @@
         <v>2</v>
       </c>
       <c r="Z15" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA15" s="20" t="s">
         <v>3</v>
@@ -6184,7 +6181,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C16" s="25">
         <v>14</v>
@@ -6196,7 +6193,7 @@
         <v>87</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G16" s="27">
         <v>5</v>
@@ -6205,19 +6202,19 @@
         <v>5</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J16" s="13" t="s">
         <v>129</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>129</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N16" s="14" t="s">
         <v>22</v>
@@ -6244,7 +6241,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="V16" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W16" s="20" t="s">
         <v>27</v>
@@ -6256,7 +6253,7 @@
         <v>2</v>
       </c>
       <c r="Z16" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA16" s="20" t="s">
         <v>3</v>
@@ -6404,7 +6401,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C17" s="25">
         <v>15</v>
@@ -6416,7 +6413,7 @@
         <v>106</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G17" s="27">
         <v>1</v>
@@ -6425,19 +6422,19 @@
         <v>1</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>129</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>129</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N17" s="14" t="s">
         <v>22</v>
@@ -6464,7 +6461,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="V17" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W17" s="20" t="s">
         <v>80</v>
@@ -6476,7 +6473,7 @@
         <v>2</v>
       </c>
       <c r="Z17" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA17" s="20" t="s">
         <v>3</v>
@@ -6624,7 +6621,7 @@
         <v>75</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C18" s="25">
         <v>16</v>
@@ -6636,7 +6633,7 @@
         <v>90</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G18" s="27">
         <v>5</v>
@@ -6645,7 +6642,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>130</v>
@@ -6682,7 +6679,7 @@
       </c>
       <c r="U18" s="8"/>
       <c r="V18" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W18" s="20" t="s">
         <v>75</v>
@@ -6694,7 +6691,7 @@
         <v>2</v>
       </c>
       <c r="Z18" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA18" s="20" t="s">
         <v>3</v>
@@ -6842,7 +6839,7 @@
         <v>126</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="25">
         <v>20</v>
@@ -6854,7 +6851,7 @@
         <v>82</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G19" s="27">
         <v>13</v>
@@ -6863,7 +6860,7 @@
         <v>13</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>131</v>
@@ -6900,7 +6897,7 @@
       </c>
       <c r="U19" s="8"/>
       <c r="V19" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W19" s="20" t="s">
         <v>126</v>
@@ -6912,7 +6909,7 @@
         <v>2</v>
       </c>
       <c r="Z19" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA19" s="20" t="s">
         <v>3</v>
@@ -7060,7 +7057,7 @@
         <v>81</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C20" s="25">
         <v>22</v>
@@ -7072,7 +7069,7 @@
         <v>82</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G20" s="27">
         <v>73</v>
@@ -7081,7 +7078,7 @@
         <v>76</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>131</v>
@@ -7120,7 +7117,7 @@
         <v>62</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W20" s="20" t="s">
         <v>81</v>
@@ -7132,7 +7129,7 @@
         <v>2</v>
       </c>
       <c r="Z20" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA20" s="20" t="s">
         <v>3</v>
@@ -7277,10 +7274,10 @@
     </row>
     <row r="21" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C21" s="25">
         <v>23</v>
@@ -7292,7 +7289,7 @@
         <v>91</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G21" s="27">
         <v>5</v>
@@ -7301,7 +7298,7 @@
         <v>5</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>130</v>
@@ -7343,16 +7340,16 @@
         <v>26037535</v>
       </c>
       <c r="W21" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X21" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Y21" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z21" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA21" s="20" t="s">
         <v>3</v>
@@ -7497,22 +7494,22 @@
     </row>
     <row r="22" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C22" s="25">
         <v>26</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G22" s="27">
         <v>7</v>
@@ -7521,7 +7518,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>130</v>
@@ -7563,16 +7560,16 @@
         <v>15085543</v>
       </c>
       <c r="W22" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X22" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Y22" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z22" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA22" s="20" t="s">
         <v>3</v>
@@ -7720,7 +7717,7 @@
         <v>64</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C23" s="25">
         <v>27</v>
@@ -7732,7 +7729,7 @@
         <v>92</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G23" s="27">
         <v>3</v>
@@ -7741,19 +7738,19 @@
         <v>3</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>129</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>129</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>22</v>
@@ -7778,7 +7775,7 @@
       </c>
       <c r="U23" s="8"/>
       <c r="V23" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W23" s="20" t="s">
         <v>64</v>
@@ -7790,7 +7787,7 @@
         <v>2</v>
       </c>
       <c r="Z23" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA23" s="20" t="s">
         <v>3</v>
@@ -7938,7 +7935,7 @@
         <v>78</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C24" s="25">
         <v>28</v>
@@ -7950,7 +7947,7 @@
         <v>93</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G24" s="27">
         <v>1</v>
@@ -7959,7 +7956,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>130</v>
@@ -7986,17 +7983,17 @@
         <v>117</v>
       </c>
       <c r="R24" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="S24" s="10" t="s">
         <v>223</v>
-      </c>
-      <c r="S24" s="10" t="s">
-        <v>224</v>
       </c>
       <c r="T24" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U24" s="8"/>
       <c r="V24" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W24" s="20" t="s">
         <v>78</v>
@@ -8008,7 +8005,7 @@
         <v>2</v>
       </c>
       <c r="Z24" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA24" s="20" t="s">
         <v>3</v>
@@ -8153,10 +8150,10 @@
     </row>
     <row r="25" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C25" s="25">
         <v>36</v>
@@ -8168,7 +8165,7 @@
         <v>121</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G25" s="27">
         <v>1</v>
@@ -8204,29 +8201,29 @@
         <v>117</v>
       </c>
       <c r="R25" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="S25" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="S25" s="10" t="s">
-        <v>178</v>
       </c>
       <c r="T25" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U25" s="8"/>
       <c r="V25" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W25" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="X25" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Y25" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z25" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA25" s="20" t="s">
         <v>3</v>
@@ -8371,10 +8368,10 @@
     </row>
     <row r="26" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C26" s="25">
         <v>37</v>
@@ -8383,10 +8380,10 @@
         <v>20</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G26" s="25">
         <v>1</v>
@@ -8395,25 +8392,25 @@
         <v>1</v>
       </c>
       <c r="I26" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>129</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>129</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>129</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>84</v>
@@ -8422,29 +8419,29 @@
         <v>117</v>
       </c>
       <c r="R26" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="S26" s="10" t="s">
         <v>225</v>
-      </c>
-      <c r="S26" s="10" t="s">
-        <v>226</v>
       </c>
       <c r="T26" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U26" s="8"/>
       <c r="V26" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W26" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X26" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y26" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z26" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA26" s="20" t="s">
         <v>3</v>
@@ -8592,7 +8589,7 @@
         <v>120</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C27" s="25">
         <v>40</v>
@@ -8604,7 +8601,7 @@
         <v>119</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G27" s="27">
         <v>1</v>
@@ -8613,7 +8610,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>130</v>
@@ -8640,11 +8637,11 @@
         <v>117</v>
       </c>
       <c r="R27" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="S27" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="S27" s="10" t="s">
-        <v>236</v>
-      </c>
       <c r="T27" s="8" t="s">
         <v>43</v>
       </c>
@@ -8652,7 +8649,7 @@
         <v>43</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W27" s="20" t="s">
         <v>120</v>
@@ -8664,7 +8661,7 @@
         <v>2</v>
       </c>
       <c r="Z27" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA27" s="20" t="s">
         <v>3</v>
@@ -8812,7 +8809,7 @@
         <v>124</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C28" s="25">
         <v>42</v>
@@ -8824,7 +8821,7 @@
         <v>96</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G28" s="25">
         <v>1</v>
@@ -8833,19 +8830,19 @@
         <v>1</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>129</v>
       </c>
       <c r="K28" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L28" s="13" t="s">
         <v>129</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N28" s="14" t="s">
         <v>22</v>
@@ -8870,7 +8867,7 @@
       </c>
       <c r="U28" s="7"/>
       <c r="V28" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W28" s="20" t="s">
         <v>124</v>
@@ -8882,7 +8879,7 @@
         <v>2</v>
       </c>
       <c r="Z28" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA28" s="20" t="s">
         <v>3</v>
@@ -9030,7 +9027,7 @@
         <v>123</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C29" s="25">
         <v>43</v>
@@ -9042,7 +9039,7 @@
         <v>125</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G29" s="25">
         <v>5</v>
@@ -9051,7 +9048,7 @@
         <v>5</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J29" s="13" t="s">
         <v>129</v>
@@ -9088,7 +9085,7 @@
       </c>
       <c r="U29" s="8"/>
       <c r="V29" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W29" s="20" t="s">
         <v>123</v>
@@ -9100,7 +9097,7 @@
         <v>2</v>
       </c>
       <c r="Z29" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA29" s="20" t="s">
         <v>3</v>
@@ -9260,7 +9257,7 @@
         <v>104</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G30" s="27">
         <v>2</v>
@@ -9308,7 +9305,7 @@
         <v>34</v>
       </c>
       <c r="V30" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W30" s="20" t="s">
         <v>25</v>
@@ -9320,7 +9317,7 @@
         <v>2</v>
       </c>
       <c r="Z30" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA30" s="20" t="s">
         <v>3</v>
@@ -9465,7 +9462,7 @@
     </row>
     <row r="31" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>84</v>
@@ -9480,7 +9477,7 @@
         <v>104</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G31" s="27">
         <v>2</v>
@@ -9526,19 +9523,19 @@
       </c>
       <c r="U31" s="8"/>
       <c r="V31" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W31" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="X31" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Y31" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z31" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA31" s="20" t="s">
         <v>3</v>
@@ -9683,10 +9680,10 @@
     </row>
     <row r="32" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C32" s="25">
         <v>46</v>
@@ -9698,7 +9695,7 @@
         <v>17</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G32" s="25">
         <v>1</v>
@@ -9707,25 +9704,25 @@
         <v>2</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>129</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>129</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>129</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>84</v>
@@ -9744,19 +9741,19 @@
       </c>
       <c r="U32" s="8"/>
       <c r="V32" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W32" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X32" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Y32" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z32" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA32" s="20" t="s">
         <v>3</v>
@@ -9901,10 +9898,10 @@
     </row>
     <row r="33" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C33" s="25">
         <v>47</v>
@@ -9913,10 +9910,10 @@
         <v>15</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G33" s="27">
         <v>1</v>
@@ -9952,11 +9949,11 @@
         <v>117</v>
       </c>
       <c r="R33" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="S33" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="S33" s="10" t="s">
-        <v>247</v>
-      </c>
       <c r="T33" s="8" t="s">
         <v>43</v>
       </c>
@@ -9964,19 +9961,19 @@
         <v>43</v>
       </c>
       <c r="V33" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W33" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="X33" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y33" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z33" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA33" s="20" t="s">
         <v>3</v>
@@ -10121,10 +10118,10 @@
     </row>
     <row r="34" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C34" s="25">
         <v>48</v>
@@ -10136,7 +10133,7 @@
         <v>105</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>117</v>
@@ -10151,13 +10148,13 @@
         <v>129</v>
       </c>
       <c r="K34" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L34" s="13" t="s">
         <v>129</v>
       </c>
       <c r="M34" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>43</v>
@@ -10182,19 +10179,19 @@
       </c>
       <c r="U34" s="8"/>
       <c r="V34" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W34" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="X34" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Y34" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z34" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA34" s="20" t="s">
         <v>3</v>
@@ -10339,10 +10336,10 @@
     </row>
     <row r="35" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C35" s="25">
         <v>49</v>
@@ -10351,7 +10348,7 @@
         <v>15</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F35" s="22" t="s">
         <v>117</v>
@@ -10400,19 +10397,19 @@
       </c>
       <c r="U35" s="8"/>
       <c r="V35" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W35" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X35" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Y35" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z35" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA35" s="20" t="s">
         <v>3</v>
@@ -10557,10 +10554,10 @@
     </row>
     <row r="36" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C36" s="25">
         <v>50</v>
@@ -10569,7 +10566,7 @@
         <v>21</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F36" s="22" t="s">
         <v>117</v>
@@ -10608,29 +10605,29 @@
         <v>117</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="T36" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U36" s="8"/>
       <c r="V36" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W36" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="X36" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Y36" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z36" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA36" s="20" t="s">
         <v>3</v>
@@ -10778,7 +10775,7 @@
         <v>128</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C37" s="25">
         <v>51</v>
@@ -10787,10 +10784,10 @@
         <v>21</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G37" s="25">
         <v>4</v>
@@ -10826,17 +10823,17 @@
         <v>117</v>
       </c>
       <c r="R37" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="S37" s="10" t="s">
         <v>183</v>
-      </c>
-      <c r="S37" s="10" t="s">
-        <v>184</v>
       </c>
       <c r="T37" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U37" s="8"/>
       <c r="V37" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W37" s="20" t="s">
         <v>128</v>
@@ -10848,7 +10845,7 @@
         <v>2</v>
       </c>
       <c r="Z37" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA37" s="20" t="s">
         <v>3</v>
@@ -10993,10 +10990,10 @@
     </row>
     <row r="38" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C38" s="25">
         <v>54</v>
@@ -11005,10 +11002,10 @@
         <v>20</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G38" s="27">
         <v>3</v>
@@ -11054,19 +11051,19 @@
       </c>
       <c r="U38" s="8"/>
       <c r="V38" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W38" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X38" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Y38" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z38" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA38" s="20" t="s">
         <v>3</v>
@@ -11211,10 +11208,10 @@
     </row>
     <row r="39" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C39" s="25">
         <v>55</v>
@@ -11226,7 +11223,7 @@
         <v>17</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G39" s="25" t="s">
         <v>117</v>
@@ -11272,19 +11269,19 @@
       </c>
       <c r="U39" s="8"/>
       <c r="V39" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W39" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="X39" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y39" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z39" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA39" s="20" t="s">
         <v>3</v>
@@ -11429,10 +11426,10 @@
     </row>
     <row r="40" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C40" s="25">
         <v>56</v>
@@ -11444,7 +11441,7 @@
         <v>107</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G40" s="27">
         <v>3</v>
@@ -11453,7 +11450,7 @@
         <v>3</v>
       </c>
       <c r="I40" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J40" s="13" t="s">
         <v>129</v>
@@ -11489,19 +11486,19 @@
         <v>43</v>
       </c>
       <c r="V40" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W40" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X40" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y40" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z40" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA40" s="20" t="s">
         <v>3</v>
@@ -11646,10 +11643,10 @@
     </row>
     <row r="41" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C41" s="25">
         <v>58</v>
@@ -11658,7 +11655,7 @@
         <v>15</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F41" s="22" t="s">
         <v>117</v>
@@ -11707,19 +11704,19 @@
       </c>
       <c r="U41" s="8"/>
       <c r="V41" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W41" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="X41" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Y41" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z41" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA41" s="20" t="s">
         <v>3</v>
@@ -11864,10 +11861,10 @@
     </row>
     <row r="42" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C42" s="25">
         <v>59</v>
@@ -11876,7 +11873,7 @@
         <v>83</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F42" s="22" t="s">
         <v>117</v>
@@ -11915,28 +11912,28 @@
         <v>117</v>
       </c>
       <c r="R42" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T42" s="8" t="s">
         <v>43</v>
       </c>
       <c r="V42" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W42" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X42" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Y42" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z42" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA42" s="20" t="s">
         <v>3</v>
@@ -12081,10 +12078,10 @@
     </row>
     <row r="43" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C43" s="25">
         <v>60</v>
@@ -12093,10 +12090,10 @@
         <v>15</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G43" s="29">
         <v>1</v>
@@ -12144,19 +12141,19 @@
         <v>43</v>
       </c>
       <c r="V43" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W43" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="X43" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Y43" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z43" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA43" s="20" t="s">
         <v>3</v>
@@ -12301,10 +12298,10 @@
     </row>
     <row r="44" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C44" s="25">
         <v>61</v>
@@ -12313,10 +12310,10 @@
         <v>15</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G44" s="29">
         <v>1</v>
@@ -12364,19 +12361,19 @@
         <v>43</v>
       </c>
       <c r="V44" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W44" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X44" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Y44" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z44" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA44" s="20" t="s">
         <v>3</v>
@@ -12521,10 +12518,10 @@
     </row>
     <row r="45" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C45" s="25">
         <v>62</v>
@@ -12533,10 +12530,10 @@
         <v>15</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G45" s="29">
         <v>1</v>
@@ -12584,19 +12581,19 @@
         <v>43</v>
       </c>
       <c r="V45" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W45" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X45" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Y45" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z45" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA45" s="20" t="s">
         <v>3</v>
@@ -12741,10 +12738,10 @@
     </row>
     <row r="46" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C46" s="25">
         <v>63</v>
@@ -12792,11 +12789,11 @@
         <v>116</v>
       </c>
       <c r="R46" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="S46" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="S46" s="10" t="s">
-        <v>195</v>
-      </c>
       <c r="T46" s="8" t="s">
         <v>43</v>
       </c>
@@ -12804,19 +12801,19 @@
         <v>43</v>
       </c>
       <c r="V46" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W46" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X46" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Y46" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z46" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA46" s="20" t="s">
         <v>3</v>
@@ -12961,10 +12958,10 @@
     </row>
     <row r="47" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C47" s="25">
         <v>64</v>
@@ -13022,19 +13019,19 @@
       </c>
       <c r="U47" s="8"/>
       <c r="V47" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W47" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X47" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y47" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z47" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA47" s="20" t="s">
         <v>3</v>
@@ -13179,10 +13176,10 @@
     </row>
     <row r="48" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C48" s="25">
         <v>75</v>
@@ -13191,7 +13188,7 @@
         <v>15</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F48" s="22" t="s">
         <v>117</v>
@@ -13240,19 +13237,19 @@
       </c>
       <c r="U48" s="8"/>
       <c r="V48" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W48" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="X48" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Y48" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z48" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA48" s="20" t="s">
         <v>3</v>
@@ -13397,10 +13394,10 @@
     </row>
     <row r="49" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C49" s="25">
         <v>76</v>
@@ -13409,7 +13406,7 @@
         <v>21</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F49" s="22" t="s">
         <v>117</v>
@@ -13458,19 +13455,19 @@
       </c>
       <c r="U49" s="8"/>
       <c r="V49" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W49" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="X49" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Y49" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z49" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA49" s="20" t="s">
         <v>3</v>
@@ -13615,10 +13612,10 @@
     </row>
     <row r="50" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C50" s="25">
         <v>86</v>
@@ -13630,7 +13627,7 @@
         <v>119</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G50" s="25">
         <v>5</v>
@@ -13639,7 +13636,7 @@
         <v>5</v>
       </c>
       <c r="I50" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>130</v>
@@ -13666,11 +13663,11 @@
         <v>117</v>
       </c>
       <c r="R50" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="S50" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="S50" s="10" t="s">
-        <v>197</v>
-      </c>
       <c r="T50" s="8" t="s">
         <v>43</v>
       </c>
@@ -13678,19 +13675,19 @@
         <v>43</v>
       </c>
       <c r="V50" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W50" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X50" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y50" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z50" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA50" s="20" t="s">
         <v>3</v>
@@ -13835,10 +13832,10 @@
     </row>
     <row r="51" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C51" s="25">
         <v>87</v>
@@ -13847,7 +13844,7 @@
         <v>15</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F51" s="22" t="s">
         <v>117</v>
@@ -13886,11 +13883,11 @@
         <v>117</v>
       </c>
       <c r="R51" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="S51" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="S51" s="10" t="s">
-        <v>240</v>
-      </c>
       <c r="T51" s="8" t="s">
         <v>43</v>
       </c>
@@ -13898,19 +13895,19 @@
         <v>43</v>
       </c>
       <c r="V51" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W51" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="X51" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Y51" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z51" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA51" s="20" t="s">
         <v>3</v>
@@ -14055,10 +14052,10 @@
     </row>
     <row r="52" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C52" s="25">
         <v>88</v>
@@ -14067,7 +14064,7 @@
         <v>15</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F52" s="22" t="s">
         <v>117</v>
@@ -14102,31 +14099,31 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="33"/>
       <c r="R52" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="S52" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="T52" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U52" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V52" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="W52" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="S52" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="T52" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U52" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="V52" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="W52" s="20" t="s">
-        <v>274</v>
-      </c>
       <c r="X52" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y52" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z52" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA52" s="20" t="s">
         <v>3</v>
@@ -14271,10 +14268,10 @@
     </row>
     <row r="53" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C53" s="25">
         <v>92</v>
@@ -14283,10 +14280,10 @@
         <v>15</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G53" s="27">
         <v>1</v>
@@ -14319,13 +14316,13 @@
         <v>84</v>
       </c>
       <c r="Q53" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R53" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S53" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T53" s="8" t="s">
         <v>43</v>
@@ -14334,19 +14331,19 @@
         <v>43</v>
       </c>
       <c r="V53" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W53" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X53" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Y53" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z53" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA53" s="20" t="s">
         <v>3</v>
@@ -14491,10 +14488,10 @@
     </row>
     <row r="54" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C54" s="25">
         <v>100</v>
@@ -14503,7 +14500,7 @@
         <v>15</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F54" s="22" t="s">
         <v>117</v>
@@ -14542,29 +14539,29 @@
         <v>117</v>
       </c>
       <c r="R54" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S54" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T54" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U54" s="8"/>
       <c r="V54" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W54" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X54" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y54" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z54" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA54" s="20" t="s">
         <v>3</v>
@@ -14709,10 +14706,10 @@
     </row>
     <row r="55" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C55" s="25">
         <v>160</v>
@@ -14724,7 +14721,7 @@
         <v>40</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G55" s="25">
         <v>1</v>
@@ -14733,7 +14730,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J55" s="13" t="s">
         <v>129</v>
@@ -14757,31 +14754,31 @@
         <v>84</v>
       </c>
       <c r="Q55" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R55" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S55" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T55" s="8" t="s">
         <v>43</v>
       </c>
       <c r="V55" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="W55" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="W55" s="20" t="s">
-        <v>215</v>
-      </c>
       <c r="X55" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y55" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z55" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA55" s="20" t="s">
         <v>3</v>
@@ -14926,10 +14923,10 @@
     </row>
     <row r="56" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C56" s="25">
         <v>162</v>
@@ -14938,10 +14935,10 @@
         <v>15</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G56" s="27">
         <v>1</v>
@@ -14950,7 +14947,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>129</v>
@@ -14990,16 +14987,16 @@
         <v>27377618</v>
       </c>
       <c r="W56" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="X56" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y56" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z56" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA56" s="20" t="s">
         <v>3</v>
@@ -15144,10 +15141,10 @@
     </row>
     <row r="57" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C57" s="25">
         <v>163</v>
@@ -15156,10 +15153,10 @@
         <v>15</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G57" s="27">
         <v>1</v>
@@ -15168,7 +15165,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>129</v>
@@ -15208,16 +15205,16 @@
         <v>27377618</v>
       </c>
       <c r="W57" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="X57" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y57" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z57" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA57" s="20" t="s">
         <v>3</v>
@@ -15362,10 +15359,10 @@
     </row>
     <row r="58" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C58" s="25">
         <v>164</v>
@@ -15374,10 +15371,10 @@
         <v>15</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G58" s="27">
         <v>1</v>
@@ -15386,7 +15383,7 @@
         <v>1</v>
       </c>
       <c r="I58" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>129</v>
@@ -15426,16 +15423,16 @@
         <v>27377618</v>
       </c>
       <c r="W58" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X58" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y58" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z58" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA58" s="20" t="s">
         <v>3</v>
@@ -15580,10 +15577,10 @@
     </row>
     <row r="59" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C59" s="25">
         <v>174</v>
@@ -15592,10 +15589,10 @@
         <v>15</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G59" s="27">
         <v>1</v>
@@ -15604,7 +15601,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>43</v>
@@ -15631,11 +15628,11 @@
         <v>117</v>
       </c>
       <c r="R59" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="S59" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="S59" s="10" t="s">
-        <v>176</v>
-      </c>
       <c r="T59" s="8" t="s">
         <v>43</v>
       </c>
@@ -15643,19 +15640,19 @@
         <v>43</v>
       </c>
       <c r="V59" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W59" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X59" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y59" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z59" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA59" s="20" t="s">
         <v>3</v>
@@ -15800,10 +15797,10 @@
     </row>
     <row r="60" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C60" s="25">
         <v>175</v>
@@ -15812,7 +15809,7 @@
         <v>15</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F60" s="22" t="s">
         <v>117</v>
@@ -15861,19 +15858,19 @@
       </c>
       <c r="U60" s="8"/>
       <c r="V60" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W60" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X60" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y60" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z60" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA60" s="20" t="s">
         <v>3</v>
@@ -16018,10 +16015,10 @@
     </row>
     <row r="61" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C61" s="25">
         <v>176</v>
@@ -16030,7 +16027,7 @@
         <v>15</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F61" s="22" t="s">
         <v>117</v>
@@ -16079,19 +16076,19 @@
       </c>
       <c r="U61" s="8"/>
       <c r="V61" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W61" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="X61" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Y61" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z61" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA61" s="20" t="s">
         <v>3</v>
@@ -16236,10 +16233,10 @@
     </row>
     <row r="62" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C62" s="25">
         <v>180</v>
@@ -16248,10 +16245,10 @@
         <v>15</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G62" s="27">
         <v>2</v>
@@ -16260,7 +16257,7 @@
         <v>2</v>
       </c>
       <c r="I62" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>43</v>
@@ -16287,11 +16284,11 @@
         <v>117</v>
       </c>
       <c r="R62" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="S62" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="S62" s="10" t="s">
-        <v>186</v>
-      </c>
       <c r="T62" s="8" t="s">
         <v>43</v>
       </c>
@@ -16299,19 +16296,19 @@
         <v>43</v>
       </c>
       <c r="V62" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W62" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X62" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Y62" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z62" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA62" s="20" t="s">
         <v>3</v>
@@ -16456,10 +16453,10 @@
     </row>
     <row r="63" spans="1:164" s="26" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C63" s="25">
         <v>187</v>
@@ -16468,10 +16465,10 @@
         <v>15</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G63" s="25">
         <v>1</v>
@@ -16507,11 +16504,11 @@
         <v>117</v>
       </c>
       <c r="R63" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="S63" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="S63" s="10" t="s">
-        <v>233</v>
-      </c>
       <c r="T63" s="8" t="s">
         <v>43</v>
       </c>
@@ -16519,19 +16516,19 @@
         <v>43</v>
       </c>
       <c r="V63" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W63" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X63" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Y63" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z63" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA63" s="20" t="s">
         <v>3</v>
@@ -16676,10 +16673,10 @@
     </row>
     <row r="64" spans="1:164" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C64" s="25">
         <v>190</v>
@@ -16691,7 +16688,7 @@
         <v>40</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G64" s="25">
         <v>1</v>
@@ -16727,29 +16724,29 @@
         <v>117</v>
       </c>
       <c r="R64" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="S64" s="10" t="s">
         <v>242</v>
-      </c>
-      <c r="S64" s="10" t="s">
-        <v>243</v>
       </c>
       <c r="T64" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U64" s="7"/>
       <c r="V64" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W64" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X64" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y64" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z64" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA64" s="20" t="s">
         <v>3</v>
@@ -16894,10 +16891,10 @@
     </row>
     <row r="65" spans="1:164" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C65" s="25">
         <v>191</v>
@@ -16909,7 +16906,7 @@
         <v>40</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G65" s="25" t="s">
         <v>117</v>
@@ -16955,19 +16952,19 @@
       </c>
       <c r="U65" s="7"/>
       <c r="V65" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W65" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X65" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y65" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z65" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA65" s="20" t="s">
         <v>3</v>
@@ -17112,10 +17109,10 @@
     </row>
     <row r="66" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C66" s="25">
         <v>192</v>
@@ -17127,7 +17124,7 @@
         <v>40</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G66" s="25" t="s">
         <v>117</v>
@@ -17172,19 +17169,19 @@
         <v>43</v>
       </c>
       <c r="V66" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W66" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="X66" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Y66" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z66" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA66" s="20" t="s">
         <v>3</v>
@@ -17329,7 +17326,7 @@
     </row>
     <row r="67" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B67" s="25" t="s">
         <v>84</v>
@@ -17344,7 +17341,7 @@
         <v>94</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G67" s="29">
         <v>1</v>
@@ -17390,19 +17387,19 @@
       </c>
       <c r="U67" s="7"/>
       <c r="V67" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W67" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X67" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y67" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z67" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA67" s="20" t="s">
         <v>3</v>
@@ -17547,7 +17544,7 @@
     </row>
     <row r="68" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B68" s="25" t="s">
         <v>84</v>
@@ -17562,7 +17559,7 @@
         <v>94</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G68" s="29">
         <v>1</v>
@@ -17607,19 +17604,19 @@
         <v>43</v>
       </c>
       <c r="V68" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W68" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X68" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y68" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z68" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA68" s="20" t="s">
         <v>3</v>
@@ -17764,7 +17761,7 @@
     </row>
     <row r="69" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B69" s="25" t="s">
         <v>84</v>
@@ -17779,7 +17776,7 @@
         <v>94</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G69" s="29">
         <v>1</v>
@@ -17825,19 +17822,19 @@
       </c>
       <c r="U69" s="7"/>
       <c r="V69" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W69" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X69" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y69" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z69" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA69" s="20" t="s">
         <v>3</v>
@@ -17982,10 +17979,10 @@
     </row>
     <row r="70" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C70" s="25">
         <v>201</v>
@@ -17994,10 +17991,10 @@
         <v>15</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G70" s="27">
         <v>1</v>
@@ -18006,7 +18003,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>43</v>
@@ -18033,31 +18030,31 @@
         <v>117</v>
       </c>
       <c r="R70" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="S70" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="S70" s="10" t="s">
+      <c r="T70" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U70" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V70" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="W70" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="T70" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U70" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="V70" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="W70" s="20" t="s">
-        <v>181</v>
-      </c>
       <c r="X70" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y70" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z70" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA70" s="20" t="s">
         <v>3</v>
@@ -18202,10 +18199,10 @@
     </row>
     <row r="71" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C71" s="25">
         <v>202</v>
@@ -18214,10 +18211,10 @@
         <v>15</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G71" s="27">
         <v>1</v>
@@ -18226,7 +18223,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>43</v>
@@ -18253,11 +18250,11 @@
         <v>117</v>
       </c>
       <c r="R71" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="S71" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="S71" s="10" t="s">
-        <v>180</v>
-      </c>
       <c r="T71" s="8" t="s">
         <v>43</v>
       </c>
@@ -18265,19 +18262,19 @@
         <v>43</v>
       </c>
       <c r="V71" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W71" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="X71" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y71" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z71" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA71" s="20" t="s">
         <v>3</v>
@@ -18422,10 +18419,10 @@
     </row>
     <row r="72" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C72" s="25">
         <v>203</v>
@@ -18434,10 +18431,10 @@
         <v>15</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G72" s="27">
         <v>1</v>
@@ -18485,19 +18482,19 @@
         <v>43</v>
       </c>
       <c r="V72" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W72" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X72" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Y72" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z72" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA72" s="20" t="s">
         <v>3</v>
@@ -18642,7 +18639,7 @@
     </row>
     <row r="73" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B73" s="25" t="s">
         <v>84</v>
@@ -18654,10 +18651,10 @@
         <v>15</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G73" s="27">
         <v>1</v>
@@ -18666,7 +18663,7 @@
         <v>1</v>
       </c>
       <c r="I73" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>43</v>
@@ -18693,10 +18690,10 @@
         <v>117</v>
       </c>
       <c r="R73" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S73" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T73" s="8" t="s">
         <v>43</v>
@@ -18705,19 +18702,19 @@
         <v>43</v>
       </c>
       <c r="V73" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W73" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X73" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y73" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z73" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA73" s="20" t="s">
         <v>3</v>
@@ -18862,10 +18859,10 @@
     </row>
     <row r="74" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C74" s="25">
         <v>365</v>
@@ -18877,7 +18874,7 @@
         <v>95</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G74" s="25">
         <v>7</v>
@@ -18886,7 +18883,7 @@
         <v>7</v>
       </c>
       <c r="I74" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>43</v>
@@ -18913,10 +18910,10 @@
         <v>117</v>
       </c>
       <c r="R74" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S74" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T74" s="8" t="s">
         <v>43</v>
@@ -18925,19 +18922,19 @@
         <v>43</v>
       </c>
       <c r="V74" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W74" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X74" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y74" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z74" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA74" s="20" t="s">
         <v>3</v>
@@ -18945,10 +18942,10 @@
     </row>
     <row r="75" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C75" s="25">
         <v>366</v>
@@ -18960,7 +18957,7 @@
         <v>95</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G75" s="25">
         <v>20</v>
@@ -18969,7 +18966,7 @@
         <v>20</v>
       </c>
       <c r="I75" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>43</v>
@@ -18996,10 +18993,10 @@
         <v>117</v>
       </c>
       <c r="R75" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S75" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T75" s="8" t="s">
         <v>43</v>
@@ -19008,19 +19005,19 @@
         <v>43</v>
       </c>
       <c r="V75" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W75" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X75" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y75" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z75" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA75" s="20" t="s">
         <v>3</v>
@@ -19165,10 +19162,10 @@
     </row>
     <row r="76" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C76" s="25">
         <v>367</v>
@@ -19177,10 +19174,10 @@
         <v>21</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G76" s="25" t="s">
         <v>117</v>
@@ -19224,19 +19221,19 @@
       </c>
       <c r="U76" s="7"/>
       <c r="V76" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W76" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="X76" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y76" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z76" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA76" s="20" t="s">
         <v>3</v>
@@ -19381,10 +19378,10 @@
     </row>
     <row r="77" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C77" s="25">
         <v>368</v>
@@ -19393,7 +19390,7 @@
         <v>21</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F77" s="22" t="s">
         <v>117</v>
@@ -19440,19 +19437,19 @@
       </c>
       <c r="U77" s="7"/>
       <c r="V77" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W77" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="X77" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Y77" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z77" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA77" s="20" t="s">
         <v>3</v>
@@ -19597,10 +19594,10 @@
     </row>
     <row r="78" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C78" s="25">
         <v>369</v>
@@ -19609,7 +19606,7 @@
         <v>15</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F78" s="22" t="s">
         <v>117</v>
@@ -19656,19 +19653,19 @@
       </c>
       <c r="U78" s="7"/>
       <c r="V78" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W78" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="X78" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Y78" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z78" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA78" s="20" t="s">
         <v>3</v>
@@ -19813,10 +19810,10 @@
     </row>
     <row r="79" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C79" s="25">
         <v>370</v>
@@ -19825,10 +19822,10 @@
         <v>15</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G79" s="27">
         <v>1</v>
@@ -19837,13 +19834,13 @@
         <v>1</v>
       </c>
       <c r="I79" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J79" s="13" t="s">
         <v>129</v>
       </c>
       <c r="K79" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L79" s="4" t="s">
         <v>43</v>
@@ -19874,19 +19871,19 @@
       </c>
       <c r="U79" s="7"/>
       <c r="V79" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W79" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X79" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y79" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z79" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA79" s="20" t="s">
         <v>3</v>
@@ -20031,10 +20028,10 @@
     </row>
     <row r="80" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C80" s="25">
         <v>371</v>
@@ -20043,10 +20040,10 @@
         <v>15</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G80" s="25" t="s">
         <v>117</v>
@@ -20090,19 +20087,19 @@
       </c>
       <c r="U80" s="7"/>
       <c r="V80" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W80" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="X80" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y80" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z80" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA80" s="20" t="s">
         <v>3</v>
@@ -20247,10 +20244,10 @@
     </row>
     <row r="81" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C81" s="25">
         <v>372</v>
@@ -20259,7 +20256,7 @@
         <v>15</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F81" s="22" t="s">
         <v>117</v>
@@ -20298,29 +20295,29 @@
         <v>117</v>
       </c>
       <c r="R81" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="S81" s="10" t="s">
         <v>257</v>
-      </c>
-      <c r="S81" s="10" t="s">
-        <v>258</v>
       </c>
       <c r="T81" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U81" s="7"/>
       <c r="V81" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W81" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X81" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Y81" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z81" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA81" s="20" t="s">
         <v>3</v>
@@ -20468,7 +20465,7 @@
         <v>133</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C82" s="25">
         <v>500</v>
@@ -20480,7 +20477,7 @@
         <v>135</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G82" s="27">
         <v>1</v>
@@ -20489,19 +20486,19 @@
         <v>1</v>
       </c>
       <c r="I82" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="K82" s="13" t="s">
         <v>135</v>
       </c>
+      <c r="K82" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="L82" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="M82" s="13" t="s">
         <v>135</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="N82" s="14" t="s">
         <v>22</v>
@@ -20528,7 +20525,7 @@
         <v>43</v>
       </c>
       <c r="V82" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W82" s="20" t="s">
         <v>133</v>
@@ -20540,7 +20537,7 @@
         <v>2</v>
       </c>
       <c r="Z82" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA82" s="20" t="s">
         <v>3</v>
@@ -20551,7 +20548,7 @@
         <v>134</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C83" s="25">
         <v>500</v>
@@ -20563,7 +20560,7 @@
         <v>135</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G83" s="27">
         <v>1</v>
@@ -20572,19 +20569,19 @@
         <v>1</v>
       </c>
       <c r="I83" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="K83" s="13" t="s">
         <v>135</v>
       </c>
+      <c r="K83" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="L83" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="M83" s="13" t="s">
         <v>135</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="N83" s="14" t="s">
         <v>22</v>
@@ -20611,7 +20608,7 @@
         <v>43</v>
       </c>
       <c r="V83" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W83" s="20" t="s">
         <v>134</v>
@@ -20623,7 +20620,7 @@
         <v>2</v>
       </c>
       <c r="Z83" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA83" s="20" t="s">
         <v>3</v>
@@ -20631,10 +20628,10 @@
     </row>
     <row r="84" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C84" s="25">
         <v>500</v>
@@ -20646,7 +20643,7 @@
         <v>135</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G84" s="27">
         <v>1</v>
@@ -20655,19 +20652,19 @@
         <v>1</v>
       </c>
       <c r="I84" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="K84" s="13" t="s">
         <v>135</v>
       </c>
+      <c r="K84" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="L84" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="M84" s="13" t="s">
         <v>135</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="N84" s="14" t="s">
         <v>22</v>
@@ -20694,19 +20691,19 @@
         <v>43</v>
       </c>
       <c r="V84" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W84" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X84" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y84" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z84" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA84" s="20" t="s">
         <v>3</v>
@@ -22540,10 +22537,10 @@
   <sheetData>
     <row r="1" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C1" s="25">
         <v>53</v>
@@ -22552,10 +22549,10 @@
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G1" s="27">
         <v>1</v>
@@ -22601,19 +22598,19 @@
       </c>
       <c r="U1" s="8"/>
       <c r="V1" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W1" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X1" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA1" s="20" t="s">
         <v>3</v>

--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E7D1EB-9441-F242-8C30-7EE137F22435}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1079BE36-6B4B-1C42-84C4-BE0CCA0ED471}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="1100" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11040" yWindow="1060" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="5" r:id="rId1"/>
@@ -504,9 +504,6 @@
     <t>Cavia</t>
   </si>
   <si>
-    <t>Macropus</t>
-  </si>
-  <si>
     <t>Craseonycteris</t>
   </si>
   <si>
@@ -882,12 +879,6 @@
     <t>dependo.176-heterohyrax</t>
   </si>
   <si>
-    <t>procavia</t>
-  </si>
-  <si>
-    <t>heterohyrax</t>
-  </si>
-  <si>
     <t>dependo.202-thamnophis</t>
   </si>
   <si>
@@ -913,6 +904,15 @@
   </si>
   <si>
     <t>dependo.36-phyllostomidae</t>
+  </si>
+  <si>
+    <t>Macropus eugenii</t>
+  </si>
+  <si>
+    <t>Procavia capensis</t>
+  </si>
+  <si>
+    <t>Heterohyrax</t>
   </si>
 </sst>
 </file>
@@ -3405,10 +3405,10 @@
   <dimension ref="A1:FH97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G74" sqref="G74"/>
+      <selection pane="bottomRight" activeCell="E53" sqref="A1:AA84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3447,28 +3447,28 @@
         <v>74</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>139</v>
@@ -3530,7 +3530,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C2" s="25">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>156</v>
+        <v>290</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G2" s="27">
         <v>1</v>
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>129</v>
@@ -3611,7 +3611,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C3" s="25">
         <v>1</v>
@@ -3623,7 +3623,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G3" s="25">
         <v>23</v>
@@ -3632,7 +3632,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>130</v>
@@ -3691,10 +3691,10 @@
     </row>
     <row r="4" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="25">
         <v>2</v>
@@ -3706,7 +3706,7 @@
         <v>127</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G4" s="25">
         <v>8</v>
@@ -3715,7 +3715,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>129</v>
@@ -3755,10 +3755,10 @@
         <v>32913662</v>
       </c>
       <c r="W4" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X4" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y4" s="20" t="s">
         <v>2</v>
@@ -3775,7 +3775,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="25">
         <v>3</v>
@@ -3787,7 +3787,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G5" s="25">
         <v>3</v>
@@ -3796,7 +3796,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>129</v>
@@ -3995,7 +3995,7 @@
         <v>111</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" s="25">
         <v>4</v>
@@ -4007,7 +4007,7 @@
         <v>109</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G6" s="27">
         <v>4</v>
@@ -4016,7 +4016,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>130</v>
@@ -4055,7 +4055,7 @@
         <v>27.9</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W6" s="20" t="s">
         <v>111</v>
@@ -4215,7 +4215,7 @@
         <v>110</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C7" s="25">
         <v>5</v>
@@ -4227,7 +4227,7 @@
         <v>109</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G7" s="27">
         <v>4</v>
@@ -4236,7 +4236,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>129</v>
@@ -4275,7 +4275,7 @@
         <v>27.9</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W7" s="20" t="s">
         <v>110</v>
@@ -4435,7 +4435,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C8" s="25">
         <v>6</v>
@@ -4444,10 +4444,10 @@
         <v>15</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G8" s="25">
         <v>1</v>
@@ -4456,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>129</v>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="U8" s="7"/>
       <c r="V8" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W8" s="20" t="s">
         <v>9</v>
@@ -4653,7 +4653,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" s="25">
         <v>7</v>
@@ -4665,7 +4665,7 @@
         <v>88</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G9" s="25">
         <v>1</v>
@@ -4674,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>129</v>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="U9" s="7"/>
       <c r="V9" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W9" s="20" t="s">
         <v>10</v>
@@ -4871,7 +4871,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10" s="25">
         <v>8</v>
@@ -4883,7 +4883,7 @@
         <v>89</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G10" s="25">
         <v>1</v>
@@ -4892,7 +4892,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>129</v>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="U10" s="7"/>
       <c r="V10" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W10" s="20" t="s">
         <v>11</v>
@@ -5086,10 +5086,10 @@
     </row>
     <row r="11" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C11" s="25">
         <v>9</v>
@@ -5098,10 +5098,10 @@
         <v>83</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G11" s="25">
         <v>2</v>
@@ -5110,7 +5110,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>129</v>
@@ -5136,10 +5136,10 @@
       <c r="Q11" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="R11" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="S11" s="18" t="s">
+      <c r="R11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S11" s="11" t="s">
         <v>43</v>
       </c>
       <c r="T11" s="8" t="s">
@@ -5147,13 +5147,13 @@
       </c>
       <c r="U11" s="7"/>
       <c r="V11" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W11" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="X11" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y11" s="20" t="s">
         <v>2</v>
@@ -5307,7 +5307,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" s="25">
         <v>10</v>
@@ -5319,7 +5319,7 @@
         <v>40</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G12" s="27">
         <v>1</v>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="U12" s="7"/>
       <c r="V12" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W12" s="20" t="s">
         <v>39</v>
@@ -5525,7 +5525,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C13" s="25">
         <v>11</v>
@@ -5537,7 +5537,7 @@
         <v>122</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G13" s="27">
         <v>3</v>
@@ -5572,10 +5572,10 @@
       <c r="Q13" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="R13" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="S13" s="18" t="s">
+      <c r="R13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" s="11" t="s">
         <v>43</v>
       </c>
       <c r="T13" s="8" t="s">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W13" s="20" t="s">
         <v>12</v>
@@ -5743,7 +5743,7 @@
         <v>65</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C14" s="25">
         <v>12</v>
@@ -5755,7 +5755,7 @@
         <v>86</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G14" s="25">
         <v>1</v>
@@ -5764,7 +5764,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>129</v>
@@ -5790,10 +5790,10 @@
       <c r="Q14" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="R14" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="S14" s="18" t="s">
+      <c r="R14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S14" s="11" t="s">
         <v>43</v>
       </c>
       <c r="T14" s="8" t="s">
@@ -5801,7 +5801,7 @@
       </c>
       <c r="U14" s="7"/>
       <c r="V14" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W14" s="20" t="s">
         <v>65</v>
@@ -5961,7 +5961,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C15" s="25">
         <v>13</v>
@@ -5973,7 +5973,7 @@
         <v>87</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G15" s="27">
         <v>3</v>
@@ -5982,7 +5982,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>129</v>
@@ -6021,7 +6021,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W15" s="20" t="s">
         <v>8</v>
@@ -6181,7 +6181,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="25">
         <v>14</v>
@@ -6193,7 +6193,7 @@
         <v>87</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G16" s="27">
         <v>5</v>
@@ -6202,7 +6202,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J16" s="13" t="s">
         <v>129</v>
@@ -6241,7 +6241,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="V16" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W16" s="20" t="s">
         <v>27</v>
@@ -6401,7 +6401,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C17" s="25">
         <v>15</v>
@@ -6413,7 +6413,7 @@
         <v>106</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G17" s="27">
         <v>1</v>
@@ -6422,7 +6422,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>129</v>
@@ -6461,7 +6461,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="V17" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W17" s="20" t="s">
         <v>80</v>
@@ -6621,7 +6621,7 @@
         <v>75</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C18" s="25">
         <v>16</v>
@@ -6633,7 +6633,7 @@
         <v>90</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G18" s="27">
         <v>5</v>
@@ -6642,7 +6642,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>130</v>
@@ -6679,7 +6679,7 @@
       </c>
       <c r="U18" s="8"/>
       <c r="V18" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W18" s="20" t="s">
         <v>75</v>
@@ -6839,7 +6839,7 @@
         <v>126</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C19" s="25">
         <v>20</v>
@@ -6851,7 +6851,7 @@
         <v>82</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G19" s="27">
         <v>13</v>
@@ -6860,7 +6860,7 @@
         <v>13</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>131</v>
@@ -6897,7 +6897,7 @@
       </c>
       <c r="U19" s="8"/>
       <c r="V19" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W19" s="20" t="s">
         <v>126</v>
@@ -7057,7 +7057,7 @@
         <v>81</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C20" s="25">
         <v>22</v>
@@ -7069,7 +7069,7 @@
         <v>82</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G20" s="27">
         <v>73</v>
@@ -7078,7 +7078,7 @@
         <v>76</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>131</v>
@@ -7117,7 +7117,7 @@
         <v>62</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W20" s="20" t="s">
         <v>81</v>
@@ -7274,10 +7274,10 @@
     </row>
     <row r="21" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C21" s="25">
         <v>23</v>
@@ -7289,7 +7289,7 @@
         <v>91</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G21" s="27">
         <v>5</v>
@@ -7298,7 +7298,7 @@
         <v>5</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>130</v>
@@ -7340,10 +7340,10 @@
         <v>26037535</v>
       </c>
       <c r="W21" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X21" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y21" s="20" t="s">
         <v>2</v>
@@ -7494,22 +7494,22 @@
     </row>
     <row r="22" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C22" s="25">
         <v>26</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G22" s="27">
         <v>7</v>
@@ -7518,7 +7518,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>130</v>
@@ -7560,10 +7560,10 @@
         <v>15085543</v>
       </c>
       <c r="W22" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X22" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Y22" s="20" t="s">
         <v>2</v>
@@ -7717,7 +7717,7 @@
         <v>64</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C23" s="25">
         <v>27</v>
@@ -7729,7 +7729,7 @@
         <v>92</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="27">
         <v>3</v>
@@ -7738,7 +7738,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>129</v>
@@ -7764,10 +7764,10 @@
       <c r="Q23" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="R23" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="S23" s="18" t="s">
+      <c r="R23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S23" s="11" t="s">
         <v>43</v>
       </c>
       <c r="T23" s="8" t="s">
@@ -7775,7 +7775,7 @@
       </c>
       <c r="U23" s="8"/>
       <c r="V23" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W23" s="20" t="s">
         <v>64</v>
@@ -7935,7 +7935,7 @@
         <v>78</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C24" s="25">
         <v>28</v>
@@ -7947,7 +7947,7 @@
         <v>93</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G24" s="27">
         <v>1</v>
@@ -7956,7 +7956,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>130</v>
@@ -7983,17 +7983,17 @@
         <v>117</v>
       </c>
       <c r="R24" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="S24" s="10" t="s">
         <v>222</v>
-      </c>
-      <c r="S24" s="10" t="s">
-        <v>223</v>
       </c>
       <c r="T24" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U24" s="8"/>
       <c r="V24" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W24" s="20" t="s">
         <v>78</v>
@@ -8150,10 +8150,10 @@
     </row>
     <row r="25" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C25" s="25">
         <v>36</v>
@@ -8165,7 +8165,7 @@
         <v>121</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G25" s="27">
         <v>1</v>
@@ -8201,23 +8201,23 @@
         <v>117</v>
       </c>
       <c r="R25" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="S25" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="S25" s="10" t="s">
-        <v>177</v>
       </c>
       <c r="T25" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U25" s="8"/>
       <c r="V25" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W25" s="20" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="X25" s="20" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Y25" s="20" t="s">
         <v>2</v>
@@ -8368,10 +8368,10 @@
     </row>
     <row r="26" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C26" s="25">
         <v>37</v>
@@ -8383,7 +8383,7 @@
         <v>154</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G26" s="25">
         <v>1</v>
@@ -8392,7 +8392,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>129</v>
@@ -8419,23 +8419,23 @@
         <v>117</v>
       </c>
       <c r="R26" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="S26" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="S26" s="10" t="s">
-        <v>225</v>
       </c>
       <c r="T26" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U26" s="8"/>
       <c r="V26" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W26" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X26" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y26" s="20" t="s">
         <v>2</v>
@@ -8589,7 +8589,7 @@
         <v>120</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C27" s="25">
         <v>40</v>
@@ -8601,7 +8601,7 @@
         <v>119</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G27" s="27">
         <v>1</v>
@@ -8610,7 +8610,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>130</v>
@@ -8637,11 +8637,11 @@
         <v>117</v>
       </c>
       <c r="R27" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="S27" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="S27" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="T27" s="8" t="s">
         <v>43</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>43</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W27" s="20" t="s">
         <v>120</v>
@@ -8809,7 +8809,7 @@
         <v>124</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C28" s="25">
         <v>42</v>
@@ -8821,7 +8821,7 @@
         <v>96</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G28" s="25">
         <v>1</v>
@@ -8830,7 +8830,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>129</v>
@@ -8856,10 +8856,10 @@
       <c r="Q28" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="R28" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="S28" s="18" t="s">
+      <c r="R28" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S28" s="11" t="s">
         <v>43</v>
       </c>
       <c r="T28" s="8" t="s">
@@ -8867,7 +8867,7 @@
       </c>
       <c r="U28" s="7"/>
       <c r="V28" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W28" s="20" t="s">
         <v>124</v>
@@ -9027,7 +9027,7 @@
         <v>123</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C29" s="25">
         <v>43</v>
@@ -9039,7 +9039,7 @@
         <v>125</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G29" s="25">
         <v>5</v>
@@ -9048,7 +9048,7 @@
         <v>5</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J29" s="13" t="s">
         <v>129</v>
@@ -9074,10 +9074,10 @@
       <c r="Q29" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="R29" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="S29" s="18" t="s">
+      <c r="R29" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S29" s="11" t="s">
         <v>43</v>
       </c>
       <c r="T29" s="8" t="s">
@@ -9085,7 +9085,7 @@
       </c>
       <c r="U29" s="8"/>
       <c r="V29" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W29" s="20" t="s">
         <v>123</v>
@@ -9257,7 +9257,7 @@
         <v>104</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G30" s="27">
         <v>2</v>
@@ -9305,7 +9305,7 @@
         <v>34</v>
       </c>
       <c r="V30" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W30" s="20" t="s">
         <v>25</v>
@@ -9462,7 +9462,7 @@
     </row>
     <row r="31" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>84</v>
@@ -9477,7 +9477,7 @@
         <v>104</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G31" s="27">
         <v>2</v>
@@ -9523,13 +9523,13 @@
       </c>
       <c r="U31" s="8"/>
       <c r="V31" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W31" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X31" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Y31" s="20" t="s">
         <v>2</v>
@@ -9680,10 +9680,10 @@
     </row>
     <row r="32" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C32" s="25">
         <v>46</v>
@@ -9695,7 +9695,7 @@
         <v>17</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G32" s="25">
         <v>1</v>
@@ -9704,7 +9704,7 @@
         <v>2</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>129</v>
@@ -9741,13 +9741,13 @@
       </c>
       <c r="U32" s="8"/>
       <c r="V32" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W32" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X32" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y32" s="20" t="s">
         <v>2</v>
@@ -9898,10 +9898,10 @@
     </row>
     <row r="33" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C33" s="25">
         <v>47</v>
@@ -9910,10 +9910,10 @@
         <v>15</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G33" s="27">
         <v>1</v>
@@ -9949,11 +9949,11 @@
         <v>117</v>
       </c>
       <c r="R33" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="S33" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="S33" s="10" t="s">
-        <v>246</v>
-      </c>
       <c r="T33" s="8" t="s">
         <v>43</v>
       </c>
@@ -9961,13 +9961,13 @@
         <v>43</v>
       </c>
       <c r="V33" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W33" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="X33" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Y33" s="20" t="s">
         <v>2</v>
@@ -10118,10 +10118,10 @@
     </row>
     <row r="34" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C34" s="25">
         <v>48</v>
@@ -10133,7 +10133,7 @@
         <v>105</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>117</v>
@@ -10179,13 +10179,13 @@
       </c>
       <c r="U34" s="8"/>
       <c r="V34" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W34" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X34" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Y34" s="20" t="s">
         <v>2</v>
@@ -10336,10 +10336,10 @@
     </row>
     <row r="35" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C35" s="25">
         <v>49</v>
@@ -10348,7 +10348,7 @@
         <v>15</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F35" s="22" t="s">
         <v>117</v>
@@ -10397,13 +10397,13 @@
       </c>
       <c r="U35" s="8"/>
       <c r="V35" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W35" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X35" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Y35" s="20" t="s">
         <v>2</v>
@@ -10554,10 +10554,10 @@
     </row>
     <row r="36" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C36" s="25">
         <v>50</v>
@@ -10566,7 +10566,7 @@
         <v>21</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F36" s="22" t="s">
         <v>117</v>
@@ -10605,23 +10605,23 @@
         <v>117</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T36" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U36" s="8"/>
       <c r="V36" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W36" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="X36" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y36" s="20" t="s">
         <v>2</v>
@@ -10775,7 +10775,7 @@
         <v>128</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C37" s="25">
         <v>51</v>
@@ -10784,10 +10784,10 @@
         <v>21</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G37" s="25">
         <v>4</v>
@@ -10823,17 +10823,17 @@
         <v>117</v>
       </c>
       <c r="R37" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="S37" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="S37" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="T37" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U37" s="8"/>
       <c r="V37" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W37" s="20" t="s">
         <v>128</v>
@@ -10990,10 +10990,10 @@
     </row>
     <row r="38" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C38" s="25">
         <v>54</v>
@@ -11005,7 +11005,7 @@
         <v>155</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G38" s="27">
         <v>3</v>
@@ -11051,13 +11051,13 @@
       </c>
       <c r="U38" s="8"/>
       <c r="V38" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W38" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X38" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y38" s="20" t="s">
         <v>2</v>
@@ -11208,10 +11208,10 @@
     </row>
     <row r="39" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C39" s="25">
         <v>55</v>
@@ -11223,7 +11223,7 @@
         <v>17</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G39" s="25" t="s">
         <v>117</v>
@@ -11269,13 +11269,13 @@
       </c>
       <c r="U39" s="8"/>
       <c r="V39" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W39" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X39" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Y39" s="20" t="s">
         <v>2</v>
@@ -11426,10 +11426,10 @@
     </row>
     <row r="40" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C40" s="25">
         <v>56</v>
@@ -11441,7 +11441,7 @@
         <v>107</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G40" s="27">
         <v>3</v>
@@ -11450,7 +11450,7 @@
         <v>3</v>
       </c>
       <c r="I40" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J40" s="13" t="s">
         <v>129</v>
@@ -11486,13 +11486,13 @@
         <v>43</v>
       </c>
       <c r="V40" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W40" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="X40" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y40" s="20" t="s">
         <v>2</v>
@@ -11643,10 +11643,10 @@
     </row>
     <row r="41" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C41" s="25">
         <v>58</v>
@@ -11655,7 +11655,7 @@
         <v>15</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F41" s="22" t="s">
         <v>117</v>
@@ -11704,13 +11704,13 @@
       </c>
       <c r="U41" s="8"/>
       <c r="V41" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W41" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X41" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y41" s="20" t="s">
         <v>2</v>
@@ -11861,10 +11861,10 @@
     </row>
     <row r="42" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C42" s="25">
         <v>59</v>
@@ -11873,7 +11873,7 @@
         <v>83</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F42" s="22" t="s">
         <v>117</v>
@@ -11912,22 +11912,22 @@
         <v>117</v>
       </c>
       <c r="R42" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T42" s="8" t="s">
         <v>43</v>
       </c>
       <c r="V42" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W42" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X42" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Y42" s="20" t="s">
         <v>2</v>
@@ -12078,10 +12078,10 @@
     </row>
     <row r="43" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C43" s="25">
         <v>60</v>
@@ -12090,10 +12090,10 @@
         <v>15</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G43" s="29">
         <v>1</v>
@@ -12141,13 +12141,13 @@
         <v>43</v>
       </c>
       <c r="V43" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W43" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="X43" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Y43" s="20" t="s">
         <v>2</v>
@@ -12298,10 +12298,10 @@
     </row>
     <row r="44" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C44" s="25">
         <v>61</v>
@@ -12310,10 +12310,10 @@
         <v>15</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G44" s="29">
         <v>1</v>
@@ -12361,13 +12361,13 @@
         <v>43</v>
       </c>
       <c r="V44" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W44" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X44" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Y44" s="20" t="s">
         <v>2</v>
@@ -12518,10 +12518,10 @@
     </row>
     <row r="45" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C45" s="25">
         <v>62</v>
@@ -12530,10 +12530,10 @@
         <v>15</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G45" s="29">
         <v>1</v>
@@ -12581,13 +12581,13 @@
         <v>43</v>
       </c>
       <c r="V45" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W45" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="X45" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Y45" s="20" t="s">
         <v>2</v>
@@ -12738,10 +12738,10 @@
     </row>
     <row r="46" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C46" s="25">
         <v>63</v>
@@ -12789,11 +12789,11 @@
         <v>116</v>
       </c>
       <c r="R46" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="S46" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="S46" s="10" t="s">
-        <v>194</v>
-      </c>
       <c r="T46" s="8" t="s">
         <v>43</v>
       </c>
@@ -12801,13 +12801,13 @@
         <v>43</v>
       </c>
       <c r="V46" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W46" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X46" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Y46" s="20" t="s">
         <v>2</v>
@@ -12958,10 +12958,10 @@
     </row>
     <row r="47" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C47" s="25">
         <v>64</v>
@@ -13019,13 +13019,13 @@
       </c>
       <c r="U47" s="8"/>
       <c r="V47" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W47" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X47" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Y47" s="20" t="s">
         <v>2</v>
@@ -13176,10 +13176,10 @@
     </row>
     <row r="48" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C48" s="25">
         <v>75</v>
@@ -13188,7 +13188,7 @@
         <v>15</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F48" s="22" t="s">
         <v>117</v>
@@ -13237,13 +13237,13 @@
       </c>
       <c r="U48" s="8"/>
       <c r="V48" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W48" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="X48" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y48" s="20" t="s">
         <v>2</v>
@@ -13394,10 +13394,10 @@
     </row>
     <row r="49" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C49" s="25">
         <v>76</v>
@@ -13406,7 +13406,7 @@
         <v>21</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F49" s="22" t="s">
         <v>117</v>
@@ -13455,13 +13455,13 @@
       </c>
       <c r="U49" s="8"/>
       <c r="V49" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W49" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="X49" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y49" s="20" t="s">
         <v>2</v>
@@ -13612,10 +13612,10 @@
     </row>
     <row r="50" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C50" s="25">
         <v>86</v>
@@ -13627,7 +13627,7 @@
         <v>119</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G50" s="25">
         <v>5</v>
@@ -13636,7 +13636,7 @@
         <v>5</v>
       </c>
       <c r="I50" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>130</v>
@@ -13663,11 +13663,11 @@
         <v>117</v>
       </c>
       <c r="R50" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="S50" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="S50" s="10" t="s">
-        <v>196</v>
-      </c>
       <c r="T50" s="8" t="s">
         <v>43</v>
       </c>
@@ -13675,13 +13675,13 @@
         <v>43</v>
       </c>
       <c r="V50" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W50" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X50" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Y50" s="20" t="s">
         <v>2</v>
@@ -13832,10 +13832,10 @@
     </row>
     <row r="51" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C51" s="25">
         <v>87</v>
@@ -13844,7 +13844,7 @@
         <v>15</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F51" s="22" t="s">
         <v>117</v>
@@ -13883,11 +13883,11 @@
         <v>117</v>
       </c>
       <c r="R51" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="S51" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="S51" s="10" t="s">
-        <v>239</v>
-      </c>
       <c r="T51" s="8" t="s">
         <v>43</v>
       </c>
@@ -13895,13 +13895,13 @@
         <v>43</v>
       </c>
       <c r="V51" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W51" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="X51" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Y51" s="20" t="s">
         <v>2</v>
@@ -14052,10 +14052,10 @@
     </row>
     <row r="52" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C52" s="25">
         <v>88</v>
@@ -14064,7 +14064,7 @@
         <v>15</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F52" s="22" t="s">
         <v>117</v>
@@ -14099,25 +14099,25 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="33"/>
       <c r="R52" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="S52" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="T52" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U52" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V52" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="W52" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="S52" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="T52" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U52" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="V52" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="W52" s="20" t="s">
-        <v>273</v>
-      </c>
       <c r="X52" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y52" s="20" t="s">
         <v>2</v>
@@ -14268,10 +14268,10 @@
     </row>
     <row r="53" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C53" s="25">
         <v>92</v>
@@ -14280,10 +14280,10 @@
         <v>15</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G53" s="27">
         <v>1</v>
@@ -14316,13 +14316,13 @@
         <v>84</v>
       </c>
       <c r="Q53" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R53" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S53" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T53" s="8" t="s">
         <v>43</v>
@@ -14331,13 +14331,13 @@
         <v>43</v>
       </c>
       <c r="V53" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W53" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="X53" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Y53" s="20" t="s">
         <v>2</v>
@@ -14488,10 +14488,10 @@
     </row>
     <row r="54" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C54" s="25">
         <v>100</v>
@@ -14500,7 +14500,7 @@
         <v>15</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F54" s="22" t="s">
         <v>117</v>
@@ -14539,23 +14539,23 @@
         <v>117</v>
       </c>
       <c r="R54" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S54" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T54" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U54" s="8"/>
       <c r="V54" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W54" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X54" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y54" s="20" t="s">
         <v>2</v>
@@ -14706,10 +14706,10 @@
     </row>
     <row r="55" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C55" s="25">
         <v>160</v>
@@ -14721,7 +14721,7 @@
         <v>40</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G55" s="25">
         <v>1</v>
@@ -14730,7 +14730,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J55" s="13" t="s">
         <v>129</v>
@@ -14754,25 +14754,25 @@
         <v>84</v>
       </c>
       <c r="Q55" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R55" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S55" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T55" s="8" t="s">
         <v>43</v>
       </c>
       <c r="V55" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="W55" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="W55" s="20" t="s">
-        <v>214</v>
-      </c>
       <c r="X55" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y55" s="20" t="s">
         <v>2</v>
@@ -14923,10 +14923,10 @@
     </row>
     <row r="56" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C56" s="25">
         <v>162</v>
@@ -14935,10 +14935,10 @@
         <v>15</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>156</v>
+        <v>290</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G56" s="27">
         <v>1</v>
@@ -14947,7 +14947,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>129</v>
@@ -14987,10 +14987,10 @@
         <v>27377618</v>
       </c>
       <c r="W56" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X56" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Y56" s="20" t="s">
         <v>2</v>
@@ -15141,10 +15141,10 @@
     </row>
     <row r="57" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C57" s="25">
         <v>163</v>
@@ -15153,10 +15153,10 @@
         <v>15</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>156</v>
+        <v>290</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G57" s="27">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>129</v>
@@ -15205,10 +15205,10 @@
         <v>27377618</v>
       </c>
       <c r="W57" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="X57" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y57" s="20" t="s">
         <v>2</v>
@@ -15359,10 +15359,10 @@
     </row>
     <row r="58" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C58" s="25">
         <v>164</v>
@@ -15371,10 +15371,10 @@
         <v>15</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>156</v>
+        <v>290</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G58" s="27">
         <v>1</v>
@@ -15383,7 +15383,7 @@
         <v>1</v>
       </c>
       <c r="I58" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>129</v>
@@ -15423,10 +15423,10 @@
         <v>27377618</v>
       </c>
       <c r="W58" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="X58" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y58" s="20" t="s">
         <v>2</v>
@@ -15577,10 +15577,10 @@
     </row>
     <row r="59" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C59" s="25">
         <v>174</v>
@@ -15592,7 +15592,7 @@
         <v>153</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G59" s="27">
         <v>1</v>
@@ -15601,7 +15601,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>43</v>
@@ -15628,11 +15628,11 @@
         <v>117</v>
       </c>
       <c r="R59" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="S59" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="S59" s="10" t="s">
-        <v>175</v>
-      </c>
       <c r="T59" s="8" t="s">
         <v>43</v>
       </c>
@@ -15640,13 +15640,13 @@
         <v>43</v>
       </c>
       <c r="V59" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W59" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X59" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y59" s="20" t="s">
         <v>2</v>
@@ -15797,10 +15797,10 @@
     </row>
     <row r="60" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C60" s="25">
         <v>175</v>
@@ -15809,7 +15809,7 @@
         <v>15</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="F60" s="22" t="s">
         <v>117</v>
@@ -15858,13 +15858,13 @@
       </c>
       <c r="U60" s="8"/>
       <c r="V60" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W60" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X60" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y60" s="20" t="s">
         <v>2</v>
@@ -16015,10 +16015,10 @@
     </row>
     <row r="61" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C61" s="25">
         <v>176</v>
@@ -16027,7 +16027,7 @@
         <v>15</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="F61" s="22" t="s">
         <v>117</v>
@@ -16076,13 +16076,13 @@
       </c>
       <c r="U61" s="8"/>
       <c r="V61" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W61" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X61" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y61" s="20" t="s">
         <v>2</v>
@@ -16233,10 +16233,10 @@
     </row>
     <row r="62" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C62" s="25">
         <v>180</v>
@@ -16245,10 +16245,10 @@
         <v>15</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G62" s="27">
         <v>2</v>
@@ -16257,7 +16257,7 @@
         <v>2</v>
       </c>
       <c r="I62" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>43</v>
@@ -16284,11 +16284,11 @@
         <v>117</v>
       </c>
       <c r="R62" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="S62" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="S62" s="10" t="s">
-        <v>185</v>
-      </c>
       <c r="T62" s="8" t="s">
         <v>43</v>
       </c>
@@ -16296,13 +16296,13 @@
         <v>43</v>
       </c>
       <c r="V62" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W62" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X62" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y62" s="20" t="s">
         <v>2</v>
@@ -16453,10 +16453,10 @@
     </row>
     <row r="63" spans="1:164" s="26" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C63" s="25">
         <v>187</v>
@@ -16465,10 +16465,10 @@
         <v>15</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G63" s="25">
         <v>1</v>
@@ -16504,11 +16504,11 @@
         <v>117</v>
       </c>
       <c r="R63" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="S63" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="S63" s="10" t="s">
-        <v>232</v>
-      </c>
       <c r="T63" s="8" t="s">
         <v>43</v>
       </c>
@@ -16516,13 +16516,13 @@
         <v>43</v>
       </c>
       <c r="V63" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W63" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X63" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Y63" s="20" t="s">
         <v>2</v>
@@ -16673,10 +16673,10 @@
     </row>
     <row r="64" spans="1:164" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C64" s="25">
         <v>190</v>
@@ -16688,7 +16688,7 @@
         <v>40</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G64" s="25">
         <v>1</v>
@@ -16724,23 +16724,23 @@
         <v>117</v>
       </c>
       <c r="R64" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="S64" s="10" t="s">
         <v>241</v>
-      </c>
-      <c r="S64" s="10" t="s">
-        <v>242</v>
       </c>
       <c r="T64" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U64" s="7"/>
       <c r="V64" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W64" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X64" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Y64" s="20" t="s">
         <v>2</v>
@@ -16891,10 +16891,10 @@
     </row>
     <row r="65" spans="1:164" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C65" s="25">
         <v>191</v>
@@ -16906,7 +16906,7 @@
         <v>40</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G65" s="25" t="s">
         <v>117</v>
@@ -16952,13 +16952,13 @@
       </c>
       <c r="U65" s="7"/>
       <c r="V65" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W65" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X65" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Y65" s="20" t="s">
         <v>2</v>
@@ -17109,10 +17109,10 @@
     </row>
     <row r="66" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C66" s="25">
         <v>192</v>
@@ -17124,7 +17124,7 @@
         <v>40</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G66" s="25" t="s">
         <v>117</v>
@@ -17169,13 +17169,13 @@
         <v>43</v>
       </c>
       <c r="V66" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W66" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X66" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y66" s="20" t="s">
         <v>2</v>
@@ -17326,7 +17326,7 @@
     </row>
     <row r="67" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B67" s="25" t="s">
         <v>84</v>
@@ -17341,7 +17341,7 @@
         <v>94</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G67" s="29">
         <v>1</v>
@@ -17387,13 +17387,13 @@
       </c>
       <c r="U67" s="7"/>
       <c r="V67" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W67" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X67" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Y67" s="20" t="s">
         <v>2</v>
@@ -17544,7 +17544,7 @@
     </row>
     <row r="68" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B68" s="25" t="s">
         <v>84</v>
@@ -17559,7 +17559,7 @@
         <v>94</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G68" s="29">
         <v>1</v>
@@ -17604,13 +17604,13 @@
         <v>43</v>
       </c>
       <c r="V68" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W68" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X68" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y68" s="20" t="s">
         <v>2</v>
@@ -17761,7 +17761,7 @@
     </row>
     <row r="69" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B69" s="25" t="s">
         <v>84</v>
@@ -17776,7 +17776,7 @@
         <v>94</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G69" s="29">
         <v>1</v>
@@ -17822,13 +17822,13 @@
       </c>
       <c r="U69" s="7"/>
       <c r="V69" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W69" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X69" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y69" s="20" t="s">
         <v>2</v>
@@ -17979,10 +17979,10 @@
     </row>
     <row r="70" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C70" s="25">
         <v>201</v>
@@ -17994,7 +17994,7 @@
         <v>144</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G70" s="27">
         <v>1</v>
@@ -18003,7 +18003,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>43</v>
@@ -18030,25 +18030,25 @@
         <v>117</v>
       </c>
       <c r="R70" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="S70" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="S70" s="10" t="s">
+      <c r="T70" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U70" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V70" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="W70" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="T70" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U70" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="V70" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="W70" s="20" t="s">
-        <v>180</v>
-      </c>
       <c r="X70" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y70" s="20" t="s">
         <v>2</v>
@@ -18199,10 +18199,10 @@
     </row>
     <row r="71" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C71" s="25">
         <v>202</v>
@@ -18214,7 +18214,7 @@
         <v>144</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G71" s="27">
         <v>1</v>
@@ -18223,7 +18223,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>43</v>
@@ -18250,11 +18250,11 @@
         <v>117</v>
       </c>
       <c r="R71" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="S71" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="S71" s="10" t="s">
-        <v>179</v>
-      </c>
       <c r="T71" s="8" t="s">
         <v>43</v>
       </c>
@@ -18262,13 +18262,13 @@
         <v>43</v>
       </c>
       <c r="V71" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W71" s="20" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="X71" s="20" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Y71" s="20" t="s">
         <v>2</v>
@@ -18419,10 +18419,10 @@
     </row>
     <row r="72" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C72" s="25">
         <v>203</v>
@@ -18434,7 +18434,7 @@
         <v>145</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G72" s="27">
         <v>1</v>
@@ -18482,13 +18482,13 @@
         <v>43</v>
       </c>
       <c r="V72" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W72" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X72" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y72" s="20" t="s">
         <v>2</v>
@@ -18654,7 +18654,7 @@
         <v>151</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G73" s="27">
         <v>1</v>
@@ -18663,7 +18663,7 @@
         <v>1</v>
       </c>
       <c r="I73" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>43</v>
@@ -18690,10 +18690,10 @@
         <v>117</v>
       </c>
       <c r="R73" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S73" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T73" s="8" t="s">
         <v>43</v>
@@ -18702,7 +18702,7 @@
         <v>43</v>
       </c>
       <c r="V73" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W73" s="20" t="s">
         <v>150</v>
@@ -18859,10 +18859,10 @@
     </row>
     <row r="74" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C74" s="25">
         <v>365</v>
@@ -18874,7 +18874,7 @@
         <v>95</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G74" s="25">
         <v>7</v>
@@ -18883,7 +18883,7 @@
         <v>7</v>
       </c>
       <c r="I74" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>43</v>
@@ -18922,13 +18922,13 @@
         <v>43</v>
       </c>
       <c r="V74" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W74" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X74" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y74" s="20" t="s">
         <v>2</v>
@@ -18942,10 +18942,10 @@
     </row>
     <row r="75" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C75" s="25">
         <v>366</v>
@@ -18957,7 +18957,7 @@
         <v>95</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G75" s="25">
         <v>20</v>
@@ -18966,7 +18966,7 @@
         <v>20</v>
       </c>
       <c r="I75" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>43</v>
@@ -19005,13 +19005,13 @@
         <v>43</v>
       </c>
       <c r="V75" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W75" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X75" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y75" s="20" t="s">
         <v>2</v>
@@ -19162,10 +19162,10 @@
     </row>
     <row r="76" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C76" s="25">
         <v>367</v>
@@ -19174,10 +19174,10 @@
         <v>21</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G76" s="25" t="s">
         <v>117</v>
@@ -19221,13 +19221,13 @@
       </c>
       <c r="U76" s="7"/>
       <c r="V76" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W76" s="20" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="X76" s="20" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Y76" s="20" t="s">
         <v>2</v>
@@ -19378,10 +19378,10 @@
     </row>
     <row r="77" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C77" s="25">
         <v>368</v>
@@ -19390,7 +19390,7 @@
         <v>21</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F77" s="22" t="s">
         <v>117</v>
@@ -19437,13 +19437,13 @@
       </c>
       <c r="U77" s="7"/>
       <c r="V77" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W77" s="20" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="X77" s="20" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Y77" s="20" t="s">
         <v>2</v>
@@ -19594,10 +19594,10 @@
     </row>
     <row r="78" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C78" s="25">
         <v>369</v>
@@ -19606,7 +19606,7 @@
         <v>15</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F78" s="22" t="s">
         <v>117</v>
@@ -19653,13 +19653,13 @@
       </c>
       <c r="U78" s="7"/>
       <c r="V78" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W78" s="20" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="X78" s="20" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Y78" s="20" t="s">
         <v>2</v>
@@ -19810,10 +19810,10 @@
     </row>
     <row r="79" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C79" s="25">
         <v>370</v>
@@ -19825,7 +19825,7 @@
         <v>143</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G79" s="27">
         <v>1</v>
@@ -19834,7 +19834,7 @@
         <v>1</v>
       </c>
       <c r="I79" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J79" s="13" t="s">
         <v>129</v>
@@ -19871,13 +19871,13 @@
       </c>
       <c r="U79" s="7"/>
       <c r="V79" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W79" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X79" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y79" s="20" t="s">
         <v>2</v>
@@ -20028,10 +20028,10 @@
     </row>
     <row r="80" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C80" s="25">
         <v>371</v>
@@ -20040,10 +20040,10 @@
         <v>15</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G80" s="25" t="s">
         <v>117</v>
@@ -20087,13 +20087,13 @@
       </c>
       <c r="U80" s="7"/>
       <c r="V80" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W80" s="20" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="X80" s="20" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Y80" s="20" t="s">
         <v>2</v>
@@ -20244,10 +20244,10 @@
     </row>
     <row r="81" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C81" s="25">
         <v>372</v>
@@ -20256,7 +20256,7 @@
         <v>15</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F81" s="22" t="s">
         <v>117</v>
@@ -20295,23 +20295,23 @@
         <v>117</v>
       </c>
       <c r="R81" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="S81" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="S81" s="10" t="s">
-        <v>257</v>
       </c>
       <c r="T81" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U81" s="7"/>
       <c r="V81" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W81" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="X81" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Y81" s="20" t="s">
         <v>2</v>
@@ -20465,7 +20465,7 @@
         <v>133</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C82" s="25">
         <v>500</v>
@@ -20477,7 +20477,7 @@
         <v>135</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G82" s="27">
         <v>1</v>
@@ -20486,7 +20486,7 @@
         <v>1</v>
       </c>
       <c r="I82" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J82" s="13" t="s">
         <v>135</v>
@@ -20512,11 +20512,11 @@
       <c r="Q82" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="R82" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S82" s="11" t="s">
-        <v>43</v>
+      <c r="R82" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="S82" s="18" t="s">
+        <v>212</v>
       </c>
       <c r="T82" s="8" t="s">
         <v>43</v>
@@ -20525,7 +20525,7 @@
         <v>43</v>
       </c>
       <c r="V82" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W82" s="20" t="s">
         <v>133</v>
@@ -20548,7 +20548,7 @@
         <v>134</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C83" s="25">
         <v>500</v>
@@ -20560,7 +20560,7 @@
         <v>135</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G83" s="27">
         <v>1</v>
@@ -20569,7 +20569,7 @@
         <v>1</v>
       </c>
       <c r="I83" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J83" s="13" t="s">
         <v>135</v>
@@ -20595,11 +20595,11 @@
       <c r="Q83" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="R83" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S83" s="11" t="s">
-        <v>43</v>
+      <c r="R83" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="S83" s="18" t="s">
+        <v>212</v>
       </c>
       <c r="T83" s="8" t="s">
         <v>43</v>
@@ -20608,7 +20608,7 @@
         <v>43</v>
       </c>
       <c r="V83" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W83" s="20" t="s">
         <v>134</v>
@@ -20631,7 +20631,7 @@
         <v>141</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C84" s="25">
         <v>500</v>
@@ -20643,7 +20643,7 @@
         <v>135</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G84" s="27">
         <v>1</v>
@@ -20652,7 +20652,7 @@
         <v>1</v>
       </c>
       <c r="I84" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J84" s="13" t="s">
         <v>135</v>
@@ -20678,11 +20678,11 @@
       <c r="Q84" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="R84" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S84" s="11" t="s">
-        <v>43</v>
+      <c r="R84" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="S84" s="18" t="s">
+        <v>212</v>
       </c>
       <c r="T84" s="8" t="s">
         <v>43</v>
@@ -20691,7 +20691,7 @@
         <v>43</v>
       </c>
       <c r="V84" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W84" s="20" t="s">
         <v>141</v>
@@ -22537,10 +22537,10 @@
   <sheetData>
     <row r="1" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C1" s="25">
         <v>53</v>
@@ -22549,10 +22549,10 @@
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G1" s="27">
         <v>1</v>
@@ -22598,13 +22598,13 @@
       </c>
       <c r="U1" s="8"/>
       <c r="V1" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W1" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="X1" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Y1" s="20" t="s">
         <v>2</v>

--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1079BE36-6B4B-1C42-84C4-BE0CCA0ED471}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076A6532-4B8E-D943-A242-966FB4E29A53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11040" yWindow="1060" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>dependo.13-cercopithecidae</t>
   </si>
   <si>
-    <t>dependo.6-elephantidae</t>
-  </si>
-  <si>
     <t>dependo.7-bradypus</t>
   </si>
   <si>
@@ -507,9 +504,6 @@
     <t>Craseonycteris</t>
   </si>
   <si>
-    <t>Elephantidae</t>
-  </si>
-  <si>
     <t>Procaviidae</t>
   </si>
   <si>
@@ -913,6 +907,12 @@
   </si>
   <si>
     <t>Heterohyrax</t>
+  </si>
+  <si>
+    <t>dependo.6-elephas</t>
+  </si>
+  <si>
+    <t>Elephas</t>
   </si>
 </sst>
 </file>
@@ -3405,10 +3405,10 @@
   <dimension ref="A1:FH97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E53" sqref="A1:AA84"/>
+      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3444,82 +3444,82 @@
   <sheetData>
     <row r="1" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>170</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="P1" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="T1" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>1</v>
@@ -3530,19 +3530,19 @@
         <v>4</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C2" s="25">
         <v>0</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G2" s="27">
         <v>1</v>
@@ -3551,40 +3551,40 @@
         <v>1</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q2" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U2" s="8"/>
       <c r="V2" s="25">
@@ -3600,7 +3600,7 @@
         <v>2</v>
       </c>
       <c r="Z2" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA2" s="20" t="s">
         <v>3</v>
@@ -3611,19 +3611,19 @@
         <v>5</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C3" s="25">
         <v>1</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G3" s="25">
         <v>23</v>
@@ -3632,40 +3632,40 @@
         <v>24</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U3" s="7">
         <v>62</v>
@@ -3683,7 +3683,7 @@
         <v>2</v>
       </c>
       <c r="Z3" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA3" s="20" t="s">
         <v>3</v>
@@ -3691,22 +3691,22 @@
     </row>
     <row r="4" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C4" s="25">
         <v>2</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G4" s="25">
         <v>8</v>
@@ -3715,56 +3715,56 @@
         <v>8</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="25">
         <v>32913662</v>
       </c>
       <c r="W4" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X4" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Y4" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z4" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA4" s="20" t="s">
         <v>3</v>
@@ -3775,19 +3775,19 @@
         <v>7</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C5" s="25">
         <v>3</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G5" s="25">
         <v>3</v>
@@ -3796,40 +3796,40 @@
         <v>3</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="S5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="S5" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="T5" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U5" s="7">
         <v>51</v>
@@ -3847,7 +3847,7 @@
         <v>2</v>
       </c>
       <c r="Z5" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA5" s="20" t="s">
         <v>3</v>
@@ -3992,22 +3992,22 @@
     </row>
     <row r="6" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C6" s="25">
         <v>4</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G6" s="27">
         <v>4</v>
@@ -4016,58 +4016,58 @@
         <v>4</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q6" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="T6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U6" s="8">
         <v>27.9</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W6" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X6" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y6" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z6" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA6" s="20" t="s">
         <v>3</v>
@@ -4212,22 +4212,22 @@
     </row>
     <row r="7" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C7" s="25">
         <v>5</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G7" s="27">
         <v>4</v>
@@ -4236,58 +4236,58 @@
         <v>4</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U7" s="8">
         <v>27.9</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W7" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X7" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y7" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z7" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA7" s="20" t="s">
         <v>3</v>
@@ -4432,22 +4432,22 @@
     </row>
     <row r="8" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>9</v>
+        <v>291</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C8" s="25">
         <v>6</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>157</v>
+        <v>19</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G8" s="25">
         <v>1</v>
@@ -4456,56 +4456,56 @@
         <v>1</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S8" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="S8" s="10" t="s">
-        <v>70</v>
-      </c>
       <c r="T8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U8" s="7"/>
       <c r="V8" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W8" s="20" t="s">
-        <v>9</v>
+        <v>291</v>
       </c>
       <c r="X8" s="20" t="s">
-        <v>9</v>
+        <v>291</v>
       </c>
       <c r="Y8" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z8" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA8" s="20" t="s">
         <v>3</v>
@@ -4650,22 +4650,22 @@
     </row>
     <row r="9" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C9" s="25">
         <v>7</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G9" s="25">
         <v>1</v>
@@ -4674,56 +4674,56 @@
         <v>1</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U9" s="7"/>
       <c r="V9" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W9" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X9" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y9" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z9" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA9" s="20" t="s">
         <v>3</v>
@@ -4868,22 +4868,22 @@
     </row>
     <row r="10" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C10" s="25">
         <v>8</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G10" s="25">
         <v>1</v>
@@ -4892,56 +4892,56 @@
         <v>1</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="S10" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="T10" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U10" s="7"/>
       <c r="V10" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W10" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X10" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y10" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z10" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA10" s="20" t="s">
         <v>3</v>
@@ -5086,22 +5086,22 @@
     </row>
     <row r="11" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C11" s="25">
         <v>9</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G11" s="25">
         <v>2</v>
@@ -5110,56 +5110,56 @@
         <v>2</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U11" s="7"/>
       <c r="V11" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="W11" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="W11" s="20" t="s">
-        <v>214</v>
-      </c>
       <c r="X11" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Y11" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z11" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA11" s="20" t="s">
         <v>3</v>
@@ -5304,22 +5304,22 @@
     </row>
     <row r="12" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C12" s="25">
         <v>10</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G12" s="27">
         <v>1</v>
@@ -5328,56 +5328,56 @@
         <v>1</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="L12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="N12" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U12" s="7"/>
       <c r="V12" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W12" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X12" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y12" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z12" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA12" s="20" t="s">
         <v>3</v>
@@ -5522,22 +5522,22 @@
     </row>
     <row r="13" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C13" s="25">
         <v>11</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G13" s="27">
         <v>3</v>
@@ -5546,56 +5546,56 @@
         <v>3</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W13" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X13" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y13" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z13" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA13" s="20" t="s">
         <v>3</v>
@@ -5740,22 +5740,22 @@
     </row>
     <row r="14" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C14" s="25">
         <v>12</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G14" s="25">
         <v>1</v>
@@ -5764,56 +5764,56 @@
         <v>1</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U14" s="7"/>
       <c r="V14" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W14" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X14" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y14" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z14" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA14" s="20" t="s">
         <v>3</v>
@@ -5961,19 +5961,19 @@
         <v>8</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C15" s="25">
         <v>13</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G15" s="27">
         <v>3</v>
@@ -5982,46 +5982,46 @@
         <v>3</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q15" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="S15" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="T15" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U15" s="8">
         <v>19.399999999999999</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W15" s="20" t="s">
         <v>8</v>
@@ -6033,7 +6033,7 @@
         <v>2</v>
       </c>
       <c r="Z15" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA15" s="20" t="s">
         <v>3</v>
@@ -6178,22 +6178,22 @@
     </row>
     <row r="16" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C16" s="25">
         <v>14</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G16" s="27">
         <v>5</v>
@@ -6202,58 +6202,58 @@
         <v>5</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U16" s="8">
         <v>19.399999999999999</v>
       </c>
       <c r="V16" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W16" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X16" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y16" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z16" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA16" s="20" t="s">
         <v>3</v>
@@ -6398,22 +6398,22 @@
     </row>
     <row r="17" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C17" s="25">
         <v>15</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G17" s="27">
         <v>1</v>
@@ -6422,58 +6422,58 @@
         <v>1</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U17" s="8">
         <v>19.399999999999999</v>
       </c>
       <c r="V17" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W17" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X17" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y17" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z17" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA17" s="20" t="s">
         <v>3</v>
@@ -6618,22 +6618,22 @@
     </row>
     <row r="18" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C18" s="25">
         <v>16</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G18" s="27">
         <v>5</v>
@@ -6642,56 +6642,56 @@
         <v>5</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R18" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="S18" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="S18" s="10" t="s">
-        <v>77</v>
-      </c>
       <c r="T18" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U18" s="8"/>
       <c r="V18" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W18" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X18" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y18" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z18" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA18" s="20" t="s">
         <v>3</v>
@@ -6836,22 +6836,22 @@
     </row>
     <row r="19" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C19" s="25">
         <v>20</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G19" s="27">
         <v>13</v>
@@ -6860,56 +6860,56 @@
         <v>13</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="L19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="N19" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R19" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U19" s="8"/>
       <c r="V19" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W19" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X19" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y19" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z19" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA19" s="20" t="s">
         <v>3</v>
@@ -7054,22 +7054,22 @@
     </row>
     <row r="20" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C20" s="25">
         <v>22</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G20" s="27">
         <v>73</v>
@@ -7078,58 +7078,58 @@
         <v>76</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="L20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="N20" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="S20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="S20" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="T20" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U20" s="8">
         <v>62</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W20" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X20" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Y20" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z20" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA20" s="20" t="s">
         <v>3</v>
@@ -7274,22 +7274,22 @@
     </row>
     <row r="21" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C21" s="25">
         <v>23</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G21" s="27">
         <v>5</v>
@@ -7298,40 +7298,40 @@
         <v>5</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="S21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="S21" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="T21" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U21" s="8">
         <v>11.7</v>
@@ -7340,16 +7340,16 @@
         <v>26037535</v>
       </c>
       <c r="W21" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="X21" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Y21" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z21" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA21" s="20" t="s">
         <v>3</v>
@@ -7494,22 +7494,22 @@
     </row>
     <row r="22" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C22" s="25">
         <v>26</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G22" s="27">
         <v>7</v>
@@ -7518,40 +7518,40 @@
         <v>11</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R22" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S22" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="S22" s="10" t="s">
-        <v>63</v>
-      </c>
       <c r="T22" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U22" s="8">
         <v>55</v>
@@ -7560,16 +7560,16 @@
         <v>15085543</v>
       </c>
       <c r="W22" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="X22" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Y22" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z22" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA22" s="20" t="s">
         <v>3</v>
@@ -7714,22 +7714,22 @@
     </row>
     <row r="23" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C23" s="25">
         <v>27</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G23" s="27">
         <v>3</v>
@@ -7738,56 +7738,56 @@
         <v>3</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q23" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U23" s="8"/>
       <c r="V23" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W23" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X23" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y23" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z23" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA23" s="20" t="s">
         <v>3</v>
@@ -7932,22 +7932,22 @@
     </row>
     <row r="24" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C24" s="25">
         <v>28</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G24" s="27">
         <v>1</v>
@@ -7956,56 +7956,56 @@
         <v>2</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U24" s="8"/>
       <c r="V24" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W24" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X24" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y24" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z24" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA24" s="20" t="s">
         <v>3</v>
@@ -8150,22 +8150,22 @@
     </row>
     <row r="25" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C25" s="25">
         <v>36</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G25" s="27">
         <v>1</v>
@@ -8174,56 +8174,56 @@
         <v>1</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J25" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="L25" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="M25" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="N25" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O25" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="O25" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="P25" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R25" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U25" s="8"/>
       <c r="V25" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W25" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="X25" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Y25" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z25" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA25" s="20" t="s">
         <v>3</v>
@@ -8368,22 +8368,22 @@
     </row>
     <row r="26" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C26" s="25">
         <v>37</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G26" s="25">
         <v>1</v>
@@ -8392,56 +8392,56 @@
         <v>1</v>
       </c>
       <c r="I26" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q26" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="T26" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U26" s="8"/>
       <c r="V26" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W26" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="X26" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Y26" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z26" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA26" s="20" t="s">
         <v>3</v>
@@ -8586,22 +8586,22 @@
     </row>
     <row r="27" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C27" s="25">
         <v>40</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G27" s="27">
         <v>1</v>
@@ -8610,58 +8610,58 @@
         <v>2</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R27" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U27" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W27" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X27" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y27" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z27" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA27" s="20" t="s">
         <v>3</v>
@@ -8806,22 +8806,22 @@
     </row>
     <row r="28" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C28" s="25">
         <v>42</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G28" s="25">
         <v>1</v>
@@ -8830,56 +8830,56 @@
         <v>1</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K28" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L28" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N28" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q28" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S28" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U28" s="7"/>
       <c r="V28" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W28" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X28" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y28" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z28" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA28" s="20" t="s">
         <v>3</v>
@@ -9024,22 +9024,22 @@
     </row>
     <row r="29" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C29" s="25">
         <v>43</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G29" s="25">
         <v>5</v>
@@ -9048,56 +9048,56 @@
         <v>5</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N29" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S29" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U29" s="8"/>
       <c r="V29" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W29" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X29" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y29" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z29" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA29" s="20" t="s">
         <v>3</v>
@@ -9242,22 +9242,22 @@
     </row>
     <row r="30" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="25">
         <v>44</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G30" s="27">
         <v>2</v>
@@ -9266,58 +9266,58 @@
         <v>2</v>
       </c>
       <c r="I30" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N30" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P30" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q30" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T30" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U30" s="8">
         <v>34</v>
       </c>
       <c r="V30" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W30" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X30" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y30" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z30" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA30" s="20" t="s">
         <v>3</v>
@@ -9462,22 +9462,22 @@
     </row>
     <row r="31" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="25">
         <v>45</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G31" s="27">
         <v>2</v>
@@ -9486,56 +9486,56 @@
         <v>2</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M31" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q31" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R31" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S31" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U31" s="8"/>
       <c r="V31" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W31" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="X31" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Y31" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z31" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA31" s="20" t="s">
         <v>3</v>
@@ -9680,22 +9680,22 @@
     </row>
     <row r="32" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C32" s="25">
         <v>46</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G32" s="25">
         <v>1</v>
@@ -9704,56 +9704,56 @@
         <v>2</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q32" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T32" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U32" s="8"/>
       <c r="V32" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W32" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="X32" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Y32" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z32" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA32" s="20" t="s">
         <v>3</v>
@@ -9898,22 +9898,22 @@
     </row>
     <row r="33" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C33" s="25">
         <v>47</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G33" s="27">
         <v>1</v>
@@ -9922,58 +9922,58 @@
         <v>1</v>
       </c>
       <c r="I33" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q33" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R33" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="S33" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="T33" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U33" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V33" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W33" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="X33" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Y33" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z33" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA33" s="20" t="s">
         <v>3</v>
@@ -10118,80 +10118,80 @@
     </row>
     <row r="34" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C34" s="25">
         <v>48</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K34" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M34" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P34" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q34" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S34" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T34" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U34" s="8"/>
       <c r="V34" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W34" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X34" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Y34" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z34" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA34" s="20" t="s">
         <v>3</v>
@@ -10336,22 +10336,22 @@
     </row>
     <row r="35" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C35" s="25">
         <v>49</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G35" s="25">
         <v>1</v>
@@ -10360,56 +10360,56 @@
         <v>1</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q35" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T35" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U35" s="8"/>
       <c r="V35" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W35" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="X35" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Y35" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z35" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA35" s="20" t="s">
         <v>3</v>
@@ -10554,80 +10554,80 @@
     </row>
     <row r="36" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C36" s="25">
         <v>50</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q36" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="T36" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U36" s="8"/>
       <c r="V36" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W36" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="X36" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Y36" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z36" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA36" s="20" t="s">
         <v>3</v>
@@ -10772,22 +10772,22 @@
     </row>
     <row r="37" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C37" s="25">
         <v>51</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G37" s="25">
         <v>4</v>
@@ -10796,56 +10796,56 @@
         <v>4</v>
       </c>
       <c r="I37" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O37" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P37" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q37" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R37" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="S37" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="T37" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U37" s="8"/>
       <c r="V37" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W37" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="X37" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y37" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z37" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA37" s="20" t="s">
         <v>3</v>
@@ -10990,22 +10990,22 @@
     </row>
     <row r="38" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C38" s="25">
         <v>54</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G38" s="27">
         <v>3</v>
@@ -11014,56 +11014,56 @@
         <v>3</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L38" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M38" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P38" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q38" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S38" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T38" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U38" s="8"/>
       <c r="V38" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W38" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="X38" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y38" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z38" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA38" s="20" t="s">
         <v>3</v>
@@ -11208,80 +11208,80 @@
     </row>
     <row r="39" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C39" s="25">
         <v>55</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N39" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O39" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q39" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R39" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="S39" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="S39" s="10" t="s">
-        <v>102</v>
-      </c>
       <c r="T39" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U39" s="8"/>
       <c r="V39" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W39" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="X39" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y39" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z39" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA39" s="20" t="s">
         <v>3</v>
@@ -11426,22 +11426,22 @@
     </row>
     <row r="40" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C40" s="25">
         <v>56</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G40" s="27">
         <v>3</v>
@@ -11450,55 +11450,55 @@
         <v>3</v>
       </c>
       <c r="I40" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N40" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O40" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P40" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q40" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R40" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="S40" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="S40" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="T40" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V40" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W40" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="X40" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y40" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z40" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA40" s="20" t="s">
         <v>3</v>
@@ -11643,80 +11643,80 @@
     </row>
     <row r="41" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C41" s="25">
         <v>58</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I41" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P41" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q41" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S41" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T41" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U41" s="8"/>
       <c r="V41" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W41" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="X41" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Y41" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z41" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA41" s="20" t="s">
         <v>3</v>
@@ -11861,79 +11861,79 @@
     </row>
     <row r="42" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C42" s="25">
         <v>59</v>
       </c>
       <c r="D42" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I42" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G42" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H42" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I42" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="J42" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P42" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q42" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R42" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="T42" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V42" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W42" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="X42" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Y42" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z42" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA42" s="20" t="s">
         <v>3</v>
@@ -12078,22 +12078,22 @@
     </row>
     <row r="43" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C43" s="25">
         <v>60</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G43" s="29">
         <v>1</v>
@@ -12102,58 +12102,58 @@
         <v>1</v>
       </c>
       <c r="I43" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q43" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R43" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S43" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T43" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U43" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V43" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W43" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="X43" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Y43" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z43" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA43" s="20" t="s">
         <v>3</v>
@@ -12298,22 +12298,22 @@
     </row>
     <row r="44" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C44" s="25">
         <v>61</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G44" s="29">
         <v>1</v>
@@ -12322,58 +12322,58 @@
         <v>1</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q44" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R44" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S44" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T44" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U44" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V44" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W44" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="X44" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Y44" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z44" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA44" s="20" t="s">
         <v>3</v>
@@ -12518,22 +12518,22 @@
     </row>
     <row r="45" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C45" s="25">
         <v>62</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G45" s="29">
         <v>1</v>
@@ -12542,58 +12542,58 @@
         <v>1</v>
       </c>
       <c r="I45" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q45" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R45" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S45" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T45" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U45" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V45" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W45" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="X45" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Y45" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z45" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA45" s="20" t="s">
         <v>3</v>
@@ -12738,82 +12738,82 @@
     </row>
     <row r="46" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C46" s="25">
         <v>63</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I46" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="T46" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U46" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V46" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W46" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="X46" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Y46" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z46" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA46" s="20" t="s">
         <v>3</v>
@@ -12958,80 +12958,80 @@
     </row>
     <row r="47" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C47" s="25">
         <v>64</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I47" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q47" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R47" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S47" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T47" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U47" s="8"/>
       <c r="V47" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W47" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="X47" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Y47" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z47" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA47" s="20" t="s">
         <v>3</v>
@@ -13176,80 +13176,80 @@
     </row>
     <row r="48" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C48" s="25">
         <v>75</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I48" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q48" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R48" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S48" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T48" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U48" s="8"/>
       <c r="V48" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W48" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="X48" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Y48" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z48" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA48" s="20" t="s">
         <v>3</v>
@@ -13394,80 +13394,80 @@
     </row>
     <row r="49" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C49" s="25">
         <v>76</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I49" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q49" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R49" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T49" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U49" s="8"/>
       <c r="V49" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W49" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="X49" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Y49" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z49" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA49" s="20" t="s">
         <v>3</v>
@@ -13612,22 +13612,22 @@
     </row>
     <row r="50" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C50" s="25">
         <v>86</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G50" s="25">
         <v>5</v>
@@ -13636,58 +13636,58 @@
         <v>5</v>
       </c>
       <c r="I50" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q50" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R50" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S50" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="T50" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U50" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V50" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W50" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="X50" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y50" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z50" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA50" s="20" t="s">
         <v>3</v>
@@ -13832,22 +13832,22 @@
     </row>
     <row r="51" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C51" s="25">
         <v>87</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G51" s="25">
         <v>1</v>
@@ -13856,58 +13856,58 @@
         <v>1</v>
       </c>
       <c r="I51" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q51" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R51" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="S51" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="T51" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U51" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V51" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W51" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="X51" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Y51" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z51" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA51" s="20" t="s">
         <v>3</v>
@@ -14052,22 +14052,22 @@
     </row>
     <row r="52" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C52" s="25">
         <v>88</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G52" s="25">
         <v>1</v>
@@ -14076,54 +14076,54 @@
         <v>1</v>
       </c>
       <c r="I52" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="33"/>
       <c r="R52" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="S52" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="T52" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U52" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V52" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W52" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="X52" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Y52" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z52" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA52" s="20" t="s">
         <v>3</v>
@@ -14268,22 +14268,22 @@
     </row>
     <row r="53" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C53" s="25">
         <v>92</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G53" s="27">
         <v>1</v>
@@ -14292,58 +14292,58 @@
         <v>1</v>
       </c>
       <c r="I53" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q53" s="34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="R53" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S53" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="T53" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U53" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V53" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W53" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="X53" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y53" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z53" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA53" s="20" t="s">
         <v>3</v>
@@ -14488,80 +14488,80 @@
     </row>
     <row r="54" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C54" s="25">
         <v>100</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I54" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q54" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R54" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S54" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="T54" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U54" s="8"/>
       <c r="V54" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W54" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="X54" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Y54" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z54" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA54" s="20" t="s">
         <v>3</v>
@@ -14706,22 +14706,22 @@
     </row>
     <row r="55" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C55" s="25">
         <v>160</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G55" s="25">
         <v>1</v>
@@ -14730,55 +14730,55 @@
         <v>1</v>
       </c>
       <c r="I55" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q55" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="R55" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="S55" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="T55" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V55" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W55" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="X55" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Y55" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z55" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA55" s="20" t="s">
         <v>3</v>
@@ -14923,22 +14923,22 @@
     </row>
     <row r="56" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C56" s="25">
         <v>162</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G56" s="27">
         <v>1</v>
@@ -14947,56 +14947,56 @@
         <v>1</v>
       </c>
       <c r="I56" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q56" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R56" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S56" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T56" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U56" s="8"/>
       <c r="V56" s="25">
         <v>27377618</v>
       </c>
       <c r="W56" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="X56" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Y56" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z56" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA56" s="20" t="s">
         <v>3</v>
@@ -15141,22 +15141,22 @@
     </row>
     <row r="57" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C57" s="25">
         <v>163</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G57" s="27">
         <v>1</v>
@@ -15165,56 +15165,56 @@
         <v>1</v>
       </c>
       <c r="I57" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q57" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R57" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S57" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T57" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U57" s="8"/>
       <c r="V57" s="25">
         <v>27377618</v>
       </c>
       <c r="W57" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="X57" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Y57" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z57" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA57" s="20" t="s">
         <v>3</v>
@@ -15359,22 +15359,22 @@
     </row>
     <row r="58" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C58" s="25">
         <v>164</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G58" s="27">
         <v>1</v>
@@ -15383,56 +15383,56 @@
         <v>1</v>
       </c>
       <c r="I58" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q58" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R58" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S58" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T58" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U58" s="8"/>
       <c r="V58" s="25">
         <v>27377618</v>
       </c>
       <c r="W58" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="X58" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Y58" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z58" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA58" s="20" t="s">
         <v>3</v>
@@ -15577,22 +15577,22 @@
     </row>
     <row r="59" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C59" s="25">
         <v>174</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G59" s="27">
         <v>1</v>
@@ -15601,58 +15601,58 @@
         <v>1</v>
       </c>
       <c r="I59" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q59" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R59" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S59" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T59" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U59" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V59" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W59" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="X59" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Y59" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z59" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA59" s="20" t="s">
         <v>3</v>
@@ -15797,80 +15797,80 @@
     </row>
     <row r="60" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C60" s="25">
         <v>175</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I60" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q60" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R60" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S60" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T60" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U60" s="8"/>
       <c r="V60" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W60" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="X60" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Y60" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z60" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA60" s="20" t="s">
         <v>3</v>
@@ -16015,80 +16015,80 @@
     </row>
     <row r="61" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C61" s="25">
         <v>176</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I61" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q61" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R61" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S61" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T61" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U61" s="8"/>
       <c r="V61" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W61" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="X61" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Y61" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z61" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA61" s="20" t="s">
         <v>3</v>
@@ -16233,22 +16233,22 @@
     </row>
     <row r="62" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C62" s="25">
         <v>180</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G62" s="27">
         <v>2</v>
@@ -16257,58 +16257,58 @@
         <v>2</v>
       </c>
       <c r="I62" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q62" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R62" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="S62" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="T62" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U62" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V62" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W62" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="X62" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Y62" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z62" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA62" s="20" t="s">
         <v>3</v>
@@ -16453,22 +16453,22 @@
     </row>
     <row r="63" spans="1:164" s="26" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C63" s="25">
         <v>187</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G63" s="25">
         <v>1</v>
@@ -16477,58 +16477,58 @@
         <v>1</v>
       </c>
       <c r="I63" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L63" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N63" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O63" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q63" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R63" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="S63" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="T63" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U63" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V63" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W63" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="X63" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Y63" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z63" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA63" s="20" t="s">
         <v>3</v>
@@ -16673,22 +16673,22 @@
     </row>
     <row r="64" spans="1:164" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C64" s="25">
         <v>190</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G64" s="25">
         <v>1</v>
@@ -16697,56 +16697,56 @@
         <v>1</v>
       </c>
       <c r="I64" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q64" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R64" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="S64" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="T64" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U64" s="7"/>
       <c r="V64" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W64" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="X64" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Y64" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z64" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA64" s="20" t="s">
         <v>3</v>
@@ -16891,80 +16891,80 @@
     </row>
     <row r="65" spans="1:164" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C65" s="25">
         <v>191</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I65" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q65" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R65" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="S65" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="S65" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="T65" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U65" s="7"/>
       <c r="V65" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W65" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="X65" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Y65" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z65" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA65" s="20" t="s">
         <v>3</v>
@@ -17109,79 +17109,79 @@
     </row>
     <row r="66" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C66" s="25">
         <v>192</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I66" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q66" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R66" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S66" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T66" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V66" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W66" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="X66" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Y66" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z66" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA66" s="20" t="s">
         <v>3</v>
@@ -17326,22 +17326,22 @@
     </row>
     <row r="67" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67" s="25">
         <v>197</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G67" s="29">
         <v>1</v>
@@ -17350,56 +17350,56 @@
         <v>1</v>
       </c>
       <c r="I67" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K67" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="L67" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N67" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O67" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q67" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R67" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S67" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T67" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U67" s="7"/>
       <c r="V67" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W67" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="X67" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Y67" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z67" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA67" s="20" t="s">
         <v>3</v>
@@ -17544,22 +17544,22 @@
     </row>
     <row r="68" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C68" s="25">
         <v>198</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G68" s="29">
         <v>1</v>
@@ -17568,55 +17568,55 @@
         <v>1</v>
       </c>
       <c r="I68" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J68" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K68" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K68" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="L68" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M68" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="M68" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="N68" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O68" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q68" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R68" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S68" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T68" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V68" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W68" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="X68" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Y68" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z68" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA68" s="20" t="s">
         <v>3</v>
@@ -17761,22 +17761,22 @@
     </row>
     <row r="69" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C69" s="25">
         <v>199</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G69" s="29">
         <v>1</v>
@@ -17785,56 +17785,56 @@
         <v>1</v>
       </c>
       <c r="I69" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K69" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="L69" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N69" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O69" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q69" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R69" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="S69" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="S69" s="10" t="s">
-        <v>54</v>
-      </c>
       <c r="T69" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U69" s="7"/>
       <c r="V69" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W69" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="X69" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Y69" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z69" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA69" s="20" t="s">
         <v>3</v>
@@ -17979,22 +17979,22 @@
     </row>
     <row r="70" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C70" s="25">
         <v>201</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G70" s="27">
         <v>1</v>
@@ -18003,58 +18003,58 @@
         <v>1</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q70" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R70" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="S70" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="T70" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U70" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V70" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="W70" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="S70" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="T70" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U70" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="V70" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="W70" s="20" t="s">
-        <v>179</v>
-      </c>
       <c r="X70" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Y70" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z70" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA70" s="20" t="s">
         <v>3</v>
@@ -18199,22 +18199,22 @@
     </row>
     <row r="71" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C71" s="25">
         <v>202</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G71" s="27">
         <v>1</v>
@@ -18223,58 +18223,58 @@
         <v>1</v>
       </c>
       <c r="I71" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q71" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R71" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="S71" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="T71" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U71" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V71" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W71" s="20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="X71" s="20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Y71" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z71" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA71" s="20" t="s">
         <v>3</v>
@@ -18419,22 +18419,22 @@
     </row>
     <row r="72" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C72" s="25">
         <v>203</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G72" s="27">
         <v>1</v>
@@ -18443,58 +18443,58 @@
         <v>1</v>
       </c>
       <c r="I72" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N72" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O72" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q72" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R72" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S72" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T72" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U72" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V72" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W72" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="X72" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Y72" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z72" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA72" s="20" t="s">
         <v>3</v>
@@ -18639,22 +18639,22 @@
     </row>
     <row r="73" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C73" s="25">
         <v>221</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G73" s="27">
         <v>1</v>
@@ -18663,58 +18663,58 @@
         <v>1</v>
       </c>
       <c r="I73" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L73" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M73" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="M73" s="19" t="s">
-        <v>132</v>
-      </c>
       <c r="N73" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O73" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q73" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R73" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="S73" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="T73" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U73" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V73" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W73" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X73" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y73" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z73" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA73" s="20" t="s">
         <v>3</v>
@@ -18859,22 +18859,22 @@
     </row>
     <row r="74" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C74" s="25">
         <v>365</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G74" s="25">
         <v>7</v>
@@ -18883,58 +18883,58 @@
         <v>7</v>
       </c>
       <c r="I74" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N74" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O74" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q74" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R74" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S74" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T74" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U74" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V74" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W74" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X74" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Y74" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z74" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA74" s="20" t="s">
         <v>3</v>
@@ -18942,22 +18942,22 @@
     </row>
     <row r="75" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C75" s="25">
         <v>366</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G75" s="25">
         <v>20</v>
@@ -18966,58 +18966,58 @@
         <v>20</v>
       </c>
       <c r="I75" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N75" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O75" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q75" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R75" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S75" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T75" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U75" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V75" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W75" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="X75" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Y75" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z75" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA75" s="20" t="s">
         <v>3</v>
@@ -19162,78 +19162,78 @@
     </row>
     <row r="76" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C76" s="25">
         <v>367</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G76" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H76" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I76" s="25"/>
       <c r="J76" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q76" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R76" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S76" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T76" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U76" s="7"/>
       <c r="V76" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W76" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="X76" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Y76" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z76" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA76" s="20" t="s">
         <v>3</v>
@@ -19378,78 +19378,78 @@
     </row>
     <row r="77" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C77" s="25">
         <v>368</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G77" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H77" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I77" s="25"/>
       <c r="J77" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q77" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R77" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S77" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T77" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U77" s="7"/>
       <c r="V77" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W77" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="X77" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Y77" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z77" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA77" s="20" t="s">
         <v>3</v>
@@ -19594,78 +19594,78 @@
     </row>
     <row r="78" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C78" s="25">
         <v>369</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F78" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G78" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H78" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I78" s="25"/>
       <c r="J78" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q78" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R78" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S78" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T78" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U78" s="7"/>
       <c r="V78" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W78" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="X78" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Y78" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z78" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA78" s="20" t="s">
         <v>3</v>
@@ -19810,22 +19810,22 @@
     </row>
     <row r="79" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C79" s="25">
         <v>370</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G79" s="27">
         <v>1</v>
@@ -19834,56 +19834,56 @@
         <v>1</v>
       </c>
       <c r="I79" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K79" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N79" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O79" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q79" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R79" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S79" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T79" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U79" s="7"/>
       <c r="V79" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W79" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="X79" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Y79" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z79" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA79" s="20" t="s">
         <v>3</v>
@@ -20028,78 +20028,78 @@
     </row>
     <row r="80" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C80" s="25">
         <v>371</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G80" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I80" s="25"/>
       <c r="J80" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P80" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q80" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R80" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S80" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T80" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U80" s="7"/>
       <c r="V80" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W80" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="X80" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Y80" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z80" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA80" s="20" t="s">
         <v>3</v>
@@ -20244,80 +20244,80 @@
     </row>
     <row r="81" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C81" s="25">
         <v>372</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E81" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F81" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G81" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="H81" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I81" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M81" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O81" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q81" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="R81" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="S81" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="F81" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G81" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H81" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I81" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L81" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M81" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N81" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O81" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q81" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="R81" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="S81" s="10" t="s">
-        <v>256</v>
-      </c>
       <c r="T81" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U81" s="7"/>
       <c r="V81" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W81" s="20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="X81" s="20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Y81" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z81" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA81" s="20" t="s">
         <v>3</v>
@@ -20462,22 +20462,22 @@
     </row>
     <row r="82" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C82" s="25">
         <v>500</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G82" s="27">
         <v>1</v>
@@ -20486,58 +20486,58 @@
         <v>1</v>
       </c>
       <c r="I82" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L82" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N82" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O82" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q82" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R82" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="S82" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="T82" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U82" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V82" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W82" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X82" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y82" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z82" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA82" s="20" t="s">
         <v>3</v>
@@ -20545,22 +20545,22 @@
     </row>
     <row r="83" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C83" s="25">
         <v>500</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G83" s="27">
         <v>1</v>
@@ -20569,58 +20569,58 @@
         <v>1</v>
       </c>
       <c r="I83" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L83" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N83" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O83" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P83" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q83" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R83" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="S83" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="T83" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U83" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V83" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W83" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X83" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y83" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z83" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA83" s="20" t="s">
         <v>3</v>
@@ -20628,22 +20628,22 @@
     </row>
     <row r="84" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C84" s="25">
         <v>500</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G84" s="27">
         <v>1</v>
@@ -20652,58 +20652,58 @@
         <v>1</v>
       </c>
       <c r="I84" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L84" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N84" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O84" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P84" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q84" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R84" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="S84" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="T84" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U84" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V84" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W84" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X84" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y84" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z84" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA84" s="20" t="s">
         <v>3</v>
@@ -22537,22 +22537,22 @@
   <sheetData>
     <row r="1" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C1" s="25">
         <v>53</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G1" s="27">
         <v>1</v>
@@ -22561,56 +22561,56 @@
         <v>1</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q1" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U1" s="8"/>
       <c r="V1" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W1" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="X1" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Y1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA1" s="20" t="s">
         <v>3</v>

--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076A6532-4B8E-D943-A242-966FB4E29A53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DE7C7B-5798-DF4C-BC3A-5A34B37BC945}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="1060" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="500" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="294">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -913,6 +913,9 @@
   </si>
   <si>
     <t>Elephas</t>
+  </si>
+  <si>
+    <t>dependo.174-PipPip</t>
   </si>
 </sst>
 </file>
@@ -3405,10 +3408,10 @@
   <dimension ref="A1:FH97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomRight" activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15577,7 +15580,7 @@
     </row>
     <row r="59" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
-        <v>161</v>
+        <v>293</v>
       </c>
       <c r="B59" s="25" t="s">
         <v>186</v>

--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10314"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DE7C7B-5798-DF4C-BC3A-5A34B37BC945}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87EB594-7F11-3448-940B-B9A85E0970DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="500" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="292">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -432,9 +432,6 @@
     <t>Sauria</t>
   </si>
   <si>
-    <t>X59532</t>
-  </si>
-  <si>
     <t>dependo.500-eHV.carlito</t>
   </si>
   <si>
@@ -457,9 +454,6 @@
   </si>
   <si>
     <t>dependo.500-eHV.mustela</t>
-  </si>
-  <si>
-    <t>ncbi-refseqs-dependo-epv</t>
   </si>
   <si>
     <t>Pelecanus</t>
@@ -3405,13 +3399,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DACFF6-840F-D741-97EA-4F87EFFABC86}">
-  <dimension ref="A1:FH97"/>
+  <dimension ref="A1:FH96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R44" sqref="R44"/>
+      <selection pane="bottomRight" activeCell="A77" sqref="A1:AA83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3450,34 +3444,34 @@
         <v>73</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>168</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>96</v>
@@ -3522,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>1</v>
@@ -3533,7 +3527,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C2" s="25">
         <v>0</v>
@@ -3542,10 +3536,10 @@
         <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G2" s="27">
         <v>1</v>
@@ -3554,7 +3548,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>128</v>
@@ -3603,7 +3597,7 @@
         <v>2</v>
       </c>
       <c r="Z2" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA2" s="20" t="s">
         <v>3</v>
@@ -3614,7 +3608,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C3" s="25">
         <v>1</v>
@@ -3626,7 +3620,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G3" s="25">
         <v>23</v>
@@ -3635,7 +3629,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>129</v>
@@ -3686,7 +3680,7 @@
         <v>2</v>
       </c>
       <c r="Z3" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA3" s="20" t="s">
         <v>3</v>
@@ -3694,10 +3688,10 @@
     </row>
     <row r="4" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C4" s="25">
         <v>2</v>
@@ -3709,7 +3703,7 @@
         <v>126</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G4" s="25">
         <v>8</v>
@@ -3718,7 +3712,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>128</v>
@@ -3736,7 +3730,7 @@
         <v>128</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>83</v>
@@ -3758,16 +3752,16 @@
         <v>32913662</v>
       </c>
       <c r="W4" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="X4" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Y4" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z4" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA4" s="20" t="s">
         <v>3</v>
@@ -3778,7 +3772,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C5" s="25">
         <v>3</v>
@@ -3790,7 +3784,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G5" s="25">
         <v>3</v>
@@ -3799,7 +3793,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>128</v>
@@ -3817,7 +3811,7 @@
         <v>128</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>83</v>
@@ -3850,7 +3844,7 @@
         <v>2</v>
       </c>
       <c r="Z5" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA5" s="20" t="s">
         <v>3</v>
@@ -3998,7 +3992,7 @@
         <v>110</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C6" s="25">
         <v>4</v>
@@ -4010,7 +4004,7 @@
         <v>108</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G6" s="27">
         <v>4</v>
@@ -4019,7 +4013,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>129</v>
@@ -4058,7 +4052,7 @@
         <v>27.9</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W6" s="20" t="s">
         <v>110</v>
@@ -4070,7 +4064,7 @@
         <v>2</v>
       </c>
       <c r="Z6" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA6" s="20" t="s">
         <v>3</v>
@@ -4218,7 +4212,7 @@
         <v>109</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C7" s="25">
         <v>5</v>
@@ -4230,7 +4224,7 @@
         <v>108</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G7" s="27">
         <v>4</v>
@@ -4239,13 +4233,13 @@
         <v>4</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>128</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L7" s="14" t="s">
         <v>21</v>
@@ -4257,7 +4251,7 @@
         <v>128</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>83</v>
@@ -4278,7 +4272,7 @@
         <v>27.9</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W7" s="20" t="s">
         <v>109</v>
@@ -4290,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="Z7" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA7" s="20" t="s">
         <v>3</v>
@@ -4435,10 +4429,10 @@
     </row>
     <row r="8" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C8" s="25">
         <v>6</v>
@@ -4447,10 +4441,10 @@
         <v>19</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G8" s="25">
         <v>1</v>
@@ -4459,19 +4453,19 @@
         <v>1</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>128</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>128</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>21</v>
@@ -4496,19 +4490,19 @@
       </c>
       <c r="U8" s="7"/>
       <c r="V8" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W8" s="20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="X8" s="20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Y8" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z8" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA8" s="20" t="s">
         <v>3</v>
@@ -4656,7 +4650,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C9" s="25">
         <v>7</v>
@@ -4668,7 +4662,7 @@
         <v>87</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G9" s="25">
         <v>1</v>
@@ -4677,19 +4671,19 @@
         <v>1</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>128</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>128</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>21</v>
@@ -4714,7 +4708,7 @@
       </c>
       <c r="U9" s="7"/>
       <c r="V9" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W9" s="20" t="s">
         <v>9</v>
@@ -4726,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="Z9" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA9" s="20" t="s">
         <v>3</v>
@@ -4874,7 +4868,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C10" s="25">
         <v>8</v>
@@ -4886,7 +4880,7 @@
         <v>88</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G10" s="25">
         <v>1</v>
@@ -4895,13 +4889,13 @@
         <v>1</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>128</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>21</v>
@@ -4913,7 +4907,7 @@
         <v>128</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>83</v>
@@ -4932,7 +4926,7 @@
       </c>
       <c r="U10" s="7"/>
       <c r="V10" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W10" s="20" t="s">
         <v>10</v>
@@ -4944,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="Z10" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA10" s="20" t="s">
         <v>3</v>
@@ -5089,10 +5083,10 @@
     </row>
     <row r="11" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C11" s="25">
         <v>9</v>
@@ -5101,10 +5095,10 @@
         <v>82</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G11" s="25">
         <v>2</v>
@@ -5113,19 +5107,19 @@
         <v>2</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>128</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>128</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N11" s="14" t="s">
         <v>21</v>
@@ -5150,19 +5144,19 @@
       </c>
       <c r="U11" s="7"/>
       <c r="V11" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="W11" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="W11" s="20" t="s">
-        <v>212</v>
-      </c>
       <c r="X11" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y11" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z11" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA11" s="20" t="s">
         <v>3</v>
@@ -5310,7 +5304,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C12" s="25">
         <v>10</v>
@@ -5322,7 +5316,7 @@
         <v>39</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G12" s="27">
         <v>1</v>
@@ -5368,7 +5362,7 @@
       </c>
       <c r="U12" s="7"/>
       <c r="V12" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W12" s="20" t="s">
         <v>38</v>
@@ -5380,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="Z12" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA12" s="20" t="s">
         <v>3</v>
@@ -5528,7 +5522,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C13" s="25">
         <v>11</v>
@@ -5540,7 +5534,7 @@
         <v>121</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G13" s="27">
         <v>3</v>
@@ -5555,13 +5549,13 @@
         <v>128</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>128</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>21</v>
@@ -5586,7 +5580,7 @@
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W13" s="20" t="s">
         <v>11</v>
@@ -5598,7 +5592,7 @@
         <v>2</v>
       </c>
       <c r="Z13" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA13" s="20" t="s">
         <v>3</v>
@@ -5746,7 +5740,7 @@
         <v>64</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C14" s="25">
         <v>12</v>
@@ -5758,7 +5752,7 @@
         <v>85</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G14" s="25">
         <v>1</v>
@@ -5767,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>128</v>
@@ -5785,7 +5779,7 @@
         <v>128</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>83</v>
@@ -5804,7 +5798,7 @@
       </c>
       <c r="U14" s="7"/>
       <c r="V14" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W14" s="20" t="s">
         <v>64</v>
@@ -5816,7 +5810,7 @@
         <v>2</v>
       </c>
       <c r="Z14" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA14" s="20" t="s">
         <v>3</v>
@@ -5964,7 +5958,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C15" s="25">
         <v>13</v>
@@ -5976,7 +5970,7 @@
         <v>86</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G15" s="27">
         <v>3</v>
@@ -5985,25 +5979,25 @@
         <v>3</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>128</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L15" s="13" t="s">
         <v>128</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N15" s="13" t="s">
         <v>128</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P15" s="17" t="s">
         <v>113</v>
@@ -6024,7 +6018,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W15" s="20" t="s">
         <v>8</v>
@@ -6036,7 +6030,7 @@
         <v>2</v>
       </c>
       <c r="Z15" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA15" s="20" t="s">
         <v>3</v>
@@ -6184,7 +6178,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C16" s="25">
         <v>14</v>
@@ -6196,7 +6190,7 @@
         <v>86</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G16" s="27">
         <v>5</v>
@@ -6205,19 +6199,19 @@
         <v>5</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J16" s="13" t="s">
         <v>128</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>128</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N16" s="14" t="s">
         <v>21</v>
@@ -6244,7 +6238,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="V16" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W16" s="20" t="s">
         <v>26</v>
@@ -6256,7 +6250,7 @@
         <v>2</v>
       </c>
       <c r="Z16" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA16" s="20" t="s">
         <v>3</v>
@@ -6404,7 +6398,7 @@
         <v>79</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C17" s="25">
         <v>15</v>
@@ -6416,7 +6410,7 @@
         <v>105</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G17" s="27">
         <v>1</v>
@@ -6425,19 +6419,19 @@
         <v>1</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>128</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>128</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N17" s="14" t="s">
         <v>21</v>
@@ -6464,7 +6458,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="V17" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W17" s="20" t="s">
         <v>79</v>
@@ -6476,7 +6470,7 @@
         <v>2</v>
       </c>
       <c r="Z17" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA17" s="20" t="s">
         <v>3</v>
@@ -6624,7 +6618,7 @@
         <v>74</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C18" s="25">
         <v>16</v>
@@ -6636,7 +6630,7 @@
         <v>89</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G18" s="27">
         <v>5</v>
@@ -6645,7 +6639,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>129</v>
@@ -6682,7 +6676,7 @@
       </c>
       <c r="U18" s="8"/>
       <c r="V18" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W18" s="20" t="s">
         <v>74</v>
@@ -6694,7 +6688,7 @@
         <v>2</v>
       </c>
       <c r="Z18" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA18" s="20" t="s">
         <v>3</v>
@@ -6842,7 +6836,7 @@
         <v>125</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C19" s="25">
         <v>20</v>
@@ -6854,7 +6848,7 @@
         <v>81</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G19" s="27">
         <v>13</v>
@@ -6863,7 +6857,7 @@
         <v>13</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>130</v>
@@ -6900,7 +6894,7 @@
       </c>
       <c r="U19" s="8"/>
       <c r="V19" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W19" s="20" t="s">
         <v>125</v>
@@ -6912,7 +6906,7 @@
         <v>2</v>
       </c>
       <c r="Z19" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA19" s="20" t="s">
         <v>3</v>
@@ -7060,7 +7054,7 @@
         <v>80</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C20" s="25">
         <v>22</v>
@@ -7072,7 +7066,7 @@
         <v>81</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G20" s="27">
         <v>73</v>
@@ -7081,7 +7075,7 @@
         <v>76</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>130</v>
@@ -7120,7 +7114,7 @@
         <v>62</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W20" s="20" t="s">
         <v>80</v>
@@ -7132,7 +7126,7 @@
         <v>2</v>
       </c>
       <c r="Z20" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA20" s="20" t="s">
         <v>3</v>
@@ -7277,10 +7271,10 @@
     </row>
     <row r="21" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C21" s="25">
         <v>23</v>
@@ -7292,7 +7286,7 @@
         <v>90</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G21" s="27">
         <v>5</v>
@@ -7301,7 +7295,7 @@
         <v>5</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>129</v>
@@ -7343,16 +7337,16 @@
         <v>26037535</v>
       </c>
       <c r="W21" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="X21" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y21" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z21" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA21" s="20" t="s">
         <v>3</v>
@@ -7497,22 +7491,22 @@
     </row>
     <row r="22" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C22" s="25">
         <v>26</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G22" s="27">
         <v>7</v>
@@ -7521,7 +7515,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>129</v>
@@ -7563,16 +7557,16 @@
         <v>15085543</v>
       </c>
       <c r="W22" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="X22" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Y22" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z22" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA22" s="20" t="s">
         <v>3</v>
@@ -7720,7 +7714,7 @@
         <v>63</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C23" s="25">
         <v>27</v>
@@ -7732,7 +7726,7 @@
         <v>91</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G23" s="27">
         <v>3</v>
@@ -7741,19 +7735,19 @@
         <v>3</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>128</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>128</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>21</v>
@@ -7778,7 +7772,7 @@
       </c>
       <c r="U23" s="8"/>
       <c r="V23" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W23" s="20" t="s">
         <v>63</v>
@@ -7790,7 +7784,7 @@
         <v>2</v>
       </c>
       <c r="Z23" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA23" s="20" t="s">
         <v>3</v>
@@ -7938,7 +7932,7 @@
         <v>77</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C24" s="25">
         <v>28</v>
@@ -7950,7 +7944,7 @@
         <v>92</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G24" s="27">
         <v>1</v>
@@ -7959,7 +7953,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>129</v>
@@ -7986,17 +7980,17 @@
         <v>116</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T24" s="8" t="s">
         <v>42</v>
       </c>
       <c r="U24" s="8"/>
       <c r="V24" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W24" s="20" t="s">
         <v>77</v>
@@ -8008,7 +8002,7 @@
         <v>2</v>
       </c>
       <c r="Z24" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA24" s="20" t="s">
         <v>3</v>
@@ -8153,10 +8147,10 @@
     </row>
     <row r="25" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C25" s="25">
         <v>36</v>
@@ -8168,7 +8162,7 @@
         <v>120</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G25" s="27">
         <v>1</v>
@@ -8204,29 +8198,29 @@
         <v>116</v>
       </c>
       <c r="R25" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T25" s="8" t="s">
         <v>42</v>
       </c>
       <c r="U25" s="8"/>
       <c r="V25" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W25" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="X25" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Y25" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z25" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA25" s="20" t="s">
         <v>3</v>
@@ -8371,10 +8365,10 @@
     </row>
     <row r="26" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C26" s="25">
         <v>37</v>
@@ -8383,10 +8377,10 @@
         <v>19</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G26" s="25">
         <v>1</v>
@@ -8395,25 +8389,25 @@
         <v>1</v>
       </c>
       <c r="I26" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>128</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>128</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>128</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>83</v>
@@ -8422,29 +8416,29 @@
         <v>116</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="T26" s="8" t="s">
         <v>42</v>
       </c>
       <c r="U26" s="8"/>
       <c r="V26" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W26" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="X26" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Y26" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z26" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA26" s="20" t="s">
         <v>3</v>
@@ -8592,7 +8586,7 @@
         <v>119</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C27" s="25">
         <v>40</v>
@@ -8604,7 +8598,7 @@
         <v>118</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G27" s="27">
         <v>1</v>
@@ -8613,7 +8607,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>129</v>
@@ -8640,10 +8634,10 @@
         <v>116</v>
       </c>
       <c r="R27" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="T27" s="8" t="s">
         <v>42</v>
@@ -8652,7 +8646,7 @@
         <v>42</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W27" s="20" t="s">
         <v>119</v>
@@ -8664,7 +8658,7 @@
         <v>2</v>
       </c>
       <c r="Z27" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA27" s="20" t="s">
         <v>3</v>
@@ -8812,7 +8806,7 @@
         <v>123</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C28" s="25">
         <v>42</v>
@@ -8824,7 +8818,7 @@
         <v>95</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G28" s="25">
         <v>1</v>
@@ -8833,19 +8827,19 @@
         <v>1</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>128</v>
       </c>
       <c r="K28" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L28" s="13" t="s">
         <v>128</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N28" s="14" t="s">
         <v>21</v>
@@ -8870,7 +8864,7 @@
       </c>
       <c r="U28" s="7"/>
       <c r="V28" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W28" s="20" t="s">
         <v>123</v>
@@ -8882,7 +8876,7 @@
         <v>2</v>
       </c>
       <c r="Z28" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA28" s="20" t="s">
         <v>3</v>
@@ -9030,7 +9024,7 @@
         <v>122</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C29" s="25">
         <v>43</v>
@@ -9042,7 +9036,7 @@
         <v>124</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G29" s="25">
         <v>5</v>
@@ -9051,7 +9045,7 @@
         <v>5</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J29" s="13" t="s">
         <v>128</v>
@@ -9088,7 +9082,7 @@
       </c>
       <c r="U29" s="8"/>
       <c r="V29" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W29" s="20" t="s">
         <v>122</v>
@@ -9100,7 +9094,7 @@
         <v>2</v>
       </c>
       <c r="Z29" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA29" s="20" t="s">
         <v>3</v>
@@ -9260,7 +9254,7 @@
         <v>103</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G30" s="27">
         <v>2</v>
@@ -9308,7 +9302,7 @@
         <v>34</v>
       </c>
       <c r="V30" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W30" s="20" t="s">
         <v>24</v>
@@ -9320,7 +9314,7 @@
         <v>2</v>
       </c>
       <c r="Z30" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA30" s="20" t="s">
         <v>3</v>
@@ -9465,7 +9459,7 @@
     </row>
     <row r="31" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>83</v>
@@ -9480,7 +9474,7 @@
         <v>103</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G31" s="27">
         <v>2</v>
@@ -9526,19 +9520,19 @@
       </c>
       <c r="U31" s="8"/>
       <c r="V31" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W31" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="X31" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Y31" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z31" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA31" s="20" t="s">
         <v>3</v>
@@ -9683,10 +9677,10 @@
     </row>
     <row r="32" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C32" s="25">
         <v>46</v>
@@ -9698,7 +9692,7 @@
         <v>16</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G32" s="25">
         <v>1</v>
@@ -9707,25 +9701,25 @@
         <v>2</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>128</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>128</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>128</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>83</v>
@@ -9744,19 +9738,19 @@
       </c>
       <c r="U32" s="8"/>
       <c r="V32" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W32" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X32" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Y32" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z32" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA32" s="20" t="s">
         <v>3</v>
@@ -9901,10 +9895,10 @@
     </row>
     <row r="33" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C33" s="25">
         <v>47</v>
@@ -9913,10 +9907,10 @@
         <v>14</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G33" s="27">
         <v>1</v>
@@ -9952,10 +9946,10 @@
         <v>116</v>
       </c>
       <c r="R33" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="S33" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="T33" s="8" t="s">
         <v>42</v>
@@ -9964,19 +9958,19 @@
         <v>42</v>
       </c>
       <c r="V33" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W33" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="X33" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Y33" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z33" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA33" s="20" t="s">
         <v>3</v>
@@ -10121,10 +10115,10 @@
     </row>
     <row r="34" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C34" s="25">
         <v>48</v>
@@ -10136,7 +10130,7 @@
         <v>104</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>116</v>
@@ -10151,13 +10145,13 @@
         <v>128</v>
       </c>
       <c r="K34" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L34" s="13" t="s">
         <v>128</v>
       </c>
       <c r="M34" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>42</v>
@@ -10182,19 +10176,19 @@
       </c>
       <c r="U34" s="8"/>
       <c r="V34" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W34" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="X34" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y34" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z34" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA34" s="20" t="s">
         <v>3</v>
@@ -10339,10 +10333,10 @@
     </row>
     <row r="35" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C35" s="25">
         <v>49</v>
@@ -10351,7 +10345,7 @@
         <v>14</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F35" s="22" t="s">
         <v>116</v>
@@ -10400,19 +10394,19 @@
       </c>
       <c r="U35" s="8"/>
       <c r="V35" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W35" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="X35" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Y35" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z35" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA35" s="20" t="s">
         <v>3</v>
@@ -10557,10 +10551,10 @@
     </row>
     <row r="36" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C36" s="25">
         <v>50</v>
@@ -10569,7 +10563,7 @@
         <v>20</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F36" s="22" t="s">
         <v>116</v>
@@ -10608,29 +10602,29 @@
         <v>116</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="T36" s="8" t="s">
         <v>42</v>
       </c>
       <c r="U36" s="8"/>
       <c r="V36" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W36" s="20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="X36" s="20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Y36" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z36" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA36" s="20" t="s">
         <v>3</v>
@@ -10778,7 +10772,7 @@
         <v>127</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C37" s="25">
         <v>51</v>
@@ -10787,10 +10781,10 @@
         <v>20</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G37" s="25">
         <v>4</v>
@@ -10826,17 +10820,17 @@
         <v>116</v>
       </c>
       <c r="R37" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="S37" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="T37" s="8" t="s">
         <v>42</v>
       </c>
       <c r="U37" s="8"/>
       <c r="V37" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W37" s="20" t="s">
         <v>127</v>
@@ -10848,7 +10842,7 @@
         <v>2</v>
       </c>
       <c r="Z37" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA37" s="20" t="s">
         <v>3</v>
@@ -10993,10 +10987,10 @@
     </row>
     <row r="38" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C38" s="25">
         <v>54</v>
@@ -11005,10 +10999,10 @@
         <v>19</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G38" s="27">
         <v>3</v>
@@ -11054,19 +11048,19 @@
       </c>
       <c r="U38" s="8"/>
       <c r="V38" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W38" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="X38" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Y38" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z38" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA38" s="20" t="s">
         <v>3</v>
@@ -11211,10 +11205,10 @@
     </row>
     <row r="39" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C39" s="25">
         <v>55</v>
@@ -11226,7 +11220,7 @@
         <v>16</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G39" s="25" t="s">
         <v>116</v>
@@ -11272,19 +11266,19 @@
       </c>
       <c r="U39" s="8"/>
       <c r="V39" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W39" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="X39" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Y39" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z39" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA39" s="20" t="s">
         <v>3</v>
@@ -11429,10 +11423,10 @@
     </row>
     <row r="40" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C40" s="25">
         <v>56</v>
@@ -11444,7 +11438,7 @@
         <v>106</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G40" s="27">
         <v>3</v>
@@ -11453,7 +11447,7 @@
         <v>3</v>
       </c>
       <c r="I40" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J40" s="13" t="s">
         <v>128</v>
@@ -11489,19 +11483,19 @@
         <v>42</v>
       </c>
       <c r="V40" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W40" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="X40" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y40" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z40" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA40" s="20" t="s">
         <v>3</v>
@@ -11646,10 +11640,10 @@
     </row>
     <row r="41" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C41" s="25">
         <v>58</v>
@@ -11658,7 +11652,7 @@
         <v>14</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F41" s="22" t="s">
         <v>116</v>
@@ -11707,19 +11701,19 @@
       </c>
       <c r="U41" s="8"/>
       <c r="V41" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W41" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="X41" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Y41" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z41" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA41" s="20" t="s">
         <v>3</v>
@@ -11864,10 +11858,10 @@
     </row>
     <row r="42" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C42" s="25">
         <v>59</v>
@@ -11876,7 +11870,7 @@
         <v>82</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F42" s="22" t="s">
         <v>116</v>
@@ -11915,28 +11909,28 @@
         <v>116</v>
       </c>
       <c r="R42" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="T42" s="8" t="s">
         <v>42</v>
       </c>
       <c r="V42" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W42" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="X42" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Y42" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z42" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA42" s="20" t="s">
         <v>3</v>
@@ -12081,10 +12075,10 @@
     </row>
     <row r="43" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C43" s="25">
         <v>60</v>
@@ -12093,10 +12087,10 @@
         <v>14</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G43" s="29">
         <v>1</v>
@@ -12144,19 +12138,19 @@
         <v>42</v>
       </c>
       <c r="V43" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W43" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="X43" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Y43" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z43" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA43" s="20" t="s">
         <v>3</v>
@@ -12301,10 +12295,10 @@
     </row>
     <row r="44" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C44" s="25">
         <v>61</v>
@@ -12313,10 +12307,10 @@
         <v>14</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G44" s="29">
         <v>1</v>
@@ -12364,19 +12358,19 @@
         <v>42</v>
       </c>
       <c r="V44" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W44" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="X44" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Y44" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z44" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA44" s="20" t="s">
         <v>3</v>
@@ -12521,10 +12515,10 @@
     </row>
     <row r="45" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C45" s="25">
         <v>62</v>
@@ -12533,10 +12527,10 @@
         <v>14</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G45" s="29">
         <v>1</v>
@@ -12584,19 +12578,19 @@
         <v>42</v>
       </c>
       <c r="V45" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W45" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="X45" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Y45" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z45" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA45" s="20" t="s">
         <v>3</v>
@@ -12741,10 +12735,10 @@
     </row>
     <row r="46" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C46" s="25">
         <v>63</v>
@@ -12792,10 +12786,10 @@
         <v>115</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="T46" s="8" t="s">
         <v>42</v>
@@ -12804,19 +12798,19 @@
         <v>42</v>
       </c>
       <c r="V46" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W46" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="X46" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Y46" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z46" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA46" s="20" t="s">
         <v>3</v>
@@ -12961,10 +12955,10 @@
     </row>
     <row r="47" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C47" s="25">
         <v>64</v>
@@ -13022,19 +13016,19 @@
       </c>
       <c r="U47" s="8"/>
       <c r="V47" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W47" s="20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="X47" s="20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Y47" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z47" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA47" s="20" t="s">
         <v>3</v>
@@ -13179,10 +13173,10 @@
     </row>
     <row r="48" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C48" s="25">
         <v>75</v>
@@ -13191,7 +13185,7 @@
         <v>14</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F48" s="22" t="s">
         <v>116</v>
@@ -13240,19 +13234,19 @@
       </c>
       <c r="U48" s="8"/>
       <c r="V48" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W48" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="X48" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Y48" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z48" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA48" s="20" t="s">
         <v>3</v>
@@ -13397,10 +13391,10 @@
     </row>
     <row r="49" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C49" s="25">
         <v>76</v>
@@ -13409,7 +13403,7 @@
         <v>20</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F49" s="22" t="s">
         <v>116</v>
@@ -13458,19 +13452,19 @@
       </c>
       <c r="U49" s="8"/>
       <c r="V49" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W49" s="20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="X49" s="20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Y49" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z49" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA49" s="20" t="s">
         <v>3</v>
@@ -13615,10 +13609,10 @@
     </row>
     <row r="50" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C50" s="25">
         <v>86</v>
@@ -13630,7 +13624,7 @@
         <v>118</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G50" s="25">
         <v>5</v>
@@ -13639,7 +13633,7 @@
         <v>5</v>
       </c>
       <c r="I50" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>129</v>
@@ -13666,10 +13660,10 @@
         <v>116</v>
       </c>
       <c r="R50" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="S50" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="T50" s="8" t="s">
         <v>42</v>
@@ -13678,19 +13672,19 @@
         <v>42</v>
       </c>
       <c r="V50" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W50" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="X50" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Y50" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z50" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA50" s="20" t="s">
         <v>3</v>
@@ -13835,10 +13829,10 @@
     </row>
     <row r="51" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C51" s="25">
         <v>87</v>
@@ -13847,7 +13841,7 @@
         <v>14</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F51" s="22" t="s">
         <v>116</v>
@@ -13886,10 +13880,10 @@
         <v>116</v>
       </c>
       <c r="R51" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S51" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="T51" s="8" t="s">
         <v>42</v>
@@ -13898,19 +13892,19 @@
         <v>42</v>
       </c>
       <c r="V51" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W51" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="X51" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Y51" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z51" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA51" s="20" t="s">
         <v>3</v>
@@ -14055,10 +14049,10 @@
     </row>
     <row r="52" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C52" s="25">
         <v>88</v>
@@ -14067,7 +14061,7 @@
         <v>14</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F52" s="22" t="s">
         <v>116</v>
@@ -14102,10 +14096,10 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="33"/>
       <c r="R52" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="S52" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="T52" s="8" t="s">
         <v>42</v>
@@ -14114,19 +14108,19 @@
         <v>42</v>
       </c>
       <c r="V52" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W52" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="X52" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Y52" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z52" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA52" s="20" t="s">
         <v>3</v>
@@ -14271,10 +14265,10 @@
     </row>
     <row r="53" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C53" s="25">
         <v>92</v>
@@ -14283,10 +14277,10 @@
         <v>14</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G53" s="27">
         <v>1</v>
@@ -14319,13 +14313,13 @@
         <v>83</v>
       </c>
       <c r="Q53" s="34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="R53" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="S53" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="T53" s="8" t="s">
         <v>42</v>
@@ -14334,19 +14328,19 @@
         <v>42</v>
       </c>
       <c r="V53" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W53" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="X53" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Y53" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z53" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA53" s="20" t="s">
         <v>3</v>
@@ -14491,10 +14485,10 @@
     </row>
     <row r="54" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C54" s="25">
         <v>100</v>
@@ -14503,7 +14497,7 @@
         <v>14</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F54" s="22" t="s">
         <v>116</v>
@@ -14542,29 +14536,29 @@
         <v>116</v>
       </c>
       <c r="R54" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S54" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="T54" s="8" t="s">
         <v>42</v>
       </c>
       <c r="U54" s="8"/>
       <c r="V54" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W54" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="X54" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Y54" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z54" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA54" s="20" t="s">
         <v>3</v>
@@ -14709,10 +14703,10 @@
     </row>
     <row r="55" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C55" s="25">
         <v>160</v>
@@ -14724,7 +14718,7 @@
         <v>39</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G55" s="25">
         <v>1</v>
@@ -14733,7 +14727,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J55" s="13" t="s">
         <v>128</v>
@@ -14757,31 +14751,31 @@
         <v>83</v>
       </c>
       <c r="Q55" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="R55" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="S55" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="T55" s="8" t="s">
         <v>42</v>
       </c>
       <c r="V55" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W55" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="X55" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Y55" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z55" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA55" s="20" t="s">
         <v>3</v>
@@ -14926,10 +14920,10 @@
     </row>
     <row r="56" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C56" s="25">
         <v>162</v>
@@ -14938,10 +14932,10 @@
         <v>14</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G56" s="27">
         <v>1</v>
@@ -14950,7 +14944,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>128</v>
@@ -14990,16 +14984,16 @@
         <v>27377618</v>
       </c>
       <c r="W56" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="X56" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Y56" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z56" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA56" s="20" t="s">
         <v>3</v>
@@ -15144,10 +15138,10 @@
     </row>
     <row r="57" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C57" s="25">
         <v>163</v>
@@ -15156,10 +15150,10 @@
         <v>14</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G57" s="27">
         <v>1</v>
@@ -15168,7 +15162,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>128</v>
@@ -15208,16 +15202,16 @@
         <v>27377618</v>
       </c>
       <c r="W57" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="X57" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Y57" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z57" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA57" s="20" t="s">
         <v>3</v>
@@ -15362,10 +15356,10 @@
     </row>
     <row r="58" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C58" s="25">
         <v>164</v>
@@ -15374,10 +15368,10 @@
         <v>14</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G58" s="27">
         <v>1</v>
@@ -15386,7 +15380,7 @@
         <v>1</v>
       </c>
       <c r="I58" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>128</v>
@@ -15426,16 +15420,16 @@
         <v>27377618</v>
       </c>
       <c r="W58" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="X58" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Y58" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z58" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA58" s="20" t="s">
         <v>3</v>
@@ -15580,10 +15574,10 @@
     </row>
     <row r="59" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C59" s="25">
         <v>174</v>
@@ -15592,10 +15586,10 @@
         <v>14</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G59" s="27">
         <v>1</v>
@@ -15604,7 +15598,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>42</v>
@@ -15631,10 +15625,10 @@
         <v>116</v>
       </c>
       <c r="R59" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="S59" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="T59" s="8" t="s">
         <v>42</v>
@@ -15643,19 +15637,19 @@
         <v>42</v>
       </c>
       <c r="V59" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W59" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X59" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Y59" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z59" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA59" s="20" t="s">
         <v>3</v>
@@ -15800,10 +15794,10 @@
     </row>
     <row r="60" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C60" s="25">
         <v>175</v>
@@ -15812,7 +15806,7 @@
         <v>14</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F60" s="22" t="s">
         <v>116</v>
@@ -15861,19 +15855,19 @@
       </c>
       <c r="U60" s="8"/>
       <c r="V60" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W60" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="X60" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Y60" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z60" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA60" s="20" t="s">
         <v>3</v>
@@ -16018,10 +16012,10 @@
     </row>
     <row r="61" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C61" s="25">
         <v>176</v>
@@ -16030,7 +16024,7 @@
         <v>14</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F61" s="22" t="s">
         <v>116</v>
@@ -16079,19 +16073,19 @@
       </c>
       <c r="U61" s="8"/>
       <c r="V61" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W61" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="X61" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Y61" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z61" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA61" s="20" t="s">
         <v>3</v>
@@ -16236,10 +16230,10 @@
     </row>
     <row r="62" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C62" s="25">
         <v>180</v>
@@ -16248,10 +16242,10 @@
         <v>14</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G62" s="27">
         <v>2</v>
@@ -16260,7 +16254,7 @@
         <v>2</v>
       </c>
       <c r="I62" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>42</v>
@@ -16287,10 +16281,10 @@
         <v>116</v>
       </c>
       <c r="R62" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="S62" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="T62" s="8" t="s">
         <v>42</v>
@@ -16299,19 +16293,19 @@
         <v>42</v>
       </c>
       <c r="V62" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W62" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="X62" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Y62" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z62" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA62" s="20" t="s">
         <v>3</v>
@@ -16456,10 +16450,10 @@
     </row>
     <row r="63" spans="1:164" s="26" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C63" s="25">
         <v>187</v>
@@ -16468,10 +16462,10 @@
         <v>14</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G63" s="25">
         <v>1</v>
@@ -16507,10 +16501,10 @@
         <v>116</v>
       </c>
       <c r="R63" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="S63" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="T63" s="8" t="s">
         <v>42</v>
@@ -16519,19 +16513,19 @@
         <v>42</v>
       </c>
       <c r="V63" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W63" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="X63" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Y63" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z63" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA63" s="20" t="s">
         <v>3</v>
@@ -16676,10 +16670,10 @@
     </row>
     <row r="64" spans="1:164" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C64" s="25">
         <v>190</v>
@@ -16691,7 +16685,7 @@
         <v>39</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G64" s="25">
         <v>1</v>
@@ -16727,29 +16721,29 @@
         <v>116</v>
       </c>
       <c r="R64" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="S64" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="T64" s="8" t="s">
         <v>42</v>
       </c>
       <c r="U64" s="7"/>
       <c r="V64" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W64" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X64" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Y64" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z64" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA64" s="20" t="s">
         <v>3</v>
@@ -16894,10 +16888,10 @@
     </row>
     <row r="65" spans="1:164" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C65" s="25">
         <v>191</v>
@@ -16909,7 +16903,7 @@
         <v>39</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G65" s="25" t="s">
         <v>116</v>
@@ -16955,19 +16949,19 @@
       </c>
       <c r="U65" s="7"/>
       <c r="V65" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W65" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X65" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Y65" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z65" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA65" s="20" t="s">
         <v>3</v>
@@ -17112,10 +17106,10 @@
     </row>
     <row r="66" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C66" s="25">
         <v>192</v>
@@ -17127,7 +17121,7 @@
         <v>39</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G66" s="25" t="s">
         <v>116</v>
@@ -17172,19 +17166,19 @@
         <v>42</v>
       </c>
       <c r="V66" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W66" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="X66" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y66" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z66" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA66" s="20" t="s">
         <v>3</v>
@@ -17329,7 +17323,7 @@
     </row>
     <row r="67" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B67" s="25" t="s">
         <v>83</v>
@@ -17344,7 +17338,7 @@
         <v>93</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G67" s="29">
         <v>1</v>
@@ -17390,19 +17384,19 @@
       </c>
       <c r="U67" s="7"/>
       <c r="V67" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W67" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="X67" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Y67" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z67" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA67" s="20" t="s">
         <v>3</v>
@@ -17547,7 +17541,7 @@
     </row>
     <row r="68" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B68" s="25" t="s">
         <v>83</v>
@@ -17562,7 +17556,7 @@
         <v>93</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G68" s="29">
         <v>1</v>
@@ -17607,19 +17601,19 @@
         <v>42</v>
       </c>
       <c r="V68" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W68" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="X68" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Y68" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z68" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA68" s="20" t="s">
         <v>3</v>
@@ -17764,7 +17758,7 @@
     </row>
     <row r="69" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B69" s="25" t="s">
         <v>83</v>
@@ -17779,7 +17773,7 @@
         <v>93</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G69" s="29">
         <v>1</v>
@@ -17825,19 +17819,19 @@
       </c>
       <c r="U69" s="7"/>
       <c r="V69" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W69" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="X69" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Y69" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z69" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA69" s="20" t="s">
         <v>3</v>
@@ -17982,10 +17976,10 @@
     </row>
     <row r="70" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C70" s="25">
         <v>201</v>
@@ -17994,10 +17988,10 @@
         <v>14</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G70" s="27">
         <v>1</v>
@@ -18006,7 +18000,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>42</v>
@@ -18033,31 +18027,31 @@
         <v>116</v>
       </c>
       <c r="R70" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="S70" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="T70" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U70" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V70" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="W70" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="S70" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="T70" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="U70" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="V70" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="W70" s="20" t="s">
-        <v>177</v>
-      </c>
       <c r="X70" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Y70" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z70" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA70" s="20" t="s">
         <v>3</v>
@@ -18202,10 +18196,10 @@
     </row>
     <row r="71" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C71" s="25">
         <v>202</v>
@@ -18214,10 +18208,10 @@
         <v>14</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G71" s="27">
         <v>1</v>
@@ -18226,7 +18220,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>42</v>
@@ -18253,10 +18247,10 @@
         <v>116</v>
       </c>
       <c r="R71" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="S71" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="T71" s="8" t="s">
         <v>42</v>
@@ -18265,19 +18259,19 @@
         <v>42</v>
       </c>
       <c r="V71" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W71" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="X71" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Y71" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z71" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA71" s="20" t="s">
         <v>3</v>
@@ -18422,10 +18416,10 @@
     </row>
     <row r="72" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C72" s="25">
         <v>203</v>
@@ -18434,10 +18428,10 @@
         <v>14</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G72" s="27">
         <v>1</v>
@@ -18485,19 +18479,19 @@
         <v>42</v>
       </c>
       <c r="V72" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W72" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="X72" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Y72" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z72" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA72" s="20" t="s">
         <v>3</v>
@@ -18642,7 +18636,7 @@
     </row>
     <row r="73" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B73" s="25" t="s">
         <v>83</v>
@@ -18654,10 +18648,10 @@
         <v>14</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G73" s="27">
         <v>1</v>
@@ -18666,7 +18660,7 @@
         <v>1</v>
       </c>
       <c r="I73" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>42</v>
@@ -18693,10 +18687,10 @@
         <v>116</v>
       </c>
       <c r="R73" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S73" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="T73" s="8" t="s">
         <v>42</v>
@@ -18705,19 +18699,19 @@
         <v>42</v>
       </c>
       <c r="V73" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W73" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="X73" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Y73" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z73" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA73" s="20" t="s">
         <v>3</v>
@@ -18862,10 +18856,10 @@
     </row>
     <row r="74" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C74" s="25">
         <v>365</v>
@@ -18877,7 +18871,7 @@
         <v>94</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G74" s="25">
         <v>7</v>
@@ -18886,7 +18880,7 @@
         <v>7</v>
       </c>
       <c r="I74" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>42</v>
@@ -18913,10 +18907,10 @@
         <v>116</v>
       </c>
       <c r="R74" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S74" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="T74" s="8" t="s">
         <v>42</v>
@@ -18925,19 +18919,19 @@
         <v>42</v>
       </c>
       <c r="V74" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W74" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="X74" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Y74" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z74" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA74" s="20" t="s">
         <v>3</v>
@@ -18945,10 +18939,10 @@
     </row>
     <row r="75" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C75" s="25">
         <v>366</v>
@@ -18960,7 +18954,7 @@
         <v>94</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G75" s="25">
         <v>20</v>
@@ -18969,7 +18963,7 @@
         <v>20</v>
       </c>
       <c r="I75" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>42</v>
@@ -18996,10 +18990,10 @@
         <v>116</v>
       </c>
       <c r="R75" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="S75" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="T75" s="8" t="s">
         <v>42</v>
@@ -19008,19 +19002,19 @@
         <v>42</v>
       </c>
       <c r="V75" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W75" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X75" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Y75" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z75" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA75" s="20" t="s">
         <v>3</v>
@@ -19165,10 +19159,10 @@
     </row>
     <row r="76" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C76" s="25">
         <v>367</v>
@@ -19177,10 +19171,10 @@
         <v>20</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G76" s="25" t="s">
         <v>116</v>
@@ -19224,19 +19218,19 @@
       </c>
       <c r="U76" s="7"/>
       <c r="V76" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W76" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="X76" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Y76" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z76" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA76" s="20" t="s">
         <v>3</v>
@@ -19381,10 +19375,10 @@
     </row>
     <row r="77" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C77" s="25">
         <v>368</v>
@@ -19393,7 +19387,7 @@
         <v>20</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F77" s="22" t="s">
         <v>116</v>
@@ -19440,19 +19434,19 @@
       </c>
       <c r="U77" s="7"/>
       <c r="V77" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W77" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="X77" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Y77" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z77" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA77" s="20" t="s">
         <v>3</v>
@@ -19597,10 +19591,10 @@
     </row>
     <row r="78" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C78" s="25">
         <v>369</v>
@@ -19609,7 +19603,7 @@
         <v>14</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F78" s="22" t="s">
         <v>116</v>
@@ -19656,19 +19650,19 @@
       </c>
       <c r="U78" s="7"/>
       <c r="V78" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W78" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="X78" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Y78" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z78" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA78" s="20" t="s">
         <v>3</v>
@@ -19813,10 +19807,10 @@
     </row>
     <row r="79" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C79" s="25">
         <v>370</v>
@@ -19825,10 +19819,10 @@
         <v>14</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G79" s="27">
         <v>1</v>
@@ -19837,13 +19831,13 @@
         <v>1</v>
       </c>
       <c r="I79" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J79" s="13" t="s">
         <v>128</v>
       </c>
       <c r="K79" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L79" s="4" t="s">
         <v>42</v>
@@ -19874,19 +19868,19 @@
       </c>
       <c r="U79" s="7"/>
       <c r="V79" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W79" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="X79" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Y79" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z79" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA79" s="20" t="s">
         <v>3</v>
@@ -20031,10 +20025,10 @@
     </row>
     <row r="80" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C80" s="25">
         <v>371</v>
@@ -20043,10 +20037,10 @@
         <v>14</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G80" s="25" t="s">
         <v>116</v>
@@ -20090,19 +20084,19 @@
       </c>
       <c r="U80" s="7"/>
       <c r="V80" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W80" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="X80" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Y80" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z80" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA80" s="20" t="s">
         <v>3</v>
@@ -20247,10 +20241,10 @@
     </row>
     <row r="81" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C81" s="25">
         <v>372</v>
@@ -20259,7 +20253,7 @@
         <v>14</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F81" s="22" t="s">
         <v>116</v>
@@ -20298,29 +20292,29 @@
         <v>116</v>
       </c>
       <c r="R81" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="S81" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T81" s="8" t="s">
         <v>42</v>
       </c>
       <c r="U81" s="7"/>
       <c r="V81" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W81" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="X81" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Y81" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z81" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA81" s="20" t="s">
         <v>3</v>
@@ -20468,7 +20462,7 @@
         <v>132</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C82" s="25">
         <v>500</v>
@@ -20477,10 +20471,10 @@
         <v>19</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G82" s="27">
         <v>1</v>
@@ -20489,16 +20483,16 @@
         <v>1</v>
       </c>
       <c r="I82" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K82" s="4" t="s">
         <v>42</v>
       </c>
       <c r="L82" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M82" s="4" t="s">
         <v>42</v>
@@ -20516,10 +20510,10 @@
         <v>116</v>
       </c>
       <c r="R82" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S82" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="T82" s="8" t="s">
         <v>42</v>
@@ -20528,7 +20522,7 @@
         <v>42</v>
       </c>
       <c r="V82" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W82" s="20" t="s">
         <v>132</v>
@@ -20540,7 +20534,7 @@
         <v>2</v>
       </c>
       <c r="Z82" s="20" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="AA82" s="20" t="s">
         <v>3</v>
@@ -20548,10 +20542,10 @@
     </row>
     <row r="83" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C83" s="25">
         <v>500</v>
@@ -20560,10 +20554,10 @@
         <v>19</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G83" s="27">
         <v>1</v>
@@ -20572,16 +20566,16 @@
         <v>1</v>
       </c>
       <c r="I83" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K83" s="4" t="s">
         <v>42</v>
       </c>
       <c r="L83" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>42</v>
@@ -20599,10 +20593,10 @@
         <v>116</v>
       </c>
       <c r="R83" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S83" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="T83" s="8" t="s">
         <v>42</v>
@@ -20611,106 +20605,162 @@
         <v>42</v>
       </c>
       <c r="V83" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W83" s="20" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="X83" s="20" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Y83" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z83" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA83" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:164" x14ac:dyDescent="0.2">
-      <c r="A84" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="B84" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="C84" s="25">
-        <v>500</v>
-      </c>
-      <c r="D84" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E84" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="F84" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="G84" s="27">
-        <v>1</v>
-      </c>
-      <c r="H84" s="27">
-        <v>1</v>
-      </c>
-      <c r="I84" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="J84" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="K84" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L84" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="M84" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N84" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O84" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="P84" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q84" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="R84" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="S84" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="T84" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="U84" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="V84" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="W84" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="X84" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y84" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z84" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA84" s="20" t="s">
-        <v>3</v>
-      </c>
+      <c r="AB84" s="24"/>
+      <c r="AC84" s="24"/>
+      <c r="AD84" s="24"/>
+      <c r="AE84" s="24"/>
+      <c r="AF84" s="24"/>
+      <c r="AG84" s="24"/>
+      <c r="AH84" s="24"/>
+      <c r="AI84" s="24"/>
+      <c r="AJ84" s="24"/>
+      <c r="AK84" s="24"/>
+      <c r="AL84" s="24"/>
+      <c r="AM84" s="24"/>
+      <c r="AN84" s="24"/>
+      <c r="AO84" s="24"/>
+      <c r="AP84" s="24"/>
+      <c r="AQ84" s="24"/>
+      <c r="AR84" s="24"/>
+      <c r="AS84" s="24"/>
+      <c r="AT84" s="24"/>
+      <c r="AU84" s="24"/>
+      <c r="AV84" s="24"/>
+      <c r="AW84" s="24"/>
+      <c r="AX84" s="24"/>
+      <c r="AY84" s="24"/>
+      <c r="AZ84" s="24"/>
+      <c r="BA84" s="24"/>
+      <c r="BB84" s="24"/>
+      <c r="BC84" s="24"/>
+      <c r="BD84" s="24"/>
+      <c r="BE84" s="24"/>
+      <c r="BF84" s="24"/>
+      <c r="BG84" s="24"/>
+      <c r="BH84" s="24"/>
+      <c r="BI84" s="24"/>
+      <c r="BJ84" s="24"/>
+      <c r="BK84" s="24"/>
+      <c r="BL84" s="24"/>
+      <c r="BM84" s="24"/>
+      <c r="BN84" s="24"/>
+      <c r="BO84" s="24"/>
+      <c r="BP84" s="24"/>
+      <c r="BQ84" s="24"/>
+      <c r="BR84" s="24"/>
+      <c r="BS84" s="24"/>
+      <c r="BT84" s="24"/>
+      <c r="BU84" s="24"/>
+      <c r="BV84" s="24"/>
+      <c r="BW84" s="24"/>
+      <c r="BX84" s="24"/>
+      <c r="BY84" s="24"/>
+      <c r="BZ84" s="24"/>
+      <c r="CA84" s="24"/>
+      <c r="CB84" s="24"/>
+      <c r="CC84" s="24"/>
+      <c r="CD84" s="24"/>
+      <c r="CE84" s="24"/>
+      <c r="CF84" s="24"/>
+      <c r="CG84" s="24"/>
+      <c r="CH84" s="24"/>
+      <c r="CI84" s="24"/>
+      <c r="CJ84" s="24"/>
+      <c r="CK84" s="24"/>
+      <c r="CL84" s="24"/>
+      <c r="CM84" s="24"/>
+      <c r="CN84" s="24"/>
+      <c r="CO84" s="24"/>
+      <c r="CP84" s="24"/>
+      <c r="CQ84" s="24"/>
+      <c r="CR84" s="24"/>
+      <c r="CS84" s="24"/>
+      <c r="CT84" s="24"/>
+      <c r="CU84" s="24"/>
+      <c r="CV84" s="24"/>
+      <c r="CW84" s="24"/>
+      <c r="CX84" s="24"/>
+      <c r="CY84" s="24"/>
+      <c r="CZ84" s="24"/>
+      <c r="DA84" s="24"/>
+      <c r="DB84" s="24"/>
+      <c r="DC84" s="24"/>
+      <c r="DD84" s="24"/>
+      <c r="DE84" s="24"/>
+      <c r="DF84" s="24"/>
+      <c r="DG84" s="24"/>
+      <c r="DH84" s="24"/>
+      <c r="DI84" s="24"/>
+      <c r="DJ84" s="24"/>
+      <c r="DK84" s="24"/>
+      <c r="DL84" s="24"/>
+      <c r="DM84" s="24"/>
+      <c r="DN84" s="24"/>
+      <c r="DO84" s="24"/>
+      <c r="DP84" s="24"/>
+      <c r="DQ84" s="24"/>
+      <c r="DR84" s="24"/>
+      <c r="DS84" s="24"/>
+      <c r="DT84" s="24"/>
+      <c r="DU84" s="24"/>
+      <c r="DV84" s="24"/>
+      <c r="DW84" s="24"/>
+      <c r="DX84" s="24"/>
+      <c r="DY84" s="24"/>
+      <c r="DZ84" s="24"/>
+      <c r="EA84" s="24"/>
+      <c r="EB84" s="24"/>
+      <c r="EC84" s="24"/>
+      <c r="ED84" s="24"/>
+      <c r="EE84" s="24"/>
+      <c r="EF84" s="24"/>
+      <c r="EG84" s="24"/>
+      <c r="EH84" s="24"/>
+      <c r="EI84" s="24"/>
+      <c r="EJ84" s="24"/>
+      <c r="EK84" s="24"/>
+      <c r="EL84" s="24"/>
+      <c r="EM84" s="24"/>
+      <c r="EN84" s="24"/>
+      <c r="EO84" s="24"/>
+      <c r="EP84" s="24"/>
+      <c r="EQ84" s="24"/>
+      <c r="ER84" s="24"/>
+      <c r="ES84" s="24"/>
+      <c r="ET84" s="24"/>
+      <c r="EU84" s="24"/>
+      <c r="EV84" s="24"/>
+      <c r="EW84" s="24"/>
+      <c r="EX84" s="24"/>
+      <c r="EY84" s="24"/>
+      <c r="EZ84" s="24"/>
+      <c r="FA84" s="24"/>
+      <c r="FB84" s="24"/>
+      <c r="FC84" s="24"/>
+      <c r="FD84" s="24"/>
+      <c r="FE84" s="24"/>
+      <c r="FF84" s="24"/>
+      <c r="FG84" s="24"/>
+      <c r="FH84" s="24"/>
     </row>
     <row r="85" spans="1:164" x14ac:dyDescent="0.2">
       <c r="AB85" s="24"/>
@@ -22380,148 +22430,9 @@
       <c r="FG96" s="24"/>
       <c r="FH96" s="24"/>
     </row>
-    <row r="97" spans="28:164" x14ac:dyDescent="0.2">
-      <c r="AB97" s="24"/>
-      <c r="AC97" s="24"/>
-      <c r="AD97" s="24"/>
-      <c r="AE97" s="24"/>
-      <c r="AF97" s="24"/>
-      <c r="AG97" s="24"/>
-      <c r="AH97" s="24"/>
-      <c r="AI97" s="24"/>
-      <c r="AJ97" s="24"/>
-      <c r="AK97" s="24"/>
-      <c r="AL97" s="24"/>
-      <c r="AM97" s="24"/>
-      <c r="AN97" s="24"/>
-      <c r="AO97" s="24"/>
-      <c r="AP97" s="24"/>
-      <c r="AQ97" s="24"/>
-      <c r="AR97" s="24"/>
-      <c r="AS97" s="24"/>
-      <c r="AT97" s="24"/>
-      <c r="AU97" s="24"/>
-      <c r="AV97" s="24"/>
-      <c r="AW97" s="24"/>
-      <c r="AX97" s="24"/>
-      <c r="AY97" s="24"/>
-      <c r="AZ97" s="24"/>
-      <c r="BA97" s="24"/>
-      <c r="BB97" s="24"/>
-      <c r="BC97" s="24"/>
-      <c r="BD97" s="24"/>
-      <c r="BE97" s="24"/>
-      <c r="BF97" s="24"/>
-      <c r="BG97" s="24"/>
-      <c r="BH97" s="24"/>
-      <c r="BI97" s="24"/>
-      <c r="BJ97" s="24"/>
-      <c r="BK97" s="24"/>
-      <c r="BL97" s="24"/>
-      <c r="BM97" s="24"/>
-      <c r="BN97" s="24"/>
-      <c r="BO97" s="24"/>
-      <c r="BP97" s="24"/>
-      <c r="BQ97" s="24"/>
-      <c r="BR97" s="24"/>
-      <c r="BS97" s="24"/>
-      <c r="BT97" s="24"/>
-      <c r="BU97" s="24"/>
-      <c r="BV97" s="24"/>
-      <c r="BW97" s="24"/>
-      <c r="BX97" s="24"/>
-      <c r="BY97" s="24"/>
-      <c r="BZ97" s="24"/>
-      <c r="CA97" s="24"/>
-      <c r="CB97" s="24"/>
-      <c r="CC97" s="24"/>
-      <c r="CD97" s="24"/>
-      <c r="CE97" s="24"/>
-      <c r="CF97" s="24"/>
-      <c r="CG97" s="24"/>
-      <c r="CH97" s="24"/>
-      <c r="CI97" s="24"/>
-      <c r="CJ97" s="24"/>
-      <c r="CK97" s="24"/>
-      <c r="CL97" s="24"/>
-      <c r="CM97" s="24"/>
-      <c r="CN97" s="24"/>
-      <c r="CO97" s="24"/>
-      <c r="CP97" s="24"/>
-      <c r="CQ97" s="24"/>
-      <c r="CR97" s="24"/>
-      <c r="CS97" s="24"/>
-      <c r="CT97" s="24"/>
-      <c r="CU97" s="24"/>
-      <c r="CV97" s="24"/>
-      <c r="CW97" s="24"/>
-      <c r="CX97" s="24"/>
-      <c r="CY97" s="24"/>
-      <c r="CZ97" s="24"/>
-      <c r="DA97" s="24"/>
-      <c r="DB97" s="24"/>
-      <c r="DC97" s="24"/>
-      <c r="DD97" s="24"/>
-      <c r="DE97" s="24"/>
-      <c r="DF97" s="24"/>
-      <c r="DG97" s="24"/>
-      <c r="DH97" s="24"/>
-      <c r="DI97" s="24"/>
-      <c r="DJ97" s="24"/>
-      <c r="DK97" s="24"/>
-      <c r="DL97" s="24"/>
-      <c r="DM97" s="24"/>
-      <c r="DN97" s="24"/>
-      <c r="DO97" s="24"/>
-      <c r="DP97" s="24"/>
-      <c r="DQ97" s="24"/>
-      <c r="DR97" s="24"/>
-      <c r="DS97" s="24"/>
-      <c r="DT97" s="24"/>
-      <c r="DU97" s="24"/>
-      <c r="DV97" s="24"/>
-      <c r="DW97" s="24"/>
-      <c r="DX97" s="24"/>
-      <c r="DY97" s="24"/>
-      <c r="DZ97" s="24"/>
-      <c r="EA97" s="24"/>
-      <c r="EB97" s="24"/>
-      <c r="EC97" s="24"/>
-      <c r="ED97" s="24"/>
-      <c r="EE97" s="24"/>
-      <c r="EF97" s="24"/>
-      <c r="EG97" s="24"/>
-      <c r="EH97" s="24"/>
-      <c r="EI97" s="24"/>
-      <c r="EJ97" s="24"/>
-      <c r="EK97" s="24"/>
-      <c r="EL97" s="24"/>
-      <c r="EM97" s="24"/>
-      <c r="EN97" s="24"/>
-      <c r="EO97" s="24"/>
-      <c r="EP97" s="24"/>
-      <c r="EQ97" s="24"/>
-      <c r="ER97" s="24"/>
-      <c r="ES97" s="24"/>
-      <c r="ET97" s="24"/>
-      <c r="EU97" s="24"/>
-      <c r="EV97" s="24"/>
-      <c r="EW97" s="24"/>
-      <c r="EX97" s="24"/>
-      <c r="EY97" s="24"/>
-      <c r="EZ97" s="24"/>
-      <c r="FA97" s="24"/>
-      <c r="FB97" s="24"/>
-      <c r="FC97" s="24"/>
-      <c r="FD97" s="24"/>
-      <c r="FE97" s="24"/>
-      <c r="FF97" s="24"/>
-      <c r="FG97" s="24"/>
-      <c r="FH97" s="24"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA84">
-    <sortCondition ref="C2:C84"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA83">
+    <sortCondition ref="C2:C83"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22540,10 +22451,10 @@
   <sheetData>
     <row r="1" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C1" s="25">
         <v>53</v>
@@ -22552,10 +22463,10 @@
         <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G1" s="27">
         <v>1</v>
@@ -22601,19 +22512,19 @@
       </c>
       <c r="U1" s="8"/>
       <c r="V1" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W1" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="X1" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Y1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA1" s="20" t="s">
         <v>3</v>

--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87EB594-7F11-3448-940B-B9A85E0970DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57785571-4991-B940-9737-A9615BC92F26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="500" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3405,7 +3405,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="Q29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A77" sqref="A1:AA83"/>
+      <selection pane="bottomRight" activeCell="Y62" sqref="Y62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F7D7AA-E462-A048-A1BD-090E19A27FE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF910EE7-CFFD-E443-805E-BA07859E286B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="3240" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8180" yWindow="2340" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="301">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -606,9 +606,6 @@
     <t>dependo.197-ornithorhynchus</t>
   </si>
   <si>
-    <t>dependo.198-ornithorhynchus</t>
-  </si>
-  <si>
     <t>dependo.199-ornithorhynchus</t>
   </si>
   <si>
@@ -925,6 +922,21 @@
   </si>
   <si>
     <t>AEBP2</t>
+  </si>
+  <si>
+    <t>ENSHGL00100026153</t>
+  </si>
+  <si>
+    <t>ENSHGL00100026154</t>
+  </si>
+  <si>
+    <t>Ces1d</t>
+  </si>
+  <si>
+    <t>ENSOANG00000038367</t>
+  </si>
+  <si>
+    <t>ENSOANG00000041945</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1007,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1110,6 +1122,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2061,7 +2079,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2135,6 +2153,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="939">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3422,13 +3443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DACFF6-840F-D741-97EA-4F87EFFABC86}">
-  <dimension ref="A1:FH96"/>
+  <dimension ref="A1:FH95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B63" sqref="A1:AA81"/>
+      <selection pane="bottomRight" activeCell="R23" sqref="A1:AA80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3559,7 +3580,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>162</v>
@@ -3711,7 +3732,7 @@
     </row>
     <row r="4" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>181</v>
@@ -3741,19 +3762,19 @@
         <v>128</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>128</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N4" s="11" t="s">
         <v>128</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>83</v>
@@ -3775,10 +3796,10 @@
         <v>32913662</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X4" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y4" s="17" t="s">
         <v>2</v>
@@ -4075,7 +4096,7 @@
         <v>27.9</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W6" s="17" t="s">
         <v>110</v>
@@ -4295,7 +4316,7 @@
         <v>27.9</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W7" s="17" t="s">
         <v>109</v>
@@ -4452,7 +4473,7 @@
     </row>
     <row r="8" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>181</v>
@@ -4464,7 +4485,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>182</v>
@@ -4482,13 +4503,13 @@
         <v>128</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>128</v>
       </c>
       <c r="M8" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>21</v>
@@ -4513,13 +4534,13 @@
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="X8" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y8" s="17" t="s">
         <v>2</v>
@@ -4700,13 +4721,13 @@
         <v>128</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>128</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>21</v>
@@ -4731,7 +4752,7 @@
       </c>
       <c r="U9" s="6"/>
       <c r="V9" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W9" s="17" t="s">
         <v>9</v>
@@ -4949,7 +4970,7 @@
       </c>
       <c r="U10" s="6"/>
       <c r="V10" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W10" s="17" t="s">
         <v>10</v>
@@ -5106,7 +5127,7 @@
     </row>
     <row r="11" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>181</v>
@@ -5136,13 +5157,13 @@
         <v>128</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>128</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>21</v>
@@ -5167,13 +5188,13 @@
       </c>
       <c r="U11" s="6"/>
       <c r="V11" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W11" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="X11" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y11" s="17" t="s">
         <v>2</v>
@@ -5385,7 +5406,7 @@
       </c>
       <c r="U12" s="6"/>
       <c r="V12" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W12" s="17" t="s">
         <v>38</v>
@@ -5572,13 +5593,13 @@
         <v>128</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>128</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>21</v>
@@ -5603,7 +5624,7 @@
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W13" s="17" t="s">
         <v>11</v>
@@ -5821,7 +5842,7 @@
       </c>
       <c r="U14" s="6"/>
       <c r="V14" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W14" s="17" t="s">
         <v>64</v>
@@ -6041,7 +6062,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W15" s="17" t="s">
         <v>8</v>
@@ -6261,7 +6282,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="V16" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W16" s="17" t="s">
         <v>26</v>
@@ -6481,7 +6502,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W17" s="17" t="s">
         <v>79</v>
@@ -6699,7 +6720,7 @@
       </c>
       <c r="U18" s="7"/>
       <c r="V18" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W18" s="17" t="s">
         <v>74</v>
@@ -6917,7 +6938,7 @@
       </c>
       <c r="U19" s="7"/>
       <c r="V19" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W19" s="17" t="s">
         <v>125</v>
@@ -7137,7 +7158,7 @@
         <v>62</v>
       </c>
       <c r="V20" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W20" s="17" t="s">
         <v>80</v>
@@ -7294,7 +7315,7 @@
     </row>
     <row r="21" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>181</v>
@@ -7360,10 +7381,10 @@
         <v>26037535</v>
       </c>
       <c r="W21" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X21" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y21" s="17" t="s">
         <v>2</v>
@@ -7514,7 +7535,7 @@
     </row>
     <row r="22" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>181</v>
@@ -7526,7 +7547,7 @@
         <v>152</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>183</v>
@@ -7580,10 +7601,10 @@
         <v>15085543</v>
       </c>
       <c r="W22" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="X22" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Y22" s="17" t="s">
         <v>2</v>
@@ -7795,7 +7816,7 @@
       </c>
       <c r="U23" s="7"/>
       <c r="V23" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W23" s="17" t="s">
         <v>63</v>
@@ -8003,17 +8024,17 @@
         <v>116</v>
       </c>
       <c r="R24" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="S24" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="S24" s="8" t="s">
-        <v>215</v>
       </c>
       <c r="T24" s="7" t="s">
         <v>42</v>
       </c>
       <c r="U24" s="7"/>
       <c r="V24" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W24" s="17" t="s">
         <v>77</v>
@@ -8170,7 +8191,7 @@
     </row>
     <row r="25" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B25" s="22" t="s">
         <v>181</v>
@@ -8231,13 +8252,13 @@
       </c>
       <c r="U25" s="7"/>
       <c r="V25" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W25" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X25" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y25" s="17" t="s">
         <v>2</v>
@@ -8388,7 +8409,7 @@
     </row>
     <row r="26" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B26" s="22" t="s">
         <v>181</v>
@@ -8439,23 +8460,23 @@
         <v>116</v>
       </c>
       <c r="R26" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="S26" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="S26" s="8" t="s">
-        <v>217</v>
       </c>
       <c r="T26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="U26" s="7"/>
       <c r="V26" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W26" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X26" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y26" s="17" t="s">
         <v>2</v>
@@ -8657,11 +8678,11 @@
         <v>116</v>
       </c>
       <c r="R27" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="S27" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="S27" s="8" t="s">
-        <v>227</v>
-      </c>
       <c r="T27" s="7" t="s">
         <v>42</v>
       </c>
@@ -8669,7 +8690,7 @@
         <v>42</v>
       </c>
       <c r="V27" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W27" s="17" t="s">
         <v>119</v>
@@ -8887,7 +8908,7 @@
       </c>
       <c r="U28" s="6"/>
       <c r="V28" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W28" s="17" t="s">
         <v>123</v>
@@ -9105,7 +9126,7 @@
       </c>
       <c r="U29" s="7"/>
       <c r="V29" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W29" s="17" t="s">
         <v>122</v>
@@ -9325,7 +9346,7 @@
         <v>34</v>
       </c>
       <c r="V30" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W30" s="17" t="s">
         <v>24</v>
@@ -9482,7 +9503,7 @@
     </row>
     <row r="31" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>83</v>
@@ -9543,13 +9564,13 @@
       </c>
       <c r="U31" s="7"/>
       <c r="V31" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W31" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X31" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y31" s="17" t="s">
         <v>2</v>
@@ -9700,7 +9721,7 @@
     </row>
     <row r="32" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>181</v>
@@ -9761,13 +9782,13 @@
       </c>
       <c r="U32" s="7"/>
       <c r="V32" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W32" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X32" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y32" s="17" t="s">
         <v>2</v>
@@ -9918,7 +9939,7 @@
     </row>
     <row r="33" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B33" s="22" t="s">
         <v>181</v>
@@ -9930,7 +9951,7 @@
         <v>14</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F33" s="19" t="s">
         <v>182</v>
@@ -9969,11 +9990,11 @@
         <v>116</v>
       </c>
       <c r="R33" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="S33" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="S33" s="8" t="s">
-        <v>238</v>
-      </c>
       <c r="T33" s="7" t="s">
         <v>42</v>
       </c>
@@ -9981,13 +10002,13 @@
         <v>42</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W33" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X33" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y33" s="17" t="s">
         <v>2</v>
@@ -10138,7 +10159,7 @@
     </row>
     <row r="34" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B34" s="22" t="s">
         <v>181</v>
@@ -10199,13 +10220,13 @@
       </c>
       <c r="U34" s="7"/>
       <c r="V34" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W34" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X34" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y34" s="17" t="s">
         <v>2</v>
@@ -10356,7 +10377,7 @@
     </row>
     <row r="35" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B35" s="22" t="s">
         <v>181</v>
@@ -10368,7 +10389,7 @@
         <v>14</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F35" s="19" t="s">
         <v>116</v>
@@ -10417,13 +10438,13 @@
       </c>
       <c r="U35" s="7"/>
       <c r="V35" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W35" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="X35" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Y35" s="17" t="s">
         <v>2</v>
@@ -10574,7 +10595,7 @@
     </row>
     <row r="36" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B36" s="22" t="s">
         <v>181</v>
@@ -10625,23 +10646,23 @@
         <v>116</v>
       </c>
       <c r="R36" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S36" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T36" s="7" t="s">
         <v>42</v>
       </c>
       <c r="U36" s="7"/>
       <c r="V36" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W36" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X36" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y36" s="17" t="s">
         <v>2</v>
@@ -10853,7 +10874,7 @@
       </c>
       <c r="U37" s="7"/>
       <c r="V37" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W37" s="17" t="s">
         <v>127</v>
@@ -11010,7 +11031,7 @@
     </row>
     <row r="38" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B38" s="22" t="s">
         <v>181</v>
@@ -11040,18 +11061,20 @@
         <v>128</v>
       </c>
       <c r="K38" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L38" s="11" t="s">
         <v>128</v>
       </c>
       <c r="M38" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N38" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O38" s="12"/>
+      <c r="O38" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="P38" s="2" t="s">
         <v>83</v>
       </c>
@@ -11069,13 +11092,13 @@
       </c>
       <c r="U38" s="7"/>
       <c r="V38" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W38" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="X38" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y38" s="17" t="s">
         <v>2</v>
@@ -11226,7 +11249,7 @@
     </row>
     <row r="39" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B39" s="22" t="s">
         <v>181</v>
@@ -11287,13 +11310,13 @@
       </c>
       <c r="U39" s="7"/>
       <c r="V39" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W39" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X39" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Y39" s="17" t="s">
         <v>2</v>
@@ -11444,7 +11467,7 @@
     </row>
     <row r="40" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B40" s="22" t="s">
         <v>181</v>
@@ -11505,13 +11528,13 @@
       </c>
       <c r="U40" s="7"/>
       <c r="V40" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W40" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X40" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y40" s="17" t="s">
         <v>2</v>
@@ -11662,7 +11685,7 @@
     </row>
     <row r="41" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B41" s="22" t="s">
         <v>181</v>
@@ -11722,13 +11745,13 @@
         <v>42</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W41" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X41" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y41" s="17" t="s">
         <v>2</v>
@@ -11879,7 +11902,7 @@
     </row>
     <row r="42" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B42" s="22" t="s">
         <v>181</v>
@@ -11891,7 +11914,7 @@
         <v>14</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F42" s="19" t="s">
         <v>116</v>
@@ -11940,13 +11963,13 @@
       </c>
       <c r="U42" s="7"/>
       <c r="V42" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W42" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="X42" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Y42" s="17" t="s">
         <v>2</v>
@@ -12097,7 +12120,7 @@
     </row>
     <row r="43" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B43" s="22" t="s">
         <v>181</v>
@@ -12109,7 +12132,7 @@
         <v>82</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F43" s="19" t="s">
         <v>116</v>
@@ -12148,22 +12171,22 @@
         <v>116</v>
       </c>
       <c r="R43" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S43" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T43" s="7" t="s">
         <v>42</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W43" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X43" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Y43" s="17" t="s">
         <v>2</v>
@@ -12314,7 +12337,7 @@
     </row>
     <row r="44" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B44" s="22" t="s">
         <v>181</v>
@@ -12326,7 +12349,7 @@
         <v>14</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F44" s="20" t="s">
         <v>162</v>
@@ -12377,13 +12400,13 @@
         <v>42</v>
       </c>
       <c r="V44" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W44" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="X44" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Y44" s="17" t="s">
         <v>2</v>
@@ -12534,7 +12557,7 @@
     </row>
     <row r="45" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B45" s="22" t="s">
         <v>181</v>
@@ -12546,7 +12569,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F45" s="20" t="s">
         <v>162</v>
@@ -12597,13 +12620,13 @@
         <v>42</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W45" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X45" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Y45" s="17" t="s">
         <v>2</v>
@@ -12754,7 +12777,7 @@
     </row>
     <row r="46" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B46" s="22" t="s">
         <v>181</v>
@@ -12766,7 +12789,7 @@
         <v>14</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F46" s="20" t="s">
         <v>162</v>
@@ -12817,13 +12840,13 @@
         <v>42</v>
       </c>
       <c r="V46" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W46" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="X46" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Y46" s="17" t="s">
         <v>2</v>
@@ -12974,7 +12997,7 @@
     </row>
     <row r="47" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B47" s="22" t="s">
         <v>181</v>
@@ -13037,13 +13060,13 @@
         <v>42</v>
       </c>
       <c r="V47" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W47" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X47" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y47" s="17" t="s">
         <v>2</v>
@@ -13194,7 +13217,7 @@
     </row>
     <row r="48" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B48" s="22" t="s">
         <v>181</v>
@@ -13244,24 +13267,24 @@
       <c r="Q48" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="R48" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="S48" s="9" t="s">
-        <v>42</v>
+      <c r="R48" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="S48" s="8" t="s">
+        <v>297</v>
       </c>
       <c r="T48" s="7" t="s">
         <v>42</v>
       </c>
       <c r="U48" s="7"/>
       <c r="V48" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W48" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X48" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Y48" s="17" t="s">
         <v>2</v>
@@ -13412,7 +13435,7 @@
     </row>
     <row r="49" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B49" s="22" t="s">
         <v>181</v>
@@ -13424,7 +13447,7 @@
         <v>14</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F49" s="19" t="s">
         <v>116</v>
@@ -13473,13 +13496,13 @@
       </c>
       <c r="U49" s="7"/>
       <c r="V49" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W49" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="X49" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Y49" s="17" t="s">
         <v>2</v>
@@ -13630,7 +13653,7 @@
     </row>
     <row r="50" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B50" s="22" t="s">
         <v>181</v>
@@ -13680,24 +13703,24 @@
       <c r="Q50" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="R50" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="S50" s="9" t="s">
-        <v>42</v>
+      <c r="R50" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="S50" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="T50" s="7" t="s">
         <v>42</v>
       </c>
       <c r="U50" s="7"/>
       <c r="V50" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W50" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X50" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y50" s="17" t="s">
         <v>2</v>
@@ -13848,7 +13871,7 @@
     </row>
     <row r="51" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B51" s="22" t="s">
         <v>181</v>
@@ -13911,7 +13934,7 @@
         <v>42</v>
       </c>
       <c r="V51" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W51" s="17" t="s">
         <v>165</v>
@@ -14068,7 +14091,7 @@
     </row>
     <row r="52" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B52" s="22" t="s">
         <v>181</v>
@@ -14080,7 +14103,7 @@
         <v>14</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F52" s="19" t="s">
         <v>116</v>
@@ -14098,19 +14121,19 @@
         <v>128</v>
       </c>
       <c r="K52" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L52" s="11" t="s">
         <v>128</v>
       </c>
       <c r="M52" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N52" s="11" t="s">
         <v>128</v>
       </c>
       <c r="O52" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>83</v>
@@ -14119,11 +14142,11 @@
         <v>116</v>
       </c>
       <c r="R52" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="S52" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="S52" s="8" t="s">
-        <v>231</v>
-      </c>
       <c r="T52" s="7" t="s">
         <v>42</v>
       </c>
@@ -14131,13 +14154,13 @@
         <v>42</v>
       </c>
       <c r="V52" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W52" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="X52" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y52" s="17" t="s">
         <v>2</v>
@@ -14288,7 +14311,7 @@
     </row>
     <row r="53" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B53" s="22" t="s">
         <v>181</v>
@@ -14300,7 +14323,7 @@
         <v>14</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F53" s="19" t="s">
         <v>116</v>
@@ -14318,7 +14341,7 @@
         <v>128</v>
       </c>
       <c r="K53" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L53" s="12" t="s">
         <v>21</v>
@@ -14330,7 +14353,7 @@
         <v>128</v>
       </c>
       <c r="O53" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>83</v>
@@ -14339,25 +14362,25 @@
         <v>116</v>
       </c>
       <c r="R53" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="S53" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="T53" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="U53" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V53" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="W53" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="S53" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="T53" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="U53" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="V53" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="W53" s="17" t="s">
-        <v>265</v>
-      </c>
       <c r="X53" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Y53" s="17" t="s">
         <v>2</v>
@@ -14508,7 +14531,7 @@
     </row>
     <row r="54" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B54" s="22" t="s">
         <v>181</v>
@@ -14538,7 +14561,7 @@
         <v>128</v>
       </c>
       <c r="K54" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L54" s="12" t="s">
         <v>21</v>
@@ -14550,7 +14573,7 @@
         <v>128</v>
       </c>
       <c r="O54" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>83</v>
@@ -14559,10 +14582,10 @@
         <v>181</v>
       </c>
       <c r="R54" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S54" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="T54" s="7" t="s">
         <v>42</v>
@@ -14571,13 +14594,13 @@
         <v>42</v>
       </c>
       <c r="V54" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W54" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X54" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y54" s="17" t="s">
         <v>2</v>
@@ -14728,7 +14751,7 @@
     </row>
     <row r="55" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B55" s="22" t="s">
         <v>181</v>
@@ -14740,7 +14763,7 @@
         <v>14</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F55" s="19" t="s">
         <v>116</v>
@@ -14758,7 +14781,7 @@
         <v>128</v>
       </c>
       <c r="K55" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L55" s="12" t="s">
         <v>21</v>
@@ -14770,7 +14793,7 @@
         <v>128</v>
       </c>
       <c r="O55" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>83</v>
@@ -14779,23 +14802,23 @@
         <v>181</v>
       </c>
       <c r="R55" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S55" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T55" s="7" t="s">
         <v>42</v>
       </c>
       <c r="U55" s="7"/>
       <c r="V55" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W55" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X55" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Y55" s="17" t="s">
         <v>2</v>
@@ -14946,7 +14969,7 @@
     </row>
     <row r="56" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B56" s="22" t="s">
         <v>181</v>
@@ -15006,13 +15029,13 @@
         <v>42</v>
       </c>
       <c r="V56" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="W56" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="W56" s="17" t="s">
-        <v>206</v>
-      </c>
       <c r="X56" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Y56" s="17" t="s">
         <v>2</v>
@@ -15163,7 +15186,7 @@
     </row>
     <row r="57" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A57" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B57" s="22" t="s">
         <v>181</v>
@@ -15175,7 +15198,7 @@
         <v>14</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F57" s="20" t="s">
         <v>162</v>
@@ -15227,10 +15250,10 @@
         <v>27377618</v>
       </c>
       <c r="W57" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="X57" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y57" s="17" t="s">
         <v>2</v>
@@ -15381,7 +15404,7 @@
     </row>
     <row r="58" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B58" s="22" t="s">
         <v>181</v>
@@ -15393,7 +15416,7 @@
         <v>14</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F58" s="20" t="s">
         <v>162</v>
@@ -15445,10 +15468,10 @@
         <v>27377618</v>
       </c>
       <c r="W58" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="X58" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Y58" s="17" t="s">
         <v>2</v>
@@ -15599,7 +15622,7 @@
     </row>
     <row r="59" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A59" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B59" s="22" t="s">
         <v>181</v>
@@ -15611,7 +15634,7 @@
         <v>14</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F59" s="20" t="s">
         <v>162</v>
@@ -15663,10 +15686,10 @@
         <v>27377618</v>
       </c>
       <c r="W59" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="X59" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y59" s="17" t="s">
         <v>2</v>
@@ -15817,7 +15840,7 @@
     </row>
     <row r="60" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A60" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B60" s="22" t="s">
         <v>181</v>
@@ -15847,19 +15870,19 @@
         <v>128</v>
       </c>
       <c r="K60" s="32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L60" s="11" t="s">
         <v>128</v>
       </c>
       <c r="M60" s="32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N60" s="11" t="s">
         <v>128</v>
       </c>
       <c r="O60" s="32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>83</v>
@@ -15880,7 +15903,7 @@
         <v>42</v>
       </c>
       <c r="V60" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W60" s="17" t="s">
         <v>156</v>
@@ -16037,7 +16060,7 @@
     </row>
     <row r="61" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A61" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B61" s="22" t="s">
         <v>181</v>
@@ -16049,7 +16072,7 @@
         <v>14</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F61" s="19" t="s">
         <v>116</v>
@@ -16098,13 +16121,13 @@
       </c>
       <c r="U61" s="7"/>
       <c r="V61" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W61" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="X61" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y61" s="17" t="s">
         <v>2</v>
@@ -16255,7 +16278,7 @@
     </row>
     <row r="62" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A62" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B62" s="22" t="s">
         <v>181</v>
@@ -16267,7 +16290,7 @@
         <v>14</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F62" s="19" t="s">
         <v>116</v>
@@ -16316,13 +16339,13 @@
       </c>
       <c r="U62" s="7"/>
       <c r="V62" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W62" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X62" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y62" s="17" t="s">
         <v>2</v>
@@ -16473,7 +16496,7 @@
     </row>
     <row r="63" spans="1:164" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B63" s="22" t="s">
         <v>181</v>
@@ -16536,7 +16559,7 @@
         <v>42</v>
       </c>
       <c r="V63" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W63" s="17" t="s">
         <v>158</v>
@@ -16693,7 +16716,7 @@
     </row>
     <row r="64" spans="1:164" s="23" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B64" s="22" t="s">
         <v>181</v>
@@ -16705,7 +16728,7 @@
         <v>14</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F64" s="17" t="s">
         <v>182</v>
@@ -16744,11 +16767,11 @@
         <v>116</v>
       </c>
       <c r="R64" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="S64" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="S64" s="8" t="s">
-        <v>224</v>
-      </c>
       <c r="T64" s="7" t="s">
         <v>42</v>
       </c>
@@ -16756,13 +16779,13 @@
         <v>42</v>
       </c>
       <c r="V64" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W64" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X64" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Y64" s="17" t="s">
         <v>2</v>
@@ -16913,7 +16936,7 @@
     </row>
     <row r="65" spans="1:164" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B65" s="22" t="s">
         <v>181</v>
@@ -16964,23 +16987,23 @@
         <v>116</v>
       </c>
       <c r="R65" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="S65" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="S65" s="8" t="s">
-        <v>234</v>
       </c>
       <c r="T65" s="7" t="s">
         <v>42</v>
       </c>
       <c r="U65" s="6"/>
       <c r="V65" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W65" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X65" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Y65" s="17" t="s">
         <v>2</v>
@@ -17131,7 +17154,7 @@
     </row>
     <row r="66" spans="1:164" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B66" s="22" t="s">
         <v>181</v>
@@ -17192,13 +17215,13 @@
       </c>
       <c r="U66" s="6"/>
       <c r="V66" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W66" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X66" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Y66" s="17" t="s">
         <v>2</v>
@@ -17349,7 +17372,7 @@
     </row>
     <row r="67" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B67" s="22" t="s">
         <v>181</v>
@@ -17409,13 +17432,13 @@
         <v>42</v>
       </c>
       <c r="V67" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W67" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="X67" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Y67" s="17" t="s">
         <v>2</v>
@@ -17616,18 +17639,18 @@
       <c r="Q68" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="R68" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="S68" s="9" t="s">
-        <v>42</v>
+      <c r="R68" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="S68" s="8" t="s">
+        <v>300</v>
       </c>
       <c r="T68" s="7" t="s">
         <v>42</v>
       </c>
       <c r="U68" s="6"/>
       <c r="V68" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W68" s="17" t="s">
         <v>189</v>
@@ -17790,7 +17813,7 @@
         <v>83</v>
       </c>
       <c r="C69" s="22">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="22" t="s">
         <v>14</v>
@@ -17810,17 +17833,17 @@
       <c r="I69" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="J69" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M69" s="3" t="s">
-        <v>42</v>
+      <c r="J69" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="K69" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="L69" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="M69" s="36" t="s">
+        <v>84</v>
       </c>
       <c r="N69" s="12" t="s">
         <v>21</v>
@@ -17834,17 +17857,18 @@
       <c r="Q69" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="R69" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="S69" s="9" t="s">
-        <v>42</v>
+      <c r="R69" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="S69" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="T69" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="U69" s="6"/>
       <c r="V69" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W69" s="17" t="s">
         <v>190</v>
@@ -18001,49 +18025,49 @@
     </row>
     <row r="70" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="C70" s="22">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D70" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F70" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="G70" s="26">
+      <c r="E70" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G70" s="24">
         <v>1</v>
       </c>
-      <c r="H70" s="26">
+      <c r="H70" s="24">
         <v>1</v>
       </c>
-      <c r="I70" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="J70" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="K70" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="L70" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="M70" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="N70" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="O70" s="12" t="s">
-        <v>21</v>
+      <c r="I70" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="P70" s="2" t="s">
         <v>83</v>
@@ -18052,23 +18076,25 @@
         <v>116</v>
       </c>
       <c r="R70" s="8" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="S70" s="8" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="T70" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="U70" s="6"/>
+      <c r="U70" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="V70" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W70" s="17" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="X70" s="17" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="Y70" s="17" t="s">
         <v>2</v>
@@ -18219,13 +18245,13 @@
     </row>
     <row r="71" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
-        <v>172</v>
+        <v>273</v>
       </c>
       <c r="B71" s="22" t="s">
         <v>181</v>
       </c>
       <c r="C71" s="22">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="22" t="s">
         <v>14</v>
@@ -18282,13 +18308,13 @@
         <v>42</v>
       </c>
       <c r="V71" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W71" s="17" t="s">
-        <v>172</v>
+        <v>273</v>
       </c>
       <c r="X71" s="17" t="s">
-        <v>172</v>
+        <v>273</v>
       </c>
       <c r="Y71" s="17" t="s">
         <v>2</v>
@@ -18439,22 +18465,22 @@
     </row>
     <row r="72" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c r="B72" s="22" t="s">
         <v>181</v>
       </c>
       <c r="C72" s="22">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D72" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>183</v>
+        <v>139</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="G72" s="24">
         <v>1</v>
@@ -18462,8 +18488,8 @@
       <c r="H72" s="24">
         <v>1</v>
       </c>
-      <c r="I72" s="22" t="s">
-        <v>181</v>
+      <c r="I72" s="26" t="s">
+        <v>83</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>42</v>
@@ -18477,11 +18503,11 @@
       <c r="M72" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>42</v>
+      <c r="N72" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O72" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>83</v>
@@ -18489,11 +18515,11 @@
       <c r="Q72" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="R72" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="S72" s="8" t="s">
-        <v>171</v>
+      <c r="R72" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S72" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="T72" s="7" t="s">
         <v>42</v>
@@ -18502,13 +18528,13 @@
         <v>42</v>
       </c>
       <c r="V72" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W72" s="17" t="s">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c r="X72" s="17" t="s">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c r="Y72" s="17" t="s">
         <v>2</v>
@@ -18659,19 +18685,19 @@
     </row>
     <row r="73" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A73" s="17" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="C73" s="22">
-        <v>203</v>
-      </c>
-      <c r="D73" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D73" s="24" t="s">
         <v>14</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F73" s="19" t="s">
         <v>182</v>
@@ -18682,8 +18708,8 @@
       <c r="H73" s="24">
         <v>1</v>
       </c>
-      <c r="I73" s="26" t="s">
-        <v>83</v>
+      <c r="I73" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>42</v>
@@ -18692,10 +18718,10 @@
         <v>42</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M73" s="3" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="M73" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="N73" s="12" t="s">
         <v>21</v>
@@ -18709,11 +18735,11 @@
       <c r="Q73" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="R73" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="S73" s="9" t="s">
-        <v>42</v>
+      <c r="R73" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="S73" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="T73" s="7" t="s">
         <v>42</v>
@@ -18722,13 +18748,13 @@
         <v>42</v>
       </c>
       <c r="V73" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W73" s="17" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="X73" s="17" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="Y73" s="17" t="s">
         <v>2</v>
@@ -18879,28 +18905,28 @@
     </row>
     <row r="74" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="C74" s="22">
-        <v>221</v>
-      </c>
-      <c r="D74" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="20" t="s">
-        <v>145</v>
+        <v>365</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="F74" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="G74" s="24">
-        <v>1</v>
-      </c>
-      <c r="H74" s="24">
-        <v>1</v>
+      <c r="G74" s="22">
+        <v>7</v>
+      </c>
+      <c r="H74" s="22">
+        <v>7</v>
       </c>
       <c r="I74" s="22" t="s">
         <v>181</v>
@@ -18912,10 +18938,10 @@
         <v>42</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M74" s="16" t="s">
-        <v>131</v>
+        <v>42</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="N74" s="12" t="s">
         <v>21</v>
@@ -18930,10 +18956,10 @@
         <v>116</v>
       </c>
       <c r="R74" s="8" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="S74" s="8" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="T74" s="7" t="s">
         <v>42</v>
@@ -18942,13 +18968,13 @@
         <v>42</v>
       </c>
       <c r="V74" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W74" s="17" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="X74" s="17" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="Y74" s="17" t="s">
         <v>2</v>
@@ -18959,153 +18985,16 @@
       <c r="AA74" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AB74" s="21"/>
-      <c r="AC74" s="21"/>
-      <c r="AD74" s="21"/>
-      <c r="AE74" s="21"/>
-      <c r="AF74" s="21"/>
-      <c r="AG74" s="21"/>
-      <c r="AH74" s="21"/>
-      <c r="AI74" s="21"/>
-      <c r="AJ74" s="21"/>
-      <c r="AK74" s="21"/>
-      <c r="AL74" s="21"/>
-      <c r="AM74" s="21"/>
-      <c r="AN74" s="21"/>
-      <c r="AO74" s="21"/>
-      <c r="AP74" s="21"/>
-      <c r="AQ74" s="21"/>
-      <c r="AR74" s="21"/>
-      <c r="AS74" s="21"/>
-      <c r="AT74" s="21"/>
-      <c r="AU74" s="21"/>
-      <c r="AV74" s="21"/>
-      <c r="AW74" s="21"/>
-      <c r="AX74" s="21"/>
-      <c r="AY74" s="21"/>
-      <c r="AZ74" s="21"/>
-      <c r="BA74" s="21"/>
-      <c r="BB74" s="21"/>
-      <c r="BC74" s="21"/>
-      <c r="BD74" s="21"/>
-      <c r="BE74" s="21"/>
-      <c r="BF74" s="21"/>
-      <c r="BG74" s="21"/>
-      <c r="BH74" s="21"/>
-      <c r="BI74" s="21"/>
-      <c r="BJ74" s="21"/>
-      <c r="BK74" s="21"/>
-      <c r="BL74" s="21"/>
-      <c r="BM74" s="21"/>
-      <c r="BN74" s="21"/>
-      <c r="BO74" s="21"/>
-      <c r="BP74" s="21"/>
-      <c r="BQ74" s="21"/>
-      <c r="BR74" s="21"/>
-      <c r="BS74" s="21"/>
-      <c r="BT74" s="21"/>
-      <c r="BU74" s="21"/>
-      <c r="BV74" s="21"/>
-      <c r="BW74" s="21"/>
-      <c r="BX74" s="21"/>
-      <c r="BY74" s="21"/>
-      <c r="BZ74" s="21"/>
-      <c r="CA74" s="21"/>
-      <c r="CB74" s="21"/>
-      <c r="CC74" s="21"/>
-      <c r="CD74" s="21"/>
-      <c r="CE74" s="21"/>
-      <c r="CF74" s="21"/>
-      <c r="CG74" s="21"/>
-      <c r="CH74" s="21"/>
-      <c r="CI74" s="21"/>
-      <c r="CJ74" s="21"/>
-      <c r="CK74" s="21"/>
-      <c r="CL74" s="21"/>
-      <c r="CM74" s="21"/>
-      <c r="CN74" s="21"/>
-      <c r="CO74" s="21"/>
-      <c r="CP74" s="21"/>
-      <c r="CQ74" s="21"/>
-      <c r="CR74" s="21"/>
-      <c r="CS74" s="21"/>
-      <c r="CT74" s="21"/>
-      <c r="CU74" s="21"/>
-      <c r="CV74" s="21"/>
-      <c r="CW74" s="21"/>
-      <c r="CX74" s="21"/>
-      <c r="CY74" s="21"/>
-      <c r="CZ74" s="21"/>
-      <c r="DA74" s="21"/>
-      <c r="DB74" s="21"/>
-      <c r="DC74" s="21"/>
-      <c r="DD74" s="21"/>
-      <c r="DE74" s="21"/>
-      <c r="DF74" s="21"/>
-      <c r="DG74" s="21"/>
-      <c r="DH74" s="21"/>
-      <c r="DI74" s="21"/>
-      <c r="DJ74" s="21"/>
-      <c r="DK74" s="21"/>
-      <c r="DL74" s="21"/>
-      <c r="DM74" s="21"/>
-      <c r="DN74" s="21"/>
-      <c r="DO74" s="21"/>
-      <c r="DP74" s="21"/>
-      <c r="DQ74" s="21"/>
-      <c r="DR74" s="21"/>
-      <c r="DS74" s="21"/>
-      <c r="DT74" s="21"/>
-      <c r="DU74" s="21"/>
-      <c r="DV74" s="21"/>
-      <c r="DW74" s="21"/>
-      <c r="DX74" s="21"/>
-      <c r="DY74" s="21"/>
-      <c r="DZ74" s="21"/>
-      <c r="EA74" s="21"/>
-      <c r="EB74" s="21"/>
-      <c r="EC74" s="21"/>
-      <c r="ED74" s="21"/>
-      <c r="EE74" s="21"/>
-      <c r="EF74" s="21"/>
-      <c r="EG74" s="21"/>
-      <c r="EH74" s="21"/>
-      <c r="EI74" s="21"/>
-      <c r="EJ74" s="21"/>
-      <c r="EK74" s="21"/>
-      <c r="EL74" s="21"/>
-      <c r="EM74" s="21"/>
-      <c r="EN74" s="21"/>
-      <c r="EO74" s="21"/>
-      <c r="EP74" s="21"/>
-      <c r="EQ74" s="21"/>
-      <c r="ER74" s="21"/>
-      <c r="ES74" s="21"/>
-      <c r="ET74" s="21"/>
-      <c r="EU74" s="21"/>
-      <c r="EV74" s="21"/>
-      <c r="EW74" s="21"/>
-      <c r="EX74" s="21"/>
-      <c r="EY74" s="21"/>
-      <c r="EZ74" s="21"/>
-      <c r="FA74" s="21"/>
-      <c r="FB74" s="21"/>
-      <c r="FC74" s="21"/>
-      <c r="FD74" s="21"/>
-      <c r="FE74" s="21"/>
-      <c r="FF74" s="21"/>
-      <c r="FG74" s="21"/>
-      <c r="FH74" s="21"/>
     </row>
     <row r="75" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A75" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B75" s="22" t="s">
         <v>181</v>
       </c>
       <c r="C75" s="22">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D75" s="22" t="s">
         <v>13</v>
@@ -19117,10 +19006,10 @@
         <v>182</v>
       </c>
       <c r="G75" s="22">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H75" s="22">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I75" s="22" t="s">
         <v>181</v>
@@ -19150,10 +19039,10 @@
         <v>116</v>
       </c>
       <c r="R75" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="S75" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="T75" s="7" t="s">
         <v>42</v>
@@ -19162,13 +19051,13 @@
         <v>42</v>
       </c>
       <c r="V75" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W75" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X75" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y75" s="17" t="s">
         <v>2</v>
@@ -19179,35 +19068,170 @@
       <c r="AA75" s="17" t="s">
         <v>3</v>
       </c>
+      <c r="AB75" s="21"/>
+      <c r="AC75" s="21"/>
+      <c r="AD75" s="21"/>
+      <c r="AE75" s="21"/>
+      <c r="AF75" s="21"/>
+      <c r="AG75" s="21"/>
+      <c r="AH75" s="21"/>
+      <c r="AI75" s="21"/>
+      <c r="AJ75" s="21"/>
+      <c r="AK75" s="21"/>
+      <c r="AL75" s="21"/>
+      <c r="AM75" s="21"/>
+      <c r="AN75" s="21"/>
+      <c r="AO75" s="21"/>
+      <c r="AP75" s="21"/>
+      <c r="AQ75" s="21"/>
+      <c r="AR75" s="21"/>
+      <c r="AS75" s="21"/>
+      <c r="AT75" s="21"/>
+      <c r="AU75" s="21"/>
+      <c r="AV75" s="21"/>
+      <c r="AW75" s="21"/>
+      <c r="AX75" s="21"/>
+      <c r="AY75" s="21"/>
+      <c r="AZ75" s="21"/>
+      <c r="BA75" s="21"/>
+      <c r="BB75" s="21"/>
+      <c r="BC75" s="21"/>
+      <c r="BD75" s="21"/>
+      <c r="BE75" s="21"/>
+      <c r="BF75" s="21"/>
+      <c r="BG75" s="21"/>
+      <c r="BH75" s="21"/>
+      <c r="BI75" s="21"/>
+      <c r="BJ75" s="21"/>
+      <c r="BK75" s="21"/>
+      <c r="BL75" s="21"/>
+      <c r="BM75" s="21"/>
+      <c r="BN75" s="21"/>
+      <c r="BO75" s="21"/>
+      <c r="BP75" s="21"/>
+      <c r="BQ75" s="21"/>
+      <c r="BR75" s="21"/>
+      <c r="BS75" s="21"/>
+      <c r="BT75" s="21"/>
+      <c r="BU75" s="21"/>
+      <c r="BV75" s="21"/>
+      <c r="BW75" s="21"/>
+      <c r="BX75" s="21"/>
+      <c r="BY75" s="21"/>
+      <c r="BZ75" s="21"/>
+      <c r="CA75" s="21"/>
+      <c r="CB75" s="21"/>
+      <c r="CC75" s="21"/>
+      <c r="CD75" s="21"/>
+      <c r="CE75" s="21"/>
+      <c r="CF75" s="21"/>
+      <c r="CG75" s="21"/>
+      <c r="CH75" s="21"/>
+      <c r="CI75" s="21"/>
+      <c r="CJ75" s="21"/>
+      <c r="CK75" s="21"/>
+      <c r="CL75" s="21"/>
+      <c r="CM75" s="21"/>
+      <c r="CN75" s="21"/>
+      <c r="CO75" s="21"/>
+      <c r="CP75" s="21"/>
+      <c r="CQ75" s="21"/>
+      <c r="CR75" s="21"/>
+      <c r="CS75" s="21"/>
+      <c r="CT75" s="21"/>
+      <c r="CU75" s="21"/>
+      <c r="CV75" s="21"/>
+      <c r="CW75" s="21"/>
+      <c r="CX75" s="21"/>
+      <c r="CY75" s="21"/>
+      <c r="CZ75" s="21"/>
+      <c r="DA75" s="21"/>
+      <c r="DB75" s="21"/>
+      <c r="DC75" s="21"/>
+      <c r="DD75" s="21"/>
+      <c r="DE75" s="21"/>
+      <c r="DF75" s="21"/>
+      <c r="DG75" s="21"/>
+      <c r="DH75" s="21"/>
+      <c r="DI75" s="21"/>
+      <c r="DJ75" s="21"/>
+      <c r="DK75" s="21"/>
+      <c r="DL75" s="21"/>
+      <c r="DM75" s="21"/>
+      <c r="DN75" s="21"/>
+      <c r="DO75" s="21"/>
+      <c r="DP75" s="21"/>
+      <c r="DQ75" s="21"/>
+      <c r="DR75" s="21"/>
+      <c r="DS75" s="21"/>
+      <c r="DT75" s="21"/>
+      <c r="DU75" s="21"/>
+      <c r="DV75" s="21"/>
+      <c r="DW75" s="21"/>
+      <c r="DX75" s="21"/>
+      <c r="DY75" s="21"/>
+      <c r="DZ75" s="21"/>
+      <c r="EA75" s="21"/>
+      <c r="EB75" s="21"/>
+      <c r="EC75" s="21"/>
+      <c r="ED75" s="21"/>
+      <c r="EE75" s="21"/>
+      <c r="EF75" s="21"/>
+      <c r="EG75" s="21"/>
+      <c r="EH75" s="21"/>
+      <c r="EI75" s="21"/>
+      <c r="EJ75" s="21"/>
+      <c r="EK75" s="21"/>
+      <c r="EL75" s="21"/>
+      <c r="EM75" s="21"/>
+      <c r="EN75" s="21"/>
+      <c r="EO75" s="21"/>
+      <c r="EP75" s="21"/>
+      <c r="EQ75" s="21"/>
+      <c r="ER75" s="21"/>
+      <c r="ES75" s="21"/>
+      <c r="ET75" s="21"/>
+      <c r="EU75" s="21"/>
+      <c r="EV75" s="21"/>
+      <c r="EW75" s="21"/>
+      <c r="EX75" s="21"/>
+      <c r="EY75" s="21"/>
+      <c r="EZ75" s="21"/>
+      <c r="FA75" s="21"/>
+      <c r="FB75" s="21"/>
+      <c r="FC75" s="21"/>
+      <c r="FD75" s="21"/>
+      <c r="FE75" s="21"/>
+      <c r="FF75" s="21"/>
+      <c r="FG75" s="21"/>
+      <c r="FH75" s="21"/>
     </row>
     <row r="76" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A76" s="17" t="s">
-        <v>155</v>
+        <v>274</v>
       </c>
       <c r="B76" s="22" t="s">
         <v>181</v>
       </c>
       <c r="C76" s="22">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>94</v>
+        <v>275</v>
       </c>
       <c r="F76" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="G76" s="22">
-        <v>20</v>
-      </c>
-      <c r="H76" s="22">
-        <v>20</v>
-      </c>
-      <c r="I76" s="22" t="s">
-        <v>181</v>
-      </c>
+      <c r="G76" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H76" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="I76" s="22"/>
       <c r="J76" s="3" t="s">
         <v>42</v>
       </c>
@@ -19220,11 +19244,11 @@
       <c r="M76" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N76" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="O76" s="12" t="s">
-        <v>21</v>
+      <c r="N76" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="P76" s="2" t="s">
         <v>83</v>
@@ -19233,25 +19257,23 @@
         <v>116</v>
       </c>
       <c r="R76" s="8" t="s">
-        <v>143</v>
+        <v>291</v>
       </c>
       <c r="S76" s="8" t="s">
-        <v>142</v>
+        <v>292</v>
       </c>
       <c r="T76" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="U76" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="U76" s="6"/>
       <c r="V76" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W76" s="17" t="s">
-        <v>155</v>
+        <v>274</v>
       </c>
       <c r="X76" s="17" t="s">
-        <v>155</v>
+        <v>274</v>
       </c>
       <c r="Y76" s="17" t="s">
         <v>2</v>
@@ -19402,22 +19424,22 @@
     </row>
     <row r="77" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A77" s="17" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B77" s="22" t="s">
         <v>181</v>
       </c>
       <c r="C77" s="22">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="G77" s="22" t="s">
         <v>116</v>
@@ -19450,24 +19472,24 @@
       <c r="Q77" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="R77" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="S77" s="8" t="s">
-        <v>293</v>
+      <c r="R77" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="S77" s="37" t="s">
+        <v>42</v>
       </c>
       <c r="T77" s="7" t="s">
         <v>42</v>
       </c>
       <c r="U77" s="6"/>
       <c r="V77" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W77" s="17" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="X77" s="17" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Y77" s="17" t="s">
         <v>2</v>
@@ -19618,47 +19640,49 @@
     </row>
     <row r="78" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
-        <v>279</v>
+        <v>207</v>
       </c>
       <c r="B78" s="22" t="s">
         <v>181</v>
       </c>
       <c r="C78" s="22">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D78" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="19" t="s">
-        <v>280</v>
+      <c r="E78" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G78" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="H78" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="I78" s="22"/>
-      <c r="J78" s="3" t="s">
-        <v>42</v>
+        <v>182</v>
+      </c>
+      <c r="G78" s="24">
+        <v>1</v>
+      </c>
+      <c r="H78" s="24">
+        <v>1</v>
+      </c>
+      <c r="I78" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="K78" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L78" s="3" t="s">
-        <v>42</v>
+      <c r="L78" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="M78" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N78" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O78" s="3" t="s">
-        <v>42</v>
+      <c r="N78" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O78" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="P78" s="2" t="s">
         <v>83</v>
@@ -19666,24 +19690,24 @@
       <c r="Q78" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="R78" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="S78" s="9" t="s">
-        <v>42</v>
+      <c r="R78" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="S78" s="8" t="s">
+        <v>290</v>
       </c>
       <c r="T78" s="7" t="s">
         <v>42</v>
       </c>
       <c r="U78" s="6"/>
       <c r="V78" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W78" s="17" t="s">
-        <v>279</v>
+        <v>207</v>
       </c>
       <c r="X78" s="17" t="s">
-        <v>279</v>
+        <v>207</v>
       </c>
       <c r="Y78" s="17" t="s">
         <v>2</v>
@@ -19834,40 +19858,38 @@
     </row>
     <row r="79" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A79" s="17" t="s">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="B79" s="22" t="s">
         <v>181</v>
       </c>
       <c r="C79" s="22">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D79" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>137</v>
+        <v>277</v>
       </c>
       <c r="F79" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="G79" s="24">
-        <v>1</v>
-      </c>
-      <c r="H79" s="24">
-        <v>1</v>
-      </c>
-      <c r="I79" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="J79" s="11" t="s">
-        <v>128</v>
+      <c r="G79" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H79" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="I79" s="22"/>
+      <c r="J79" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L79" s="11" t="s">
-        <v>128</v>
+      <c r="L79" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="M79" s="3" t="s">
         <v>42</v>
@@ -19885,23 +19907,23 @@
         <v>116</v>
       </c>
       <c r="R79" s="8" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="S79" s="8" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="T79" s="7" t="s">
         <v>42</v>
       </c>
       <c r="U79" s="6"/>
       <c r="V79" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W79" s="17" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="X79" s="17" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="Y79" s="17" t="s">
         <v>2</v>
@@ -20052,22 +20074,22 @@
     </row>
     <row r="80" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A80" s="17" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="B80" s="22" t="s">
         <v>181</v>
       </c>
       <c r="C80" s="22">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D80" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="G80" s="22" t="s">
         <v>116</v>
@@ -20075,7 +20097,9 @@
       <c r="H80" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="I80" s="22"/>
+      <c r="I80" s="28" t="s">
+        <v>83</v>
+      </c>
       <c r="J80" s="3" t="s">
         <v>42</v>
       </c>
@@ -20088,11 +20112,11 @@
       <c r="M80" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N80" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="O80" s="12" t="s">
-        <v>21</v>
+      <c r="N80" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>83</v>
@@ -20101,23 +20125,23 @@
         <v>116</v>
       </c>
       <c r="R80" s="8" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="S80" s="8" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="T80" s="7" t="s">
         <v>42</v>
       </c>
       <c r="U80" s="6"/>
       <c r="V80" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W80" s="17" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="X80" s="17" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="Y80" s="17" t="s">
         <v>2</v>
@@ -20266,225 +20290,146 @@
       <c r="FG80" s="21"/>
       <c r="FH80" s="21"/>
     </row>
-    <row r="81" spans="1:164" x14ac:dyDescent="0.2">
-      <c r="A81" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="B81" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="C81" s="22">
-        <v>372</v>
-      </c>
-      <c r="D81" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="F81" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G81" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="H81" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="I81" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P81" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q81" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="R81" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="S81" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="T81" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="U81" s="6"/>
-      <c r="V81" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="W81" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="X81" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y81" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z81" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA81" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB81" s="21"/>
-      <c r="AC81" s="21"/>
-      <c r="AD81" s="21"/>
-      <c r="AE81" s="21"/>
-      <c r="AF81" s="21"/>
-      <c r="AG81" s="21"/>
-      <c r="AH81" s="21"/>
-      <c r="AI81" s="21"/>
-      <c r="AJ81" s="21"/>
-      <c r="AK81" s="21"/>
-      <c r="AL81" s="21"/>
-      <c r="AM81" s="21"/>
-      <c r="AN81" s="21"/>
-      <c r="AO81" s="21"/>
-      <c r="AP81" s="21"/>
-      <c r="AQ81" s="21"/>
-      <c r="AR81" s="21"/>
-      <c r="AS81" s="21"/>
-      <c r="AT81" s="21"/>
-      <c r="AU81" s="21"/>
-      <c r="AV81" s="21"/>
-      <c r="AW81" s="21"/>
-      <c r="AX81" s="21"/>
-      <c r="AY81" s="21"/>
-      <c r="AZ81" s="21"/>
-      <c r="BA81" s="21"/>
-      <c r="BB81" s="21"/>
-      <c r="BC81" s="21"/>
-      <c r="BD81" s="21"/>
-      <c r="BE81" s="21"/>
-      <c r="BF81" s="21"/>
-      <c r="BG81" s="21"/>
-      <c r="BH81" s="21"/>
-      <c r="BI81" s="21"/>
-      <c r="BJ81" s="21"/>
-      <c r="BK81" s="21"/>
-      <c r="BL81" s="21"/>
-      <c r="BM81" s="21"/>
-      <c r="BN81" s="21"/>
-      <c r="BO81" s="21"/>
-      <c r="BP81" s="21"/>
-      <c r="BQ81" s="21"/>
-      <c r="BR81" s="21"/>
-      <c r="BS81" s="21"/>
-      <c r="BT81" s="21"/>
-      <c r="BU81" s="21"/>
-      <c r="BV81" s="21"/>
-      <c r="BW81" s="21"/>
-      <c r="BX81" s="21"/>
-      <c r="BY81" s="21"/>
-      <c r="BZ81" s="21"/>
-      <c r="CA81" s="21"/>
-      <c r="CB81" s="21"/>
-      <c r="CC81" s="21"/>
-      <c r="CD81" s="21"/>
-      <c r="CE81" s="21"/>
-      <c r="CF81" s="21"/>
-      <c r="CG81" s="21"/>
-      <c r="CH81" s="21"/>
-      <c r="CI81" s="21"/>
-      <c r="CJ81" s="21"/>
-      <c r="CK81" s="21"/>
-      <c r="CL81" s="21"/>
-      <c r="CM81" s="21"/>
-      <c r="CN81" s="21"/>
-      <c r="CO81" s="21"/>
-      <c r="CP81" s="21"/>
-      <c r="CQ81" s="21"/>
-      <c r="CR81" s="21"/>
-      <c r="CS81" s="21"/>
-      <c r="CT81" s="21"/>
-      <c r="CU81" s="21"/>
-      <c r="CV81" s="21"/>
-      <c r="CW81" s="21"/>
-      <c r="CX81" s="21"/>
-      <c r="CY81" s="21"/>
-      <c r="CZ81" s="21"/>
-      <c r="DA81" s="21"/>
-      <c r="DB81" s="21"/>
-      <c r="DC81" s="21"/>
-      <c r="DD81" s="21"/>
-      <c r="DE81" s="21"/>
-      <c r="DF81" s="21"/>
-      <c r="DG81" s="21"/>
-      <c r="DH81" s="21"/>
-      <c r="DI81" s="21"/>
-      <c r="DJ81" s="21"/>
-      <c r="DK81" s="21"/>
-      <c r="DL81" s="21"/>
-      <c r="DM81" s="21"/>
-      <c r="DN81" s="21"/>
-      <c r="DO81" s="21"/>
-      <c r="DP81" s="21"/>
-      <c r="DQ81" s="21"/>
-      <c r="DR81" s="21"/>
-      <c r="DS81" s="21"/>
-      <c r="DT81" s="21"/>
-      <c r="DU81" s="21"/>
-      <c r="DV81" s="21"/>
-      <c r="DW81" s="21"/>
-      <c r="DX81" s="21"/>
-      <c r="DY81" s="21"/>
-      <c r="DZ81" s="21"/>
-      <c r="EA81" s="21"/>
-      <c r="EB81" s="21"/>
-      <c r="EC81" s="21"/>
-      <c r="ED81" s="21"/>
-      <c r="EE81" s="21"/>
-      <c r="EF81" s="21"/>
-      <c r="EG81" s="21"/>
-      <c r="EH81" s="21"/>
-      <c r="EI81" s="21"/>
-      <c r="EJ81" s="21"/>
-      <c r="EK81" s="21"/>
-      <c r="EL81" s="21"/>
-      <c r="EM81" s="21"/>
-      <c r="EN81" s="21"/>
-      <c r="EO81" s="21"/>
-      <c r="EP81" s="21"/>
-      <c r="EQ81" s="21"/>
-      <c r="ER81" s="21"/>
-      <c r="ES81" s="21"/>
-      <c r="ET81" s="21"/>
-      <c r="EU81" s="21"/>
-      <c r="EV81" s="21"/>
-      <c r="EW81" s="21"/>
-      <c r="EX81" s="21"/>
-      <c r="EY81" s="21"/>
-      <c r="EZ81" s="21"/>
-      <c r="FA81" s="21"/>
-      <c r="FB81" s="21"/>
-      <c r="FC81" s="21"/>
-      <c r="FD81" s="21"/>
-      <c r="FE81" s="21"/>
-      <c r="FF81" s="21"/>
-      <c r="FG81" s="21"/>
-      <c r="FH81" s="21"/>
+    <row r="83" spans="28:164" x14ac:dyDescent="0.2">
+      <c r="AB83" s="21"/>
+      <c r="AC83" s="21"/>
+      <c r="AD83" s="21"/>
+      <c r="AE83" s="21"/>
+      <c r="AF83" s="21"/>
+      <c r="AG83" s="21"/>
+      <c r="AH83" s="21"/>
+      <c r="AI83" s="21"/>
+      <c r="AJ83" s="21"/>
+      <c r="AK83" s="21"/>
+      <c r="AL83" s="21"/>
+      <c r="AM83" s="21"/>
+      <c r="AN83" s="21"/>
+      <c r="AO83" s="21"/>
+      <c r="AP83" s="21"/>
+      <c r="AQ83" s="21"/>
+      <c r="AR83" s="21"/>
+      <c r="AS83" s="21"/>
+      <c r="AT83" s="21"/>
+      <c r="AU83" s="21"/>
+      <c r="AV83" s="21"/>
+      <c r="AW83" s="21"/>
+      <c r="AX83" s="21"/>
+      <c r="AY83" s="21"/>
+      <c r="AZ83" s="21"/>
+      <c r="BA83" s="21"/>
+      <c r="BB83" s="21"/>
+      <c r="BC83" s="21"/>
+      <c r="BD83" s="21"/>
+      <c r="BE83" s="21"/>
+      <c r="BF83" s="21"/>
+      <c r="BG83" s="21"/>
+      <c r="BH83" s="21"/>
+      <c r="BI83" s="21"/>
+      <c r="BJ83" s="21"/>
+      <c r="BK83" s="21"/>
+      <c r="BL83" s="21"/>
+      <c r="BM83" s="21"/>
+      <c r="BN83" s="21"/>
+      <c r="BO83" s="21"/>
+      <c r="BP83" s="21"/>
+      <c r="BQ83" s="21"/>
+      <c r="BR83" s="21"/>
+      <c r="BS83" s="21"/>
+      <c r="BT83" s="21"/>
+      <c r="BU83" s="21"/>
+      <c r="BV83" s="21"/>
+      <c r="BW83" s="21"/>
+      <c r="BX83" s="21"/>
+      <c r="BY83" s="21"/>
+      <c r="BZ83" s="21"/>
+      <c r="CA83" s="21"/>
+      <c r="CB83" s="21"/>
+      <c r="CC83" s="21"/>
+      <c r="CD83" s="21"/>
+      <c r="CE83" s="21"/>
+      <c r="CF83" s="21"/>
+      <c r="CG83" s="21"/>
+      <c r="CH83" s="21"/>
+      <c r="CI83" s="21"/>
+      <c r="CJ83" s="21"/>
+      <c r="CK83" s="21"/>
+      <c r="CL83" s="21"/>
+      <c r="CM83" s="21"/>
+      <c r="CN83" s="21"/>
+      <c r="CO83" s="21"/>
+      <c r="CP83" s="21"/>
+      <c r="CQ83" s="21"/>
+      <c r="CR83" s="21"/>
+      <c r="CS83" s="21"/>
+      <c r="CT83" s="21"/>
+      <c r="CU83" s="21"/>
+      <c r="CV83" s="21"/>
+      <c r="CW83" s="21"/>
+      <c r="CX83" s="21"/>
+      <c r="CY83" s="21"/>
+      <c r="CZ83" s="21"/>
+      <c r="DA83" s="21"/>
+      <c r="DB83" s="21"/>
+      <c r="DC83" s="21"/>
+      <c r="DD83" s="21"/>
+      <c r="DE83" s="21"/>
+      <c r="DF83" s="21"/>
+      <c r="DG83" s="21"/>
+      <c r="DH83" s="21"/>
+      <c r="DI83" s="21"/>
+      <c r="DJ83" s="21"/>
+      <c r="DK83" s="21"/>
+      <c r="DL83" s="21"/>
+      <c r="DM83" s="21"/>
+      <c r="DN83" s="21"/>
+      <c r="DO83" s="21"/>
+      <c r="DP83" s="21"/>
+      <c r="DQ83" s="21"/>
+      <c r="DR83" s="21"/>
+      <c r="DS83" s="21"/>
+      <c r="DT83" s="21"/>
+      <c r="DU83" s="21"/>
+      <c r="DV83" s="21"/>
+      <c r="DW83" s="21"/>
+      <c r="DX83" s="21"/>
+      <c r="DY83" s="21"/>
+      <c r="DZ83" s="21"/>
+      <c r="EA83" s="21"/>
+      <c r="EB83" s="21"/>
+      <c r="EC83" s="21"/>
+      <c r="ED83" s="21"/>
+      <c r="EE83" s="21"/>
+      <c r="EF83" s="21"/>
+      <c r="EG83" s="21"/>
+      <c r="EH83" s="21"/>
+      <c r="EI83" s="21"/>
+      <c r="EJ83" s="21"/>
+      <c r="EK83" s="21"/>
+      <c r="EL83" s="21"/>
+      <c r="EM83" s="21"/>
+      <c r="EN83" s="21"/>
+      <c r="EO83" s="21"/>
+      <c r="EP83" s="21"/>
+      <c r="EQ83" s="21"/>
+      <c r="ER83" s="21"/>
+      <c r="ES83" s="21"/>
+      <c r="ET83" s="21"/>
+      <c r="EU83" s="21"/>
+      <c r="EV83" s="21"/>
+      <c r="EW83" s="21"/>
+      <c r="EX83" s="21"/>
+      <c r="EY83" s="21"/>
+      <c r="EZ83" s="21"/>
+      <c r="FA83" s="21"/>
+      <c r="FB83" s="21"/>
+      <c r="FC83" s="21"/>
+      <c r="FD83" s="21"/>
+      <c r="FE83" s="21"/>
+      <c r="FF83" s="21"/>
+      <c r="FG83" s="21"/>
+      <c r="FH83" s="21"/>
     </row>
-    <row r="84" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="84" spans="28:164" x14ac:dyDescent="0.2">
       <c r="AB84" s="21"/>
       <c r="AC84" s="21"/>
       <c r="AD84" s="21"/>
@@ -20623,7 +20568,7 @@
       <c r="FG84" s="21"/>
       <c r="FH84" s="21"/>
     </row>
-    <row r="85" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="85" spans="28:164" x14ac:dyDescent="0.2">
       <c r="AB85" s="21"/>
       <c r="AC85" s="21"/>
       <c r="AD85" s="21"/>
@@ -20762,7 +20707,7 @@
       <c r="FG85" s="21"/>
       <c r="FH85" s="21"/>
     </row>
-    <row r="86" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="86" spans="28:164" x14ac:dyDescent="0.2">
       <c r="AB86" s="21"/>
       <c r="AC86" s="21"/>
       <c r="AD86" s="21"/>
@@ -20901,7 +20846,7 @@
       <c r="FG86" s="21"/>
       <c r="FH86" s="21"/>
     </row>
-    <row r="87" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="87" spans="28:164" x14ac:dyDescent="0.2">
       <c r="AB87" s="21"/>
       <c r="AC87" s="21"/>
       <c r="AD87" s="21"/>
@@ -21040,7 +20985,7 @@
       <c r="FG87" s="21"/>
       <c r="FH87" s="21"/>
     </row>
-    <row r="88" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="88" spans="28:164" x14ac:dyDescent="0.2">
       <c r="AB88" s="21"/>
       <c r="AC88" s="21"/>
       <c r="AD88" s="21"/>
@@ -21179,7 +21124,7 @@
       <c r="FG88" s="21"/>
       <c r="FH88" s="21"/>
     </row>
-    <row r="89" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="89" spans="28:164" x14ac:dyDescent="0.2">
       <c r="AB89" s="21"/>
       <c r="AC89" s="21"/>
       <c r="AD89" s="21"/>
@@ -21318,7 +21263,7 @@
       <c r="FG89" s="21"/>
       <c r="FH89" s="21"/>
     </row>
-    <row r="90" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="90" spans="28:164" x14ac:dyDescent="0.2">
       <c r="AB90" s="21"/>
       <c r="AC90" s="21"/>
       <c r="AD90" s="21"/>
@@ -21457,7 +21402,7 @@
       <c r="FG90" s="21"/>
       <c r="FH90" s="21"/>
     </row>
-    <row r="91" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="91" spans="28:164" x14ac:dyDescent="0.2">
       <c r="AB91" s="21"/>
       <c r="AC91" s="21"/>
       <c r="AD91" s="21"/>
@@ -21596,7 +21541,7 @@
       <c r="FG91" s="21"/>
       <c r="FH91" s="21"/>
     </row>
-    <row r="92" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="92" spans="28:164" x14ac:dyDescent="0.2">
       <c r="AB92" s="21"/>
       <c r="AC92" s="21"/>
       <c r="AD92" s="21"/>
@@ -21735,7 +21680,7 @@
       <c r="FG92" s="21"/>
       <c r="FH92" s="21"/>
     </row>
-    <row r="93" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="93" spans="28:164" x14ac:dyDescent="0.2">
       <c r="AB93" s="21"/>
       <c r="AC93" s="21"/>
       <c r="AD93" s="21"/>
@@ -21874,7 +21819,7 @@
       <c r="FG93" s="21"/>
       <c r="FH93" s="21"/>
     </row>
-    <row r="94" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="94" spans="28:164" x14ac:dyDescent="0.2">
       <c r="AB94" s="21"/>
       <c r="AC94" s="21"/>
       <c r="AD94" s="21"/>
@@ -22013,7 +21958,7 @@
       <c r="FG94" s="21"/>
       <c r="FH94" s="21"/>
     </row>
-    <row r="95" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="95" spans="28:164" x14ac:dyDescent="0.2">
       <c r="AB95" s="21"/>
       <c r="AC95" s="21"/>
       <c r="AD95" s="21"/>
@@ -22152,148 +22097,9 @@
       <c r="FG95" s="21"/>
       <c r="FH95" s="21"/>
     </row>
-    <row r="96" spans="1:164" x14ac:dyDescent="0.2">
-      <c r="AB96" s="21"/>
-      <c r="AC96" s="21"/>
-      <c r="AD96" s="21"/>
-      <c r="AE96" s="21"/>
-      <c r="AF96" s="21"/>
-      <c r="AG96" s="21"/>
-      <c r="AH96" s="21"/>
-      <c r="AI96" s="21"/>
-      <c r="AJ96" s="21"/>
-      <c r="AK96" s="21"/>
-      <c r="AL96" s="21"/>
-      <c r="AM96" s="21"/>
-      <c r="AN96" s="21"/>
-      <c r="AO96" s="21"/>
-      <c r="AP96" s="21"/>
-      <c r="AQ96" s="21"/>
-      <c r="AR96" s="21"/>
-      <c r="AS96" s="21"/>
-      <c r="AT96" s="21"/>
-      <c r="AU96" s="21"/>
-      <c r="AV96" s="21"/>
-      <c r="AW96" s="21"/>
-      <c r="AX96" s="21"/>
-      <c r="AY96" s="21"/>
-      <c r="AZ96" s="21"/>
-      <c r="BA96" s="21"/>
-      <c r="BB96" s="21"/>
-      <c r="BC96" s="21"/>
-      <c r="BD96" s="21"/>
-      <c r="BE96" s="21"/>
-      <c r="BF96" s="21"/>
-      <c r="BG96" s="21"/>
-      <c r="BH96" s="21"/>
-      <c r="BI96" s="21"/>
-      <c r="BJ96" s="21"/>
-      <c r="BK96" s="21"/>
-      <c r="BL96" s="21"/>
-      <c r="BM96" s="21"/>
-      <c r="BN96" s="21"/>
-      <c r="BO96" s="21"/>
-      <c r="BP96" s="21"/>
-      <c r="BQ96" s="21"/>
-      <c r="BR96" s="21"/>
-      <c r="BS96" s="21"/>
-      <c r="BT96" s="21"/>
-      <c r="BU96" s="21"/>
-      <c r="BV96" s="21"/>
-      <c r="BW96" s="21"/>
-      <c r="BX96" s="21"/>
-      <c r="BY96" s="21"/>
-      <c r="BZ96" s="21"/>
-      <c r="CA96" s="21"/>
-      <c r="CB96" s="21"/>
-      <c r="CC96" s="21"/>
-      <c r="CD96" s="21"/>
-      <c r="CE96" s="21"/>
-      <c r="CF96" s="21"/>
-      <c r="CG96" s="21"/>
-      <c r="CH96" s="21"/>
-      <c r="CI96" s="21"/>
-      <c r="CJ96" s="21"/>
-      <c r="CK96" s="21"/>
-      <c r="CL96" s="21"/>
-      <c r="CM96" s="21"/>
-      <c r="CN96" s="21"/>
-      <c r="CO96" s="21"/>
-      <c r="CP96" s="21"/>
-      <c r="CQ96" s="21"/>
-      <c r="CR96" s="21"/>
-      <c r="CS96" s="21"/>
-      <c r="CT96" s="21"/>
-      <c r="CU96" s="21"/>
-      <c r="CV96" s="21"/>
-      <c r="CW96" s="21"/>
-      <c r="CX96" s="21"/>
-      <c r="CY96" s="21"/>
-      <c r="CZ96" s="21"/>
-      <c r="DA96" s="21"/>
-      <c r="DB96" s="21"/>
-      <c r="DC96" s="21"/>
-      <c r="DD96" s="21"/>
-      <c r="DE96" s="21"/>
-      <c r="DF96" s="21"/>
-      <c r="DG96" s="21"/>
-      <c r="DH96" s="21"/>
-      <c r="DI96" s="21"/>
-      <c r="DJ96" s="21"/>
-      <c r="DK96" s="21"/>
-      <c r="DL96" s="21"/>
-      <c r="DM96" s="21"/>
-      <c r="DN96" s="21"/>
-      <c r="DO96" s="21"/>
-      <c r="DP96" s="21"/>
-      <c r="DQ96" s="21"/>
-      <c r="DR96" s="21"/>
-      <c r="DS96" s="21"/>
-      <c r="DT96" s="21"/>
-      <c r="DU96" s="21"/>
-      <c r="DV96" s="21"/>
-      <c r="DW96" s="21"/>
-      <c r="DX96" s="21"/>
-      <c r="DY96" s="21"/>
-      <c r="DZ96" s="21"/>
-      <c r="EA96" s="21"/>
-      <c r="EB96" s="21"/>
-      <c r="EC96" s="21"/>
-      <c r="ED96" s="21"/>
-      <c r="EE96" s="21"/>
-      <c r="EF96" s="21"/>
-      <c r="EG96" s="21"/>
-      <c r="EH96" s="21"/>
-      <c r="EI96" s="21"/>
-      <c r="EJ96" s="21"/>
-      <c r="EK96" s="21"/>
-      <c r="EL96" s="21"/>
-      <c r="EM96" s="21"/>
-      <c r="EN96" s="21"/>
-      <c r="EO96" s="21"/>
-      <c r="EP96" s="21"/>
-      <c r="EQ96" s="21"/>
-      <c r="ER96" s="21"/>
-      <c r="ES96" s="21"/>
-      <c r="ET96" s="21"/>
-      <c r="EU96" s="21"/>
-      <c r="EV96" s="21"/>
-      <c r="EW96" s="21"/>
-      <c r="EX96" s="21"/>
-      <c r="EY96" s="21"/>
-      <c r="EZ96" s="21"/>
-      <c r="FA96" s="21"/>
-      <c r="FB96" s="21"/>
-      <c r="FC96" s="21"/>
-      <c r="FD96" s="21"/>
-      <c r="FE96" s="21"/>
-      <c r="FF96" s="21"/>
-      <c r="FG96" s="21"/>
-      <c r="FH96" s="21"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA83">
-    <sortCondition ref="C2:C83"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA82">
+    <sortCondition ref="C2:C82"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22312,7 +22118,7 @@
   <sheetData>
     <row r="1" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>181</v>
@@ -22373,13 +22179,13 @@
       </c>
       <c r="U1" s="7"/>
       <c r="V1" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W1" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X1" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Y1" s="17" t="s">
         <v>2</v>

--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF910EE7-CFFD-E443-805E-BA07859E286B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E89C2D-C327-7048-8567-88F6271302F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8180" yWindow="2340" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="300">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -895,9 +895,6 @@
   </si>
   <si>
     <t>dependo.174-PipPip</t>
-  </si>
-  <si>
-    <t>not defined</t>
   </si>
   <si>
     <t>dependo.53-cavia</t>
@@ -3446,10 +3443,10 @@
   <dimension ref="A1:FH95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R23" sqref="A1:AA80"/>
+      <selection pane="bottomRight" sqref="A1:AA80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3762,19 +3759,19 @@
         <v>128</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>128</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="N4" s="11" t="s">
         <v>128</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>83</v>
@@ -4503,13 +4500,13 @@
         <v>128</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>128</v>
       </c>
       <c r="M8" s="32" t="s">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>21</v>
@@ -4721,13 +4718,13 @@
         <v>128</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>128</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>21</v>
@@ -5157,13 +5154,13 @@
         <v>128</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>128</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>21</v>
@@ -5593,13 +5590,13 @@
         <v>128</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>128</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>21</v>
@@ -11031,7 +11028,7 @@
     </row>
     <row r="38" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B38" s="22" t="s">
         <v>181</v>
@@ -11061,13 +11058,13 @@
         <v>128</v>
       </c>
       <c r="K38" s="32" t="s">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="L38" s="11" t="s">
         <v>128</v>
       </c>
       <c r="M38" s="32" t="s">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="N38" s="12" t="s">
         <v>21</v>
@@ -11095,10 +11092,10 @@
         <v>204</v>
       </c>
       <c r="W38" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="X38" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Y38" s="17" t="s">
         <v>2</v>
@@ -13268,10 +13265,10 @@
         <v>116</v>
       </c>
       <c r="R48" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="S48" s="8" t="s">
         <v>296</v>
-      </c>
-      <c r="S48" s="8" t="s">
-        <v>297</v>
       </c>
       <c r="T48" s="7" t="s">
         <v>42</v>
@@ -13704,10 +13701,10 @@
         <v>116</v>
       </c>
       <c r="R50" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="S50" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T50" s="7" t="s">
         <v>42</v>
@@ -14121,19 +14118,19 @@
         <v>128</v>
       </c>
       <c r="K52" s="32" t="s">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="L52" s="11" t="s">
         <v>128</v>
       </c>
       <c r="M52" s="32" t="s">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="N52" s="11" t="s">
         <v>128</v>
       </c>
       <c r="O52" s="32" t="s">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>83</v>
@@ -14341,7 +14338,7 @@
         <v>128</v>
       </c>
       <c r="K53" s="32" t="s">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="L53" s="12" t="s">
         <v>21</v>
@@ -14353,7 +14350,7 @@
         <v>128</v>
       </c>
       <c r="O53" s="32" t="s">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>83</v>
@@ -14561,7 +14558,7 @@
         <v>128</v>
       </c>
       <c r="K54" s="32" t="s">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="L54" s="12" t="s">
         <v>21</v>
@@ -14573,7 +14570,7 @@
         <v>128</v>
       </c>
       <c r="O54" s="32" t="s">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>83</v>
@@ -14781,7 +14778,7 @@
         <v>128</v>
       </c>
       <c r="K55" s="32" t="s">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="L55" s="12" t="s">
         <v>21</v>
@@ -14793,7 +14790,7 @@
         <v>128</v>
       </c>
       <c r="O55" s="32" t="s">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>83</v>
@@ -15870,19 +15867,19 @@
         <v>128</v>
       </c>
       <c r="K60" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L60" s="11" t="s">
         <v>128</v>
       </c>
       <c r="M60" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N60" s="11" t="s">
         <v>128</v>
       </c>
       <c r="O60" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>83</v>
@@ -17640,10 +17637,10 @@
         <v>116</v>
       </c>
       <c r="R68" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="S68" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="S68" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="T68" s="7" t="s">
         <v>42</v>
@@ -19257,10 +19254,10 @@
         <v>116</v>
       </c>
       <c r="R76" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="S76" s="8" t="s">
         <v>291</v>
-      </c>
-      <c r="S76" s="8" t="s">
-        <v>292</v>
       </c>
       <c r="T76" s="7" t="s">
         <v>42</v>
@@ -19691,10 +19688,10 @@
         <v>116</v>
       </c>
       <c r="R78" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="S78" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="S78" s="8" t="s">
-        <v>290</v>
       </c>
       <c r="T78" s="7" t="s">
         <v>42</v>
@@ -19907,10 +19904,10 @@
         <v>116</v>
       </c>
       <c r="R79" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="S79" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="S79" s="8" t="s">
-        <v>295</v>
       </c>
       <c r="T79" s="7" t="s">
         <v>42</v>

--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E89C2D-C327-7048-8567-88F6271302F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD14E2F-7487-5044-B0E1-5B2DD4EB5467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8180" yWindow="2340" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3443,10 +3443,10 @@
   <dimension ref="A1:FH95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:AA80"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F44799-5879-7347-AD7A-1D8EB84C6B97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAF4E1B-4228-8D4A-B17A-83AC5A5E447B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="1360" windowWidth="28000" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3418,7 +3418,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="A1:AA77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAF4E1B-4228-8D4A-B17A-83AC5A5E447B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322C1802-F684-EE42-859B-ADF4CC5B5A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="1360" windowWidth="28000" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3680" yWindow="1340" windowWidth="28000" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="5" r:id="rId1"/>
@@ -3418,7 +3418,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="A1:AA77"/>
+      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10711"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322C1802-F684-EE42-859B-ADF4CC5B5A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933A4B7B-796F-BE4A-8AA7-923B74A5EC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="1340" windowWidth="28000" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3680" yWindow="1340" windowWidth="36660" windowHeight="26080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="292">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -907,6 +907,9 @@
   </si>
   <si>
     <t>ENSOANG00000041945</t>
+  </si>
+  <si>
+    <t>Dependo4</t>
   </si>
 </sst>
 </file>
@@ -977,7 +980,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1098,6 +1101,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2049,7 +2058,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2125,6 +2134,7 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="939">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3415,10 +3425,10 @@
   <dimension ref="A1:FH92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="K53" sqref="A1:AA77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14308,23 +14318,23 @@
       <c r="I53" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="J53" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>40</v>
+      <c r="J53" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L53" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N53" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>77</v>
@@ -14525,23 +14535,23 @@
       <c r="I54" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>40</v>
+      <c r="J54" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L54" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N54" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>77</v>
@@ -14743,23 +14753,23 @@
       <c r="I55" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>40</v>
+      <c r="J55" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L55" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N55" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>77</v>
@@ -14961,23 +14971,23 @@
       <c r="I56" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>40</v>
+      <c r="J56" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L56" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N56" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>77</v>

--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933A4B7B-796F-BE4A-8AA7-923B74A5EC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419ABA75-45CE-5444-A20D-42F20BE04A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="1340" windowWidth="36660" windowHeight="26080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="291">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>Myo9-copy</t>
-  </si>
-  <si>
-    <t>Marsupial</t>
   </si>
   <si>
     <t>NK</t>
@@ -3425,10 +3422,10 @@
   <dimension ref="A1:FH92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K53" sqref="A1:AA77"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="A1:AA77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3464,55 +3461,55 @@
   <sheetData>
     <row r="1" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="P1" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>26</v>
@@ -3539,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>1</v>
@@ -3550,7 +3547,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" s="22">
         <v>0</v>
@@ -3559,10 +3556,10 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G2" s="24">
         <v>1</v>
@@ -3571,40 +3568,40 @@
         <v>1</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="O2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="22">
@@ -3620,7 +3617,7 @@
         <v>2</v>
       </c>
       <c r="Z2" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA2" s="17" t="s">
         <v>3</v>
@@ -3631,19 +3628,19 @@
         <v>5</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="22">
         <v>1</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G3" s="22">
         <v>23</v>
@@ -3652,40 +3649,40 @@
         <v>24</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N3" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U3" s="6">
         <v>62</v>
@@ -3703,7 +3700,7 @@
         <v>2</v>
       </c>
       <c r="Z3" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA3" s="17" t="s">
         <v>3</v>
@@ -3711,22 +3708,22 @@
     </row>
     <row r="4" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="22">
         <v>2</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G4" s="22">
         <v>9</v>
@@ -3735,56 +3732,56 @@
         <v>9</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="22">
         <v>32913662</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X4" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y4" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z4" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA4" s="17" t="s">
         <v>3</v>
@@ -3795,7 +3792,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="22">
         <v>3</v>
@@ -3807,7 +3804,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G5" s="22">
         <v>3</v>
@@ -3816,40 +3813,40 @@
         <v>3</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="T5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U5" s="6">
         <v>51</v>
@@ -3867,7 +3864,7 @@
         <v>2</v>
       </c>
       <c r="Z5" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA5" s="17" t="s">
         <v>3</v>
@@ -4012,10 +4009,10 @@
     </row>
     <row r="6" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" s="22">
         <v>4</v>
@@ -4024,10 +4021,10 @@
         <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G6" s="24">
         <v>4</v>
@@ -4036,31 +4033,31 @@
         <v>4</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>28</v>
@@ -4075,19 +4072,19 @@
         <v>27.9</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W6" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X6" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y6" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z6" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA6" s="17" t="s">
         <v>3</v>
@@ -4232,10 +4229,10 @@
     </row>
     <row r="7" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" s="22">
         <v>5</v>
@@ -4244,10 +4241,10 @@
         <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G7" s="24">
         <v>4</v>
@@ -4256,13 +4253,13 @@
         <v>4</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>20</v>
@@ -4271,43 +4268,43 @@
         <v>20</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U7" s="7">
         <v>27.9</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W7" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X7" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Y7" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z7" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA7" s="17" t="s">
         <v>3</v>
@@ -4452,10 +4449,10 @@
     </row>
     <row r="8" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C8" s="22">
         <v>6</v>
@@ -4464,10 +4461,10 @@
         <v>18</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G8" s="22">
         <v>1</v>
@@ -4476,19 +4473,19 @@
         <v>1</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M8" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>20</v>
@@ -4497,35 +4494,35 @@
         <v>20</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="S8" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="S8" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="T8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X8" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y8" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z8" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA8" s="17" t="s">
         <v>3</v>
@@ -4673,7 +4670,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" s="22">
         <v>8</v>
@@ -4682,10 +4679,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G9" s="22">
         <v>1</v>
@@ -4694,13 +4691,13 @@
         <v>1</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>20</v>
@@ -4709,29 +4706,29 @@
         <v>20</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="S9" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="T9" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U9" s="6"/>
       <c r="V9" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W9" s="17" t="s">
         <v>9</v>
@@ -4743,7 +4740,7 @@
         <v>2</v>
       </c>
       <c r="Z9" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA9" s="17" t="s">
         <v>3</v>
@@ -4888,22 +4885,22 @@
     </row>
     <row r="10" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" s="22">
         <v>9</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G10" s="22">
         <v>2</v>
@@ -4912,19 +4909,19 @@
         <v>2</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>20</v>
@@ -4933,35 +4930,35 @@
         <v>20</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U10" s="6"/>
       <c r="V10" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W10" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X10" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Y10" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z10" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA10" s="17" t="s">
         <v>3</v>
@@ -5109,19 +5106,19 @@
         <v>37</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C11" s="22">
         <v>10</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G11" s="24">
         <v>1</v>
@@ -5130,19 +5127,19 @@
         <v>1</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="L11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>20</v>
@@ -5151,23 +5148,23 @@
         <v>20</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U11" s="6"/>
       <c r="V11" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W11" s="17" t="s">
         <v>37</v>
@@ -5179,7 +5176,7 @@
         <v>2</v>
       </c>
       <c r="Z11" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA11" s="17" t="s">
         <v>3</v>
@@ -5327,7 +5324,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12" s="22">
         <v>11</v>
@@ -5336,10 +5333,10 @@
         <v>18</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G12" s="24">
         <v>3</v>
@@ -5348,19 +5345,19 @@
         <v>3</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N12" s="12" t="s">
         <v>20</v>
@@ -5369,23 +5366,23 @@
         <v>20</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U12" s="6"/>
       <c r="V12" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W12" s="17" t="s">
         <v>10</v>
@@ -5397,7 +5394,7 @@
         <v>2</v>
       </c>
       <c r="Z12" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA12" s="17" t="s">
         <v>3</v>
@@ -5542,10 +5539,10 @@
     </row>
     <row r="13" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C13" s="22">
         <v>12</v>
@@ -5554,10 +5551,10 @@
         <v>13</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G13" s="22">
         <v>1</v>
@@ -5566,56 +5563,56 @@
         <v>1</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W13" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X13" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y13" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z13" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA13" s="17" t="s">
         <v>3</v>
@@ -5763,7 +5760,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="22">
         <v>13</v>
@@ -5772,10 +5769,10 @@
         <v>19</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G14" s="24">
         <v>3</v>
@@ -5784,31 +5781,31 @@
         <v>3</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M14" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O14" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R14" s="8" t="s">
         <v>32</v>
@@ -5817,13 +5814,13 @@
         <v>33</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U14" s="7">
         <v>19.399999999999999</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W14" s="17" t="s">
         <v>8</v>
@@ -5835,7 +5832,7 @@
         <v>2</v>
       </c>
       <c r="Z14" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA14" s="17" t="s">
         <v>3</v>
@@ -5983,7 +5980,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="22">
         <v>14</v>
@@ -5992,10 +5989,10 @@
         <v>19</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G15" s="24">
         <v>5</v>
@@ -6004,19 +6001,19 @@
         <v>5</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M15" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N15" s="12" t="s">
         <v>20</v>
@@ -6025,10 +6022,10 @@
         <v>20</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R15" s="8" t="s">
         <v>34</v>
@@ -6037,13 +6034,13 @@
         <v>34</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U15" s="7">
         <v>19.399999999999999</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W15" s="17" t="s">
         <v>25</v>
@@ -6055,7 +6052,7 @@
         <v>2</v>
       </c>
       <c r="Z15" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA15" s="17" t="s">
         <v>3</v>
@@ -6200,10 +6197,10 @@
     </row>
     <row r="16" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C16" s="22">
         <v>15</v>
@@ -6212,10 +6209,10 @@
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G16" s="24">
         <v>1</v>
@@ -6224,19 +6221,19 @@
         <v>1</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K16" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M16" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N16" s="12" t="s">
         <v>20</v>
@@ -6245,10 +6242,10 @@
         <v>20</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R16" s="8" t="s">
         <v>36</v>
@@ -6257,25 +6254,25 @@
         <v>35</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U16" s="7">
         <v>19.399999999999999</v>
       </c>
       <c r="V16" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X16" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y16" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z16" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA16" s="17" t="s">
         <v>3</v>
@@ -6420,10 +6417,10 @@
     </row>
     <row r="17" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" s="22">
         <v>16</v>
@@ -6432,10 +6429,10 @@
         <v>19</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G17" s="24">
         <v>5</v>
@@ -6444,13 +6441,13 @@
         <v>5</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L17" s="12" t="s">
         <v>20</v>
@@ -6459,41 +6456,41 @@
         <v>20</v>
       </c>
       <c r="N17" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O17" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="S17" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="S17" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="T17" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U17" s="7"/>
       <c r="V17" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W17" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X17" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y17" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z17" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA17" s="17" t="s">
         <v>3</v>
@@ -6638,10 +6635,10 @@
     </row>
     <row r="18" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C18" s="22">
         <v>23</v>
@@ -6650,10 +6647,10 @@
         <v>19</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G18" s="24">
         <v>5</v>
@@ -6662,13 +6659,13 @@
         <v>5</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>20</v>
@@ -6677,25 +6674,25 @@
         <v>20</v>
       </c>
       <c r="N18" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O18" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="S18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="S18" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="T18" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U18" s="7">
         <v>11.7</v>
@@ -6704,16 +6701,16 @@
         <v>26037535</v>
       </c>
       <c r="W18" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X18" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y18" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z18" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA18" s="17" t="s">
         <v>3</v>
@@ -6858,22 +6855,22 @@
     </row>
     <row r="19" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C19" s="22">
         <v>26</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G19" s="24">
         <v>7</v>
@@ -6882,13 +6879,13 @@
         <v>11</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J19" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L19" s="12" t="s">
         <v>20</v>
@@ -6897,25 +6894,25 @@
         <v>20</v>
       </c>
       <c r="N19" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O19" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="S19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="S19" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="T19" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U19" s="7">
         <v>55</v>
@@ -6924,16 +6921,16 @@
         <v>15085543</v>
       </c>
       <c r="W19" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X19" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y19" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z19" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA19" s="17" t="s">
         <v>3</v>
@@ -7078,10 +7075,10 @@
     </row>
     <row r="20" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C20" s="22">
         <v>27</v>
@@ -7090,10 +7087,10 @@
         <v>18</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G20" s="24">
         <v>3</v>
@@ -7102,19 +7099,19 @@
         <v>3</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N20" s="12" t="s">
         <v>20</v>
@@ -7123,35 +7120,35 @@
         <v>20</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T20" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U20" s="7"/>
       <c r="V20" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W20" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="X20" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y20" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z20" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA20" s="17" t="s">
         <v>3</v>
@@ -7296,10 +7293,10 @@
     </row>
     <row r="21" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" s="22">
         <v>28</v>
@@ -7308,10 +7305,10 @@
         <v>18</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G21" s="24">
         <v>1</v>
@@ -7320,56 +7317,56 @@
         <v>2</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L21" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M21" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N21" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O21" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R21" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="S21" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="S21" s="8" t="s">
-        <v>205</v>
-      </c>
       <c r="T21" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U21" s="7"/>
       <c r="V21" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W21" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X21" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y21" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z21" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA21" s="17" t="s">
         <v>3</v>
@@ -7514,10 +7511,10 @@
     </row>
     <row r="22" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C22" s="22">
         <v>36</v>
@@ -7526,10 +7523,10 @@
         <v>18</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G22" s="24">
         <v>1</v>
@@ -7538,56 +7535,56 @@
         <v>1</v>
       </c>
       <c r="I22" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="K22" s="35" t="s">
-        <v>78</v>
-      </c>
       <c r="L22" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M22" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N22" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O22" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R22" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="S22" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="S22" s="8" t="s">
-        <v>160</v>
-      </c>
       <c r="T22" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U22" s="7"/>
       <c r="V22" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W22" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="X22" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y22" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z22" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA22" s="17" t="s">
         <v>3</v>
@@ -7732,10 +7729,10 @@
     </row>
     <row r="23" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="22">
         <v>37</v>
@@ -7744,10 +7741,10 @@
         <v>18</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G23" s="22">
         <v>1</v>
@@ -7756,56 +7753,56 @@
         <v>1</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R23" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="S23" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="S23" s="8" t="s">
-        <v>207</v>
-      </c>
       <c r="T23" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U23" s="7"/>
       <c r="V23" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W23" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X23" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y23" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z23" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA23" s="17" t="s">
         <v>3</v>
@@ -7950,10 +7947,10 @@
     </row>
     <row r="24" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C24" s="22">
         <v>40</v>
@@ -7962,10 +7959,10 @@
         <v>19</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G24" s="24">
         <v>1</v>
@@ -7974,58 +7971,58 @@
         <v>2</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J24" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L24" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M24" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N24" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O24" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R24" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="S24" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="S24" s="8" t="s">
-        <v>217</v>
-      </c>
       <c r="T24" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U24" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W24" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X24" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y24" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z24" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA24" s="17" t="s">
         <v>3</v>
@@ -8170,10 +8167,10 @@
     </row>
     <row r="25" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C25" s="22">
         <v>42</v>
@@ -8182,10 +8179,10 @@
         <v>18</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G25" s="22">
         <v>1</v>
@@ -8194,19 +8191,19 @@
         <v>1</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N25" s="12" t="s">
         <v>20</v>
@@ -8215,35 +8212,35 @@
         <v>20</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q25" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U25" s="6"/>
       <c r="V25" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W25" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X25" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y25" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z25" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA25" s="17" t="s">
         <v>3</v>
@@ -8388,10 +8385,10 @@
     </row>
     <row r="26" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C26" s="22">
         <v>43</v>
@@ -8400,10 +8397,10 @@
         <v>18</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G26" s="22">
         <v>5</v>
@@ -8412,19 +8409,19 @@
         <v>5</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N26" s="12" t="s">
         <v>20</v>
@@ -8433,35 +8430,35 @@
         <v>20</v>
       </c>
       <c r="P26" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T26" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U26" s="7"/>
       <c r="V26" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W26" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X26" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y26" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z26" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA26" s="17" t="s">
         <v>3</v>
@@ -8609,7 +8606,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="22">
         <v>44</v>
@@ -8618,10 +8615,10 @@
         <v>19</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G27" s="24">
         <v>2</v>
@@ -8630,19 +8627,19 @@
         <v>2</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N27" s="12" t="s">
         <v>20</v>
@@ -8651,25 +8648,25 @@
         <v>20</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q27" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S27" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U27" s="7">
         <v>34</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W27" s="17" t="s">
         <v>23</v>
@@ -8681,7 +8678,7 @@
         <v>2</v>
       </c>
       <c r="Z27" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA27" s="17" t="s">
         <v>3</v>
@@ -8826,10 +8823,10 @@
     </row>
     <row r="28" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="22">
         <v>45</v>
@@ -8838,10 +8835,10 @@
         <v>19</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G28" s="24">
         <v>2</v>
@@ -8850,19 +8847,19 @@
         <v>2</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N28" s="12" t="s">
         <v>20</v>
@@ -8871,35 +8868,35 @@
         <v>20</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q28" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R28" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S28" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T28" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U28" s="7"/>
       <c r="V28" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W28" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X28" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y28" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z28" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA28" s="17" t="s">
         <v>3</v>
@@ -9044,10 +9041,10 @@
     </row>
     <row r="29" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C29" s="22">
         <v>46</v>
@@ -9059,7 +9056,7 @@
         <v>15</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G29" s="22">
         <v>1</v>
@@ -9068,56 +9065,56 @@
         <v>2</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q29" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R29" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S29" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U29" s="7"/>
       <c r="V29" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W29" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X29" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y29" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z29" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA29" s="17" t="s">
         <v>3</v>
@@ -9262,10 +9259,10 @@
     </row>
     <row r="30" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C30" s="22">
         <v>47</v>
@@ -9274,10 +9271,10 @@
         <v>13</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G30" s="24">
         <v>1</v>
@@ -9286,58 +9283,58 @@
         <v>1</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q30" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R30" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="S30" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="S30" s="8" t="s">
-        <v>228</v>
-      </c>
       <c r="T30" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U30" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V30" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W30" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X30" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Y30" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z30" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA30" s="17" t="s">
         <v>3</v>
@@ -9482,10 +9479,10 @@
     </row>
     <row r="31" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C31" s="22">
         <v>48</v>
@@ -9494,68 +9491,68 @@
         <v>13</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q31" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S31" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U31" s="7"/>
       <c r="V31" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W31" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X31" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y31" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z31" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA31" s="17" t="s">
         <v>3</v>
@@ -9700,10 +9697,10 @@
     </row>
     <row r="32" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C32" s="22">
         <v>49</v>
@@ -9712,10 +9709,10 @@
         <v>13</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G32" s="22">
         <v>1</v>
@@ -9724,56 +9721,56 @@
         <v>1</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q32" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T32" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U32" s="7"/>
       <c r="V32" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W32" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X32" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Y32" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z32" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA32" s="17" t="s">
         <v>3</v>
@@ -9918,10 +9915,10 @@
     </row>
     <row r="33" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C33" s="22">
         <v>50</v>
@@ -9930,68 +9927,68 @@
         <v>19</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q33" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R33" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S33" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T33" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U33" s="7"/>
       <c r="V33" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W33" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X33" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Y33" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z33" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA33" s="17" t="s">
         <v>3</v>
@@ -10136,10 +10133,10 @@
     </row>
     <row r="34" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C34" s="22">
         <v>51</v>
@@ -10148,10 +10145,10 @@
         <v>19</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G34" s="22">
         <v>4</v>
@@ -10160,19 +10157,19 @@
         <v>4</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N34" s="12" t="s">
         <v>20</v>
@@ -10181,35 +10178,35 @@
         <v>20</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q34" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R34" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="S34" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="S34" s="8" t="s">
-        <v>166</v>
-      </c>
       <c r="T34" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U34" s="7"/>
       <c r="V34" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W34" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X34" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y34" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z34" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA34" s="17" t="s">
         <v>3</v>
@@ -10354,10 +10351,10 @@
     </row>
     <row r="35" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C35" s="22">
         <v>53</v>
@@ -10366,31 +10363,31 @@
         <v>18</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I35" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K35" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L35" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M35" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N35" s="12" t="s">
         <v>20</v>
@@ -10399,35 +10396,35 @@
         <v>20</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q35" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R35" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S35" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T35" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U35" s="7"/>
       <c r="V35" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W35" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="X35" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y35" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z35" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA35" s="17" t="s">
         <v>3</v>
@@ -10572,10 +10569,10 @@
     </row>
     <row r="36" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C36" s="22">
         <v>54</v>
@@ -10584,10 +10581,10 @@
         <v>18</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G36" s="24">
         <v>3</v>
@@ -10596,56 +10593,56 @@
         <v>3</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q36" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R36" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S36" s="8" t="s">
         <v>39</v>
       </c>
       <c r="T36" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U36" s="7"/>
       <c r="V36" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W36" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X36" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y36" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z36" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA36" s="17" t="s">
         <v>3</v>
@@ -10790,10 +10787,10 @@
     </row>
     <row r="37" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C37" s="22">
         <v>55</v>
@@ -10805,28 +10802,28 @@
         <v>15</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I37" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N37" s="12" t="s">
         <v>20</v>
@@ -10835,35 +10832,35 @@
         <v>20</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q37" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R37" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="S37" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="S37" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="T37" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U37" s="7"/>
       <c r="V37" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W37" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X37" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Y37" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z37" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA37" s="17" t="s">
         <v>3</v>
@@ -11008,10 +11005,10 @@
     </row>
     <row r="38" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C38" s="22">
         <v>56</v>
@@ -11020,10 +11017,10 @@
         <v>19</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G38" s="24">
         <v>3</v>
@@ -11032,19 +11029,19 @@
         <v>3</v>
       </c>
       <c r="I38" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N38" s="12" t="s">
         <v>20</v>
@@ -11053,34 +11050,34 @@
         <v>20</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q38" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R38" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="S38" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="S38" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="T38" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V38" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W38" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X38" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y38" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z38" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA38" s="17" t="s">
         <v>3</v>
@@ -11225,10 +11222,10 @@
     </row>
     <row r="39" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C39" s="22">
         <v>58</v>
@@ -11237,68 +11234,68 @@
         <v>13</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q39" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R39" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S39" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T39" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U39" s="7"/>
       <c r="V39" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W39" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="X39" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Y39" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z39" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA39" s="17" t="s">
         <v>3</v>
@@ -11443,79 +11440,79 @@
     </row>
     <row r="40" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C40" s="22">
         <v>59</v>
       </c>
       <c r="D40" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="I40" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="G40" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="H40" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="I40" s="28" t="s">
-        <v>77</v>
-      </c>
       <c r="J40" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q40" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R40" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S40" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T40" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V40" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W40" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X40" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y40" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z40" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA40" s="17" t="s">
         <v>3</v>
@@ -11660,10 +11657,10 @@
     </row>
     <row r="41" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C41" s="22">
         <v>60</v>
@@ -11672,10 +11669,10 @@
         <v>13</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G41" s="26">
         <v>1</v>
@@ -11684,58 +11681,58 @@
         <v>1</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q41" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R41" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S41" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T41" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W41" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X41" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Y41" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z41" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA41" s="17" t="s">
         <v>3</v>
@@ -11880,10 +11877,10 @@
     </row>
     <row r="42" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C42" s="22">
         <v>61</v>
@@ -11892,10 +11889,10 @@
         <v>13</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G42" s="26">
         <v>1</v>
@@ -11904,58 +11901,58 @@
         <v>1</v>
       </c>
       <c r="I42" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q42" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R42" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S42" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T42" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U42" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V42" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W42" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X42" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Y42" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z42" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA42" s="17" t="s">
         <v>3</v>
@@ -12100,10 +12097,10 @@
     </row>
     <row r="43" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C43" s="22">
         <v>62</v>
@@ -12112,10 +12109,10 @@
         <v>13</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G43" s="26">
         <v>1</v>
@@ -12124,58 +12121,58 @@
         <v>1</v>
       </c>
       <c r="I43" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q43" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T43" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U43" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W43" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="X43" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y43" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z43" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA43" s="17" t="s">
         <v>3</v>
@@ -12320,10 +12317,10 @@
     </row>
     <row r="44" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C44" s="22">
         <v>63</v>
@@ -12335,67 +12332,67 @@
         <v>15</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I44" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R44" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="S44" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="S44" s="8" t="s">
-        <v>177</v>
-      </c>
       <c r="T44" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U44" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V44" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W44" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X44" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y44" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z44" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA44" s="17" t="s">
         <v>3</v>
@@ -12540,10 +12537,10 @@
     </row>
     <row r="45" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C45" s="22">
         <v>64</v>
@@ -12555,65 +12552,65 @@
         <v>15</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I45" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q45" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R45" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="S45" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="S45" s="8" t="s">
-        <v>287</v>
-      </c>
       <c r="T45" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U45" s="7"/>
       <c r="V45" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W45" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X45" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Y45" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z45" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA45" s="17" t="s">
         <v>3</v>
@@ -12758,10 +12755,10 @@
     </row>
     <row r="46" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C46" s="22">
         <v>75</v>
@@ -12770,68 +12767,68 @@
         <v>13</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I46" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q46" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R46" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S46" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T46" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U46" s="7"/>
       <c r="V46" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W46" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X46" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y46" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z46" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA46" s="17" t="s">
         <v>3</v>
@@ -12976,10 +12973,10 @@
     </row>
     <row r="47" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C47" s="22">
         <v>76</v>
@@ -12988,68 +12985,68 @@
         <v>19</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I47" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q47" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S47" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="T47" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U47" s="7"/>
       <c r="V47" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W47" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X47" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Y47" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z47" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA47" s="17" t="s">
         <v>3</v>
@@ -13194,10 +13191,10 @@
     </row>
     <row r="48" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C48" s="22">
         <v>86</v>
@@ -13206,10 +13203,10 @@
         <v>19</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G48" s="22">
         <v>10</v>
@@ -13218,58 +13215,58 @@
         <v>10</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J48" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K48" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L48" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M48" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N48" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O48" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q48" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R48" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="S48" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="S48" s="8" t="s">
-        <v>179</v>
-      </c>
       <c r="T48" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U48" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V48" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W48" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X48" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y48" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z48" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA48" s="17" t="s">
         <v>3</v>
@@ -13414,10 +13411,10 @@
     </row>
     <row r="49" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C49" s="22">
         <v>87</v>
@@ -13426,10 +13423,10 @@
         <v>13</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G49" s="22">
         <v>1</v>
@@ -13438,58 +13435,58 @@
         <v>1</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K49" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L49" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M49" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O49" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q49" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R49" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="S49" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="S49" s="8" t="s">
-        <v>221</v>
-      </c>
       <c r="T49" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U49" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V49" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W49" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X49" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Y49" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z49" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA49" s="17" t="s">
         <v>3</v>
@@ -13634,10 +13631,10 @@
     </row>
     <row r="50" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C50" s="22">
         <v>88</v>
@@ -13646,10 +13643,10 @@
         <v>13</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G50" s="22">
         <v>1</v>
@@ -13658,13 +13655,13 @@
         <v>1</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K50" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L50" s="12" t="s">
         <v>20</v>
@@ -13673,43 +13670,43 @@
         <v>20</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O50" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q50" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R50" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="S50" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="T50" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U50" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="V50" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="W50" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="S50" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="T50" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="U50" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="V50" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="W50" s="17" t="s">
-        <v>255</v>
-      </c>
       <c r="X50" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Y50" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z50" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA50" s="17" t="s">
         <v>3</v>
@@ -13854,10 +13851,10 @@
     </row>
     <row r="51" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C51" s="22">
         <v>92</v>
@@ -13866,10 +13863,10 @@
         <v>13</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G51" s="24">
         <v>1</v>
@@ -13878,13 +13875,13 @@
         <v>1</v>
       </c>
       <c r="I51" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K51" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L51" s="12" t="s">
         <v>20</v>
@@ -13893,43 +13890,43 @@
         <v>20</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O51" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q51" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R51" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S51" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T51" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U51" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V51" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W51" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X51" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y51" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z51" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA51" s="17" t="s">
         <v>3</v>
@@ -14074,10 +14071,10 @@
     </row>
     <row r="52" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C52" s="22">
         <v>100</v>
@@ -14086,10 +14083,10 @@
         <v>13</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G52" s="22">
         <v>1</v>
@@ -14098,13 +14095,13 @@
         <v>1</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K52" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L52" s="12" t="s">
         <v>20</v>
@@ -14113,41 +14110,41 @@
         <v>20</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O52" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q52" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R52" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S52" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T52" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U52" s="7"/>
       <c r="V52" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W52" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X52" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Y52" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z52" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA52" s="17" t="s">
         <v>3</v>
@@ -14292,10 +14289,10 @@
     </row>
     <row r="53" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C53" s="22">
         <v>160</v>
@@ -14307,7 +14304,7 @@
         <v>38</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G53" s="22">
         <v>1</v>
@@ -14316,55 +14313,55 @@
         <v>1</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J53" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L53" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N53" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q53" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R53" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S53" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T53" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V53" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="W53" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="W53" s="17" t="s">
-        <v>196</v>
-      </c>
       <c r="X53" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Y53" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z53" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA53" s="17" t="s">
         <v>3</v>
@@ -14509,10 +14506,10 @@
     </row>
     <row r="54" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C54" s="22">
         <v>162</v>
@@ -14521,10 +14518,10 @@
         <v>13</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G54" s="24">
         <v>1</v>
@@ -14533,56 +14530,56 @@
         <v>1</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J54" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L54" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N54" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q54" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R54" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S54" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T54" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U54" s="7"/>
       <c r="V54" s="22">
         <v>27377618</v>
       </c>
       <c r="W54" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="X54" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y54" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z54" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA54" s="17" t="s">
         <v>3</v>
@@ -14727,10 +14724,10 @@
     </row>
     <row r="55" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C55" s="22">
         <v>163</v>
@@ -14739,10 +14736,10 @@
         <v>13</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G55" s="24">
         <v>1</v>
@@ -14751,56 +14748,56 @@
         <v>1</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J55" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L55" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N55" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q55" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R55" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S55" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T55" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U55" s="7"/>
       <c r="V55" s="22">
         <v>27377618</v>
       </c>
       <c r="W55" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="X55" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Y55" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z55" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA55" s="17" t="s">
         <v>3</v>
@@ -14945,10 +14942,10 @@
     </row>
     <row r="56" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C56" s="22">
         <v>164</v>
@@ -14957,10 +14954,10 @@
         <v>13</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G56" s="24">
         <v>1</v>
@@ -14969,56 +14966,56 @@
         <v>1</v>
       </c>
       <c r="I56" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J56" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L56" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N56" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q56" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R56" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S56" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T56" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U56" s="7"/>
       <c r="V56" s="22">
         <v>27377618</v>
       </c>
       <c r="W56" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="X56" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Y56" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z56" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA56" s="17" t="s">
         <v>3</v>
@@ -15163,10 +15160,10 @@
     </row>
     <row r="57" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A57" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C57" s="22">
         <v>174</v>
@@ -15175,10 +15172,10 @@
         <v>13</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G57" s="24">
         <v>1</v>
@@ -15187,58 +15184,58 @@
         <v>1</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K57" s="32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L57" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M57" s="32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O57" s="32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q57" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R57" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="S57" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="S57" s="8" t="s">
-        <v>158</v>
-      </c>
       <c r="T57" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U57" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V57" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W57" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X57" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y57" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z57" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA57" s="17" t="s">
         <v>3</v>
@@ -15383,10 +15380,10 @@
     </row>
     <row r="58" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C58" s="22">
         <v>175</v>
@@ -15395,68 +15392,68 @@
         <v>13</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I58" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q58" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R58" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S58" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T58" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U58" s="7"/>
       <c r="V58" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W58" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="X58" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Y58" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z58" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA58" s="17" t="s">
         <v>3</v>
@@ -15601,10 +15598,10 @@
     </row>
     <row r="59" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A59" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C59" s="22">
         <v>176</v>
@@ -15613,68 +15610,68 @@
         <v>13</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I59" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q59" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R59" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S59" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T59" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U59" s="7"/>
       <c r="V59" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W59" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X59" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Y59" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z59" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA59" s="17" t="s">
         <v>3</v>
@@ -15819,10 +15816,10 @@
     </row>
     <row r="60" spans="1:164" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C60" s="22">
         <v>180</v>
@@ -15831,10 +15828,10 @@
         <v>13</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G60" s="24">
         <v>2</v>
@@ -15843,58 +15840,58 @@
         <v>2</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q60" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R60" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="S60" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="S60" s="8" t="s">
-        <v>168</v>
-      </c>
       <c r="T60" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U60" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V60" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W60" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X60" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y60" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z60" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA60" s="17" t="s">
         <v>3</v>
@@ -16039,10 +16036,10 @@
     </row>
     <row r="61" spans="1:164" s="23" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C61" s="22">
         <v>187</v>
@@ -16051,10 +16048,10 @@
         <v>13</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G61" s="22">
         <v>1</v>
@@ -16063,19 +16060,19 @@
         <v>1</v>
       </c>
       <c r="I61" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L61" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N61" s="12" t="s">
         <v>20</v>
@@ -16084,37 +16081,37 @@
         <v>20</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q61" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R61" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="S61" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="S61" s="8" t="s">
-        <v>214</v>
-      </c>
       <c r="T61" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U61" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V61" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W61" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X61" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y61" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z61" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA61" s="17" t="s">
         <v>3</v>
@@ -16259,10 +16256,10 @@
     </row>
     <row r="62" spans="1:164" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C62" s="22">
         <v>190</v>
@@ -16274,7 +16271,7 @@
         <v>38</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G62" s="22">
         <v>1</v>
@@ -16283,56 +16280,56 @@
         <v>1</v>
       </c>
       <c r="I62" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q62" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R62" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="S62" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="S62" s="8" t="s">
-        <v>224</v>
-      </c>
       <c r="T62" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U62" s="6"/>
       <c r="V62" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W62" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X62" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y62" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z62" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA62" s="17" t="s">
         <v>3</v>
@@ -16477,10 +16474,10 @@
     </row>
     <row r="63" spans="1:164" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C63" s="22">
         <v>191</v>
@@ -16492,65 +16489,65 @@
         <v>38</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I63" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q63" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R63" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S63" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="S63" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="T63" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U63" s="6"/>
       <c r="V63" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W63" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X63" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y63" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z63" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA63" s="17" t="s">
         <v>3</v>
@@ -16695,10 +16692,10 @@
     </row>
     <row r="64" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C64" s="22">
         <v>192</v>
@@ -16710,64 +16707,64 @@
         <v>38</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I64" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q64" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R64" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S64" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T64" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V64" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W64" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X64" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y64" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z64" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA64" s="17" t="s">
         <v>3</v>
@@ -16912,10 +16909,10 @@
     </row>
     <row r="65" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A65" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65" s="22">
         <v>197</v>
@@ -16924,10 +16921,10 @@
         <v>13</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G65" s="26">
         <v>1</v>
@@ -16936,19 +16933,19 @@
         <v>1</v>
       </c>
       <c r="I65" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J65" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="K65" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="J65" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="K65" s="35" t="s">
-        <v>78</v>
-      </c>
       <c r="L65" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M65" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N65" s="12" t="s">
         <v>20</v>
@@ -16957,35 +16954,35 @@
         <v>20</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q65" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R65" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="S65" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="S65" s="8" t="s">
-        <v>290</v>
-      </c>
       <c r="T65" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U65" s="6"/>
       <c r="V65" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W65" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X65" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y65" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z65" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA65" s="17" t="s">
         <v>3</v>
@@ -17130,10 +17127,10 @@
     </row>
     <row r="66" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A66" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="22">
         <v>199</v>
@@ -17142,10 +17139,10 @@
         <v>13</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G66" s="26">
         <v>1</v>
@@ -17154,19 +17151,19 @@
         <v>1</v>
       </c>
       <c r="I66" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J66" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="K66" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="J66" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="K66" s="35" t="s">
-        <v>78</v>
-      </c>
       <c r="L66" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M66" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N66" s="12" t="s">
         <v>20</v>
@@ -17175,35 +17172,35 @@
         <v>20</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q66" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R66" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="S66" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="S66" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="T66" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U66" s="6"/>
       <c r="V66" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W66" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X66" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y66" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z66" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA66" s="17" t="s">
         <v>3</v>
@@ -17348,10 +17345,10 @@
     </row>
     <row r="67" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A67" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C67" s="22">
         <v>201</v>
@@ -17360,10 +17357,10 @@
         <v>13</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G67" s="24">
         <v>1</v>
@@ -17372,58 +17369,58 @@
         <v>1</v>
       </c>
       <c r="I67" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q67" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R67" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="S67" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="S67" s="8" t="s">
+      <c r="T67" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U67" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="V67" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="W67" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="T67" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="U67" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="V67" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="W67" s="17" t="s">
-        <v>163</v>
-      </c>
       <c r="X67" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y67" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z67" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA67" s="17" t="s">
         <v>3</v>
@@ -17568,10 +17565,10 @@
     </row>
     <row r="68" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A68" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C68" s="22">
         <v>202</v>
@@ -17580,10 +17577,10 @@
         <v>13</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G68" s="24">
         <v>1</v>
@@ -17592,58 +17589,58 @@
         <v>1</v>
       </c>
       <c r="I68" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q68" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R68" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="S68" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="S68" s="8" t="s">
-        <v>162</v>
-      </c>
       <c r="T68" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U68" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V68" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W68" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X68" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Y68" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z68" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA68" s="17" t="s">
         <v>3</v>
@@ -17788,10 +17785,10 @@
     </row>
     <row r="69" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C69" s="22">
         <v>203</v>
@@ -17800,10 +17797,10 @@
         <v>13</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G69" s="24">
         <v>1</v>
@@ -17812,19 +17809,19 @@
         <v>1</v>
       </c>
       <c r="I69" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N69" s="12" t="s">
         <v>20</v>
@@ -17833,37 +17830,37 @@
         <v>20</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q69" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R69" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S69" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T69" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U69" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V69" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W69" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X69" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y69" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z69" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA69" s="17" t="s">
         <v>3</v>
@@ -18008,10 +18005,10 @@
     </row>
     <row r="70" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" s="22">
         <v>221</v>
@@ -18020,10 +18017,10 @@
         <v>13</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G70" s="24">
         <v>1</v>
@@ -18032,19 +18029,19 @@
         <v>1</v>
       </c>
       <c r="I70" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L70" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M70" s="16" t="s">
         <v>121</v>
-      </c>
-      <c r="M70" s="16" t="s">
-        <v>122</v>
       </c>
       <c r="N70" s="12" t="s">
         <v>20</v>
@@ -18053,37 +18050,37 @@
         <v>20</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q70" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R70" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S70" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T70" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U70" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V70" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W70" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X70" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y70" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z70" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA70" s="17" t="s">
         <v>3</v>
@@ -18228,10 +18225,10 @@
     </row>
     <row r="71" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C71" s="22">
         <v>365</v>
@@ -18240,10 +18237,10 @@
         <v>12</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G71" s="22">
         <v>7</v>
@@ -18252,19 +18249,19 @@
         <v>7</v>
       </c>
       <c r="I71" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N71" s="12" t="s">
         <v>20</v>
@@ -18273,37 +18270,37 @@
         <v>20</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q71" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R71" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S71" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T71" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U71" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V71" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W71" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X71" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y71" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z71" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA71" s="17" t="s">
         <v>3</v>
@@ -18311,10 +18308,10 @@
     </row>
     <row r="72" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C72" s="22">
         <v>366</v>
@@ -18323,10 +18320,10 @@
         <v>12</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G72" s="22">
         <v>20</v>
@@ -18335,19 +18332,19 @@
         <v>20</v>
       </c>
       <c r="I72" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N72" s="12" t="s">
         <v>20</v>
@@ -18356,37 +18353,37 @@
         <v>20</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q72" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R72" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S72" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T72" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U72" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V72" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W72" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X72" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y72" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z72" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA72" s="17" t="s">
         <v>3</v>
@@ -18531,10 +18528,10 @@
     </row>
     <row r="73" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A73" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C73" s="22">
         <v>367</v>
@@ -18543,66 +18540,66 @@
         <v>19</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I73" s="22"/>
       <c r="J73" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q73" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R73" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="S73" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="S73" s="8" t="s">
-        <v>282</v>
-      </c>
       <c r="T73" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U73" s="6"/>
       <c r="V73" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W73" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X73" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Y73" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z73" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA73" s="17" t="s">
         <v>3</v>
@@ -18747,10 +18744,10 @@
     </row>
     <row r="74" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C74" s="22">
         <v>369</v>
@@ -18759,66 +18756,66 @@
         <v>13</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I74" s="22"/>
       <c r="J74" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q74" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R74" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S74" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T74" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U74" s="6"/>
       <c r="V74" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W74" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="X74" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y74" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z74" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA74" s="17" t="s">
         <v>3</v>
@@ -18963,10 +18960,10 @@
     </row>
     <row r="75" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A75" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C75" s="22">
         <v>370</v>
@@ -18975,10 +18972,10 @@
         <v>13</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G75" s="24">
         <v>1</v>
@@ -18987,19 +18984,19 @@
         <v>1</v>
       </c>
       <c r="I75" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L75" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N75" s="12" t="s">
         <v>20</v>
@@ -19008,35 +19005,35 @@
         <v>20</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q75" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R75" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="S75" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="S75" s="8" t="s">
-        <v>280</v>
-      </c>
       <c r="T75" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U75" s="6"/>
       <c r="V75" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W75" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X75" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y75" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z75" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA75" s="17" t="s">
         <v>3</v>
@@ -19181,10 +19178,10 @@
     </row>
     <row r="76" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A76" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C76" s="22">
         <v>371</v>
@@ -19193,29 +19190,29 @@
         <v>13</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I76" s="22"/>
       <c r="J76" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N76" s="12" t="s">
         <v>20</v>
@@ -19224,35 +19221,35 @@
         <v>20</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q76" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R76" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="S76" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="S76" s="8" t="s">
-        <v>285</v>
-      </c>
       <c r="T76" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U76" s="6"/>
       <c r="V76" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W76" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X76" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Y76" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z76" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA76" s="17" t="s">
         <v>3</v>
@@ -19397,10 +19394,10 @@
     </row>
     <row r="77" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A77" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C77" s="22">
         <v>372</v>
@@ -19409,68 +19406,68 @@
         <v>13</v>
       </c>
       <c r="E77" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G77" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H77" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="I77" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q77" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="R77" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="F77" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="G77" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="H77" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="I77" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M77" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N77" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O77" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P77" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q77" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="R77" s="8" t="s">
+      <c r="S77" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="S77" s="8" t="s">
-        <v>239</v>
-      </c>
       <c r="T77" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U77" s="6"/>
       <c r="V77" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W77" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="X77" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y77" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z77" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA77" s="17" t="s">
         <v>3</v>
@@ -21441,10 +21438,10 @@
   <sheetData>
     <row r="1" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C1" s="22">
         <v>53</v>
@@ -21453,10 +21450,10 @@
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G1" s="24">
         <v>1</v>
@@ -21465,19 +21462,19 @@
         <v>1</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>20</v>
@@ -21486,35 +21483,35 @@
         <v>20</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U1" s="7"/>
       <c r="V1" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W1" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X1" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Y1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA1" s="17" t="s">
         <v>3</v>

--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419ABA75-45CE-5444-A20D-42F20BE04A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CFD1F6-1B4C-A248-834D-B5F8401A94B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="1340" windowWidth="36660" windowHeight="26080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="290">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -880,9 +880,6 @@
   </si>
   <si>
     <t>SLC6A15</t>
-  </si>
-  <si>
-    <t>Chiroptera</t>
   </si>
   <si>
     <t>PDE3A</t>
@@ -3422,10 +3419,10 @@
   <dimension ref="A1:FH92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="A1:AA77"/>
+      <selection pane="bottomRight" activeCell="O57" sqref="A1:AA77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3571,19 +3568,19 @@
         <v>171</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N2" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>40</v>
@@ -12588,10 +12585,10 @@
         <v>107</v>
       </c>
       <c r="R45" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="S45" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="S45" s="8" t="s">
-        <v>286</v>
       </c>
       <c r="T45" s="7" t="s">
         <v>40</v>
@@ -13024,10 +13021,10 @@
         <v>107</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S47" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="T47" s="7" t="s">
         <v>40</v>
@@ -14316,19 +14313,19 @@
         <v>171</v>
       </c>
       <c r="J53" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L53" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M53" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N53" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O53" s="3" t="s">
         <v>40</v>
@@ -14533,19 +14530,19 @@
         <v>171</v>
       </c>
       <c r="J54" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L54" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N54" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>40</v>
@@ -14751,19 +14748,19 @@
         <v>171</v>
       </c>
       <c r="J55" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L55" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M55" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N55" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O55" s="3" t="s">
         <v>40</v>
@@ -14969,19 +14966,19 @@
         <v>171</v>
       </c>
       <c r="J56" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L56" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N56" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>40</v>
@@ -15189,20 +15186,20 @@
       <c r="J57" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="K57" s="32" t="s">
-        <v>282</v>
+      <c r="K57" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="L57" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="M57" s="32" t="s">
-        <v>282</v>
+      <c r="M57" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="N57" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="O57" s="32" t="s">
-        <v>282</v>
+      <c r="O57" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>76</v>
@@ -16960,10 +16957,10 @@
         <v>107</v>
       </c>
       <c r="R65" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="S65" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="S65" s="8" t="s">
-        <v>289</v>
       </c>
       <c r="T65" s="7" t="s">
         <v>40</v>
@@ -19227,10 +19224,10 @@
         <v>107</v>
       </c>
       <c r="R76" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="S76" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="S76" s="8" t="s">
-        <v>284</v>
       </c>
       <c r="T76" s="7" t="s">
         <v>40</v>

--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvovirus-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CFD1F6-1B4C-A248-834D-B5F8401A94B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7999D2AB-D686-5F4F-B27C-7BB6BFC75D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="1340" windowWidth="36660" windowHeight="26080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3419,10 +3419,10 @@
   <dimension ref="A1:FH92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O57" sqref="A1:AA77"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvovirus-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7999D2AB-D686-5F4F-B27C-7BB6BFC75D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F008E25-1D10-074E-B594-DA1E4D73EE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="1340" windowWidth="36660" windowHeight="26080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3419,10 +3419,10 @@
   <dimension ref="A1:FH92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13:S13"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10507"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvovirus-GLUE/tabular/eve/parvovirinae/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F008E25-1D10-074E-B594-DA1E4D73EE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84B1E93-03C9-4749-B76E-519501959AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="1340" windowWidth="36660" windowHeight="26080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="290">
-  <si>
-    <t>virus_subfamily</t>
-  </si>
-  <si>
-    <t>virus_genus</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="285">
   <si>
     <t>Parvovirinae</t>
   </si>
@@ -126,12 +120,6 @@
     <t>LOC101927213</t>
   </si>
   <si>
-    <t>human_chr</t>
-  </si>
-  <si>
-    <t>ch2</t>
-  </si>
-  <si>
     <t>HUNK</t>
   </si>
   <si>
@@ -400,9 +388,6 @@
   </si>
   <si>
     <t>Sauria</t>
-  </si>
-  <si>
-    <t>source_name</t>
   </si>
   <si>
     <t>Dependo_B</t>
@@ -3416,13 +3401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DACFF6-840F-D741-97EA-4F87EFFABC86}">
-  <dimension ref="A1:FH92"/>
+  <dimension ref="A1:FD92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3446,117 +3431,101 @@
     <col min="17" max="17" width="16" style="4" customWidth="1"/>
     <col min="18" max="18" width="34.6640625" customWidth="1"/>
     <col min="19" max="19" width="25.5" customWidth="1"/>
-    <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="21" max="21" width="22.1640625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="17.5" style="4" customWidth="1"/>
-    <col min="23" max="23" width="26.5" customWidth="1"/>
-    <col min="24" max="24" width="32" customWidth="1"/>
-    <col min="25" max="25" width="17.6640625" customWidth="1"/>
-    <col min="26" max="26" width="27.33203125" customWidth="1"/>
-    <col min="27" max="27" width="21.83203125" customWidth="1"/>
+    <col min="20" max="20" width="22.1640625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="17.5" style="4" customWidth="1"/>
+    <col min="22" max="22" width="26.5" customWidth="1"/>
+    <col min="23" max="23" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>24</v>
+      <c r="V1" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C2" s="22">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G2" s="24">
         <v>1</v>
@@ -3565,79 +3534,67 @@
         <v>1</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N2" s="37" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="22">
+        <v>36</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="22">
         <v>27377618</v>
       </c>
+      <c r="V2" s="17" t="s">
+        <v>2</v>
+      </c>
       <c r="W2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="Z2" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA2" s="17" t="s">
+    </row>
+    <row r="3" spans="1:160" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:164" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>5</v>
-      </c>
       <c r="B3" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C3" s="22">
         <v>1</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G3" s="22">
         <v>23</v>
@@ -3646,81 +3603,69 @@
         <v>24</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N3" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q3" s="29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="U3" s="6">
+      <c r="T3" s="6">
         <v>62</v>
       </c>
-      <c r="V3" s="22">
+      <c r="U3" s="22">
         <v>32913662</v>
       </c>
+      <c r="V3" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="W3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="X3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA3" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C4" s="22">
         <v>2</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G4" s="22">
         <v>9</v>
@@ -3729,79 +3674,67 @@
         <v>9</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U4" s="6"/>
-      <c r="V4" s="22">
+        <v>58</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="22">
         <v>32913662</v>
       </c>
+      <c r="V4" s="17" t="s">
+        <v>176</v>
+      </c>
       <c r="W4" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="X4" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA4" s="17" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C5" s="22">
         <v>3</v>
       </c>
       <c r="D5" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" s="17" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G5" s="22">
         <v>3</v>
@@ -3810,62 +3743,54 @@
         <v>3</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J5" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="P5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L5" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>106</v>
-      </c>
       <c r="R5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" s="6">
         <v>51</v>
       </c>
-      <c r="S5" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U5" s="6">
-        <v>51</v>
-      </c>
-      <c r="V5" s="22">
+      <c r="U5" s="22">
         <v>32913662</v>
       </c>
+      <c r="V5" s="17" t="s">
+        <v>5</v>
+      </c>
       <c r="W5" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="X5" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA5" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
       <c r="AB5" s="21"/>
       <c r="AC5" s="21"/>
       <c r="AD5" s="21"/>
@@ -3999,29 +3924,25 @@
       <c r="FB5" s="21"/>
       <c r="FC5" s="21"/>
       <c r="FD5" s="21"/>
-      <c r="FE5" s="21"/>
-      <c r="FF5" s="21"/>
-      <c r="FG5" s="21"/>
-      <c r="FH5" s="21"/>
     </row>
-    <row r="6" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C6" s="22">
         <v>4</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G6" s="24">
         <v>4</v>
@@ -4030,62 +3951,54 @@
         <v>4</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U6" s="7">
+        <v>27</v>
+      </c>
+      <c r="T6" s="7">
         <v>27.9</v>
       </c>
-      <c r="V6" s="7" t="s">
-        <v>194</v>
+      <c r="U6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V6" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="W6" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="X6" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA6" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
       <c r="AB6" s="21"/>
       <c r="AC6" s="21"/>
       <c r="AD6" s="21"/>
@@ -4219,29 +4132,25 @@
       <c r="FB6" s="21"/>
       <c r="FC6" s="21"/>
       <c r="FD6" s="21"/>
-      <c r="FE6" s="21"/>
-      <c r="FF6" s="21"/>
-      <c r="FG6" s="21"/>
-      <c r="FH6" s="21"/>
     </row>
-    <row r="7" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C7" s="22">
         <v>5</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G7" s="24">
         <v>4</v>
@@ -4250,62 +4159,54 @@
         <v>4</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J7" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="K7" s="18" t="s">
-        <v>123</v>
-      </c>
       <c r="L7" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N7" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O7" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="O7" s="18" t="s">
-        <v>123</v>
-      </c>
       <c r="P7" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U7" s="7">
+        <v>56</v>
+      </c>
+      <c r="T7" s="7">
         <v>27.9</v>
       </c>
-      <c r="V7" s="7" t="s">
-        <v>194</v>
+      <c r="U7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V7" s="17" t="s">
+        <v>96</v>
       </c>
       <c r="W7" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="X7" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA7" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
       <c r="AB7" s="21"/>
       <c r="AC7" s="21"/>
       <c r="AD7" s="21"/>
@@ -4439,29 +4340,25 @@
       <c r="FB7" s="21"/>
       <c r="FC7" s="21"/>
       <c r="FD7" s="21"/>
-      <c r="FE7" s="21"/>
-      <c r="FF7" s="21"/>
-      <c r="FG7" s="21"/>
-      <c r="FH7" s="21"/>
     </row>
-    <row r="8" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C8" s="22">
         <v>6</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G8" s="22">
         <v>1</v>
@@ -4470,60 +4367,52 @@
         <v>1</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M8" s="32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U8" s="6"/>
-      <c r="V8" s="7" t="s">
-        <v>194</v>
+        <v>60</v>
+      </c>
+      <c r="T8" s="6"/>
+      <c r="U8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V8" s="17" t="s">
+        <v>269</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="X8" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y8" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA8" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
       <c r="AB8" s="21"/>
       <c r="AC8" s="21"/>
       <c r="AD8" s="21"/>
@@ -4657,29 +4546,25 @@
       <c r="FB8" s="21"/>
       <c r="FC8" s="21"/>
       <c r="FD8" s="21"/>
-      <c r="FE8" s="21"/>
-      <c r="FF8" s="21"/>
-      <c r="FG8" s="21"/>
-      <c r="FH8" s="21"/>
     </row>
-    <row r="9" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C9" s="22">
         <v>8</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G9" s="22">
         <v>1</v>
@@ -4688,60 +4573,52 @@
         <v>1</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J9" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="K9" s="18" t="s">
-        <v>123</v>
-      </c>
       <c r="L9" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N9" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O9" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="O9" s="18" t="s">
-        <v>123</v>
-      </c>
       <c r="P9" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U9" s="6"/>
-      <c r="V9" s="7" t="s">
-        <v>194</v>
+        <v>38</v>
+      </c>
+      <c r="T9" s="6"/>
+      <c r="U9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V9" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="W9" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="X9" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y9" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA9" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
       <c r="AB9" s="21"/>
       <c r="AC9" s="21"/>
       <c r="AD9" s="21"/>
@@ -4875,29 +4752,25 @@
       <c r="FB9" s="21"/>
       <c r="FC9" s="21"/>
       <c r="FD9" s="21"/>
-      <c r="FE9" s="21"/>
-      <c r="FF9" s="21"/>
-      <c r="FG9" s="21"/>
-      <c r="FH9" s="21"/>
     </row>
-    <row r="10" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C10" s="22">
         <v>9</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G10" s="22">
         <v>2</v>
@@ -4906,60 +4779,52 @@
         <v>2</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U10" s="6"/>
-      <c r="V10" s="7" t="s">
-        <v>194</v>
+        <v>36</v>
+      </c>
+      <c r="T10" s="6"/>
+      <c r="U10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V10" s="17" t="s">
+        <v>191</v>
       </c>
       <c r="W10" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="X10" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y10" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z10" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA10" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
       <c r="AB10" s="21"/>
       <c r="AC10" s="21"/>
       <c r="AD10" s="21"/>
@@ -5093,29 +4958,25 @@
       <c r="FB10" s="21"/>
       <c r="FC10" s="21"/>
       <c r="FD10" s="21"/>
-      <c r="FE10" s="21"/>
-      <c r="FF10" s="21"/>
-      <c r="FG10" s="21"/>
-      <c r="FH10" s="21"/>
     </row>
-    <row r="11" spans="1:164" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:160" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C11" s="22">
         <v>10</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G11" s="24">
         <v>1</v>
@@ -5124,60 +4985,52 @@
         <v>1</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U11" s="6"/>
-      <c r="V11" s="7" t="s">
-        <v>194</v>
+        <v>43</v>
+      </c>
+      <c r="T11" s="6"/>
+      <c r="U11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V11" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="W11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="X11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y11" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z11" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA11" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
       <c r="AB11" s="21"/>
       <c r="AC11" s="21"/>
       <c r="AD11" s="21"/>
@@ -5311,29 +5164,25 @@
       <c r="FB11" s="21"/>
       <c r="FC11" s="21"/>
       <c r="FD11" s="21"/>
-      <c r="FE11" s="21"/>
-      <c r="FF11" s="21"/>
-      <c r="FG11" s="21"/>
-      <c r="FH11" s="21"/>
     </row>
-    <row r="12" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C12" s="22">
         <v>11</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G12" s="24">
         <v>3</v>
@@ -5342,60 +5191,52 @@
         <v>3</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U12" s="6"/>
-      <c r="V12" s="7" t="s">
-        <v>194</v>
+        <v>36</v>
+      </c>
+      <c r="T12" s="6"/>
+      <c r="U12" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V12" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="W12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="X12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y12" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z12" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA12" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
       <c r="AB12" s="21"/>
       <c r="AC12" s="21"/>
       <c r="AD12" s="21"/>
@@ -5529,29 +5370,25 @@
       <c r="FB12" s="21"/>
       <c r="FC12" s="21"/>
       <c r="FD12" s="21"/>
-      <c r="FE12" s="21"/>
-      <c r="FF12" s="21"/>
-      <c r="FG12" s="21"/>
-      <c r="FH12" s="21"/>
     </row>
-    <row r="13" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C13" s="22">
         <v>12</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G13" s="22">
         <v>1</v>
@@ -5560,60 +5397,52 @@
         <v>1</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J13" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="P13" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U13" s="6"/>
-      <c r="V13" s="7" t="s">
-        <v>194</v>
+        <v>36</v>
+      </c>
+      <c r="T13" s="6"/>
+      <c r="U13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V13" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="W13" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="X13" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y13" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA13" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
       <c r="AB13" s="21"/>
       <c r="AC13" s="21"/>
       <c r="AD13" s="21"/>
@@ -5747,29 +5576,25 @@
       <c r="FB13" s="21"/>
       <c r="FC13" s="21"/>
       <c r="FD13" s="21"/>
-      <c r="FE13" s="21"/>
-      <c r="FF13" s="21"/>
-      <c r="FG13" s="21"/>
-      <c r="FH13" s="21"/>
     </row>
-    <row r="14" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C14" s="22">
         <v>13</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G14" s="24">
         <v>3</v>
@@ -5778,62 +5603,54 @@
         <v>3</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M14" s="33" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O14" s="33" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U14" s="7">
+        <v>29</v>
+      </c>
+      <c r="T14" s="7">
         <v>19.399999999999999</v>
       </c>
-      <c r="V14" s="7" t="s">
-        <v>194</v>
+      <c r="U14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V14" s="17" t="s">
+        <v>6</v>
       </c>
       <c r="W14" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="X14" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z14" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA14" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
       <c r="AB14" s="21"/>
       <c r="AC14" s="21"/>
       <c r="AD14" s="21"/>
@@ -5967,29 +5784,25 @@
       <c r="FB14" s="21"/>
       <c r="FC14" s="21"/>
       <c r="FD14" s="21"/>
-      <c r="FE14" s="21"/>
-      <c r="FF14" s="21"/>
-      <c r="FG14" s="21"/>
-      <c r="FH14" s="21"/>
     </row>
-    <row r="15" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C15" s="22">
         <v>14</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G15" s="24">
         <v>5</v>
@@ -5998,62 +5811,54 @@
         <v>5</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M15" s="33" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U15" s="7">
+        <v>30</v>
+      </c>
+      <c r="T15" s="7">
         <v>19.399999999999999</v>
       </c>
-      <c r="V15" s="7" t="s">
-        <v>194</v>
+      <c r="U15" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V15" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="W15" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="X15" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y15" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z15" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA15" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
       <c r="AB15" s="21"/>
       <c r="AC15" s="21"/>
       <c r="AD15" s="21"/>
@@ -6187,29 +5992,25 @@
       <c r="FB15" s="21"/>
       <c r="FC15" s="21"/>
       <c r="FD15" s="21"/>
-      <c r="FE15" s="21"/>
-      <c r="FF15" s="21"/>
-      <c r="FG15" s="21"/>
-      <c r="FH15" s="21"/>
     </row>
-    <row r="16" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C16" s="22">
         <v>15</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G16" s="24">
         <v>1</v>
@@ -6218,62 +6019,54 @@
         <v>1</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K16" s="33" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M16" s="33" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="T16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U16" s="7">
+        <v>31</v>
+      </c>
+      <c r="T16" s="7">
         <v>19.399999999999999</v>
       </c>
-      <c r="V16" s="7" t="s">
-        <v>194</v>
+      <c r="U16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V16" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="X16" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y16" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z16" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA16" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
       <c r="AB16" s="21"/>
       <c r="AC16" s="21"/>
       <c r="AD16" s="21"/>
@@ -6407,29 +6200,25 @@
       <c r="FB16" s="21"/>
       <c r="FC16" s="21"/>
       <c r="FD16" s="21"/>
-      <c r="FE16" s="21"/>
-      <c r="FF16" s="21"/>
-      <c r="FG16" s="21"/>
-      <c r="FH16" s="21"/>
     </row>
-    <row r="17" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C17" s="22">
         <v>16</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G17" s="24">
         <v>5</v>
@@ -6438,60 +6227,52 @@
         <v>5</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N17" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O17" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7" t="s">
-        <v>194</v>
+        <v>67</v>
+      </c>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V17" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="W17" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="X17" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y17" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z17" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA17" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
       <c r="AB17" s="21"/>
       <c r="AC17" s="21"/>
       <c r="AD17" s="21"/>
@@ -6625,29 +6406,25 @@
       <c r="FB17" s="21"/>
       <c r="FC17" s="21"/>
       <c r="FD17" s="21"/>
-      <c r="FE17" s="21"/>
-      <c r="FF17" s="21"/>
-      <c r="FG17" s="21"/>
-      <c r="FH17" s="21"/>
     </row>
-    <row r="18" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C18" s="22">
         <v>23</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G18" s="24">
         <v>5</v>
@@ -6656,62 +6433,54 @@
         <v>5</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N18" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O18" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q18" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U18" s="7">
+        <v>42</v>
+      </c>
+      <c r="T18" s="7">
         <v>11.7</v>
       </c>
-      <c r="V18" s="22">
+      <c r="U18" s="22">
         <v>26037535</v>
       </c>
+      <c r="V18" s="17" t="s">
+        <v>184</v>
+      </c>
       <c r="W18" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="X18" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y18" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z18" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA18" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
       <c r="AB18" s="21"/>
       <c r="AC18" s="21"/>
       <c r="AD18" s="21"/>
@@ -6845,29 +6614,25 @@
       <c r="FB18" s="21"/>
       <c r="FC18" s="21"/>
       <c r="FD18" s="21"/>
-      <c r="FE18" s="21"/>
-      <c r="FF18" s="21"/>
-      <c r="FG18" s="21"/>
-      <c r="FH18" s="21"/>
     </row>
-    <row r="19" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C19" s="22">
         <v>26</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G19" s="24">
         <v>7</v>
@@ -6876,62 +6641,54 @@
         <v>11</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J19" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N19" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O19" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="S19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U19" s="7">
+        <v>53</v>
+      </c>
+      <c r="T19" s="7">
         <v>55</v>
       </c>
-      <c r="V19" s="22">
+      <c r="U19" s="22">
         <v>15085543</v>
       </c>
+      <c r="V19" s="17" t="s">
+        <v>194</v>
+      </c>
       <c r="W19" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="X19" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y19" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z19" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA19" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
       <c r="AB19" s="21"/>
       <c r="AC19" s="21"/>
       <c r="AD19" s="21"/>
@@ -7065,29 +6822,25 @@
       <c r="FB19" s="21"/>
       <c r="FC19" s="21"/>
       <c r="FD19" s="21"/>
-      <c r="FE19" s="21"/>
-      <c r="FF19" s="21"/>
-      <c r="FG19" s="21"/>
-      <c r="FH19" s="21"/>
     </row>
-    <row r="20" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C20" s="22">
         <v>27</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G20" s="24">
         <v>3</v>
@@ -7096,60 +6849,52 @@
         <v>3</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q20" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7" t="s">
-        <v>194</v>
+        <v>36</v>
+      </c>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V20" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="W20" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X20" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y20" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z20" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA20" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
       <c r="AB20" s="21"/>
       <c r="AC20" s="21"/>
       <c r="AD20" s="21"/>
@@ -7283,29 +7028,25 @@
       <c r="FB20" s="21"/>
       <c r="FC20" s="21"/>
       <c r="FD20" s="21"/>
-      <c r="FE20" s="21"/>
-      <c r="FF20" s="21"/>
-      <c r="FG20" s="21"/>
-      <c r="FH20" s="21"/>
     </row>
-    <row r="21" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C21" s="22">
         <v>28</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G21" s="24">
         <v>1</v>
@@ -7314,60 +7055,52 @@
         <v>2</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L21" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M21" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N21" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O21" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q21" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="T21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
+      </c>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V21" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="W21" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="X21" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y21" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z21" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA21" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
       <c r="AB21" s="21"/>
       <c r="AC21" s="21"/>
       <c r="AD21" s="21"/>
@@ -7501,29 +7234,25 @@
       <c r="FB21" s="21"/>
       <c r="FC21" s="21"/>
       <c r="FD21" s="21"/>
-      <c r="FE21" s="21"/>
-      <c r="FF21" s="21"/>
-      <c r="FG21" s="21"/>
-      <c r="FH21" s="21"/>
     </row>
-    <row r="22" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C22" s="22">
         <v>36</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G22" s="24">
         <v>1</v>
@@ -7532,60 +7261,52 @@
         <v>1</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L22" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M22" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N22" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O22" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="T22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7" t="s">
-        <v>194</v>
+        <v>154</v>
+      </c>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V22" s="17" t="s">
+        <v>265</v>
       </c>
       <c r="W22" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="X22" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y22" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z22" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA22" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
       <c r="AB22" s="21"/>
       <c r="AC22" s="21"/>
       <c r="AD22" s="21"/>
@@ -7719,29 +7440,25 @@
       <c r="FB22" s="21"/>
       <c r="FC22" s="21"/>
       <c r="FD22" s="21"/>
-      <c r="FE22" s="21"/>
-      <c r="FF22" s="21"/>
-      <c r="FG22" s="21"/>
-      <c r="FH22" s="21"/>
     </row>
-    <row r="23" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="22">
         <v>37</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G23" s="22">
         <v>1</v>
@@ -7750,60 +7467,52 @@
         <v>1</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q23" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="T23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
+      </c>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V23" s="17" t="s">
+        <v>177</v>
       </c>
       <c r="W23" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="X23" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y23" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z23" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA23" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
       <c r="AB23" s="21"/>
       <c r="AC23" s="21"/>
       <c r="AD23" s="21"/>
@@ -7937,29 +7646,25 @@
       <c r="FB23" s="21"/>
       <c r="FC23" s="21"/>
       <c r="FD23" s="21"/>
-      <c r="FE23" s="21"/>
-      <c r="FF23" s="21"/>
-      <c r="FG23" s="21"/>
-      <c r="FH23" s="21"/>
     </row>
-    <row r="24" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C24" s="22">
         <v>40</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G24" s="24">
         <v>1</v>
@@ -7968,62 +7673,54 @@
         <v>2</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J24" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L24" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M24" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N24" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O24" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S24" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="T24" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U24" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V24" s="4" t="s">
-        <v>194</v>
+        <v>36</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="V24" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="W24" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="X24" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y24" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z24" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA24" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
       <c r="AB24" s="21"/>
       <c r="AC24" s="21"/>
       <c r="AD24" s="21"/>
@@ -8157,29 +7854,25 @@
       <c r="FB24" s="21"/>
       <c r="FC24" s="21"/>
       <c r="FD24" s="21"/>
-      <c r="FE24" s="21"/>
-      <c r="FF24" s="21"/>
-      <c r="FG24" s="21"/>
-      <c r="FH24" s="21"/>
     </row>
-    <row r="25" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C25" s="22">
         <v>42</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G25" s="22">
         <v>1</v>
@@ -8188,60 +7881,52 @@
         <v>1</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q25" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U25" s="6"/>
-      <c r="V25" s="7" t="s">
-        <v>194</v>
+        <v>36</v>
+      </c>
+      <c r="T25" s="6"/>
+      <c r="U25" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="W25" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="X25" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y25" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z25" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA25" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
       <c r="AB25" s="21"/>
       <c r="AC25" s="21"/>
       <c r="AD25" s="21"/>
@@ -8375,29 +8060,25 @@
       <c r="FB25" s="21"/>
       <c r="FC25" s="21"/>
       <c r="FD25" s="21"/>
-      <c r="FE25" s="21"/>
-      <c r="FF25" s="21"/>
-      <c r="FG25" s="21"/>
-      <c r="FH25" s="21"/>
     </row>
-    <row r="26" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C26" s="22">
         <v>43</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G26" s="22">
         <v>5</v>
@@ -8406,60 +8087,52 @@
         <v>5</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P26" s="15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7" t="s">
-        <v>194</v>
+        <v>36</v>
+      </c>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V26" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="W26" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="X26" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y26" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z26" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA26" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
       <c r="AB26" s="21"/>
       <c r="AC26" s="21"/>
       <c r="AD26" s="21"/>
@@ -8593,29 +8266,25 @@
       <c r="FB26" s="21"/>
       <c r="FC26" s="21"/>
       <c r="FD26" s="21"/>
-      <c r="FE26" s="21"/>
-      <c r="FF26" s="21"/>
-      <c r="FG26" s="21"/>
-      <c r="FH26" s="21"/>
     </row>
-    <row r="27" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C27" s="22">
         <v>44</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G27" s="24">
         <v>2</v>
@@ -8624,62 +8293,54 @@
         <v>2</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q27" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="S27" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="T27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U27" s="7">
+        <v>46</v>
+      </c>
+      <c r="T27" s="7">
         <v>34</v>
       </c>
-      <c r="V27" s="7" t="s">
-        <v>194</v>
+      <c r="U27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V27" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="W27" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="X27" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y27" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z27" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA27" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
       <c r="AB27" s="21"/>
       <c r="AC27" s="21"/>
       <c r="AD27" s="21"/>
@@ -8813,29 +8474,25 @@
       <c r="FB27" s="21"/>
       <c r="FC27" s="21"/>
       <c r="FD27" s="21"/>
-      <c r="FE27" s="21"/>
-      <c r="FF27" s="21"/>
-      <c r="FG27" s="21"/>
-      <c r="FH27" s="21"/>
     </row>
-    <row r="28" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C28" s="22">
         <v>45</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G28" s="24">
         <v>2</v>
@@ -8844,60 +8501,52 @@
         <v>2</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q28" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R28" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="S28" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="T28" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7" t="s">
-        <v>194</v>
+        <v>46</v>
+      </c>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V28" s="17" t="s">
+        <v>179</v>
       </c>
       <c r="W28" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="X28" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z28" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA28" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
       <c r="AB28" s="21"/>
       <c r="AC28" s="21"/>
       <c r="AD28" s="21"/>
@@ -9031,29 +8680,25 @@
       <c r="FB28" s="21"/>
       <c r="FC28" s="21"/>
       <c r="FD28" s="21"/>
-      <c r="FE28" s="21"/>
-      <c r="FF28" s="21"/>
-      <c r="FG28" s="21"/>
-      <c r="FH28" s="21"/>
     </row>
-    <row r="29" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C29" s="22">
         <v>46</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G29" s="22">
         <v>1</v>
@@ -9062,60 +8707,52 @@
         <v>2</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="L29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M29" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="N29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="O29" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="P29" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q29" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R29" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="S29" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="T29" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7" t="s">
-        <v>194</v>
+        <v>57</v>
+      </c>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V29" s="17" t="s">
+        <v>178</v>
       </c>
       <c r="W29" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="X29" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y29" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z29" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA29" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
       <c r="AB29" s="21"/>
       <c r="AC29" s="21"/>
       <c r="AD29" s="21"/>
@@ -9249,29 +8886,25 @@
       <c r="FB29" s="21"/>
       <c r="FC29" s="21"/>
       <c r="FD29" s="21"/>
-      <c r="FE29" s="21"/>
-      <c r="FF29" s="21"/>
-      <c r="FG29" s="21"/>
-      <c r="FH29" s="21"/>
     </row>
-    <row r="30" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C30" s="22">
         <v>47</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G30" s="24">
         <v>1</v>
@@ -9280,62 +8913,54 @@
         <v>1</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q30" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R30" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="S30" s="8" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="T30" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U30" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V30" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="V30" s="17" t="s">
+        <v>219</v>
       </c>
       <c r="W30" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="X30" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z30" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA30" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
       <c r="AB30" s="21"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
@@ -9469,91 +9094,79 @@
       <c r="FB30" s="21"/>
       <c r="FC30" s="21"/>
       <c r="FD30" s="21"/>
-      <c r="FE30" s="21"/>
-      <c r="FF30" s="21"/>
-      <c r="FG30" s="21"/>
-      <c r="FH30" s="21"/>
     </row>
-    <row r="31" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C31" s="22">
         <v>48</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q31" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="S31" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="T31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7" t="s">
-        <v>194</v>
+        <v>57</v>
+      </c>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V31" s="17" t="s">
+        <v>185</v>
       </c>
       <c r="W31" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="X31" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y31" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z31" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA31" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
       <c r="AB31" s="21"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
@@ -9687,29 +9300,25 @@
       <c r="FB31" s="21"/>
       <c r="FC31" s="21"/>
       <c r="FD31" s="21"/>
-      <c r="FE31" s="21"/>
-      <c r="FF31" s="21"/>
-      <c r="FG31" s="21"/>
-      <c r="FH31" s="21"/>
     </row>
-    <row r="32" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C32" s="22">
         <v>49</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G32" s="22">
         <v>1</v>
@@ -9718,60 +9327,52 @@
         <v>1</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q32" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T32" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7" t="s">
-        <v>194</v>
+        <v>36</v>
+      </c>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V32" s="17" t="s">
+        <v>223</v>
       </c>
       <c r="W32" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="X32" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y32" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z32" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA32" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
       <c r="AB32" s="21"/>
       <c r="AC32" s="21"/>
       <c r="AD32" s="21"/>
@@ -9905,91 +9506,79 @@
       <c r="FB32" s="21"/>
       <c r="FC32" s="21"/>
       <c r="FD32" s="21"/>
-      <c r="FE32" s="21"/>
-      <c r="FF32" s="21"/>
-      <c r="FG32" s="21"/>
-      <c r="FH32" s="21"/>
     </row>
-    <row r="33" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C33" s="22">
         <v>50</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q33" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R33" s="8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="S33" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="T33" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7" t="s">
-        <v>194</v>
+        <v>234</v>
+      </c>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V33" s="17" t="s">
+        <v>235</v>
       </c>
       <c r="W33" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="X33" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y33" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z33" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA33" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
       <c r="AB33" s="21"/>
       <c r="AC33" s="21"/>
       <c r="AD33" s="21"/>
@@ -10123,29 +9712,25 @@
       <c r="FB33" s="21"/>
       <c r="FC33" s="21"/>
       <c r="FD33" s="21"/>
-      <c r="FE33" s="21"/>
-      <c r="FF33" s="21"/>
-      <c r="FG33" s="21"/>
-      <c r="FH33" s="21"/>
     </row>
-    <row r="34" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C34" s="22">
         <v>51</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G34" s="22">
         <v>4</v>
@@ -10154,60 +9739,52 @@
         <v>4</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O34" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q34" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R34" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="S34" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="T34" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7" t="s">
-        <v>194</v>
+        <v>160</v>
+      </c>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V34" s="17" t="s">
+        <v>113</v>
       </c>
       <c r="W34" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="X34" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y34" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z34" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA34" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="21"/>
       <c r="AB34" s="21"/>
       <c r="AC34" s="21"/>
       <c r="AD34" s="21"/>
@@ -10341,91 +9918,79 @@
       <c r="FB34" s="21"/>
       <c r="FC34" s="21"/>
       <c r="FD34" s="21"/>
-      <c r="FE34" s="21"/>
-      <c r="FF34" s="21"/>
-      <c r="FG34" s="21"/>
-      <c r="FH34" s="21"/>
     </row>
-    <row r="35" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C35" s="22">
         <v>53</v>
       </c>
       <c r="D35" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K35" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M35" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="N35" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="I35" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="K35" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L35" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="M35" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N35" s="12" t="s">
-        <v>20</v>
-      </c>
       <c r="O35" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q35" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R35" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S35" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T35" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7" t="s">
-        <v>194</v>
+        <v>36</v>
+      </c>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V35" s="17" t="s">
+        <v>272</v>
       </c>
       <c r="W35" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="X35" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y35" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z35" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA35" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21"/>
       <c r="AB35" s="21"/>
       <c r="AC35" s="21"/>
       <c r="AD35" s="21"/>
@@ -10559,29 +10124,25 @@
       <c r="FB35" s="21"/>
       <c r="FC35" s="21"/>
       <c r="FD35" s="21"/>
-      <c r="FE35" s="21"/>
-      <c r="FF35" s="21"/>
-      <c r="FG35" s="21"/>
-      <c r="FH35" s="21"/>
     </row>
-    <row r="36" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C36" s="22">
         <v>54</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G36" s="24">
         <v>3</v>
@@ -10590,60 +10151,52 @@
         <v>3</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q36" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R36" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="S36" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="T36" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7" t="s">
-        <v>194</v>
+        <v>35</v>
+      </c>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V36" s="17" t="s">
+        <v>181</v>
       </c>
       <c r="W36" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="X36" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y36" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z36" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA36" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
       <c r="AB36" s="21"/>
       <c r="AC36" s="21"/>
       <c r="AD36" s="21"/>
@@ -10777,91 +10330,79 @@
       <c r="FB36" s="21"/>
       <c r="FC36" s="21"/>
       <c r="FD36" s="21"/>
-      <c r="FE36" s="21"/>
-      <c r="FF36" s="21"/>
-      <c r="FG36" s="21"/>
-      <c r="FH36" s="21"/>
     </row>
-    <row r="37" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C37" s="22">
         <v>55</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I37" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O37" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q37" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R37" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S37" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="T37" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7" t="s">
-        <v>194</v>
+        <v>89</v>
+      </c>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V37" s="17" t="s">
+        <v>182</v>
       </c>
       <c r="W37" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="X37" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y37" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z37" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA37" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
       <c r="AB37" s="21"/>
       <c r="AC37" s="21"/>
       <c r="AD37" s="21"/>
@@ -10995,29 +10536,25 @@
       <c r="FB37" s="21"/>
       <c r="FC37" s="21"/>
       <c r="FD37" s="21"/>
-      <c r="FE37" s="21"/>
-      <c r="FF37" s="21"/>
-      <c r="FG37" s="21"/>
-      <c r="FH37" s="21"/>
     </row>
-    <row r="38" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C38" s="22">
         <v>56</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G38" s="24">
         <v>3</v>
@@ -11026,59 +10563,51 @@
         <v>3</v>
       </c>
       <c r="I38" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N38" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O38" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q38" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R38" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="S38" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="T38" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V38" s="7" t="s">
-        <v>194</v>
+        <v>50</v>
+      </c>
+      <c r="U38" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V38" s="17" t="s">
+        <v>183</v>
       </c>
       <c r="W38" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="X38" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y38" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z38" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA38" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
       <c r="AB38" s="21"/>
       <c r="AC38" s="21"/>
       <c r="AD38" s="21"/>
@@ -11212,91 +10741,79 @@
       <c r="FB38" s="21"/>
       <c r="FC38" s="21"/>
       <c r="FD38" s="21"/>
-      <c r="FE38" s="21"/>
-      <c r="FF38" s="21"/>
-      <c r="FG38" s="21"/>
-      <c r="FH38" s="21"/>
     </row>
-    <row r="39" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C39" s="22">
         <v>58</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q39" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R39" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S39" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T39" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7" t="s">
-        <v>194</v>
+        <v>36</v>
+      </c>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V39" s="17" t="s">
+        <v>227</v>
       </c>
       <c r="W39" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="X39" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y39" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z39" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA39" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
       <c r="AB39" s="21"/>
       <c r="AC39" s="21"/>
       <c r="AD39" s="21"/>
@@ -11430,90 +10947,78 @@
       <c r="FB39" s="21"/>
       <c r="FC39" s="21"/>
       <c r="FD39" s="21"/>
-      <c r="FE39" s="21"/>
-      <c r="FF39" s="21"/>
-      <c r="FG39" s="21"/>
-      <c r="FH39" s="21"/>
     </row>
-    <row r="40" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C40" s="22">
         <v>59</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q40" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R40" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="S40" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="T40" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V40" s="7" t="s">
-        <v>194</v>
+        <v>212</v>
+      </c>
+      <c r="U40" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V40" s="17" t="s">
+        <v>202</v>
       </c>
       <c r="W40" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="X40" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y40" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z40" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA40" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
       <c r="AB40" s="21"/>
       <c r="AC40" s="21"/>
       <c r="AD40" s="21"/>
@@ -11647,29 +11152,25 @@
       <c r="FB40" s="21"/>
       <c r="FC40" s="21"/>
       <c r="FD40" s="21"/>
-      <c r="FE40" s="21"/>
-      <c r="FF40" s="21"/>
-      <c r="FG40" s="21"/>
-      <c r="FH40" s="21"/>
     </row>
-    <row r="41" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C41" s="22">
         <v>60</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G41" s="26">
         <v>1</v>
@@ -11678,62 +11179,54 @@
         <v>1</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q41" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R41" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S41" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T41" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V41" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="V41" s="17" t="s">
+        <v>236</v>
       </c>
       <c r="W41" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="X41" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y41" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z41" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA41" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
       <c r="AB41" s="21"/>
       <c r="AC41" s="21"/>
       <c r="AD41" s="21"/>
@@ -11867,29 +11360,25 @@
       <c r="FB41" s="21"/>
       <c r="FC41" s="21"/>
       <c r="FD41" s="21"/>
-      <c r="FE41" s="21"/>
-      <c r="FF41" s="21"/>
-      <c r="FG41" s="21"/>
-      <c r="FH41" s="21"/>
     </row>
-    <row r="42" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C42" s="22">
         <v>61</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G42" s="26">
         <v>1</v>
@@ -11898,62 +11387,54 @@
         <v>1</v>
       </c>
       <c r="I42" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q42" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R42" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S42" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T42" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U42" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V42" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="V42" s="17" t="s">
+        <v>239</v>
       </c>
       <c r="W42" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="X42" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y42" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z42" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA42" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="21"/>
+      <c r="AA42" s="21"/>
       <c r="AB42" s="21"/>
       <c r="AC42" s="21"/>
       <c r="AD42" s="21"/>
@@ -12087,29 +11568,25 @@
       <c r="FB42" s="21"/>
       <c r="FC42" s="21"/>
       <c r="FD42" s="21"/>
-      <c r="FE42" s="21"/>
-      <c r="FF42" s="21"/>
-      <c r="FG42" s="21"/>
-      <c r="FH42" s="21"/>
     </row>
-    <row r="43" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C43" s="22">
         <v>62</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G43" s="26">
         <v>1</v>
@@ -12118,62 +11595,54 @@
         <v>1</v>
       </c>
       <c r="I43" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q43" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T43" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U43" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V43" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="V43" s="17" t="s">
+        <v>238</v>
       </c>
       <c r="W43" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="X43" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y43" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z43" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA43" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
       <c r="AB43" s="21"/>
       <c r="AC43" s="21"/>
       <c r="AD43" s="21"/>
@@ -12307,93 +11776,81 @@
       <c r="FB43" s="21"/>
       <c r="FC43" s="21"/>
       <c r="FD43" s="21"/>
-      <c r="FE43" s="21"/>
-      <c r="FF43" s="21"/>
-      <c r="FG43" s="21"/>
-      <c r="FH43" s="21"/>
     </row>
-    <row r="44" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C44" s="22">
         <v>63</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I44" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q44" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="R44" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="S44" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="R44" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="S44" s="8" t="s">
-        <v>176</v>
-      </c>
       <c r="T44" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U44" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V44" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="V44" s="17" t="s">
+        <v>196</v>
       </c>
       <c r="W44" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="X44" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y44" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z44" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA44" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="21"/>
+      <c r="AA44" s="21"/>
       <c r="AB44" s="21"/>
       <c r="AC44" s="21"/>
       <c r="AD44" s="21"/>
@@ -12527,91 +11984,79 @@
       <c r="FB44" s="21"/>
       <c r="FC44" s="21"/>
       <c r="FD44" s="21"/>
-      <c r="FE44" s="21"/>
-      <c r="FF44" s="21"/>
-      <c r="FG44" s="21"/>
-      <c r="FH44" s="21"/>
     </row>
-    <row r="45" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C45" s="22">
         <v>64</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I45" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q45" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R45" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="S45" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="T45" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7" t="s">
-        <v>194</v>
+        <v>280</v>
+      </c>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V45" s="17" t="s">
+        <v>226</v>
       </c>
       <c r="W45" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="X45" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y45" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z45" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA45" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="21"/>
+      <c r="AA45" s="21"/>
       <c r="AB45" s="21"/>
       <c r="AC45" s="21"/>
       <c r="AD45" s="21"/>
@@ -12745,91 +12190,79 @@
       <c r="FB45" s="21"/>
       <c r="FC45" s="21"/>
       <c r="FD45" s="21"/>
-      <c r="FE45" s="21"/>
-      <c r="FF45" s="21"/>
-      <c r="FG45" s="21"/>
-      <c r="FH45" s="21"/>
     </row>
-    <row r="46" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C46" s="22">
         <v>75</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I46" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q46" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R46" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S46" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T46" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7" t="s">
-        <v>194</v>
+        <v>36</v>
+      </c>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V46" s="17" t="s">
+        <v>245</v>
       </c>
       <c r="W46" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="X46" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="Y46" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z46" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA46" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="X46" s="21"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="21"/>
+      <c r="AA46" s="21"/>
       <c r="AB46" s="21"/>
       <c r="AC46" s="21"/>
       <c r="AD46" s="21"/>
@@ -12963,91 +12396,79 @@
       <c r="FB46" s="21"/>
       <c r="FC46" s="21"/>
       <c r="FD46" s="21"/>
-      <c r="FE46" s="21"/>
-      <c r="FF46" s="21"/>
-      <c r="FG46" s="21"/>
-      <c r="FH46" s="21"/>
     </row>
-    <row r="47" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C47" s="22">
         <v>76</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I47" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q47" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="S47" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="T47" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U47" s="7"/>
-      <c r="V47" s="7" t="s">
-        <v>194</v>
+        <v>281</v>
+      </c>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V47" s="17" t="s">
+        <v>235</v>
       </c>
       <c r="W47" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="X47" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y47" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z47" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA47" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="21"/>
+      <c r="AA47" s="21"/>
       <c r="AB47" s="21"/>
       <c r="AC47" s="21"/>
       <c r="AD47" s="21"/>
@@ -13181,29 +12602,25 @@
       <c r="FB47" s="21"/>
       <c r="FC47" s="21"/>
       <c r="FD47" s="21"/>
-      <c r="FE47" s="21"/>
-      <c r="FF47" s="21"/>
-      <c r="FG47" s="21"/>
-      <c r="FH47" s="21"/>
     </row>
-    <row r="48" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C48" s="22">
         <v>86</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G48" s="22">
         <v>10</v>
@@ -13212,62 +12629,54 @@
         <v>10</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J48" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K48" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L48" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M48" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N48" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O48" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q48" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="S48" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="T48" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U48" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V48" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="V48" s="17" t="s">
+        <v>150</v>
       </c>
       <c r="W48" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="X48" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y48" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z48" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA48" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="X48" s="21"/>
+      <c r="Y48" s="21"/>
+      <c r="Z48" s="21"/>
+      <c r="AA48" s="21"/>
       <c r="AB48" s="21"/>
       <c r="AC48" s="21"/>
       <c r="AD48" s="21"/>
@@ -13401,29 +12810,25 @@
       <c r="FB48" s="21"/>
       <c r="FC48" s="21"/>
       <c r="FD48" s="21"/>
-      <c r="FE48" s="21"/>
-      <c r="FF48" s="21"/>
-      <c r="FG48" s="21"/>
-      <c r="FH48" s="21"/>
     </row>
-    <row r="49" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C49" s="22">
         <v>87</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G49" s="22">
         <v>1</v>
@@ -13432,62 +12837,54 @@
         <v>1</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K49" s="32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L49" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M49" s="32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O49" s="32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q49" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R49" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="S49" s="8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="T49" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U49" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V49" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="V49" s="17" t="s">
+        <v>243</v>
       </c>
       <c r="W49" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="X49" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y49" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z49" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA49" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="21"/>
+      <c r="Z49" s="21"/>
+      <c r="AA49" s="21"/>
       <c r="AB49" s="21"/>
       <c r="AC49" s="21"/>
       <c r="AD49" s="21"/>
@@ -13621,29 +13018,25 @@
       <c r="FB49" s="21"/>
       <c r="FC49" s="21"/>
       <c r="FD49" s="21"/>
-      <c r="FE49" s="21"/>
-      <c r="FF49" s="21"/>
-      <c r="FG49" s="21"/>
-      <c r="FH49" s="21"/>
     </row>
-    <row r="50" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C50" s="22">
         <v>88</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G50" s="22">
         <v>1</v>
@@ -13652,62 +13045,54 @@
         <v>1</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K50" s="32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O50" s="32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q50" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R50" s="8" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S50" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="T50" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U50" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V50" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="V50" s="17" t="s">
+        <v>249</v>
       </c>
       <c r="W50" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="X50" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="Y50" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z50" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA50" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="21"/>
+      <c r="AA50" s="21"/>
       <c r="AB50" s="21"/>
       <c r="AC50" s="21"/>
       <c r="AD50" s="21"/>
@@ -13841,29 +13226,25 @@
       <c r="FB50" s="21"/>
       <c r="FC50" s="21"/>
       <c r="FD50" s="21"/>
-      <c r="FE50" s="21"/>
-      <c r="FF50" s="21"/>
-      <c r="FG50" s="21"/>
-      <c r="FH50" s="21"/>
     </row>
-    <row r="51" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C51" s="22">
         <v>92</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G51" s="24">
         <v>1</v>
@@ -13872,62 +13253,54 @@
         <v>1</v>
       </c>
       <c r="I51" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K51" s="32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M51" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O51" s="32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q51" s="31" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="R51" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="S51" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="T51" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U51" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V51" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="V51" s="17" t="s">
+        <v>186</v>
       </c>
       <c r="W51" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="X51" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y51" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z51" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA51" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="X51" s="21"/>
+      <c r="Y51" s="21"/>
+      <c r="Z51" s="21"/>
+      <c r="AA51" s="21"/>
       <c r="AB51" s="21"/>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -14061,29 +13434,25 @@
       <c r="FB51" s="21"/>
       <c r="FC51" s="21"/>
       <c r="FD51" s="21"/>
-      <c r="FE51" s="21"/>
-      <c r="FF51" s="21"/>
-      <c r="FG51" s="21"/>
-      <c r="FH51" s="21"/>
     </row>
-    <row r="52" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C52" s="22">
         <v>100</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G52" s="22">
         <v>1</v>
@@ -14092,60 +13461,52 @@
         <v>1</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K52" s="32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O52" s="32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q52" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="R52" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S52" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="T52" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U52" s="7"/>
-      <c r="V52" s="7" t="s">
-        <v>194</v>
+        <v>212</v>
+      </c>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V52" s="17" t="s">
+        <v>250</v>
       </c>
       <c r="W52" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="X52" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y52" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z52" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA52" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="X52" s="21"/>
+      <c r="Y52" s="21"/>
+      <c r="Z52" s="21"/>
+      <c r="AA52" s="21"/>
       <c r="AB52" s="21"/>
       <c r="AC52" s="21"/>
       <c r="AD52" s="21"/>
@@ -14279,29 +13640,25 @@
       <c r="FB52" s="21"/>
       <c r="FC52" s="21"/>
       <c r="FD52" s="21"/>
-      <c r="FE52" s="21"/>
-      <c r="FF52" s="21"/>
-      <c r="FG52" s="21"/>
-      <c r="FH52" s="21"/>
     </row>
-    <row r="53" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C53" s="22">
         <v>160</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G53" s="22">
         <v>1</v>
@@ -14310,59 +13667,51 @@
         <v>1</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J53" s="37" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L53" s="37" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N53" s="37" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q53" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="R53" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="S53" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="T53" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V53" s="7" t="s">
-        <v>194</v>
+        <v>169</v>
+      </c>
+      <c r="U53" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V53" s="17" t="s">
+        <v>190</v>
       </c>
       <c r="W53" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="X53" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y53" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z53" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA53" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="X53" s="21"/>
+      <c r="Y53" s="21"/>
+      <c r="Z53" s="21"/>
+      <c r="AA53" s="21"/>
       <c r="AB53" s="21"/>
       <c r="AC53" s="21"/>
       <c r="AD53" s="21"/>
@@ -14496,29 +13845,25 @@
       <c r="FB53" s="21"/>
       <c r="FC53" s="21"/>
       <c r="FD53" s="21"/>
-      <c r="FE53" s="21"/>
-      <c r="FF53" s="21"/>
-      <c r="FG53" s="21"/>
-      <c r="FH53" s="21"/>
     </row>
-    <row r="54" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C54" s="22">
         <v>162</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G54" s="24">
         <v>1</v>
@@ -14527,60 +13872,52 @@
         <v>1</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J54" s="37" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L54" s="37" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N54" s="37" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q54" s="29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R54" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S54" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T54" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U54" s="7"/>
-      <c r="V54" s="22">
+        <v>36</v>
+      </c>
+      <c r="T54" s="7"/>
+      <c r="U54" s="22">
         <v>27377618</v>
       </c>
+      <c r="V54" s="17" t="s">
+        <v>253</v>
+      </c>
       <c r="W54" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="X54" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y54" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z54" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA54" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="X54" s="21"/>
+      <c r="Y54" s="21"/>
+      <c r="Z54" s="21"/>
+      <c r="AA54" s="21"/>
       <c r="AB54" s="21"/>
       <c r="AC54" s="21"/>
       <c r="AD54" s="21"/>
@@ -14714,29 +14051,25 @@
       <c r="FB54" s="21"/>
       <c r="FC54" s="21"/>
       <c r="FD54" s="21"/>
-      <c r="FE54" s="21"/>
-      <c r="FF54" s="21"/>
-      <c r="FG54" s="21"/>
-      <c r="FH54" s="21"/>
     </row>
-    <row r="55" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C55" s="22">
         <v>163</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G55" s="24">
         <v>1</v>
@@ -14745,60 +14078,52 @@
         <v>1</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J55" s="37" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L55" s="37" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N55" s="37" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q55" s="29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R55" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S55" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T55" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U55" s="7"/>
-      <c r="V55" s="22">
+        <v>36</v>
+      </c>
+      <c r="T55" s="7"/>
+      <c r="U55" s="22">
         <v>27377618</v>
       </c>
+      <c r="V55" s="17" t="s">
+        <v>254</v>
+      </c>
       <c r="W55" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="X55" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y55" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z55" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA55" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="21"/>
+      <c r="Z55" s="21"/>
+      <c r="AA55" s="21"/>
       <c r="AB55" s="21"/>
       <c r="AC55" s="21"/>
       <c r="AD55" s="21"/>
@@ -14932,29 +14257,25 @@
       <c r="FB55" s="21"/>
       <c r="FC55" s="21"/>
       <c r="FD55" s="21"/>
-      <c r="FE55" s="21"/>
-      <c r="FF55" s="21"/>
-      <c r="FG55" s="21"/>
-      <c r="FH55" s="21"/>
     </row>
-    <row r="56" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C56" s="22">
         <v>164</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G56" s="24">
         <v>1</v>
@@ -14963,60 +14284,52 @@
         <v>1</v>
       </c>
       <c r="I56" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J56" s="37" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L56" s="37" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N56" s="37" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q56" s="29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R56" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S56" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T56" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U56" s="7"/>
-      <c r="V56" s="22">
+        <v>36</v>
+      </c>
+      <c r="T56" s="7"/>
+      <c r="U56" s="22">
         <v>27377618</v>
       </c>
+      <c r="V56" s="17" t="s">
+        <v>255</v>
+      </c>
       <c r="W56" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="X56" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y56" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z56" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA56" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="X56" s="21"/>
+      <c r="Y56" s="21"/>
+      <c r="Z56" s="21"/>
+      <c r="AA56" s="21"/>
       <c r="AB56" s="21"/>
       <c r="AC56" s="21"/>
       <c r="AD56" s="21"/>
@@ -15150,29 +14463,25 @@
       <c r="FB56" s="21"/>
       <c r="FC56" s="21"/>
       <c r="FD56" s="21"/>
-      <c r="FE56" s="21"/>
-      <c r="FF56" s="21"/>
-      <c r="FG56" s="21"/>
-      <c r="FH56" s="21"/>
     </row>
-    <row r="57" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A57" s="17" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C57" s="22">
         <v>174</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G57" s="24">
         <v>1</v>
@@ -15181,62 +14490,54 @@
         <v>1</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L57" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q57" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R57" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="S57" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="T57" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U57" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V57" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="V57" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="W57" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="X57" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y57" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z57" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA57" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="X57" s="21"/>
+      <c r="Y57" s="21"/>
+      <c r="Z57" s="21"/>
+      <c r="AA57" s="21"/>
       <c r="AB57" s="21"/>
       <c r="AC57" s="21"/>
       <c r="AD57" s="21"/>
@@ -15370,91 +14671,79 @@
       <c r="FB57" s="21"/>
       <c r="FC57" s="21"/>
       <c r="FD57" s="21"/>
-      <c r="FE57" s="21"/>
-      <c r="FF57" s="21"/>
-      <c r="FG57" s="21"/>
-      <c r="FH57" s="21"/>
     </row>
-    <row r="58" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C58" s="22">
         <v>175</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I58" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q58" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R58" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S58" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T58" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U58" s="7"/>
-      <c r="V58" s="7" t="s">
-        <v>194</v>
+        <v>36</v>
+      </c>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V58" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="W58" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="X58" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y58" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z58" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA58" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="X58" s="21"/>
+      <c r="Y58" s="21"/>
+      <c r="Z58" s="21"/>
+      <c r="AA58" s="21"/>
       <c r="AB58" s="21"/>
       <c r="AC58" s="21"/>
       <c r="AD58" s="21"/>
@@ -15588,91 +14877,79 @@
       <c r="FB58" s="21"/>
       <c r="FC58" s="21"/>
       <c r="FD58" s="21"/>
-      <c r="FE58" s="21"/>
-      <c r="FF58" s="21"/>
-      <c r="FG58" s="21"/>
-      <c r="FH58" s="21"/>
     </row>
-    <row r="59" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A59" s="17" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C59" s="22">
         <v>176</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I59" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q59" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R59" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S59" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T59" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U59" s="7"/>
-      <c r="V59" s="7" t="s">
-        <v>194</v>
+        <v>36</v>
+      </c>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V59" s="17" t="s">
+        <v>257</v>
       </c>
       <c r="W59" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="X59" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="Y59" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z59" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA59" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="X59" s="21"/>
+      <c r="Y59" s="21"/>
+      <c r="Z59" s="21"/>
+      <c r="AA59" s="21"/>
       <c r="AB59" s="21"/>
       <c r="AC59" s="21"/>
       <c r="AD59" s="21"/>
@@ -15806,29 +15083,25 @@
       <c r="FB59" s="21"/>
       <c r="FC59" s="21"/>
       <c r="FD59" s="21"/>
-      <c r="FE59" s="21"/>
-      <c r="FF59" s="21"/>
-      <c r="FG59" s="21"/>
-      <c r="FH59" s="21"/>
     </row>
-    <row r="60" spans="1:164" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:160" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C60" s="22">
         <v>180</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G60" s="24">
         <v>2</v>
@@ -15837,62 +15110,54 @@
         <v>2</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q60" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R60" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S60" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="T60" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U60" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V60" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="V60" s="17" t="s">
+        <v>143</v>
       </c>
       <c r="W60" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="X60" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y60" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z60" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA60" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X60" s="21"/>
+      <c r="Y60" s="21"/>
+      <c r="Z60" s="21"/>
+      <c r="AA60" s="21"/>
       <c r="AB60" s="21"/>
       <c r="AC60" s="21"/>
       <c r="AD60" s="21"/>
@@ -16026,29 +15291,25 @@
       <c r="FB60" s="21"/>
       <c r="FC60" s="21"/>
       <c r="FD60" s="21"/>
-      <c r="FE60" s="21"/>
-      <c r="FF60" s="21"/>
-      <c r="FG60" s="21"/>
-      <c r="FH60" s="21"/>
     </row>
-    <row r="61" spans="1:164" s="23" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:160" s="23" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="17" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C61" s="22">
         <v>187</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G61" s="22">
         <v>1</v>
@@ -16057,62 +15318,54 @@
         <v>1</v>
       </c>
       <c r="I61" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L61" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N61" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O61" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q61" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R61" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="S61" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="T61" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U61" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V61" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="V61" s="17" t="s">
+        <v>225</v>
       </c>
       <c r="W61" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="X61" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="Y61" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z61" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA61" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="21"/>
+      <c r="Z61" s="21"/>
+      <c r="AA61" s="21"/>
       <c r="AB61" s="21"/>
       <c r="AC61" s="21"/>
       <c r="AD61" s="21"/>
@@ -16246,29 +15499,25 @@
       <c r="FB61" s="21"/>
       <c r="FC61" s="21"/>
       <c r="FD61" s="21"/>
-      <c r="FE61" s="21"/>
-      <c r="FF61" s="21"/>
-      <c r="FG61" s="21"/>
-      <c r="FH61" s="21"/>
     </row>
-    <row r="62" spans="1:164" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:160" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="17" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C62" s="22">
         <v>190</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G62" s="22">
         <v>1</v>
@@ -16277,60 +15526,52 @@
         <v>1</v>
       </c>
       <c r="I62" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q62" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R62" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="S62" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="T62" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U62" s="6"/>
-      <c r="V62" s="7" t="s">
-        <v>194</v>
+        <v>218</v>
+      </c>
+      <c r="T62" s="6"/>
+      <c r="U62" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V62" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="W62" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="X62" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y62" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z62" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA62" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="X62" s="21"/>
+      <c r="Y62" s="21"/>
+      <c r="Z62" s="21"/>
+      <c r="AA62" s="21"/>
       <c r="AB62" s="21"/>
       <c r="AC62" s="21"/>
       <c r="AD62" s="21"/>
@@ -16464,91 +15705,79 @@
       <c r="FB62" s="21"/>
       <c r="FC62" s="21"/>
       <c r="FD62" s="21"/>
-      <c r="FE62" s="21"/>
-      <c r="FF62" s="21"/>
-      <c r="FG62" s="21"/>
-      <c r="FH62" s="21"/>
     </row>
-    <row r="63" spans="1:164" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:160" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="17" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C63" s="22">
         <v>191</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I63" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q63" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R63" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="S63" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="T63" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U63" s="6"/>
-      <c r="V63" s="7" t="s">
-        <v>194</v>
+        <v>63</v>
+      </c>
+      <c r="T63" s="6"/>
+      <c r="U63" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V63" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="W63" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="X63" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y63" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z63" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA63" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="X63" s="21"/>
+      <c r="Y63" s="21"/>
+      <c r="Z63" s="21"/>
+      <c r="AA63" s="21"/>
       <c r="AB63" s="21"/>
       <c r="AC63" s="21"/>
       <c r="AD63" s="21"/>
@@ -16682,90 +15911,78 @@
       <c r="FB63" s="21"/>
       <c r="FC63" s="21"/>
       <c r="FD63" s="21"/>
-      <c r="FE63" s="21"/>
-      <c r="FF63" s="21"/>
-      <c r="FG63" s="21"/>
-      <c r="FH63" s="21"/>
     </row>
-    <row r="64" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:160" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C64" s="22">
         <v>192</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I64" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q64" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R64" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S64" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="T64" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V64" s="7" t="s">
-        <v>194</v>
+        <v>61</v>
+      </c>
+      <c r="U64" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V64" s="17" t="s">
+        <v>188</v>
       </c>
       <c r="W64" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="X64" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y64" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z64" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA64" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="X64" s="21"/>
+      <c r="Y64" s="21"/>
+      <c r="Z64" s="21"/>
+      <c r="AA64" s="21"/>
       <c r="AB64" s="21"/>
       <c r="AC64" s="21"/>
       <c r="AD64" s="21"/>
@@ -16899,29 +16116,25 @@
       <c r="FB64" s="21"/>
       <c r="FC64" s="21"/>
       <c r="FD64" s="21"/>
-      <c r="FE64" s="21"/>
-      <c r="FF64" s="21"/>
-      <c r="FG64" s="21"/>
-      <c r="FH64" s="21"/>
     </row>
-    <row r="65" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A65" s="17" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C65" s="22">
         <v>197</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G65" s="26">
         <v>1</v>
@@ -16930,60 +16143,52 @@
         <v>1</v>
       </c>
       <c r="I65" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J65" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K65" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L65" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M65" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N65" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O65" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q65" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R65" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="S65" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="T65" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U65" s="6"/>
-      <c r="V65" s="7" t="s">
-        <v>194</v>
+        <v>283</v>
+      </c>
+      <c r="T65" s="6"/>
+      <c r="U65" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V65" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="W65" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="X65" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y65" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z65" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA65" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X65" s="21"/>
+      <c r="Y65" s="21"/>
+      <c r="Z65" s="21"/>
+      <c r="AA65" s="21"/>
       <c r="AB65" s="21"/>
       <c r="AC65" s="21"/>
       <c r="AD65" s="21"/>
@@ -17117,29 +16322,25 @@
       <c r="FB65" s="21"/>
       <c r="FC65" s="21"/>
       <c r="FD65" s="21"/>
-      <c r="FE65" s="21"/>
-      <c r="FF65" s="21"/>
-      <c r="FG65" s="21"/>
-      <c r="FH65" s="21"/>
     </row>
-    <row r="66" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A66" s="17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C66" s="22">
         <v>199</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G66" s="26">
         <v>1</v>
@@ -17148,60 +16349,52 @@
         <v>1</v>
       </c>
       <c r="I66" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J66" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K66" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L66" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M66" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N66" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O66" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q66" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R66" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="S66" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="T66" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U66" s="6"/>
-      <c r="V66" s="7" t="s">
-        <v>194</v>
+        <v>45</v>
+      </c>
+      <c r="T66" s="6"/>
+      <c r="U66" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V66" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="W66" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="X66" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y66" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z66" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA66" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="X66" s="21"/>
+      <c r="Y66" s="21"/>
+      <c r="Z66" s="21"/>
+      <c r="AA66" s="21"/>
       <c r="AB66" s="21"/>
       <c r="AC66" s="21"/>
       <c r="AD66" s="21"/>
@@ -17335,29 +16528,25 @@
       <c r="FB66" s="21"/>
       <c r="FC66" s="21"/>
       <c r="FD66" s="21"/>
-      <c r="FE66" s="21"/>
-      <c r="FF66" s="21"/>
-      <c r="FG66" s="21"/>
-      <c r="FH66" s="21"/>
     </row>
-    <row r="67" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A67" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C67" s="22">
         <v>201</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G67" s="24">
         <v>1</v>
@@ -17366,62 +16555,54 @@
         <v>1</v>
       </c>
       <c r="I67" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q67" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R67" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="S67" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="T67" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U67" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V67" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="V67" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="W67" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="X67" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y67" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z67" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA67" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="X67" s="21"/>
+      <c r="Y67" s="21"/>
+      <c r="Z67" s="21"/>
+      <c r="AA67" s="21"/>
       <c r="AB67" s="21"/>
       <c r="AC67" s="21"/>
       <c r="AD67" s="21"/>
@@ -17555,29 +16736,25 @@
       <c r="FB67" s="21"/>
       <c r="FC67" s="21"/>
       <c r="FD67" s="21"/>
-      <c r="FE67" s="21"/>
-      <c r="FF67" s="21"/>
-      <c r="FG67" s="21"/>
-      <c r="FH67" s="21"/>
     </row>
-    <row r="68" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A68" s="17" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C68" s="22">
         <v>202</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G68" s="24">
         <v>1</v>
@@ -17586,62 +16763,54 @@
         <v>1</v>
       </c>
       <c r="I68" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q68" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R68" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="S68" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="T68" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U68" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V68" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="V68" s="17" t="s">
+        <v>258</v>
       </c>
       <c r="W68" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="X68" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="Y68" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z68" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA68" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="X68" s="21"/>
+      <c r="Y68" s="21"/>
+      <c r="Z68" s="21"/>
+      <c r="AA68" s="21"/>
       <c r="AB68" s="21"/>
       <c r="AC68" s="21"/>
       <c r="AD68" s="21"/>
@@ -17775,29 +16944,25 @@
       <c r="FB68" s="21"/>
       <c r="FC68" s="21"/>
       <c r="FD68" s="21"/>
-      <c r="FE68" s="21"/>
-      <c r="FF68" s="21"/>
-      <c r="FG68" s="21"/>
-      <c r="FH68" s="21"/>
     </row>
-    <row r="69" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C69" s="22">
         <v>203</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G69" s="24">
         <v>1</v>
@@ -17806,62 +16971,54 @@
         <v>1</v>
       </c>
       <c r="I69" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N69" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O69" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q69" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R69" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S69" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T69" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U69" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V69" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="V69" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="W69" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="X69" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y69" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z69" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA69" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="X69" s="21"/>
+      <c r="Y69" s="21"/>
+      <c r="Z69" s="21"/>
+      <c r="AA69" s="21"/>
       <c r="AB69" s="21"/>
       <c r="AC69" s="21"/>
       <c r="AD69" s="21"/>
@@ -17995,29 +17152,25 @@
       <c r="FB69" s="21"/>
       <c r="FC69" s="21"/>
       <c r="FD69" s="21"/>
-      <c r="FE69" s="21"/>
-      <c r="FF69" s="21"/>
-      <c r="FG69" s="21"/>
-      <c r="FH69" s="21"/>
     </row>
-    <row r="70" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C70" s="22">
         <v>221</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G70" s="24">
         <v>1</v>
@@ -18026,62 +17179,54 @@
         <v>1</v>
       </c>
       <c r="I70" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M70" s="16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N70" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O70" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q70" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R70" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="S70" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="T70" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U70" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V70" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="V70" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="W70" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="X70" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y70" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z70" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA70" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="X70" s="21"/>
+      <c r="Y70" s="21"/>
+      <c r="Z70" s="21"/>
+      <c r="AA70" s="21"/>
       <c r="AB70" s="21"/>
       <c r="AC70" s="21"/>
       <c r="AD70" s="21"/>
@@ -18215,29 +17360,25 @@
       <c r="FB70" s="21"/>
       <c r="FC70" s="21"/>
       <c r="FD70" s="21"/>
-      <c r="FE70" s="21"/>
-      <c r="FF70" s="21"/>
-      <c r="FG70" s="21"/>
-      <c r="FH70" s="21"/>
     </row>
-    <row r="71" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C71" s="22">
         <v>365</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G71" s="22">
         <v>7</v>
@@ -18246,81 +17387,69 @@
         <v>7</v>
       </c>
       <c r="I71" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N71" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O71" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q71" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R71" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="S71" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="T71" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U71" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V71" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="V71" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="W71" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="X71" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y71" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z71" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA71" s="17" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C72" s="22">
         <v>366</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G72" s="22">
         <v>20</v>
@@ -18329,62 +17458,54 @@
         <v>20</v>
       </c>
       <c r="I72" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N72" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O72" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q72" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R72" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="S72" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="T72" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U72" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V72" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="V72" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="W72" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="X72" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y72" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z72" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA72" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="X72" s="21"/>
+      <c r="Y72" s="21"/>
+      <c r="Z72" s="21"/>
+      <c r="AA72" s="21"/>
       <c r="AB72" s="21"/>
       <c r="AC72" s="21"/>
       <c r="AD72" s="21"/>
@@ -18518,89 +17639,77 @@
       <c r="FB72" s="21"/>
       <c r="FC72" s="21"/>
       <c r="FD72" s="21"/>
-      <c r="FE72" s="21"/>
-      <c r="FF72" s="21"/>
-      <c r="FG72" s="21"/>
-      <c r="FH72" s="21"/>
     </row>
-    <row r="73" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A73" s="17" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C73" s="22">
         <v>367</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I73" s="22"/>
       <c r="J73" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q73" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R73" s="8" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="S73" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="T73" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U73" s="6"/>
-      <c r="V73" s="7" t="s">
-        <v>194</v>
+        <v>276</v>
+      </c>
+      <c r="T73" s="6"/>
+      <c r="U73" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V73" s="17" t="s">
+        <v>259</v>
       </c>
       <c r="W73" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="X73" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y73" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z73" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA73" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="X73" s="21"/>
+      <c r="Y73" s="21"/>
+      <c r="Z73" s="21"/>
+      <c r="AA73" s="21"/>
       <c r="AB73" s="21"/>
       <c r="AC73" s="21"/>
       <c r="AD73" s="21"/>
@@ -18734,89 +17843,77 @@
       <c r="FB73" s="21"/>
       <c r="FC73" s="21"/>
       <c r="FD73" s="21"/>
-      <c r="FE73" s="21"/>
-      <c r="FF73" s="21"/>
-      <c r="FG73" s="21"/>
-      <c r="FH73" s="21"/>
     </row>
-    <row r="74" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C74" s="22">
         <v>369</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I74" s="22"/>
       <c r="J74" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q74" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R74" s="36" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S74" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="T74" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U74" s="6"/>
-      <c r="V74" s="7" t="s">
-        <v>194</v>
+        <v>36</v>
+      </c>
+      <c r="T74" s="6"/>
+      <c r="U74" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V74" s="17" t="s">
+        <v>263</v>
       </c>
       <c r="W74" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="X74" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y74" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z74" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA74" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="X74" s="21"/>
+      <c r="Y74" s="21"/>
+      <c r="Z74" s="21"/>
+      <c r="AA74" s="21"/>
       <c r="AB74" s="21"/>
       <c r="AC74" s="21"/>
       <c r="AD74" s="21"/>
@@ -18950,29 +18047,25 @@
       <c r="FB74" s="21"/>
       <c r="FC74" s="21"/>
       <c r="FD74" s="21"/>
-      <c r="FE74" s="21"/>
-      <c r="FF74" s="21"/>
-      <c r="FG74" s="21"/>
-      <c r="FH74" s="21"/>
     </row>
-    <row r="75" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A75" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C75" s="22">
         <v>370</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G75" s="24">
         <v>1</v>
@@ -18981,60 +18074,52 @@
         <v>1</v>
       </c>
       <c r="I75" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L75" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N75" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O75" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q75" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R75" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="S75" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="T75" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U75" s="6"/>
-      <c r="V75" s="7" t="s">
-        <v>194</v>
+        <v>274</v>
+      </c>
+      <c r="T75" s="6"/>
+      <c r="U75" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V75" s="17" t="s">
+        <v>192</v>
       </c>
       <c r="W75" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="X75" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y75" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z75" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA75" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="X75" s="21"/>
+      <c r="Y75" s="21"/>
+      <c r="Z75" s="21"/>
+      <c r="AA75" s="21"/>
       <c r="AB75" s="21"/>
       <c r="AC75" s="21"/>
       <c r="AD75" s="21"/>
@@ -19168,89 +18253,77 @@
       <c r="FB75" s="21"/>
       <c r="FC75" s="21"/>
       <c r="FD75" s="21"/>
-      <c r="FE75" s="21"/>
-      <c r="FF75" s="21"/>
-      <c r="FG75" s="21"/>
-      <c r="FH75" s="21"/>
     </row>
-    <row r="76" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A76" s="17" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C76" s="22">
         <v>371</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I76" s="22"/>
       <c r="J76" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N76" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O76" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q76" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R76" s="8" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="S76" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="T76" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U76" s="6"/>
-      <c r="V76" s="7" t="s">
-        <v>194</v>
+        <v>278</v>
+      </c>
+      <c r="T76" s="6"/>
+      <c r="U76" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V76" s="17" t="s">
+        <v>259</v>
       </c>
       <c r="W76" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="X76" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y76" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z76" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA76" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="X76" s="21"/>
+      <c r="Y76" s="21"/>
+      <c r="Z76" s="21"/>
+      <c r="AA76" s="21"/>
       <c r="AB76" s="21"/>
       <c r="AC76" s="21"/>
       <c r="AD76" s="21"/>
@@ -19384,91 +18457,79 @@
       <c r="FB76" s="21"/>
       <c r="FC76" s="21"/>
       <c r="FD76" s="21"/>
-      <c r="FE76" s="21"/>
-      <c r="FF76" s="21"/>
-      <c r="FG76" s="21"/>
-      <c r="FH76" s="21"/>
     </row>
-    <row r="77" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A77" s="17" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C77" s="22">
         <v>372</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I77" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q77" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R77" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="S77" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="T77" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U77" s="6"/>
-      <c r="V77" s="7" t="s">
-        <v>194</v>
+        <v>233</v>
+      </c>
+      <c r="T77" s="6"/>
+      <c r="U77" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V77" s="17" t="s">
+        <v>230</v>
       </c>
       <c r="W77" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="X77" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="Y77" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z77" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA77" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="X77" s="21"/>
+      <c r="Y77" s="21"/>
+      <c r="Z77" s="21"/>
+      <c r="AA77" s="21"/>
       <c r="AB77" s="21"/>
       <c r="AC77" s="21"/>
       <c r="AD77" s="21"/>
@@ -19602,12 +18663,12 @@
       <c r="FB77" s="21"/>
       <c r="FC77" s="21"/>
       <c r="FD77" s="21"/>
-      <c r="FE77" s="21"/>
-      <c r="FF77" s="21"/>
-      <c r="FG77" s="21"/>
-      <c r="FH77" s="21"/>
     </row>
-    <row r="80" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:160" x14ac:dyDescent="0.2">
+      <c r="X80" s="21"/>
+      <c r="Y80" s="21"/>
+      <c r="Z80" s="21"/>
+      <c r="AA80" s="21"/>
       <c r="AB80" s="21"/>
       <c r="AC80" s="21"/>
       <c r="AD80" s="21"/>
@@ -19741,12 +18802,12 @@
       <c r="FB80" s="21"/>
       <c r="FC80" s="21"/>
       <c r="FD80" s="21"/>
-      <c r="FE80" s="21"/>
-      <c r="FF80" s="21"/>
-      <c r="FG80" s="21"/>
-      <c r="FH80" s="21"/>
     </row>
-    <row r="81" spans="28:164" x14ac:dyDescent="0.2">
+    <row r="81" spans="24:160" x14ac:dyDescent="0.2">
+      <c r="X81" s="21"/>
+      <c r="Y81" s="21"/>
+      <c r="Z81" s="21"/>
+      <c r="AA81" s="21"/>
       <c r="AB81" s="21"/>
       <c r="AC81" s="21"/>
       <c r="AD81" s="21"/>
@@ -19880,12 +18941,12 @@
       <c r="FB81" s="21"/>
       <c r="FC81" s="21"/>
       <c r="FD81" s="21"/>
-      <c r="FE81" s="21"/>
-      <c r="FF81" s="21"/>
-      <c r="FG81" s="21"/>
-      <c r="FH81" s="21"/>
     </row>
-    <row r="82" spans="28:164" x14ac:dyDescent="0.2">
+    <row r="82" spans="24:160" x14ac:dyDescent="0.2">
+      <c r="X82" s="21"/>
+      <c r="Y82" s="21"/>
+      <c r="Z82" s="21"/>
+      <c r="AA82" s="21"/>
       <c r="AB82" s="21"/>
       <c r="AC82" s="21"/>
       <c r="AD82" s="21"/>
@@ -20019,12 +19080,12 @@
       <c r="FB82" s="21"/>
       <c r="FC82" s="21"/>
       <c r="FD82" s="21"/>
-      <c r="FE82" s="21"/>
-      <c r="FF82" s="21"/>
-      <c r="FG82" s="21"/>
-      <c r="FH82" s="21"/>
     </row>
-    <row r="83" spans="28:164" x14ac:dyDescent="0.2">
+    <row r="83" spans="24:160" x14ac:dyDescent="0.2">
+      <c r="X83" s="21"/>
+      <c r="Y83" s="21"/>
+      <c r="Z83" s="21"/>
+      <c r="AA83" s="21"/>
       <c r="AB83" s="21"/>
       <c r="AC83" s="21"/>
       <c r="AD83" s="21"/>
@@ -20158,12 +19219,12 @@
       <c r="FB83" s="21"/>
       <c r="FC83" s="21"/>
       <c r="FD83" s="21"/>
-      <c r="FE83" s="21"/>
-      <c r="FF83" s="21"/>
-      <c r="FG83" s="21"/>
-      <c r="FH83" s="21"/>
     </row>
-    <row r="84" spans="28:164" x14ac:dyDescent="0.2">
+    <row r="84" spans="24:160" x14ac:dyDescent="0.2">
+      <c r="X84" s="21"/>
+      <c r="Y84" s="21"/>
+      <c r="Z84" s="21"/>
+      <c r="AA84" s="21"/>
       <c r="AB84" s="21"/>
       <c r="AC84" s="21"/>
       <c r="AD84" s="21"/>
@@ -20297,12 +19358,12 @@
       <c r="FB84" s="21"/>
       <c r="FC84" s="21"/>
       <c r="FD84" s="21"/>
-      <c r="FE84" s="21"/>
-      <c r="FF84" s="21"/>
-      <c r="FG84" s="21"/>
-      <c r="FH84" s="21"/>
     </row>
-    <row r="85" spans="28:164" x14ac:dyDescent="0.2">
+    <row r="85" spans="24:160" x14ac:dyDescent="0.2">
+      <c r="X85" s="21"/>
+      <c r="Y85" s="21"/>
+      <c r="Z85" s="21"/>
+      <c r="AA85" s="21"/>
       <c r="AB85" s="21"/>
       <c r="AC85" s="21"/>
       <c r="AD85" s="21"/>
@@ -20436,12 +19497,12 @@
       <c r="FB85" s="21"/>
       <c r="FC85" s="21"/>
       <c r="FD85" s="21"/>
-      <c r="FE85" s="21"/>
-      <c r="FF85" s="21"/>
-      <c r="FG85" s="21"/>
-      <c r="FH85" s="21"/>
     </row>
-    <row r="86" spans="28:164" x14ac:dyDescent="0.2">
+    <row r="86" spans="24:160" x14ac:dyDescent="0.2">
+      <c r="X86" s="21"/>
+      <c r="Y86" s="21"/>
+      <c r="Z86" s="21"/>
+      <c r="AA86" s="21"/>
       <c r="AB86" s="21"/>
       <c r="AC86" s="21"/>
       <c r="AD86" s="21"/>
@@ -20575,12 +19636,12 @@
       <c r="FB86" s="21"/>
       <c r="FC86" s="21"/>
       <c r="FD86" s="21"/>
-      <c r="FE86" s="21"/>
-      <c r="FF86" s="21"/>
-      <c r="FG86" s="21"/>
-      <c r="FH86" s="21"/>
     </row>
-    <row r="87" spans="28:164" x14ac:dyDescent="0.2">
+    <row r="87" spans="24:160" x14ac:dyDescent="0.2">
+      <c r="X87" s="21"/>
+      <c r="Y87" s="21"/>
+      <c r="Z87" s="21"/>
+      <c r="AA87" s="21"/>
       <c r="AB87" s="21"/>
       <c r="AC87" s="21"/>
       <c r="AD87" s="21"/>
@@ -20714,12 +19775,12 @@
       <c r="FB87" s="21"/>
       <c r="FC87" s="21"/>
       <c r="FD87" s="21"/>
-      <c r="FE87" s="21"/>
-      <c r="FF87" s="21"/>
-      <c r="FG87" s="21"/>
-      <c r="FH87" s="21"/>
     </row>
-    <row r="88" spans="28:164" x14ac:dyDescent="0.2">
+    <row r="88" spans="24:160" x14ac:dyDescent="0.2">
+      <c r="X88" s="21"/>
+      <c r="Y88" s="21"/>
+      <c r="Z88" s="21"/>
+      <c r="AA88" s="21"/>
       <c r="AB88" s="21"/>
       <c r="AC88" s="21"/>
       <c r="AD88" s="21"/>
@@ -20853,12 +19914,12 @@
       <c r="FB88" s="21"/>
       <c r="FC88" s="21"/>
       <c r="FD88" s="21"/>
-      <c r="FE88" s="21"/>
-      <c r="FF88" s="21"/>
-      <c r="FG88" s="21"/>
-      <c r="FH88" s="21"/>
     </row>
-    <row r="89" spans="28:164" x14ac:dyDescent="0.2">
+    <row r="89" spans="24:160" x14ac:dyDescent="0.2">
+      <c r="X89" s="21"/>
+      <c r="Y89" s="21"/>
+      <c r="Z89" s="21"/>
+      <c r="AA89" s="21"/>
       <c r="AB89" s="21"/>
       <c r="AC89" s="21"/>
       <c r="AD89" s="21"/>
@@ -20992,12 +20053,12 @@
       <c r="FB89" s="21"/>
       <c r="FC89" s="21"/>
       <c r="FD89" s="21"/>
-      <c r="FE89" s="21"/>
-      <c r="FF89" s="21"/>
-      <c r="FG89" s="21"/>
-      <c r="FH89" s="21"/>
     </row>
-    <row r="90" spans="28:164" x14ac:dyDescent="0.2">
+    <row r="90" spans="24:160" x14ac:dyDescent="0.2">
+      <c r="X90" s="21"/>
+      <c r="Y90" s="21"/>
+      <c r="Z90" s="21"/>
+      <c r="AA90" s="21"/>
       <c r="AB90" s="21"/>
       <c r="AC90" s="21"/>
       <c r="AD90" s="21"/>
@@ -21131,12 +20192,12 @@
       <c r="FB90" s="21"/>
       <c r="FC90" s="21"/>
       <c r="FD90" s="21"/>
-      <c r="FE90" s="21"/>
-      <c r="FF90" s="21"/>
-      <c r="FG90" s="21"/>
-      <c r="FH90" s="21"/>
     </row>
-    <row r="91" spans="28:164" x14ac:dyDescent="0.2">
+    <row r="91" spans="24:160" x14ac:dyDescent="0.2">
+      <c r="X91" s="21"/>
+      <c r="Y91" s="21"/>
+      <c r="Z91" s="21"/>
+      <c r="AA91" s="21"/>
       <c r="AB91" s="21"/>
       <c r="AC91" s="21"/>
       <c r="AD91" s="21"/>
@@ -21270,12 +20331,12 @@
       <c r="FB91" s="21"/>
       <c r="FC91" s="21"/>
       <c r="FD91" s="21"/>
-      <c r="FE91" s="21"/>
-      <c r="FF91" s="21"/>
-      <c r="FG91" s="21"/>
-      <c r="FH91" s="21"/>
     </row>
-    <row r="92" spans="28:164" x14ac:dyDescent="0.2">
+    <row r="92" spans="24:160" x14ac:dyDescent="0.2">
+      <c r="X92" s="21"/>
+      <c r="Y92" s="21"/>
+      <c r="Z92" s="21"/>
+      <c r="AA92" s="21"/>
       <c r="AB92" s="21"/>
       <c r="AC92" s="21"/>
       <c r="AD92" s="21"/>
@@ -21409,13 +20470,9 @@
       <c r="FB92" s="21"/>
       <c r="FC92" s="21"/>
       <c r="FD92" s="21"/>
-      <c r="FE92" s="21"/>
-      <c r="FF92" s="21"/>
-      <c r="FG92" s="21"/>
-      <c r="FH92" s="21"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA79">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W79">
     <sortCondition ref="C2:C79"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -21435,22 +20492,22 @@
   <sheetData>
     <row r="1" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C1" s="22">
         <v>53</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G1" s="24">
         <v>1</v>
@@ -21459,59 +20516,59 @@
         <v>1</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U1" s="7"/>
       <c r="V1" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="W1" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="X1" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Y1" s="17" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z1" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="AA1" s="17" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB1" s="21"/>
       <c r="AC1" s="21"/>
